--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N294"/>
+  <dimension ref="A1:N300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/17904743937230556', 'id': '17904743937230556', 'text': 'Yo tengo el regalo y la estrella y no sale nada más', 'ownerUsername': 'sarasofia1823', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.2885-19/21911148_1939140299659416_218538162337611776_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MjAuQzMifQ%3D%3D&amp;_nc_ohc=qsop_007OAgQ7kNvwFfMeQg&amp;_nc_oc=AdlSEsNoJwxe-fL65JHKS72w4HLF5Tk_8CqUtLo8iZwjuAXwVPA0teFXZKHixFJjxtU&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.cdninstagram.com&amp;oh=00_AfZcufYlnRYKVS1Xi4X43aTirWdBIWYQZYHFIZbmH7KCwA&amp;oe=68CF7F36', 'timestamp': '2025-08-31T04:53:11.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406028389691', 'full_name': 'Andre_Caro', 'id': '6077528946', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '1608938044534940549', 'profile_pic_url': 'https://scontent-lax3-2.cdninstagram.com/v/t51.2885-19/21911148_1939140299659416_218538162337611776_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MjAuQzMifQ%3D%3D&amp;_nc_ohc=qsop_007OAgQ7kNvwFfMeQg&amp;_nc_oc=AdlSEsNoJwxe-fL65JHKS72w4HLF5Tk_8CqUtLo8iZwjuAXwVPA0teFXZKHixFJjxtU&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.cdninstagram.com&amp;oh=00_AfZcufYlnRYKVS1Xi4X43aTirWdBIWYQZYHFIZbmH7KCwA&amp;oe=68CF7F36', 'username': 'sarasofia1823'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/17904743937230556', 'id': '17904743937230556', 'text': 'Yo tengo el regalo y la estrella y no sale nada más', 'ownerUsername': 'sarasofia1823', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.2885-19/21911148_1939140299659416_218538162337611776_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GGxWTgGYGLtIo_MGAAAAAABNZwgDbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MjAuQzMifQ%3D%3D&amp;_nc_ohc=qsop_007OAgQ7kNvwGKk-j6&amp;_nc_oc=AdmDE9J4cMf5KWlXTQh-Q72BVcZDCVNCR508bTzc7p7qjs5UJYp84ncLhIubLbvoEPo&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.cdninstagram.com&amp;oh=00_Afbag8hQa1gI6djRNdvUQ9iy8iFcJS4DoH9hHBQpDoF1wQ&amp;oe=68D09876', 'timestamp': '2025-08-31T04:53:11.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406028389691', 'full_name': 'Andre_Caro', 'id': '6077528946', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '1608938044534940549', 'profile_pic_url': 'https://scontent-iad3-2.cdninstagram.com/v/t51.2885-19/21911148_1939140299659416_218538162337611776_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GGxWTgGYGLtIo_MGAAAAAABNZwgDbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MjAuQzMifQ%3D%3D&amp;_nc_ohc=qsop_007OAgQ7kNvwGKk-j6&amp;_nc_oc=AdmDE9J4cMf5KWlXTQh-Q72BVcZDCVNCR508bTzc7p7qjs5UJYp84ncLhIubLbvoEPo&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.cdninstagram.com&amp;oh=00_Afbag8hQa1gI6djRNdvUQ9iy8iFcJS4DoH9hHBQpDoF1wQ&amp;oe=68D09876', 'username': 'sarasofia1823'}}</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18082485682907011', 'id': '18082485682907011', 'text': 'Pensé que era el único jajajaja nada del premio', 'ownerUsername': 'luisny2234', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/457867768_1051394046694506_1012659243833018400_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=2GvRpDdBLdkQ7kNvwFwu7jt&amp;_nc_oc=AdkooAkKxRpQUpE5kXiU5UvegfBo7kkDtml9d7VU7TrS4x-KxB3-XuO-1jnkfkD-C90&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfaztemCbGYAQLonXTV8O9mrkQsti0DCsmuL9qEZ4cpFRg&amp;oe=68CF97C8', 'timestamp': '2025-08-30T00:16:41.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 1, 'owner': {'fbid_v2': '17841402286159531', 'full_name': 'Luis Navas Yrazabal', 'id': '2236252205', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3447888495445571002', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/457867768_1051394046694506_1012659243833018400_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=2GvRpDdBLdkQ7kNvwFwu7jt&amp;_nc_oc=AdkooAkKxRpQUpE5kXiU5UvegfBo7kkDtml9d7VU7TrS4x-KxB3-XuO-1jnkfkD-C90&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfaztemCbGYAQLonXTV8O9mrkQsti0DCsmuL9qEZ4cpFRg&amp;oe=68CF97C8', 'username': 'luisny2234'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18082485682907011', 'id': '18082485682907011', 'text': 'Pensé que era el único jajajaja nada del premio', 'ownerUsername': 'luisny2234', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/457867768_1051394046694506_1012659243833018400_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ig_cache_key=GPiBShtqFKzAPLwDACDILos3sA0ObkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=2GvRpDdBLdkQ7kNvwHNmduT&amp;_nc_oc=AdloB8PSo_xK1b-rWIDdSbUnShTjW610qZuUlD2gomob5dndEw3qcsAND5zsIFANsqo&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_AfbJstUALqAuQxInLYebVSAe-GVxGvQeIR0jCjmyfoGGtw&amp;oe=68D078C8', 'timestamp': '2025-08-30T00:16:41.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 1, 'owner': {'fbid_v2': '17841402286159531', 'full_name': 'Luis Navas Yrazabal', 'id': '2236252205', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3447888495445571002', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/457867768_1051394046694506_1012659243833018400_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ig_cache_key=GPiBShtqFKzAPLwDACDILos3sA0ObkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=2GvRpDdBLdkQ7kNvwHNmduT&amp;_nc_oc=AdloB8PSo_xK1b-rWIDdSbUnShTjW610qZuUlD2gomob5dndEw3qcsAND5zsIFANsqo&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_AfbJstUALqAuQxInLYebVSAe-GVxGvQeIR0jCjmyfoGGtw&amp;oe=68D078C8', 'username': 'luisny2234'}}</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18087212188834287', 'id': '18087212188834287', 'text': 'Noooo prefiero comprar otra cosa porque ya tengo 20 de gana bono de y no sale nada mas,mejor compro papas margarita que me da plata en nequi', 'ownerUsername': 'patricia_rc0314', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=s5lGpNsuuEMQ7kNvwHVmqSg&amp;_nc_oc=Adkq5n_YKuRx7CL8Zfwc9kOCwqFi1yaag3kf4zUX_AdzAmx8N4O6OphWjPP_UnsPnaA&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfZjnSNoIzJqWaKWvhlA4MMmfjqOSpt-DJJYKy0B04zj8Q&amp;oe=68CF7DCD', 'timestamp': '2025-08-28T16:13:22.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 2, 'owner': {'fbid_v2': '17841437076287467', 'full_name': 'Patricia Ramirez', 'id': '37019739876', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2989083268729601379', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=s5lGpNsuuEMQ7kNvwHVmqSg&amp;_nc_oc=Adkq5n_YKuRx7CL8Zfwc9kOCwqFi1yaag3kf4zUX_AdzAmx8N4O6OphWjPP_UnsPnaA&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfZjnSNoIzJqWaKWvhlA4MMmfjqOSpt-DJJYKy0B04zj8Q&amp;oe=68CF7DCD', 'username': 'patricia_rc0314'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18087212188834287', 'id': '18087212188834287', 'text': 'Noooo prefiero comprar otra cosa porque ya tengo 20 de gana bono de y no sale nada mas,mejor compro papas margarita que me da plata en nequi', 'ownerUsername': 'patricia_rc0314', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=s5lGpNsuuEMQ7kNvwEyu7G8&amp;_nc_oc=AdlbwmRxR2_1xhzohesqU-tgaErOe8dkr361iJYegT7tQNwcaKiTqoGeVVOuYc2dt70&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_AfYqCkVDa3HBR0UiGW0qSliCYaABPzpHfhtOkj3X0VhsCw&amp;oe=68D0970D', 'timestamp': '2025-08-28T16:13:22.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 2, 'owner': {'fbid_v2': '17841437076287467', 'full_name': 'Patricia Ramirez', 'id': '37019739876', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2989083268729601379', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=s5lGpNsuuEMQ7kNvwEyu7G8&amp;_nc_oc=AdlbwmRxR2_1xhzohesqU-tgaErOe8dkr361iJYegT7tQNwcaKiTqoGeVVOuYc2dt70&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_AfYqCkVDa3HBR0UiGW0qSliCYaABPzpHfhtOkj3X0VhsCw&amp;oe=68D0970D', 'username': 'patricia_rc0314'}}</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18154319803391261', 'id': '18154319803391261', 'text': 'SE ACABÓ LA PROMO????? NO SIRVE EL ENLACE PARA REGISTRAR LAS ETIQUETAS Y LOS CÓDIGOS', 'ownerUsername': 'flywithmelib', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.82787-19/527339137_18520244029061640_461975705700376262_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=ZLANONhS2dQQ7kNvwF8TNEL&amp;_nc_oc=Adlmc9pbvrveAT1oqnVj3glv44XiGJUl1S4FPQiWZm86LBcIqMEp06fvC9WVjmiQWCM&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;_nc_gid=rdIqbuu_qht5xwNaqUzWXg&amp;oh=00_AfaV2_jWyM603EQEJOqy_Oik3ozOxdOrRb_6Jg5k6-eumw&amp;oe=68CF899C', 'timestamp': '2025-08-31T18:24:23.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401849186020', 'full_name': 'Immelissabel✈️🇨🇴', 'id': '1025341639', 'is_mentionable': False, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3691881045453868236', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.82787-19/527339137_18520244029061640_461975705700376262_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=ZLANONhS2dQQ7kNvwF8TNEL&amp;_nc_oc=Adlmc9pbvrveAT1oqnVj3glv44XiGJUl1S4FPQiWZm86LBcIqMEp06fvC9WVjmiQWCM&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;_nc_gid=rdIqbuu_qht5xwNaqUzWXg&amp;oh=00_AfaV2_jWyM603EQEJOqy_Oik3ozOxdOrRb_6Jg5k6-eumw&amp;oe=68CF899C', 'username': 'flywithmelib'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18154319803391261', 'id': '18154319803391261', 'text': 'SE ACABÓ LA PROMO????? NO SIRVE EL ENLACE PARA REGISTRAR LAS ETIQUETAS Y LOS CÓDIGOS', 'ownerUsername': 'flywithmelib', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.82787-19/527339137_18520244029061640_461975705700376262_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GIGObh8IeoFWEMxBAMaeIel0RGkGbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=ZLANONhS2dQQ7kNvwHtaipR&amp;_nc_oc=AdlzzpJ_-gKUTHdCixWyNjb8gGOjTvG0TRrEZI9z6EgcnYdKu7ArQk6vB5f19KsxFHY&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;_nc_gid=SsqER6jdnqplxelI4bfwjg&amp;oh=00_AfbSudvNxcgR9TwKVsVFAE-k_a_xxyNEX0sdC3j5qjgVJA&amp;oe=68D0A2DC', 'timestamp': '2025-08-31T18:24:23.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401849186020', 'full_name': 'Immelissabel✈️🇨🇴', 'id': '1025341639', 'is_mentionable': False, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3691881045453868236', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.82787-19/527339137_18520244029061640_461975705700376262_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GIGObh8IeoFWEMxBAMaeIel0RGkGbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=ZLANONhS2dQQ7kNvwHtaipR&amp;_nc_oc=AdlzzpJ_-gKUTHdCixWyNjb8gGOjTvG0TRrEZI9z6EgcnYdKu7ArQk6vB5f19KsxFHY&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;_nc_gid=SsqER6jdnqplxelI4bfwjg&amp;oh=00_AfbSudvNxcgR9TwKVsVFAE-k_a_xxyNEX0sdC3j5qjgVJA&amp;oe=68D0A2DC', 'username': 'flywithmelib'}}</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/17914497912049995', 'id': '17914497912049995', 'text': 'Solo sale Gana Bono de  no salen mas,pura mentira eso', 'ownerUsername': 'patricia_rc0314', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=s5lGpNsuuEMQ7kNvwHVmqSg&amp;_nc_oc=Adkq5n_YKuRx7CL8Zfwc9kOCwqFi1yaag3kf4zUX_AdzAmx8N4O6OphWjPP_UnsPnaA&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfZjnSNoIzJqWaKWvhlA4MMmfjqOSpt-DJJYKy0B04zj8Q&amp;oe=68CF7DCD', 'timestamp': '2025-08-24T17:17:46.000Z', 'repliesCount': 2, 'replies': [], 'likesCount': 3, 'owner': {'fbid_v2': '17841437076287467', 'full_name': 'Patricia Ramirez', 'id': '37019739876', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2989083268729601379', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=s5lGpNsuuEMQ7kNvwHVmqSg&amp;_nc_oc=Adkq5n_YKuRx7CL8Zfwc9kOCwqFi1yaag3kf4zUX_AdzAmx8N4O6OphWjPP_UnsPnaA&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfZjnSNoIzJqWaKWvhlA4MMmfjqOSpt-DJJYKy0B04zj8Q&amp;oe=68CF7DCD', 'username': 'patricia_rc0314'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/17914497912049995', 'id': '17914497912049995', 'text': 'Solo sale Gana Bono de  no salen mas,pura mentira eso', 'ownerUsername': 'patricia_rc0314', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=s5lGpNsuuEMQ7kNvwEyu7G8&amp;_nc_oc=AdlbwmRxR2_1xhzohesqU-tgaErOe8dkr361iJYegT7tQNwcaKiTqoGeVVOuYc2dt70&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_AfYqCkVDa3HBR0UiGW0qSliCYaABPzpHfhtOkj3X0VhsCw&amp;oe=68D0970D', 'timestamp': '2025-08-24T17:17:46.000Z', 'repliesCount': 2, 'replies': [], 'likesCount': 3, 'owner': {'fbid_v2': '17841437076287467', 'full_name': 'Patricia Ramirez', 'id': '37019739876', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2989083268729601379', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=s5lGpNsuuEMQ7kNvwEyu7G8&amp;_nc_oc=AdlbwmRxR2_1xhzohesqU-tgaErOe8dkr361iJYegT7tQNwcaKiTqoGeVVOuYc2dt70&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_AfYqCkVDa3HBR0UiGW0qSliCYaABPzpHfhtOkj3X0VhsCw&amp;oe=68D0970D', 'username': 'patricia_rc0314'}}</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18049169207312341', 'id': '18049169207312341', 'text': 'Buenísimos! Ya me gané un viaje con Wingo', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=16aTvavuPWIQ7kNvwHd-0gJ&amp;_nc_oc=Adlq9hsr2rSBL0O_co915kSpdbSkzK55Hh-XGTuG9HI4Bej2y221aiunWXD4_cGCHVU&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfaDilTjG2VdY_cKtIYIe8x_C1Q4bA7N4lHbY_oxme7L0g&amp;oe=68CF6CD1', 'timestamp': '2025-09-15T20:20:28.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=16aTvavuPWIQ7kNvwHd-0gJ&amp;_nc_oc=Adlq9hsr2rSBL0O_co915kSpdbSkzK55Hh-XGTuG9HI4Bej2y221aiunWXD4_cGCHVU&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfaDilTjG2VdY_cKtIYIe8x_C1Q4bA7N4lHbY_oxme7L0g&amp;oe=68CF6CD1', 'username': 'danielbp4'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18049169207312341', 'id': '18049169207312341', 'text': 'Buenísimos! Ya me gané un viaje con Wingo', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=p0mGFCLeAqEQ7kNvwHEqHcv&amp;_nc_oc=Adl1q2cpxlRU3oZXUniihikzxh33talrHQXiTvCcYmAGpXTjgixaz3EQ5wuVgUWWKuM&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfaxKdl5O8WIGwRMsF-LOQfY4AuZZxulOep8Jqi0TduHYQ&amp;oe=68D08611', 'timestamp': '2025-09-15T20:20:28.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=p0mGFCLeAqEQ7kNvwHEqHcv&amp;_nc_oc=Adl1q2cpxlRU3oZXUniihikzxh33talrHQXiTvCcYmAGpXTjgixaz3EQ5wuVgUWWKuM&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfaxKdl5O8WIGwRMsF-LOQfY4AuZZxulOep8Jqi0TduHYQ&amp;oe=68D08611', 'username': 'danielbp4'}}</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18088290970796704', 'id': '18088290970796704', 'text': 'and what pass what no my those delivery my from i make the vertion my offerted after of all kaligraficoz is a reality when termind and conditions in the trasher', 'ownerUsername': 'realdaneyescobar', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/424827397_1044897176739860_4804732201523493492_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MTIuQzMifQ%3D%3D&amp;_nc_ohc=t0NbtEHc_e0Q7kNvwHZT6zA&amp;_nc_oc=Adn11rzkgFATRBZdkNj131S5hTFf2tLbA_2bgk2mXmGI7ZuOg14FltJtk9BvivAxfw4&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfaDP76xaJldXIGTZMu4ardg-N7HXZMXGifLti4dsIHbPA&amp;oe=68CF942D', 'timestamp': '2025-08-15T16:06:33.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841402090809377', 'full_name': 'Graffity Artist', 'id': '2075021693', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3293974623514436809', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/424827397_1044897176739860_4804732201523493492_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MTIuQzMifQ%3D%3D&amp;_nc_ohc=t0NbtEHc_e0Q7kNvwHZT6zA&amp;_nc_oc=Adn11rzkgFATRBZdkNj131S5hTFf2tLbA_2bgk2mXmGI7ZuOg14FltJtk9BvivAxfw4&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfaDP76xaJldXIGTZMu4ardg-N7HXZMXGifLti4dsIHbPA&amp;oe=68CF942D', 'username': 'realdaneyescobar'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18088290970796704', 'id': '18088290970796704', 'text': 'and what pass what no my those delivery my from i make the vertion my offerted after of all kaligraficoz is a reality when termind and conditions in the trasher', 'ownerUsername': 'realdaneyescobar', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/424827397_1044897176739860_4804732201523493492_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MTIuQzMifQ%3D%3D&amp;_nc_ohc=t0NbtEHc_e0Q7kNvwGWYYn8&amp;_nc_oc=AdlGTJ4DqHXtgvsHpyzXt0aOV9IT4J-R_CBA8_iFyy0otgM-g6Dt3bcaUkaeghbPmo8&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfYaZ3Ilc0VewsXFZJ7xNeEFSPXHpspv3phmpYb3pHFcrg&amp;oe=68D0752D', 'timestamp': '2025-08-15T16:06:33.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841402090809377', 'full_name': 'Graffity Artist', 'id': '2075021693', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3293974623514436809', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/424827397_1044897176739860_4804732201523493492_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MTIuQzMifQ%3D%3D&amp;_nc_ohc=t0NbtEHc_e0Q7kNvwGWYYn8&amp;_nc_oc=AdlGTJ4DqHXtgvsHpyzXt0aOV9IT4J-R_CBA8_iFyy0otgM-g6Dt3bcaUkaeghbPmo8&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfYaZ3Ilc0VewsXFZJ7xNeEFSPXHpspv3phmpYb3pHFcrg&amp;oe=68D0752D', 'username': 'realdaneyescobar'}}</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18401573713187124', 'id': '18401573713187124', 'text': 'No esos premios no salen ya compré 15 y nada', 'ownerUsername': 'dianamarceladiaz_', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/464924557_535747669073398_73713164185481327_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=82fegjB1RWsQ7kNvwF5WPTu&amp;_nc_oc=AdmBPwkVp5n_oIwfHkoMrZBbqfH0OoGMMPRZ7M0Nd-NFtWH4AAlFSbsUa1j6lyhSTUw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfYBILeOAdMdarqXbkdSHwaRS7hDCbVcEzvUnkzP5AeZCw&amp;oe=68CF7D45', 'timestamp': '2025-09-10T12:54:30.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841400902536425', 'full_name': 'Diana Marcela Diaz Quintero', 'id': '1051230084', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1758046086, 'profile_pic_id': '3489825159090091672', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/464924557_535747669073398_73713164185481327_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=82fegjB1RWsQ7kNvwF5WPTu&amp;_nc_oc=AdmBPwkVp5n_oIwfHkoMrZBbqfH0OoGMMPRZ7M0Nd-NFtWH4AAlFSbsUa1j6lyhSTUw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfYBILeOAdMdarqXbkdSHwaRS7hDCbVcEzvUnkzP5AeZCw&amp;oe=68CF7D45', 'username': 'dianamarceladiaz_'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18401573713187124', 'id': '18401573713187124', 'text': 'No esos premios no salen ya compré 15 y nada', 'ownerUsername': 'dianamarceladiaz_', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/464924557_535747669073398_73713164185481327_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=82fegjB1RWsQ7kNvwHVLF-A&amp;_nc_oc=AdmZDRAq57Re17qh8auzL6_hYMHiYuVHnFsLdob0lOtwznzGgMZNMTzODYHbKkBAxRQ&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_Afa0EAnoMK7RF6nWYQ_blu8tBbimme4giGeF-rP5Gsn55A&amp;oe=68D09685', 'timestamp': '2025-09-10T12:54:30.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841400902536425', 'full_name': 'Diana Marcela Diaz Quintero', 'id': '1051230084', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1758062044, 'profile_pic_id': '3489825159090091672', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/464924557_535747669073398_73713164185481327_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=82fegjB1RWsQ7kNvwHVLF-A&amp;_nc_oc=AdmZDRAq57Re17qh8auzL6_hYMHiYuVHnFsLdob0lOtwznzGgMZNMTzODYHbKkBAxRQ&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_Afa0EAnoMK7RF6nWYQ_blu8tBbimme4giGeF-rP5Gsn55A&amp;oe=68D09685', 'username': 'dianamarceladiaz_'}}</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/17869367490434445', 'id': '17869367490434445', 'text': 'Buenísima!!', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-sjc3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=16aTvavuPWIQ7kNvwG_KIrP&amp;_nc_oc=AdlWL-UsI61r0JckovsJvYWFDNrYdnJcHhnXtG_sD4DhnXlUFJzRfwz5lYkjZRtuuns&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.cdninstagram.com&amp;oh=00_AfYhkS1IDCz6zXWYyM_MeS5zCWfRLHnn19Fo-rSov0zPfA&amp;oe=68CF6CD1', 'timestamp': '2025-09-15T21:16:39.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-sjc3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=16aTvavuPWIQ7kNvwG_KIrP&amp;_nc_oc=AdlWL-UsI61r0JckovsJvYWFDNrYdnJcHhnXtG_sD4DhnXlUFJzRfwz5lYkjZRtuuns&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.cdninstagram.com&amp;oh=00_AfYhkS1IDCz6zXWYyM_MeS5zCWfRLHnn19Fo-rSov0zPfA&amp;oe=68CF6CD1', 'username': 'danielbp4'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/17869367490434445', 'id': '17869367490434445', 'text': 'Buenísima!!', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-sea5-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=p0mGFCLeAqEQ7kNvwH2cZnf&amp;_nc_oc=Adky14D116qY_92h0fgCZzwkZU0e8M91g9HBDiquJuilMK8M4mbOEHJYhxD6YsTEOro&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.cdninstagram.com&amp;oh=00_AfaOtZMnuv-rHlRYOnpqe6j1D2ohA_KfxJO5wkeGuKcMBA&amp;oe=68D08611', 'timestamp': '2025-09-15T21:16:39.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-sea5-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=p0mGFCLeAqEQ7kNvwH2cZnf&amp;_nc_oc=Adky14D116qY_92h0fgCZzwkZU0e8M91g9HBDiquJuilMK8M4mbOEHJYhxD6YsTEOro&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.cdninstagram.com&amp;oh=00_AfaOtZMnuv-rHlRYOnpqe6j1D2ohA_KfxJO5wkeGuKcMBA&amp;oe=68D08611', 'username': 'danielbp4'}}</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/18067220132251782', 'id': '18067220132251782', 'text': 'Buenísimos bonos 🛍️🤑', 'ownerUsername': 'la_titi_iregui', 'ownerProfilePicUrl': 'https://scontent-sjc6-1.cdninstagram.com/v/t51.2885-19/294887052_741799106873453_3778519975709069666_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=MANl2DFBhLoQ7kNvwHaXr2G&amp;_nc_oc=AdlbIKaJvcgFG45bke5f16q_Joc3wJ1XVDqZOYuyfu6W4mddEeQaqpq6LhlMLyDpedw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.cdninstagram.com&amp;oh=00_AfalIvWYhqBxEAcnRQmQeo6Huf3nIjau70a1ID9reByGXA&amp;oe=68CF7E91', 'timestamp': '2025-09-15T23:56:43.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401487910056', 'full_name': 'Cristina Iregui Casas', 'id': '3633597', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2888115834838359994', 'profile_pic_url': 'https://scontent-sjc6-1.cdninstagram.com/v/t51.2885-19/294887052_741799106873453_3778519975709069666_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=MANl2DFBhLoQ7kNvwHaXr2G&amp;_nc_oc=AdlbIKaJvcgFG45bke5f16q_Joc3wJ1XVDqZOYuyfu6W4mddEeQaqpq6LhlMLyDpedw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.cdninstagram.com&amp;oh=00_AfalIvWYhqBxEAcnRQmQeo6Huf3nIjau70a1ID9reByGXA&amp;oe=68CF7E91', 'username': 'la_titi_iregui'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/18067220132251782', 'id': '18067220132251782', 'text': 'Buenísimos bonos 🛍️🤑', 'ownerUsername': 'la_titi_iregui', 'ownerProfilePicUrl': 'https://scontent-sea1-1.cdninstagram.com/v/t51.2885-19/294887052_741799106873453_3778519975709069666_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=MANl2DFBhLoQ7kNvwEtc2pN&amp;_nc_oc=AdlXhgoqXPRe62jiMyb7iBKkbOvTBTk7nFdVkeRssqpr1C6EXwBuvX16TsrEJYVmiCc&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.cdninstagram.com&amp;oh=00_Afa9-6Fd9Y9uWfOFjLsUlF2NLnloHkDrgN-El6TFHEjEnw&amp;oe=68D097D1', 'timestamp': '2025-09-15T23:56:43.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401487910056', 'full_name': 'Cristina Iregui Casas', 'id': '3633597', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2888115834838359994', 'profile_pic_url': 'https://scontent-sea1-1.cdninstagram.com/v/t51.2885-19/294887052_741799106873453_3778519975709069666_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=MANl2DFBhLoQ7kNvwEtc2pN&amp;_nc_oc=AdlXhgoqXPRe62jiMyb7iBKkbOvTBTk7nFdVkeRssqpr1C6EXwBuvX16TsrEJYVmiCc&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.cdninstagram.com&amp;oh=00_Afa9-6Fd9Y9uWfOFjLsUlF2NLnloHkDrgN-El6TFHEjEnw&amp;oe=68D097D1', 'username': 'la_titi_iregui'}}</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/18402628888141774', 'id': '18402628888141774', 'text': 'Me gané un bono de wingo', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-sjc3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=16aTvavuPWIQ7kNvwG_KIrP&amp;_nc_oc=AdlWL-UsI61r0JckovsJvYWFDNrYdnJcHhnXtG_sD4DhnXlUFJzRfwz5lYkjZRtuuns&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.cdninstagram.com&amp;oh=00_AfYhkS1IDCz6zXWYyM_MeS5zCWfRLHnn19Fo-rSov0zPfA&amp;oe=68CF6CD1', 'timestamp': '2025-09-15T21:16:49.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-sjc3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=16aTvavuPWIQ7kNvwG_KIrP&amp;_nc_oc=AdlWL-UsI61r0JckovsJvYWFDNrYdnJcHhnXtG_sD4DhnXlUFJzRfwz5lYkjZRtuuns&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.cdninstagram.com&amp;oh=00_AfYhkS1IDCz6zXWYyM_MeS5zCWfRLHnn19Fo-rSov0zPfA&amp;oe=68CF6CD1', 'username': 'danielbp4'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/18402628888141774', 'id': '18402628888141774', 'text': 'Me gané un bono de wingo', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-sea5-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=p0mGFCLeAqEQ7kNvwH2cZnf&amp;_nc_oc=Adky14D116qY_92h0fgCZzwkZU0e8M91g9HBDiquJuilMK8M4mbOEHJYhxD6YsTEOro&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.cdninstagram.com&amp;oh=00_AfaOtZMnuv-rHlRYOnpqe6j1D2ohA_KfxJO5wkeGuKcMBA&amp;oe=68D08611', 'timestamp': '2025-09-15T21:16:49.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-sea5-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=p0mGFCLeAqEQ7kNvwH2cZnf&amp;_nc_oc=Adky14D116qY_92h0fgCZzwkZU0e8M91g9HBDiquJuilMK8M4mbOEHJYhxD6YsTEOro&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.cdninstagram.com&amp;oh=00_AfaOtZMnuv-rHlRYOnpqe6j1D2ohA_KfxJO5wkeGuKcMBA&amp;oe=68D08611', 'username': 'danielbp4'}}</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0cfCSmmeoU8Hy91HXweAQzvu4f6ybzTqFBygiPm6tZ8nYCZLjonpZW5HkD5Drq3tgl?comment_id=1134435085288982', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzExMzQ0MzUwODUyODg5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF8xMTM0NDM1MDg1Mjg4OTgy', 'date': '2025-08-28T03:35:11.000Z', 'text': 'Jv', 'profileUrl': 'https://www.facebook.com/juan.carlos.garcia.garcia.391460', 'profilePicture': 'https://scontent.fsac1-2.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwFRe9J1&amp;_nc_oc=AdnGdWG0Lo_rE3z--lRzJbO1bnvLLp2xueLQBcrc16beDetHTHYiVL5DIfISWfzMYT0&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-2.fna&amp;oh=00_AfZGgP817l1QQ-7P-2NH_QFYWzHdomV8QbELLvnWEjj1aQ&amp;oe=68F1233A', 'profileId': 'pfbid0TZVgViQuRnsqNN5ifmcKs1feHAbQdKRNkc4C74ZKkwcU1SaxAEMF9g1sCyByqPCJl', 'profileName': 'Juan Carlos García García', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02g2gdPo1RVu4ebrfjNVghM5FrNHbsbTVSjQd7V2PLph1pnCuJSphnGWDFmSsHN2iEl?comment_id=1134435085288982', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzExMzQ0MzUwODUyODg5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF8xMTM0NDM1MDg1Mjg4OTgy', 'date': '2025-08-28T03:35:11.000Z', 'text': 'Jv', 'profileUrl': 'https://www.facebook.com/juan.carlos.garcia.garcia.391460', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Sh0h5MnzbMAQ7kNvwHG3wRq&amp;_nc_oc=AdmuGxqSsRfjhTg-1gU_VRrBd4Q52H-qji95H8Bm9af034YaodS6OAy8nWbFoxbfWAk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfY56gvfLQ9ANu352R6RdXVsT3Iuotm1INamPbyRS3sx0w&amp;oe=68F23C7A', 'profileId': 'pfbid02XQwPgPLjH3fLmc9rEwuvqDN8Y1GAshwsfDVn9aUPUk8z7maT6szDdNS1VxHEjmDPl', 'profileName': 'Juan Carlos García García', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0cfCSmmeoU8Hy91HXweAQzvu4f6ybzTqFBygiPm6tZ8nYCZLjonpZW5HkD5Drq3tgl?comment_id=781921801187112', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzc4MTkyMTgwMTE4NzExMg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF83ODE5MjE4MDExODcxMTI=', 'date': '2025-08-17T23:07:16.000Z', 'text': 'Loki', 'profileUrl': 'https://www.facebook.com/people/Cristian-Mauricio-Buitrago-Meneses/pfbid0QhAiV3x9Wz8sQQHbuHbs3toYUcNRyYKh5dK38WunAskndLLp3E5KEt83w2BBPmkjl/', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/463254763_122162816708254471_2043284699880586958_n.jpg?stp=c125.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zHSyGwKqCJIQ7kNvwGe5v4h&amp;_nc_oc=AdkTy54dYRu2MRfJc5C0i9Tcp5B9-UAll-44PeXsgrQeu2ouP9ENHHBDi3M93RpRMMQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=q-2x3JDDGzzoxofI-CKJRw&amp;oh=00_AfbnrmI622mqX7x0-bCuyZYmTJNzN7hWx1wKfSUF9EJvsg&amp;oe=68CF6C63', 'profileId': 'pfbid0QhAiV3x9Wz8sQQHbuHbs3toYUcNRyYKh5dK38WunAskndLLp3E5KEt83w2BBPmkjl', 'profileName': 'Cristian Mauricio Buitrago Meneses', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02g2gdPo1RVu4ebrfjNVghM5FrNHbsbTVSjQd7V2PLph1pnCuJSphnGWDFmSsHN2iEl?comment_id=781921801187112', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzc4MTkyMTgwMTE4NzExMg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF83ODE5MjE4MDExODcxMTI=', 'date': '2025-08-17T23:07:16.000Z', 'text': 'Loki', 'profileUrl': 'https://www.facebook.com/people/Cristian-Mauricio-Buitrago-Meneses/pfbid02UYcRfisyNQW5WPrVthm2HQPdWXtnt17ez1Uwcm24QTpEU46Kay6qnCVCWTnfyaAnl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/463254763_122162816708254471_2043284699880586958_n.jpg?stp=c125.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zHSyGwKqCJIQ7kNvwFuscJT&amp;_nc_oc=AdlOMldzT06mL3oyiK1dv7yazS82jcRXn0gbk1bmibThZ6E8LYj8-2jiOb_vwAYVais&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=GcYNuR6ETaqJElNbcXsUWA&amp;oh=00_AfY74atWuusPkLiP5u3TlcvE2tj_q7yQMUy2X-bTD-xNRw&amp;oe=68D085A3', 'profileId': 'pfbid02UYcRfisyNQW5WPrVthm2HQPdWXtnt17ez1Uwcm24QTpEU46Kay6qnCVCWTnfyaAnl', 'profileName': 'Cristian Mauricio Buitrago Meneses', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0cfCSmmeoU8Hy91HXweAQzvu4f6ybzTqFBygiPm6tZ8nYCZLjonpZW5HkD5Drq3tgl?comment_id=2141140766376181', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzIxNDExNDA3NjYzNzYxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF8yMTQxMTQwNzY2Mzc2MTgx', 'date': '2025-08-29T23:30:57.000Z', 'text': 'A 36', 'profileUrl': 'https://www.facebook.com/miguel.barreiro.889488', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/533131002_122140073354720271_3717502967093328577_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=erpqxAvxf7IQ7kNvwGXMYqs&amp;_nc_oc=AdnXRsU1GU9MG7_Om2gTYLOCGslY1PjCAZC2r94A_qqYNFgYHqDRfjrTZr3FOkLeQYg&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=q-2x3JDDGzzoxofI-CKJRw&amp;oh=00_AfaGdWIf0LaTSryMn_tcpLiQzsnQTWSMD8glUvpQ6cP2Fg&amp;oe=68CF67A4', 'profileId': 'pfbid02Sq7w4d35wzTqVFAZP8FHy21EKMd9NbUdFpA8UQheGEN6xh6U563et9RxNC6bEMCcl', 'profileName': 'Miguel Barreiro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02g2gdPo1RVu4ebrfjNVghM5FrNHbsbTVSjQd7V2PLph1pnCuJSphnGWDFmSsHN2iEl?comment_id=2141140766376181', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzIxNDExNDA3NjYzNzYxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF8yMTQxMTQwNzY2Mzc2MTgx', 'date': '2025-08-29T23:30:57.000Z', 'text': 'A 36', 'profileUrl': 'https://www.facebook.com/miguel.barreiro.889488', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/533131002_122140073354720271_3717502967093328577_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=erpqxAvxf7IQ7kNvwFFZcTj&amp;_nc_oc=AdlI4lYtsOjLiG8ruE4Q1WBs-Idt0kRxoisxVu8mmetvb60IUW36BpYeyh4JOzANRsY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=GcYNuR6ETaqJElNbcXsUWA&amp;oh=00_AfYDkWMoQazdJjqSaKmvrdPfyb3r5f48-rr7RnxhDDYEtw&amp;oe=68D080E4', 'profileId': 'pfbid0NoXDaoqXH2q6LpmTvdhqfZGJXj4Q5tBet1SxMF8Wes5hnGD3bWgqFAgDge2SmeYml', 'profileName': 'Miguel Barreiro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1134151125291537', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMzQxNTExMjUyOTE1Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTM0MTUxMTI1MjkxNTM3', 'date': '2025-08-27T04:49:34.000Z', 'text': 'Super delicioso', 'profileUrl': 'https://www.facebook.com/wendyppu', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/467505958_8539573739430137_7870276209555588789_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QRMIRVS4YKcQ7kNvwEvJf8H&amp;_nc_oc=AdmHrYYR1su9vEiSb0QX63elFofIMEuoh1XzJ1wX-bOCvNzT9u4O4qmlP7pu7suu1i0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=LhdyCuCohwQCMIvvrTTgvQ&amp;oh=00_Afa8AIF8c-jrGvBgatYjXUApXctreUiJ-rIkhrhJyA1P6w&amp;oe=68CF81E5', 'profileId': 'pfbid0pXfBQd99kZ5Ag6aWWPCXHtAtWT5FEL9BVSVaP1xWDfHkA82rrJGWpkPFiYMtxecFl', 'profileName': 'Wendy Peñaranda', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1134151125291537', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMzQxNTExMjUyOTE1Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTM0MTUxMTI1MjkxNTM3', 'date': '2025-08-27T04:49:34.000Z', 'text': 'Super delicioso', 'profileUrl': 'https://www.facebook.com/wendyppu', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/467505958_8539573739430137_7870276209555588789_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CiZFOwE2qJgQ7kNvwFw0XWP&amp;_nc_oc=AdkZDmC8wZ0vaKxJ2_aFKTb_AKMdFx_P_m6sutV1Ae0iigkx8WgKVgLUnI2hmhBUD4g&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=hgEV3cc5cYwNeAmjMThLmw&amp;oh=00_AfYXn69GWoGVUMr1sdRfFkzKPbaeQB0cIxNtvCHtnPI51g&amp;oe=68D09B25', 'profileId': 'pfbid0pXfBQd99kZ5Ag6aWWPCXHtAtWT5FEL9BVSVaP1xWDfHkA82rrJGWpkPFiYMtxecFl', 'profileName': 'Wendy Peñaranda', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1959947894850746', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5NTk5NDc4OTQ4NTA3NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTU5OTQ3ODk0ODUwNzQ2', 'date': '2025-08-21T22:16:11.000Z', 'text': 'Me encanta....', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/508308202_10222417440503600_4014222806330509908_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YjmzWdip_3YQ7kNvwEUhh5u&amp;_nc_oc=AdkiXSg49E5VpEgxeU2pPmYL2hcO4bI8kcPgjqfRRC5uGitZtPNGZjVgCqTosHXlqdg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=LhdyCuCohwQCMIvvrTTgvQ&amp;oh=00_AfYdWF-IuQeELsli-5qXtbUJg3w2geUuX73Sak8pF_VjyA&amp;oe=68CF8370', 'profileId': 'pfbid02kccKepWSQ14FpGi1cQq4zw2MiFdjCJygAY5Egv57DASJzjL11YihwNkj13Ybbx9Al', 'profileName': 'Lopez Kty', 'likesCount': '14', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1959947894850746', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5NTk5NDc4OTQ4NTA3NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTU5OTQ3ODk0ODUwNzQ2', 'date': '2025-08-21T22:16:11.000Z', 'text': 'Me encanta....', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/508308202_10222417440503600_4014222806330509908_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MyuKa5lU1vUQ7kNvwGYPtce&amp;_nc_oc=AdnulmqbIUuClfXyNmZGbHeMCUV-Qptw6ySXry7geKBzT1kZ0Yr5ebp5bEdoElx7y74&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=hgEV3cc5cYwNeAmjMThLmw&amp;oh=00_AfatkPpcV77drvq54ATaXq6IyqknJSfVO2bkFTlZkjkJ4g&amp;oe=68D09CB0', 'profileId': 'pfbid0gb1cB1Jsj4A9f2wx1SiHH4Xz4EKuHx5YEiZ4nqo5vRwKtWFFnFRGe4PWjYtneFuAl', 'profileName': 'Lopez Kty', 'likesCount': '14', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=759430156876256', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1OTQzMDE1Njg3NjI1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTk0MzAxNTY4NzYyNTY=', 'date': '2025-08-28T15:51:04.000Z', 'text': 'Delicioso y nutritivo', 'profileUrl': 'https://www.facebook.com/people/Patricia-Tapia/pfbid02asZF2DWX1gYzTGzbSCzq2ktSfpG7Zigdt38Xjoxiar8ND8VkogWmUy6wqHsJcrXLl/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/518175809_739068332064179_4937095210400201478_n.jpg?stp=c0.0.480.480a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ozsYs8G1EzMQ7kNvwFr-Q54&amp;_nc_oc=AdkA_hhSU6qjlEINqkwfEf9Ook0LmaVhMq2uegZrZiQ7M_ds4ehq_eM7hNptNU6OujA&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=LhdyCuCohwQCMIvvrTTgvQ&amp;oh=00_AfZs8UTFKg89dnirLbVfI9TTnJIpwFoITDcM9vyaMmwZhA&amp;oe=68CF81DE', 'profileId': 'pfbid02asZF2DWX1gYzTGzbSCzq2ktSfpG7Zigdt38Xjoxiar8ND8VkogWmUy6wqHsJcrXLl', 'profileName': 'Patricia Tapia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=759430156876256', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1OTQzMDE1Njg3NjI1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTk0MzAxNTY4NzYyNTY=', 'date': '2025-08-28T15:51:04.000Z', 'text': 'Delicioso y nutritivo', 'profileUrl': 'https://www.facebook.com/people/Patricia-Tapia/pfbid0XKv473tAAd4RVqVNDGLJfFY9qY7QtQiTYrmYXTXej2YN3e8XXWPtHsYHdivLzhkWl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/518175809_739068332064179_4937095210400201478_n.jpg?stp=c0.0.480.480a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d8BJFrtZkJUQ7kNvwHuKpDl&amp;_nc_oc=Adk1k-5B3AF77l3nGAAEKH-FpTRJC-h_CCnSqnyIiaqP460nK1Fcu8c2Myu2Ys9XFzs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=hgEV3cc5cYwNeAmjMThLmw&amp;oh=00_AfY4SNxhhsy7Y8pDOMFX6ykPayzCO4BJEBHtl2yP-2tRbQ&amp;oe=68D09B1E', 'profileId': 'pfbid0XKv473tAAd4RVqVNDGLJfFY9qY7QtQiTYrmYXTXej2YN3e8XXWPtHsYHdivLzhkWl', 'profileName': 'Patricia Tapia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1931807994353588', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5MzE4MDc5OTQzNTM1ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTMxODA3OTk0MzUzNTg4', 'date': '2025-08-24T01:51:50.000Z', 'text': 'Me encanta yo quiero uno', 'profileUrl': 'https://www.facebook.com/andrea.lasso.rodriguez.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/471240054_122103448448700475_1666346118037395362_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gWybLQRsbBAQ7kNvwHHItOc&amp;_nc_oc=AdknuhHlBD8x0aJBYpGKS81mGIzpyBWSQi7oiONJd47nDjnv-USHcYuB9nrtfwJla-0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=LhdyCuCohwQCMIvvrTTgvQ&amp;oh=00_AfZAeGtDy98bQmL42ccq0L6e3sPqmbgeuoNc_cB_WlvOfw&amp;oe=68CF8385', 'profileId': 'pfbid02WHXBwkcdLxv73MzbqFsSFzs3ccPJTSEcd3nbBcCowVU4xeQ3UunYVyHwUYoBscsjl', 'profileName': 'Andrea Lasso Rodríguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1931807994353588', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5MzE4MDc5OTQzNTM1ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTMxODA3OTk0MzUzNTg4', 'date': '2025-08-24T01:51:50.000Z', 'text': 'Me encanta yo quiero uno', 'profileUrl': 'https://www.facebook.com/andrea.lasso.rodriguez.2025', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/471240054_122103448448700475_1666346118037395362_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7kay2xY86cIQ7kNvwEmD34G&amp;_nc_oc=AdklnMcTX432Npurmu3bwrTYA8ZqNwnu8ZfYmwhfZAznxkemfueBjzR70SLmCUzJ_bw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=hgEV3cc5cYwNeAmjMThLmw&amp;oh=00_AfYn6au_Y8JDkc-b4TId6xUWyp5SDVdPAbWMJIGmOZvysQ&amp;oe=68D09CC5', 'profileId': 'pfbid0Sjt12azGVngzQ7yJH6uGULnzreqSaVqTBvLz3dg5g4t2rVL6whx631sqwvXhWqoAl', 'profileName': 'Andrea Lasso Rodríguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1002013275278537', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwMDIwMTMyNzUyNzg1Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDAyMDEzMjc1Mjc4NTM3', 'date': '2025-08-26T14:28:38.000Z', 'text': '100x100 delicioso', 'profileUrl': 'https://www.facebook.com/alfonso.parada.754703', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwGd09c4&amp;_nc_oc=AdmXrTJ5zGWSdQT_IfDJv8vo36Waxmryl3xLu_fdi35-R0LbzcPBIb7HbbVkOVw6q88&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfZJt_zpK-tUdKh3VZFoS1sKLOr2sbcfNcAvBo0li28TwQ&amp;oe=68F1233A', 'profileId': 'pfbid0WShKZzurm9mtqCvwNKg12x5Z9xTKz6tVCNDUTtQAW6CGW1ZGWwVPVK5sJo1jXtLrl', 'profileName': 'Alfonso Parada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1002013275278537', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwMDIwMTMyNzUyNzg1Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDAyMDEzMjc1Mjc4NTM3', 'date': '2025-08-26T14:28:38.000Z', 'text': '100x100 delicioso', 'profileUrl': 'https://www.facebook.com/alfonso.parada.754703', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Sh0h5MnzbMAQ7kNvwG7xHqy&amp;_nc_oc=AdlTFf5euok-QYus5EP_SS8PxJgy8BIHqRUFYV_m9Ld8KKwVSs8yZkLpLpQGegTJ9m4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfaQSwFoB0oQQAjH5LO5hDx8OOCCyL4ElFsDJ3W5dF0v6Q&amp;oe=68F23C7A', 'profileId': 'pfbid02aJ92kfqgcWDaRyhqPtyuTmVRHg6ERHRj3Jfk5acAXBcu1DDt8AgFdGz2TcBQkYZ4l', 'profileName': 'Alfonso Parada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=634915359659230', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzYzNDkxNTM1OTY1OTIzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF82MzQ5MTUzNTk2NTkyMzA=', 'date': '2025-08-29T02:57:02.000Z', 'text': 'Son los mejores les doy un 1000', 'profileUrl': 'https://www.facebook.com/people/Luna-Mar/pfbid02Gj6gw78SKLH7oMZke89qgVRvn8jkzbntk53RKP6JWPpC2Q1gh69fuS2nqbmKoAwtl/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwGd09c4&amp;_nc_oc=AdmXrTJ5zGWSdQT_IfDJv8vo36Waxmryl3xLu_fdi35-R0LbzcPBIb7HbbVkOVw6q88&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfZJt_zpK-tUdKh3VZFoS1sKLOr2sbcfNcAvBo0li28TwQ&amp;oe=68F1233A', 'profileId': 'pfbid02Gj6gw78SKLH7oMZke89qgVRvn8jkzbntk53RKP6JWPpC2Q1gh69fuS2nqbmKoAwtl', 'profileName': 'Luna Mar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=634915359659230', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzYzNDkxNTM1OTY1OTIzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF82MzQ5MTUzNTk2NTkyMzA=', 'date': '2025-08-29T02:57:02.000Z', 'text': 'Son los mejores les doy un 1000', 'profileUrl': 'https://www.facebook.com/people/Luna-Mar/pfbid0ChVyTHvseNrqQtYQBWUoHkvLrxupt9RKXPaDKjU1g7sv5JFFegYzMqLKJK8j2UEQl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Sh0h5MnzbMAQ7kNvwG7xHqy&amp;_nc_oc=AdlTFf5euok-QYus5EP_SS8PxJgy8BIHqRUFYV_m9Ld8KKwVSs8yZkLpLpQGegTJ9m4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfaQSwFoB0oQQAjH5LO5hDx8OOCCyL4ElFsDJ3W5dF0v6Q&amp;oe=68F23C7A', 'profileId': 'pfbid0ChVyTHvseNrqQtYQBWUoHkvLrxupt9RKXPaDKjU1g7sv5JFFegYzMqLKJK8j2UEQl', 'profileName': 'Luna Mar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1539699547407987', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE1Mzk2OTk1NDc0MDc5ODc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNTM5Njk5NTQ3NDA3OTg3', 'date': '2025-08-22T01:06:40.000Z', 'text': 'Es el contenido que les encanta a mis hijos 🤩', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/493679850_9873179306094047_7655812506098507874_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RQmYOxF-ggAQ7kNvwE01i4N&amp;_nc_oc=AdkzEtcMmgbvEw6GTXbQemM72Ugjr_uiMAxiNAhobkl_xVS1vWC37Zh-GaWAuX9BKts&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=LhdyCuCohwQCMIvvrTTgvQ&amp;oh=00_AfYwt9Qwny4HjtbhWMcdQ-Mi0VZK651nmFh2cT5L_fi2zA&amp;oe=68CF8974', 'profileId': 'pfbid02nhPxUCtH1jFXd8zU6sunzDtgnzTuEsJdLZhpMc1UJ626CGjnLmds6orwVxTPVKd6l', 'profileName': 'Lorena Hernandez Gonzalez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1539699547407987', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE1Mzk2OTk1NDc0MDc5ODc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNTM5Njk5NTQ3NDA3OTg3', 'date': '2025-08-22T01:06:40.000Z', 'text': 'Es el contenido que les encanta a mis hijos 🤩', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/493679850_9873179306094047_7655812506098507874_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RQmYOxF-ggAQ7kNvwGJGin8&amp;_nc_oc=Adkq2TJt3NrwthF2Q7scqsCicNVuxvIlRn1DTxMw6uPN_4cXnuzigWgsUgN6GbsGrNs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=hgEV3cc5cYwNeAmjMThLmw&amp;oh=00_AfZ0v8yIRuXcjBy4iOQiD39-rlIQqICl6stjdswGt08b8w&amp;oe=68D0A2B4', 'profileId': 'pfbid0j9kmZ3FvAYLjusUwmKyZQQprWQdSKruQB9WbXeCWSHe1j7pLfAnRtMy2x4icqqNil', 'profileName': 'Lorena Hernandez Gonzalez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1809163456338339', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4MDkxNjM0NTYzMzgzMzk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODA5MTYzNDU2MzM4MzM5', 'date': '2025-08-23T02:04:38.000Z', 'text': 'Lokillo está gordillo de comer Bon Yurt 😁 Rico y delicioso alimento 💪🏻😁', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/504282276_2513543688990564_3925543668089981766_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lOGmQ_8pXeIQ7kNvwGLgo_s&amp;_nc_oc=AdkjOErBNE-gQuA4fqq5iZq12HiPq_Dg6CdWdzZEeHb6-nWqO5h5zZGXIU52lBwO7D0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=LhdyCuCohwQCMIvvrTTgvQ&amp;oh=00_AfZP8JMfhdi5KsqmXTvCCqPxNh8BlIpGoXs7RhoHQb7VXQ&amp;oe=68CF9DC8', 'profileId': 'pfbid0riEW5WswjDa9kezLTnL2WA8NbsizLUGH1AY49E1mZGWtbtRtxpkMDqcKd46vwJvil', 'profileName': 'Carlos Giraldo', 'likesCount': '23', 'commentsCount': 5, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1809163456338339', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4MDkxNjM0NTYzMzgzMzk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODA5MTYzNDU2MzM4MzM5', 'date': '2025-08-23T02:04:38.000Z', 'text': 'Lokillo está gordillo de comer Bon Yurt 😁 Rico y delicioso alimento 💪🏻😁', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/504282276_2513543688990564_3925543668089981766_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lOGmQ_8pXeIQ7kNvwG4OrUJ&amp;_nc_oc=AdkPFno4eemdS-XCEBB3tbwEJ7ipRqP6vMETzFTkkEAHspU3SYK6mE0XfgUyD4ZTe6U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=hgEV3cc5cYwNeAmjMThLmw&amp;oh=00_AfZ9eT3RL0gQ68DkmWK0YE4b249VCs6dzo9_fBqb60TnlA&amp;oe=68D07EC8', 'profileId': 'pfbid02vZgDGBomakX3wwaLrXssU3hEsCE5L519JimHUn3FNQPtE2JDfuf3tASMuksuag9wl', 'profileName': 'Carlos Giraldo', 'likesCount': '23', 'commentsCount': 5, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1686242388758750', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE2ODYyNDIzODg3NTg3NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNjg2MjQyMzg4NzU4NzUw', 'date': '2025-08-20T06:02:39.000Z', 'text': 'Que rica bebida y más con cereal 😋🤤🍫', 'profileUrl': 'https://www.facebook.com/andersonsteven.llanten.3', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/471977007_1109828727603036_1112624026591436266_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=nTKmSby7p6UQ7kNvwFoItSn&amp;_nc_oc=AdlTfXICfu1KI16HpzuNeIa5IPZJxqfSRQMlRnSlXbv5IJCeS8KsU73JBHHjd-oxYxM&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=LhdyCuCohwQCMIvvrTTgvQ&amp;oh=00_AfZJQ2brkasNpk8vzHGBUF02XxThz_2So13ApEYHPwLh1g&amp;oe=68CF950B', 'profileId': '100057277579802', 'profileName': 'Anderson Steven Llanten', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1686242388758750', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE2ODYyNDIzODg3NTg3NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNjg2MjQyMzg4NzU4NzUw', 'date': '2025-08-20T06:02:39.000Z', 'text': 'Que rica bebida y más con cereal 😋🤤🍫', 'profileUrl': 'https://www.facebook.com/andersonsteven.llanten.3', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/471977007_1109828727603036_1112624026591436266_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=rRPVUM2l5qgQ7kNvwG7NrDK&amp;_nc_oc=Admcmy7X1uEcPXiO-pH7Ma1xLKH127xp4gflfIIK2TD4TNUQ3EKqPFIx8FjsihwKtCA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=hgEV3cc5cYwNeAmjMThLmw&amp;oh=00_AfaDgW72TJGAN3g5iksyF2jV8ojrzfXwXmsdb1_USJutAg&amp;oe=68D0760B', 'profileId': '100057277579802', 'profileName': 'Anderson Steven Llanten', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1276392853748154', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEyNzYzOTI4NTM3NDgxNTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMjc2MzkyODUzNzQ4MTU0', 'date': '2025-08-19T17:08:58.000Z', 'text': 'El Loki Dabeibano  ya sale promocionando Bon Yurt eso mi Loki lleva  nuestro  pueblito  por lo alto 😘❤💞', 'profileUrl': 'https://www.facebook.com/people/V%C4%85l%C4%99nt%C4%AFn%C4%85-%C4%84rd%C4%AFl%C4%85-L%C3%B8p%C4%99%C5%BE/pfbid02LTmiRCXJCcdfQi1MuURAqPKh2eZpDdZhrhbYDHq9zUZRzqoqRZXgN9pCijERtCs4l/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/481674715_122094513200801080_7547546818748536907_n.jpg?stp=c0.24.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6nvf3vVr2KsQ7kNvwGUb_Mn&amp;_nc_oc=Adm4j08XS6VQ_mcy6mpR3Qx8RKAw_ovMZIiTtUHost1A_RoQjFHr_bNJQq21OZ9gZKg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=LhdyCuCohwQCMIvvrTTgvQ&amp;oh=00_Afbl_WUjHnPJA7NpALQFAO1L-fugLxIUkt9qeZbEU881QQ&amp;oe=68CF81B4', 'profileId': 'pfbid02LTmiRCXJCcdfQi1MuURAqPKh2eZpDdZhrhbYDHq9zUZRzqoqRZXgN9pCijERtCs4l', 'profileName': 'Vąlęntįną Ąrdįlą Løpęž', 'likesCount': '3', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1276392853748154', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEyNzYzOTI4NTM3NDgxNTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMjc2MzkyODUzNzQ4MTU0', 'date': '2025-08-19T17:08:58.000Z', 'text': 'El Loki Dabeibano  ya sale promocionando Bon Yurt eso mi Loki lleva  nuestro  pueblito  por lo alto 😘❤💞', 'profileUrl': 'https://www.facebook.com/people/V%C4%85l%C4%99nt%C4%AFn%C4%85-%C4%84rd%C4%AFl%C4%85-L%C3%B8p%C4%99%C5%BE/pfbid0GSAzwPKjXpHAaS55qaFgKUJFExrY4sMwbo1aksXykGXDSzUj9keKHnNKcrdYNfBil/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/481674715_122094513200801080_7547546818748536907_n.jpg?stp=c0.24.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6nvf3vVr2KsQ7kNvwEa5mgA&amp;_nc_oc=AdmzF6UCzeY4szdqsNn2XQFQJxnuXkjyRAw5t_rCmhvGz-_9LB_m6jq96UiUAoRxWS0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=hgEV3cc5cYwNeAmjMThLmw&amp;oh=00_Afbk46qB3qEW31RlQVzDKc3E2rVmNTPbXbYPMZgJr5fT9Q&amp;oe=68D09AF4', 'profileId': 'pfbid0GSAzwPKjXpHAaS55qaFgKUJFExrY4sMwbo1aksXykGXDSzUj9keKHnNKcrdYNfBil', 'profileName': 'Vąlęntįną Ąrdįlą Løpęž', 'likesCount': '3', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1419329749152945', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0MTkzMjk3NDkxNTI5NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDE5MzI5NzQ5MTUyOTQ1', 'date': '2025-08-27T20:50:25.000Z', 'text': 'Que rica esa boca Loki!!', 'profileUrl': 'https://www.facebook.com/ypinedaruiz1', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/542183273_24510095768628895_2316325469213779369_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=im9en8AMOnIQ7kNvwFYuoMo&amp;_nc_oc=AdktEI1XTxSQ2TlEBoDR43dKafOy5smht-lHTTte2MGjo3DVcNCH_zlrzb4jLdHTts0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_Afb5FJ_V7EnNi2zYqO-nrBmsIgjXkqcGQlid8tVUIvGsCA&amp;oe=68CF8142', 'profileId': 'pfbid02BFquKbGFF71nF3fS75Kiko4BAVm888XneYn5ePe2DEKH8UeVX7fXuo5n1TrWxzTQl', 'profileName': 'Yolimar Pineda Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1419329749152945', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0MTkzMjk3NDkxNTI5NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDE5MzI5NzQ5MTUyOTQ1', 'date': '2025-08-27T20:50:25.000Z', 'text': 'Que rica esa boca Loki!!', 'profileUrl': 'https://www.facebook.com/ypinedaruiz1', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/542183273_24510095768628895_2316325469213779369_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-2sotHtBD7UQ7kNvwFPAm5x&amp;_nc_oc=AdkGqA1UJ2Pa41zS36JLZU30gD1YoG7bsy6t4fu_T3dlGUAD3-nTAHK-5070GhcLr4k&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_AfZmfeVYq3bhE27YKenaDaaolMp-JSwnG2H-Om98Cyfzog&amp;oe=68D09A82', 'profileId': 'pfbid02BFquKbGFF71nF3fS75Kiko4BAVm888XneYn5ePe2DEKH8UeVX7fXuo5n1TrWxzTQl', 'profileName': 'Yolimar Pineda Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=4226072554302120', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQyMjYwNzI1NTQzMDIxMjA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MjI2MDcyNTU0MzAyMTIw', 'date': '2025-08-24T21:59:18.000Z', 'text': 'Bueno', 'profileUrl': 'https://www.facebook.com/nelson.ordones.311056', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/462560680_1065506931878769_1746695199810364978_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QU7AIrorvtAQ7kNvwFD2Ctt&amp;_nc_oc=Adng11UJSeiEzfQ9HdHedKeEMy7HZAIDS1BH77FGmmKfTb1fX6iPep4IhBKaAKhUJYY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_AfbX0amBqiEtTD1QKHBo8wKYIqko0tmqckOLw0aOI7uakg&amp;oe=68CF6B84', 'profileId': '100052584173694', 'profileName': 'Nelson Yecith Ordones Parejo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=4226072554302120', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQyMjYwNzI1NTQzMDIxMjA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MjI2MDcyNTU0MzAyMTIw', 'date': '2025-08-24T21:59:18.000Z', 'text': 'Bueno', 'profileUrl': 'https://www.facebook.com/nelson.ordones.311056', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/462560680_1065506931878769_1746695199810364978_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6siDHW8erhcQ7kNvwF6zX_r&amp;_nc_oc=AdkEYFG4KzgvLEXOx1kBx7efDI50nxKn7z0ARq0yAvzdpVRsM87Wgp_w110TK5BF6bI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_AfacVsB1wCjvtIgv4MJ6p8BoM7L8w4AUXk3WEMkgD-gdfg&amp;oe=68D084C4', 'profileId': '100052584173694', 'profileName': 'Nelson Yecith Ordones Parejo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1083098197269598', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwODMwOTgxOTcyNjk1OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDgzMDk4MTk3MjY5NTk4', 'date': '2025-08-16T04:39:48.000Z', 'text': 'es muy bueno pero muy poco', 'attachments': [{'__typename': 'Sticker', 'frame_count': 12, 'frame_rate': 83, 'frames_per_column': 3, 'frames_per_row': 4, 'label': 'Thumbs Up, girl giving thumbs up', 'pack': {'name': 'Noo-Hin', 'id': '1193273174104906'}, 'sprite_image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.1997-6/47472862_1846683478763869_5271603212267290624_n.png?stp=dst-png_p240x240&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=ba09c1&amp;_nc_ohc=8ziO4uuTFa8Q7kNvwHWtRsx&amp;_nc_oc=AdnvVkLI1Fvxgg3TdajoyBTCHwa5CYBa1SkCE2gClFYT7DQWyWmhYgT5i7tCfG9CI54&amp;_nc_zt=26&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_AfaPx8jx-FVWauXsXZh5Z9HSN7-P92fGY6Rb9viip1g2jQ&amp;oe=68CF803E'}, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.1997-6/47614232_1846683475430536_3135922765756891136_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=gJzfNvO7ZMkQ7kNvwEdUDV9&amp;_nc_oc=AdlsDQ_vEaoFhdRYJ2WREiGD3xjZlDyWBo2PmjG859p2vINyTKwV1OYlIAa-O0dfkGo&amp;_nc_zt=26&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_AfZwgvKRTmbFGw7lW1UD1YwaXsrLtn_vlhQT1LwmiJBjRw&amp;oe=68CF66A3', 'width': 80, 'height': 80}, 'id': '1193278434104380'}], 'profileUrl': 'https://www.facebook.com/andrea.jisell.gerena', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/348614154_1298627834419218_3175707734262848380_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8yxEZqc7nRIQ7kNvwEmQihu&amp;_nc_oc=AdmhqAr1jRt_r4DzgS0viUzqLZjv0URvRBMjiWS948xwxBodbSAWmbo1MIX_2bglA5I&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_AfbzwC8ptcTSu_RCNXGC2XR9u8jE0kx2tjkdVEJ1nYFQJQ&amp;oe=68CF7831', 'profileId': 'pfbid02c7Jpxc1YnxpBPr9QYQvMLNfUD4oH1wiN5dtyiN39wBpUJ7ov4BXzwemMjzMccKbWl', 'profileName': 'Andrea Jisell Gerena', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1083098197269598', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwODMwOTgxOTcyNjk1OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDgzMDk4MTk3MjY5NTk4', 'date': '2025-08-16T04:39:48.000Z', 'text': 'es muy bueno pero muy poco', 'attachments': [{'__typename': 'Sticker', 'frame_count': 12, 'frame_rate': 83, 'frames_per_column': 3, 'frames_per_row': 4, 'label': 'Thumbs Up, girl giving thumbs up', 'pack': {'name': 'Noo-Hin', 'id': '1193273174104906'}, 'sprite_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.1997-6/47472862_1846683478763869_5271603212267290624_n.png?stp=dst-png_p240x240&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=ba09c1&amp;_nc_ohc=8ziO4uuTFa8Q7kNvwFS32bu&amp;_nc_oc=AdmDbmEjlUf7eNYrtgNveTdVA8IywvsOrfmH_YSNtE-tdkQuM8KvrbS1ETMY6ZUNx30&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_AfZ0MsIPTf-KbkbqiGI_3DFWEHeOYd07fHhCfZIPIrz-SQ&amp;oe=68D0997E'}, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/47614232_1846683475430536_3135922765756891136_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=gJzfNvO7ZMkQ7kNvwHrnA9F&amp;_nc_oc=AdnliHzn5L14F7tONbMkIX0FQLHYg5dRSWvAr0gAETDKxiyqGTkJ7ZbyZJBjmURQDj8&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_Afb6XASG49T8-hIe02p-DyUmscARCMtS1v-jMlXLTL3Xkg&amp;oe=68D07FE3', 'width': 80, 'height': 80}, 'id': '1193278434104380'}], 'profileUrl': 'https://www.facebook.com/andrea.jisell.gerena', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/348614154_1298627834419218_3175707734262848380_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8yxEZqc7nRIQ7kNvwGEJsIh&amp;_nc_oc=AdlhGEaRicFRVJ9DJWuExdugSRRwWN4qKk4JeyvzRIwWYEqn_bxpQ31i0zAqbOWA9oM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_Afa9hQXdUaumhquKmgq9PE4O9MPEQNBxqFOIAUXZxQLl0A&amp;oe=68D09171', 'profileId': 'pfbid0YZfe3SPBwnNPGz2gCntm41nNnx9YNBpmne57HKSNPamRRLARojTBWHd6ScW4Uni6l', 'profileName': 'Andrea Jisell Gerena', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1553562459411769', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE1NTM1NjI0NTk0MTE3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNTUzNTYyNDU5NDExNzY5', 'date': '2025-08-24T14:26:06.000Z', 'text': 'Sale solo regalo llevo 10 yogurt', 'profileUrl': 'https://www.facebook.com/yeidiz.arroyo', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/545983455_25279976524924780_47157597036104731_n.jpg?stp=c0.36.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vI_WDbp6tiUQ7kNvwGkJVsI&amp;_nc_oc=AdlJR3-OMc7nAVNRvAnKyFsKOUsnsk6mjtWyVR-v97IQcoKZ7X_V_AA0yvwuqtMglmg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_AfbLYfBbq-22dLpp4DvFg7gNrOfleIAR0EwxEVA8sK8IRA&amp;oe=68CF90E2', 'profileId': 'pfbid029TL4YQLpxFgBdRraSPDHDNSoam7S7S7ScQ9g9ubo95JHbEebvDRmVQ1ULCanDv2Tl', 'profileName': 'Day Diaz', 'likesCount': '0', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1553562459411769', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE1NTM1NjI0NTk0MTE3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNTUzNTYyNDU5NDExNzY5', 'date': '2025-08-24T14:26:06.000Z', 'text': 'Sale solo regalo llevo 10 yogurt', 'profileUrl': 'https://www.facebook.com/yeidiz.arroyo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/545983455_25279976524924780_47157597036104731_n.jpg?stp=c0.36.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vI_WDbp6tiUQ7kNvwH-suI4&amp;_nc_oc=Adnf_Qf_z_An-XMDmcziyrsvLeofiuLWBgIatqdWmM2BReIu3ioGxndgRpRG7Da9Gaw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_AfZiQgGnws-fD5X_UzqSaQs8Kp8cZzUsVkhklRY_SQXsXg&amp;oe=68D0AA22', 'profileId': 'pfbid05RjM4b9GHN1pkKH65T3wf3HzHT4Q4mqBSN8scVoPNJu6eLFR7GTQ6nuzSBPG4RiQl', 'profileName': 'Day Diaz', 'likesCount': '0', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=613623884904175', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzYxMzYyMzg4NDkwNDE3NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF82MTM2MjM4ODQ5MDQxNzU=', 'date': '2025-08-20T03:21:13.000Z', 'text': 'Esta era la campaña donde salía bless', 'profileUrl': 'https://www.facebook.com/tacos.tostones', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/105384843_700203510548077_3304227752436628158_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KbP0cvGpJ5EQ7kNvwE4OA_o&amp;_nc_oc=AdknFv_tH7mvgCDWLxv8Tate-VpcE4hANiBkyEeWrpCmrAcJdhaGtAvyhIxzEFoPgNY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_AfYxKs7T5GKPLGRBOvfbYDLFT5e9t4CVN9BGtTyflK-UjA&amp;oe=68F10857', 'profileId': 'pfbid07QctLZV55ubEmNcQ7S9TgdV6swVg7SiDHvw9kmK1GrbExHMYHAgP53jQDEWf7p9gl', 'profileName': 'Tacos Tostones', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=613623884904175', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzYxMzYyMzg4NDkwNDE3NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF82MTM2MjM4ODQ5MDQxNzU=', 'date': '2025-08-20T03:21:13.000Z', 'text': 'Esta era la campaña donde salía bless', 'profileUrl': 'https://www.facebook.com/tacos.tostones', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.6435-1/105384843_700203510548077_3304227752436628158_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KbP0cvGpJ5EQ7kNvwFnpRyL&amp;_nc_oc=AdmFgkeVNWbJf_2zCPJT_6259YkpCnP_2YqgWASe6VbiqQXPwST8ACc0Xu3fjth2H_0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_AfbK8m-Hf-2U96-df1AKg6Y_e8a_MWAI9df_E0FXwqtUjA&amp;oe=68F22197', 'profileId': 'pfbid02BG4bXEQtwLZ95cHJdHJ722CJ8Zese2ZZr7U3r1JMuiGzuT6Lk7qT1ifhAo4abYJTl', 'profileName': 'Tacos Tostones', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1471141737564489', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NzExNDE3Mzc1NjQ0ODk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDcxMTQxNzM3NTY0NDg5', 'date': '2025-08-23T21:58:01.000Z', 'text': 'Bueno x lo menos no opaca a sus amiguitos .los suaves', 'profileUrl': 'https://www.facebook.com/andres.zaramacastiblanco', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/308441094_10159936068582302_928911923576938665_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=o_UE9CiR1GcQ7kNvwE-70FG&amp;_nc_oc=Admm76P8wof5pD_ZuKkCzzq3BWXnJ_G--vcdAxip78p8qwzasomGgtlBvyPdpjmsV-k&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_AfZtaLSz3qxDZXBrXjsevLWzIBDG0wizTT1QFAxYP8Ehaw&amp;oe=68CF80A4', 'profileId': 'pfbid0R8cagGodq51SUBqsU4vWWii7p7rhF2qCdZ98qQ7s5eMzJk6n1cJWBBWDUy9Q2as5l', 'profileName': 'Andres Zarama Castiblanco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1471141737564489', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NzExNDE3Mzc1NjQ0ODk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDcxMTQxNzM3NTY0NDg5', 'date': '2025-08-23T21:58:01.000Z', 'text': 'Bueno x lo menos no opaca a sus amiguitos .los suaves', 'profileUrl': 'https://www.facebook.com/andres.zaramacastiblanco', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/308441094_10159936068582302_928911923576938665_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=o_UE9CiR1GcQ7kNvwGh152Q&amp;_nc_oc=Adm1_FgKz37hZtjgiwYa7QtZtz57KPS6fvGpAb5v5wFvaF20oDRsQbb8cQDr2p42A_o&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_AfZbnD0vTqdmWdpqTkUCwKisSgRip_AUJniD3TF7OoAAHw&amp;oe=68D099E4', 'profileId': 'pfbid02Uz4HrwjTgQpDxh2wnyboGFApAoWk9vMCFfuMX4mXGeqS2evbQyLXHrkHExEkLrLRl', 'profileName': 'Andres Zarama Castiblanco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=793555486530539', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc5MzU1NTQ4NjUzMDUzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83OTM1NTU0ODY1MzA1Mzk=', 'date': '2025-08-21T23:59:52.000Z', 'text': 'Para ver a caradebonjour', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/490079629_1217648870088367_153390787830383485_n.jpg?stp=c427.19.638.639a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6aDijXoGlTwQ7kNvwEeKmt7&amp;_nc_oc=AdkSO01jwurbC06Y6hwprM4RQWbDJS1DqorCcgsQyxRHwGgY22dfzSXSFn11waEVZik&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_AfYwhKA-DjMLQHK1f7aO2L-EOaTz7sDRobUfukg3q4BXHA&amp;oe=68CF7B49', 'profileId': 'pfbid0L87cywa2XdA8DfG7zsYxaJ16JZayB4kgtHfSvU66iUkE6k8G9MFerZEghVRfvXBEl', 'profileName': 'Cristhian Gray', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=793555486530539', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc5MzU1NTQ4NjUzMDUzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83OTM1NTU0ODY1MzA1Mzk=', 'date': '2025-08-21T23:59:52.000Z', 'text': 'Para ver a caradebonjour', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/490079629_1217648870088367_153390787830383485_n.jpg?stp=c427.19.638.639a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6aDijXoGlTwQ7kNvwHbp7KU&amp;_nc_oc=AdnKtCDzDonlgCBURtKMb-Nvg27jGnd6D271RJwD3nt7WEfbP2cTgfHckpEDORiQSJo&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_AfYgsMobPdctiuS8EvsPNQR23dLndQ36ZHkMoWq8BkRdvg&amp;oe=68D09489', 'profileId': 'pfbid02PyZLAcVrNxc3AHYxoCF65B6EJWRxidUuYPREhPS63fxS2ycYqwBoV2dXnyXoFaSnl', 'profileName': 'Cristhian Gray', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=772245961962991', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc3MjI0NTk2MTk2Mjk5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NzIyNDU5NjE5NjI5OTE=', 'date': '2025-08-26T11:35:44.000Z', 'text': 'Mucho esfuerzo para tan poco jeje', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/505621334_10162850577374721_609300677416242569_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U1ypLkFibacQ7kNvwHvBCL4&amp;_nc_oc=AdlTWwNLB2qQ6HiPaP1TgQEBNZhcGuzLPxHwvWDMFoE7c6VHDWb-QNgOl6QHVMO0908&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_AfbF6vjEpU_z53JiA2WuFWt7oGhj_CyrWTdDNxCsfc0E_g&amp;oe=68CF9CA4', 'profileId': 'pfbid0fVfjGzHPbSi3JfDmxRqHnhiMXLeXVhAswhjnreQGrSCA9amx6QE3F32hZC6f3VwSl', 'profileName': 'Diana Ardila', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=772245961962991', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc3MjI0NTk2MTk2Mjk5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NzIyNDU5NjE5NjI5OTE=', 'date': '2025-08-26T11:35:44.000Z', 'text': 'Mucho esfuerzo para tan poco jeje', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/505621334_10162850577374721_609300677416242569_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U1ypLkFibacQ7kNvwF0bKex&amp;_nc_oc=AdlcDjO6N-Rf7ExvnXJ1nQ7mWfgXpOuRr_MfZSh7KBYdyFkSHLOzniIxE2W0leWoAVg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_Afb7O0YZ5OypicaucID270eOtQ0Rn2keVTbqBABd8YIX0Q&amp;oe=68D07DA4', 'profileId': 'pfbid02is9uu1e1cx4WtGhTvFbVGSFhDX16wVuGxc1iRFVKaPVnAuKMUXgLk7ik1gKUenWHl', 'profileName': 'Diana Ardila', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=2029240560944248', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIwMjkyNDA1NjA5NDQyNDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMDI5MjQwNTYwOTQ0MjQ4', 'date': '2025-08-23T10:34:06.000Z', 'text': '¿Bonos? ¡Eso pa qué!\n¡Plata! Lo que necesitamos es plata!', 'profileUrl': 'https://www.facebook.com/people/Mejia-Xtiam/61572770517903/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/545562976_122159946776759017_9203311924616398538_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4PsvxerShtMQ7kNvwFQpKHr&amp;_nc_oc=AdnFp_R6EW6Yfugkb1hqZT8nSTNBABcAQ5oq8OYVB22VmS_T8c0BVhvH92l9cxE7WEk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_Afa4wkqmiFInYk-ayIuLGUhOyGYuZMmJrmaH5Gx2HEoDpQ&amp;oe=68CF7E7B', 'profileId': '61572770517903', 'profileName': 'Mejia Xtiam', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=2029240560944248', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIwMjkyNDA1NjA5NDQyNDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMDI5MjQwNTYwOTQ0MjQ4', 'date': '2025-08-23T10:34:06.000Z', 'text': '¿Bonos? ¡Eso pa qué!\n¡Plata! Lo que necesitamos es plata!', 'profileUrl': 'https://www.facebook.com/people/Mejia-Xtiam/61572770517903/', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/550170770_122160842840759017_6104182639143309373_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=iQgUsEEK6CsQ7kNvwGHhio5&amp;_nc_oc=AdnDAD5OYGLE-aZ3MQiwj93Ea6ATuUtQE-828TKvJ9J5SFr6i6qVyBBaF0d4osXTP8M&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_AfZF7Tbs-N3ugvVHxJaAFbKftB8Apd79LVXmw-y22xwoqQ&amp;oe=68D09C79', 'profileId': '61572770517903', 'profileName': 'Mejia Xtiam', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1092922006240363', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwOTI5MjIwMDYyNDAzNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDkyOTIyMDA2MjQwMzYz', 'date': '2025-08-24T03:18:50.000Z', 'text': 'Ya estoy dentro', 'profileUrl': 'https://www.facebook.com/gutierrez.parra.2025', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/461937530_122164883702246479_9100878982232549001_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mgbMTIU6ZAgQ7kNvwEWxrCh&amp;_nc_oc=Adm-4DIpk4VUKU5yqnzBnJsECG5IOzlKKvPdjWzmzIhaXk78HpuRV-Npj9GpGN57mJc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=flw_P86ymmxBKRbN88TWwA&amp;oh=00_AfaZ5bZ8f7Gv9t-ftbhh8JW2GbGmpZ_ra6wbIOBH7BTHDQ&amp;oe=68CF7B42', 'profileId': '61557394383266', 'profileName': 'Gutierrez Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1092922006240363', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwOTI5MjIwMDYyNDAzNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDkyOTIyMDA2MjQwMzYz', 'date': '2025-08-24T03:18:50.000Z', 'text': 'Ya estoy dentro', 'profileUrl': 'https://www.facebook.com/gutierrez.parra.2025', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/461937530_122164883702246479_9100878982232549001_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mgbMTIU6ZAgQ7kNvwFkL1Hm&amp;_nc_oc=Adle8VikOcgbhnt2VJNPY8Cucwee5-TDxVuKuuNLsKc-XRJ_l2sX4stbM_E4ltvfNnw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=yGFs6AF9qrE8eYDhuuiYlA&amp;oh=00_AfZy215T-Xa5LF-n3nqSBA7W5iwVb3KciCiFIvSA63BkEA&amp;oe=68D09482', 'profileId': '61557394383266', 'profileName': 'Gutierrez Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1484788615985509', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0ODQ3ODg2MTU5ODU1MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDg0Nzg4NjE1OTg1NTA5', 'date': '2025-08-29T02:14:49.000Z', 'text': 'Muy costoso', 'profileUrl': 'https://www.facebook.com/yeisonandres.solano.9', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/540700858_1064946852386065_8049601790669373077_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-NAyODliv-UQ7kNvwF4ESJK&amp;_nc_oc=AdkR-En-2N6Rbhtd5G6qU6Xtupy8gzUmKJe0yrtraI4KrgOHvOOIZITR2L_4zchJc64&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=Asz9Uohh8qpbZifhG99I-g&amp;oh=00_AfYRP7w2RWc-UOe69w6SqpJHbD-YQ4vMnZeE89eX8wWq2A&amp;oe=68CF94BE', 'profileId': 'pfbid02gHKMpUs2DhZtF3pRpsvD6fnoEsETYBUgdVEYDR9Le9c9R6xQNeSPdAX2tDJN4RCGl', 'profileName': 'Yëïsön Ändrës Sölänö', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1484788615985509', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0ODQ3ODg2MTU5ODU1MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDg0Nzg4NjE1OTg1NTA5', 'date': '2025-08-29T02:14:49.000Z', 'text': 'Muy costoso', 'profileUrl': 'https://www.facebook.com/yeisonandres.solano.9', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t39.30808-1/540700858_1064946852386065_8049601790669373077_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rovrerK6gvgQ7kNvwGjYXxG&amp;_nc_oc=AdmYlW6qrBVibj7nWDGVGELkPlOQQT2k0CUjKmyO_VpbckF2jVn5z2tolnbSvB79tKU&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=7B12rtJw3kXWa3bxQSbCTg&amp;oh=00_AfYtNfhW0wD0GWtDbD0WTjA7Fphhjx4hcHEzVklZrXIvFw&amp;oe=68D075BE', 'profileId': 'pfbid0cFieLffTYpCr3DZExNVgN53xtiz9X4uogar3SWoG6dYuXP1ksncmiUwV6RuqfAESl', 'profileName': 'Yëïsön Ändrës Sölänö', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=24325868677077398', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzI0MzI1ODY4Njc3MDc3Mzk4', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yNDMyNTg2ODY3NzA3NzM5OA==', 'date': '2025-08-25T16:25:17.000Z', 'text': 'Todo movimiento es fríamente calculado', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/292611740_1488708938214326_8064061170465608584_n.jpg?stp=c0.0.1171.1171a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DXIEW-Sxi7sQ7kNvwGB53Ec&amp;_nc_oc=Adl8MGX6AXR0F_UOfoVn9bH-tBH-a0DYTe5ZD4ctJtY0ZU-YQ87ZIUPS7B7a-9JPgcI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=Asz9Uohh8qpbZifhG99I-g&amp;oh=00_AfY_jwzJYzYOJ2h5X2je8d6twdxp5WwR8B4-kR637XTslg&amp;oe=68CF877A', 'profileId': 'pfbid0CDKjFmZvHepu2wZmJJh1Nc4gF4pgMPfm9MT2HbmfUaznqc9SejX1FNyVz8i3VjSfl', 'profileName': 'Jhon Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=24325868677077398', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzI0MzI1ODY4Njc3MDc3Mzk4', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yNDMyNTg2ODY3NzA3NzM5OA==', 'date': '2025-08-25T16:25:17.000Z', 'text': 'Todo movimiento es fríamente calculado', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t39.30808-1/292611740_1488708938214326_8064061170465608584_n.jpg?stp=c0.0.1171.1171a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z1GBGBdb04wQ7kNvwHh7dBf&amp;_nc_oc=AdkAJwjPcApoAfvG52PEr8TEO17USnoMFjyClS2LjbSNZ9bUUuNXlFpcr4AfH9cYcMw&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=7B12rtJw3kXWa3bxQSbCTg&amp;oh=00_AfaRsEE2HR2-JS99ZOj7KqfZMUexESJ8Ln9Hl_GS1gN44w&amp;oe=68D0A0BA', 'profileId': 'pfbid02G4mSSSVk8viS3ZWHoHdFGhzM4wrGdZUsK4ZkkYq1ATjG32ccZ22aYTKfAKKNN9Yul', 'profileName': 'Jhon Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1463158881357664', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NjMxNTg4ODEzNTc2NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDYzMTU4ODgxMzU3NjY0', 'date': '2025-08-15T18:23:43.000Z', 'text': 'Muy caro y muy poquito', 'profileUrl': 'https://www.facebook.com/Dieg0alejandr', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/382242083_10161067317212866_6210645977518425260_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=FiwC4YYdO80Q7kNvwFkKgay&amp;_nc_oc=Adn-GRvXMcwn5jmM_AKcCGx_cSjIlsFaUmwOhDk_Ip2zk9sBlfvUvsaUcxj4L7OusUw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=Asz9Uohh8qpbZifhG99I-g&amp;oh=00_Afau5fStv3kgzMgMskBdXqpQgaz7rodki7mhW0raJgAaaQ&amp;oe=68CF8101', 'profileId': '707227865', 'profileName': 'ارانا دياغو', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1463158881357664', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NjMxNTg4ODEzNTc2NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDYzMTU4ODgxMzU3NjY0', 'date': '2025-08-15T18:23:43.000Z', 'text': 'Muy caro y muy poquito', 'profileUrl': 'https://www.facebook.com/Dieg0alejandr', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t39.30808-1/382242083_10161067317212866_6210645977518425260_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=FiwC4YYdO80Q7kNvwHySuAa&amp;_nc_oc=AdlNR96rpXjr2I6RihWqHzfDLek29F5zBbzVPCPT_S8F19IaNPY_ZzpoIuU7DiQ2Sa8&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=7B12rtJw3kXWa3bxQSbCTg&amp;oh=00_Afbmv0KOD7GnyKqxmQIq1z1644MUeU6qPGvX2Cg7l-sbZg&amp;oe=68D09A41', 'profileId': '707227865', 'profileName': 'ارانا دياغو', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=759916216897081', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1OTkxNjIxNjg5NzA4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTk5MTYyMTY4OTcwODE=', 'date': '2025-08-24T13:08:10.000Z', 'text': 'Pero el bonyurt esta muy caro 🥲', 'profileUrl': 'https://www.facebook.com/andres.gutierrez.cdlm.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/461629165_8402506506532438_777487518196150272_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=j8IQd3xBDbUQ7kNvwGEnnv2&amp;_nc_oc=Adn90m1wV1kR5263xKxorg_eSSAkXZzWkcfj9bRXlezwZbpbCIl2-wsKGUKp3Y_j3Zs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=Asz9Uohh8qpbZifhG99I-g&amp;oh=00_AfYqIRAzNGJsGinH1ppTV18UFuNPq3MN2_Woa4GKJ73ObQ&amp;oe=68CF8C1D', 'profileId': '100003195175211', 'profileName': 'Andres Gutierrez Cdlm', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=759916216897081', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1OTkxNjIxNjg5NzA4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTk5MTYyMTY4OTcwODE=', 'date': '2025-08-24T13:08:10.000Z', 'text': 'Pero el bonyurt esta muy caro 🥲', 'profileUrl': 'https://www.facebook.com/andres.gutierrez.cdlm.2025', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t39.30808-1/461629165_8402506506532438_777487518196150272_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=j8IQd3xBDbUQ7kNvwHd2qLJ&amp;_nc_oc=AdkY956PfIuiaeSD-wzPe7ZKUldETs5VCLX3eywrjzcDyxHYhnge613-gY41uox2ctU&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=7B12rtJw3kXWa3bxQSbCTg&amp;oh=00_AfbY29tkZXt3RCUTHLX9lexWghVJBwxNv3StJuc87mwOwQ&amp;oe=68D0A55D', 'profileId': '100003195175211', 'profileName': 'Andres Gutierrez Cdlm', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3958,7 +3958,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=2250016172180362', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIyNTAwMTYxNzIxODAzNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMjUwMDE2MTcyMTgwMzYy', 'date': '2025-08-21T17:47:54.000Z', 'text': 'Bien caro y porfin se deja ver bon yurt con una promo que raro', 'profileUrl': 'https://www.facebook.com/yury.munarneuta', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/436425887_1501224170817530_287396434671943491_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GzrRYUCsJuMQ7kNvwE8Jc9N&amp;_nc_oc=AdnH9q3qYELkOKz6KNZd7TfQShijvyTGYhKiT__j3sBSn8d2K_NIdGVJVyZZxbLk3Js&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=Asz9Uohh8qpbZifhG99I-g&amp;oh=00_AfY_rHKbwrGCVr4FXGyIvKUSbvJaZ1PwYndqCQPD1eTYQA&amp;oe=68CF6C34', 'profileId': 'pfbid0WZMhvMx7PfJXtjUbeqstJxV6JvTRQG37dwSezAyFCykY1CT73jbngcxiWECcvQEgl', 'profileName': 'Yury Munar Neuta', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=2250016172180362', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIyNTAwMTYxNzIxODAzNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMjUwMDE2MTcyMTgwMzYy', 'date': '2025-08-21T17:47:54.000Z', 'text': 'Bien caro y porfin se deja ver bon yurt con una promo que raro', 'profileUrl': 'https://www.facebook.com/yury.munarneuta', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t39.30808-1/436425887_1501224170817530_287396434671943491_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GzrRYUCsJuMQ7kNvwF8BD7n&amp;_nc_oc=AdkXYib_R06nyTIfTLCO5bninRjTiPN-fnHuWsvLbi8Tk8tOaTgFL1B4rBi31w_zctw&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=7B12rtJw3kXWa3bxQSbCTg&amp;oh=00_AfbAuIPZN0GEIXeRFcq4s1AqwYD1nejUY8ktSzxNPxFp3Q&amp;oe=68D08574', 'profileId': 'pfbid02aQoR72swF8A5ujaKrh8psLfwykZfg4P9Xjy81Vy4osJqKpP3s85gSnyE4bjHm8d1l', 'profileName': 'Yury Munar Neuta', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1091350796399376', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwOTEzNTA3OTYzOTkzNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDkxMzUwNzk2Mzk5Mzc2', 'date': '2025-08-28T18:32:18.000Z', 'text': 'Cual es el premio?', 'profileUrl': 'https://www.facebook.com/angelica.sambrano.148', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/448901137_3747896052121134_5568580828897389632_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KTwq3xxtno8Q7kNvwH4Vm0X&amp;_nc_oc=AdkX8pRSXhEOfXNreaYHDHwXBvsc2zCAaxSl3uY0mnoIAl3z_KhI_kHndDOGYBHYUDQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=Asz9Uohh8qpbZifhG99I-g&amp;oh=00_AfYSoHIIaO51t8AXzI-P16HnwtqSNo9OgY2OQbY92FHTqg&amp;oe=68CF7843', 'profileId': 'pfbid026NDzk2aSRe3K275HtwEFT9aaoxqLLy7zQjUhnfTFfvLkX99JtR45te4X3PzNTjwRl', 'profileName': 'Mårce Acvdo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1091350796399376', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwOTEzNTA3OTYzOTkzNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDkxMzUwNzk2Mzk5Mzc2', 'date': '2025-08-28T18:32:18.000Z', 'text': 'Cual es el premio?', 'profileUrl': 'https://www.facebook.com/angelica.sambrano.148', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t39.30808-1/448901137_3747896052121134_5568580828897389632_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KTwq3xxtno8Q7kNvwH7wsZJ&amp;_nc_oc=AdnmrquKb9Ahis09iLR3Lv5gpg5Sy1cTts3Haizhj7_tnmFv7p6AyZxIfIDVpNeCu8A&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=7B12rtJw3kXWa3bxQSbCTg&amp;oh=00_AfZP5xY-w8RBaMzLc0EI3MIB3il1Vj8oJbsys1_H9gGGXg&amp;oe=68D09183', 'profileId': 'pfbid02paoprx5aaKxJNvjrhFkG2UEjLu7dbHKgp7PkKh2qMvYLqnMmTKD2NGJ4YWCC3Uml', 'profileName': 'Mårce Acvdo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1426680105094604', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0MjY2ODAxMDUwOTQ2MDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDI2NjgwMTA1MDk0NjA0', 'date': '2025-08-18T16:21:54.000Z', 'text': 'No deja completar la tercer etiqueta dice que vuelva mañana 👎', 'profileUrl': 'https://www.facebook.com/bladimir.pache', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/493262287_672924542052600_3012930965806645244_n.jpg?stp=c0.0.870.870a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PSB2Bw2JnA8Q7kNvwE_9Ajg&amp;_nc_oc=AdmbcK4Vu4H3DN60cbGqG7ftfWhCd-17FX2BIg0QrOrL_AR8I8jQ3X0dk5d9Ly4TTw0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=Asz9Uohh8qpbZifhG99I-g&amp;oh=00_AfZ-lVRrwZOV7_3FUGaqub-7GkPE7liWG_i9tMInhR666Q&amp;oe=68CF8474', 'profileId': 'pfbid0V9EQ3xPbFudXWE1ySh3NptQvEZ5SZ8WKyMAA7hPYo6aNRrs3CsYHv3ThMgUC5hail', 'profileName': 'Bladimir Pache', 'likesCount': '6', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1426680105094604', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0MjY2ODAxMDUwOTQ2MDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDI2NjgwMTA1MDk0NjA0', 'date': '2025-08-18T16:21:54.000Z', 'text': 'No deja completar la tercer etiqueta dice que vuelva mañana 👎', 'profileUrl': 'https://www.facebook.com/bladimir.pache', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t39.30808-1/493262287_672924542052600_3012930965806645244_n.jpg?stp=c0.0.870.870a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pIm55tQ25IEQ7kNvwECQ48J&amp;_nc_oc=Adl9aqXk3tuWWlMm51eYQvi13mORJmcEFQe1u6pn7sQaUc-cYigZ8J4WjYDnurNsBO4&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=7B12rtJw3kXWa3bxQSbCTg&amp;oh=00_AfZ9kMXvL-2e0h7E-_2ctoRj1bMj2c3vDYHoFGK_uNFsMQ&amp;oe=68D09DB4', 'profileId': 'pfbid02Yzg7EdKR7EyGV24YAHuJEa2qoYbPjSCWtay5amMR476WUwfiN1hKmsQmWJ62Svktl', 'profileName': 'Bladimir Pache', 'likesCount': '6', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=4161504917455527', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQxNjE1MDQ5MTc0NTU1Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MTYxNTA0OTE3NDU1NTI3', 'date': '2025-08-15T21:02:02.000Z', 'text': 'Eso ya no trae es nada,, y bien caro que sí es', 'profileUrl': 'https://www.facebook.com/ana.mendez.588301', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/516741506_1731055484962455_3660435960556219367_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6QTsG5WrYdEQ7kNvwF1iSIJ&amp;_nc_oc=Adkzuyy13dAurPUfnqsBguXnDHB26kdvxPfwDmY5WRROWgwALnudLs1MPsmLQJqo5jY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=Asz9Uohh8qpbZifhG99I-g&amp;oh=00_AfbdO5jkbO7F53zrUaLrfA01kBrASd-P-AihnbBW4Thjaw&amp;oe=68CF9205', 'profileId': 'pfbid05ThLX1679k7yQgaw1TUtubk6cucZwJCSf38VTRZMdHyvfvBEjLa1WtFLev7nLL9Tl', 'profileName': 'Ana Mendez', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=4161504917455527', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQxNjE1MDQ5MTc0NTU1Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MTYxNTA0OTE3NDU1NTI3', 'date': '2025-08-15T21:02:02.000Z', 'text': 'Eso ya no trae es nada,, y bien caro que sí es', 'profileUrl': 'https://www.facebook.com/ana.mendez.588301', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t39.30808-1/516741506_1731055484962455_3660435960556219367_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6QTsG5WrYdEQ7kNvwGsMB-0&amp;_nc_oc=AdkyrTaEVUIZbwtv9HeGeqi8lvgASpIv8S5VvCX7ijkHN3h9esBRqkWAYPEvErds6SQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=7B12rtJw3kXWa3bxQSbCTg&amp;oh=00_AfapjeKIJ5Pb6wrVjl6_-oEs5aIr0bhXpi2p74pkBtA0kg&amp;oe=68D0AB45', 'profileId': 'pfbid029K93hg1w1JcWKYrpwdx8wK5Gqttvek34wvpf7c57V2VjfT6k6rrV8tu289rLMnwKl', 'profileName': 'Ana Mendez', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1911048179741699', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5MTEwNDgxNzk3NDE2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTExMDQ4MTc5NzQxNjk5', 'date': '2025-08-28T18:59:24.000Z', 'text': 'Ya no es espeso como antes :(', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/381161792_10160496318156281_5996530756716113129_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AV2FstDy6wEQ7kNvwEHJ23G&amp;_nc_oc=AdnruVjKlQctwmCZVHG5l-Oc97meNudqh3l9q58L-FxMaTiE2AvgO8Bnl8vHXeMRMZ0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=Asz9Uohh8qpbZifhG99I-g&amp;oh=00_AfZrs0MjN78xgIlcjehsUtr_zzd9KfRilxhDd-xDC9836g&amp;oe=68CF906B', 'profileId': 'pfbid022Yxxcf89PVMsw67S9PTY4QqiCGH39UZk1VsRdCHuBagD2s9avjDxar9TpheKfmQ3l', 'profileName': 'Jen Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1911048179741699', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5MTEwNDgxNzk3NDE2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTExMDQ4MTc5NzQxNjk5', 'date': '2025-08-28T18:59:24.000Z', 'text': 'Ya no es espeso como antes :(', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t39.30808-1/381161792_10160496318156281_5996530756716113129_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AV2FstDy6wEQ7kNvwGh0xX9&amp;_nc_oc=Adn-udYD7lVsuSOHYSbxnlcRDXdBqinY2Hv6FAhARNhm-Njn48NuWmsoQhgTF_i_2TM&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=7B12rtJw3kXWa3bxQSbCTg&amp;oh=00_AfYi6e0lS2TT20r3bQY8n6K_NhPO-oj4Hb6Gcqk1VycWyg&amp;oe=68D0A9AB', 'profileId': 'pfbid022Yxxcf89PVMsw67S9PTY4QqiCGH39UZk1VsRdCHuBagD2s9avjDxar9TpheKfmQ3l', 'profileName': 'Jen Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1285330253224490', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEyODUzMzAyNTMyMjQ0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMjg1MzMwMjUzMjI0NDkw', 'date': '2025-08-18T18:17:39.000Z', 'text': 'La verdad deja solo tomar la foto de la etiqueta pero no deja tomar la foto de la tapa del bonyourt', 'profileUrl': 'https://www.facebook.com/sandrapatricia.tiquecabezas', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/169085078_10224951261910508_3553400314664040320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kADFJ9tuET4Q7kNvwHgn-m8&amp;_nc_oc=AdlCDSl7OimphCrY2LxANNa4pqJvn5a3I0PKl0vIoIodd2FReJTwMd-vBFJwWTnVjuk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=Asz9Uohh8qpbZifhG99I-g&amp;oh=00_AfZIXxEWIaQ5AJ5gY-zLl050jtKuqm9vep4ReOY8ggFHsw&amp;oe=68F137DA', 'profileId': 'pfbid0Y3dguEYxxiqt5hZUewLSNSBWaKeZzA4A1vpXk4GaBcycyZsLXLzyxGN586Jj3eHil', 'profileName': 'Sandra Patricia Tique Cabezas', 'likesCount': '4', 'commentsCount': 6, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1285330253224490', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEyODUzMzAyNTMyMjQ0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMjg1MzMwMjUzMjI0NDkw', 'date': '2025-08-18T18:17:39.000Z', 'text': 'La verdad deja solo tomar la foto de la etiqueta pero no deja tomar la foto de la tapa del bonyourt', 'profileUrl': 'https://www.facebook.com/sandrapatricia.tiquecabezas', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t1.6435-1/169085078_10224951261910508_3553400314664040320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kADFJ9tuET4Q7kNvwFAuaY6&amp;_nc_oc=AdmU08fiOOnEB3bENGEOKQrzPFUN4O8en1ZXbDibsNadx6BrZbvG3YcZD3mp_j5S06w&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=7B12rtJw3kXWa3bxQSbCTg&amp;oh=00_AfYmqnRmoo3YCCrjeeizlSzOOESemtVm9gRfw8cZxElvpg&amp;oe=68F218DA', 'profileId': 'pfbid02bu5Q5uUnp97RhBDrgfdjom8FGL6s6qmkKBrMXpFngML9oh8ZSqugCKz8gKeGXT1Zl', 'profileName': 'Sandra Patricia Tique Cabezas', 'likesCount': '4', 'commentsCount': 6, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1050655663724124', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwNTA2NTU2NjM3MjQxMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDUwNjU1NjYzNzI0MTI0', 'date': '2025-08-16T16:05:03.000Z', 'text': 'Fabian Diaz Rojas Si trae, bueno los que compre si traían la etiqueta con la promoción solo que todas las etiquetas salen es Bono de. Y no sale más palabras para armar.', 'profileUrl': 'https://www.facebook.com/kendry.padillamartinez', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/70871129_2868823029813340_5742895277941981184_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qpg5jqV0CCAQ7kNvwGb2YpC&amp;_nc_oc=AdlMEb2M8TXT0_TcJQp_SAN-TiYvb6hLmyRLQ2l93Slm8dsv647u3xZHoWP1NtMlKOE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=KQ_6WnYxnDH_qR3XEGh-XA&amp;oh=00_AfZMPRWuxenOjgWk2eqrUhGybHPPyn-udh4tZ-okq1O1vw&amp;oe=68F12CE0', 'profileId': 'pfbid034FoK9ccvHuXPtSnAzrhtZR2pnQ6FSZgfmEFrR6q9JL5vFT7QWSpoocezQEG7whVtl', 'profileName': 'Kepa Elu Mar', 'likesCount': '5', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1050655663724124', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwNTA2NTU2NjM3MjQxMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDUwNjU1NjYzNzI0MTI0', 'date': '2025-08-16T16:05:03.000Z', 'text': 'Fabian Diaz Rojas Si trae, bueno los que compre si traían la etiqueta con la promoción solo que todas las etiquetas salen es Bono de. Y no sale más palabras para armar.', 'profileUrl': 'https://www.facebook.com/kendry.padillamartinez', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/70871129_2868823029813340_5742895277941981184_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qpg5jqV0CCAQ7kNvwHdFSPb&amp;_nc_oc=Adnrj9WzGowxyNV4l8S7M-9Oko1Zwq8xeUm3-Q4FWdJVJfR3e2GbVbBHMJKjnsOqCMA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=cX4b39dzatDy4F4zF1MpmA&amp;oh=00_AfZ-1r597Bgloqu8CHwasZjVVroWhm6zYIfUvpmH7YauTA&amp;oe=68F24620', 'profileId': 'pfbid0ziA8ESzZSfL9My1mkGNoGBtt3gMaeNcRuXv1rEavNcuUu9PewAg5zUEmmKLznoLgl', 'profileName': 'Kepa Elu Mar', 'likesCount': '5', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=24421001617568753', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzI0NDIxMDAxNjE3NTY4NzUz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yNDQyMTAwMTYxNzU2ODc1Mw==', 'date': '2025-08-25T23:45:10.000Z', 'text': 'Quien a ganado yo no e ganado nada', 'profileUrl': 'https://www.facebook.com/sntndr.zharit', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/339441732_5845067702257266_6678489310265434472_n.jpg?stp=c0.0.600.600a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z348fJa_OkIQ7kNvwGn4Oat&amp;_nc_oc=AdlipeDlhzEUjy-IZRbzAW0f-WOZHy4SclLEqeUzSqhq8Yo3g4kvx4BdUIglaY4aG7g&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=KQ_6WnYxnDH_qR3XEGh-XA&amp;oh=00_AfYH4NRpeH5fgJeDn8lyYpxBbvpaUu8-jVNaPsYgJqOW-A&amp;oe=68CF96EA', 'profileId': 'pfbid0MD27UgJDGXEA3h39sYxM4mtjN8wrwAPiUz5JJg8uiXosCfXue4eX9oF3r4R3Qet7l', 'profileName': 'Sntndr Zharit', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=24421001617568753', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzI0NDIxMDAxNjE3NTY4NzUz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yNDQyMTAwMTYxNzU2ODc1Mw==', 'date': '2025-08-25T23:45:10.000Z', 'text': 'Quien a ganado yo no e ganado nada', 'profileUrl': 'https://www.facebook.com/sntndr.zharit', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/339441732_5845067702257266_6678489310265434472_n.jpg?stp=c0.0.600.600a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pyIk2wcgpBsQ7kNvwEvHAaM&amp;_nc_oc=AdkP2UtSA4H_fU7ohWObyqo-7oClwlgqbxNJz6gGPMPwBd16WKnIFANu2rU4N94mSdk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=cX4b39dzatDy4F4zF1MpmA&amp;oh=00_AfYULjWLzN5wQCyRSVnjjyz8yg1Xt6bySDdYLOD7tivxFw&amp;oe=68D077EA', 'profileId': 'pfbid02QaWJ6heqJCa6GjezWXXPexYovZmpLFsiMx15BADiGzzDchKUMh91yuB2CQNrjXoSl', 'profileName': 'Sntndr Zharit', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1310838200458237', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEzMTA4MzgyMDA0NTgyMzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMzEwODM4MjAwNDU4MjM3', 'date': '2025-08-23T01:43:13.000Z', 'text': 'Promo para poder vender como están de caros', 'profileUrl': 'https://www.facebook.com/mono.garcia.990581', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/545259290_701053019617347_4701829651419119319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZEQyFjFU4LIQ7kNvwHlBxXh&amp;_nc_oc=Admf8HxpglhA0AGyUi2LJ69rn-83G3c1ZP5kSpIKOREpTi2xEFJnjVbDWtICXuxYwPw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=KQ_6WnYxnDH_qR3XEGh-XA&amp;oh=00_AfYWPvOJRAyYYs4kKGZXU2xIIzUyy41xMPSej_M0WGo5lg&amp;oe=68CF94C8', 'profileId': 'pfbid034kCE7YVRWPLXQRES6HUjLJmJSX13Q2VpnYN1ejrsb55LyFhf3ivoR4WTY4LdyCo6l', 'profileName': 'Mono García', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1310838200458237', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEzMTA4MzgyMDA0NTgyMzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMzEwODM4MjAwNDU4MjM3', 'date': '2025-08-23T01:43:13.000Z', 'text': 'Promo para poder vender como están de caros', 'profileUrl': 'https://www.facebook.com/mono.garcia.990581', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/545259290_701053019617347_4701829651419119319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZEQyFjFU4LIQ7kNvwFo2we1&amp;_nc_oc=AdkbKN3cjSqdDfQHRWC7n7WzttKUJvpmHI7Yq_ZbNkZRW3U6OGYpQDwFYEGTLC9sMko&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=cX4b39dzatDy4F4zF1MpmA&amp;oh=00_AfajWTcIba-bBwsTO6HUQu8MaCCfj68_fryOuXB8VNZv0w&amp;oe=68D075C8', 'profileId': 'pfbid021CZ3CNs4fEzpSfFceKGEthwX1ahkrCe1ZjpitAfcZAqS9W2TQyu9YixEiBXnyj2al', 'profileName': 'Mono García', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=792486116689833', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc5MjQ4NjExNjY4OTgzMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83OTI0ODYxMTY2ODk4MzM=', 'date': '2025-08-29T04:56:00.000Z', 'text': 'Le dieron cajas de bonyurt de chococrispis?', 'profileUrl': 'https://www.facebook.com/joseb.l.amour.de.dieu', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514343997_122141036642709419_5960750840293920963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jBMaMTvXdmEQ7kNvwFJmRhy&amp;_nc_oc=AdkPCP2GCzsy_7_fe-WbVWdSBNNgP_sxDcobn54vsURMixSN5eeo_EDbncLCsyK5UBI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=KQ_6WnYxnDH_qR3XEGh-XA&amp;oh=00_AfaMPfdYf-B3KfDf2xiDEhZQfwDFDo5xRJXYW_NI0XAcuQ&amp;oe=68CF9816', 'profileId': 'pfbid02Y5GeB3yRTYckqkGa7cYBJZUC1p5afggb4xjnv6bycRHLw7LRxcYkPUFv2ufaXgTsl', 'profileName': "Joséb L'amour de Dieu", 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=792486116689833', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc5MjQ4NjExNjY4OTgzMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83OTI0ODYxMTY2ODk4MzM=', 'date': '2025-08-29T04:56:00.000Z', 'text': 'Le dieron cajas de bonyurt de chococrispis?', 'profileUrl': 'https://www.facebook.com/joseb.l.amour.de.dieu', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514343997_122141036642709419_5960750840293920963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jBMaMTvXdmEQ7kNvwFZk9Lh&amp;_nc_oc=Admh_kdO9w4tBWb319zw4ji3ffFvuB0AxZ5LMJZp4yVmTphiTBo8viAWyXDAIrM1Zs4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=cX4b39dzatDy4F4zF1MpmA&amp;oh=00_AfaMs4lhjorukPyppaDJpT6QVJ2oJu1CPAZ2JjWn15u2Dw&amp;oe=68D07916', 'profileId': 'pfbid0U3fvhEmrnbdomfAThNc2twr4u3aGhEEXf6tWXem2kkMuJUShQxD6qVTq34mjuMM6l', 'profileName': "Joséb L'amour de Dieu", 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1764834620787514', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE3NjQ4MzQ2MjA3ODc1MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNzY0ODM0NjIwNzg3NTE0', 'date': '2025-08-16T21:18:55.000Z', 'text': 'Si no lo deja inscribirse', 'profileUrl': 'https://www.facebook.com/martha.jimenez.416448', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/433009143_1230487934580836_6908465968097519066_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t4GbL-CNY9UQ7kNvwFeym5v&amp;_nc_oc=AdmSXPiJKONUX6zqA3SadxQlV-vra_VelHWiz9Z830a2NI2xG9g_oZyl-LL8JXqPRkQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=KQ_6WnYxnDH_qR3XEGh-XA&amp;oh=00_AfZuVT9a8olyiUJFeH6XxZL2zmD5fjRt70oMsxurKH9ARg&amp;oe=68CF936D', 'profileId': 'pfbid02Yxi3UWTGikBxrLXcmrWvJxK9LLFyEmqREZvq4AkrZiPjC8Fh4sFyNPd5FUmNP93Yl', 'profileName': 'Martha Jimenez', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1764834620787514', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE3NjQ4MzQ2MjA3ODc1MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNzY0ODM0NjIwNzg3NTE0', 'date': '2025-08-16T21:18:55.000Z', 'text': 'Si no lo deja inscribirse', 'profileUrl': 'https://www.facebook.com/martha.jimenez.416448', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/433009143_1230487934580836_6908465968097519066_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t4GbL-CNY9UQ7kNvwFJXBLc&amp;_nc_oc=AdlrrGeXtIEtQLMpca6gsQC1UeO4o5tJ92hxrcETfhV9xPDv1R7eMatc6Lw0i7ytkRo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=cX4b39dzatDy4F4zF1MpmA&amp;oh=00_AfZ35fZp2CQU5rLdTnmiyJsgSeHhkjqWicN2odhXg67ztA&amp;oe=68D0ACAD', 'profileId': 'pfbid0VR4rZLpusUZe6o9HJc7PNuXmJ8j66QbHFVri9uZDrbG66kzVAQed6vh2BzVd6rmFl', 'profileName': 'Martha Jimenez', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1650183732322472', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE2NTAxODM3MzIzMjI0NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNjUwMTgzNzMyMzIyNDcy', 'date': '2025-08-28T05:45:32.000Z', 'text': 'En qué consiste la dinámica?', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/495590669_1379881589892322_4155403582257766639_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6og7JbG5P9IQ7kNvwEmk25E&amp;_nc_oc=Adm5Gw7saNcb5ZvfkqhInYy45eJZx1Ea7Z3qH4fvvfnK9up8RfXO8udzNyBn7wAYurk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=KQ_6WnYxnDH_qR3XEGh-XA&amp;oh=00_AfaQRJIUifw-GywSaCpGqY7OV7Yl52bHM2TbTtUoCRe_XQ&amp;oe=68CF7D85', 'profileId': '100036114819809', 'profileName': 'Ivohepe Herpe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1650183732322472', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE2NTAxODM3MzIzMjI0NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNjUwMTgzNzMyMzIyNDcy', 'date': '2025-08-28T05:45:32.000Z', 'text': 'En qué consiste la dinámica?', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/495590669_1379881589892322_4155403582257766639_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6og7JbG5P9IQ7kNvwGQdet8&amp;_nc_oc=AdnkpiE0Bcf6k3f-LCJ8FM5dHjUvV0VwWszYxcybD2SoglQc8M5XRgyABMGR_XHgPRw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=cX4b39dzatDy4F4zF1MpmA&amp;oh=00_AfbWPdpNA9ygU9pb0plBz2s-npRdtNiDLqLew1wK61cRoQ&amp;oe=68D096C5', 'profileId': '100036114819809', 'profileName': 'Ivohepe Herpe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1479092219912332', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NzkwOTIyMTk5MTIzMzI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDc5MDkyMjE5OTEyMzMy', 'date': '2025-08-20T18:36:36.000Z', 'text': 'Entre mil ,una y entre 10 mil ? Ninguna', 'profileUrl': 'https://www.facebook.com/silvana.rodriguez.1213986', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/425326901_2551727151666568_5546543243206401141_n.jpg?stp=c0.120.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qhmeYF7oj7gQ7kNvwEY9EYb&amp;_nc_oc=Adl4aZl1duUN7D_U_8drbMIbaEj1F4f2P-6mMw2hnh4X9Ikk3USgo7E9ehQWOzicTkg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=KQ_6WnYxnDH_qR3XEGh-XA&amp;oh=00_AfaM9REftBQsJgK0_s8HYb1HDR6wl6uXm68OazgWI8AcEw&amp;oe=68CF76B6', 'profileId': 'pfbid0UrxaaXJ5664R7wMJHviarVupq7kDEW7oLt1DMssyW6fg6Li3QLrjJaXXv9jaDNzkl', 'profileName': 'Silvana Rodriguez', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1479092219912332', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NzkwOTIyMTk5MTIzMzI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDc5MDkyMjE5OTEyMzMy', 'date': '2025-08-20T18:36:36.000Z', 'text': 'Entre mil ,una y entre 10 mil ? Ninguna', 'profileUrl': 'https://www.facebook.com/silvana.rodriguez.1213986', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/425326901_2551727151666568_5546543243206401141_n.jpg?stp=c0.120.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KdrFNuC8gWQQ7kNvwH7wK7A&amp;_nc_oc=AdkdEEule5MAvU8zga4n9xAYBoFCChyPdfs63QNTviCRMv-v-m3XzbreCurvMLlWsf0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=cX4b39dzatDy4F4zF1MpmA&amp;oh=00_AfZB7qTL7xG_M0nzPdmgVCyJkR8ZniDiZFvJ_TWJ3Lu2bQ&amp;oe=68D08FF6', 'profileId': 'pfbid02YESmCYeh7tTqWGiwpXzKUhwERQqm23HutXNTegjhmanyWj4aquVPxpz2ic7JH25al', 'profileName': 'Silvana Rodriguez', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4660,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=2108493479644128', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIxMDg0OTM0Nzk2NDQxMjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMTA4NDkzNDc5NjQ0MTI4', 'date': '2025-08-16T23:36:23.000Z', 'text': 'Exceso de azúcar y lactosueros..🙄', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/487319083_10236445916110645_3965358070865649238_n.jpg?stp=c0.0.366.366a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DJMHdY44RA0Q7kNvwEAsE02&amp;_nc_oc=AdkYZGWvE1ZCYISdQYj8mHUr8bI7iT3Q_QMQp3zbS7fny98Q-OUBdojZhZBcujapSDU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=KQ_6WnYxnDH_qR3XEGh-XA&amp;oh=00_AfYbtRAxWU0jcmLWmUBEBBNE4EA0OcVr878JlB_QQfPO6Q&amp;oe=68CF7A69', 'profileId': 'pfbid0tmGjuBuBp4aigzSG6b4xVRXnfPHb2YyWyJVkCDjzCbz8ARZKEV8BGujxciihiNrpl', 'profileName': 'Karolina Kja', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=2108493479644128', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIxMDg0OTM0Nzk2NDQxMjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMTA4NDkzNDc5NjQ0MTI4', 'date': '2025-08-16T23:36:23.000Z', 'text': 'Exceso de azúcar y lactosueros..🙄', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/487319083_10236445916110645_3965358070865649238_n.jpg?stp=c0.0.366.366a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DJMHdY44RA0Q7kNvwHWd_zH&amp;_nc_oc=Adlxz-hUucrPm68NC2skIXg8b7Q2fSgUNEHj0foyEyCC9uXywITG50Q9te44uXTPkbM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=cX4b39dzatDy4F4zF1MpmA&amp;oh=00_AfYcreXdumtd75AnB_4oz1DeslLwPq617WFQoDUD29vNiA&amp;oe=68D093A9', 'profileId': 'pfbid02xciT5rq1fe5crCbkxiPCpCoGs6ZkwaT8oAA1uPM1w4rbsCiPwjTN5zC8Y29D8Vbvl', 'profileName': 'Karolina Kja', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4714,7 +4714,7 @@
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1448726483110234', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NDg3MjY0ODMxMTAyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDQ4NzI2NDgzMTEwMjM0', 'date': '2025-08-22T00:25:17.000Z', 'text': 'Será cierto???', 'profileUrl': 'https://www.facebook.com/diego.barreto.716', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/419124201_10231665520643901_860220546070691865_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=0dkNK-3yVTMQ7kNvwEhbGTr&amp;_nc_oc=Adl-dAGkpgiIRp-pyRwBDzTmcIYznO24t-DW23sjE9TdzejQIY-w1GvCB5K8Lr96bb4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=KQ_6WnYxnDH_qR3XEGh-XA&amp;oh=00_Afaw1mkGqB9ackX9NBzSDj7JBnbAJU-eM4vVv_DgLJLmOg&amp;oe=68CF8B86', 'profileId': '1318496675', 'profileName': 'Diego Barreto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1448726483110234', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NDg3MjY0ODMxMTAyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDQ4NzI2NDgzMTEwMjM0', 'date': '2025-08-22T00:25:17.000Z', 'text': 'Será cierto???', 'profileUrl': 'https://www.facebook.com/diego.barreto.716', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/419124201_10231665520643901_860220546070691865_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=0dkNK-3yVTMQ7kNvwECNcNU&amp;_nc_oc=AdmywrjhqGzwEmxoutcczC3Dj0B7RG7sAR1p6BJfxgfqNTsWUTuOQjG1v8jSX14PTrc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=cX4b39dzatDy4F4zF1MpmA&amp;oh=00_Afa5SPBSG32gi7T0oZtoAU9IrNojvZehU6Xc08-xpR6KuA&amp;oe=68D0A4C6', 'profileId': '1318496675', 'profileName': 'Diego Barreto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1822553905349628', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4MjI1NTM5MDUzNDk2Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODIyNTUzOTA1MzQ5NjI4', 'date': '2025-08-20T04:31:07.000Z', 'text': 'Si fuera cierto esto solo se lo ganan los propios dueños y familiares y acaso por ahí uno de los trabajadores', 'profileUrl': 'https://www.facebook.com/diaz.magda.813170', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/532217640_1418152876131819_2381907829061478679_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=o8DAIKs6EVUQ7kNvwHozxAy&amp;_nc_oc=Adkgkd5IL9Kcu7nd7G0BDCjlgQ1pBVcbPZ9t9T5NeWALAmi_fcyxT6MDSeVBscMBvPA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=KQ_6WnYxnDH_qR3XEGh-XA&amp;oh=00_AfZcCKSlk1rW6MuT_SZyl9ZOIR6Ltdmw0I6AojqpGA79Eg&amp;oe=68CF82CE', 'profileId': 'pfbid0379yxfiuqz22CZiVkWv1GsGD3SCcfhP1PYYKnmDG1hd2a2r8Z752L6oZBNresNFHbl', 'profileName': 'Diaz Magda', 'likesCount': '0', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1822553905349628', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4MjI1NTM5MDUzNDk2Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODIyNTUzOTA1MzQ5NjI4', 'date': '2025-08-20T04:31:07.000Z', 'text': 'Si fuera cierto esto solo se lo ganan los propios dueños y familiares y acaso por ahí uno de los trabajadores', 'profileUrl': 'https://www.facebook.com/diaz.magda.813170', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/532217640_1418152876131819_2381907829061478679_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=o8DAIKs6EVUQ7kNvwG59jTg&amp;_nc_oc=Adk7gqXIanbV8abFAzY8q_I6toFiIzUK6Z6Y7vNGLSo9n3rBBsTKFeQLCMH_Oq1Y_s0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=cX4b39dzatDy4F4zF1MpmA&amp;oh=00_Afa2SBJr76vGLKuqbK8AtXAuHbvrSc4I31201llrbZuJpA&amp;oe=68D09C0E', 'profileId': 'pfbid023cLmkZHV8gCmHZ83ZCBXvpoo2X3ePjtueZ7X9RKrqw2fn2B4BKTjdB6VEYyNNm2Kl', 'profileName': 'Diaz Magda', 'likesCount': '0', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=752752344292285', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1Mjc1MjM0NDI5MjI4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTI3NTIzNDQyOTIyODU=', 'date': '2025-08-25T12:16:03.000Z', 'text': 'Pura mierda no ganan nada', 'profileUrl': 'https://www.facebook.com/frankgil.rodriguezbello', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/177129736_4385676784777362_7560418220600693959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ceeflBUedJ0Q7kNvwGpDyOU&amp;_nc_oc=Adk6UYverVjuMlUrldBHZBS6WgbnbyEgyPIIOAicETWsOeCHLEalR6ScGqCu8dcWwto&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfahBy9mdN1I8GAczRLFXMaxZHLzXjekyn5UfKsSV0Rk1A&amp;oe=68F117AF', 'profileId': 'pfbid0MpQQwaUHuAHyBnpuKjBN5Zjb9eW6B8eRpkbXVGfvHYX2RXwWh1qcGEGVNifqpXs5l', 'profileName': 'Frankgil Rodriguez Bello', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=752752344292285', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1Mjc1MjM0NDI5MjI4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTI3NTIzNDQyOTIyODU=', 'date': '2025-08-25T12:16:03.000Z', 'text': 'Pura mierda no ganan nada', 'profileUrl': 'https://www.facebook.com/frankgil.rodriguezbello', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.6435-1/177129736_4385676784777362_7560418220600693959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ceeflBUedJ0Q7kNvwE2JJ0M&amp;_nc_oc=Adnljd13SD7NMC4PrLYeLr6yUAxH5ycL7hPpgHFPRJkrPiT-sXyMQP2BpdN7vOp0vYw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_AfYlmz2d-KtAE__7BhfHcZnOGjNy_KK5kIJVrNKXGObVPg&amp;oe=68F230EF', 'profileId': 'pfbid02Rfr88FQ7kS19mx4VvN6KsFz9PDTQL6rEVm9KUzDzgMzX7WbengVxAhSEfpKQGa3vl', 'profileName': 'Frankgil Rodriguez Bello', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1120381086677656', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMjAzODEwODY2Nzc2NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTIwMzgxMDg2Njc3NjU2', 'date': '2025-08-18T13:10:19.000Z', 'text': 'Eso es mentira', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/452634196_1534339997169984_8844195637229541364_n.jpg?stp=c0.81.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6PCUEolgqjEQ7kNvwHKCEEZ&amp;_nc_oc=AdkMfSltJBQFd6xx8aiD_x5sV31gBa9a7SoLlY7nZPz0w9F9TveKo19aolKKMKF8aQQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfZaFFmz55a4ifDGZydSzUhki2zYP6RvH3zChuaJvXzwmA&amp;oe=68CF9835', 'profileId': '100017819941079', 'profileName': 'Cecilia Florez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1120381086677656', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMjAzODEwODY2Nzc2NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTIwMzgxMDg2Njc3NjU2', 'date': '2025-08-18T13:10:19.000Z', 'text': 'Eso es mentira', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/452634196_1534339997169984_8844195637229541364_n.jpg?stp=c0.81.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6PCUEolgqjEQ7kNvwFs2GFi&amp;_nc_oc=Adlti63-Z665mmXvmbEjc84fN_rN3gwQyYmxmsMyYPz8dZoIee6CkyglFgDSYNnt3ZQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_AfYuZVya3zdUeIBvZzNQs23FvfBBv1mQtPtkTT_vjILRUA&amp;oe=68D07935', 'profileId': '100017819941079', 'profileName': 'Cecilia Florez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4930,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=32096847839914013', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzMyMDk2ODQ3ODM5OTE0MDEz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8zMjA5Njg0NzgzOTkxNDAxMw==', 'date': '2025-08-27T00:51:54.000Z', 'text': 'El yogur vale $3500 es difícil que le salga la palabra gana en dos tarros $7000 mil el tercer intento $3500  y nada ya son $10500 y así sucesivamente no gana ni mierdecita es para los bobos.. jjjjjj', 'profileUrl': 'https://www.facebook.com/jhonalexander.rangelvalbuena', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/415587060_2362706170582186_4838539986313662188_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mYo13XXA-IgQ7kNvwEX4qcb&amp;_nc_oc=AdmWp4b5E0KYxckAgx36aP5M1ZcLVudRnWCiANORUVBzGNAko1saDXmFSWLuc0KIJ8M&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfYUjCWsWRo625-xud9qW2Rq94WdDgG7sjZ_duuGusp64w&amp;oe=68CF85BB', 'profileId': 'pfbid02Z1z4xb6Wa5ukt95kuNsbjjNYMVNngPFxiKRozvyFXuu9Uzo7SRzNyhd8w41QfvWLl', 'profileName': 'Samuel Steven Sr.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=32096847839914013', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzMyMDk2ODQ3ODM5OTE0MDEz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8zMjA5Njg0NzgzOTkxNDAxMw==', 'date': '2025-08-27T00:51:54.000Z', 'text': 'El yogur vale $3500 es difícil que le salga la palabra gana en dos tarros $7000 mil el tercer intento $3500  y nada ya son $10500 y así sucesivamente no gana ni mierdecita es para los bobos.. jjjjjj', 'profileUrl': 'https://www.facebook.com/jhonalexander.rangelvalbuena', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/415587060_2362706170582186_4838539986313662188_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mYo13XXA-IgQ7kNvwG8QPM-&amp;_nc_oc=AdmASeWNk0vfFSTKsHKvn0jwYRoQppF7TQlhjl7-36cC2IFU9RBZWkjqd1IjmJt-uEM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_AfZphjxtat6y12i9TXBruRzxQGDfjpxKyWI9K1PbQWs7Jg&amp;oe=68D09EFB', 'profileId': 'pfbid0UzPMUmtwtznm2gAJaRFXh5a6pajxu1wWsGWNL3Yavv8Z8rjxD6QZs689LR1hQp5Cl', 'profileName': 'Samuel Steven Sr.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=750135404291021', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1MDEzNTQwNDI5MTAyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTAxMzU0MDQyOTEwMjE=', 'date': '2025-08-22T17:13:48.000Z', 'text': 'Huy el loki con BON YURT', 'profileUrl': 'https://www.facebook.com/andres.camacho.724314', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/544710870_122249918990225983_7303777820267523140_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=l9QDxtoraYsQ7kNvwEJBZyG&amp;_nc_oc=AdnJKdcKJJP4V81BxBB9zxX75m1dJgNgkW99hfvvv9KwrJciAS-4kDTd7LzhytmDgy4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfYjpimARKdvJSLVBI-RvB1um_9rif0gqpz0_Iy2MuLTow&amp;oe=68CF7512', 'profileId': 'pfbid0VoEfqFQ4VUvK6SBjcnNkRRZB8PxS8UMU2Vhh9q94L1gg3YaSTWFkaTTEDGmttpXql', 'profileName': 'Andres Camacho', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=750135404291021', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1MDEzNTQwNDI5MTAyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTAxMzU0MDQyOTEwMjE=', 'date': '2025-08-22T17:13:48.000Z', 'text': 'Huy el loki con BON YURT', 'profileUrl': 'https://www.facebook.com/andres.camacho.724314', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/544710870_122249918990225983_7303777820267523140_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=l9QDxtoraYsQ7kNvwFM4n1S&amp;_nc_oc=AdmNwKbFTThqtwSKJIq4GkQ4xt4qxm8NvpVpNfbWdeTN5AR20Gtvz80vjFv62CYKQ9o&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_AfbPYCZXx7jcaNlI3WdKl_l-pNJ41NNp6gGVHOBv7nXi1w&amp;oe=68D08E52', 'profileId': 'pfbid02ZAirTGkgX5yqkhM1MhVFQUrH5MiRHSoFp1kuZaBAqSpUZGyLP8EeeksemFKnZcrnl', 'profileName': 'Andres Camacho', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=4281269768822215', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQyODEyNjk3Njg4MjIyMTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MjgxMjY5NzY4ODIyMjE1', 'date': '2025-08-16T18:33:17.000Z', 'text': 'Eso es pura mentira, nisiquiera deja tomar la foto', 'profileUrl': 'https://www.facebook.com/people/Diego-Arce/pfbid0oCEDZhPqhPdpRnLDudFmrGz8Zzuri9Afp9fPGkUBDudpFM1GHvphJvoxJ43gAiF1l/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/530702935_122142770576805720_7289191483445824218_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_RqBhdJDaNMQ7kNvwFRLKcV&amp;_nc_oc=AdkB5NefyNBd2SvpNv0NxMPf2wuwvkiGha0V-BXJmZbihlo5kro83VNE7ukA5R2h1jQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfbJhXEgQpw15hfDQLtadCWET4Pt0_2IIswfF_ZFNd2V7A&amp;oe=68CF7F92', 'profileId': 'pfbid0oCEDZhPqhPdpRnLDudFmrGz8Zzuri9Afp9fPGkUBDudpFM1GHvphJvoxJ43gAiF1l', 'profileName': 'Diego Arce', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=4281269768822215', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQyODEyNjk3Njg4MjIyMTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MjgxMjY5NzY4ODIyMjE1', 'date': '2025-08-16T18:33:17.000Z', 'text': 'Eso es pura mentira, nisiquiera deja tomar la foto', 'profileUrl': 'https://www.facebook.com/people/Diego-Arce/pfbid02rZiQBikTixPyb3W7RQE75v9foUpxbKC6nhkWaJe3agM4Ees8kpmxNZrWpZRzm5ixl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/530702935_122142770576805720_7289191483445824218_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_RqBhdJDaNMQ7kNvwFzfyxj&amp;_nc_oc=Adk2CsRMjyQpyyKgvyYeTM34AWzW0inb6wR4YrAGj7RgfzrxBmBTuJSnb9JA-C-odWg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_AfaqztdO0jg5M0JF00WezAB1BXYqzZhAI_Ujfrp4MDj65w&amp;oe=68D098D2', 'profileId': 'pfbid02rZiQBikTixPyb3W7RQE75v9foUpxbKC6nhkWaJe3agM4Ees8kpmxNZrWpZRzm5ixl', 'profileName': 'Diego Arce', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1115652919917699', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMTU2NTI5MTk5MTc2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTE1NjUyOTE5OTE3Njk5', 'date': '2025-08-26T01:34:15.000Z', 'text': 'Ami no me deja tomar la foto', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/470070557_3881301305439067_594575361940528464_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4eXzWBAUrisQ7kNvwEjfJvS&amp;_nc_oc=AdnknycqwUJ8Gj1-7vrb2VwjM3PPtdAflY9u50hEAeQHJgz1LO6L1kv32MACFPABScg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_Afb1cP9TW3ZakrxAV0SsDnaWpoakLvGiZ3f7Pam0cxhDMg&amp;oe=68CF9762', 'profileId': 'pfbid02Y96La9PXx9yxsVXHdkCKwYyvuJig3zf5dgQj96dY1ri7B9wxTxFkjTf1JUAte77Al', 'profileName': 'Andrea Velez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1115652919917699', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMTU2NTI5MTk5MTc2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTE1NjUyOTE5OTE3Njk5', 'date': '2025-08-26T01:34:15.000Z', 'text': 'Ami no me deja tomar la foto', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/470070557_3881301305439067_594575361940528464_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4eXzWBAUrisQ7kNvwHKAYT8&amp;_nc_oc=AdkhnDrq6c6gsJVpCHX_S7Nlnymtbmaa6X-20VLwj0mP3EMK1dQ8Sq-Fhk-KXsWExDE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_Afb2s7xrUeM2fZNwk_s4zTaPytxbu4AtWzRsABH646egjQ&amp;oe=68D07862', 'profileId': 'pfbid0U7Vd6LByH5E85VXHhUhXjwFjePWXNZvUf2ErBynwnYwehGkU5fc59M2JAk4E7Syvl', 'profileName': 'Andrea Velez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1185115210120205', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExODUxMTUyMTAxMjAyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTg1MTE1MjEwMTIwMjA1', 'date': '2025-08-19T02:07:39.000Z', 'text': 'Componga eso solo deja ingresar 2 y no la otra plis uno lo que hace 😂😂😂', 'profileUrl': 'https://www.facebook.com/Suarezalejandra30', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/464726330_1062722565552651_5593026694289908028_n.jpg?stp=c0.0.612.612a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=i8pxnLggOW8Q7kNvwFLrK5B&amp;_nc_oc=AdlDSoDvUIyuenu-RYBcuPeCg2fJKnkDDeXsd6q5CO1840oEQ7vsxapMhzFc6qu-zXg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfaPnjKMV5z7LiEnLoJMeJNAROMwk6-WDTa9ELIRE1KvAQ&amp;oe=68CF964A', 'profileId': '100054447526950', 'profileName': 'Alejandra Suarez', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1185115210120205', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExODUxMTUyMTAxMjAyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTg1MTE1MjEwMTIwMjA1', 'date': '2025-08-19T02:07:39.000Z', 'text': 'Componga eso solo deja ingresar 2 y no la otra plis uno lo que hace 😂😂😂', 'profileUrl': 'https://www.facebook.com/Suarezalejandra30', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/464726330_1062722565552651_5593026694289908028_n.jpg?stp=c0.0.612.612a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5YnfcliGLOcQ7kNvwEe05zh&amp;_nc_oc=AdkfvghzF6wq2PiFjEFDowdmkjER_Tsu01lnoCgJD3rfF3IWRiiP9H8HXFF-I4gBJsw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_AfYyAbiEYxD5ZCLcgg2k1aMg9oQPRd-W68s8kVk1s_Zmbw&amp;oe=68D0774A', 'profileId': '100054447526950', 'profileName': 'Alejandra Suarez', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5200,7 +5200,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1459713115235977', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NTk3MTMxMTUyMzU5Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDU5NzEzMTE1MjM1OTc3', 'date': '2025-08-16T06:30:01.000Z', 'text': 'Eso n0 trae  nada publicidad engañosa', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/534187421_10237344221566548_5215797444915998323_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=iAgQtUaAQacQ7kNvwHP9cA-&amp;_nc_oc=AdlCse-au2wUrylwBXLBaY7NHA4M0w6hBNkJn00IOz8IzGH8dGoBEgbiLRpv2r0fbkA&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfZbsGWBRSdSTUzhVJayL7v9iGdkprP_o9koKQ5bFHiW8g&amp;oe=68CF8966'}, 'id': '10237344221526547', 'cix_screen': None, 'massive_image': {'width': 540, 'height': 960}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/534187421_10237344221566548_5215797444915998323_n.jpg?stp=dst-jpg_p118x90_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=iAgQtUaAQacQ7kNvwHP9cA-&amp;_nc_oc=AdlCse-au2wUrylwBXLBaY7NHA4M0w6hBNkJn00IOz8IzGH8dGoBEgbiLRpv2r0fbkA&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfYL46Qaisvn7njG2_T9GE4Xh1HSqIqxRR_pYQ-HqzdBBw&amp;oe=68CF8966', 'width': 118, 'height': 210}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/fabianthecrow', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/354067744_10229999487992799_7063213958346107302_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MpS3rrPe5fQQ7kNvwEJ2-H7&amp;_nc_oc=AdklNQ_dAWoY5okJAaksAi09RU2xWONZXmlqPpWc62-pgN839iZj3Etsv6Q-9MlD1VM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfZ_478B6-Ih1LulKwzVDd9HeddRp8sI5NpVDAzgEteU9g&amp;oe=68CF8B56', 'profileId': 'pfbid02qaVGAHdTRE16GNrzVizqhc9EpKchKfTcZJydSz4kZdnXktD2LhAUbCHxDg6NZj33l', 'profileName': 'Fabian Diaz Rojas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1459713115235977', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NTk3MTMxMTUyMzU5Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDU5NzEzMTE1MjM1OTc3', 'date': '2025-08-16T06:30:01.000Z', 'text': 'Eso n0 trae  nada publicidad engañosa', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/534187421_10237344221566548_5215797444915998323_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=iAgQtUaAQacQ7kNvwHzcTGM&amp;_nc_oc=AdlDjZdp7RDeqq1lWtr8ggUVAZrY5rx3cd15o9zzB4DnLMIHOwmIfsdhWEWxRMavNDo&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_AfaeIuOMlaZ_HzThm99LeDV4V61mTXZs_kyBZ0TUgT3BgA&amp;oe=68D0A2A6'}, 'id': '10237344221526547', 'cix_screen': None, 'massive_image': {'width': 540, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/534187421_10237344221566548_5215797444915998323_n.jpg?stp=dst-jpg_p118x90_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=iAgQtUaAQacQ7kNvwHzcTGM&amp;_nc_oc=AdlDjZdp7RDeqq1lWtr8ggUVAZrY5rx3cd15o9zzB4DnLMIHOwmIfsdhWEWxRMavNDo&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_AfaTe4uZuMvVlkHleW8iF87m0NX_KLzlbYaLgpqGUvrQQQ&amp;oe=68D0A2A6', 'width': 118, 'height': 210}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/fabianthecrow', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/354067744_10229999487992799_7063213958346107302_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0_L6hTQZO8UQ7kNvwFx0zFq&amp;_nc_oc=Adle9RDNc8WLV8eu7Fc8J4XaAbJAf1zzsi4y95n-DtOXaJomG264WnGJLT0jmKoYCso&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_AfZVDG-iDc3YToZBJKPE-4cLPnxtB7UIaoRzuJWQJgEwbA&amp;oe=68D0A496', 'profileId': 'pfbid0n2r5F816a1gQDAyMqeknHyugr2P2hNMrsvN2CQadDMtTDwWQg5K2n2RbgmyXn7eZl', 'profileName': 'Fabian Diaz Rojas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=1886374095552977', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4ODYzNzQwOTU1NTI5Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODg2Mzc0MDk1NTUyOTc3', 'date': '2025-08-24T16:06:08.000Z', 'text': 'Ese man es un asco de persona....', 'profileUrl': 'https://www.facebook.com/libia.miranda.121', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/448484826_953761139824713_217244319080151186_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gZFuhWWqM8gQ7kNvwF0oIoo&amp;_nc_oc=AdlNN-figZuoz8w-rNBHAj9ybtFX2YUAEVB0zkg56GRpJqU5I-crAn32cMMjU4z796Q&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfZd0KQjFwAkQN5xCqCSpgH2IhlqADdU5IaFJ8l9TGQM8Q&amp;oe=68CF8558', 'profileId': 'pfbid06otcc7Ujs8ZNfsQbHAzkqQGNKDmxa3wtyf3mC6A79xk5uQF28G8w3GjgAu8Ya1Uol', 'profileName': 'Libia Miranda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=1886374095552977', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4ODYzNzQwOTU1NTI5Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODg2Mzc0MDk1NTUyOTc3', 'date': '2025-08-24T16:06:08.000Z', 'text': 'Ese man es un asco de persona....', 'profileUrl': 'https://www.facebook.com/libia.miranda.121', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/448484826_953761139824713_217244319080151186_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=i0lTfQYFAD4Q7kNvwFj4gzX&amp;_nc_oc=AdlUsP5Mogww-HgS5Pb285ZgwlL3_uXqX3b7o8NpJEfTh1N5_bURsPbu2SW5tUReXuI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_Afbk8fv6vnr_vudGuSIRrFyTuu0UBYt0LU1bTXskvzDnGA&amp;oe=68D09E98', 'profileId': 'pfbid02AfLKnnQZicP3DAYYLwUttEW7Cr17GfjLQUGWquGJerUxMUzRKKRYaXRbYxdqaKkKl', 'profileName': 'Libia Miranda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04Jy8BwJi5fWDaUSnMXPTrKYMVN1eJmXZuSfPDAz4XGwTUYdWsXk5A6Xs9rM8pYd3l?comment_id=776453175083585', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc3NjQ1MzE3NTA4MzU4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NzY0NTMxNzUwODM1ODU=', 'date': '2025-08-29T01:54:43.000Z', 'text': 'Cuando salen esas promociones la gente compra hasta el paquete completo y no ganan es nada 😭😭😭', 'profileUrl': 'https://www.facebook.com/jonatan.rolon', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/405232782_7255762734476564_8966792079219826695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aKS7A0BpZlAQ7kNvwFkiqvx&amp;_nc_oc=AdnzcM29QeoXvpbc7q-CXn8_8C2RK5BYIJ6BZF0x1cmJo0JtPaDCpw_x_rOyobXa9wg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=_kM00n40Wi3hW4ifHH_QWA&amp;oh=00_AfZZi8ypPUgRV_3JJQmSwdsZ1LcjNU_7JtuOoxOF-4iPMA&amp;oe=68CF87BB', 'profileId': '100001287292160', 'profileName': 'Jonatan Rolon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027gTJoxfL7LKGZaEnE7vxA7ezhDzs9YrTuNaJsN4yy9e1Doh3Fkd3c9FbHR7bJHV2l?comment_id=776453175083585', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc3NjQ1MzE3NTA4MzU4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NzY0NTMxNzUwODM1ODU=', 'date': '2025-08-29T01:54:43.000Z', 'text': 'Cuando salen esas promociones la gente compra hasta el paquete completo y no ganan es nada 😭😭😭', 'profileUrl': 'https://www.facebook.com/jonatan.rolon', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/405232782_7255762734476564_8966792079219826695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-lWR408XFJ8Q7kNvwHixNIR&amp;_nc_oc=AdnadLsd3JrQgYjzQMliZTeGdS1Y4nb8U5gQiGkYLSANs7f1w_4e9Ukv5KIx4cqFiZM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=zHtGYBKlWNpXe8e5rUExZA&amp;oh=00_Afa50ITEnWOcc03d6_CWDyZ5It412Ay7ZZNYc4Q_kwZUKw&amp;oe=68D0A0FB', 'profileId': '100001287292160', 'profileName': 'Jonatan Rolon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1822478522023492', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE4MjI0Nzg1MjIwMjM0OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xODIyNDc4NTIyMDIzNDky', 'date': '2025-08-24T23:19:12.000Z', 'text': 'Elegante', 'profileUrl': 'https://www.facebook.com/jose.quinones.723527', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/484293509_122174038334293825_2798302913096566844_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-oUlnPKnVEAQ7kNvwHePO1_&amp;_nc_oc=AdmqU0FJ1y_X-QHVkUoe8-tvLMIj2uNf9JEZ9w7n91fSBkeG2xfUgtl32yp7yvggu-sx2TXHyVo7JgdgS3evVN7H&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=05-iOc48vC93Q0P-fuyKEw&amp;oh=00_AfbvKn9_PlGKOo0-UnON0hhy4FdqUjbuyPjXKBCilDJmAw&amp;oe=68CF6BDA', 'profileId': '61558814773416', 'profileName': 'Jose Quiñones', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1822478522023492', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE4MjI0Nzg1MjIwMjM0OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xODIyNDc4NTIyMDIzNDky', 'date': '2025-08-24T23:19:12.000Z', 'text': 'Elegante', 'profileUrl': 'https://www.facebook.com/jose.quinones.723527', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/484293509_122174038334293825_2798302913096566844_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-oUlnPKnVEAQ7kNvwF6ISaC&amp;_nc_oc=AdkU9ynDvRVJkmfd9BrLK1k435rJntMgyojTOpgj1tk71az_n4O4T8v1D6lsTVlelyk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=LuXiwbUA-P6hXXW6Dw3aSg&amp;oh=00_AfbAumCaAwwWt2uRUxkzNpNDkEgg9cmGEk6jAM5M16Ar0Q&amp;oe=68D0851A', 'profileId': '61558814773416', 'profileName': 'Jose Quiñones', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1929122727938850', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5MjkxMjI3Mjc5Mzg4NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTI5MTIyNzI3OTM4ODUw', 'date': '2025-08-24T18:24:10.000Z', 'text': 'Buena papayo', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/513955197_1089820249686822_3714323986721359203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=9EUQq2e2O9QQ7kNvwEBo2kJ&amp;_nc_oc=Adl9qGD0d0mNHxXdrrbtDE2HfBDEpI0ou8eO0FBOntpqbajTqZmqhqQ0KeBTPVTVcORlTi5VFsTPGdPUjQCJFW5B&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=05-iOc48vC93Q0P-fuyKEw&amp;oh=00_AfaB16Yus7PZQUi2ADe1K5W2YcJ9tie2QXV_Rt9Ge_Nn-g&amp;oe=68CF6F8B', 'profileId': '100059765715586', 'profileName': 'Turco Ortiz', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1929122727938850', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5MjkxMjI3Mjc5Mzg4NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTI5MTIyNzI3OTM4ODUw', 'date': '2025-08-24T18:24:10.000Z', 'text': 'Buena papayo', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/513955197_1089820249686822_3714323986721359203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=9EUQq2e2O9QQ7kNvwGJVda1&amp;_nc_oc=Adm_sz_2G3UJlfxY4bGUOh-Wjcmy7mhJ9SXDvoaLs8TWL1W1k80YpAE5o5pMZDv69UI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=LuXiwbUA-P6hXXW6Dw3aSg&amp;oh=00_AfaQa968Z1IgkvEBexqJfnvwHNaNJ36x9KGWgdcvpsRNbQ&amp;oe=68D088CB', 'profileId': '100059765715586', 'profileName': 'Turco Ortiz', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5470,7 +5470,7 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=625533767016581', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYyNTUzMzc2NzAxNjU4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182MjU1MzM3NjcwMTY1ODE=', 'date': '2025-08-31T21:50:44.000Z', 'text': 'Que bueno chévere', 'profileUrl': 'https://www.facebook.com/rosiris.tirado.79', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/318876509_5751772464890342_4553535761637008071_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4ZJcc5z8P98Q7kNvwFm9QSF&amp;_nc_oc=Adn-Mz0U5y40BPwG3RQHfLfCifR7aBPQJypYKEkjCHpS6BbWyVHIAVDcNd3EkMXfRNvNymPFUCLgN0eS8YcPvKtw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=05-iOc48vC93Q0P-fuyKEw&amp;oh=00_AfatkslTXDEuQunJtFZZ1YgG0izZcDJXR-bb8Z-URryYBA&amp;oe=68CF7744', 'profileId': 'pfbid0SFGPs1y7avqPvugnXVdVuhNRkN51G6zbtuv1p4Jo2yLSVSL7Rz9eyKKsRhUhHeJYl', 'profileName': 'Rosiris Tirado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=625533767016581', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYyNTUzMzc2NzAxNjU4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182MjU1MzM3NjcwMTY1ODE=', 'date': '2025-08-31T21:50:44.000Z', 'text': 'Que bueno chévere', 'profileUrl': 'https://www.facebook.com/rosiris.tirado.79', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/318876509_5751772464890342_4553535761637008071_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tiuh91T6_ZMQ7kNvwEPb6T0&amp;_nc_oc=AdkdyPkin7QfKbkZJ6kLio2rijXrIekZ-JNmtN82OoO0J-AryGmXnifZAALExL4IaIg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=LuXiwbUA-P6hXXW6Dw3aSg&amp;oh=00_Afb12YGLFH7twrfOc1c2QGfsn2algyJaSPgmN78uxV3IEA&amp;oe=68D09084', 'profileId': 'pfbid02W6i73gtwSCCivGrNHXBSZSbLAn3HyWTPYCR9bH2SFXFZkTut5jCJF4kPbGBwG9oil', 'profileName': 'Rosiris Tirado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1196634089154940', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExOTY2MzQwODkxNTQ5NDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTk2NjM0MDg5MTU0OTQw', 'date': '2025-08-31T16:13:22.000Z', 'text': 'Que bueno mi loquillo', 'profileUrl': 'https://www.facebook.com/jesly.ibarguen.mosquera', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/490705607_615391658148284_7137657784117800471_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GC8Km-iK2YsQ7kNvwF46ZLB&amp;_nc_oc=Adl5_2TNFcJ7a0Rh_ibyvlN58S-QKaNIa0ZjWRYRSQm7TD3zi-zr1qKvG7bwboYU1QbbJl1iRvqTJUoFXC1w6GRI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=05-iOc48vC93Q0P-fuyKEw&amp;oh=00_Afb-EMSeZYmbPOhKY2QGGiZDIk_31zgrDnMKX_RMW7l-rA&amp;oe=68CF9869', 'profileId': 'pfbid0BNqKrYptFT3mhJJ1T91xWZwZfsNqvnQQAKDaFmW4hKmVrzLDdNHj5h132AVCYxNZl', 'profileName': 'Jesly Ibarguen Mosquera', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1196634089154940', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExOTY2MzQwODkxNTQ5NDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTk2NjM0MDg5MTU0OTQw', 'date': '2025-08-31T16:13:22.000Z', 'text': 'Que bueno mi loquillo', 'profileUrl': 'https://www.facebook.com/jesly.ibarguen.mosquera', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490705607_615391658148284_7137657784117800471_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GC8Km-iK2YsQ7kNvwHt6fqH&amp;_nc_oc=AdntzXCvtvankwJ9Vt7TqMTGBFn5MEDTPRabMmX1s56NTOFbrXKrJwSsif5vkdjtDeY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=LuXiwbUA-P6hXXW6Dw3aSg&amp;oh=00_AfYw1qGR960NBLzVzuTP4oZEGDOLIivoITMZKGJci31saw&amp;oe=68D07969', 'profileId': 'pfbid02FEH33Dki6ptiDSu3vyJNimhXcqUgQqx5nUyCUBiybGxVXGme45v183SH4GuVUZX4l', 'profileName': 'Jesly Ibarguen Mosquera', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1281639713466726', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyODE2Mzk3MTM0NjY3MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjgxNjM5NzEzNDY2NzI2', 'date': '2025-08-22T14:30:02.000Z', 'text': 'Si el bonyur era rico así solito. Cómo será ahora que se combina bonyur con LOKILLO😋😋😋', 'profileUrl': 'https://www.facebook.com/rocio.ovallosbarbosa', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/473616422_10234419535327036_6801076088117551709_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=DbsHWrw1OmIQ7kNvwGtHXO7&amp;_nc_oc=Adl2rzwv_XpqMMeSmRtuNXSTxfDFURQwzTy6vuAeYAzcDytIBmSoau-8lzuGI0Zp1RJXYlXEt0ootiKy8dLdbtEC&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=05-iOc48vC93Q0P-fuyKEw&amp;oh=00_AfaydmlMnpv2m00aesTC6zuycZqYsGgZ1a-8FFfuTtmEIw&amp;oe=68CF9DFA', 'profileId': '1153157565', 'profileName': 'Rocio Ovallos Barbosa', 'likesCount': '20', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1281639713466726', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyODE2Mzk3MTM0NjY3MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjgxNjM5NzEzNDY2NzI2', 'date': '2025-08-22T14:30:02.000Z', 'text': 'Si el bonyur era rico así solito. Cómo será ahora que se combina bonyur con LOKILLO😋😋😋', 'profileUrl': 'https://www.facebook.com/rocio.ovallosbarbosa', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/473616422_10234419535327036_6801076088117551709_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=DbsHWrw1OmIQ7kNvwHA7kg5&amp;_nc_oc=AdnB5uFVCSOPKHJKyITzGhzWZS39qin9jZPf4p32FptJu_LBp_WUV5cVHoO2FR5huMA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=LuXiwbUA-P6hXXW6Dw3aSg&amp;oh=00_AfYsByZWuiXs_xwcfCMVvZUoUNOIEnicFzi9QzzFO_eBqQ&amp;oe=68D07EFA', 'profileId': '1153157565', 'profileName': 'Rocio Ovallos Barbosa', 'likesCount': '20', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5632,7 +5632,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1955389891929788', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NTUzODk4OTE5Mjk3ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTU1Mzg5ODkxOTI5Nzg4', 'date': '2025-08-30T14:54:15.000Z', 'text': 'Mira tú esa monda y uno acá esperando nuevo capítulo de perros criollos! JAJAJAJAJAJAJAJAJAJAJAJAJ te amo Loki', 'profileUrl': 'https://www.facebook.com/fernandacosmetics96', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/520920314_1246593880343599_1111365114605700818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dBg_JMqcAQQ7kNvwEnd4yr&amp;_nc_oc=AdnRBK2_5TAGE-boXkof0b0k-ohQXjBT-wMKrotQuHW8DC5lEllF7lE7XCOOgd5FGa1R8ghxEWlJW3RhgeEF0eFn&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=05-iOc48vC93Q0P-fuyKEw&amp;oh=00_AfY7y9SgfaD38yrpp2wWh2ZTBd_BIvp9iEEJjMorDTMFyQ&amp;oe=68CF7ED0', 'profileId': '100049789951806', 'profileName': 'Cosmetologa Cosmiatra May Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1955389891929788', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NTUzODk4OTE5Mjk3ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTU1Mzg5ODkxOTI5Nzg4', 'date': '2025-08-30T14:54:15.000Z', 'text': 'Mira tú esa monda y uno acá esperando nuevo capítulo de perros criollos! JAJAJAJAJAJAJAJAJAJAJAJAJ te amo Loki', 'profileUrl': 'https://www.facebook.com/fernandacosmetics96', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/520920314_1246593880343599_1111365114605700818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dBg_JMqcAQQ7kNvwGN4tqr&amp;_nc_oc=AdmH02h2Xv_5cP_S8EzInFCuCKfGe7XJnsSHCs8yEsKC28qm8Dzx3FxRui7dRrCijP8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=LuXiwbUA-P6hXXW6Dw3aSg&amp;oh=00_AfbTtA_WQHuJpPjMlK3KW_4xlZPGVDSo8xDf6Nod7xI9wA&amp;oe=68D09810', 'profileId': '100049789951806', 'profileName': 'Cosmetologa Cosmiatra May Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=782285414385538', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc4MjI4NTQxNDM4NTUzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183ODIyODU0MTQzODU1Mzg=', 'date': '2025-09-04T10:27:28.000Z', 'text': 'LOKILLO el mejor', 'profileUrl': 'https://www.facebook.com/yimmyalbornozjr', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/484867736_643987678250871_7818427368768413231_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=oulGpwIsdnAQ7kNvwG52Jg5&amp;_nc_oc=Adn5FAQCkojhheIt4J6gHgbYIodSMbLCeE98-HLa0GNeLJukiRiHxKhMMntuB0iWpJ3IcVi68A49asc8NztuLJIJ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=05-iOc48vC93Q0P-fuyKEw&amp;oh=00_AfZ7ZZ5p7OdkinOMq2szQAy0piLBMz0E0ghXrPz--yyUCw&amp;oe=68CF8272', 'profileId': '100079189340095', 'profileName': 'Yimmy Albornoz Jr.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=782285414385538', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc4MjI4NTQxNDM4NTUzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183ODIyODU0MTQzODU1Mzg=', 'date': '2025-09-04T10:27:28.000Z', 'text': 'LOKILLO el mejor', 'profileUrl': 'https://www.facebook.com/yimmyalbornozjr', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/484867736_643987678250871_7818427368768413231_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=oulGpwIsdnAQ7kNvwGqem7N&amp;_nc_oc=AdmQIMLJ8aZ-CZp8Z0_tj8mrtK5k5kWk45YlYsjE1dS6i7nklP2NlHH5dXwetwLldkU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LuXiwbUA-P6hXXW6Dw3aSg&amp;oh=00_AfYo_tmvLe9D5wJYj25FFOkd30NY9ASwZYWh1mFuCC6i1g&amp;oe=68D09BB2', 'profileId': '100079189340095', 'profileName': 'Yimmy Albornoz Jr.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=759726296920289', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1OTcyNjI5NjkyMDI4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTk3MjYyOTY5MjAyODk=', 'date': '2025-08-26T18:51:33.000Z', 'text': 'Jejejjeje ese era el bless jajajaja cantando', 'profileUrl': 'https://www.facebook.com/alex.valle.906120', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/525332803_752863117698014_7098047070177921233_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3m2TKbWoLwAQ7kNvwEGuFlY&amp;_nc_oc=AdltJt0F7YGlKSY5R-Uuz6oytdfmdLSJaQtcnH6D82MW4G5BqiLoDQZlqQrX-BzxDMDER3ws-AXyLdOUSV1X_wa7&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=05-iOc48vC93Q0P-fuyKEw&amp;oh=00_AfaT-WF73TLZ9xDbtigNNNXPEnTDGQcmedJDYsKjBIDy2w&amp;oe=68CF75D1', 'profileId': '100089229964764', 'profileName': 'Alex Valle', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=759726296920289', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1OTcyNjI5NjkyMDI4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTk3MjYyOTY5MjAyODk=', 'date': '2025-08-26T18:51:33.000Z', 'text': 'Jejejjeje ese era el bless jajajaja cantando', 'profileUrl': 'https://www.facebook.com/alex.valle.906120', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/525332803_752863117698014_7098047070177921233_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3m2TKbWoLwAQ7kNvwEOsrQ1&amp;_nc_oc=AdkEaUpDOiioi-mtX7Dzq4PGXqRqyaqjEN1D0erofsW0y91cJFEbPGi_PJW5Js9VK7Y&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=LuXiwbUA-P6hXXW6Dw3aSg&amp;oh=00_AfaAhfyNBxDG3kLwnkwQBpPzIeDouqKgOUY65s0niJHIZA&amp;oe=68D08F11', 'profileId': '100089229964764', 'profileName': 'Alex Valle', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=766685555735636', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc2NjY4NTU1NTczNTYzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NjY2ODU1NTU3MzU2MzY=', 'date': '2025-08-23T02:59:43.000Z', 'text': 'Loki te amoooooo', 'profileUrl': 'https://www.facebook.com/Adrianita1984', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/515436282_631680579966050_2146966360550331034_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QUO0sBh4ifMQ7kNvwFYzVS_&amp;_nc_oc=AdmB1h04lMe7zufbW9AGHB2rSqpggBqkH-nVPhRcv9zsiN0y_7wLX7B7VUv_S-hjPCilD4DjxmY_XJT72yaGglDO&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=05-iOc48vC93Q0P-fuyKEw&amp;oh=00_AfbD0NkGfe_fvGCESE4IK2xxNcx1GombXUC0Pg187NKrkg&amp;oe=68CF72D8', 'profileId': 'pfbid02VyB3dhpVNrmSPvB7Jtwmi7nzoQa6iqP1So6VbxxnKuDdxnZWsxLvpYe6Bmp1HgvQl', 'profileName': 'Adriana Fernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=766685555735636', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc2NjY4NTU1NTczNTYzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NjY2ODU1NTU3MzU2MzY=', 'date': '2025-08-23T02:59:43.000Z', 'text': 'Loki te amoooooo', 'profileUrl': 'https://www.facebook.com/Adrianita1984', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/515436282_631680579966050_2146966360550331034_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QUO0sBh4ifMQ7kNvwHSRJqs&amp;_nc_oc=AdkA9Xm9GcqiUpLRuQ9zriEoPDtHictGZIqOYt9n99jV_uZJ2-dXML52S8hVupf1nvU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=LuXiwbUA-P6hXXW6Dw3aSg&amp;oh=00_AfZiPPcg5kd7ZC7reIeBzsOHPKKCM7Pcu50QuObjidVbrw&amp;oe=68D08C18', 'profileId': 'pfbid0SRXriYC8XgJ6o4YrJ3yC7BkuLXZqF258m8xh5RyXt4zg5wcgg1REdfKb8soghWeRl', 'profileName': 'Adriana Fernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5848,7 +5848,7 @@
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1323845609162864', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzMjM4NDU2MDkxNjI4NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzIzODQ1NjA5MTYyODY0', 'date': '2025-08-30T18:39:30.000Z', 'text': 'Deme 10 de una vez ❤️', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/538614175_10163973755431983_2899712820755373490_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=X-wBrF_8DusQ7kNvwG1-2WY&amp;_nc_oc=AdmZ2YCELkxOc3CoQOhJNyZPKK0rNCwfssLqN609I15-XjDkJbbzz6HqWAz9ULjP8U5B-eg5y8bcm0SadTxenn1Z&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=05-iOc48vC93Q0P-fuyKEw&amp;oh=00_AfYWJY9U6sAG4kCTHuZg8FyWHmUaLD4IRXxPMO0TuStovQ&amp;oe=68CF74AA', 'profileId': 'pfbid026wrveT32N4nrkkVixPB7A4Pyp27sj7gD5VCY3mJGfUzVKKD1ptNBtwpHhVDaAJ5Ml', 'profileName': 'Mariana Pineda Angel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1323845609162864', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzMjM4NDU2MDkxNjI4NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzIzODQ1NjA5MTYyODY0', 'date': '2025-08-30T18:39:30.000Z', 'text': 'Deme 10 de una vez ❤️', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/538614175_10163973755431983_2899712820755373490_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=X-wBrF_8DusQ7kNvwHWWqQO&amp;_nc_oc=AdllM5UZkNOktwmiCUC2nZag790DGY-5LoM9w8BUTKhWYW-vwgmG4UBTKVjyjvE0pPA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=LuXiwbUA-P6hXXW6Dw3aSg&amp;oh=00_Afb7ICgnf9iBYcI8nv0Z9u9HJp0pwI74dirbg5W9F9GTuA&amp;oe=68D08DEA', 'profileId': 'pfbid03QDjjHQfWy9MRFfuZEb6br7FyR2Y7ksrf6tienuiFFLEWB2LFPXYpVRgGTk6kiN1l', 'profileName': 'Mariana Pineda Angel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5902,7 +5902,7 @@
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2585406545156676', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI1ODU0MDY1NDUxNTY2NzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNTg1NDA2NTQ1MTU2Njc2', 'date': '2025-08-22T21:22:01.000Z', 'text': 'Te admiro ladillo tu la rompes', 'profileUrl': 'https://www.facebook.com/sergioandrecaicedo', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/528269033_24585035534459233_3732001438658360675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4AdOo9D4QnMQ7kNvwF7Vd4h&amp;_nc_oc=AdmJIxr7oF7cwBlw_b88JDG-BRoeg4fO5LbUIaqVap_JKxE8HzeRp0SwnSI4IkXB4tKpuMJ6mDSALCDcRuzRajxA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=Dv8vdPqU20oN4K3cSIHpJw&amp;oh=00_AfZFOqCyULOaeaDDZVucUOTw8YcVKIEBfuS7LCcmKcDcCA&amp;oe=68CF68C8', 'profileId': '100001383837594', 'profileName': 'Sergio Andres Caicedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2585406545156676', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI1ODU0MDY1NDUxNTY2NzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNTg1NDA2NTQ1MTU2Njc2', 'date': '2025-08-22T21:22:01.000Z', 'text': 'Te admiro ladillo tu la rompes', 'profileUrl': 'https://www.facebook.com/sergioandrecaicedo', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/528269033_24585035534459233_3732001438658360675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4AdOo9D4QnMQ7kNvwFAcmP8&amp;_nc_oc=AdlHrOoHz2vUSdAkcuLQDkrWiRvVwVgo8AvJOtT9J5vaF52ua6YJbv83yucgLMvwmiE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=CKQuXJlYdSGNGnwauxFdGA&amp;oh=00_AfYHyqRgZVg0mHxEnuKKlWrYQ4qQSDzD_lTi_olVEIJAJw&amp;oe=68D08208', 'profileId': '100001383837594', 'profileName': 'Sergio Andres Caicedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5956,7 +5956,7 @@
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1281986983172906', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyODE5ODY5ODMxNzI5MDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjgxOTg2OTgzMTcyOTA2', 'date': '2025-09-16T06:27:48.000Z', 'text': 'Lokillo están Random que escribió el rap e improviso la trova \U0001fae1', 'profileUrl': 'https://www.facebook.com/OmarNuevaEra', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/487942512_3240922732726353_8710491254399829691_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=E1dS8h8rUm0Q7kNvwEHhe26&amp;_nc_oc=Adk16cleK0D1uLjrSt7DSagcKQ2Gzz2VBYB4h5Rlkbmuef54NFitXYB3CaaN5TuCVz38GqBlLezAD-TH1hnpkl5m&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=Dv8vdPqU20oN4K3cSIHpJw&amp;oh=00_AfZCg3xVHvO-Zo8Lcbkq1gT276lVItVg7EeOi3gNAEl-Xg&amp;oe=68CF8850', 'profileId': '100004259734786', 'profileName': 'Omar García', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1281986983172906', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyODE5ODY5ODMxNzI5MDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjgxOTg2OTgzMTcyOTA2', 'date': '2025-09-16T06:27:48.000Z', 'text': 'Lokillo están Random que escribió el rap e improviso la trova \U0001fae1', 'profileUrl': 'https://www.facebook.com/OmarNuevaEra', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/487942512_3240922732726353_8710491254399829691_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=E1dS8h8rUm0Q7kNvwE9J9DH&amp;_nc_oc=Adk7Sc-QwvhHrA7BTwwt3o1KIEActb8bq1Uks06oXOKut0lYxgvZiuoJTuYJFIMpyik&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=CKQuXJlYdSGNGnwauxFdGA&amp;oh=00_AfYpZDPNUulIj7xXjbIhYbQbj2lUosfo9I-9EW3rQ_8IeQ&amp;oe=68D0A190', 'profileId': '100004259734786', 'profileName': 'Omar García', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5982,18 +5982,18 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Le creo la trova por qué el rapeo estuvo muy boleta</t>
+          <t>La única forma q me aguante una publicidad jejejej</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45899.55818287037</v>
+        <v>45910.18449074074</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>45899</v>
+        <v>45910</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>13:23:47</t>
+          <t>04:25:40</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6010,7 +6010,7 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=24698250009792631', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI0Njk4MjUwMDA5NzkyNjMx', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNDY5ODI1MDAwOTc5MjYzMQ==', 'date': '2025-08-30T13:23:47.000Z', 'text': 'Le creo la trova por qué el rapeo estuvo muy boleta', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/513493385_1773897183478812_5275291222877607114_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OyD01Tn0xkAQ7kNvwEh8Vel&amp;_nc_oc=AdlymJr4xbFDTrYdojktM-hyBC5z8dQiO96qcpjWbfvt9_o_eCodkHAk7Z6Ng2XnA3JW1QxFj1YjEX0RpbfwMV5y&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=Dv8vdPqU20oN4K3cSIHpJw&amp;oh=00_AfYmWNX0w6SRoO7OoCTPFh0VJIEy63meTa9bnNbNmH1yig&amp;oe=68CF9BA4', 'profileId': 'pfbid023SJ2XurDiqgh7ZDDVomi2aNdaisy7dNWmnGxoXm6K8rykCh6vFSDrbfNvxUS5RLtl', 'profileName': 'Marlon E J Chavez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=809837878378598', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzgwOTgzNzg3ODM3ODU5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM184MDk4Mzc4NzgzNzg1OTg=', 'date': '2025-09-10T04:25:40.000Z', 'text': 'La única forma q me aguante una publicidad jejejej', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/443713861_7964916240193701_1822002741145861079_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vTB3hsDGeCEQ7kNvwGMyZ5J&amp;_nc_oc=AdkQlofJYo1alsLh3PyvQaAtKOLOs19w96guIbdB6Z39Pfi37BXNZaGfH22SBMcdfFs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=CKQuXJlYdSGNGnwauxFdGA&amp;oh=00_AfaxIAk9YfQiEkNPENy0XENLkQcmu2ATgTto37rPAHS0Qw&amp;oe=68D0AB72', 'profileId': 'pfbid0ykMMctKj3kiCVN6vGVedbaUyg39NSVV18WbGjZsiSAoFMPoi39rGELPtES1mFRrol', 'profileName': 'Stephanie Giordani', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6036,23 +6036,23 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>La única forma q me aguante una publicidad jejejej</t>
+          <t>Y lo mejor de todo que lo creen a uno pendejo y compré y compré bon yurt y no sale ni un raspaoooo pa un domingo</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45910.18449074074</v>
+        <v>45893.13454861111</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>45910</v>
+        <v>45893</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>04:25:40</t>
+          <t>03:13:45</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K109" t="n">
@@ -6064,7 +6064,7 @@
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=809837878378598', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzgwOTgzNzg3ODM3ODU5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM184MDk4Mzc4NzgzNzg1OTg=', 'date': '2025-09-10T04:25:40.000Z', 'text': 'La única forma q me aguante una publicidad jejejej', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/443713861_7964916240193701_1822002741145861079_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qISzl879glsQ7kNvwE6oJ7b&amp;_nc_oc=AdkVlRFu7Eo-HtR4BtwBLxvMwme130IKviRM0sN9gc0uVcRMrf7neILAjXqhDFyhR5pIXHK3mziKbbX4ibgOVMfn&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=Dv8vdPqU20oN4K3cSIHpJw&amp;oh=00_AfZybcQ7ZGzpfK2KOsTB4eBXCmtIjVxhcrhKsVHJBlaeMQ&amp;oe=68CF9232', 'profileId': 'pfbid033HzYY3x5trc69LJRptxmnYZ1St9DvRiMRYqPRR29uoc86fogADi7ZuDx8HuPv13al', 'profileName': 'Stephanie Giordani', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1941458779980984', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NDE0NTg3Nzk5ODA5ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTQxNDU4Nzc5OTgwOTg0', 'date': '2025-08-24T03:13:45.000Z', 'text': 'Y lo mejor de todo que lo creen a uno pendejo y compré y compré bon yurt y no sale ni un raspaoooo pa un domingo', 'profileUrl': 'https://www.facebook.com/juliocesar.cardenasrodriguez.54', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/82270127_137295337939518_8341976502010074168_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pcshUpWSwk4Q7kNvwGRqrLx&amp;_nc_oc=AdlYCAk4H0077rjimUjxU_4R5m0XFVpKZiNqgCtw57EcAvIrccdW7Ip8yqWbqdVQ0zc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=CKQuXJlYdSGNGnwauxFdGA&amp;oh=00_Afaz6dDVoVCuXs7cL89zqOxj80f2vkDJtvlNMDd1uISFqA&amp;oe=68F24602', 'profileId': 'pfbid0HHRh9Z4zPKfaZ4uNJc3CTpBAf6xoYqWXoyKt6mw9i4NdG5KKLrJpXJoB56ggFNy6l', 'profileName': 'Julio Cesar Cárdenas Rodríguez', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6090,23 +6090,23 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Y lo mejor de todo que lo creen a uno pendejo y compré y compré bon yurt y no sale ni un raspaoooo pa un domingo</t>
+          <t>Lo unico bueno que pudo sacar alpina. Fué a loquillo en una propaganda 👌🏻</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45893.13454861111</v>
+        <v>45892.83394675926</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>45893</v>
+        <v>45892</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>03:13:45</t>
+          <t>20:00:53</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K110" t="n">
@@ -6118,7 +6118,7 @@
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1941458779980984', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NDE0NTg3Nzk5ODA5ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTQxNDU4Nzc5OTgwOTg0', 'date': '2025-08-24T03:13:45.000Z', 'text': 'Y lo mejor de todo que lo creen a uno pendejo y compré y compré bon yurt y no sale ni un raspaoooo pa un domingo', 'profileUrl': 'https://www.facebook.com/juliocesar.cardenasrodriguez.54', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/82270127_137295337939518_8341976502010074168_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V6CoWP0V4xQQ7kNvwHMHIHF&amp;_nc_oc=AdnzpKUsGu7iuLB3Jn3QH5NTcoiSPGCAlMJvQT-WpblZdDiGIcmQVrYaf2OAGQQ7oT9bBCUGlk-2Sv6gG13WtcLt&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=Dv8vdPqU20oN4K3cSIHpJw&amp;oh=00_AfYdGVxN_X2ctpi44nni9pnX1wVe4U4fzKUzH5NfNsUPRA&amp;oe=68F12CC2', 'profileId': 'pfbid02Lq4t4ihMEYJVpCY4aUCnNpLFUA1SnUJib7ztfB3dkbuXYtggx7sRUDvxbo8gmhoJl', 'profileName': 'Julio Cesar Cárdenas Rodríguez', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1126156946083186', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMjYxNTY5NDYwODMxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTI2MTU2OTQ2MDgzMTg2', 'date': '2025-08-23T20:00:53.000Z', 'text': 'Lo unico bueno que pudo sacar alpina. Fué a loquillo en una propaganda 👌🏻', 'profileUrl': 'https://www.facebook.com/JohaoHdez', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/524694274_122146293566773327_5965559268779805949_n.jpg?stp=c0.403.1536.1536a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XPfcd6IogZ4Q7kNvwG3JtGH&amp;_nc_oc=AdnXou_5aQN0EmPNFtyGzvm-A9DTTymw3Qoi32PLcn4C0v79CtgOIQoIotm63M6Ih3k&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=CKQuXJlYdSGNGnwauxFdGA&amp;oh=00_AfYVw6AzeJ5_0NXAhh11qg5fIo4DZBN4XaXuzS0liPABWg&amp;oe=68D0930F', 'profileId': 'pfbid0jdvzKKymgh6Lop7Vwc3oPEvf9wqj5v14JFfKt6pi3LMEtxitJXV3mpcugEmU1S4nl', 'profileName': 'Hernandez Johao', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6144,23 +6144,23 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Lo unico bueno que pudo sacar alpina. Fué a loquillo en una propaganda 👌🏻</t>
+          <t>"El nombre perfecto para este sorteo improvisado. No se ven los ganadores. Complete primero todas las frases y nada, no he visto ni al primer ganador".</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45892.83394675926</v>
+        <v>45910.57200231482</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>45892</v>
+        <v>45910</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>20:00:53</t>
+          <t>13:43:41</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K111" t="n">
@@ -6172,7 +6172,7 @@
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1126156946083186', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMjYxNTY5NDYwODMxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTI2MTU2OTQ2MDgzMTg2', 'date': '2025-08-23T20:00:53.000Z', 'text': 'Lo unico bueno que pudo sacar alpina. Fué a loquillo en una propaganda 👌🏻', 'profileUrl': 'https://www.facebook.com/JohaoHdez', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/524694274_122146293566773327_5965559268779805949_n.jpg?stp=c0.403.1536.1536a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iZD8ceiYKkMQ7kNvwEXXffm&amp;_nc_oc=AdnTjJx6KwTwcOADpUAWsFqeryishsAQWxWfmhw8-C8gL9TTF0U0ks2znSjKb4e2_AJiRcY3edvY-8nsr1orkQnA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=Dv8vdPqU20oN4K3cSIHpJw&amp;oh=00_AfZUZ3f71u-gBm7OKH-YrYq_W8VZrtpGGTwlzC1lo_UGgQ&amp;oe=68CF79CF', 'profileId': 'pfbid02oBaBEVc8Y1uDbGq9g5DSWL2ZAZsbg9sL39ph3Ct6kLrQcLhWPZLBcyx1YALWukXJl', 'profileName': 'Hernandez Johao', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=801413722394566', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzgwMTQxMzcyMjM5NDU2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM184MDE0MTM3MjIzOTQ1NjY=', 'date': '2025-09-10T13:43:41.000Z', 'text': '"El nombre perfecto para este sorteo improvisado. No se ven los ganadores. Complete primero todas las frases y nada, no he visto ni al primer ganador".', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/502580408_3922647438065636_7395170395017184822_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UcdHIUqcvBgQ7kNvwHjkCVi&amp;_nc_oc=AdlOOOTOVeJFsL1ko5l-dwBWN9beghlbEbjyrWB2N7oXmGHG8eXI6ACSYMDlQ_j5bNM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=CKQuXJlYdSGNGnwauxFdGA&amp;oh=00_AfY4JvhiyXSfkR6kMMxh5IQrUOeauFKuQQxTTFvyAmXE4A&amp;oe=68D07FB4', 'profileId': 'pfbid0cBMFbKqNaCjQdZkZmYkjKFA89zuLL175DRT92LYnia3d5xytivMrpjgkNrCiNAfGl', 'profileName': 'Cardonaa Diianaa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6198,23 +6198,23 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>"El nombre perfecto para este sorteo improvisado. No se ven los ganadores. Complete primero todas las frases y nada, no he visto ni al primer ganador".</t>
+          <t>Esos bon yurt solo. Lo pueden comprar los de estrato 4 para arriba, que producto tan caro y tan poquito que es</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45910.57200231482</v>
+        <v>45884.86681712963</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>45910</v>
+        <v>45884</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>13:43:41</t>
+          <t>20:48:13</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -6226,7 +6226,7 @@
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=801413722394566', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzgwMTQxMzcyMjM5NDU2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM184MDE0MTM3MjIzOTQ1NjY=', 'date': '2025-09-10T13:43:41.000Z', 'text': '"El nombre perfecto para este sorteo improvisado. No se ven los ganadores. Complete primero todas las frases y nada, no he visto ni al primer ganador".', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/502580408_3922647438065636_7395170395017184822_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vVipRNav3HMQ7kNvwHuhDcR&amp;_nc_oc=AdnxZkk8l19odGTsENoSfO0gU-FmigofSMYkv3xfFxArzHuGloZ0fDXbptZLUsCUryAhD1TMERyryqkNmKamVXSE&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=Dv8vdPqU20oN4K3cSIHpJw&amp;oh=00_AfbuHmID4ISEXqpl1UUDec0h3M9dP1fIzcvfQQlynFslfg&amp;oe=68CF6674', 'profileId': 'pfbid02fizSWVTjRXWdcatXuZirLZTxcWcr4XE85nb34T7pvW5jX4s8mnP289YKyzJSn8nRl', 'profileName': 'Cardonaa Diianaa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=706636655769224', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzcwNjYzNjY1NTc2OTIyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183MDY2MzY2NTU3NjkyMjQ=', 'date': '2025-08-15T20:48:13.000Z', 'text': 'Esos bon yurt solo. Lo pueden comprar los de estrato 4 para arriba, que producto tan caro y tan poquito que es', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/483064201_3849010855310662_4877008829820244224_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=uWQhA6pyxF4Q7kNvwFo5RSU&amp;_nc_oc=AdlbN699m3vqlsKB0oU_6au3D6j1QvrWF-GzBn2hRH020ebSuzOOaM-B1ZP9PUrlrhw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=CKQuXJlYdSGNGnwauxFdGA&amp;oh=00_AfZdWNKguLo0msAz3ACytmKiUa6FQxRPdLlWzzNFflmMhw&amp;oe=68D085F0', 'profileId': '100006053552767', 'profileName': 'Cristian Melan', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6252,23 +6252,23 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Esos bon yurt solo. Lo pueden comprar los de estrato 4 para arriba, que producto tan caro y tan poquito que es</t>
+          <t>Reciclar xq con el mínimo, en 3 bonyur son medio día de trabajo...</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45884.86681712963</v>
+        <v>45884.71167824074</v>
       </c>
       <c r="H113" s="3" t="n">
         <v>45884</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>20:48:13</t>
+          <t>17:04:49</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K113" t="n">
@@ -6280,7 +6280,7 @@
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=706636655769224', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzcwNjYzNjY1NTc2OTIyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183MDY2MzY2NTU3NjkyMjQ=', 'date': '2025-08-15T20:48:13.000Z', 'text': 'Esos bon yurt solo. Lo pueden comprar los de estrato 4 para arriba, que producto tan caro y tan poquito que es', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/483064201_3849010855310662_4877008829820244224_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VygOj1_gGAkQ7kNvwEsdmKJ&amp;_nc_oc=Adnqc_1nDDyMqDvDXLl6iwAMmtvY1kJGSrCVdqxUxdHOaGKpKWQEHdfpqiIAnvRDb5p6_-FUmkLmj0X3xwx0llB-&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=Dv8vdPqU20oN4K3cSIHpJw&amp;oh=00_AfYE9RPVsKa61iMbUKTuj-sK5VaCRI1dfyeBioPJX3fdAQ&amp;oe=68CF6CB0', 'profileId': '100006053552767', 'profileName': 'Cristian Melan', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1253548079835538', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyNTM1NDgwNzk4MzU1Mzg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjUzNTQ4MDc5ODM1NTM4', 'date': '2025-08-15T17:04:49.000Z', 'text': 'Reciclar xq con el mínimo, en 3 bonyur son medio día de trabajo...', 'profileUrl': 'https://www.facebook.com/yleonardo.perez.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/545160860_2285397468530009_6363577824185687762_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7qJE2ODDnwUQ7kNvwEYWaN8&amp;_nc_oc=AdnP6Gz3pUFYDlpg0Y3qqrXLS5b1iBG9UVRRVo4v4XtsUPsWpRO4HSeUSzQf745fYjc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=CKQuXJlYdSGNGnwauxFdGA&amp;oh=00_AfbecJuuMhsIkTQWwhPdlQfayI42g0vPD93SiIlzU2D2WQ&amp;oe=68D0A3CE', 'profileId': '100011793342927', 'profileName': 'YLeonardo PErez', 'likesCount': '7', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6306,23 +6306,23 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Reciclar xq con el mínimo, en 3 bonyur son medio día de trabajo...</t>
+          <t>La esencia del pana es la troba</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>45884.71167824074</v>
+        <v>45913.94498842592</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>45884</v>
+        <v>45913</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>17:04:49</t>
+          <t>22:40:47</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K114" t="n">
@@ -6334,7 +6334,7 @@
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1253548079835538', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyNTM1NDgwNzk4MzU1Mzg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjUzNTQ4MDc5ODM1NTM4', 'date': '2025-08-15T17:04:49.000Z', 'text': 'Reciclar xq con el mínimo, en 3 bonyur son medio día de trabajo...', 'profileUrl': 'https://www.facebook.com/yleonardo.perez.2025', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/545160860_2285397468530009_6363577824185687762_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7qJE2ODDnwUQ7kNvwFQdIvN&amp;_nc_oc=Adl3A0afi3bRZ4_Ji1CoG2RFoIiLNdW9B00kfz59ilvUDIvMV6PRVURshReNwOa8Bd6wI3-RBwzZDYaCxumX_KHZ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=Dv8vdPqU20oN4K3cSIHpJw&amp;oh=00_Afaac9f4O8zessidV2bhCl2ulrtP0iT52Hpfj0j62kzQYA&amp;oe=68CF8A8E', 'profileId': '100011793342927', 'profileName': 'YLeonardo PErez', 'likesCount': '7', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1341803910994751', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzNDE4MDM5MTA5OTQ3NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzQxODAzOTEwOTk0NzUx', 'date': '2025-09-13T22:40:47.000Z', 'text': 'La esencia del pana es la troba', 'profileUrl': 'https://www.facebook.com/Mk.mercy.MS', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/477890542_3968527456693594_6365367082735739551_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=zkBto-b7nTgQ7kNvwF0cBpz&amp;_nc_oc=AdkTF77FcXJi2-wpF8FseuMq_84obKl6XIRZizIW9XCshEL2ScR3JlPf__6yMlGKC3I&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=CKQuXJlYdSGNGnwauxFdGA&amp;oh=00_AfZ5ccfPJ0uOgvjqkhDPUWF8wXLD4yqSv3k8g2muUJWRdw&amp;oe=68D09AAB', 'profileId': '100006091357697', 'profileName': 'Mk Mercy', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6360,18 +6360,18 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>La esencia del pana es la troba</t>
+          <t>con los ojos separados</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>45913.94498842592</v>
+        <v>45892.77451388889</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>45913</v>
+        <v>45892</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>22:40:47</t>
+          <t>18:35:18</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6388,7 +6388,7 @@
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1341803910994751', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzNDE4MDM5MTA5OTQ3NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzQxODAzOTEwOTk0NzUx', 'date': '2025-09-13T22:40:47.000Z', 'text': 'La esencia del pana es la troba', 'profileUrl': 'https://www.facebook.com/Mk.mercy.MS', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/477890542_3968527456693594_6365367082735739551_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=zkBto-b7nTgQ7kNvwHN6K-C&amp;_nc_oc=AdnkCpI1m8fEjupwmva1jrZNbrL8uMr2Z_Pv1FOde3_uxIBExViO5HhxpJtf0mTUD3EZAm3_JFSIOGz9ewQYP1w-&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=Dv8vdPqU20oN4K3cSIHpJw&amp;oh=00_AfbF2ALXOgXW0QFaU_66ZAclNzKReU9G19oAuvsSf1fD1Q&amp;oe=68CF816B', 'profileId': '100006091357697', 'profileName': 'Mk Mercy', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=749535657840873', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc0OTUzNTY1Nzg0MDg3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NDk1MzU2NTc4NDA4NzM=', 'date': '2025-08-23T18:35:18.000Z', 'text': 'con los ojos separados', 'profileUrl': 'https://www.facebook.com/juanesteban.fernandezrodrigez.9', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/492736801_1244682600335479_9180170920030715078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_7cE1klFdJEQ7kNvwG-wFow&amp;_nc_oc=AdkFaipM_8uG76KrrC4O2M-eRgzIZB52qxhx9ASOsisQBEtQQISG5x6wxAsOBxjp0z0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=CKQuXJlYdSGNGnwauxFdGA&amp;oh=00_AfbhtKo4V4k6EbWw0E2T36dc7SbTWTUnykl6GCHhupY5_w&amp;oe=68D07F24', 'profileId': '100043812534158', 'profileName': 'Juan Fernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6414,23 +6414,23 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>con los ojos separados</t>
+          <t>Lokillo Ese comercial me hizo recordar las tapas de coca cola nunca ganamos nada</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>45892.77451388889</v>
+        <v>45884.72306712963</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>45892</v>
+        <v>45884</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>18:35:18</t>
+          <t>17:21:13</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K116" t="n">
@@ -6442,7 +6442,7 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=749535657840873', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc0OTUzNTY1Nzg0MDg3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NDk1MzU2NTc4NDA4NzM=', 'date': '2025-08-23T18:35:18.000Z', 'text': 'con los ojos separados', 'profileUrl': 'https://www.facebook.com/juanesteban.fernandezrodrigez.9', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/492736801_1244682600335479_9180170920030715078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_7cE1klFdJEQ7kNvwG-ATjc&amp;_nc_oc=AdluyapVP6Dw_ICjg_DyfFA2JkbdXLzHFz3yyPnmz0FL6WR4FOM5Lc1GwJiHvjPkpHc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=6QaZq92qYk3i7kA5Ee2A3A&amp;oh=00_AfZJnBeZ0ncJHJi6_kI_9EIcKb8uXAyVCZXqk99wyUQZ0Q&amp;oe=68CF65E4', 'profileId': '100043812534158', 'profileName': 'Juan Fernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2105761439914052', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIxMDU3NjE0Mzk5MTQwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMTA1NzYxNDM5OTE0MDUy', 'date': '2025-08-15T17:21:13.000Z', 'text': 'Lokillo Ese comercial me hizo recordar las tapas de coca cola nunca ganamos nada', 'profileUrl': 'https://www.facebook.com/wuilfredooo', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/328138307_539592814931439_7325708827018350825_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=UyJri4358RoQ7kNvwFBo2Xv&amp;_nc_oc=AdnxpNQPerV3gGfaTE3QCFOBnlup14ef6pQAcX-86LY3DRC0ZDvV80oO3qNEoMV5PN0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=LwCX8mNC-FZnd4sjUvzLyg&amp;oh=00_AfYIFUdY4m11zL2LEPTWaKBwvr9Vr3ZCjrLcc8EU4MKkBA&amp;oe=68D08B54', 'profileId': '100005015103640', 'profileName': 'Carmen Julia Barros', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6468,18 +6468,18 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Lokillo Ese comercial me hizo recordar las tapas de coca cola nunca ganamos nada</t>
+          <t>El producto más caro de la historia</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45884.72306712963</v>
+        <v>45891.18886574074</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>45884</v>
+        <v>45891</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>17:21:13</t>
+          <t>04:31:58</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6496,7 +6496,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2105761439914052', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIxMDU3NjE0Mzk5MTQwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMTA1NzYxNDM5OTE0MDUy', 'date': '2025-08-15T17:21:13.000Z', 'text': 'Lokillo Ese comercial me hizo recordar las tapas de coca cola nunca ganamos nada', 'profileUrl': 'https://www.facebook.com/wuilfredooo', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/328138307_539592814931439_7325708827018350825_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=UyJri4358RoQ7kNvwEiiXY8&amp;_nc_oc=Adm82piG2C4AGDZNsdx0LtyXCejqCPOwUQeIaSxpSaH9yDyRDC765RSDRDAb_9_dr1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=6QaZq92qYk3i7kA5Ee2A3A&amp;oh=00_AfYsWGyeI3BKYCMJ2-F3k_m5g_myZ1jY1LoPbhJk_ExVfw&amp;oe=68CF7214', 'profileId': '100005015103640', 'profileName': 'Carmen Julia Barros', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2013899612487308', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIwMTM4OTk2MTI0ODczMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMDEzODk5NjEyNDg3MzA4', 'date': '2025-08-22T04:31:58.000Z', 'text': 'El producto más caro de la historia', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/481976078_9055785127877796_8505931625811225954_n.jpg?stp=c0.125.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VSZbsyXc4h8Q7kNvwFzz05z&amp;_nc_oc=AdkSvYf12iMhGTKQp-XAG4gvjLveZHpFVuoFUwT-MktmAzcc8STHYdxeUyRFuFd3EQI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=LwCX8mNC-FZnd4sjUvzLyg&amp;oh=00_Afa0cSfIhCIFqld4Lr-NkRMzi_UP-d8jQM6gjNVeqzCSBw&amp;oe=68D0AB20', 'profileId': 'pfbid0kvjuY9yPcqe6Mv1otW6JaZsT4s2BC2WACRWLRvNGCjCpy4t5LKCMBZTNnoV1EGTnl', 'profileName': 'Alejandro Recalde Martinez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6522,23 +6522,23 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>El producto más caro de la historia</t>
+          <t>Payasoo</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45891.18886574074</v>
+        <v>45907.53916666667</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>45891</v>
+        <v>45907</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>04:31:58</t>
+          <t>12:56:24</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K118" t="n">
@@ -6550,7 +6550,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2013899612487308', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIwMTM4OTk2MTI0ODczMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMDEzODk5NjEyNDg3MzA4', 'date': '2025-08-22T04:31:58.000Z', 'text': 'El producto más caro de la historia', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/481976078_9055785127877796_8505931625811225954_n.jpg?stp=c0.125.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VSZbsyXc4h8Q7kNvwGR0tsx&amp;_nc_oc=AdmaVDYJos7BKTvRI6uPijfd6R1WpaUnekB4ZMrwT7JnE7MTbx6cRN5h_cIYz8k-Mos&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=6QaZq92qYk3i7kA5Ee2A3A&amp;oh=00_AfYzI7-XYtat05NscmLCy-6XI_2ZTlfQLpys2m4LrVnCJg&amp;oe=68CF91E0', 'profileId': 'pfbid02pxLd1yAxHmFjZn1wyHPPBfixdW2aRhBsWBtEztQjcDf3BwYKyARZZkuG2nsBH2xnl', 'profileName': 'Alejandro Recalde Martinez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1088170050193261', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEwODgxNzAwNTAxOTMyNjE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMDg4MTcwMDUwMTkzMjYx', 'date': '2025-09-07T12:56:24.000Z', 'text': 'Payasoo', 'profileUrl': 'https://www.facebook.com/cesar.carrillo.682398', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/500741570_702917446004945_6277698656411821929_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ey0PcyIJ0aoQ7kNvwEO9Vsu&amp;_nc_oc=Adm07gS0dh8uPm-ESz8gITXXFPKm6tT3V6wGTP8-mufyjqOUORbL_zo-ZMq-1K_FWL0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=LwCX8mNC-FZnd4sjUvzLyg&amp;oh=00_AfYlTQuk_8s7KCt__ZKA2lwTVYtxg1W_USI6UwWhHWqMlQ&amp;oe=68D08D9C', 'profileId': '100088600870323', 'profileName': 'Cesar Carrillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6576,18 +6576,18 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Payasoo</t>
+          <t>Loquillo es un perrateo</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>45907.53916666667</v>
+        <v>45891.09288194445</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>45907</v>
+        <v>45891</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>12:56:24</t>
+          <t>02:13:45</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6604,7 +6604,7 @@
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1088170050193261', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEwODgxNzAwNTAxOTMyNjE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMDg4MTcwMDUwMTkzMjYx', 'date': '2025-09-07T12:56:24.000Z', 'text': 'Payasoo', 'profileUrl': 'https://www.facebook.com/cesar.carrillo.682398', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/500741570_702917446004945_6277698656411821929_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tXojamMKvRgQ7kNvwGAxXr-&amp;_nc_oc=AdmnKA77Pp_Cister7ajCoGoQvFbqzwlK5hlwuJ3pWoFJEIr3-728W_N959EmpcOnwE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=6QaZq92qYk3i7kA5Ee2A3A&amp;oh=00_AfabbihXb-6ap2Rcjv2woJBI5DFxC2PM4dDxYRKu8hqc_Q&amp;oe=68CF745C', 'profileId': '100088600870323', 'profileName': 'Cesar Carrillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=4205150759756528', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzQyMDUxNTA3NTk3NTY1Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM180MjA1MTUwNzU5NzU2NTI4', 'date': '2025-08-22T02:13:45.000Z', 'text': 'Loquillo es un perrateo', 'profileUrl': 'https://www.facebook.com/people/Juan-Tejedor/pfbid0xBP1BJGZZGcs4WZjeJLA5pW5ZsiShzVmKsTGGDhDEkHH5tvJMh4tRyd6YmDAvV2Hl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/540733553_122125518092946134_6005075357348607371_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jVgxiFkDaoIQ7kNvwF9WPNk&amp;_nc_oc=Adn_XHAtmJY0TS041-QyMxiu2ZovDoQXDHeNIGDb32x28IAum5oWleyY95wB77ttc4w&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=LwCX8mNC-FZnd4sjUvzLyg&amp;oh=00_Afb5xCKLofNML8ZX8nmXOPXisXT0JDoAMq6-VgwhjEYWow&amp;oe=68D0AC61', 'profileId': 'pfbid0xBP1BJGZZGcs4WZjeJLA5pW5ZsiShzVmKsTGGDhDEkHH5tvJMh4tRyd6YmDAvV2Hl', 'profileName': 'Juan Tejedor', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6630,23 +6630,23 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Loquillo es un perrateo</t>
+          <t>Loki en todo lado menos sacando los capítulos 😭</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>45891.09288194445</v>
+        <v>45896.97646990741</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>45891</v>
+        <v>45896</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>02:13:45</t>
+          <t>23:26:07</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K120" t="n">
@@ -6658,7 +6658,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=4205150759756528', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzQyMDUxNTA3NTk3NTY1Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM180MjA1MTUwNzU5NzU2NTI4', 'date': '2025-08-22T02:13:45.000Z', 'text': 'Loquillo es un perrateo', 'profileUrl': 'https://www.facebook.com/people/Juan-Tejedor/pfbid031j2C6TtvQNhFpZVKRyKspVKvp9A39CcuBLwjznZjbJ2GxFxPjCouZVS1hwca2D5El/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/540733553_122125518092946134_6005075357348607371_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LrErAULqPgYQ7kNvwEHLyHS&amp;_nc_oc=AdlSBFlCppxabDbwc-UZMCYj0_ME8VJDDgvqEW0cSeUxIXug2AW-Mb4Kg9FjlEPPS_8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=6QaZq92qYk3i7kA5Ee2A3A&amp;oh=00_AfYWNVxoEkwVxswFn92HdS2LHlxFXA-wMGJHJQZ79-gbag&amp;oe=68CF9321', 'profileId': 'pfbid031j2C6TtvQNhFpZVKRyKspVKvp9A39CcuBLwjznZjbJ2GxFxPjCouZVS1hwca2D5El', 'profileName': 'Juan Tejedor', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=557399307395977', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzU1NzM5OTMwNzM5NTk3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM181NTczOTkzMDczOTU5Nzc=', 'date': '2025-08-27T23:26:07.000Z', 'text': 'Loki en todo lado menos sacando los capítulos 😭', 'profileUrl': 'https://www.facebook.com/andrea.ortiz.413263', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/518139584_742672255033793_6034599880526097320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-iM-gU0nZg0Q7kNvwHSmPQc&amp;_nc_oc=AdkUZed0r_FFkJhzyKYrZiMMgeVnum54FlcMTgfBVy2UmYDuSmVwuBFVU6y4dyVt8dk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=LwCX8mNC-FZnd4sjUvzLyg&amp;oh=00_AfZWhOhXeZqoPgekVrBP_O1XcCiYy1xCxP_7UXQakO6siQ&amp;oe=68D0804D', 'profileId': '100078730758510', 'profileName': 'Andrea Ortiz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6684,18 +6684,18 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Loki en todo lado menos sacando los capítulos 😭</t>
+          <t>Le creo la trova por qué el rapeo estuvo muy boleta</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45896.97646990741</v>
+        <v>45899.55818287037</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>23:26:07</t>
+          <t>13:23:47</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6712,7 +6712,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=557399307395977', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzU1NzM5OTMwNzM5NTk3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM181NTczOTkzMDczOTU5Nzc=', 'date': '2025-08-27T23:26:07.000Z', 'text': 'Loki en todo lado menos sacando los capítulos 😭', 'profileUrl': 'https://www.facebook.com/andrea.ortiz.413263', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/518139584_742672255033793_6034599880526097320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-iM-gU0nZg0Q7kNvwEGEJAf&amp;_nc_oc=AdljO56zZGRyJ8ApltzmOkXaWHmAalTKg3x0IpNxC1WG4RO0SGjPeQqSAfFj99AnFJU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=6QaZq92qYk3i7kA5Ee2A3A&amp;oh=00_Afal27KBc0_FJx3Iq6bz5DwZekLzGTgX34ushfRwZNzOKw&amp;oe=68CF670D', 'profileId': '100078730758510', 'profileName': 'Andrea Ortiz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=24698250009792631', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI0Njk4MjUwMDA5NzkyNjMx', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNDY5ODI1MDAwOTc5MjYzMQ==', 'date': '2025-08-30T13:23:47.000Z', 'text': 'Le creo la trova por qué el rapeo estuvo muy boleta', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/513493385_1773897183478812_5275291222877607114_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OyD01Tn0xkAQ7kNvwGahMeM&amp;_nc_oc=Adn6ynHex-hutLiOM6OTt8dwMDBEMqT74cgCYkTSbyBRaXwmr_F_ruaODsmv4OkCtek&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=LwCX8mNC-FZnd4sjUvzLyg&amp;oh=00_Afa5sX2yDjSIlqsHyY-3Zojy8eZVwspUbBiKwJglANLJ0g&amp;oe=68D07CA4', 'profileId': 'pfbid037Hjjian3aLpzcmPq9dCberGWhG7ieWvYNovFGHhgtNgtagJM7ET8mYVjQH1B4DmPl', 'profileName': 'Marlon E J Chavez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6766,7 +6766,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1124423585756060', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMjQ0MjM1ODU3NTYwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTI0NDIzNTg1NzU2MDYw', 'date': '2025-09-12T02:27:43.000Z', 'text': 'No me he podido registrar', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/441458566_8103202729701138_6892881768584729373_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jYSBYjablnAQ7kNvwHi8KHH&amp;_nc_oc=Adm0hy3ehQ2dtEZwncqZ6raRYf_5loG3-aiX0qZn5NbOEJrK4U01uFlRpafwK-RawNg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=6QaZq92qYk3i7kA5Ee2A3A&amp;oh=00_AfbfhF_WrpsgsUY7v1jPcnubdGEY4FY9TC4VoPQL2lxxnA&amp;oe=68CF6D0B', 'profileId': 'pfbid0ECsJGC5UVxYTGFQreaSKCAMBCzQQpnc4kRQkGWhFVjporgxzeFarcuCZNaNF7jQnl', 'profileName': 'Vanessa Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1124423585756060', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMjQ0MjM1ODU3NTYwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTI0NDIzNTg1NzU2MDYw', 'date': '2025-09-12T02:27:43.000Z', 'text': 'No me he podido registrar', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/441458566_8103202729701138_6892881768584729373_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jYSBYjablnAQ7kNvwFFhIXx&amp;_nc_oc=AdkBKlGpSsa9aMzBqoUHL_zQptcwrmsPRbrYNtjBVwNbB6TSWz06_CqajTnkQ3zGKqE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=LwCX8mNC-FZnd4sjUvzLyg&amp;oh=00_AfaM42wJU_uPPG8fRStSEr-5YnfGEuwLv2MZfWKWgLgaog&amp;oe=68D0864B', 'profileId': 'pfbid02J4K1Ss1JMPmZweHhCye43wA1Rbutmbae7BYkBS275kT4bkQjX4DgLGnZpwdWuF1Nl', 'profileName': 'Vanessa Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6820,7 +6820,7 @@
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2009729783131496', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIwMDk3Mjk3ODMxMzE0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMDA5NzI5NzgzMTMxNDk2', 'date': '2025-08-31T17:00:23.000Z', 'text': 'Lokillo', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/264976480_940916340170683_8198740197248731791_n.jpg?stp=c0.0.959.959a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DRvkChaaXGQQ7kNvwGqUCJY&amp;_nc_oc=AdktuksXQIx47GdlvdTIcxiQnZYbGLGHfrQs58izaATH4KvEaFa6dV2Jm8VY2YdwJg0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=6QaZq92qYk3i7kA5Ee2A3A&amp;oh=00_AfZQZPn462BoNqO2gij-ED9mJ0iO68khB7cdRYG_UKcjhw&amp;oe=68CF9A2D', 'profileId': 'pfbid02XnTCf5PEKxo5kezUqHRjoecPmeQzuuZ1Zc4buKrmitZNJP7NCdXNke6Vead9rLCdl', 'profileName': 'Dupont Théodore', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2009729783131496', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIwMDk3Mjk3ODMxMzE0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMDA5NzI5NzgzMTMxNDk2', 'date': '2025-08-31T17:00:23.000Z', 'text': 'Lokillo', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/264976480_940916340170683_8198740197248731791_n.jpg?stp=c0.0.959.959a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DRvkChaaXGQQ7kNvwFLR65u&amp;_nc_oc=AdmMCm5svVgAU3NJe6MT4LPfJGbNFRAiJ-gXOcGdTvc-0o_KgrYk8P20mqI_L18LMuY&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=LwCX8mNC-FZnd4sjUvzLyg&amp;oh=00_AfZ1sVBRpd2aRH_uuX2U2u7lp-dncjBPRtKvZdxjcuy0mg&amp;oe=68D07B2D', 'profileId': 'pfbid0UEp1juksUk4C4CsuprXFDCa1w6VJ58U6W2tEbgUwtrNViscD8GoirqFgpYBf26QYl', 'profileName': 'Dupont Théodore', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6874,7 +6874,7 @@
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=4311830235711396', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzQzMTE4MzAyMzU3MTEzOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM180MzExODMwMjM1NzExMzk2', 'date': '2025-08-23T21:02:18.000Z', 'text': 'Y la diabetes la pagan tambn', 'profileUrl': 'https://www.facebook.com/people/Andrea-Lopez/pfbid0iNDN44FhMZU5VFY1UTkiaMZsb3dwhb4392qHwJCLhMHAhmh7VPsdS5xYHE6JTTm7l/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/499210462_587466867736399_6830558126335191743_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TgRBymZJxwQQ7kNvwGuhZj7&amp;_nc_oc=AdmF6NDO8b_LrkCkBrTsWLa35eGMzbjNCvOwhLK0ZxHcYSo_9VQ4ypGtf8_5lkEKRWw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=6QaZq92qYk3i7kA5Ee2A3A&amp;oh=00_AfaHEDEWWMBJzQ1R_d3_F6oAcEkcztW2s0cjLFbrCqa_ow&amp;oe=68CF8E69', 'profileId': 'pfbid0iNDN44FhMZU5VFY1UTkiaMZsb3dwhb4392qHwJCLhMHAhmh7VPsdS5xYHE6JTTm7l', 'profileName': 'Andrea Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=4311830235711396', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzQzMTE4MzAyMzU3MTEzOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM180MzExODMwMjM1NzExMzk2', 'date': '2025-08-23T21:02:18.000Z', 'text': 'Y la diabetes la pagan tambn', 'profileUrl': 'https://www.facebook.com/people/Andrea-Lopez/pfbid02mjhYg5cKPGytnjYZBjE1R1qPtWmVRp9GiSxNZkqcSNEPEokk5n7YYjvqLePARUyGl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/499210462_587466867736399_6830558126335191743_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TgRBymZJxwQQ7kNvwF7JhbI&amp;_nc_oc=AdnCbp5lhc8iN2gB1htwEDinYV03D2u5q2KBaurjay3Dv3NJL0XpKxpGxe_MPbGEBaU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=LwCX8mNC-FZnd4sjUvzLyg&amp;oh=00_AfZbHYpt0AXCRzCB5VOshzK7eGcxdQVMxY_Vwx-7OycMHQ&amp;oe=68D0A7A9', 'profileId': 'pfbid02mjhYg5cKPGytnjYZBjE1R1qPtWmVRp9GiSxNZkqcSNEPEokk5n7YYjvqLePARUyGl', 'profileName': 'Andrea Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=758779093537985', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1ODc3OTA5MzUzNzk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTg3NzkwOTM1Mzc5ODU=', 'date': '2025-08-30T13:38:48.000Z', 'text': 'Jajajajajjaja con el lokillo', 'profileUrl': 'https://www.facebook.com/juan.espinosa.963703', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/532015457_122183347580359006_4303600097273574602_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=o1oS1QcKWrgQ7kNvwFqfwQY&amp;_nc_oc=AdmcII3L10yOCjPqcdqfWUESiQmvVvt0Ve0gcGxZWdp8q8ZMpPEzCUx-HG0axvSTX-k&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=6QaZq92qYk3i7kA5Ee2A3A&amp;oh=00_AfZjdcjdTlqPZg0rpaI06uhmaRLZ9X6IQ8Af0ab51IvsKA&amp;oe=68CF7B63', 'profileId': '61560770202104', 'profileName': 'Juan Espinosa', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=758779093537985', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1ODc3OTA5MzUzNzk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTg3NzkwOTM1Mzc5ODU=', 'date': '2025-08-30T13:38:48.000Z', 'text': 'Jajajajajjaja con el lokillo', 'profileUrl': 'https://www.facebook.com/juan.espinosa.963703', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/532015457_122183347580359006_4303600097273574602_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=o1oS1QcKWrgQ7kNvwEeLNbk&amp;_nc_oc=AdmXvCAYig6HHBpbQ8vNvaakIKcrkUkEoN6N1YulOT9Znk6Umxsx3vA6DbgXZLQtsMw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=LwCX8mNC-FZnd4sjUvzLyg&amp;oh=00_Afb-7r7uNXcgEwKkJ4-PRYtkB3XZlk911q7rUk6choP_yA&amp;oe=68D094A3', 'profileId': '61560770202104', 'profileName': 'Juan Espinosa', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6982,7 +6982,7 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=714587254949800', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzcxNDU4NzI1NDk0OTgwMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183MTQ1ODcyNTQ5NDk4MDA=', 'date': '2025-08-31T22:31:42.000Z', 'text': 'Por lo barato eso jajaja', 'profileUrl': 'https://www.facebook.com/yolmer.alvarado.571586', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/531988135_122134663298858595_5803130642910373327_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2mJ6329J7YQQ7kNvwHJOPCe&amp;_nc_oc=Adl0kogS-a3O5TtodnvTR-IflRnWHf8qcN-Bt4BphWeqilHAbI7cWKa5lT8MM15j7oGgypYF8Az-MSGm7mo6RljC&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=esB6acj9DVjMySPkLEXyiQ&amp;oh=00_AfZ4duXmaR66Mqp9XZnptgpxzjSEbjImgyCanX_wSnJbCA&amp;oe=68CF8BCF', 'profileId': 'pfbid09A5KXbzbhcwjGDqXgshoQ3g8FaFs7eyK46FsAiiLZuMeN4YJxhGBaxJ58cN24Svdl', 'profileName': 'Yolmer Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=714587254949800', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzcxNDU4NzI1NDk0OTgwMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183MTQ1ODcyNTQ5NDk4MDA=', 'date': '2025-08-31T22:31:42.000Z', 'text': 'Por lo barato eso jajaja', 'profileUrl': 'https://www.facebook.com/yolmer.alvarado.571586', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/531988135_122134663298858595_5803130642910373327_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2mJ6329J7YQQ7kNvwFjtH8o&amp;_nc_oc=Admu-Nn2MyYWKFVfXR_X-tEa-nH5Uj0PsSoYTkH3A4BL-UNqOFqVfnP5DFtG6B3fo1p-yne7Q4JqHV7IlWwTDTRt&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=gRoA5ylu5iLR4BnRssBSCQ&amp;oh=00_AfYLkAzJCG0keQ4-Buxf6Pd7cRqU59TO_ZTHrI4gvgGUDA&amp;oe=68D0A50F', 'profileId': 'pfbid02CXZW9dMDjMasKiavEPreZmiZwP5JwcG9iLo3x5yX2ymSzZmuhPhjb6WYJrGo3hSGl', 'profileName': 'Yolmer Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7036,7 +7036,7 @@
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=637479319018992', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYzNzQ3OTMxOTAxODk5Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182Mzc0NzkzMTkwMTg5OTI=', 'date': '2025-08-30T23:28:50.000Z', 'text': 'Quedó boof ese anuncio 😌', 'profileUrl': 'https://www.facebook.com/people/Adri%C3%A1n-Hurtado/pfbid02WXcJKtyZ6yvxSp2dqDZLmR5FnJwJ9d35M7N4WY4SQqpNWdD7tyzHrR3zPCbNuw6Zl/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514259464_710657781815384_7100988446541262556_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iO_7KOJN_GwQ7kNvwFnM0yM&amp;_nc_oc=AdnnG-t60651fUL24M2BZKrJw-f2K42tQt-svAJySmFHuqtW9ugXRzP2kb1crh7AjrecAgzxFawp4rhrcxPpM7Ev&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=esB6acj9DVjMySPkLEXyiQ&amp;oh=00_AfZxYQWMs_nUFZuOSj6QIeR2792oNU2CNQKqE3iMUNzraA&amp;oe=68CF9598', 'profileId': 'pfbid02WXcJKtyZ6yvxSp2dqDZLmR5FnJwJ9d35M7N4WY4SQqpNWdD7tyzHrR3zPCbNuw6Zl', 'profileName': 'Adrián Hurtado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=637479319018992', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYzNzQ3OTMxOTAxODk5Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182Mzc0NzkzMTkwMTg5OTI=', 'date': '2025-08-30T23:28:50.000Z', 'text': 'Quedó boof ese anuncio 😌', 'profileUrl': 'https://www.facebook.com/people/Adri%C3%A1n-Hurtado/pfbid02WXcJKtyZ6yvxSp2dqDZLmR5FnJwJ9d35M7N4WY4SQqpNWdD7tyzHrR3zPCbNuw6Zl/', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/514259464_710657781815384_7100988446541262556_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iO_7KOJN_GwQ7kNvwHIw3SR&amp;_nc_oc=Adkg188rsiZpNCPXKHKgfzueBt0vPBhgymc6gTJ9tA_032-fhXTLS68UHJRI6vW4WtqYX4O9TprByTJw9QDZCYtU&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=gRoA5ylu5iLR4BnRssBSCQ&amp;oh=00_AfbEvr6vPT-tn2ClyOoGlTBLKbLIwsWnN0t-IZoHaQm8IA&amp;oe=68D07698', 'profileId': 'pfbid02WXcJKtyZ6yvxSp2dqDZLmR5FnJwJ9d35M7N4WY4SQqpNWdD7tyzHrR3zPCbNuw6Zl', 'profileName': 'Adrián Hurtado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1298845918372934', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyOTg4NDU5MTgzNzI5MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjk4ODQ1OTE4MzcyOTM0', 'date': '2025-09-08T16:09:20.000Z', 'text': 'Ya me registre', 'profileUrl': 'https://www.facebook.com/vanessa.nieto.635844', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/547854335_122196242324284470_7303966198656536017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LedTWL2Wq_wQ7kNvwHftpsh&amp;_nc_oc=Adnn-E4s8RTFR5_2SDubuGetetJCWjKJt9e6SHuD83DHLL9MlfcZFgw_2HPIdlPaLCu8SxDoQtzCipOhNXoBb8Dq&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=esB6acj9DVjMySPkLEXyiQ&amp;oh=00_Afa8_6m_gQEVHdvDC4ZAfcl4vI-l6ve_3_ohFi4AtqS4Pg&amp;oe=68CF97DC', 'profileId': 'pfbid0E7WvWG6X1anas3tT4EkurXbySma6MfEdnQdhG1VvgXPu2YGzx6SKQL9UgjSggZr1l', 'profileName': 'Vanessa Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1298845918372934', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyOTg4NDU5MTgzNzI5MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjk4ODQ1OTE4MzcyOTM0', 'date': '2025-09-08T16:09:20.000Z', 'text': 'Ya me registre', 'profileUrl': 'https://www.facebook.com/vanessa.nieto.635844', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/547854335_122196242324284470_7303966198656536017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JlFdU6kxRIsQ7kNvwFTx14J&amp;_nc_oc=AdnXN8LqGqsBYzph-AeNNXRg6dEnF0bi3QrwiDIsePSJLyK8hFEoGQ-OXrkKm9S5Idcrnyx1zuclijechQ6V8-5P&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=gRoA5ylu5iLR4BnRssBSCQ&amp;oh=00_AfbAQFlUap-dJLyoA3T_40JZSteXCWSslPW7ZiQf321hwQ&amp;oe=68D078DC', 'profileId': 'pfbid02Hxxdgw2Ls7FcJsDJ2b8XUBMDntMb2BcFVtrbKTvHNLeZMiRb76XUCTXX786wJrDWl', 'profileName': 'Vanessa Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7144,7 +7144,7 @@
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1467404814299923', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE0Njc0MDQ4MTQyOTk5MjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNDY3NDA0ODE0Mjk5OTIz', 'date': '2025-08-30T20:46:50.000Z', 'text': 'Sería bueno que traiga vareta 😹😹', 'profileUrl': 'https://www.facebook.com/JOSE.SALAZAR.JOSE', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/503839459_24201641799454373_308409316597837877_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iFbkw15dwrsQ7kNvwGx-FzZ&amp;_nc_oc=Adn3Os9Ic3Z7ZcHgqGLzLJKULLmRbCZD3Mail3tzzKnCXe9ajOWEzw1hYgdaxIWJP1kIAgA_52auYL_4VlV1CyFp&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=esB6acj9DVjMySPkLEXyiQ&amp;oh=00_AfYCm3E5z4s9c1eB5ZAbQDaEtjSPLqUcP_6N_KGmCc3Cnw&amp;oe=68CF9087', 'profileId': 'pfbid0ZLmdhuT1XHAH2sDKxsg7wm2JKKugheGyB1RDyymphPghLhqVYjGdrnywLz7HctFel', 'profileName': 'Josè Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1467404814299923', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE0Njc0MDQ4MTQyOTk5MjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNDY3NDA0ODE0Mjk5OTIz', 'date': '2025-08-30T20:46:50.000Z', 'text': 'Sería bueno que traiga vareta 😹😹', 'profileUrl': 'https://www.facebook.com/JOSE.SALAZAR.JOSE', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/503839459_24201641799454373_308409316597837877_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iFbkw15dwrsQ7kNvwEUX-nG&amp;_nc_oc=AdlvsGGkL2qCE5KFGEegUkVwjBWDgRtzXhIj2prJ4nRBs-96t87kLFXJ1TZf1pMo_s_tHnBRKjg1U7vXOJa4x97G&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=gRoA5ylu5iLR4BnRssBSCQ&amp;oh=00_AfZ2CFdEJ0mkT8zntOUQrLoTBN9F3j--KF_9K4S-woGcCg&amp;oe=68D0A9C7', 'profileId': 'pfbid02dCDLtaNqNb63ZqAuiuzg2PRNmMaeERpXXFqMsfFDJYvdrA9QQf4zXpr5gZoXyhZSl', 'profileName': 'Josè Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7170,18 +7170,18 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Un perro. Criollo se reconoce por comprar  las promos a ver si gana alguito jajajajajajja</t>
+          <t>Pero cuando va al hotel se cree mucha chimba , más picado que muela de gamin</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>45909.02953703704</v>
+        <v>45892.0358449074</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>45909</v>
+        <v>45892</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>00:42:32</t>
+          <t>00:51:37</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7198,7 +7198,7 @@
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1305526370815437', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzMDU1MjYzNzA4MTU0Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzA1NTI2MzcwODE1NDM3', 'date': '2025-09-09T00:42:32.000Z', 'text': 'Un perro. Criollo se reconoce por comprar  las promos a ver si gana alguito jajajajajajja', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/131931166_821101022075161_6917352098055066331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Nsj9veSp01MQ7kNvwHDkl_d&amp;_nc_oc=AdnRsPVWQjzh90-2u8MJM2ps7bHKS9aRGQ9zcfNYwzbgNfzOFkI7crY2ZR1I0JNpEuP8lQ1YjoNHCI6agceXa8bl&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=esB6acj9DVjMySPkLEXyiQ&amp;oh=00_AfaTHWI55LuV3KvRLBzh3Lk9n1tLYxxGRHOMOXiCJuDHzw&amp;oe=68F130A7', 'profileId': 'pfbid0WW5gSHJsYESBpHhPY4QVUUjiBek6rJuzTv8LwMbV55BycTQe1jiyivBvVSmMnfycl', 'profileName': 'Marce Guevara', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=787469003971814', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc4NzQ2OTAwMzk3MTgxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183ODc0NjkwMDM5NzE4MTQ=', 'date': '2025-08-23T00:51:37.000Z', 'text': 'Pero cuando va al hotel se cree mucha chimba , más picado que muela de gamin', 'profileUrl': 'https://www.facebook.com/janeth.ortiz.562', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/492302363_9874981929231401_5399690138389940040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hJWXIzlRVUsQ7kNvwF2RQWQ&amp;_nc_oc=AdkGrwmqmL1Ptu9usvS8F7Zm2TCs1r8Q6iNjQ2bAMIWdp-0dXP6d3NCZcyp1bWm-ecrYbWMT4jBstjYCGdYixEmb&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=gRoA5ylu5iLR4BnRssBSCQ&amp;oh=00_Afbv71HkfLmtH18jDcwKKQXr6p6tijZKtXUgMzH9eCMjzg&amp;oe=68D07A4C', 'profileId': 'pfbid02LQiP8m2i3e7Zz64d5YMvLzLbHe3zPEUjTaTtn8TwVxn9rnRkKzQorr56amPrwRRfl', 'profileName': 'Janeth Ortiz', 'likesCount': '0', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7224,18 +7224,18 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Ajajaja nooo pana no pasa nada</t>
+          <t>Un perro. Criollo se reconoce por comprar  las promos a ver si gana alguito jajajajajajja</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>45900.85390046296</v>
+        <v>45909.02953703704</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>45900</v>
+        <v>45909</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>20:29:37</t>
+          <t>00:42:32</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7252,7 +7252,7 @@
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=635092229304000', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYzNTA5MjIyOTMwNDAwMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182MzUwOTIyMjkzMDQwMDA=', 'date': '2025-08-31T20:29:37.000Z', 'text': 'Ajajaja nooo pana no pasa nada', 'profileUrl': 'https://www.facebook.com/geeko18', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/484965824_9626052460748624_4969313495346629245_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RJIt6dyTHBEQ7kNvwH8PRyJ&amp;_nc_oc=Adlsz6YdM0G38GeEpQ4Ns6p45Y38NdJ9xAKolg5yNCYtfE0MZRrZrfH8i0G73BNvMGfTgs9WrMyDDdB0F2KYYcKU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=esB6acj9DVjMySPkLEXyiQ&amp;oh=00_AfbUboX9Dsl9R4NS47yqeZrmCPyKF127n_q-THUxWDqzcA&amp;oe=68CF79E9', 'profileId': '100000318985525', 'profileName': 'Darwin Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1305526370815437', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzMDU1MjYzNzA4MTU0Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzA1NTI2MzcwODE1NDM3', 'date': '2025-09-09T00:42:32.000Z', 'text': 'Un perro. Criollo se reconoce por comprar  las promos a ver si gana alguito jajajajajajja', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/131931166_821101022075161_6917352098055066331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Nsj9veSp01MQ7kNvwHuLgqw&amp;_nc_oc=AdlcDD6ZHLwBn2fSS2g1kshU5lFpYZqLN5kg4RXS3u8dbzSZFtuIw1Z3cJghvkqkiOddwKrQd8iHAxAKONWFyyKR&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=gRoA5ylu5iLR4BnRssBSCQ&amp;oh=00_AfYfH2TX1M74WHw2vifx9cjvmRAFLoeUhoWg6BiVwyhhUg&amp;oe=68F249E7', 'profileId': 'pfbid02aMXPcxEhPeuY8YhGxgq7G9pBnxBVSJCx6hasT9cZJYPJbZRhE1wzzLvNg4B78KDvl', 'profileName': 'Marce Guevara', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7278,18 +7278,18 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Por la plata baila el mono</t>
+          <t>Ajajaja nooo pana no pasa nada</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45912.72774305556</v>
+        <v>45900.85390046296</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>45912</v>
+        <v>45900</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>17:27:57</t>
+          <t>20:29:37</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7306,7 +7306,7 @@
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=775366625081989', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc3NTM2NjYyNTA4MTk4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NzUzNjY2MjUwODE5ODk=', 'date': '2025-09-12T17:27:57.000Z', 'text': 'Por la plata baila el mono', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/546849328_24278817235146966_4804008504211048956_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XUerv7vezWMQ7kNvwGyhkkZ&amp;_nc_oc=Adl0ovR6BY8JgxfyqKvPrCCG8t5qAq90f1Cz1V6hfi4wVhefVxUX7UMZq4ruO-eA6MHwjacT96WlaHailjYJTO6B&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=esB6acj9DVjMySPkLEXyiQ&amp;oh=00_AfYurpAJwKnRuRy4-RlpdydpBU1UlNa_fkAV7dAipnJ9hA&amp;oe=68CF875B', 'profileId': '100003360819313', 'profileName': 'Hugo Grisales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=635092229304000', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYzNTA5MjIyOTMwNDAwMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182MzUwOTIyMjkzMDQwMDA=', 'date': '2025-08-31T20:29:37.000Z', 'text': 'Ajajaja nooo pana no pasa nada', 'profileUrl': 'https://www.facebook.com/geeko18', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/484965824_9626052460748624_4969313495346629245_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ZNPtBQX0hSsQ7kNvwFK9oBz&amp;_nc_oc=AdnM3WmRIZ_0_yZGVvW0WXC0PYkJDZV58mzJB1z4L7uf7vTMoCQLPdkvVuWohEa4lQLtjjgIbFuHvIQSER1YZ__o&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=gRoA5ylu5iLR4BnRssBSCQ&amp;oh=00_AfYya9xRvakinZlQv9LfrzyEEOpKd6Q8DMvBiV8MXKfiAw&amp;oe=68D09329', 'profileId': '100000318985525', 'profileName': 'Darwin Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7332,18 +7332,18 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Especularon con el precio y Ya el pueblo no lo come</t>
+          <t>Por la plata baila el mono</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>45909.90184027778</v>
+        <v>45912.72774305556</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>21:38:39</t>
+          <t>17:27:57</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7360,7 +7360,7 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=662475230230821', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzY2MjQ3NTIzMDIzMDgyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182NjI0NzUyMzAyMzA4MjE=', 'date': '2025-09-09T21:38:39.000Z', 'text': 'Especularon con el precio y Ya el pueblo no lo come', 'profileUrl': 'https://www.facebook.com/jorget.rodriguezatencia', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/94832835_1610297162455267_5295818057493512192_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FKkZLFzO7bUQ7kNvwHtqXHz&amp;_nc_oc=Adnt_FoN6cPvz3ThFsvAXLGNERAgiJ4d9HYHWPcz1wkD_AaXft5W5gu43NnYO3h687TH19x5yNaYPBSiCdQ5GjNC&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=esB6acj9DVjMySPkLEXyiQ&amp;oh=00_AfaCE68vReiF9zrxAvUCnV-CmfHYdhBemgxebKX1jcRV5w&amp;oe=68F139F3', 'profileId': 'pfbid0tGfD3KoLRPwvhJBRPz6diwprratKXNqVjS8jcNTenozQdVJLgFnGLULwgPpEF7iZl', 'profileName': 'Jorge T Rodriguez A', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=775366625081989', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc3NTM2NjYyNTA4MTk4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NzUzNjY2MjUwODE5ODk=', 'date': '2025-09-12T17:27:57.000Z', 'text': 'Por la plata baila el mono', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/546849328_24278817235146966_4804008504211048956_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XUerv7vezWMQ7kNvwHICkPk&amp;_nc_oc=AdkvbItt61peLmhmAsBwxQWSXEVSQSmke1sHdECFj954nM9fF9yPeP6xP3hC9FU3Qaei18uiwBt0qSnA5BmBKLvf&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=gRoA5ylu5iLR4BnRssBSCQ&amp;oh=00_AfZ-YJcCJmz3VM4mfM9Mve2FGG8GA2C_k6qvz-Gcys0smQ&amp;oe=68D0A09B', 'profileId': '100003360819313', 'profileName': 'Hugo Grisales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7386,18 +7386,18 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tristeza que se vendan</t>
+          <t>Especularon con el precio y Ya el pueblo no lo come</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45905.10921296296</v>
+        <v>45909.90184027778</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>02:37:16</t>
+          <t>21:38:39</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7414,7 +7414,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1131900612151684', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzE5MDA2MTIxNTE2ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMxOTAwNjEyMTUxNjg0', 'date': '2025-09-05T02:37:16.000Z', 'text': 'Tristeza que se vendan', 'profileUrl': 'https://www.facebook.com/people/Cosmo-Gancia/pfbid0VUZYopyhaVjwg5NkF8gom3gHSV3WaZ71gzzg8zyDJnqLpuPU4r6P8W4jCEo7zZHZl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/472131474_122134662332465466_4403674578418752934_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Yz0B5Pl9oZ0Q7kNvwESol1s&amp;_nc_oc=Adkawnyw3XOaS-X2CYYlXGf2VugB8qD-nuf-UCsdQUG_Z9Yz7ACmGS8lYUqT9jgjBuRsUcPVPkmpLpgAOJALbqgH&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=esB6acj9DVjMySPkLEXyiQ&amp;oh=00_AfZqoV-_XrX9EQVqMCo7OUR_OYUesyzpQt3Eol9q5pU5Pg&amp;oe=68CF9CF2', 'profileId': 'pfbid0VUZYopyhaVjwg5NkF8gom3gHSV3WaZ71gzzg8zyDJnqLpuPU4r6P8W4jCEo7zZHZl', 'profileName': 'Cosmo Gancia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=662475230230821', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzY2MjQ3NTIzMDIzMDgyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182NjI0NzUyMzAyMzA4MjE=', 'date': '2025-09-09T21:38:39.000Z', 'text': 'Especularon con el precio y Ya el pueblo no lo come', 'profileUrl': 'https://www.facebook.com/jorget.rodriguezatencia', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/94832835_1610297162455267_5295818057493512192_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FKkZLFzO7bUQ7kNvwHSsWXj&amp;_nc_oc=Adm-EVrGg4LGRtk8XrpSwZNchdy-G46bvZa7HuV9hGWFN8v19d8VQfP3kb5H7VlguMp1hik7nsoKoXmZXj66RTEp&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=gRoA5ylu5iLR4BnRssBSCQ&amp;oh=00_AfZ_ClaZ3mISMIGI1v6gvpzip--brxBi6_KT8d5Qom7RKQ&amp;oe=68F21AF3', 'profileId': 'pfbid02x86vDzjAGrRZU2x6HrLYg3HyB5SgwNMwhfuvKtKFTHhoQoWiMfA9MHMTs6TA2n56l', 'profileName': 'Jorge T Rodriguez A', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7440,23 +7440,23 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Un producto caro muy poquito y solo para estratos 10 por culpa del esposo de la cabal ayyy hijitos 🔥😅😅😅</t>
+          <t>Tristeza que se vendan</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45904.19598379629</v>
+        <v>45905.10921296296</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>04:42:13</t>
+          <t>02:37:16</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K135" t="n">
@@ -7468,7 +7468,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=757628130403488', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1NzYyODEzMDQwMzQ4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTc2MjgxMzA0MDM0ODg=', 'date': '2025-09-04T04:42:13.000Z', 'text': 'Un producto caro muy poquito y solo para estratos 10 por culpa del esposo de la cabal ayyy hijitos 🔥😅😅😅', 'profileUrl': 'https://www.facebook.com/hobbyviral.co', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/469278946_1749589532527616_1066663188948231330_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=q-BON8bIsjwQ7kNvwEhNqvG&amp;_nc_oc=AdmAgAfdG1Dm5TEAE1k1UvRCQ3YlfL4MS1CuAT1m8xrGx7BhWN2irOE14B0LUIOM5iM9iqkUgLjxS7dpe4jvb5Gy&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=esB6acj9DVjMySPkLEXyiQ&amp;oh=00_AfZ4DltyfIsrZf2VhcLf9QKNSfhshEyDIjp8Av3eWlDlTQ&amp;oe=68CF805A', 'profileId': '100024297577254', 'profileName': 'Hobbyviral ViralCo', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1131900612151684', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzE5MDA2MTIxNTE2ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMxOTAwNjEyMTUxNjg0', 'date': '2025-09-05T02:37:16.000Z', 'text': 'Tristeza que se vendan', 'profileUrl': 'https://www.facebook.com/people/Cosmo-Gancia/pfbid02ZL1FzVuXRpQ53eAWSdw7E5mZns8UwdMJuU6iiQggSUthopFYduRZdyGffRWgppFQl/', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/472131474_122134662332465466_4403674578418752934_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Yz0B5Pl9oZ0Q7kNvwFt24dJ&amp;_nc_oc=Admv4AjIVLfpI9Ed8Q75HRo9gKR_lH6WZrZLibobD0xuWc3MWMFLXAYiOALU2PFASlDDeQzdoEojiRCbJ-d7sQrX&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=gRoA5ylu5iLR4BnRssBSCQ&amp;oh=00_AfZfD5Yhdct3X75tOvo16vfhsbzyRs_nlp-1ePu790Cl7w&amp;oe=68D07DF2', 'profileId': 'pfbid02ZL1FzVuXRpQ53eAWSdw7E5mZns8UwdMJuU6iiQggSUthopFYduRZdyGffRWgppFQl', 'profileName': 'Cosmo Gancia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7494,23 +7494,23 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>A mí solo me ha salido "bono de" y a ¿ustedes?</t>
+          <t>Un producto caro muy poquito y solo para estratos 10 por culpa del esposo de la cabal ayyy hijitos 🔥😅😅😅</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45896.49363425926</v>
+        <v>45904.19598379629</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>11:50:50</t>
+          <t>04:42:13</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K136" t="n">
@@ -7522,7 +7522,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1155020503107603', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExNTUwMjA1MDMxMDc2MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTU1MDIwNTAzMTA3NjAz', 'date': '2025-08-27T11:50:50.000Z', 'text': 'A mí solo me ha salido "bono de" y a ¿ustedes?', 'profileUrl': 'https://www.facebook.com/wendyppu', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/467505958_8539573739430137_7870276209555588789_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QRMIRVS4YKcQ7kNvwGjiC5l&amp;_nc_oc=Adm-_k_OB9kAlfTYkM4UM5EIwZLxz_QmaRR5gbo8TBOk8oIF0rfvnbBR33_H_E6t4Lo&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=HHduYpEgWOEna__xjcjrfA&amp;oh=00_AfbQE8JgjVerzypHseYGFkdyLCzI9fN4ND_V6IyeLud8Eg&amp;oe=68CF81E5', 'profileId': 'pfbid0pXfBQd99kZ5Ag6aWWPCXHtAtWT5FEL9BVSVaP1xWDfHkA82rrJGWpkPFiYMtxecFl', 'profileName': 'Wendy Peñaranda', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=757628130403488', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1NzYyODEzMDQwMzQ4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTc2MjgxMzA0MDM0ODg=', 'date': '2025-09-04T04:42:13.000Z', 'text': 'Un producto caro muy poquito y solo para estratos 10 por culpa del esposo de la cabal ayyy hijitos 🔥😅😅😅', 'profileUrl': 'https://www.facebook.com/hobbyviral.co', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/469278946_1749589532527616_1066663188948231330_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=q-BON8bIsjwQ7kNvwE54ujV&amp;_nc_oc=AdkHlLNcqGE3PgDwGsaEr1noRJJRIOj4WnDlRVudA7R5cNdBkAzXwSGnjc0Qi2pActE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=dOoyyXpFsdhFfo0SjPYnLQ&amp;oh=00_AfZAslM-jjNpcBEAeu8OKHJd_3xv_IcEpFXLNy9jjcoXXg&amp;oe=68D0999A', 'profileId': '100024297577254', 'profileName': 'Hobbyviral ViralCo', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7548,23 +7548,23 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Homenaje al rap de maluma ?</t>
+          <t>A mí solo me ha salido "bono de" y a ¿ustedes?</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>45886.98163194444</v>
+        <v>45896.49363425926</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>45886</v>
+        <v>45896</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>23:33:33</t>
+          <t>11:50:50</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -7576,7 +7576,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=744584198492577', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc0NDU4NDE5ODQ5MjU3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NDQ1ODQxOTg0OTI1Nzc=', 'date': '2025-08-17T23:33:33.000Z', 'text': 'Homenaje al rap de maluma ?', 'profileUrl': 'https://www.facebook.com/182ManuSanchez', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/484868360_10235431148176915_864792537858997081_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wPY6HkdoZW8Q7kNvwGt4sgI&amp;_nc_oc=AdnaYBd_aNSdnobHFP9fbuKoerieE57m5O4HOHkQzWSciEEetuTqPeAHJT6SxPg11I0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=HHduYpEgWOEna__xjcjrfA&amp;oh=00_AfYQYxUGRAFkMqJVXQJ7ObT5FfTqCu-2sKeHzDQcqr8oYQ&amp;oe=68CF8424', 'profileId': '1158861820', 'profileName': 'Manu Sanchez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1155020503107603', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExNTUwMjA1MDMxMDc2MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTU1MDIwNTAzMTA3NjAz', 'date': '2025-08-27T11:50:50.000Z', 'text': 'A mí solo me ha salido "bono de" y a ¿ustedes?', 'profileUrl': 'https://www.facebook.com/wendyppu', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/467505958_8539573739430137_7870276209555588789_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CiZFOwE2qJgQ7kNvwGzCFdH&amp;_nc_oc=AdnV1P4qUDXvrlVdVmRKrMad3Isi5-MIUwoLt4alFnOHuBejGoveDprsDPfwwFqq2-E&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=dOoyyXpFsdhFfo0SjPYnLQ&amp;oh=00_AfbXNQoWlF5zxQuMnMoijlm95Is3mVSP3Plm3Vu5xNFW0g&amp;oe=68D09B25', 'profileId': 'pfbid0pXfBQd99kZ5Ag6aWWPCXHtAtWT5FEL9BVSVaP1xWDfHkA82rrJGWpkPFiYMtxecFl', 'profileName': 'Wendy Peñaranda', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7602,23 +7602,23 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Y más con esa traba que manda quien no le va a gustar comer jajajaj nadien lo vio 😅😈☠️</t>
+          <t>Homenaje al rap de maluma ?</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>45896.83834490741</v>
+        <v>45886.98163194444</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>45896</v>
+        <v>45886</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>20:07:13</t>
+          <t>23:33:33</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K138" t="n">
@@ -7630,7 +7630,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1130026065691445', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzAwMjYwNjU2OTE0NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMwMDI2MDY1NjkxNDQ1', 'date': '2025-08-27T20:07:13.000Z', 'text': 'Y más con esa traba que manda quien no le va a gustar comer jajajaj nadien lo vio 😅😈☠️', 'profileUrl': 'https://www.facebook.com/people/Moreno-Yjmu/pfbid0KaZ3MNTAECLzAr75iT9es2iSoqbcBUau3i8y2sGThMVwfa2YtSzcefoiQVm5Qn3Ul/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/525157870_122232401708075850_6271042705009001019_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=P-6cMkSmKmUQ7kNvwGmVp4Y&amp;_nc_oc=AdlUAuluuCNNAVMEz_PjmtJqvHR4TNSxwnri_0SViaId23ZX6lNSzfx9QLOmvdfN9Nw&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=HHduYpEgWOEna__xjcjrfA&amp;oh=00_AfYiCjTxhE4jMDp_tRmDgcwk3LByRFFbJ2q_K8f6ILxDYg&amp;oe=68CF74A6', 'profileId': 'pfbid0KaZ3MNTAECLzAr75iT9es2iSoqbcBUau3i8y2sGThMVwfa2YtSzcefoiQVm5Qn3Ul', 'profileName': 'Moreno Yjmu', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=744584198492577', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc0NDU4NDE5ODQ5MjU3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NDQ1ODQxOTg0OTI1Nzc=', 'date': '2025-08-17T23:33:33.000Z', 'text': 'Homenaje al rap de maluma ?', 'profileUrl': 'https://www.facebook.com/182ManuSanchez', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/484868360_10235431148176915_864792537858997081_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aiVM0YsPm-oQ7kNvwENdJD3&amp;_nc_oc=AdkwsFfDlP5Vy92i5eoEfBGl8dEThoZCWmGxzWnMRnkSuYN-wvn1TN1Rz_QfwBcCKiE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=dOoyyXpFsdhFfo0SjPYnLQ&amp;oh=00_AfYvNBMXcq4YczeRxbUvXxdWJaBjMYOSMq81VipRmm4y4w&amp;oe=68D09D64', 'profileId': '1158861820', 'profileName': 'Manu Sanchez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7656,18 +7656,18 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Y si lo dice don chimb○, así es ñiñooo</t>
+          <t>Y más con esa traba que manda quien no le va a gustar comer jajajaj nadien lo vio 😅😈☠️</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>45896.14239583333</v>
+        <v>45896.83834490741</v>
       </c>
       <c r="H139" s="3" t="n">
         <v>45896</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>03:25:03</t>
+          <t>20:07:13</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7684,7 +7684,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=24846705224914171', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI0ODQ2NzA1MjI0OTE0MTcx', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNDg0NjcwNTIyNDkxNDE3MQ==', 'date': '2025-08-27T03:25:03.000Z', 'text': 'Y si lo dice don chimb○, así es ñiñooo', 'profileUrl': 'https://www.facebook.com/nelson.banolgomez', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/481045084_1263563154708043_865372212940582099_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KZAUku75670Q7kNvwHmoi6c&amp;_nc_oc=AdmO8OkcoDyOaUQ5K3yyNUUw7q93RzTFXykO5sgcgT_vuR8MPGY65Y6wMCELzDqkiX8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=HHduYpEgWOEna__xjcjrfA&amp;oh=00_AfYz0VNBhvTUSUAq7yJceZ6pV_efpDb8YXIghOs3cQRgQg&amp;oe=68CF6BAB', 'profileId': '100031631121053', 'profileName': 'Nelson DH', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1130026065691445', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzAwMjYwNjU2OTE0NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMwMDI2MDY1NjkxNDQ1', 'date': '2025-08-27T20:07:13.000Z', 'text': 'Y más con esa traba que manda quien no le va a gustar comer jajajaj nadien lo vio 😅😈☠️', 'profileUrl': 'https://www.facebook.com/people/Moreno-Yjmu/pfbid02PRzkY3Nz5dMKcGbcfweXiXNQqBH3utNC862kFvBcxUxPZF4LHCW94hKH3ue9BhzLl/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/525157870_122232401708075850_6271042705009001019_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=P-6cMkSmKmUQ7kNvwEPuPPh&amp;_nc_oc=Adlr0n1jh6fkKLqK0BLmmYZoU-AzxzdH3iwz_ZXFki5GkAcL27HtqWGFqlQrQNoxlBI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=dOoyyXpFsdhFfo0SjPYnLQ&amp;oh=00_AfYa7qdqJ-NOJ64Ln4JILqM2LwZ7ipkh1McK7xmiI_kZIQ&amp;oe=68D08DE6', 'profileId': 'pfbid02PRzkY3Nz5dMKcGbcfweXiXNQqBH3utNC862kFvBcxUxPZF4LHCW94hKH3ue9BhzLl', 'profileName': 'Moreno Yjmu', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7710,23 +7710,23 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Pa cuando siguen con los capítulos de perros criollos o es que ya terminaron con eso🤷🏽‍♂️🤷🏽‍♂️🤷🏽‍♂️</t>
+          <t>Y si lo dice don chimb○, así es ñiñooo</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>45885.60190972222</v>
+        <v>45896.14239583333</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>45885</v>
+        <v>45896</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>14:26:45</t>
+          <t>03:25:03</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K140" t="n">
@@ -7738,7 +7738,7 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=680609458332572', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzY4MDYwOTQ1ODMzMjU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182ODA2MDk0NTgzMzI1NzI=', 'date': '2025-08-16T14:26:45.000Z', 'text': 'Pa cuando siguen con los capítulos de perros criollos o es que ya terminaron con eso🤷🏽\u200d♂️🤷🏽\u200d♂️🤷🏽\u200d♂️', 'profileUrl': 'https://www.facebook.com/maicol.orozco.626', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/519070524_3078775878957580_1449762759200854014_n.jpg?stp=c7.0.638.638a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x5I0DC9o1HoQ7kNvwF40fJe&amp;_nc_oc=Adn9bk7MeMN6bYYHejzy8eTHgO2L0LjeclRrC4c3XFS2s0TtDiEGPO8aN7XxnZ9J4ZA&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=HHduYpEgWOEna__xjcjrfA&amp;oh=00_Afa-gUQ5-qTKk7vHGmpVloXmfP1ORC7LOGkDBj1a0Hr8Lg&amp;oe=68CF89F4', 'profileId': 'pfbid02Fz53YVQLNwMBnK3ohWpdggCVpiFUFVvRHmGJXTzZNNFZKcWRknpz1aMMcTPotjULl', 'profileName': 'Yesid Maicol Ramirez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=24846705224914171', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI0ODQ2NzA1MjI0OTE0MTcx', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNDg0NjcwNTIyNDkxNDE3MQ==', 'date': '2025-08-27T03:25:03.000Z', 'text': 'Y si lo dice don chimb○, así es ñiñooo', 'profileUrl': 'https://www.facebook.com/nelson.banolgomez', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/481045084_1263563154708043_865372212940582099_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KZAUku75670Q7kNvwGNdzLz&amp;_nc_oc=AdkOyVtFJ1VtGuJOQg9WvZXV1H4CUrjL5yT8xyO9WMdW5nd8az_IGYVWj-_hJTmn1Js&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=dOoyyXpFsdhFfo0SjPYnLQ&amp;oh=00_AfarvcXaglzGKMOqWUiBVK5gQQXPqgEXFOs-yzoEAWHDsA&amp;oe=68D084EB', 'profileId': '100031631121053', 'profileName': 'Nelson DH', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7764,18 +7764,18 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Esa damier est pensada es para jodernosbtodo es rosk nunkn gana nadie q si</t>
+          <t>Pa cuando siguen con los capítulos de perros criollos o es que ya terminaron con eso🤷🏽‍♂️🤷🏽‍♂️🤷🏽‍♂️</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>45884.07013888889</v>
+        <v>45885.60190972222</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>01:41:00</t>
+          <t>14:26:45</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7792,7 +7792,7 @@
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1132408365405107', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzI0MDgzNjU0MDUxMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMyNDA4MzY1NDA1MTA3', 'date': '2025-08-15T01:41:00.000Z', 'text': 'Esa damier est pensada es para jodernosbtodo es rosk nunkn gana nadie q si', 'profileUrl': 'https://www.facebook.com/edwin.y.villamizar', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/533021043_10163253556138686_3558464915085023225_n.jpg?stp=c6.0.348.348a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Neb9cbnH-wwQ7kNvwH6Ep_H&amp;_nc_oc=Adk8gfMFANLcd3diWB5FRj7SgWIxtw-HyJA01mkXQPSJsY4Ytvqzy5nK4_4Cp0OEdgk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=HHduYpEgWOEna__xjcjrfA&amp;oh=00_AfbfKxZHvPccopvpf2gtGPC1e5p9DdSaUsdJG18of2gRZQ&amp;oe=68CF853C', 'profileId': '702898685', 'profileName': 'Yair Vills Villamizar', 'likesCount': '3', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=680609458332572', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzY4MDYwOTQ1ODMzMjU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182ODA2MDk0NTgzMzI1NzI=', 'date': '2025-08-16T14:26:45.000Z', 'text': 'Pa cuando siguen con los capítulos de perros criollos o es que ya terminaron con eso🤷🏽\u200d♂️🤷🏽\u200d♂️🤷🏽\u200d♂️', 'profileUrl': 'https://www.facebook.com/maicol.orozco.626', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/519070524_3078775878957580_1449762759200854014_n.jpg?stp=c7.0.638.638a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x5I0DC9o1HoQ7kNvwFoWizY&amp;_nc_oc=AdlYjEWwXL0xh6l2jTKyVvBODtpYNgZf3tCfsX-zXTrRmiELK5yXNUHjC7VZ1bjbKvk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=dOoyyXpFsdhFfo0SjPYnLQ&amp;oh=00_AfZbBFXNtPX8d5bMmd7mrxJEL6icoJdiNNlDIYvGPSLK5w&amp;oe=68D0A334', 'profileId': 'pfbid0CSRrdKmyXe8M9DMJhZXDzCsk97VWBcbPai1FUXpZqxmfpbAnTnMYYagVx4RvVcQKl', 'profileName': 'Yesid Maicol Ramirez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7818,23 +7818,23 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Por qué no buscan un freestyler para hacer la propaganda?</t>
+          <t>Esa damier est pensada es para jodernosbtodo es rosk nunkn gana nadie q si</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>45900.07872685185</v>
+        <v>45884.07013888889</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>45900</v>
+        <v>45884</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>01:53:22</t>
+          <t>01:41:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -7846,7 +7846,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1548810496491984', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE1NDg4MTA0OTY0OTE5ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNTQ4ODEwNDk2NDkxOTg0', 'date': '2025-08-31T01:53:22.000Z', 'text': 'Por qué no buscan un freestyler para hacer la propaganda?', 'profileUrl': 'https://www.facebook.com/andres.robles.449156', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/343804326_625469346287661_5219833204558983862_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TK49wr7Cbo0Q7kNvwG77_Ms&amp;_nc_oc=AdnEycK-2Jl66wKON3pVSEXAav-GC82W2odAuqI0jEBIbd4W-ggvwl8gyr4Vw9ybVRo&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=HHduYpEgWOEna__xjcjrfA&amp;oh=00_AfbdoxjEOphWz71NZzjEJhM1596ji7GtiP6qZf5BSNoqGg&amp;oe=68CF9B95', 'profileId': '100067474576686', 'profileName': 'Andres Robles', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1132408365405107', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzI0MDgzNjU0MDUxMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMyNDA4MzY1NDA1MTA3', 'date': '2025-08-15T01:41:00.000Z', 'text': 'Esa damier est pensada es para jodernosbtodo es rosk nunkn gana nadie q si', 'profileUrl': 'https://www.facebook.com/edwin.y.villamizar', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/533021043_10163253556138686_3558464915085023225_n.jpg?stp=c6.0.348.348a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Neb9cbnH-wwQ7kNvwHk92di&amp;_nc_oc=AdnIB3qPk94Bu6q3BzPVVYQSLbCr2lmZET-TfG63BDUQEw-8Tqov7jSor6nTNLqvXmc&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=dOoyyXpFsdhFfo0SjPYnLQ&amp;oh=00_AfZLcA4oPnzBI65VPXfmIb8YdZKAyh7Y2-bKmA5fpEB6Pg&amp;oe=68D09E7C', 'profileId': '702898685', 'profileName': 'Yair Vills Villamizar', 'likesCount': '3', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7872,18 +7872,18 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Oiga esa es otra vos</t>
+          <t>Por qué no buscan un freestyler para hacer la propaganda?</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>45899.63736111111</v>
+        <v>45900.07872685185</v>
       </c>
       <c r="H143" s="3" t="n">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>15:17:48</t>
+          <t>01:53:22</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7900,7 +7900,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1091119383160750', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEwOTExMTkzODMxNjA3NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMDkxMTE5MzgzMTYwNzUw', 'date': '2025-08-30T15:17:48.000Z', 'text': 'Oiga esa es otra vos', 'profileUrl': 'https://www.facebook.com/diego.alvarez.563129', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/494067923_1224261212683037_4313066049340068378_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0X6gWTeuiFUQ7kNvwFIcq8G&amp;_nc_oc=AdlQgD79Q3LoEB9UPg4ViToKxTHSW_jwJkzYTjkJ_Z3Pm27dxMf_fuuyf9HYEYLcn5I&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=HHduYpEgWOEna__xjcjrfA&amp;oh=00_AfbVbR5I8kLF8DvYjYd7Z2WeUx_71Q6wponuJjA6jq12Vw&amp;oe=68CF9A3F', 'profileId': 'pfbid0JXwbL8DLpjHFeJjJwZdHYn4wLYi9zCKxPpuv6tWnjjjWJ6aTTMyNW4aMsTLbNeh2l', 'profileName': 'Diego Alvarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1548810496491984', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE1NDg4MTA0OTY0OTE5ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNTQ4ODEwNDk2NDkxOTg0', 'date': '2025-08-31T01:53:22.000Z', 'text': 'Por qué no buscan un freestyler para hacer la propaganda?', 'profileUrl': 'https://www.facebook.com/andres.robles.449156', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/343804326_625469346287661_5219833204558983862_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TK49wr7Cbo0Q7kNvwEdTNYj&amp;_nc_oc=AdkiacNsuj1ba4OYtJmuQkyHNd3DSdiIOBMBP9acohTB2xhFzZysgVqFsOZy74W3-dE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=dOoyyXpFsdhFfo0SjPYnLQ&amp;oh=00_AfZVC_rtTnNhzzNDiDmvM5zvrzDT7u5MjTawysHvjhhqjA&amp;oe=68D07C95', 'profileId': '100067474576686', 'profileName': 'Andres Robles', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7926,18 +7926,18 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Le quito la publicidad a el bendito</t>
+          <t>Oiga esa es otra vos</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>45900.95987268518</v>
+        <v>45899.63736111111</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>45900</v>
+        <v>45899</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>23:02:13</t>
+          <t>15:17:48</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7954,7 +7954,7 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1971617000254868', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NzE2MTcwMDAyNTQ4Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTcxNjE3MDAwMjU0ODY4', 'date': '2025-08-31T23:02:13.000Z', 'text': 'Le quito la publicidad a el bendito', 'profileUrl': 'https://www.facebook.com/musikmen1125', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/506456469_24409567195294179_5777579543912253548_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=f3KNTKgj8YUQ7kNvwE5mA5L&amp;_nc_oc=AdkY1JSBnSZ6PsJ7GSEMnPhTFUk_NqVPZIUkAoJLRME3ucZcHrHSggOlst33OB7K9k4&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=HHduYpEgWOEna__xjcjrfA&amp;oh=00_AfamwHDCdCK_L0EVyqWBtryD8gjPwjEPTw-OSoXH6Ld3rw&amp;oe=68CF6D98', 'profileId': '100000027126647', 'profileName': 'Adrian Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1091119383160750', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEwOTExMTkzODMxNjA3NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMDkxMTE5MzgzMTYwNzUw', 'date': '2025-08-30T15:17:48.000Z', 'text': 'Oiga esa es otra vos', 'profileUrl': 'https://www.facebook.com/diego.alvarez.563129', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/494067923_1224261212683037_4313066049340068378_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0X6gWTeuiFUQ7kNvwHpkIh4&amp;_nc_oc=AdmF_aJ7sozHJT0xymVovnNhHgRN9-xIrJK9ZH8cQJM4A8dLi-7mnDy0JIJRzXdFFsY&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=dOoyyXpFsdhFfo0SjPYnLQ&amp;oh=00_AfaAiyQVPNuK23PFmk7VXeTMJdJ1IjJUwOWIvgP8M7w9Qw&amp;oe=68D07B3F', 'profileId': 'pfbid02NPPJWo9Ag4S76SNG9jh48iG7DQTQM3VsYanuUFVZuCJoQHxUPKd6vcG7LYvBMk3kl', 'profileName': 'Diego Alvarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7980,18 +7980,18 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Pero cuando va al hotel se cree mucha chimba , más picado que muela de gamin</t>
+          <t>Le quito la publicidad a el bendito</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>45892.0358449074</v>
+        <v>45900.95987268518</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>00:51:37</t>
+          <t>23:02:13</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -8008,7 +8008,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=787469003971814', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc4NzQ2OTAwMzk3MTgxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183ODc0NjkwMDM5NzE4MTQ=', 'date': '2025-08-23T00:51:37.000Z', 'text': 'Pero cuando va al hotel se cree mucha chimba , más picado que muela de gamin', 'profileUrl': 'https://www.facebook.com/janeth.ortiz.562', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/492302363_9874981929231401_5399690138389940040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hJWXIzlRVUsQ7kNvwFb8rLa&amp;_nc_oc=Adn3RsTpcYc-ESiAUhd7wsoEUYv89OvUb0lYMgABoK5Bd2nWEuJH4i1n_SrJDc4NBV8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=HHduYpEgWOEna__xjcjrfA&amp;oh=00_AfamoGfyIK3Jhkg_ycrsknK9IynUdCFzKIf-t_suZgh9Tg&amp;oe=68CF994C', 'profileId': 'pfbid02LQiP8m2i3e7Zz64d5YMvLzLbHe3zPEUjTaTtn8TwVxn9rnRkKzQorr56amPrwRRfl', 'profileName': 'Janeth Ortiz', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1971617000254868', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NzE2MTcwMDAyNTQ4Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTcxNjE3MDAwMjU0ODY4', 'date': '2025-08-31T23:02:13.000Z', 'text': 'Le quito la publicidad a el bendito', 'profileUrl': 'https://www.facebook.com/musikmen1125', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/506456469_24409567195294179_5777579543912253548_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ihgn8h7gEacQ7kNvwEieGCt&amp;_nc_oc=AdlislqEn9UWtElFBI4x-zS6OQF_0rgUB23hEICcxvdChS0MUmwnaMma9qE5NzQSQ9g&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=dOoyyXpFsdhFfo0SjPYnLQ&amp;oh=00_AfYEidoIPXCuZk3vCAzlYlO5XZTzCaRQEBOca157CS25Vw&amp;oe=68D086D8', 'profileId': '100000027126647', 'profileName': 'Adrian Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -8062,7 +8062,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=794358936276443', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc5NDM1ODkzNjI3NjQ0Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183OTQzNTg5MzYyNzY0NDM=', 'date': '2025-08-20T20:32:18.000Z', 'text': 'Nice, funny', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/453163641_26832621189684642_2271740473424978389_n.jpg?stp=c0.14.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ekmWSOBlHc4Q7kNvwHes04n&amp;_nc_oc=AdkAe32lITcBsGOOUR7H8U_GOXf0LhjLanFXuJEvsmTOmVcS2JGk_eJ0N1deFOjpopw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=paAIq-dNuohB4_65FKg7tg&amp;oh=00_AfYNcvY7GgFOk7C4NKunKPK-93BHFsFMDIOsQk-B3GtL_Q&amp;oe=68CF720B', 'profileId': '100000903734775', 'profileName': 'Diego Martinez OO', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=794358936276443', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc5NDM1ODkzNjI3NjQ0Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183OTQzNTg5MzYyNzY0NDM=', 'date': '2025-08-20T20:32:18.000Z', 'text': 'Nice, funny', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/453163641_26832621189684642_2271740473424978389_n.jpg?stp=c0.14.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hNz5LESCjAAQ7kNvwEUHVDJ&amp;_nc_oc=Adk-Kzdi75rk3OKayY4TnvPQ8erewRK7uOtV5We5A0jCQPcDqJVFjlyk7Vc7timWEpg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=_lpStYACO9IKk0O-sCJjhw&amp;oh=00_AfYdeZ0j5xocF9tR86_nQzT0v-0dqlKuA578eub-YT4jeg&amp;oe=68D08B4B', 'profileId': '100000903734775', 'profileName': 'Diego Martinez OO', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=789320190290234', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4OTMyMDE5MDI5MDIzNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODkzMjAxOTAyOTAyMzQ=', 'date': '2025-08-22T18:46:32.000Z', 'text': 'Bendiciones ladillo me alegra por ti', 'profileUrl': 'https://www.facebook.com/sergioandrecaicedo', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/528269033_24585035534459233_3732001438658360675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4AdOo9D4QnMQ7kNvwHnLNgS&amp;_nc_oc=AdlvyW3P61u3mwo3onFuBdffQGUAo_dy2TOxFZWkS0jye70sAU-lt1x1UZTqNmApFqo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=paAIq-dNuohB4_65FKg7tg&amp;oh=00_AfYo9OBlT0iLTkp0YPFpOWw4sRvU1FR5wtv3MyP93rm9iA&amp;oe=68CF68C8', 'profileId': '100001383837594', 'profileName': 'Sergio Andres Caicedo', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=789320190290234', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4OTMyMDE5MDI5MDIzNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODkzMjAxOTAyOTAyMzQ=', 'date': '2025-08-22T18:46:32.000Z', 'text': 'Bendiciones ladillo me alegra por ti', 'profileUrl': 'https://www.facebook.com/sergioandrecaicedo', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/528269033_24585035534459233_3732001438658360675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4AdOo9D4QnMQ7kNvwEPjCgu&amp;_nc_oc=AdlsFRPGwX6PU2AcPxkMnhINsScYblppkyTuviNcLsPKrPTr4w0VxdPcNqpOjtR_VIE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=_lpStYACO9IKk0O-sCJjhw&amp;oh=00_Afb5OpEe8Gz0QutZHpfJbc0GpupW8OyN73X3XNvag43atg&amp;oe=68D08208', 'profileId': '100001383837594', 'profileName': 'Sergio Andres Caicedo', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8170,7 +8170,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=3622223137911006', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzM2MjIyMjMxMzc5MTEwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18zNjIyMjIzMTM3OTExMDA2', 'date': '2025-09-06T22:03:54.000Z', 'text': 'Me gane el Bono de wingo exelente', 'profileUrl': 'https://www.facebook.com/martinalonso.mendezcardenas', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/503389173_9914115415336433_7580075318209485435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dXsgNczOxHIQ7kNvwH_koab&amp;_nc_oc=AdleNC4_zbBvdj63cYg6Wm9DzCkP_I45NmUD1j5LXmk9UBRQQaeaPtOGGUfiLjfluXM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=paAIq-dNuohB4_65FKg7tg&amp;oh=00_AfaAKovzQFFAFK-MAL5tW5OL7EeC4P-mwFEMMwqk00_MNQ&amp;oe=68CF8A77', 'profileId': 'pfbid02RD6DuMrETeR1xE1wTsFK6ytF6R8xEuzgUWoqgggEWhFWyKnVWCk7XGRF7RqZhBP8l', 'profileName': 'Martin Alonso Mendez Cardenas', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=3622223137911006', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzM2MjIyMjMxMzc5MTEwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18zNjIyMjIzMTM3OTExMDA2', 'date': '2025-09-06T22:03:54.000Z', 'text': 'Me gane el Bono de wingo exelente', 'profileUrl': 'https://www.facebook.com/martinalonso.mendezcardenas', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/503389173_9914115415336433_7580075318209485435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dXsgNczOxHIQ7kNvwGR56b4&amp;_nc_oc=Adk4o6fG0MegvcUEWSK1lKvJ6m6IATamqqClbZO2vnFTc5SBAD96kWDsxkhEuPu0joE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_lpStYACO9IKk0O-sCJjhw&amp;oh=00_Afb4TcTuHOrm8OpK6hGxSz462l1_dUCXrbgUJ_ItDg4Nyg&amp;oe=68D0A3B7', 'profileId': 'pfbid02RD6DuMrETeR1xE1wTsFK6ytF6R8xEuzgUWoqgggEWhFWyKnVWCk7XGRF7RqZhBP8l', 'profileName': 'Martin Alonso Mendez Cardenas', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8224,7 +8224,7 @@
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=4128555244081607', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzQxMjg1NTUyNDQwODE2MDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN180MTI4NTU1MjQ0MDgxNjA3', 'date': '2025-08-14T20:29:44.000Z', 'text': 'Que hagooooo', 'profileUrl': 'https://www.facebook.com/juan.angel.murillo.2025', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/535433996_745063165001205_8809228944804306963_n.jpg?stp=c0.0.920.920a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=lScppqPt6csQ7kNvwE60Fk-&amp;_nc_oc=AdnOCidens0X6a4gW1ouYx1YurXg0BAGTYvhsP4hdhxnmVMGmp2EpmdCyOLDPNboxEk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=paAIq-dNuohB4_65FKg7tg&amp;oh=00_AfbR36J2IlpLXXyjzf0D9nns8n5U56Om0L_Yd2GbZRq-qQ&amp;oe=68CF7746', 'profileId': '100084925837930', 'profileName': 'Juan Murillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=4128555244081607', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzQxMjg1NTUyNDQwODE2MDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN180MTI4NTU1MjQ0MDgxNjA3', 'date': '2025-08-14T20:29:44.000Z', 'text': 'Que hagooooo', 'profileUrl': 'https://www.facebook.com/juan.angel.murillo.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/548334075_766386189535569_454801008629295643_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=e0bMN9lqH9gQ7kNvwG9YFYf&amp;_nc_oc=AdkhTCT-27JfFV8_FGACyyq22n8Ka7FZBG5xUGlvHj-sPka4fIB6H5zM2NG1GZKXgmg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_lpStYACO9IKk0O-sCJjhw&amp;oh=00_AfYQbx5HiUVceEFdydTfVaQkB_acPoNpxgj041Q30vkjrQ&amp;oe=68D07889', 'profileId': '100084925837930', 'profileName': 'Juan Murillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8278,7 +8278,7 @@
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=788480480226133', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4ODQ4MDQ4MDIyNjEzMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODg0ODA0ODAyMjYxMzM=', 'date': '2025-09-08T20:31:52.000Z', 'text': 'Bon yurt de lo más sobrevalorado, aparte diminuto', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/219746045_1403063120094328_5816677017871857951_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aCS8kNbkbn4Q7kNvwHBKZUx&amp;_nc_oc=AdnFIXHXcq1a5kUPo-cbFCBQHyu1N5aXDu9Z151WOaT0VU3Af6PAw_VcZ_kq98XSiy8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=paAIq-dNuohB4_65FKg7tg&amp;oh=00_AfYLsJHf6T1vs_fLIwuWob4Z0KAA6S0Tr_MEbPNjuWwx0g&amp;oe=68CF808D', 'profileId': 'pfbid02fAZBpJJfhP9gHhtAshpJqC3GbmRdHo2cQ1BhJybbFUaxkkkkPAFgGmpoHJEyb1jvl', 'profileName': 'Santiago Bedoya', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=788480480226133', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4ODQ4MDQ4MDIyNjEzMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODg0ODA0ODAyMjYxMzM=', 'date': '2025-09-08T20:31:52.000Z', 'text': 'Bon yurt de lo más sobrevalorado, aparte diminuto', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/219746045_1403063120094328_5816677017871857951_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aCS8kNbkbn4Q7kNvwHVbV4I&amp;_nc_oc=AdnnzbcDRwky_zqgXvECfHp_G4KZQ1OJFU1IU-siIgHb5aboPLpewUE4ye0AZsvUUkQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=_lpStYACO9IKk0O-sCJjhw&amp;oh=00_AfZ_J0n_hi4BBFrAsI4e4En5AJwfgnadONFZiRHE1nxWgQ&amp;oe=68D099CD', 'profileId': 'pfbid0bcuzu8gJr5MPZwvprjNz7vyb6VsoLoemJYX8jVh8k7TewHXWpCHD8NWmyek4LJWdl', 'profileName': 'Santiago Bedoya', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1949581569153731', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE5NDk1ODE1NjkxNTM3MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xOTQ5NTgxNTY5MTUzNzMx', 'date': '2025-09-01T20:35:24.000Z', 'text': 'Te sale siempre lo mismo', 'profileUrl': 'https://www.facebook.com/dinaluz.puente', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/492503848_4195904467305941_9210599787112824267_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-fpYF3j0mNEQ7kNvwEUjCO2&amp;_nc_oc=AdlEFXamQkjr6E__jfLdoovm_JgCcI7KofcnnhSfPJk1cXcLQ-y3idTnLEI1-9gxbeM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=paAIq-dNuohB4_65FKg7tg&amp;oh=00_AfaH6_A2uIEwjsdr8AlQoPf7k7OH8KOQ7jWoXDkXiANMOA&amp;oe=68CF67EC', 'profileId': 'pfbid02cDkX7Ku9jBzjtduVXiPHfh8vYKtc9Gfp8e4neZ4NmD78Xx5MKhS8oZDhwauXQDjYl', 'profileName': 'Dina Puente', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1949581569153731', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE5NDk1ODE1NjkxNTM3MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xOTQ5NTgxNTY5MTUzNzMx', 'date': '2025-09-01T20:35:24.000Z', 'text': 'Te sale siempre lo mismo', 'profileUrl': 'https://www.facebook.com/dinaluz.puente', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/492503848_4195904467305941_9210599787112824267_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-fpYF3j0mNEQ7kNvwFIeYAo&amp;_nc_oc=AdkoUJzRPq3v4bCYA2RGrS39mjIPc0C-S245SPRh5htIqsvOheTzbY_CcUZ5POvOjCg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=_lpStYACO9IKk0O-sCJjhw&amp;oh=00_AfaygxvxeLNVatIudB2O72BLzVa_YOoV7jq4DOrx-AC_0Q&amp;oe=68D0812C', 'profileId': 'pfbid0Yg7LCAGnsvjSy7F6fbNdXG1p74ZDe63F61tg1PJUVP5wLMQPmAbnGnYKtmmiHJs3l', 'profileName': 'Dina Puente', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8386,7 +8386,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=24324332833855313', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzI0MzI0MzMyODMzODU1MzEz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yNDMyNDMzMjgzMzg1NTMxMw==', 'date': '2025-08-28T23:50:20.000Z', 'text': 'Cuando tenía 10 años, mi padre me obligó a ir al velorio de un amigo suyo que no conocía. Cuando llegamos allí, me quedé en un rincón esperando para irme. Entonces, un hombre se me acercó y me dijo: "disfruta tu vida muchacho, sé feliz porque yo no la disfruté". Puso su mano sobre mi cabeza y se alejó. Antes de irnos, mi padre me obligó a despedirme del muerto, y cuando miré el ataúd me asusté: era el hombre que me hablaba mientras yo estaba en un rincón. Empecé a no poder dormir, tenía miedo de estar solo, iba al psicólogo, no apagaba las luces por las noches... Años después descubrí algo increíble que cambió mi vida: aquel miserable mu€rtº tenía un hermano gemelo...', 'profileUrl': 'https://www.facebook.com/people/Julio-Acosta/pfbid02RTcfpKEFw8gbRksXF2jMCnRsfVc9oXnrxeLRBG5zx8dX6nzEtdm92UJhkawnMARvl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwF9GWxi&amp;_nc_oc=AdlzBt-OnfV3IGpHffmNK46WuTHwdnJ9FbYxNA_-9Wckrhv3eXO60xiAn8YaSJ9cL8M&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;oh=00_AfaFvnjpnNOc0HfEzAuhb5w9KqmxK26e6rd8QEk_taVOgQ&amp;oe=68F1233A', 'profileId': 'pfbid02RTcfpKEFw8gbRksXF2jMCnRsfVc9oXnrxeLRBG5zx8dX6nzEtdm92UJhkawnMARvl', 'profileName': 'Julio Acosta', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=24324332833855313', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzI0MzI0MzMyODMzODU1MzEz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yNDMyNDMzMjgzMzg1NTMxMw==', 'date': '2025-08-28T23:50:20.000Z', 'text': 'Cuando tenía 10 años, mi padre me obligó a ir al velorio de un amigo suyo que no conocía. Cuando llegamos allí, me quedé en un rincón esperando para irme. Entonces, un hombre se me acercó y me dijo: "disfruta tu vida muchacho, sé feliz porque yo no la disfruté". Puso su mano sobre mi cabeza y se alejó. Antes de irnos, mi padre me obligó a despedirme del muerto, y cuando miré el ataúd me asusté: era el hombre que me hablaba mientras yo estaba en un rincón. Empecé a no poder dormir, tenía miedo de estar solo, iba al psicólogo, no apagaba las luces por las noches... Años después descubrí algo increíble que cambió mi vida: aquel miserable mu€rtº tenía un hermano gemelo...', 'profileUrl': 'https://www.facebook.com/people/Julio-Acosta/pfbid0MuyUu9bu624Zg7ttAR8hDK1fspMRjP4jQPtdzbG33GUWdkwsjSwiDVN4msWSRA7Ml/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Sh0h5MnzbMAQ7kNvwGZmSQ2&amp;_nc_oc=AdnhPLjAkX5d1kb9WlCI9zbE-8UBMzWvbH3KPk2fIkS__j1_XQ90thTVktVSVq_PQ_I&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfbWOhr82qBn4YceZNuMQObmMzl87dLTOoaHpDmmwCpykg&amp;oe=68F23C7A', 'profileId': 'pfbid0MuyUu9bu624Zg7ttAR8hDK1fspMRjP4jQPtdzbG33GUWdkwsjSwiDVN4msWSRA7Ml', 'profileName': 'Julio Acosta', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8440,7 +8440,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1152286790065694', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzExNTIyODY3OTAwNjU2OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMTUyMjg2NzkwMDY1Njk0', 'date': '2025-08-19T23:04:06.000Z', 'text': 'Siempre me sale lo mismo voy a tener que destapar antes de comprar 🤣🤣🤣', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/544979563_24870058956018810_3872045628246113546_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ZhRUAEMQ6_MQ7kNvwECL_3-&amp;_nc_oc=AdkT3WVvEyOejaoxj3K489HMbkVMUyDTfbfi8PuxZfOrT8h0lnXkJrGg6nzQ5r_KZMg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=paAIq-dNuohB4_65FKg7tg&amp;oh=00_AfbauD3M5WCKulWJ0rTvEkTt8oCNqopy4ThvjHzNNL1GUg&amp;oe=68CF80DA', 'profileId': '100003241493156', 'profileName': 'Vanessa Zapata', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1152286790065694', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzExNTIyODY3OTAwNjU2OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMTUyMjg2NzkwMDY1Njk0', 'date': '2025-08-19T23:04:06.000Z', 'text': 'Siempre me sale lo mismo voy a tener que destapar antes de comprar 🤣🤣🤣', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/544979563_24870058956018810_3872045628246113546_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ZhRUAEMQ6_MQ7kNvwHmeZrb&amp;_nc_oc=AdkmbDac1IBLKoiUjYgFfy_CDCN8wJ3Mw15zRTAFIYoQENGG21fNAboIKcHdEBMkyXM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=_lpStYACO9IKk0O-sCJjhw&amp;oh=00_AfbJyAYsc4aF0orLAbXR80Osm-knOLYPdlN3l0iphfKpaw&amp;oe=68D09A1A', 'profileId': '100003241493156', 'profileName': 'Ossa Yura', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2250188958828563', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIyNTAxODg5NTg4Mjg1NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMjUwMTg4OTU4ODI4NTYz', 'date': '2025-09-08T03:18:05.000Z', 'text': '😂', 'profileUrl': 'https://www.facebook.com/juancarlos.uruenavelasquez', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/500037074_10233341091207589_6402490109221385624_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PcqrhOUKCeUQ7kNvwHLcBpg&amp;_nc_oc=AdmvS7b6wQizc3O8KR_5WON1RQHA-UbR0TJYygwV176Y0iQtgGZFbgs3U1U_Cs9MRjw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=paAIq-dNuohB4_65FKg7tg&amp;oh=00_AfazR7AiqNX682BRTfC0OepTqsjGcM2hVLaRlsxvy8exzw&amp;oe=68CF8136', 'profileId': 'pfbid0Qr87sfqfeLiAXa5sogLuickJY9X73XqzWk7QYWYvpu88qjY3iov2tFZbAwdCmjc6l', 'profileName': 'Juan Carlos Urueña Velasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2250188958828563', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIyNTAxODg5NTg4Mjg1NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMjUwMTg4OTU4ODI4NTYz', 'date': '2025-09-08T03:18:05.000Z', 'text': '😂', 'profileUrl': 'https://www.facebook.com/juancarlos.uruenavelasquez', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/500037074_10233341091207589_6402490109221385624_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PcqrhOUKCeUQ7kNvwEBzJ9S&amp;_nc_oc=Adn1CactQpF2G1F2Kx95mCLHTCqueythlkjAEV58CBM9koFHBX4UmGnQQNvylVRZyqE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=_lpStYACO9IKk0O-sCJjhw&amp;oh=00_AfZrD39B2As5oEDDWj_TbReeB14Y2PthrhZk5SNdteq0wA&amp;oe=68D09A76', 'profileId': 'pfbid0Qr87sfqfeLiAXa5sogLuickJY9X73XqzWk7QYWYvpu88qjY3iov2tFZbAwdCmjc6l', 'profileName': 'Juan Carlos Urueña Velasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K155" t="n">
@@ -8548,7 +8548,7 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1906374613475747', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE5MDYzNzQ2MTM0NzU3NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xOTA2Mzc0NjEzNDc1NzQ3', 'date': '2025-08-14T19:15:12.000Z', 'text': 'Lokillo🧠💪', 'profileUrl': 'https://www.facebook.com/davidsantiago.berriozapa', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/449720479_2969496736526630_6856378620134697430_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RKK924tpzAwQ7kNvwFh9WKc&amp;_nc_oc=Adl7mn-zY7G3jvB4jDY_J1ffKdDgW9PPuGC1MUOBe46d04Eh2B4OYdTgSj3PO7x_2jY&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=paAIq-dNuohB4_65FKg7tg&amp;oh=00_AfbUnzchcsTuAFKpy4ealkXWL5dwaqNK7Qxf_C35cbp5LA&amp;oe=68CF68F3', 'profileId': '100003989995046', 'profileName': 'David Berrio', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1906374613475747', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE5MDYzNzQ2MTM0NzU3NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xOTA2Mzc0NjEzNDc1NzQ3', 'date': '2025-08-14T19:15:12.000Z', 'text': 'Lokillo🧠💪', 'profileUrl': 'https://www.facebook.com/davidsantiago.berriozapa', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/449720479_2969496736526630_6856378620134697430_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ur4mr1_T0dMQ7kNvwE1HKuP&amp;_nc_oc=AdknUv5arSwHlhChhESCTJX0-XCT1WMYUP5GFbWybUKNmZvZOGkfpvpdr80Pig1fjoI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=_lpStYACO9IKk0O-sCJjhw&amp;oh=00_Afa5m2aV3fXCerar4qb2MT-t4qGzE2huDbXkAnnDlyrakg&amp;oe=68D08233', 'profileId': '100003989995046', 'profileName': 'David Berrio', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8602,7 +8602,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=785016947277203', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4NTAxNjk0NzI3NzIwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODUwMTY5NDcyNzcyMDM=', 'date': '2025-08-23T16:57:42.000Z', 'text': 'https://www.appyippee.com/fission-share/index.html?code=K4PDKZ', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/547041591_3002629686586566_4316729888268346161_n.jpg?stp=c0.0.1224.1224a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uxL9vLgXePsQ7kNvwFhoBv9&amp;_nc_oc=AdlmiIUSb659xAWv3qskbAbQ6-qkjrMCJPishcQpDlZnTl8zJPpyzr6drlGc0sxUBW8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=in2UnRrO4IxLwTwzj-QPoQ&amp;oh=00_AfZpP5VddIp_lB0uoAHgNZgX3rBVYSTk6Z0CphDPDVoXsQ&amp;oe=68CF811B', 'profileId': 'pfbid029HVz6AR7Q8LcSLCAZHdAZv9f7ZXtgKsVR5ypmqASyp8ikiESy7rtdRhTKkd81QoZl', 'profileName': 'Yuya Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=785016947277203', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4NTAxNjk0NzI3NzIwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODUwMTY5NDcyNzcyMDM=', 'date': '2025-08-23T16:57:42.000Z', 'text': 'https://www.appyippee.com/fission-share/index.html?code=K4PDKZ', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/547041591_3002629686586566_4316729888268346161_n.jpg?stp=c0.0.1224.1224a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uxL9vLgXePsQ7kNvwHwUkl4&amp;_nc_oc=AdlIrdgDbXUPJcKI4quFJYzVmKVBGug5kjHS4g5QYgQQyG1_WSkwh_UlzlJgbCatfgN3SrDqo5c0abkEVl9sQei9&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=z4-6IqURtQVt_R5GfFm4vA&amp;oh=00_AfafHqemTLCnNG5tojXiGohv5y6xZ2tkahnR7NMyMCBmyA&amp;oe=68D09A5B', 'profileId': 'pfbid05jroAznkYxCjEnYxanoJDCK7GHn2zJiSsiFwUY873dm9BMKHBmR4H4hWwKH74kZvl', 'profileName': 'Yuya Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8656,7 +8656,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1282026933191894', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEyODIwMjY5MzMxOTE4OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMjgyMDI2OTMzMTkxODk0', 'date': '2025-09-15T20:01:29.000Z', 'text': 'Donde consigo ese filtró de ojos separados', 'profileUrl': 'https://www.facebook.com/sebas.hernandez.332', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/502747781_3387702538038715_1808166903862498253_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zRETwinZi3oQ7kNvwEZKZHM&amp;_nc_oc=AdlsXJ-f8xayRcBs_xHtyVnYe5fOTCm3jjgEXf7XQhZ8mHqxoHzx7IeiFbJcy93W0tQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=in2UnRrO4IxLwTwzj-QPoQ&amp;oh=00_AfYYD8Jg6lpennJ2GBCWqCZrh_bbped-4ju_BHJnfxdS2g&amp;oe=68CF7904', 'profileId': 'pfbid02JW5rMTV1cJ1vPVC5dQ4yd69d3SY2Fahj1FhDkNQsoVXF2zfSyUhgNTk4du5gDVkFl', 'profileName': 'Jhoan Sebastian Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1282026933191894', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEyODIwMjY5MzMxOTE4OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMjgyMDI2OTMzMTkxODk0', 'date': '2025-09-15T20:01:29.000Z', 'text': 'Donde consigo ese filtró de ojos separados', 'profileUrl': 'https://www.facebook.com/sebas.hernandez.332', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/502747781_3387702538038715_1808166903862498253_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zRETwinZi3oQ7kNvwEauBPC&amp;_nc_oc=AdktcXHF23GBK0OBiOXrZEGm5qPzj9TvkMhv0HQQ3ErlySXb8JcH4MmS8R6cvPE-FKXNmdCNufBZTIFd0tG2LtX9&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=z4-6IqURtQVt_R5GfFm4vA&amp;oh=00_AfZ4Ffm6Q2RWSus6_ylpbDp9VFtM3G5JrDv2m3Ls2DqkZQ&amp;oe=68D09244', 'profileId': 'pfbid02JW5rMTV1cJ1vPVC5dQ4yd69d3SY2Fahj1FhDkNQsoVXF2zfSyUhgNTk4du5gDVkFl', 'profileName': 'Jhoan Sebastian Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8710,7 +8710,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=796171119600972', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc5NjE3MTExOTYwMDk3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183OTYxNzExMTk2MDA5NzI=', 'date': '2025-09-12T19:54:25.000Z', 'text': 'El humorista Lokillo o Rasta cuando', 'profileUrl': 'https://www.facebook.com/wilsonwuilfredo218', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/487240133_10226400012937568_7785190409366601970_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IQ_1HZ86OygQ7kNvwFSLQEN&amp;_nc_oc=Adl4Zr4iCGRQsoXQ1ktpwjfZf6Ca5XfN3mMGcMqC2ez5zWn-zmj9w_FoJR3-awzHNx4&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=in2UnRrO4IxLwTwzj-QPoQ&amp;oh=00_Afav2FtsJ4NeR9xCVS48F91Y3_CxDc7_CJ9JKEgMFMG8kQ&amp;oe=68CF79D1', 'profileId': '1560561300', 'profileName': 'Wilson Wuilfredo Uribe Camargo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=796171119600972', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc5NjE3MTExOTYwMDk3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183OTYxNzExMTk2MDA5NzI=', 'date': '2025-09-12T19:54:25.000Z', 'text': 'El humorista Lokillo o Rasta cuando', 'profileUrl': 'https://www.facebook.com/wilsonwuilfredo218', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/487240133_10226400012937568_7785190409366601970_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IQ_1HZ86OygQ7kNvwFyn-0-&amp;_nc_oc=AdkOlGlDy3DTdr8_2VsRwWTIR4IIx_2TLRq8k3Bhd4448IV43QysJr1seFy3ufgSXAojeQ1XMTQKiTqsng2MnSeJ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=z4-6IqURtQVt_R5GfFm4vA&amp;oh=00_Afb208sjpyD_diZFkUFB8CZ81kZODQVAGTI30aDPiYOQGw&amp;oe=68D09311', 'profileId': '1560561300', 'profileName': 'Wilson Wuilfredo Uribe Camargo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8764,7 +8764,7 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=24577296805216386', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzI0NTc3Mjk2ODA1MjE2Mzg2', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yNDU3NzI5NjgwNTIxNjM4Ng==', 'date': '2025-09-02T19:29:53.000Z', 'text': 'Me gané un bono de totto por 30 lucas ☺️', 'profileUrl': 'https://www.facebook.com/de.la.rosa.alvarez.371738', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/540984522_1090383303239857_5400543002481956654_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_tosikMvRIAQ7kNvwEE0vke&amp;_nc_oc=AdnZA3kMCaQM0ShPwOYaCpc3amvg4pTE-vvH2VlhXGKJHcaJFc6xsAN3F_zUE-h84D4&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=in2UnRrO4IxLwTwzj-QPoQ&amp;oh=00_Afb9fa2eZepzIdhvE022FsrQnceA_JijK2LSO4lbpUPKFw&amp;oe=68CF7A17', 'profileId': '100068045928905', 'profileName': 'De La Rosa Álvarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=24577296805216386', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzI0NTc3Mjk2ODA1MjE2Mzg2', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yNDU3NzI5NjgwNTIxNjM4Ng==', 'date': '2025-09-02T19:29:53.000Z', 'text': 'Me gané un bono de totto por 30 lucas ☺️', 'profileUrl': 'https://www.facebook.com/de.la.rosa.alvarez.371738', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/540984522_1090383303239857_5400543002481956654_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_tosikMvRIAQ7kNvwHUgm0G&amp;_nc_oc=Adn7Vo7zr5Su8kfzgWVGdmetYFSJeyMfzeZTEhQSxNmsop8ebC7KoyONPz73yn2uoLWHieRxQgMjqXHtKbsuoU9P&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=z4-6IqURtQVt_R5GfFm4vA&amp;oh=00_AfYA4ewoKp6-PIUdLWT9_AK3UKogfKxeBX92kQ9DXeplQg&amp;oe=68D09357', 'profileId': '100068045928905', 'profileName': 'De La Rosa Álvarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8818,7 +8818,7 @@
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2143718549442869', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIxNDM3MTg1NDk0NDI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMTQzNzE4NTQ5NDQyODY5', 'date': '2025-09-02T02:48:01.000Z', 'text': 'Tour quien se cree que porque vende yogurt . Vas a grabarme el dulces sueños jajaja', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/543120377_785344187336544_7417325699876638814_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zY3Ga05DACUQ7kNvwGL47Qk&amp;_nc_oc=Adm43HuMi-Z2IPah4Bca6k5CzznQqEavMT14BeJD-rwoaTzA98V-QS6JPRqnM61Jtq8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=in2UnRrO4IxLwTwzj-QPoQ&amp;oh=00_AfYy-rBlmc8Rz3hrH3L3wSVtic5eYgc6EywjdeVsqF7wPQ&amp;oe=68CF9348', 'profileId': 'pfbid02LZfm69H8LGqJdSkLA3NAk93HFK65TD3Y1akLxrkJdn7d6ykiMwHQUi1jFQivViJvl', 'profileName': 'Zk Guillz Andres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2143718549442869', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIxNDM3MTg1NDk0NDI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMTQzNzE4NTQ5NDQyODY5', 'date': '2025-09-02T02:48:01.000Z', 'text': 'Tour quien se cree que porque vende yogurt . Vas a grabarme el dulces sueños jajaja', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/543120377_785344187336544_7417325699876638814_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5V-P_jwFsZsQ7kNvwGLuAeN&amp;_nc_oc=AdmRmI7CPj0hAFlvfLmXQZy0w4ruUoJMbrZsBJEBINUi0d0_Gmj48zsrCHKAgtjKCRiE0A3PYvZOgBV0p9o17P1H&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=z4-6IqURtQVt_R5GfFm4vA&amp;oh=00_AfaN3wOkfIqNFbh0aeSWJxspr8wJypaYHfzZ1QC7RVAxew&amp;oe=68D0AC88', 'profileId': 'pfbid0GY53cL5ZfJbm5aDWiD58k32efHBnpV7W4wxdz3SvndEsGQEqh9b5JddyNCU94Wocl', 'profileName': 'Zk Guillz Andres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8872,7 +8872,7 @@
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=801123155671195', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzgwMTEyMzE1NTY3MTE5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN184MDExMjMxNTU2NzExOTU=', 'date': '2025-08-20T03:00:14.000Z', 'text': 'Está muy costoso , uno con uno no tiene y con 2 se descudra .', 'profileUrl': 'https://www.facebook.com/milely4350', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/447849630_827516849288592_7957439215733837409_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Z8xMFqQvpn8Q7kNvwGajfH_&amp;_nc_oc=AdkRqBxRC_ED1xQ7iwfyIl5jlf5E7Hca7FulYAP0BiVbGpDnc1EzFCTbmJa9dewXQto&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=in2UnRrO4IxLwTwzj-QPoQ&amp;oh=00_AfboVIdCVkEgupgy_iIFdBk475aBS059w5N1wsH2fLKZTg&amp;oe=68CF94EA', 'profileId': '100060908546655', 'profileName': 'Diana Milena Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=801123155671195', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzgwMTEyMzE1NTY3MTE5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN184MDExMjMxNTU2NzExOTU=', 'date': '2025-08-20T03:00:14.000Z', 'text': 'Está muy costoso , uno con uno no tiene y con 2 se descudra .', 'profileUrl': 'https://www.facebook.com/milely4350', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/447849630_827516849288592_7957439215733837409_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1mgpIYbHvXsQ7kNvwEzCtEy&amp;_nc_oc=AdnIDXxbnRoO5KjWhvHzSV_MOmBDsMVjgHXWSjSW1gwTLFmHCHip5JwoLrVKs6eUODkzn-kD9BYWMokD1WNL5aer&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=z4-6IqURtQVt_R5GfFm4vA&amp;oh=00_AfbvjEn3_h5LsWe2JLhn3H_oXCco3sd7HrNXHTYwbn5yQA&amp;oe=68D075EA', 'profileId': '100060908546655', 'profileName': 'Diana Milena Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8926,7 +8926,7 @@
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1682413752424583', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE2ODI0MTM3NTI0MjQ1ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xNjgyNDEzNzUyNDI0NTgz', 'date': '2025-09-13T17:07:09.000Z', 'text': 'Q Pereza  tengo 30 y todos dicen bono', 'profileUrl': 'https://www.facebook.com/GladysZpt', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/319053019_1289303481626548_4008065350537320596_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JHSZ3jgRLA4Q7kNvwHb2CZU&amp;_nc_oc=Adk6B45PJ3NNaXd4WgSdy6z1auzcHc4nkZ5RL6x21ZDbg45Rl90zx643SY7TdOneKZE&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=in2UnRrO4IxLwTwzj-QPoQ&amp;oh=00_Afa92-jzPJ8_zO8EYA5qencmzFgjW8LvIQ1IWBNNHMJbKQ&amp;oe=68CF8316', 'profileId': 'pfbid02afeqjMtBfJkQ9LJwfpjACqbNUNz84XRsdav6VXBSYtse9zv33pXqzrzySRVdioDVl', 'profileName': 'Gladys Zap', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1682413752424583', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE2ODI0MTM3NTI0MjQ1ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xNjgyNDEzNzUyNDI0NTgz', 'date': '2025-09-13T17:07:09.000Z', 'text': 'Q Pereza  tengo 30 y todos dicen bono', 'profileUrl': 'https://www.facebook.com/GladysZpt', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/319053019_1289303481626548_4008065350537320596_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JHSZ3jgRLA4Q7kNvwEPDrD5&amp;_nc_oc=AdlKRYEcA2kKve_rTmohqAAyREuSZzbzyG1YiajX4zQKAeOKv0IrNSRwdYMvucsHL2ZwBdHv8Lgs8FymjKuV5fvu&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=z4-6IqURtQVt_R5GfFm4vA&amp;oh=00_AfbDflXFAHXm1wmeqBmqJVaRSjwxGPbDUSmI9gN3FJiThg&amp;oe=68D09C56', 'profileId': 'pfbid0X81epCFppD7hzvMHcestq7kHFG1o3RRB3rxhwxHVTt3p2RgC7zj63tefPWnt3fizl', 'profileName': 'Gladys Zap', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8980,7 +8980,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1320887502789114', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMjA4ODc1MDI3ODkxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzIwODg3NTAyNzg5MTE0', 'date': '2025-08-21T23:58:54.000Z', 'text': 'Cuántos años lleva el Bonyurt de Alpina en Colombia  y sacan promociones irregulares e irrelevantes', 'profileUrl': 'https://www.facebook.com/perdomo.marino.juan.felipe', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/538528939_31948620381391719_2219385852100271695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-V7-Z2RfOK8Q7kNvwGpXI8s&amp;_nc_oc=Admx_mSx20FxYnk9VJlrnVKwrUErfAey3Y5IPrvQnR09vMDqxsQ83iK0LBe5LkrdrfQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=in2UnRrO4IxLwTwzj-QPoQ&amp;oh=00_AfY5W0fI5zM8CVp20WbVCziZbxSIrcq3sP5AGbrWlKFvpw&amp;oe=68CF96AF', 'profileId': '100000115149503', 'profileName': 'Perdomo Mariño Juan Felipe', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1320887502789114', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMjA4ODc1MDI3ODkxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzIwODg3NTAyNzg5MTE0', 'date': '2025-08-21T23:58:54.000Z', 'text': 'Cuántos años lleva el Bonyurt de Alpina en Colombia  y sacan promociones irregulares e irrelevantes', 'profileUrl': 'https://www.facebook.com/perdomo.marino.juan.felipe', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/538528939_31948620381391719_2219385852100271695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-V7-Z2RfOK8Q7kNvwEEIzci&amp;_nc_oc=AdnSNPXEeFlY9oUPvPGckBumv7Lcejb1z9NiZX1-ahN_3tiFbGvAVv228s7BH8RqyTN9x2-nMRcwfR54DcpUfOp8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=z4-6IqURtQVt_R5GfFm4vA&amp;oh=00_AfZUQm0tdM2-eseMQzE-cogPoS0wBnnT4jUC0jxjYVKrDg&amp;oe=68D077AF', 'profileId': '100000115149503', 'profileName': 'Perdomo Mariño Juan Felipe', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9034,7 +9034,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1353912616299116', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzNTM5MTI2MTYyOTkxMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzUzOTEyNjE2Mjk5MTE2', 'date': '2025-09-01T13:32:39.000Z', 'text': 'Cancerbero si debe estar muy triste', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/546849328_24278817235146966_4804008504211048956_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XUerv7vezWMQ7kNvwFFx7C2&amp;_nc_oc=AdmjgMExKDMq7e5rK_RBbb-LXGwJTCPWpDHbqOIfwsjORlYdId-reweL_ez-Nf5kQ0A&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=in2UnRrO4IxLwTwzj-QPoQ&amp;oh=00_AfaseZ3UzFm8kFKAtv6D2-JaU5KmNh7OwNuXIcjNx_vF2g&amp;oe=68CF875B', 'profileId': '100003360819313', 'profileName': 'Hugo Grisales', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1353912616299116', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzNTM5MTI2MTYyOTkxMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzUzOTEyNjE2Mjk5MTE2', 'date': '2025-09-01T13:32:39.000Z', 'text': 'Cancerbero si debe estar muy triste', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/546849328_24278817235146966_4804008504211048956_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XUerv7vezWMQ7kNvwHQF5S1&amp;_nc_oc=AdmzI27t5haTQs7NnRbBhWdEcfUescTXmJ9rvLm69ATvUmxKrcp3rYipIbUj_SlMBdie_kRWjUFneAWMYmsWTFqK&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=z4-6IqURtQVt_R5GfFm4vA&amp;oh=00_AfaddHu4nvLkVptNjwom0G0vZQIO4cDyaNtqVOl3P-ZYgg&amp;oe=68D0A09B', 'profileId': '100003360819313', 'profileName': 'Hugo Grisales', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9088,7 +9088,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=729131353282781', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzcyOTEzMTM1MzI4Mjc4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183MjkxMzEzNTMyODI3ODE=', 'date': '2025-08-16T16:40:53.000Z', 'text': 'Pura mierda compro los paquetes de a 4 y eso no trae ni mierda', 'profileUrl': 'https://www.facebook.com/fabianthecrow', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/354067744_10229999487992799_7063213958346107302_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MpS3rrPe5fQQ7kNvwF9Ivtz&amp;_nc_oc=Admf6ZLFeI2J51rcKBf9uWOcMgLaHuh7xJvZrfnBPgtc8qMFFomlyu3_vOQBIUYsARM&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=in2UnRrO4IxLwTwzj-QPoQ&amp;oh=00_AfZ-C9CCtC_KsS_h6OQm75pOdStdXpR-WiwqbyPHWgeeyA&amp;oe=68CF8B56', 'profileId': 'pfbid02qaVGAHdTRE16GNrzVizqhc9EpKchKfTcZJydSz4kZdnXktD2LhAUbCHxDg6NZj33l', 'profileName': 'Fabian Diaz Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=729131353282781', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzcyOTEzMTM1MzI4Mjc4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183MjkxMzEzNTMyODI3ODE=', 'date': '2025-08-16T16:40:53.000Z', 'text': 'Pura mierda compro los paquetes de a 4 y eso no trae ni mierda', 'profileUrl': 'https://www.facebook.com/fabianthecrow', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/354067744_10229999487992799_7063213958346107302_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0_L6hTQZO8UQ7kNvwE8bfTI&amp;_nc_oc=Admyvbs444RcPf5rawwp49tEfW7d5g0NzcK2n5A0Vy0IzewX-q3tHyzZaEJlSr4V3V-d4QPM3Zjx9wxT0WxAd-rw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=z4-6IqURtQVt_R5GfFm4vA&amp;oh=00_AfZXLsDJFMHL_nVBb5iRPMKiSwOclJHuVH12ensUIzmevA&amp;oe=68D0A496', 'profileId': 'pfbid0n2r5F816a1gQDAyMqeknHyugr2P2hNMrsvN2CQadDMtTDwWQg5K2n2RbgmyXn7eZl', 'profileName': 'Fabian Diaz Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9142,7 +9142,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1315490533272219', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMTU0OTA1MzMyNzIyMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzE1NDkwNTMzMjcyMjE5', 'date': '2025-09-13T20:13:08.000Z', 'text': 'Esto es mentira hay que mandar al tina por estar engañando a la gente', 'profileUrl': 'https://www.facebook.com/johana.marcela.187923', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/462291765_563966629491775_4636719095284282256_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=V49jMGqUnjgQ7kNvwFYIRHq&amp;_nc_oc=AdlzovtaQ9BqLwkvyE8uYvZK9BafiAJw2CPg6K2iXveBJHRaOb9BUqTJ9UDMD1m8-mNTPqIWleiB58rZcyhiyInc&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ZXJskyz8AwNsSnOLJP1dsA&amp;oh=00_AfY4NsI9AGRA-tx-znkzp0oRifGZXwBtq8s69U6lPD3RCw&amp;oe=68CF782C', 'profileId': '100076353282847', 'profileName': 'Johana Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1315490533272219', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMTU0OTA1MzMyNzIyMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzE1NDkwNTMzMjcyMjE5', 'date': '2025-09-13T20:13:08.000Z', 'text': 'Esto es mentira hay que mandar al tina por estar engañando a la gente', 'profileUrl': 'https://www.facebook.com/johana.marcela.187923', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/462291765_563966629491775_4636719095284282256_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=V49jMGqUnjgQ7kNvwGsc11W&amp;_nc_oc=AdlMsLNnP0Y2OcdgiQACIDf_5MNc-2-Dk8ZKIXrbj6_gnTtOhImpbPSluzqWZaRbKZk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=X09rcPkerQ9aqq5aQTpYow&amp;oh=00_AfZB5TtFpLiHYDcP1y4eeYeObMIlUAXAlfptifZYRUUj4w&amp;oe=68D0916C', 'profileId': '100076353282847', 'profileName': 'Johana Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=789215370267591', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4OTIxNTM3MDI2NzU5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODkyMTUzNzAyNjc1OTE=', 'date': '2025-09-15T17:28:56.000Z', 'text': 'Esa gente del centro demoníaco no tiene límites!', 'profileUrl': 'https://www.facebook.com/cesar.augusto.chapal.jaramillo', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwHDwZhl&amp;_nc_oc=AdnpCsc1fElWq2pmSIuinu5FQy3id9l5gs5E1RlW-RyL7OleAig9GO58iEo1kExT5M8iclIdaPnOn5VfToKaLP3q&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;oh=00_AfbN1OAUyYDNyZGin8gboGpj74mwa1itqXjn57fyLVNCag&amp;oe=68F1233A', 'profileId': 'pfbid0299XcabxfUBEAtQh46oHCmW8uXumBSmyaNsRc4h14vJ9nY9yikeJCUqAeSBryuZWdl', 'profileName': 'Cesar Augusto Chapal Jaramillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=789215370267591', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4OTIxNTM3MDI2NzU5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODkyMTUzNzAyNjc1OTE=', 'date': '2025-09-15T17:28:56.000Z', 'text': 'Esa gente del centro demoníaco no tiene límites!', 'profileUrl': 'https://www.facebook.com/cesar.augusto.chapal.jaramillo', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Sh0h5MnzbMAQ7kNvwHFmdbQ&amp;_nc_oc=AdlOou5OM3Tyz3I9xIR4bXtzCvinDARZ1BZwtMGpEkM2BBgQGOoiryp8QChqcf648LE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;oh=00_AfZn-uqD6R0rfQUmPXzLIrCpTUsFdyCQOn71wIruOTfoeg&amp;oe=68F23C7A', 'profileId': 'pfbid05btRfSLJcsipPT9RSJCL8wxKohKi4NAiUFLy75XpvB3ND34KqVcZtbo45QDbTJpUl', 'profileName': 'Cesar Augusto Chapal Jaramillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9220,25 +9220,21 @@
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Payaso</t>
-        </is>
-      </c>
+      <c r="F168" t="inlineStr"/>
       <c r="G168" s="2" t="n">
-        <v>45900.96178240741</v>
+        <v>45917.39295138889</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>45900</v>
+        <v>45917</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>23:04:58</t>
+          <t>09:25:51</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K168" t="n">
@@ -9250,7 +9246,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1111456604274641', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzExMTE0NTY2MDQyNzQ2NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMTExNDU2NjA0Mjc0NjQx', 'date': '2025-08-31T23:04:58.000Z', 'text': 'Payaso', 'profileUrl': 'https://www.facebook.com/sebaselfenix', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/471524488_9019788934731578_2156914218164910347_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=YUlOoSf-xtoQ7kNvwEUYZeW&amp;_nc_oc=AdnQ1a4Cy456wL8GCuJzeJA53gu6MpcxyVUZkhc4M2MKqsqqiQTCkBoxrR42BHhLi3IzVdPqusovZVbmUhox-Fxk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ZXJskyz8AwNsSnOLJP1dsA&amp;oh=00_AfaXSJsvW_OwYcwYv7YUCZU1XZkjd4gnfSRQUat5DAcLvg&amp;oe=68CF81DC', 'profileId': '100001016832932', 'profileName': 'Sebas Diaz Rios', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2160659107788235', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIxNjA2NTkxMDc3ODgyMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMTYwNjU5MTA3Nzg4MjM1', 'date': '2025-09-17T09:25:51.000Z', 'attachments': [{'__typename': 'GenericAttachmentMedia', 'sticker_image': {'__typename': 'Image', 'uri': 'https://external-dfw5-3.xx.fbcdn.net/emg1/v/t13/15485977876854298326?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FvfhRiJG2bbgAAAAd%2Fclapping-leonardo-dicaprio.gif%3Fc%3DVjFfZmFjZWJvb2tfd2ViY29tbWVudHM&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=X09rcPkerQ9aqq5aQTpYow&amp;_nc_oc=AdlngjRxRPkA8PgphtiA2HHUfvihAhgWaRifXvAEThM7-L5zPzGq_kVt2F8BC01cUf8&amp;ccb=13-1&amp;oh=06_Q3-3ASkCr4C0vIea57cqYXoQyTwYxa7wuWuNueUQba2Iegmg&amp;oe=68CC8170&amp;_nc_sid=9e3c15'}, 'id': '797630876535927', 'image': {'height': 396, 'width': 396, 'uri': 'https://external-dfw5-3.xx.fbcdn.net/emg1/v/t13/15485977876854298326?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FvfhRiJG2bbgAAAAd%2Fclapping-leonardo-dicaprio.gif%3Fc%3DVjFfZmFjZWJvb2tfd2ViY29tbWVudHM&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-emg0_q75_s396x396_tt6&amp;_nc_gid=X09rcPkerQ9aqq5aQTpYow&amp;_nc_oc=AdlngjRxRPkA8PgphtiA2HHUfvihAhgWaRifXvAEThM7-L5zPzGq_kVt2F8BC01cUf8&amp;ccb=13-1&amp;oh=06_Q3-3AScl5ICT7uBrl42YGXxJ5lq6hPuPtHN_cqalAtOC0zxr&amp;oe=68CC8170&amp;_nc_sid=c97757'}, 'animated_image': {'height': 498, 'width': 498, 'uri': 'https://external-dfw5-3.xx.fbcdn.net/emg1/v/t13/15485977876854298326?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FvfhRiJG2bbgAAAAd%2Fclapping-leonardo-dicaprio.gif%3Fc%3DVjFfZmFjZWJvb2tfd2ViY29tbWVudHM&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=X09rcPkerQ9aqq5aQTpYow&amp;_nc_oc=AdlngjRxRPkA8PgphtiA2HHUfvihAhgWaRifXvAEThM7-L5zPzGq_kVt2F8BC01cUf8&amp;ccb=13-1&amp;oh=06_Q3-3ASkCr4C0vIea57cqYXoQyTwYxa7wuWuNueUQba2Iegmg&amp;oe=68CC8170&amp;_nc_sid=9e3c15'}, 'animated_image_caption': None, 'animated_image_attribution': 'Tenor'}], 'profileUrl': 'https://www.facebook.com/erika.gil.557294', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/321771403_1814541122266209_8360928479478834800_n.jpg?stp=c0.23.688.688a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SJYzRs_BbPwQ7kNvwEtMbyP&amp;_nc_oc=Admpl_zob29qx8gnOkP7v2d5ZA9QtrBR6WO_vwEr4hhNwrZLHQUQZF1sVmOVctlgtmM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=X09rcPkerQ9aqq5aQTpYow&amp;oh=00_AfbJ8CiYeYhArEnys86aTXipvw3ceFdegQBJ9iGW47_MGg&amp;oe=68D08D06', 'profileId': 'pfbid0N6EsSxucWgaat3vXsU73cDyCmBFwyViGUxJnUSjtfcnmrffuaRCrS2xcNzbEMKVHl', 'profileName': 'Erika Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9274,21 +9270,25 @@
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Payaso</t>
+        </is>
+      </c>
       <c r="G169" s="2" t="n">
-        <v>45912.48645833333</v>
+        <v>45900.96178240741</v>
       </c>
       <c r="H169" s="3" t="n">
-        <v>45912</v>
+        <v>45900</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>11:40:30</t>
+          <t>23:04:58</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K169" t="n">
@@ -9300,13 +9300,13 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1318768099140308', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMTg3NjgwOTkxNDAzMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzE4NzY4MDk5MTQwMzA4', 'date': '2025-09-12T11:40:30.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/547071227_24627133536918712_1266811620884646346_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=EHnREuKC2FoQ7kNvwHUXfoW&amp;_nc_oc=AdnpoBFL10gGWNk2sbGQ1g7z4lE5axH8K5eZQdVo5WFVuJVr80eiOtIXQPkNsVGzFgt3H-OTRcalX0g46_ke3P-A&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ZXJskyz8AwNsSnOLJP1dsA&amp;oh=00_AfYfR4-5Lb_gt1PxGFTHRyJWZ4upDURj3bkfT5l-AyczxA&amp;oe=68CF8346'}, 'id': '24627133533585379', 'cix_screen': None, 'massive_image': {'width': 679, 'height': 960}, 'image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/547071227_24627133536918712_1266811620884646346_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=EHnREuKC2FoQ7kNvwHUXfoW&amp;_nc_oc=AdnpoBFL10gGWNk2sbGQ1g7z4lE5axH8K5eZQdVo5WFVuJVr80eiOtIXQPkNsVGzFgt3H-OTRcalX0g46_ke3P-A&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ZXJskyz8AwNsSnOLJP1dsA&amp;oh=00_AfbJXfvhQVlsTO8NgCiCqmEJ-xwLL9WZdSpQqHVN-VlXzw&amp;oe=68CF8346', 'width': 159, 'height': 225}, 'ocrText': "May be an image of 1 person and text that says 'PACT COLOMBIA HISTÓRICO HUMANA ANGELICA GUTIERREZ SENADO VOTA ESTE 26 DE OCTUBRE CAMPO CAMPO TIENE VOZ! ¡EL'"}], 'profileUrl': 'https://www.facebook.com/angelicamaria.gutierrezdaza', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/549205316_24652493214382744_2080482140741837395_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=chiDlniwOZYQ7kNvwG37TAb&amp;_nc_oc=Adm_jy8CmeOEC49yvz2cV_DIBySXoi74Bj5tjd-TjMbyj-YeKQ8d4xIMi5rd3x_RkHNDEyIBeugquvmzZHhHnUkp&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ZXJskyz8AwNsSnOLJP1dsA&amp;oh=00_AfaDf4RpWLVCLDw_0arVEjoo7sGZPf0MHjwgSmSlWafMwA&amp;oe=68CF7561', 'profileId': '100001462207613', 'profileName': 'Angélica María Gutiérrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1111456604274641', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzExMTE0NTY2MDQyNzQ2NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMTExNDU2NjA0Mjc0NjQx', 'date': '2025-08-31T23:04:58.000Z', 'text': 'Payaso', 'profileUrl': 'https://www.facebook.com/sebaselfenix', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/471524488_9019788934731578_2156914218164910347_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=YUlOoSf-xtoQ7kNvwEZp57X&amp;_nc_oc=AdkMQeS0sK7eTxEPTcM7PlBFyujpjW611Pne0u6t8WyL6lONNX92Mm6KhbYVO84NRH8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=X09rcPkerQ9aqq5aQTpYow&amp;oh=00_AfbtE25pBlTd69alkJcuDdYTGIEBetf0GRvPzu3fsOCNxA&amp;oe=68D09B1C', 'profileId': '100001016832932', 'profileName': 'Sebas Diaz Rios', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -9320,29 +9320,25 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1170398131792599/?dco_ad_token=AaoFFY4LRKJ8c2E0_-y86Ys7t1matG81R9ZcDdWDW0rs7AVv0zn97dr83esX_ibbfbXaQPwUjGp-lGL1&amp;dco_ad_id=120228919741660701</t>
+          <t>https://www.facebook.com/100064672685926/posts/1170398138459265/?dco_ad_token=Aap-TT7j1RpWUx9VGMjArmBwiefD5ixIY37EeREl0Kl15jEE1U0hLenBUMsyxumYitNK4srGyJMHHUPI&amp;dco_ad_id=120228919741620701</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Wowwww</t>
-        </is>
-      </c>
+      <c r="F170" t="inlineStr"/>
       <c r="G170" s="2" t="n">
-        <v>45893.90450231481</v>
+        <v>45912.48645833333</v>
       </c>
       <c r="H170" s="3" t="n">
-        <v>45893</v>
+        <v>45912</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>21:42:29</t>
+          <t>11:40:30</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K170" t="n">
@@ -9354,7 +9350,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1552070705774995', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE1NTIwNzA3MDU3NzQ5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNTUyMDcwNzA1Nzc0OTk1', 'date': '2025-08-24T21:42:29.000Z', 'text': 'Wowwww', 'profileUrl': 'https://www.facebook.com/GustavoGonzalezHernandez15', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/504824099_10223683889599962_4259216643596317637_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=rCkiNaiBf2kQ7kNvwHwYgzl&amp;_nc_oc=AdnZusnrow8W56O9nbmNKm-LNpS1Y5S69Kxea7nod8nV2UgAoMU-i0Sg16jjlImItIg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=E_bKdBRY3uUo-GRfrPxLIQ&amp;oh=00_AfZX0Zy6-pvf3kFOII-MuAgROn0IQvErWpE7AvDZAFgEoQ&amp;oe=68CF6B5B', 'profileId': '1673966876', 'profileName': 'Gustavo González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1318768099140308', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMTg3NjgwOTkxNDAzMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzE4NzY4MDk5MTQwMzA4', 'date': '2025-09-12T11:40:30.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/547071227_24627133536918712_1266811620884646346_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jrYTaf9ymnUQ7kNvwHRJlP3&amp;_nc_oc=Adn6R5ZiPevuRL7IKG0OJeq_9oNc_pliP79pSHtsCBT6KmB4imqu78hC66M-7GQv1ek&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=X09rcPkerQ9aqq5aQTpYow&amp;oh=00_AfZAI7X0q_uhLts_szZRjMm8zCcU0t9RONxQm6IjyzPOmQ&amp;oe=68D09C86'}, 'id': '24627133533585379', 'cix_screen': None, 'massive_image': {'width': 679, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/547071227_24627133536918712_1266811620884646346_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jrYTaf9ymnUQ7kNvwHRJlP3&amp;_nc_oc=Adn6R5ZiPevuRL7IKG0OJeq_9oNc_pliP79pSHtsCBT6KmB4imqu78hC66M-7GQv1ek&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=X09rcPkerQ9aqq5aQTpYow&amp;oh=00_AfZrIPxJAKyN1zv2paBdc5_WvsNI_lXNjAWNgd_A2l7Ztw&amp;oe=68D09C86', 'width': 159, 'height': 225}, 'ocrText': "May be an image of 1 person and text that says 'PACT COLOMBIA HISTÓRICO HUMANA ANGELICA GUTIERREZ SENADO VOTA ESTE 26 DE OCTUBRE CAMPO CAMPO TIENE VOZ! ¡EL'"}], 'profileUrl': 'https://www.facebook.com/angelicamaria.gutierrezdaza', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/549205316_24652493214382744_2080482140741837395_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=chiDlniwOZYQ7kNvwEiKMMz&amp;_nc_oc=Adk5HPMQWfkyKXtgB6kGUVuZfEVNV_bJ0NwP7Z3idr1L9zVkoTO4tua23SMXv-E8vpg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=X09rcPkerQ9aqq5aQTpYow&amp;oh=00_AfYeowX8EWMfxU4pzTNl6HnLlsI3k2otUv8v_rIoBSLNgQ&amp;oe=68D08EA1', 'profileId': '100001462207613', 'profileName': 'Angélica María Gutiérrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9380,23 +9376,23 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Buenas cuantos hay que consumir, en toda mi familia llevamos casi 200 y aún no nos sale nada, donde están los ganadores</t>
+          <t>Wowwww</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>45902.63253472222</v>
+        <v>45893.90450231481</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>45902</v>
+        <v>45893</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>15:10:51</t>
+          <t>21:42:29</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K171" t="n">
@@ -9408,7 +9404,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1995263167898436', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE5OTUyNjMxNjc4OTg0MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xOTk1MjYzMTY3ODk4NDM2', 'date': '2025-09-02T15:10:51.000Z', 'text': 'Buenas cuantos hay que consumir, en toda mi familia llevamos casi 200 y aún no nos sale nada, donde están los ganadores', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/393806649_10232985388560191_9067605354079393690_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S2QJMf-o6N4Q7kNvwGFia8O&amp;_nc_oc=Admgb0q1g-V9el-HzQUj13v_GjftNmCr9JXlwQ_vClmtzE171VDN8wXCETYEV17b_-A&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=E_bKdBRY3uUo-GRfrPxLIQ&amp;oh=00_AfYr9HFJ83btBPnHoLa9DV8yyerfieggGTxtjRopkRtk-Q&amp;oe=68CF6B9E', 'profileId': 'pfbid02dFbetPVeUWXLnJGU7iDtK6dFtKshpiLPDKKwqNqLezak8v4rv7dQBwipaV4xtvGel', 'profileName': 'Lenis Perez', 'likesCount': '11', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1552070705774995', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE1NTIwNzA3MDU3NzQ5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNTUyMDcwNzA1Nzc0OTk1', 'date': '2025-08-24T21:42:29.000Z', 'text': 'Wowwww', 'profileUrl': 'https://www.facebook.com/GustavoGonzalezHernandez15', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/504824099_10223683889599962_4259216643596317637_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=rCkiNaiBf2kQ7kNvwH5ACwy&amp;_nc_oc=Admn959txA_mLlc_XW4NIDPECnmVYbBcNiXMfU89Z6It8ifTS2-OmW5zVnmOm4Tjs6DMSmRvl_GxS2C_HLbRZfkv&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=8WeB0V-XCwnhQ7GN87hNxw&amp;oh=00_AfZPVZwuDXlf2d_l8dQxAgIvhI_5RQdDb-tJcMghV4-30g&amp;oe=68D0849B', 'profileId': '1673966876', 'profileName': 'Gustavo González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9434,24 +9430,23 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Solo me sale bono ya me
- E comido 12 bon your</t>
+          <t>Buenas cuantos hay que consumir, en toda mi familia llevamos casi 200 y aún no nos sale nada, donde están los ganadores</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>45899.1353125</v>
+        <v>45902.63253472222</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>45899</v>
+        <v>45902</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>03:14:51</t>
+          <t>15:10:51</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K172" t="n">
@@ -9463,7 +9458,7 @@
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1285963919320542', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEyODU5NjM5MTkzMjA1NDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMjg1OTYzOTE5MzIwNTQy', 'date': '2025-08-30T03:14:51.000Z', 'text': 'Solo me sale bono ya me\n E comido 12 bon your', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/456333656_2207780302909473_6582403035976290320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1N5MJD6fh54Q7kNvwGtbe5P&amp;_nc_oc=Adm50sCNdP19BtdV-O9sUa1SvI2gCiM1fISXKflx6UlAyR0utTR_EkIBTzPPIAmGqWw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=E_bKdBRY3uUo-GRfrPxLIQ&amp;oh=00_AfYXDw4pj3giJo4G1vwTvnpuJUuBWuL0xtelYEQBNWF9JQ&amp;oe=68CF9AF9', 'profileId': '100010325746937', 'profileName': 'Ulloque P', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1995263167898436', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE5OTUyNjMxNjc4OTg0MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xOTk1MjYzMTY3ODk4NDM2', 'date': '2025-09-02T15:10:51.000Z', 'text': 'Buenas cuantos hay que consumir, en toda mi familia llevamos casi 200 y aún no nos sale nada, donde están los ganadores', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/393806649_10232985388560191_9067605354079393690_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S2QJMf-o6N4Q7kNvwE_AY7A&amp;_nc_oc=Admj4EH0__HahgMyk0SsSPBMVrsZSQj-cvuEj65RmMbH7Lx9X1ZRAC9mGdpWa7mzBTqZsMF7nurBpkWooyvvZHze&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=8WeB0V-XCwnhQ7GN87hNxw&amp;oh=00_AfYSQjJFD4gtJucXDoayxaazQMEJ147PUcO-_zH_EfhdBA&amp;oe=68D084DE', 'profileId': 'pfbid0ZhxTyDsHd7Y2DpPWpSyCKpoHanckizL9ZQWZCLH6EmnuRGiqB1uCPznPLZyZpjfEl', 'profileName': 'Lenis Perez', 'likesCount': '12', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9489,23 +9484,24 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>Solo me sale bono ya me
+ E comido 12 bon your</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>45908.1211574074</v>
+        <v>45899.1353125</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>45908</v>
+        <v>45899</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>02:54:28</t>
+          <t>03:14:51</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K173" t="n">
@@ -9517,7 +9513,7 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1119097146863108', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExMTkwOTcxNDY4NjMxMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTE5MDk3MTQ2ODYzMTA4', 'date': '2025-09-08T02:54:28.000Z', 'text': '😂', 'profileUrl': 'https://www.facebook.com/juancarlos.uruenavelasquez', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/500037074_10233341091207589_6402490109221385624_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PcqrhOUKCeUQ7kNvwHDWHFb&amp;_nc_oc=AdmFNx-fzUhmdGwp4XBG9UeanOGpxlNj_e22wbtIyuip2rxNB-M7snmcWYgLcf9zP3c&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=E_bKdBRY3uUo-GRfrPxLIQ&amp;oh=00_AfYYQfxXMmMD3EyTGZQvYKxwB0pJ2cI44L38CiQtGi0Ksw&amp;oe=68CF8136', 'profileId': 'pfbid0Qr87sfqfeLiAXa5sogLuickJY9X73XqzWk7QYWYvpu88qjY3iov2tFZbAwdCmjc6l', 'profileName': 'Juan Carlos Urueña Velasquez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1285963919320542', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEyODU5NjM5MTkzMjA1NDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMjg1OTYzOTE5MzIwNTQy', 'date': '2025-08-30T03:14:51.000Z', 'text': 'Solo me sale bono ya me\n E comido 12 bon your', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/456333656_2207780302909473_6582403035976290320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1N5MJD6fh54Q7kNvwHtu5uD&amp;_nc_oc=AdlG3bg92ypB3EqMF30Sl5YCCglDkknFVUfe6_gEdp7pqzwAFZj0RMhZc5kPldCmRTx38TQ8XrB6qQxOGG-QcEIR&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=8WeB0V-XCwnhQ7GN87hNxw&amp;oh=00_AfbT7dDKO1OQPK9BgDHPFaca0bqu4s4FNwO5A3Rfgl_bjQ&amp;oe=68D07BF9', 'profileId': '100010325746937', 'profileName': 'Ulloque P', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9543,23 +9539,23 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Estafa como siempre</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>45915.18023148148</v>
+        <v>45908.1211574074</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>04:19:32</t>
+          <t>02:54:28</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K174" t="n">
@@ -9571,7 +9567,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1339141280903766', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMzkxNDEyODA5MDM3NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzM5MTQxMjgwOTAzNzY2', 'date': '2025-09-15T04:19:32.000Z', 'text': 'Estafa como siempre', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/306579133_10160333043523432_3403082654770756560_n.jpg?stp=c0.0.474.474a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k3pt_4DjneYQ7kNvwE269OC&amp;_nc_oc=AdnZ0kZwPvpnQFhLqV94t1vE2Q0l8ukFwpEbLIItlP65nG8gkbZYUySEsLYxr0Nxy8I&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=E_bKdBRY3uUo-GRfrPxLIQ&amp;oh=00_AfY7Fqb7bMjfHmU1P8S4Bw4H7IUCA-Uz_R9XazgVqG06yw&amp;oe=68CF9941', 'profileId': 'pfbid0ip6Zn68HP2LPjfr4sh2kM7AGPNoNodkhkz54TZQAWc5sTDmzQjMX885QQCrCs5qal', 'profileName': 'Juan Carlos Rozo Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1119097146863108', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExMTkwOTcxNDY4NjMxMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTE5MDk3MTQ2ODYzMTA4', 'date': '2025-09-08T02:54:28.000Z', 'text': '😂', 'profileUrl': 'https://www.facebook.com/juancarlos.uruenavelasquez', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/500037074_10233341091207589_6402490109221385624_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PcqrhOUKCeUQ7kNvwHH9WwP&amp;_nc_oc=AdlomkvoFhmRgHLMPHXWq87YjaJa7ym9uKGwFxq8fYmLO4dI0RtCZef_UET2tFHdqa7d8df2PEfdvVsxmsfFqPJA&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=8WeB0V-XCwnhQ7GN87hNxw&amp;oh=00_Afbblvm9x2cCSmh6GeaogGtFRfsXyPlaYlrWmkjYrFESlg&amp;oe=68D09A76', 'profileId': 'pfbid0Qr87sfqfeLiAXa5sogLuickJY9X73XqzWk7QYWYvpu88qjY3iov2tFZbAwdCmjc6l', 'profileName': 'Juan Carlos Urueña Velasquez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9597,23 +9593,23 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>En serio los premios son descuentos. No alcanza para un premio de verdad?. El bono de wingo es de 15% de descuento en un pasaje con mil restricciones. No les alcanza para un tiquete, con todo lo que vende alpina? La emoción se nos fue al piso cuando redimimos el premio. Sale uno perdiendo más, si compra con ese bono</t>
+          <t>Estafa como siempre</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
-        <v>45899.11642361111</v>
+        <v>45915.18023148148</v>
       </c>
       <c r="H175" s="3" t="n">
-        <v>45899</v>
+        <v>45915</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>02:47:39</t>
+          <t>04:19:32</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K175" t="n">
@@ -9625,7 +9621,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=674777048961476', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzY3NDc3NzA0ODk2MTQ3Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M182NzQ3NzcwNDg5NjE0NzY=', 'date': '2025-08-30T02:47:39.000Z', 'text': 'En serio los premios son descuentos. No alcanza para un premio de verdad?. El bono de wingo es de 15% de descuento en un pasaje con mil restricciones. No les alcanza para un tiquete, con todo lo que vende alpina? La emoción se nos fue al piso cuando redimimos el premio. Sale uno perdiendo más, si compra con ese bono', 'profileUrl': 'https://www.facebook.com/mauricio.rusinque', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/447447350_10231523721453669_3681938507405524141_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xlzCdAJuBzAQ7kNvwH9Z4GZ&amp;_nc_oc=AdlgA2xYkoA4g-TX7EtJPuXWY4bYNyAkc-dEdyLOgeA4Bcvs2iIytzxhe5eeIidbtgA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=E_bKdBRY3uUo-GRfrPxLIQ&amp;oh=00_AfYtRML0DQ41cCsnOy8SAKioWBVbv6RGViWbb0dbOTKoLQ&amp;oe=68CF857A', 'profileId': '1158240961', 'profileName': 'Mauricio Rusinque', 'likesCount': '9', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1339141280903766', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMzkxNDEyODA5MDM3NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzM5MTQxMjgwOTAzNzY2', 'date': '2025-09-15T04:19:32.000Z', 'text': 'Estafa como siempre', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/306579133_10160333043523432_3403082654770756560_n.jpg?stp=c0.0.474.474a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k3pt_4DjneYQ7kNvwEIo3p0&amp;_nc_oc=AdkzGT4kI9Abro9ylh_iiqj1n9jX16EnIIeaNOra4CdGjAss9kjSj5AJusHu4w8giCQtfinOaauSRSQWBlCELz5o&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=8WeB0V-XCwnhQ7GN87hNxw&amp;oh=00_AfYn_0SgtzM0uYEW5ecw7s3IHXr3Xq6AkMn-bGyODr_hqQ&amp;oe=68D07A41', 'profileId': 'pfbid02nBakQ7UuQfPrLHKoDfHaNEcT2nXKzgpRnxdKS5xwGUG8y76u6nWCWPDrSMHQuqX5l', 'profileName': 'Juan Carlos Rozo Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9651,23 +9647,23 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Premios tan m.....s</t>
+          <t>En serio los premios son descuentos. No alcanza para un premio de verdad?. El bono de wingo es de 15% de descuento en un pasaje con mil restricciones. No les alcanza para un tiquete, con todo lo que vende alpina? La emoción se nos fue al piso cuando redimimos el premio. Sale uno perdiendo más, si compra con ese bono</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
-        <v>45909.26121527778</v>
+        <v>45899.11642361111</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>45909</v>
+        <v>45899</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>06:16:09</t>
+          <t>02:47:39</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K176" t="n">
@@ -9679,7 +9675,7 @@
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2174074263073737', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIxNzQwNzQyNjMwNzM3Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMTc0MDc0MjYzMDczNzM3', 'date': '2025-09-09T06:16:09.000Z', 'text': 'Premios tan m.....s', 'profileUrl': 'https://www.facebook.com/jimmymauricio.valenciagarcia', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/462255160_8717554801641125_175399083759338104_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dGZ0rjmXlyoQ7kNvwHOYnJ_&amp;_nc_oc=AdmXMOyVtz3KW7qvo5YgHnPgWTuKCekySjIu-U1-bXfMaboeX7sMlms22IF1Z4RUof0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=E_bKdBRY3uUo-GRfrPxLIQ&amp;oh=00_AfaDjKMWS7zaMcVu6_XuOxhqTzV1qDkukSnXoLvB4J-GTQ&amp;oe=68CF94F4', 'profileId': '100001600746705', 'profileName': 'Jm Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=674777048961476', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzY3NDc3NzA0ODk2MTQ3Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M182NzQ3NzcwNDg5NjE0NzY=', 'date': '2025-08-30T02:47:39.000Z', 'text': 'En serio los premios son descuentos. No alcanza para un premio de verdad?. El bono de wingo es de 15% de descuento en un pasaje con mil restricciones. No les alcanza para un tiquete, con todo lo que vende alpina? La emoción se nos fue al piso cuando redimimos el premio. Sale uno perdiendo más, si compra con ese bono', 'profileUrl': 'https://www.facebook.com/mauricio.rusinque', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/447447350_10231523721453669_3681938507405524141_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xlzCdAJuBzAQ7kNvwHjTLHd&amp;_nc_oc=AdniF-_2qZmSbmKzoFRVxyoqe8C2snavwP2y07XLc3vXKwLLmVoNEAIaOkfIwFirjX5ViMUNGwpFwYSqlISGI02a&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=8WeB0V-XCwnhQ7GN87hNxw&amp;oh=00_AfYv1pPCrtJcSqtkDgAQX51Qdbrqp5C1Py62JS2U7ioHbQ&amp;oe=68D09EBA', 'profileId': '1158240961', 'profileName': 'Mauricio Rusinque', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9705,23 +9701,23 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>3 etiquetas de lactosuero</t>
+          <t>Premios tan m.....s</t>
         </is>
       </c>
       <c r="G177" s="2" t="n">
-        <v>45899.75064814815</v>
+        <v>45909.26121527778</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>45899</v>
+        <v>45909</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>18:00:56</t>
+          <t>06:16:09</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K177" t="n">
@@ -9733,7 +9729,7 @@
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1099915022288150', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEwOTk5MTUwMjIyODgxNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMDk5OTE1MDIyMjg4MTUw', 'date': '2025-08-30T18:00:56.000Z', 'text': '3 etiquetas de lactosuero', 'profileUrl': 'https://www.facebook.com/fernandodejesus.roldanmedina', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.6435-1/74599560_459031218061030_7009115240973467648_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nxjD5thSuRwQ7kNvwHno0_z&amp;_nc_oc=Adm_C1puorpuixLZPS8pbdTGYOqvPYfQGDTQmfVWtetIo0pN219y4YODPoCvF4QLPbo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=E_bKdBRY3uUo-GRfrPxLIQ&amp;oh=00_AfaeH4dyXw6cFOnto8rQSGQIlTPi2up7NmhR1EYANbVjpQ&amp;oe=68F1282C', 'profileId': 'pfbid02ScfrrkdsxAnbhsQViyxMZQ3Ejx8oRCHhhZMjzuztLhjA6CPP1BFoQLDafjKCsmeol', 'profileName': 'Fernando Dejesus Roldan Medina', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2174074263073737', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIxNzQwNzQyNjMwNzM3Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMTc0MDc0MjYzMDczNzM3', 'date': '2025-09-09T06:16:09.000Z', 'text': 'Premios tan m.....s', 'profileUrl': 'https://www.facebook.com/jimmymauricio.valenciagarcia', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/462255160_8717554801641125_175399083759338104_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dGZ0rjmXlyoQ7kNvwHBqj4Q&amp;_nc_oc=Adn1NqgRHpQymgntWHFbVg12ohCCOIBC2kq6TJt1GO7VgoYsgB_grMdvzcvy7XXPkvoZNfsNSq97quCxpSu4ycD1&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=8WeB0V-XCwnhQ7GN87hNxw&amp;oh=00_AfbmaqNXHdu0w4EDD0kVMU72DZifOPBjUBW1_ykIyQn5yA&amp;oe=68D075F4', 'profileId': '100001600746705', 'profileName': 'Jm Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9759,23 +9755,23 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>3 etiquetas de lactosuero</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>45913.56431712963</v>
+        <v>45899.75064814815</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>45913</v>
+        <v>45899</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>13:32:37</t>
+          <t>18:00:56</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K178" t="n">
@@ -9787,7 +9783,7 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=4285999004951708', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzQyODU5OTkwMDQ5NTE3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M180Mjg1OTk5MDA0OTUxNzA4', 'date': '2025-09-13T13:32:37.000Z', 'text': 'Y', 'profileUrl': 'https://www.facebook.com/esteisy.yissed', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/475673129_2415008895507881_6371712224887950061_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0fwAGnUCO-4Q7kNvwGMIob2&amp;_nc_oc=AdlMPIqAVaeEEKKx9UYGtcsZr-IlniTY2IT-urhbNqbqILcTkurKsRzouKPkb7r32zA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=E_bKdBRY3uUo-GRfrPxLIQ&amp;oh=00_AfYpCmlNLvbCYhen3vO_L81VTEkrkOdRN_3AyklevdLpAg&amp;oe=68CF8987', 'profileId': 'pfbid0M6o4f8H4MLhqpSzU1MYTgWgVrGe367YGxLBvX94ystsBeeCsgmeqxaj7uTRDqkLRl', 'profileName': 'Ëstëisy Yissed', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1099915022288150', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEwOTk5MTUwMjIyODgxNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMDk5OTE1MDIyMjg4MTUw', 'date': '2025-08-30T18:00:56.000Z', 'text': '3 etiquetas de lactosuero', 'profileUrl': 'https://www.facebook.com/fernandodejesus.roldanmedina', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t1.6435-1/74599560_459031218061030_7009115240973467648_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nxjD5thSuRwQ7kNvwEAW3eN&amp;_nc_oc=AdnBI7Iq1lhSf2iVElb5DOZ5MPUA9hwbPHWM8gugsFu07GsJmucJdRHTIoClFuD1nHN3U_GjwmlC1g_qD47AxO8c&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=8WeB0V-XCwnhQ7GN87hNxw&amp;oh=00_AfYdfrhaOMMPaD9eKWOJudF4rmrBAFSdMTqUlE3xpJMsqQ&amp;oe=68F2416C', 'profileId': 'pfbid02ScfrrkdsxAnbhsQViyxMZQ3Ejx8oRCHhhZMjzuztLhjA6CPP1BFoQLDafjKCsmeol', 'profileName': 'Fernando Dejesus Roldan Medina', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9813,18 +9809,18 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Como son las frases?</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="G179" s="2" t="n">
-        <v>45900.60375</v>
+        <v>45913.56431712963</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>45900</v>
+        <v>45913</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>14:29:24</t>
+          <t>13:32:37</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9841,7 +9837,7 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1304837871301074', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMDQ4Mzc4NzEzMDEwNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzA0ODM3ODcxMzAxMDc0', 'date': '2025-08-31T14:29:24.000Z', 'text': 'Como son las frases?', 'profileUrl': 'https://www.facebook.com/lesvia.mariano.3', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/525560263_1326043802212047_4731061571387816022_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XxR_059QN10Q7kNvwEFkOiq&amp;_nc_oc=AdlOP2Qyc6I-3aaiCCTVl25LVFVefDeCVsy_gYlrx4oG_NGlFxZ7EQSF03XpsKGiv3g&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=E_bKdBRY3uUo-GRfrPxLIQ&amp;oh=00_AfbhRRBdHGLcTpzJ6CE8hciwKhkd8L4SSOihT4DZSu5qbQ&amp;oe=68CF983D', 'profileId': '100044193193595', 'profileName': 'Esther Mariano Donado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=4285999004951708', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzQyODU5OTkwMDQ5NTE3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M180Mjg1OTk5MDA0OTUxNzA4', 'date': '2025-09-13T13:32:37.000Z', 'text': 'Y', 'profileUrl': 'https://www.facebook.com/esteisy.yissed', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/475673129_2415008895507881_6371712224887950061_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0fwAGnUCO-4Q7kNvwGyQo2M&amp;_nc_oc=AdktyTaw8v-h31aINKHU-77h3fIolHCxNxPHFOAwEZJxksOkGV5XZkA9Dz5ZiNE1uNAhUaWxFZTfZcgGCuTw8AiV&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=8WeB0V-XCwnhQ7GN87hNxw&amp;oh=00_AfYy9StXdVeUBmCqZWZDhgvPLHrHh7NjURRROx3HAq5AEg&amp;oe=68D0A2C7', 'profileId': 'pfbid02QUHFH9dgNx8pw5q29rs9y183ES1yDePUWWVrg2duRpcnewL7B5xUKuLyQS7SMgk6l', 'profileName': 'Ëstëisy Yissed', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9867,18 +9863,18 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Donde las encuentro</t>
+          <t>Como son las frases?</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>45900.60384259259</v>
+        <v>45900.60375</v>
       </c>
       <c r="H180" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>14:29:32</t>
+          <t>14:29:24</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9895,7 +9891,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=758198823591260', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzc1ODE5ODgyMzU5MTI2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183NTgxOTg4MjM1OTEyNjA=', 'date': '2025-08-31T14:29:32.000Z', 'text': 'Donde las encuentro', 'profileUrl': 'https://www.facebook.com/lesvia.mariano.3', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/525560263_1326043802212047_4731061571387816022_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XxR_059QN10Q7kNvwFzgUSn&amp;_nc_oc=AdmEEghGBAnFwtGrDFCPYF-f51Y751dbV7dcDy86N29ToAp2efFEV3dcb5Vhw96ercE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=wFarwMp2Tr-FBwsa9zr3iQ&amp;oh=00_AfaBc-JXn2-aOHKWqwFpPDQR1ucyStF5_t6c4dZ_RR72ag&amp;oe=68CF983D', 'profileId': '100044193193595', 'profileName': 'Esther Mariano Donado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1304837871301074', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMDQ4Mzc4NzEzMDEwNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzA0ODM3ODcxMzAxMDc0', 'date': '2025-08-31T14:29:24.000Z', 'text': 'Como son las frases?', 'profileUrl': 'https://www.facebook.com/lesvia.mariano.3', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/525560263_1326043802212047_4731061571387816022_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XxR_059QN10Q7kNvwGGE5KW&amp;_nc_oc=Admal2VfjaTG0hiw4j_AfzZNaCdt5NWXF0n1f3-0r8HMjVMgk8-9_HD-TgQ9wi24YwhTVlffi3cABpav9FtoEYA6&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=8WeB0V-XCwnhQ7GN87hNxw&amp;oh=00_AfZr1KD2H91nAs027SNiNgmDHHhGs4PCSJyAlGw7BYjYxA&amp;oe=68D0793D', 'profileId': '100044193193595', 'profileName': 'Esther Mariano Donado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9921,18 +9917,18 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>🤦🏻‍♀️🤷🏻‍♀️</t>
+          <t>Donde las encuentro</t>
         </is>
       </c>
       <c r="G181" s="2" t="n">
-        <v>45902.83291666667</v>
+        <v>45900.60384259259</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>45902</v>
+        <v>45900</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>19:59:24</t>
+          <t>14:29:32</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9949,7 +9945,7 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1302438678195544', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMDI0Mzg2NzgxOTU1NDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzAyNDM4Njc4MTk1NTQ0', 'date': '2025-09-02T19:59:24.000Z', 'text': '🤦🏻\u200d♀️🤷🏻\u200d♀️', 'profileUrl': 'https://www.facebook.com/yulypaola.hoyosvaron', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/438830629_1497095684555425_5662243041614435254_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MMmlAuw9KBUQ7kNvwFHwBUI&amp;_nc_oc=Adk_FGCgRXit9y8p5z_yco6NncHyOnG9Ej_QztHpvHH4VzWKDy9uPcGcYreh9EwkXaw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=wFarwMp2Tr-FBwsa9zr3iQ&amp;oh=00_AfZybaqYPUNcapju0wHDUKnndVHqgmfLcHvHQk3ZuERnAA&amp;oe=68CF86F1', 'profileId': '100027650224938', 'profileName': 'Yuly Paola Hoyos Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=758198823591260', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzc1ODE5ODgyMzU5MTI2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183NTgxOTg4MjM1OTEyNjA=', 'date': '2025-08-31T14:29:32.000Z', 'text': 'Donde las encuentro', 'profileUrl': 'https://www.facebook.com/lesvia.mariano.3', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/525560263_1326043802212047_4731061571387816022_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XxR_059QN10Q7kNvwFF6JJl&amp;_nc_oc=AdkEWrRxat5jOyUERfQHB7ZEJqGIoavLl6VipCcn17aW93D2VTVc3u3pZyhqwZNmp10OZxVhSY_kMznW9cM4iYre&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=GDakH39bLBmw42DNRag_Lg&amp;oh=00_AfZo8t1JO1ylCZtkFHbgMn0P6ZCx_QC1_4N-dW0nq6rRkg&amp;oe=68D0793D', 'profileId': '100044193193595', 'profileName': 'Esther Mariano Donado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9975,18 +9971,18 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Si no me dan unas entradas a perros criollos no quiero bon yurt</t>
+          <t>🤦🏻‍♀️🤷🏻‍♀️</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
-        <v>45915.13508101852</v>
+        <v>45902.83291666667</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>03:14:31</t>
+          <t>19:59:24</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10003,7 +9999,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=4321453451456458', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzQzMjE0NTM0NTE0NTY0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M180MzIxNDUzNDUxNDU2NDU4', 'date': '2025-09-15T03:14:31.000Z', 'text': 'Si no me dan unas entradas a perros criollos no quiero bon yurt', 'profileUrl': 'https://www.facebook.com/Guillermoantonio.cardoso12', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/467334036_3103052006713361_7019559155726780211_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XCUBs6qFWpkQ7kNvwGOMnee&amp;_nc_oc=AdlG_nN6E2cJfA_LeBpRGv6HWRjFX1qjxJ2wN2mgIfFwLHFQu6x7j2T5b-6uSoUhdtk&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=wFarwMp2Tr-FBwsa9zr3iQ&amp;oh=00_AfYd9TUcRVjcHEeb_CY8tyfs6Li0ZpTsyHJjx5Ff2TfJVQ&amp;oe=68CF7A2F', 'profileId': '100010257763479', 'profileName': 'Antonio Cardoso', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1302438678195544', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMDI0Mzg2NzgxOTU1NDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzAyNDM4Njc4MTk1NTQ0', 'date': '2025-09-02T19:59:24.000Z', 'text': '🤦🏻\u200d♀️🤷🏻\u200d♀️', 'profileUrl': 'https://www.facebook.com/yulypaola.hoyosvaron', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/438830629_1497095684555425_5662243041614435254_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OOPyEyrzwBwQ7kNvwGSrlcu&amp;_nc_oc=Adm9r6e7IAgzfHagkgPQTSrZlDtxtamIC3LB1HB73WjUAuY8E0IuSvlIiB8EZ9bAW3OVwKy6nn2SHQaq5Bg4YB6U&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=GDakH39bLBmw42DNRag_Lg&amp;oh=00_AfYDpv_qz8n9YCHoO17g1EU_T5Wanp9sH6_huzC4_2nZEA&amp;oe=68D0A031', 'profileId': '100027650224938', 'profileName': 'Yuly Paola Hoyos Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10028,6 +10024,60 @@
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
+        <is>
+          <t>Si no me dan unas entradas a perros criollos no quiero bon yurt</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="n">
+        <v>45915.13508101852</v>
+      </c>
+      <c r="H183" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>03:14:31</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="b">
+        <v>0</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=4321453451456458', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzQzMjE0NTM0NTE0NTY0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M180MzIxNDUzNDUxNDU2NDU4', 'date': '2025-09-15T03:14:31.000Z', 'text': 'Si no me dan unas entradas a perros criollos no quiero bon yurt', 'profileUrl': 'https://www.facebook.com/Guillermoantonio.cardoso12', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/467334036_3103052006713361_7019559155726780211_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XCUBs6qFWpkQ7kNvwHnd_Vy&amp;_nc_oc=Adk8lzZI-gY4IFnicmwpA06BA7KVE73l91uwxIPVkiI9KM6hgyU88GcMZWm9hbt2GUhyCjXqzm5xeQGf5JBVKkUI&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=GDakH39bLBmw42DNRag_Lg&amp;oh=00_AfaHznqpBzARj2hMvYwbhTFD4DYHLk7qskKLXEO7e0eRrg&amp;oe=68D0936F', 'profileId': '100010257763479', 'profileName': 'Antonio Cardoso', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>38</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1170398131792599/?dco_ad_token=AaoFFY4LRKJ8c2E0_-y86Ys7t1matG81R9ZcDdWDW0rs7AVv0zn97dr83esX_ibbfbXaQPwUjGp-lGL1&amp;dco_ad_id=120228919741660701</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
         <is>
           <t>. Exceso de horas extras (violación del límite legal)
 En Colombia solo se permiten 12 horas extra a la semana (Ley 50 de 1990, Art. 22).
@@ -10061,74 +10111,20 @@
 Ministerio de Salud y Protección Social</t>
         </is>
       </c>
-      <c r="G183" s="2" t="n">
+      <c r="G184" s="2" t="n">
         <v>45911.5358449074</v>
       </c>
-      <c r="H183" s="3" t="n">
+      <c r="H184" s="3" t="n">
         <v>45911</v>
       </c>
-      <c r="I183" t="inlineStr">
+      <c r="I184" t="inlineStr">
         <is>
           <t>12:51:37</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="K183" t="n">
-        <v>0</v>
-      </c>
-      <c r="L183" t="b">
-        <v>0</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1319711546514916', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMTk3MTE1NDY1MTQ5MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzE5NzExNTQ2NTE0OTE2', 'date': '2025-09-11T12:51:37.000Z', 'text': '. Exceso de horas extras (violación del límite legal)\n\nEn Colombia solo se permiten 12 horas extra a la semana (Ley 50 de 1990, Art. 22).\n\nEso equivale a máximo 48 horas extra al mes.\n\nTú hiciste 60 horas extras, por lo que hubo un exceso de al menos 12 horas ilegales.\n\n2. No te dieron descanso semanal obligatorio\n\nSegún el Código Sustantivo del Trabajo (Art. 172 y 173), tienes derecho a 1 día de descanso remunerado por cada 6 días de trabajo.\n\nSi trabajaste todos los días sin descanso (lunes a domingo) durante 4 semanas, eso es ilegal y genera:\n\nPago doble del día de descanso no concedido, o\n\nDescanso compensatorio remunerado.\n\nAlpina  viola la ley \nSituación Derecho que se genera\n\nTrabajaste más de 12 h extra/sem Pago de horas extra con recargo (25%-75%)\nTrabajaste día de descanso Pago con recargo dominical (75%) o doble\nNo tuviste descanso semanal Descanso compensatorio o pago equivalente\nMás de 60 horas extra en 1 mes Reclamo por jornada ilegal / abuso laboral\n\nReuniremos las \nHorarios firmados, planillas, turnos, correos, chats de trabajo, etc.\n\nCualquier soporte que demuestre las 60 horas extras y la ausencia de descansos.\n\nSi el empleador no paga lo debido, puedes presentar una demanda laboral por incumplimiento y exigir el pago retroactivo, recargos y compensaciones.\n\nPuedes hacerlo con abogado o con asesoría gratuita del Ministerio.\n📌 IMPORTANTE:\n\nNo te pueden despedir por reclamar tus derechos laborales.\nSi lo hacen, es un despido sin justa causa y te correspondería una indemnización.\nSerán expuestos los jefes directos de cedi Fontibón con nombres propios pa que les dé vergüenza y dejen el acoso laboral la explotación así sus empleados temporales \nTemporal Adecco Colombia \nPermite la violación de la ley \nY no regula \nPedimos como trabajadores activos la presencia del Ministerio del Trabajo Colombia \nCra 7 # 32 63 Ministerio De Trabajo Bogota \nMinisterio de Salud y Protección Social', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/468804200_10161191011938495_9167221412661860919_n.jpg?stp=c96.0.288.288a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8Z-ruFnLMTYQ7kNvwEZGMp1&amp;_nc_oc=AdmdpUf-nt7Q3ocH2RA77fwhYopKM94ufX2aPgsNZMn0FgHGOdjqw3sZ1oSLkLDK0cY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=wFarwMp2Tr-FBwsa9zr3iQ&amp;oh=00_AfbX6TIWfFGfNPUUfOS1gNXjzJtGbMqc2zS36ITD_Z1Mlg&amp;oe=68CF6F29', 'profileId': 'pfbid02VEN292KjcsPvz2Jud5Fhsf6y6Nt14MWrUEmTqr5Bz6R7tWrd2tsqgoKL6CFhAWhul', 'profileName': 'Sample Samyaza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>38</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1170398131792599/?dco_ad_token=AaoFFY4LRKJ8c2E0_-y86Ys7t1matG81R9ZcDdWDW0rs7AVv0zn97dr83esX_ibbfbXaQPwUjGp-lGL1&amp;dco_ad_id=120228919741660701</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>No deja tomar la foto.  Que triste.</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="n">
-        <v>45899.70965277778</v>
-      </c>
-      <c r="H184" s="3" t="n">
-        <v>45899</v>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>17:01:54</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="K184" t="n">
@@ -10140,7 +10136,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2262618314169777', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIyNjI2MTgzMTQxNjk3Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMjYyNjE4MzE0MTY5Nzc3', 'date': '2025-08-30T17:01:54.000Z', 'text': 'No deja tomar la foto.  Que triste.', 'profileUrl': 'https://www.facebook.com/hillaryandrea.figueroa.3', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwGCDmo6&amp;_nc_oc=Adl6ioeHrMXegc3_bVE3jbRH3iZJ4gQNNJKrEn_ARk7K0bEdWQkZJOrRIn3ABlJbB4k&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfaAp13MbOnzC7kXx1SSDzm-frEWZFE5Z7LwmesOQBAqVw&amp;oe=68F1233A', 'profileId': 'pfbid025n9kk2jrcfpV419i5oCpjqLCDkYAcpxBKpK28HgMpvH7JR2Gz7ZEWztdDrfpBHyEl', 'profileName': 'Handrea Figueroa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1319711546514916', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMTk3MTE1NDY1MTQ5MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzE5NzExNTQ2NTE0OTE2', 'date': '2025-09-11T12:51:37.000Z', 'text': '. Exceso de horas extras (violación del límite legal)\n\nEn Colombia solo se permiten 12 horas extra a la semana (Ley 50 de 1990, Art. 22).\n\nEso equivale a máximo 48 horas extra al mes.\n\nTú hiciste 60 horas extras, por lo que hubo un exceso de al menos 12 horas ilegales.\n\n2. No te dieron descanso semanal obligatorio\n\nSegún el Código Sustantivo del Trabajo (Art. 172 y 173), tienes derecho a 1 día de descanso remunerado por cada 6 días de trabajo.\n\nSi trabajaste todos los días sin descanso (lunes a domingo) durante 4 semanas, eso es ilegal y genera:\n\nPago doble del día de descanso no concedido, o\n\nDescanso compensatorio remunerado.\n\nAlpina  viola la ley \nSituación Derecho que se genera\n\nTrabajaste más de 12 h extra/sem Pago de horas extra con recargo (25%-75%)\nTrabajaste día de descanso Pago con recargo dominical (75%) o doble\nNo tuviste descanso semanal Descanso compensatorio o pago equivalente\nMás de 60 horas extra en 1 mes Reclamo por jornada ilegal / abuso laboral\n\nReuniremos las \nHorarios firmados, planillas, turnos, correos, chats de trabajo, etc.\n\nCualquier soporte que demuestre las 60 horas extras y la ausencia de descansos.\n\nSi el empleador no paga lo debido, puedes presentar una demanda laboral por incumplimiento y exigir el pago retroactivo, recargos y compensaciones.\n\nPuedes hacerlo con abogado o con asesoría gratuita del Ministerio.\n📌 IMPORTANTE:\n\nNo te pueden despedir por reclamar tus derechos laborales.\nSi lo hacen, es un despido sin justa causa y te correspondería una indemnización.\nSerán expuestos los jefes directos de cedi Fontibón con nombres propios pa que les dé vergüenza y dejen el acoso laboral la explotación así sus empleados temporales \nTemporal Adecco Colombia \nPermite la violación de la ley \nY no regula \nPedimos como trabajadores activos la presencia del Ministerio del Trabajo Colombia \nCra 7 # 32 63 Ministerio De Trabajo Bogota \nMinisterio de Salud y Protección Social', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/468804200_10161191011938495_9167221412661860919_n.jpg?stp=c96.0.288.288a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8Z-ruFnLMTYQ7kNvwFOGAbx&amp;_nc_oc=AdlL3NWY36oAXH3QCk7uvWXq60G8KRex0Aux3AzZBfhWDtwCKgrxrND9Pa3Sm-eg20WcYzRemmuNqiS9xxyt1grq&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=GDakH39bLBmw42DNRag_Lg&amp;oh=00_AfbPlHPOn_EFJsUYXgAUzKOZprn41XGN8i0XR7W15QYfJg&amp;oe=68D08869', 'profileId': 'pfbid0RCmJfD8Ax1J9JXf4NC5nydphVH8zfFmgcuj3R7m7k1UaurnQfjswuhHicoeciiJ7l', 'profileName': 'Sample Samyaza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10166,18 +10162,18 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Pura estafa</t>
+          <t>No deja tomar la foto.  Que triste.</t>
         </is>
       </c>
       <c r="G185" s="2" t="n">
-        <v>45902.83282407407</v>
+        <v>45899.70965277778</v>
       </c>
       <c r="H185" s="3" t="n">
-        <v>45902</v>
+        <v>45899</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>19:59:16</t>
+          <t>17:01:54</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10194,7 +10190,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1148345793813477', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExNDgzNDU3OTM4MTM0Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTQ4MzQ1NzkzODEzNDc3', 'date': '2025-09-02T19:59:16.000Z', 'text': 'Pura estafa', 'profileUrl': 'https://www.facebook.com/yulypaola.hoyosvaron', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/438830629_1497095684555425_5662243041614435254_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MMmlAuw9KBUQ7kNvwFHwBUI&amp;_nc_oc=Adk_FGCgRXit9y8p5z_yco6NncHyOnG9Ej_QztHpvHH4VzWKDy9uPcGcYreh9EwkXaw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=wFarwMp2Tr-FBwsa9zr3iQ&amp;oh=00_AfZybaqYPUNcapju0wHDUKnndVHqgmfLcHvHQk3ZuERnAA&amp;oe=68CF86F1', 'profileId': '100027650224938', 'profileName': 'Yuly Paola Hoyos Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2262618314169777', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIyNjI2MTgzMTQxNjk3Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMjYyNjE4MzE0MTY5Nzc3', 'date': '2025-08-30T17:01:54.000Z', 'text': 'No deja tomar la foto.  Que triste.', 'profileUrl': 'https://www.facebook.com/hillaryandrea.figueroa.3', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Sh0h5MnzbMAQ7kNvwFnKj41&amp;_nc_oc=Adl5djANWD5WaDigu9F2xwRRJ6EocZyYcxu8_2P1jw9VdaVqtI3Col5WQSkMlNRgvBAtjPEn95GEbT8qF7uuPYAr&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;oh=00_AfZpcWz8_rOvg94_rwVTdy-G6R66Lc7l1ux8xigzNJ_7WA&amp;oe=68F23C7A', 'profileId': 'pfbid02EWZps7VmTjBua5MLs1b2neAmSU3XREAR98tRzcvLXa1GYtb1odEmZNKNPke7KWcl', 'profileName': 'Handrea Figueroa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10220,18 +10216,18 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Que vale el bonyur?? Tienda quien sabe</t>
+          <t>Pura estafa</t>
         </is>
       </c>
       <c r="G186" s="2" t="n">
-        <v>45913.15961805556</v>
+        <v>45902.83282407407</v>
       </c>
       <c r="H186" s="3" t="n">
-        <v>45913</v>
+        <v>45902</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>03:49:51</t>
+          <t>19:59:16</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10248,7 +10244,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=25034995509419998', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzI1MDM0OTk1NTA5NDE5OTk4', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yNTAzNDk5NTUwOTQxOTk5OA==', 'date': '2025-09-13T03:49:51.000Z', 'text': 'Que vale el bonyur?? Tienda quien sabe', 'profileUrl': 'https://www.facebook.com/valentiina2i', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/432045497_409380475157198_1612605420938331753_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aRZmdhM2ctAQ7kNvwGw9iCW&amp;_nc_oc=Adke2Co9AyM7Kd0YXzVZkmBuOMHyY2wvE-a91Dj4zJSTHKHl1yBLvMtdgFq1z_ni9iE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=wFarwMp2Tr-FBwsa9zr3iQ&amp;oh=00_AfbJpb3dWEwzKx4OIavExANET5hsvh9e0O0zGi__89sKeA&amp;oe=68CF7FB2', 'profileId': '100082557461426', 'profileName': 'Valentina Alegriia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1148345793813477', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExNDgzNDU3OTM4MTM0Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTQ4MzQ1NzkzODEzNDc3', 'date': '2025-09-02T19:59:16.000Z', 'text': 'Pura estafa', 'profileUrl': 'https://www.facebook.com/yulypaola.hoyosvaron', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/438830629_1497095684555425_5662243041614435254_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OOPyEyrzwBwQ7kNvwGSrlcu&amp;_nc_oc=Adm9r6e7IAgzfHagkgPQTSrZlDtxtamIC3LB1HB73WjUAuY8E0IuSvlIiB8EZ9bAW3OVwKy6nn2SHQaq5Bg4YB6U&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=GDakH39bLBmw42DNRag_Lg&amp;oh=00_AfYDpv_qz8n9YCHoO17g1EU_T5Wanp9sH6_huzC4_2nZEA&amp;oe=68D0A031', 'profileId': '100027650224938', 'profileName': 'Yuly Paola Hoyos Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10274,18 +10270,18 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Escogieron al mejor para su comercial. Grande Lokifanaticos Lokillo F Perros criollos humor</t>
+          <t>Que productos tan caros mano estas. Empresas como engañan ala poblasion</t>
         </is>
       </c>
       <c r="G187" s="2" t="n">
-        <v>45883.87269675926</v>
+        <v>45916.9091550926</v>
       </c>
       <c r="H187" s="3" t="n">
-        <v>45883</v>
+        <v>45916</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>20:56:41</t>
+          <t>21:49:11</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10302,7 +10298,7 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=724596703906535', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzcyNDU5NjcwMzkwNjUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183MjQ1OTY3MDM5MDY1MzU=', 'date': '2025-08-14T20:56:41.000Z', 'text': 'Escogieron al mejor para su comercial. Grande Lokifanaticos Lokillo F Perros criollos humor', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/471169897_10227330684076487_5338927364017503117_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=i9eOsUQwxUUQ7kNvwHMQ2cX&amp;_nc_oc=AdnkS6fbOeb9wrFDaeRtUEkPLF7UbxT_amh9oW3a42_7Ln_lUIWpFxeIR_05kPhWvhI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=wFarwMp2Tr-FBwsa9zr3iQ&amp;oh=00_AfYrlDKOzkWAB-aUXHtqrCTSxEB5vzCOJtSaGq-ioTLJeg&amp;oe=68CF6FF8', 'profileId': '1342212316', 'profileName': 'Renato León', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1480252106344986', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE0ODAyNTIxMDYzNDQ5ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNDgwMjUyMTA2MzQ0OTg2', 'date': '2025-09-16T21:49:11.000Z', 'text': 'Que productos tan caros mano estas. Empresas como engañan ala poblasion', 'profileUrl': 'https://www.facebook.com/yinson.betancourt.56', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/492402376_1226424815761370_2825994292987965249_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=cTpnlCCrC8sQ7kNvwHn1uoJ&amp;_nc_oc=AdkNPVxGjHGAl8yPbjD4250JqL6zfzOj0C5aX1n3fYcIiu80Ou0o_X99d5pf3h2gQavOsFy7fg6UePVrbmY1jsCK&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=GDakH39bLBmw42DNRag_Lg&amp;oh=00_AfYtdT3BzEYY4akota1CDfjK18rm7wUR3RAXb8E5UpkoUQ&amp;oe=68D07A2E', 'profileId': '100051815882245', 'profileName': 'Yonsi Gamer', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10328,23 +10324,23 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Pura mentira, es para q consuman mas productos alpina ya q han bajado mucho la calidad y la gente ha dejado d tomarlos comerlos, lo digo por experiencia propia .</t>
+          <t>Que vale el bonyur?? Tienda quien sabe</t>
         </is>
       </c>
       <c r="G188" s="2" t="n">
-        <v>45912.68239583333</v>
+        <v>45913.15961805556</v>
       </c>
       <c r="H188" s="3" t="n">
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>16:22:39</t>
+          <t>03:49:51</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K188" t="n">
@@ -10356,7 +10352,7 @@
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1738780296998401', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE3Mzg3ODAyOTY5OTg0MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNzM4NzgwMjk2OTk4NDAx', 'date': '2025-09-12T16:22:39.000Z', 'text': 'Pura mentira, es para q consuman mas productos alpina ya q han bajado mucho la calidad y la gente ha dejado d tomarlos comerlos, lo digo por experiencia propia .', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/431823540_10163331879484097_7233140630272241717_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=247EgZIq2x8Q7kNvwEn6mLr&amp;_nc_oc=AdkU0fR2atoU5vPOXt9iOXyCs7OcOFBXIjINfVHil4a8fuEIeYFNoClwmOcD1PTip1s&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=wFarwMp2Tr-FBwsa9zr3iQ&amp;oh=00_AfatLSM2JqeALWdbQhXkMdwcv9ZzIR08T1GNr1UhAWD8jQ&amp;oe=68CF6FC5', 'profileId': '591499096', 'profileName': 'Ustaris Cindy', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=25034995509419998', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzI1MDM0OTk1NTA5NDE5OTk4', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yNTAzNDk5NTUwOTQxOTk5OA==', 'date': '2025-09-13T03:49:51.000Z', 'text': 'Que vale el bonyur?? Tienda quien sabe', 'profileUrl': 'https://www.facebook.com/valentiina2i', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/432045497_409380475157198_1612605420938331753_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aRZmdhM2ctAQ7kNvwEbQzsK&amp;_nc_oc=AdkKSm_L9_wRacd767TZff3jLQUdQ4Gs19SpN0kXWEi8ybAHTfzZ8Rsh_7dX9H6Y4wnhYtKj-eghQZYsmnI5GGMn&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=GDakH39bLBmw42DNRag_Lg&amp;oh=00_Afar85hM-X3u2AgFLOL2ucVeqGi2FsfQyRzOwZHE-w-tWQ&amp;oe=68D098F2', 'profileId': '100082557461426', 'profileName': 'Valentina Alegriia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10382,18 +10378,18 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Se tiraron ese producto. contratando. Para la publicidad  a este bobo hpta que se cree muy gracioso. Burlándose del defecto. fisico de las personas. Así  se debe burlar de los que consumen dichos. productos. prefiero tomar agua. que comprar un producto recomendado por este hijo de mala madre. y le mando un madrazo para cada vez que se burle de los defectos de las personas. Sobre todo los que presentan.  Labio leporino.</t>
+          <t>Escogieron al mejor para su comercial. Grande Lokifanaticos Lokillo F Perros criollos humor</t>
         </is>
       </c>
       <c r="G189" s="2" t="n">
-        <v>45911.08383101852</v>
+        <v>45883.87269675926</v>
       </c>
       <c r="H189" s="3" t="n">
-        <v>45911</v>
+        <v>45883</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>02:00:43</t>
+          <t>20:56:41</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10410,7 +10406,7 @@
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1865717550724154', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE4NjU3MTc1NTA3MjQxNTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xODY1NzE3NTUwNzI0MTU0', 'date': '2025-09-11T02:00:43.000Z', 'text': 'Se tiraron ese producto. contratando. Para la publicidad  a este bobo hpta que se cree muy gracioso. Burlándose del defecto. fisico de las personas. Así  se debe burlar de los que consumen dichos. productos. prefiero tomar agua. que comprar un producto recomendado por este hijo de mala madre. y le mando un madrazo para cada vez que se burle de los defectos de las personas. Sobre todo los que presentan.  Labio leporino.', 'profileUrl': 'https://www.facebook.com/orlando.martinezpinzon', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/471583647_8957673610982590_7959540666962251375_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=9fbJ16SkWXAQ7kNvwGkw34V&amp;_nc_oc=AdnC1j4fSZtolWlrvFPWQHiwKAppnNubGkrxYWaancNDWGFqtBZnRB0etEKHCIlJ8zA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=wFarwMp2Tr-FBwsa9zr3iQ&amp;oh=00_AfY7sgL7je636ro8W6i8HdrEbJTE-iDLEhiGlmeemW1AYw&amp;oe=68CF7E44', 'profileId': '100002201208765', 'profileName': 'Orlando Martinez Pinzon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=724596703906535', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzcyNDU5NjcwMzkwNjUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183MjQ1OTY3MDM5MDY1MzU=', 'date': '2025-08-14T20:56:41.000Z', 'text': 'Escogieron al mejor para su comercial. Grande Lokifanaticos Lokillo F Perros criollos humor', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/471169897_10227330684076487_5338927364017503117_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=cGbeoDXDjZ8Q7kNvwFO8VKM&amp;_nc_oc=Adnu_8XpZhjPu6FL_RgVlRFUO7CSAsXZs0a2imhuw1uTAr5Au8OBO3OMAy89H8kqpsRZ9_uydO_OkngWr9NHl4OC&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=GDakH39bLBmw42DNRag_Lg&amp;oh=00_AfacJP6qeqBgPax9uIDrtvtCuYZUGSceQSVcEFTgu8WRjg&amp;oe=68D08938', 'profileId': '1342212316', 'profileName': 'Renato León', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10435,6 +10431,168 @@
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
+        <is>
+          <t>Pura mentira, es para q consuman mas productos alpina ya q han bajado mucho la calidad y la gente ha dejado d tomarlos comerlos, lo digo por experiencia propia .</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>45912.68239583333</v>
+      </c>
+      <c r="H190" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>16:22:39</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="b">
+        <v>0</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1738780296998401', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE3Mzg3ODAyOTY5OTg0MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNzM4NzgwMjk2OTk4NDAx', 'date': '2025-09-12T16:22:39.000Z', 'text': 'Pura mentira, es para q consuman mas productos alpina ya q han bajado mucho la calidad y la gente ha dejado d tomarlos comerlos, lo digo por experiencia propia .', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/431823540_10163331879484097_7233140630272241717_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=247EgZIq2x8Q7kNvwGr1h84&amp;_nc_oc=Adlg-qvyiiCZGbs4ZISNLcQycCbuGGj2MPn3FK9jlCC3tmKt9ORmFHjxSn0eeyKtzmAaROaNUlKlMzQgrgLtFwxQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=GDakH39bLBmw42DNRag_Lg&amp;oh=00_AfbgG-yCqlLEgVQ2AB-KvgS-QRgwqFI6U8MOowXaMMa2Ew&amp;oe=68D08905', 'profileId': '591499096', 'profileName': 'Ustaris Cindy', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>38</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1170398131792599/?dco_ad_token=AaoFFY4LRKJ8c2E0_-y86Ys7t1matG81R9ZcDdWDW0rs7AVv0zn97dr83esX_ibbfbXaQPwUjGp-lGL1&amp;dco_ad_id=120228919741660701</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Se tiraron ese producto. contratando. Para la publicidad  a este bobo hpta que se cree muy gracioso. Burlándose del defecto. fisico de las personas. Así  se debe burlar de los que consumen dichos. productos. prefiero tomar agua. que comprar un producto recomendado por este hijo de mala madre. y le mando un madrazo para cada vez que se burle de los defectos de las personas. Sobre todo los que presentan.  Labio leporino.</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>45911.08383101852</v>
+      </c>
+      <c r="H191" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>02:00:43</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="b">
+        <v>0</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1865717550724154', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE4NjU3MTc1NTA3MjQxNTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xODY1NzE3NTUwNzI0MTU0', 'date': '2025-09-11T02:00:43.000Z', 'text': 'Se tiraron ese producto. contratando. Para la publicidad  a este bobo hpta que se cree muy gracioso. Burlándose del defecto. fisico de las personas. Así  se debe burlar de los que consumen dichos. productos. prefiero tomar agua. que comprar un producto recomendado por este hijo de mala madre. y le mando un madrazo para cada vez que se burle de los defectos de las personas. Sobre todo los que presentan.  Labio leporino.', 'profileUrl': 'https://www.facebook.com/orlando.martinezpinzon', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/471583647_8957673610982590_7959540666962251375_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=S6xolNEe9IIQ7kNvwHaM-dU&amp;_nc_oc=AdnH_d5aadVcFzbLtFwYh-6vwbNiicoYwshNOQqpPeL2z-luHqI6pdCR2hDoyioo7Gw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nncItuvzFyPgPj5CWMUXIw&amp;oh=00_AfZRlkvYi6LP0NPImYojo3DVnaL82nNskYla0A9ZhE8U7Q&amp;oe=68D09784', 'profileId': '100002201208765', 'profileName': 'Orlando Martinez Pinzon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>38</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1170398131792599/?dco_ad_token=AaoFFY4LRKJ8c2E0_-y86Ys7t1matG81R9ZcDdWDW0rs7AVv0zn97dr83esX_ibbfbXaQPwUjGp-lGL1&amp;dco_ad_id=120228919741660701</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Eso es solo para que compren 🤦🏼‍♀️ y la gente cae como pendeja  🤦🏼‍♀️</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>45909.05333333334</v>
+      </c>
+      <c r="H192" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>01:16:48</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="b">
+        <v>0</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1162156705793834', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExNjIxNTY3MDU3OTM4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTYyMTU2NzA1NzkzODM0', 'date': '2025-09-09T01:16:48.000Z', 'text': 'Eso es solo para que compren 🤦🏼\u200d♀️ y la gente cae como pendeja  🤦🏼\u200d♀️', 'profileUrl': 'https://www.facebook.com/milu.car.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/521948708_1205510488012858_5959259398121625391_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=GcO2SxnLeo0Q7kNvwEKisYe&amp;_nc_oc=AdlGSgU6veJqdugVSwo6efGYnkBlxJ8Hv4Rdv9lW4GLAyz93eyN3zJEV0lSdduIl8yg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=nncItuvzFyPgPj5CWMUXIw&amp;oh=00_AfZ0Mt88qzQjB4eX_TFwBwl1DrFZ5BaZvsUhIy2L1YSUtw&amp;oe=68D0A8F7', 'profileId': '100056617550903', 'profileName': 'Milú Car', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>38</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1170398131792599/?dco_ad_token=AaoFFY4LRKJ8c2E0_-y86Ys7t1matG81R9ZcDdWDW0rs7AVv0zn97dr83esX_ibbfbXaQPwUjGp-lGL1&amp;dco_ad_id=120228919741660701</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
         <is>
           <t>Yo lo mismo un monton pero solo sle gana 
 Y de vez en cuando bono
@@ -10442,182 +10600,20 @@
 Es una perdida . Ea mentira</t>
         </is>
       </c>
-      <c r="G190" s="2" t="n">
+      <c r="G193" s="2" t="n">
         <v>45912.62788194444</v>
       </c>
-      <c r="H190" s="3" t="n">
+      <c r="H193" s="3" t="n">
         <v>45912</v>
       </c>
-      <c r="I190" t="inlineStr">
+      <c r="I193" t="inlineStr">
         <is>
           <t>15:04:09</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K190" t="n">
-        <v>0</v>
-      </c>
-      <c r="L190" t="b">
-        <v>0</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=788590320222935', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzc4ODU5MDMyMDIyMjkzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183ODg1OTAzMjAyMjI5MzU=', 'date': '2025-09-12T15:04:09.000Z', 'text': 'Yo lo mismo un monton pero solo sle gana \nY de vez en cuando bono\nPero ninca sale la otra \nEs una perdida . Ea mentira', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/546378274_122139003284817828_5962940374141215323_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cAeCmMM86J0Q7kNvwE5kA6t&amp;_nc_oc=AdmezQtxJ8ld-dNYK85Uad6WJuFkPynkJqDK_7gIKSGZD9PDQPtL_NZ4rgUGJXmpSUg&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=uOcp_lJmEKtNJ_jXCzbwMA&amp;oh=00_AfZ-XSFYev0Gm409Ativc0lWPQxtvF3MHqplgq2G5_SaVw&amp;oe=68CF6D66'}, 'id': '122139003278817828', 'cix_screen': None, 'massive_image': {'width': 540, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/546378274_122139003284817828_5962940374141215323_n.jpg?stp=dst-jpg_p118x90_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cAeCmMM86J0Q7kNvwE5kA6t&amp;_nc_oc=AdmezQtxJ8ld-dNYK85Uad6WJuFkPynkJqDK_7gIKSGZD9PDQPtL_NZ4rgUGJXmpSUg&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=uOcp_lJmEKtNJ_jXCzbwMA&amp;oh=00_AfZM7z0UMpnjgSUFm_15-wuWVm_uDkCwNLBA9g41feX99A&amp;oe=68CF6D66', 'width': 118, 'height': 210}, 'ocrText': 'May be an image of hat and text'}], 'profileUrl': 'https://www.facebook.com/people/Jair-Steven-Aguilar-Parra/pfbid0mdusRKsKmsvybGqThuQPoSP2ar5oA4UCqLbW4th5eJSQAZh8bq4YgtQtZgT5k3ZDl/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/484902614_122093909294817828_3569101749663849690_n.jpg?stp=c0.26.335.335a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BmiZB9uFltIQ7kNvwG6_IlN&amp;_nc_oc=Adn_lKsOyflCxwKttvTWi0SFxX8zEBtjwcMFN42GkIfc5kBT9Lbjf1DpUU33ObpKHa0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=uOcp_lJmEKtNJ_jXCzbwMA&amp;oh=00_AfYnnNQITEdEM3MSh60SzIaoSg4BKMBURlqHQfqsV899Ag&amp;oe=68CF8DEC', 'profileId': 'pfbid0mdusRKsKmsvybGqThuQPoSP2ar5oA4UCqLbW4th5eJSQAZh8bq4YgtQtZgT5k3ZDl', 'profileName': 'Jair Steven Aguilar Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>38</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1170398131792599/?dco_ad_token=AaoFFY4LRKJ8c2E0_-y86Ys7t1matG81R9ZcDdWDW0rs7AVv0zn97dr83esX_ibbfbXaQPwUjGp-lGL1&amp;dco_ad_id=120228919741660701</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Eso es solo para que compren 🤦🏼‍♀️ y la gente cae como pendeja  🤦🏼‍♀️</t>
-        </is>
-      </c>
-      <c r="G191" s="2" t="n">
-        <v>45909.05333333334</v>
-      </c>
-      <c r="H191" s="3" t="n">
-        <v>45909</v>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>01:16:48</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K191" t="n">
-        <v>0</v>
-      </c>
-      <c r="L191" t="b">
-        <v>0</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1162156705793834', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExNjIxNTY3MDU3OTM4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTYyMTU2NzA1NzkzODM0', 'date': '2025-09-09T01:16:48.000Z', 'text': 'Eso es solo para que compren 🤦🏼\u200d♀️ y la gente cae como pendeja  🤦🏼\u200d♀️', 'profileUrl': 'https://www.facebook.com/milu.car.2025', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/521948708_1205510488012858_5959259398121625391_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=rj93g9oO3K0Q7kNvwG7Ok8z&amp;_nc_oc=AdlJcyV9NJqLZdi6aEO3EJUtHLz3uiQ2g1z2omvQT8EY1lS-MZxZUTP0o8PlP1BVTtQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=uOcp_lJmEKtNJ_jXCzbwMA&amp;oh=00_AfaZizgYIgIkXZGiiVWdg4wh7hRMZ_BDVVxGzIgOru7K_A&amp;oe=68CF8FB7', 'profileId': '100056617550903', 'profileName': 'Milú Car', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>38</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1170398131792599/?dco_ad_token=AaoFFY4LRKJ8c2E0_-y86Ys7t1matG81R9ZcDdWDW0rs7AVv0zn97dr83esX_ibbfbXaQPwUjGp-lGL1&amp;dco_ad_id=120228919741660701</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Los ojos se separan por el non yurt o el actor ya vino así?</t>
-        </is>
-      </c>
-      <c r="G192" s="2" t="n">
-        <v>45893.80239583334</v>
-      </c>
-      <c r="H192" s="3" t="n">
-        <v>45893</v>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>19:15:27</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K192" t="n">
-        <v>0</v>
-      </c>
-      <c r="L192" t="b">
-        <v>0</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2194857641013662', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIxOTQ4NTc2NDEwMTM2NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMTk0ODU3NjQxMDEzNjYy', 'date': '2025-08-24T19:15:27.000Z', 'text': 'Los ojos se separan por el non yurt o el actor ya vino así?', 'profileUrl': 'https://www.facebook.com/djjervisbritto', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/512308568_3588568117941161_4318364993899148592_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=v2wnSqZBqwEQ7kNvwGR2SBy&amp;_nc_oc=AdlHxgQfH3k8VNLLdEpg37oD4xqPRy5WcQc_uMw06N0urHZLuUz-AnqcRiVcfj0Dz30&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=uOcp_lJmEKtNJ_jXCzbwMA&amp;oh=00_AfYpLhvgza6vaFwoSeZQiIONnTAkpjcQIGAyA6R-ONfdnw&amp;oe=68CF77A1', 'profileId': 'pfbid03AndeMaPKq9VaGT1oCA51M5zBsncau1NrES2xSuAY4VZsHx8hgutMmZJEUbLCq47l', 'profileName': 'Ricardo Brito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>39</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1176249481207464/?dco_ad_token=AarfXe-MPJ8xuo5SKEHsPv1dLTr0FTVgo1QF6cvmEqSD--YxzTz3UKtNDr1zbjeRjTJe_YzxUgeblfMk&amp;dco_ad_id=120233151708140295</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Amén amén</t>
-        </is>
-      </c>
-      <c r="G193" s="2" t="n">
-        <v>45903.66962962963</v>
-      </c>
-      <c r="H193" s="3" t="n">
-        <v>45903</v>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>16:04:16</t>
-        </is>
-      </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K193" t="n">
@@ -10629,13 +10625,13 @@
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1479443956593294', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE0Nzk0NDM5NTY1OTMyOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNDc5NDQzOTU2NTkzMjk0', 'date': '2025-09-03T16:04:16.000Z', 'text': 'Amén amén', 'profileUrl': 'https://www.facebook.com/enilda.contreraabila', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/320334293_706107167751774_4352346114311114242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=47MPOB-I3zAQ7kNvwEu_JFA&amp;_nc_oc=AdljlNfhvam3alCcXfl9uXNTlIrBGNzCtUWUg4kHpq-QgmLJgyQJ486qGTjbQVy9oUTHpRNgOyliuxhmcpkheGz9&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=S-Ha0mQofwo1-XkA0CfyFQ&amp;oh=00_AfabLL6LUBb2XQrrdPCHU7-7JSY7w4UzSxh2e1LIsURdfA&amp;oe=68CF8CF5', 'profileId': 'pfbid0qwtoDzpLyPeCp6rVSbP9KCLh8rhhJRdatN1WHwXN7Gmcs3tiD94rJ2g8WFTpmzbWl', 'profileName': 'Enilda Contrera Abila', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=788590320222935', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzc4ODU5MDMyMDIyMjkzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183ODg1OTAzMjAyMjI5MzU=', 'date': '2025-09-12T15:04:09.000Z', 'text': 'Yo lo mismo un monton pero solo sle gana \nY de vez en cuando bono\nPero ninca sale la otra \nEs una perdida . Ea mentira', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/546378274_122139003284817828_5962940374141215323_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=J0MtDH6TCeEQ7kNvwFLJHlX&amp;_nc_oc=Adml8Il80UxTb2lfyk73BgQztrhwxwHtCSBBFXuU4IcjcB-aNrdUiODDuK_GP7p_QgM&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=nncItuvzFyPgPj5CWMUXIw&amp;oh=00_AfaO4OSiBW6_qwhal5A1sJTq9MWfVGwBYO_gzjiiNnrUcg&amp;oe=68D086A6'}, 'id': '122139003278817828', 'cix_screen': None, 'massive_image': {'width': 540, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/546378274_122139003284817828_5962940374141215323_n.jpg?stp=dst-jpg_p118x90_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=J0MtDH6TCeEQ7kNvwFLJHlX&amp;_nc_oc=Adml8Il80UxTb2lfyk73BgQztrhwxwHtCSBBFXuU4IcjcB-aNrdUiODDuK_GP7p_QgM&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=nncItuvzFyPgPj5CWMUXIw&amp;oh=00_Afa9WpJ2IqzgLl6lXiGXXZC2zasODezOPguMtxlM7b_fmw&amp;oe=68D086A6', 'width': 118, 'height': 210}, 'ocrText': 'May be an image of hat and text'}], 'profileUrl': 'https://www.facebook.com/people/Jair-Steven-Aguilar-Parra/pfbid0mdusRKsKmsvybGqThuQPoSP2ar5oA4UCqLbW4th5eJSQAZh8bq4YgtQtZgT5k3ZDl/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/484902614_122093909294817828_3569101749663849690_n.jpg?stp=c0.26.335.335a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cbpVcRybNhoQ7kNvwFEcDro&amp;_nc_oc=AdnxGhPkUhaSENgcu--6aJ8tSRJcpgEoO-uFGJNPJ3PrDx49IPaPU6zEyNwJnVseX2M&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=nncItuvzFyPgPj5CWMUXIw&amp;oh=00_AfbY1sCV01hpTLQ7hFbiaalD-YgJGGtfQD8H0AjETfi76Q&amp;oe=68D0A72C', 'profileId': 'pfbid0mdusRKsKmsvybGqThuQPoSP2ar5oA4UCqLbW4th5eJSQAZh8bq4YgtQtZgT5k3ZDl', 'profileName': 'Jair Steven Aguilar Parra', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -10649,24 +10645,24 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1176249481207464/?dco_ad_token=AarfXe-MPJ8xuo5SKEHsPv1dLTr0FTVgo1QF6cvmEqSD--YxzTz3UKtNDr1zbjeRjTJe_YzxUgeblfMk&amp;dco_ad_id=120233151708140295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1170398131792599/?dco_ad_token=AaoFFY4LRKJ8c2E0_-y86Ys7t1matG81R9ZcDdWDW0rs7AVv0zn97dr83esX_ibbfbXaQPwUjGp-lGL1&amp;dco_ad_id=120228919741660701</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Yo me gane ese Bono ya me salio regalo estrella y wingo</t>
+          <t>Los ojos se separan por el non yurt o el actor ya vino así?</t>
         </is>
       </c>
       <c r="G194" s="2" t="n">
-        <v>45915.47842592592</v>
+        <v>45893.80239583334</v>
       </c>
       <c r="H194" s="3" t="n">
-        <v>45915</v>
+        <v>45893</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>11:28:56</t>
+          <t>19:15:27</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10683,7 +10679,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1878598552699217', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE4Nzg1OTg1NTI2OTkyMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xODc4NTk4NTUyNjk5MjE3', 'date': '2025-09-15T11:28:56.000Z', 'text': 'Yo me gane ese Bono ya me salio regalo estrella y wingo', 'profileUrl': 'https://www.facebook.com/martinalonso.mendezcardenas', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/503389173_9914115415336433_7580075318209485435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dXsgNczOxHIQ7kNvwFPkV0u&amp;_nc_oc=AdmTCFopTUBGD5OpLvQK2Kfv3DEgO5UHATumtPcUe9c7QA3uWU4o6DI7Go0AlAlMtE8svGjO2JPvK1DHsaq00RsV&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=S-Ha0mQofwo1-XkA0CfyFQ&amp;oh=00_Afb0NK1YBWuNmaCok-EsdhXIfoVfYzXjI6WnORhAKvyxUg&amp;oe=68CF8A77', 'profileId': 'pfbid02RD6DuMrETeR1xE1wTsFK6ytF6R8xEuzgUWoqgggEWhFWyKnVWCk7XGRF7RqZhBP8l', 'profileName': 'Martin Alonso Mendez Cardenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2194857641013662', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIxOTQ4NTc2NDEwMTM2NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMTk0ODU3NjQxMDEzNjYy', 'date': '2025-08-24T19:15:27.000Z', 'text': 'Los ojos se separan por el non yurt o el actor ya vino así?', 'profileUrl': 'https://www.facebook.com/djjervisbritto', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/512308568_3588568117941161_4318364993899148592_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xrU9QClPS1IQ7kNvwGR0V-5&amp;_nc_oc=Adn6xso87MFEWr1FesJuRX1cw_wDS6E6o3-2-URXrJlMJvUE3xTyL20uOLeSYO7R8Dg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=nncItuvzFyPgPj5CWMUXIw&amp;oh=00_AfYNouWa5UJf99HNUtlfXwNjcpojasMNyWB_BQHktgCe5g&amp;oe=68D090E1', 'profileId': 'pfbid03AndeMaPKq9VaGT1oCA51M5zBsncau1NrES2xSuAY4VZsHx8hgutMmZJEUbLCq47l', 'profileName': 'Ricardo Brito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10709,23 +10705,23 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Siiiiii</t>
+          <t>Amén amén</t>
         </is>
       </c>
       <c r="G195" s="2" t="n">
-        <v>45899.14825231482</v>
+        <v>45903.66962962963</v>
       </c>
       <c r="H195" s="3" t="n">
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>03:33:29</t>
+          <t>16:04:16</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K195" t="n">
@@ -10737,7 +10733,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=806181935401797', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzgwNjE4MTkzNTQwMTc5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV84MDYxODE5MzU0MDE3OTc=', 'date': '2025-08-30T03:33:29.000Z', 'text': 'Siiiiii', 'profileUrl': 'https://www.facebook.com/gertru.galeano', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/453241156_1946689299112578_5603295884914557993_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B2FAqCtqaewQ7kNvwGwZsIk&amp;_nc_oc=AdkJSNEia6JdJtwi20ZrPecVEY5knzMGqb3uzdR-y6S68YAmSJTveDWP4G3rnFmNFJCfkhBO54a53dlpZx3HxM9t&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=S-Ha0mQofwo1-XkA0CfyFQ&amp;oh=00_AfYl02Vj-_LzJK-1CR23DE1Mcpf3TfsVt2_jszQl7pltSw&amp;oe=68CF8E1A', 'profileId': 'pfbid02F5RwbZys4oHe9vDWAjGkSSSXPQ1JB2zeTMLbDUDMc4ST4cQiRFdbAZJGkajJe5T6l', 'profileName': 'Gertru Galeano', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029X3SzXeGMfEXgyMPyiGRv6WNC3tLoHXqeC6MBDqViQ97myaDJYTMgP2n1iBvfANFl?comment_id=1479443956593294', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE0Nzk0NDM5NTY1OTMyOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNDc5NDQzOTU2NTkzMjk0', 'date': '2025-09-03T16:04:16.000Z', 'text': 'Amén amén', 'profileUrl': 'https://www.facebook.com/enilda.contreraabila', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/320334293_706107167751774_4352346114311114242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=47MPOB-I3zAQ7kNvwFKZFJa&amp;_nc_oc=AdmOC8JPVjjoLcEb-sGmwwi8ejohDtuIlE-si7Xt82Dh1poPXK3CG0QCVFjgzyzByGA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=KiTFj-KA70lWgTbJcj40aQ&amp;oh=00_AfZ-bP-8uitrstnLps3GCGeLuMcAO52YR9humkoRsDDQog&amp;oe=68D0A635', 'profileId': 'pfbid02uoLWQfkApnRaquZcZRE1fuG7pvU7jxqfvy2we5S9recsFEavSCXzMDS8t75vmws9l', 'profileName': 'Enilda Contrera Abila', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -10763,23 +10759,23 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Dios nos regala el no pide nada.. solo que hagamos su voluntad.. por favor Dios nos ama y no pide nada a nadie. .</t>
+          <t>Yo me gane ese Bono ya me salio regalo estrella y wingo</t>
         </is>
       </c>
       <c r="G196" s="2" t="n">
-        <v>45904.99690972222</v>
+        <v>45915.47842592592</v>
       </c>
       <c r="H196" s="3" t="n">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>23:55:33</t>
+          <t>11:28:56</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K196" t="n">
@@ -10791,7 +10787,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1055018476707485', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEwNTUwMTg0NzY3MDc0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMDU1MDE4NDc2NzA3NDg1', 'date': '2025-09-04T23:55:33.000Z', 'text': 'Dios nos regala el no pide nada.. solo que hagamos su voluntad.. por favor Dios nos ama y no pide nada a nadie. .', 'profileUrl': 'https://www.facebook.com/yohana.renjifoaguilar', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/281727795_4485156771586830_184429928610834186_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=i3PDpzGyQr8Q7kNvwGGZ4yG&amp;_nc_oc=AdlmCuOqoJ2b2gf4bhtd9xZ80iAlhbYvNU-SeiE-tAPICIvmYaSc5aSX0MjsFjL-I16ooYxFV8QBQeox8pAxnE3v&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=S-Ha0mQofwo1-XkA0CfyFQ&amp;oh=00_AfZ5rSbgHvGyYupxfUp7TdE6FiZmH9f8lJtsmXsghLot_Q&amp;oe=68CF7523', 'profileId': 'pfbid02nadDJQT9cfj6B3Hi1VYkDNj8kNbunRpmbnrKJqs42iC3hBFx85d5v8bfTLUqLYM8l', 'profileName': 'Yohana Renjifo Aguilar', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029X3SzXeGMfEXgyMPyiGRv6WNC3tLoHXqeC6MBDqViQ97myaDJYTMgP2n1iBvfANFl?comment_id=1878598552699217', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE4Nzg1OTg1NTI2OTkyMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xODc4NTk4NTUyNjk5MjE3', 'date': '2025-09-15T11:28:56.000Z', 'text': 'Yo me gane ese Bono ya me salio regalo estrella y wingo', 'profileUrl': 'https://www.facebook.com/martinalonso.mendezcardenas', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/503389173_9914115415336433_7580075318209485435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dXsgNczOxHIQ7kNvwHQYyLz&amp;_nc_oc=AdklHdXNb4gzethANXyJfhnVkAtqPZVrOYCI6cC2reUuzX_xg32_TY82A9acUaC7kAE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=KiTFj-KA70lWgTbJcj40aQ&amp;oh=00_AfYBO3vD8qKO9Vp4CDsoKrxGwv3nTKAhgKd5BrFEYYk9IQ&amp;oe=68D0A3B7', 'profileId': 'pfbid02RD6DuMrETeR1xE1wTsFK6ytF6R8xEuzgUWoqgggEWhFWyKnVWCk7XGRF7RqZhBP8l', 'profileName': 'Martin Alonso Mendez Cardenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -10817,23 +10813,23 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Son muideliciosos</t>
+          <t>Siiiiii</t>
         </is>
       </c>
       <c r="G197" s="2" t="n">
-        <v>45913.12376157408</v>
+        <v>45899.14825231482</v>
       </c>
       <c r="H197" s="3" t="n">
-        <v>45913</v>
+        <v>45899</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>02:58:13</t>
+          <t>03:33:29</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K197" t="n">
@@ -10845,7 +10841,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1528139415219424', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MjgxMzk0MTUyMTk0MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTI4MTM5NDE1MjE5NDI0', 'date': '2025-09-13T02:58:13.000Z', 'text': 'Son muideliciosos', 'profileUrl': 'https://www.facebook.com/doris.lopez.695120', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/494498201_122185371560304162_1114354951070197205_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qmh77VnzkdkQ7kNvwHN8HBJ&amp;_nc_oc=Admd_SismXJS1FgpHwLNGMBAAUWRE47zJf_LdwybOo2j6QmZsV_PyEz93oSXXZHh4v3WLG4R8wq_b1jIXs8Rc5kZ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=S-Ha0mQofwo1-XkA0CfyFQ&amp;oh=00_AfYagrmJ3lKN8YOS6jmaF_VpTibR9DKcqaQj8pjNdtvltw&amp;oe=68CF7857', 'profileId': 'pfbid02okfSDuHqpzewUAsR97Z2j3chtL8kdg8CdwKcezc98xDn2JtFDNZBBDNTSdcZt9xSl', 'profileName': 'Doris Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029X3SzXeGMfEXgyMPyiGRv6WNC3tLoHXqeC6MBDqViQ97myaDJYTMgP2n1iBvfANFl?comment_id=806181935401797', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzgwNjE4MTkzNTQwMTc5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV84MDYxODE5MzU0MDE3OTc=', 'date': '2025-08-30T03:33:29.000Z', 'text': 'Siiiiii', 'profileUrl': 'https://www.facebook.com/gertru.galeano', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/453241156_1946689299112578_5603295884914557993_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B2FAqCtqaewQ7kNvwF2Ha-F&amp;_nc_oc=AdlLzK5OLhhhf3xBwDQBcEz9RTHofthAPVLJc71txsOJgBIsrAnIVNhigMlK6DUgQW0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=KiTFj-KA70lWgTbJcj40aQ&amp;oh=00_AfYvfGrjQNyaBtNgfQr_TQGNY_qoarSMkjCM7Wzz-gNgDQ&amp;oe=68D0A75A', 'profileId': 'pfbid0BXnkgQMWDUYJgFBXU3qvJVZFJKdVTWMgLvLbYZC7QpyaiAphShg7qJii4dgxTDLvl', 'profileName': 'Gertru Galeano', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -10871,23 +10867,23 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Patras .como.el.cangrejo.paralebola</t>
+          <t>Dios nos regala el no pide nada.. solo que hagamos su voluntad.. por favor Dios nos ama y no pide nada a nadie. .</t>
         </is>
       </c>
       <c r="G198" s="2" t="n">
-        <v>45908.55141203704</v>
+        <v>45904.99690972222</v>
       </c>
       <c r="H198" s="3" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>13:14:02</t>
+          <t>23:55:33</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K198" t="n">
@@ -10899,7 +10895,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1501093894398836', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MDEwOTM4OTQzOTg4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTAxMDkzODk0Mzk4ODM2', 'date': '2025-09-08T13:14:02.000Z', 'text': 'Patras .como.el.cangrejo.paralebola', 'profileUrl': 'https://www.facebook.com/margarita.chalacienfuegos', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/473176318_1757395085083325_975802289531587094_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3BpKTrRRVK0Q7kNvwF1xQkp&amp;_nc_oc=AdmaWtRxvZWKnZeGey-xa6TSBJVuxQKG-jxwUXWSDd-FzdmHpwTLtUYKTOCJeYBuKWk2a6M6cA1c5yKKlZN460sL&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=S-Ha0mQofwo1-XkA0CfyFQ&amp;oh=00_AfZUFbTESxHDogoV9OxGhh5oVJ_fF5VrvUjxV3Xup9PDfQ&amp;oe=68CF9A40', 'profileId': 'pfbid0j9RiXxiPhjU1P1LGnFv2Cn3Ui3riXGfucvVRHvTX4xY4AEjQWWtx5NtxFG6PapGCl', 'profileName': 'Margarita Chala Cienfuegos', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029X3SzXeGMfEXgyMPyiGRv6WNC3tLoHXqeC6MBDqViQ97myaDJYTMgP2n1iBvfANFl?comment_id=1055018476707485', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEwNTUwMTg0NzY3MDc0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMDU1MDE4NDc2NzA3NDg1', 'date': '2025-09-04T23:55:33.000Z', 'text': 'Dios nos regala el no pide nada.. solo que hagamos su voluntad.. por favor Dios nos ama y no pide nada a nadie. .', 'profileUrl': 'https://www.facebook.com/yohana.renjifoaguilar', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/281727795_4485156771586830_184429928610834186_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=i3PDpzGyQr8Q7kNvwGGzKgb&amp;_nc_oc=AdmqAGzJhy6GQdySAnVv98Sxfjx4wvY2QJkMlaIIo9W6vP_N4Uk0F6dX4Ywor85ZjJo&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=KiTFj-KA70lWgTbJcj40aQ&amp;oh=00_AfYNYy17GaznoBALAxLs2TrVXo28mplKKqnq5zga-iB_Gw&amp;oe=68D08E63', 'profileId': 'pfbid0iZ2VpbFawgDeBqD5KQLKsLzmyjaVXE3hnLpRaWwU3YCvWDJAEdmvGWiGTH3Tuwj7l', 'profileName': 'Yohana Renjifo Aguilar', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -10925,18 +10921,18 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Mmm</t>
+          <t>Son muideliciosos</t>
         </is>
       </c>
       <c r="G199" s="2" t="n">
-        <v>45913.450625</v>
+        <v>45913.12376157408</v>
       </c>
       <c r="H199" s="3" t="n">
         <v>45913</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>10:48:54</t>
+          <t>02:58:13</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10953,7 +10949,7 @@
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1715400812448302', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE3MTU0MDA4MTI0NDgzMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNzE1NDAwODEyNDQ4MzAy', 'date': '2025-09-13T10:48:54.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gildardo.bermudez.965', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/495937811_1631906188199890_2167358861022892213_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ve9X2VumJA0Q7kNvwE3WnlT&amp;_nc_oc=AdlLmE8f015JMMbSm4vBLAg9DUsGEjfs8PprcViqbZglCg_AUnQtYvHIm4Os_twwpCCIOYFGDz_LqxGmanFv62lQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=S-Ha0mQofwo1-XkA0CfyFQ&amp;oh=00_Afb6RdKeED57696OHR8h81JFAtGoww9dZ0Z5mvvIVrjbLw&amp;oe=68CF8D8D', 'profileId': 'pfbid0kyaa4BxRvB2uK9eSU6eTD4g1dFtWCU9KdpMMUfsnbkfeTHZ5CUVSMsMioY1bjV6Dl', 'profileName': 'Gildardo Bermudez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029X3SzXeGMfEXgyMPyiGRv6WNC3tLoHXqeC6MBDqViQ97myaDJYTMgP2n1iBvfANFl?comment_id=1528139415219424', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MjgxMzk0MTUyMTk0MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTI4MTM5NDE1MjE5NDI0', 'date': '2025-09-13T02:58:13.000Z', 'text': 'Son muideliciosos', 'profileUrl': 'https://www.facebook.com/doris.lopez.695120', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/494498201_122185371560304162_1114354951070197205_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qmh77VnzkdkQ7kNvwEYz5CR&amp;_nc_oc=AdnMmvIX-lC4ockbRXmKZt4jZb49MTEO-d8nbh7o5tgs4oyqieFTid7dy247AcnOBOs&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=KiTFj-KA70lWgTbJcj40aQ&amp;oh=00_AfYgn4e6Fvz6GDpbRg9NlSI8s4JLEzuhm-5ZBpxnGolLJA&amp;oe=68D09197', 'profileId': 'pfbid0kD2FJjfUyn3K6iXRA6DCmkodWEHrftoqAxyjQQDuQM26rujdrAPhou3rv2wgo9jAl', 'profileName': 'Doris Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -10979,23 +10975,23 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>La toalla envíame los 200 mil</t>
+          <t>Patras .como.el.cangrejo.paralebola</t>
         </is>
       </c>
       <c r="G200" s="2" t="n">
-        <v>45905.82634259259</v>
+        <v>45908.55141203704</v>
       </c>
       <c r="H200" s="3" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>19:49:56</t>
+          <t>13:14:02</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K200" t="n">
@@ -11007,7 +11003,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1142732064394671', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzExNDI3MzIwNjQzOTQ2NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMTQyNzMyMDY0Mzk0Njcx', 'date': '2025-09-05T19:49:56.000Z', 'text': 'La toalla envíame los 200 mil', 'profileUrl': 'https://www.facebook.com/angela.gallegoobando', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/117821250_3121258741322603_8388127109224866_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XqxNjC-XD-gQ7kNvwFAiYV7&amp;_nc_oc=AdnuD5SYnaRfVkKJKa2w5S-nQRd3qx-ba7lk3M2w8NckdcVJUVaP2_yYpBM0-nOAD6lcO67m3ZpJlqT_uCk_0SLf&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=S-Ha0mQofwo1-XkA0CfyFQ&amp;oh=00_AfY-TUuuujJ-Td8fJrf0J4JeBn-yxIf3qsTpelIvA8y3dA&amp;oe=68F109C8', 'profileId': 'pfbid0oM5K1MAgjbKDLitQqsZTGcoJnANXsiLebzTAHZBMGMvs6smZLTMTu3zCLMBKvoqal', 'profileName': 'Angela Gallego Obando', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029X3SzXeGMfEXgyMPyiGRv6WNC3tLoHXqeC6MBDqViQ97myaDJYTMgP2n1iBvfANFl?comment_id=1501093894398836', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MDEwOTM4OTQzOTg4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTAxMDkzODk0Mzk4ODM2', 'date': '2025-09-08T13:14:02.000Z', 'text': 'Patras .como.el.cangrejo.paralebola', 'profileUrl': 'https://www.facebook.com/margarita.chalacienfuegos', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/473176318_1757395085083325_975802289531587094_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3BpKTrRRVK0Q7kNvwH3kv7J&amp;_nc_oc=AdlAvLPKnzojSn-mJXs5fnTuoiI-X58JPelPSFTj1BzgLafIibj-tumFSbpjndxJ8HY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=KiTFj-KA70lWgTbJcj40aQ&amp;oh=00_AfYGoXA8-u3tsw_o0VMTkm5EBkAIlLAQP2gVLg9G8mE0Bg&amp;oe=68D07B40', 'profileId': 'pfbid02nzsRideDZAoe6qSeDX8M7od3ZxSjxbuKhJoN3EuCt95s6TrHeQADxz7KvQGbTvvMl', 'profileName': 'Margarita Chala Cienfuegos', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11033,23 +11029,23 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Jungkook bb un</t>
+          <t>Mmm</t>
         </is>
       </c>
       <c r="G201" s="2" t="n">
-        <v>45905.6333912037</v>
+        <v>45913.450625</v>
       </c>
       <c r="H201" s="3" t="n">
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>15:12:05</t>
+          <t>10:48:54</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K201" t="n">
@@ -11061,7 +11057,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=780469111188728', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzc4MDQ2OTExMTE4ODcyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV83ODA0NjkxMTExODg3Mjg=', 'date': '2025-09-05T15:12:05.000Z', 'text': 'Jungkook bb un', 'profileUrl': 'https://www.facebook.com/stella.ariza.756', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/98366498_275984360191637_3917021177658212352_n.jpg?stp=c0.0.1216.1216a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Rkmfi1_gyAQQ7kNvwFHE3qP&amp;_nc_oc=AdlL8JPPtkWPxa-8dliykfdyamzQGQBmQACnNlRGtQ4f06pBaN85wpAkbfPL2u7P-RW87CnAq6x3YN0LQHsZ-trg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=S-Ha0mQofwo1-XkA0CfyFQ&amp;oh=00_AfZQQ1AbDOKnZsvVnCvRVgiWW_RpJyn7cxRb1v9ZzNvM0w&amp;oe=68F13370', 'profileId': 'pfbid035XJFDFCLvgXPjw68gm4goyJYAfQTCJctBfCv8teaJ2tpzNA7AUiqaopP74GUEawdl', 'profileName': 'Stella Ariza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029X3SzXeGMfEXgyMPyiGRv6WNC3tLoHXqeC6MBDqViQ97myaDJYTMgP2n1iBvfANFl?comment_id=1715400812448302', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE3MTU0MDA4MTI0NDgzMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNzE1NDAwODEyNDQ4MzAy', 'date': '2025-09-13T10:48:54.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gildardo.bermudez.965', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/495937811_1631906188199890_2167358861022892213_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3oePjybAlIcQ7kNvwGDQE8z&amp;_nc_oc=AdnoZf0ziPy73T4f1Y1tsY1CEK9HIohFSToB3dhBF6-okPHGwns1pbmtDbqHluAoiv4&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=KiTFj-KA70lWgTbJcj40aQ&amp;oh=00_AfY1NKkndNRnM7FD9lxG2AbY4wZTg1Mzf9cgQ7gSMtXMIQ&amp;oe=68D0A6CD', 'profileId': 'pfbid02pq2HErtFmYMMxHYkoCkZQDvvWdymuhzZe3UGGiHTC7x7rL5KQbrs9sXU5SjVAQ6il', 'profileName': 'Gildardo Bermudez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11087,23 +11083,23 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Debería agendar una cita podría perder el bisje</t>
+          <t>La toalla envíame los 200 mil</t>
         </is>
       </c>
       <c r="G202" s="2" t="n">
-        <v>45907.42400462963</v>
+        <v>45905.82634259259</v>
       </c>
       <c r="H202" s="3" t="n">
-        <v>45907</v>
+        <v>45905</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>10:10:34</t>
+          <t>19:49:56</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K202" t="n">
@@ -11115,7 +11111,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1512146523560802', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MTIxNDY1MjM1NjA4MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTEyMTQ2NTIzNTYwODAy', 'date': '2025-09-07T10:10:34.000Z', 'text': 'Debería agendar una cita podría perder el bisje', 'profileUrl': 'https://www.facebook.com/juan.paez.812426', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/59811774_115047019699095_100990005572272128_n.jpg?stp=c7.0.405.405a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d5L67nYylxEQ7kNvwGxj_Ix&amp;_nc_oc=Adk6YhrYBGTxE4-9BVRzUymjD4WOVFwJ6iI6iKsYssjG4lUZnqVNQlwAw-hRkfgHYwdLJoQ4W1GIRD_QFRTlDYBD&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=S-Ha0mQofwo1-XkA0CfyFQ&amp;oh=00_AfadGYuPPzyawA92l7IgNoPoCahh3WXBij7O9-XaZrlAbg&amp;oe=68F13983', 'profileId': 'pfbid02tAek5ikU6CDa1f1gCx8tdx44wn7tR2wddnMciyAY3EgqMTVzMP37oMhaekuiUb8bl', 'profileName': 'Juan Paez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029X3SzXeGMfEXgyMPyiGRv6WNC3tLoHXqeC6MBDqViQ97myaDJYTMgP2n1iBvfANFl?comment_id=1142732064394671', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzExNDI3MzIwNjQzOTQ2NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMTQyNzMyMDY0Mzk0Njcx', 'date': '2025-09-05T19:49:56.000Z', 'text': 'La toalla envíame los 200 mil', 'profileUrl': 'https://www.facebook.com/angela.gallegoobando', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.6435-1/117821250_3121258741322603_8388127109224866_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XqxNjC-XD-gQ7kNvwHXa6zB&amp;_nc_oc=AdkAlEZfNE4-hk4rxTuc_ldKZFRBBTz3r2ZS1mVPKZ6fA0_Qa691Hil9cBHHehkYK9I&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=KiTFj-KA70lWgTbJcj40aQ&amp;oh=00_AfY9qufp-msgG8VQY4cLBg8NlFu4Gj3TkineO7gSjt-5mA&amp;oe=68F22308', 'profileId': 'pfbid02sCX2C26WavYxabGtGJrbfgtafDwUdfabUhe3MSJthtFBJwVqX8otzoJJcHxxJUaRl', 'profileName': 'Angela Gallego Obando', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11141,18 +11137,18 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Chirimoya</t>
+          <t>Jungkook bb un</t>
         </is>
       </c>
       <c r="G203" s="2" t="n">
-        <v>45906.98347222222</v>
+        <v>45905.6333912037</v>
       </c>
       <c r="H203" s="3" t="n">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>23:36:12</t>
+          <t>15:12:05</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11169,7 +11165,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1277138447236700', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEyNzcxMzg0NDcyMzY3MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMjc3MTM4NDQ3MjM2NzAw', 'date': '2025-09-06T23:36:12.000Z', 'text': 'Chirimoya', 'profileUrl': 'https://www.facebook.com/nancy.benavidez.332', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/545375646_1514794189940253_2820402118576347151_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=I2rlBtNT-DIQ7kNvwEY5R5w&amp;_nc_oc=AdmpBSG0O4x888_e2q8yeXYsH9evBVoBENrcOgcVqnRHQEIOVSDuQ7EzF7jJUpKuqN4&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ppqRKqHXn4Qpf0n17yfOAw&amp;oh=00_AfZdq4VxB3qDBLp9ITLkzjsqmmMeT3R7d305I8uRfymybQ&amp;oe=68CF8BFE', 'profileId': 'pfbid0dBLhrwbhYBPM4a7cXyAcpLaE1AAc7T1k4XZ9h2oPzkCFgu8NKt9zPMwX2H5DXFcjl', 'profileName': 'Nancy Benavidez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029X3SzXeGMfEXgyMPyiGRv6WNC3tLoHXqeC6MBDqViQ97myaDJYTMgP2n1iBvfANFl?comment_id=780469111188728', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzc4MDQ2OTExMTE4ODcyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV83ODA0NjkxMTExODg3Mjg=', 'date': '2025-09-05T15:12:05.000Z', 'text': 'Jungkook bb un', 'profileUrl': 'https://www.facebook.com/stella.ariza.756', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.6435-1/98366498_275984360191637_3917021177658212352_n.jpg?stp=c0.0.1216.1216a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QY_OidGW_hEQ7kNvwEzmxRJ&amp;_nc_oc=AdnUHMjCzAVEdRSxD6pd_kR5scAkMzm84RD4kIMrgjCAV_gkhvLgKGERIseGTpxo4GY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=KiTFj-KA70lWgTbJcj40aQ&amp;oh=00_Afb7z8sHcP_tS8mf65Yelgw7h6MuMb_IJnJzwRDGybB75Q&amp;oe=68F21470', 'profileId': 'pfbid021yf4J5Zz5NMHxHAsSp4dB1wpt2unEboXtV87MLYdckF2kL8LW9VxkcBmAcK3E5E3l', 'profileName': 'Stella Ariza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11195,18 +11191,18 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Hay quien fuera Rocita</t>
+          <t>Debería agendar una cita podría perder el bisje</t>
         </is>
       </c>
       <c r="G204" s="2" t="n">
-        <v>45904.12401620371</v>
+        <v>45907.42400462963</v>
       </c>
       <c r="H204" s="3" t="n">
-        <v>45904</v>
+        <v>45907</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>02:58:35</t>
+          <t>10:10:34</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -11223,7 +11219,7 @@
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=3761205484177010', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzM3NjEyMDU0ODQxNzcwMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8zNzYxMjA1NDg0MTc3MDEw', 'date': '2025-09-04T02:58:35.000Z', 'text': 'Hay quien fuera Rocita', 'profileUrl': 'https://www.facebook.com/anamaria.pineros.37', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwE5P8xD&amp;_nc_oc=Adl6g2cK0M7cOSzrflGLiCKTVc5NjI7AivzFWDMiSI0cMbrtt-rBv8AZVcit0ceQoxM&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;oh=00_AfbLcndcKGW3zBm0ZD23_CSN2Uq7eWUz6M7ljNOTCPOf_w&amp;oe=68F1233A', 'profileId': 'pfbid02BWG1rLtVndthmBwQfPuQGN234jrgN4KfPnFr5bdRQsfLQ43G5X5Bo4xwwTfZA6bpl', 'profileName': 'Ana Maria Piñeros', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029X3SzXeGMfEXgyMPyiGRv6WNC3tLoHXqeC6MBDqViQ97myaDJYTMgP2n1iBvfANFl?comment_id=1512146523560802', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MTIxNDY1MjM1NjA4MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTEyMTQ2NTIzNTYwODAy', 'date': '2025-09-07T10:10:34.000Z', 'text': 'Debería agendar una cita podría perder el bisje', 'profileUrl': 'https://www.facebook.com/juan.paez.812426', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.6435-1/59811774_115047019699095_100990005572272128_n.jpg?stp=c7.0.405.405a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d5L67nYylxEQ7kNvwHIqlDv&amp;_nc_oc=AdmtoSsFzZIh9Se5RW_AtrNtNZgf6GTQ5dMcEn-PbPK8yd08WdE_j5fug9LPdgcOsgY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=KiTFj-KA70lWgTbJcj40aQ&amp;oh=00_Afa705WewNkaonwx10Jo3q32qwckfQr0jTyzj5Wbs2VhMQ&amp;oe=68F21A83', 'profileId': 'pfbid0pd1ZAZ87EtKzUv5aNJ3R5ENDfrhNbRWA35dWWhQ1t9eg6KcbBLDwuo8n3fq4qWJql', 'profileName': 'Juan Paez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11249,23 +11245,23 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Que productos tan caro todas la empresas ya se. Pasan por esto producto 4000 un bonyurt</t>
+          <t>Chirimoya</t>
         </is>
       </c>
       <c r="G205" s="2" t="n">
-        <v>45899.00886574074</v>
+        <v>45906.98347222222</v>
       </c>
       <c r="H205" s="3" t="n">
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>00:12:46</t>
+          <t>23:36:12</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K205" t="n">
@@ -11277,7 +11273,7 @@
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1264377514956795', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEyNjQzNzc1MTQ5NTY3OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMjY0Mzc3NTE0OTU2Nzk1', 'date': '2025-08-30T00:12:46.000Z', 'text': 'Que productos tan caro todas la empresas ya se. Pasan por esto producto 4000 un bonyurt', 'profileUrl': 'https://www.facebook.com/yinson.betancourt.56', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/492402376_1226424815761370_2825994292987965249_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=cTpnlCCrC8sQ7kNvwFdnipV&amp;_nc_oc=AdmPl2-cli5q6Ft8G6pG6KOfo-Gktxk5BWCHMyz8s3WI1KLKuW-DRI_hatB2Lr-kxcc&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ppqRKqHXn4Qpf0n17yfOAw&amp;oh=00_Afb7aBYeMJCPKWo_LQp4Z6CfAq1RIRITh65nbA8ulQpHTg&amp;oe=68CF992E', 'profileId': '100051815882245', 'profileName': 'Yonsi Gamer', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1180576377441441?comment_id=1277138447236700', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEyNzcxMzg0NDcyMzY3MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMjc3MTM4NDQ3MjM2NzAw', 'date': '2025-09-06T23:36:12.000Z', 'text': 'Chirimoya', 'profileUrl': 'https://www.facebook.com/nancy.benavidez.332', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/545375646_1514794189940253_2820402118576347151_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=I2rlBtNT-DIQ7kNvwGtF4vD&amp;_nc_oc=AdnT1twblGsRuE_jW0ozu_VONbFF8agJTJGrtxyNafhIUFyLgO5Xs-9nFzjHXFBUfBY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1z_mA1qqM03BJlCHryxuKQ&amp;oh=00_AfZF1ivUwOtDVJ7ljGBTlL1HUMjmpf25COh8BzbNtzQeGA&amp;oe=68D0A53E', 'profileId': 'pfbid02h2nR3cXXPYKoK4hd3Mu61VRCW6BAX3HEGUYYPpa1LjureVzGFoXWVYwfh1xPSfiAl', 'profileName': 'Nancy Benavidez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11303,23 +11299,23 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Uhm, no reparten ni agua. . .</t>
+          <t>Hay quien fuera Rocita</t>
         </is>
       </c>
       <c r="G206" s="2" t="n">
-        <v>45903.56340277778</v>
+        <v>45904.12401620371</v>
       </c>
       <c r="H206" s="3" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>13:31:18</t>
+          <t>02:58:35</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K206" t="n">
@@ -11331,7 +11327,7 @@
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1006289224862545', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEwMDYyODkyMjQ4NjI1NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMDA2Mjg5MjI0ODYyNTQ1', 'date': '2025-09-03T13:31:18.000Z', 'text': 'Uhm, no reparten ni agua. . .', 'profileUrl': 'https://www.facebook.com/ivanca.ca', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t1.6435-1/180186173_10225961481333432_3714690082736398764_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nWrDlAHpNjoQ7kNvwG-Y73r&amp;_nc_oc=Admsk2kbCAlqWOiIqNWtpRixESUhAIOLIQpQcBQzxejmAX4W7CAZUzntkmSfH9EpJwo&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ppqRKqHXn4Qpf0n17yfOAw&amp;oh=00_AfaafEDHCcFuCRoOTzV2zBF0n4dS10YiwV0v5b5-_dzZPw&amp;oe=68F10A7A', 'profileId': 'pfbid0XNyQpj1rAALAeQL5PZqRDJo6LBg22VJN9gV5yNskQxMhQn6Dc6YzL2coW8Ce3Q7hl', 'profileName': 'Ivan Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1180576377441441?comment_id=3761205484177010', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzM3NjEyMDU0ODQxNzcwMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8zNzYxMjA1NDg0MTc3MDEw', 'date': '2025-09-04T02:58:35.000Z', 'text': 'Hay quien fuera Rocita', 'profileUrl': 'https://www.facebook.com/anamaria.pineros.37', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Sh0h5MnzbMAQ7kNvwEMa4pV&amp;_nc_oc=Adk1y1G5gEohWwDy9aoFIK2xDoFWHeatk9zKHmsODgV608p28CKHaOpfbXOYNby0H5w&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfYQTIGfVQ2n27SIj0eF2NGnrd65xgZWoStOSgvD-3Vv2g&amp;oe=68F23C7A', 'profileId': 'pfbid07xcpwBG8wR6fkQfmT7C2GzTtTzJZNVw4FVBZB5dhmAnDKZYi9m8SAMaG3MVs5L9Bl', 'profileName': 'Ana Maria Piñeros', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11357,23 +11353,23 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Chirimoya</t>
+          <t>Que productos tan caro todas la empresas ya se. Pasan por esto producto 4000 un bonyurt</t>
         </is>
       </c>
       <c r="G207" s="2" t="n">
-        <v>45907.58998842593</v>
+        <v>45899.00886574074</v>
       </c>
       <c r="H207" s="3" t="n">
-        <v>45907</v>
+        <v>45899</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>14:09:35</t>
+          <t>00:12:46</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K207" t="n">
@@ -11385,7 +11381,7 @@
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=4170668003203626', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzQxNzA2NjgwMDMyMDM2MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV80MTcwNjY4MDAzMjAzNjI2', 'date': '2025-09-07T14:09:35.000Z', 'text': 'Chirimoya', 'profileUrl': 'https://www.facebook.com/yadevic.jimenez', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/359533033_6128844193911187_2299624385370835019_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5EM1QjC0PfAQ7kNvwE6bfuh&amp;_nc_oc=AdnmFn7_0AMij8KvPvWTg94iLW6MDDkzAxh1X2rsMc4gRW1seU9N1NF4zssG4Tg-SUs&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ppqRKqHXn4Qpf0n17yfOAw&amp;oh=00_AfaZm_scrEQP3iIJzGEzY5qabk5ahUvBe51xHu74UTUSpg&amp;oe=68CF8A97', 'profileId': 'pfbid0224Tjhm8y5vQsonToT1HdNF885hWiWCAD2jiCBVN3GhzRJmLdL19eVG2RQ1WtMqdil', 'profileName': 'Yarinys Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1180576377441441?comment_id=1264377514956795', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEyNjQzNzc1MTQ5NTY3OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMjY0Mzc3NTE0OTU2Nzk1', 'date': '2025-08-30T00:12:46.000Z', 'text': 'Que productos tan caro todas la empresas ya se. Pasan por esto producto 4000 un bonyurt', 'profileUrl': 'https://www.facebook.com/yinson.betancourt.56', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/492402376_1226424815761370_2825994292987965249_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=cTpnlCCrC8sQ7kNvwH9Rdcz&amp;_nc_oc=Adkd6Jswk4umcp_sBDjyaCvAnRYnOiXXE7Tj-adQxFYiRzbZDNW4m6DffqI397LjsE4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=1z_mA1qqM03BJlCHryxuKQ&amp;oh=00_AfbJWNaCguJqduX0w-s7I13jXjk_nBevmY3l-63HhS7ljA&amp;oe=68D07A2E', 'profileId': '100051815882245', 'profileName': 'Yonsi Gamer', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11411,18 +11407,18 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Pl””ppp Xd a</t>
+          <t>Uhm, no reparten ni agua. . .</t>
         </is>
       </c>
       <c r="G208" s="2" t="n">
-        <v>45899.09392361111</v>
+        <v>45903.56340277778</v>
       </c>
       <c r="H208" s="3" t="n">
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>02:15:15</t>
+          <t>13:31:18</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -11439,13 +11435,13 @@
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05fbjoriSWCM7nnGpXVtuKiSgS4RiH8rCzzFAgwKBXuerKxWSTLhvGbLx3zaNWwNol?comment_id=1426223511978473', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE0MjYyMjM1MTE5Nzg0NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNDI2MjIzNTExOTc4NDcz', 'date': '2025-08-30T02:15:15.000Z', 'text': 'Pl””ppp Xd a', 'profileUrl': 'https://www.facebook.com/junior.samtamaria.7', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwE5P8xD&amp;_nc_oc=Adl6g2cK0M7cOSzrflGLiCKTVc5NjI7AivzFWDMiSI0cMbrtt-rBv8AZVcit0ceQoxM&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;oh=00_AfbLcndcKGW3zBm0ZD23_CSN2Uq7eWUz6M7ljNOTCPOf_w&amp;oe=68F1233A', 'profileId': 'pfbid0fhaBSKBvdF74fd9ZwFq2W5dYXjQ5CoKPfW2ZRgqd8QMncWYSUantYGSNTL6FQXDcl', 'profileName': 'Juliito Santana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1180576377441441?comment_id=1006289224862545', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEwMDYyODkyMjQ4NjI1NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMDA2Mjg5MjI0ODYyNTQ1', 'date': '2025-09-03T13:31:18.000Z', 'text': 'Uhm, no reparten ni agua. . .', 'profileUrl': 'https://www.facebook.com/ivanca.ca', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/180186173_10225961481333432_3714690082736398764_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nWrDlAHpNjoQ7kNvwF4THer&amp;_nc_oc=AdnYxc51oSeky3ACiXgzaqJ7UZGCCqGAYlHcsnmiRRKypduIhcoSSI75vWopdkiF8Xk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1z_mA1qqM03BJlCHryxuKQ&amp;oh=00_AfZSWcOjQkaQ8QrmmNB3CXb3QPv_GhRQTSFw3rdir-Yilg&amp;oe=68F223BA', 'profileId': 'pfbid02bER81Pwg1jYQ8kjRELVbYWWKHLhA7cgnLpMxivXJqYjQ3MyGzpuTALyLuTUeKXeKl', 'profileName': 'Ivan Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -11459,24 +11455,24 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1176249024540843/?dco_ad_token=AaqTLFyMFZhtPlS8-B1B7583fH6wU-cPy2VU87qFVvJKzI8UUl1mCmMPF5UwZWYLTxMQzbEXK-5Z4SB3&amp;dco_ad_id=120233112602190295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1176249481207464/?dco_ad_token=AarfXe-MPJ8xuo5SKEHsPv1dLTr0FTVgo1QF6cvmEqSD--YxzTz3UKtNDr1zbjeRjTJe_YzxUgeblfMk&amp;dco_ad_id=120233151708140295</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Qbueno es bisjar</t>
+          <t>Chirimoya</t>
         </is>
       </c>
       <c r="G209" s="2" t="n">
-        <v>45896.73836805556</v>
+        <v>45907.58998842593</v>
       </c>
       <c r="H209" s="3" t="n">
-        <v>45896</v>
+        <v>45907</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>17:43:15</t>
+          <t>14:09:35</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -11493,13 +11489,13 @@
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=1039183548425579', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzEwMzkxODM1NDg0MjU1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8xMDM5MTgzNTQ4NDI1NTc5', 'date': '2025-08-27T17:43:15.000Z', 'text': 'Qbueno es bisjar', 'profileUrl': 'https://www.facebook.com/ligia.alarcon.376', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/468711526_1232674544701977_5473740533796622435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VTEkBui6tHEQ7kNvwEtEVR1&amp;_nc_oc=Adkvuy0FKWjRTWEutGMxT44n5rm8jdyJovypBA8xaIbQCzEUr8i8L5ysc0Xi2oVogTE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ZKsLMuGuOvWQSeVC4pv4IQ&amp;oh=00_AfYzt6C94OhBllqGNmHvj61l54NRlJzQZq3GSTYtPJ75uA&amp;oe=68CF867E', 'profileId': 'pfbid02Xx4augAJBe6XJqBbDypnvR1sRPVvzFgcp3Fj2dqcAhaKUy6FCzp1P4fx9wTFDhHUl', 'profileName': 'Ligia Alarcon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1180576377441441?comment_id=4170668003203626', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzQxNzA2NjgwMDMyMDM2MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV80MTcwNjY4MDAzMjAzNjI2', 'date': '2025-09-07T14:09:35.000Z', 'text': 'Chirimoya', 'profileUrl': 'https://www.facebook.com/yadevic.jimenez', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/359533033_6128844193911187_2299624385370835019_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5EM1QjC0PfAQ7kNvwHTAwYM&amp;_nc_oc=AdnNKZqQlDxmSRb9qUngd7UG2lx7GE6SGIGp3MFiFX7w12Y9KlQxaP3dHUA1Wub9jvY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=1z_mA1qqM03BJlCHryxuKQ&amp;oh=00_AfY6c-aSAgp8vtt_MoEwUXE_9MQIyQRgyKFq8Q3SyzTwUw&amp;oe=68D0A3D7', 'profileId': 'pfbid0224Tjhm8y5vQsonToT1HdNF885hWiWCAD2jiCBVN3GhzRJmLdL19eVG2RQ1WtMqdil', 'profileName': 'Yarinys Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -11513,29 +11509,29 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1176249024540843/?dco_ad_token=AaqTLFyMFZhtPlS8-B1B7583fH6wU-cPy2VU87qFVvJKzI8UUl1mCmMPF5UwZWYLTxMQzbEXK-5Z4SB3&amp;dco_ad_id=120233112602190295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1176249481207464/?dco_ad_token=AarfXe-MPJ8xuo5SKEHsPv1dLTr0FTVgo1QF6cvmEqSD--YxzTz3UKtNDr1zbjeRjTJe_YzxUgeblfMk&amp;dco_ad_id=120233151708140295</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Como se llama este muchacho???</t>
+          <t>Pl””ppp Xd a</t>
         </is>
       </c>
       <c r="G210" s="2" t="n">
-        <v>45905.77678240741</v>
+        <v>45899.09392361111</v>
       </c>
       <c r="H210" s="3" t="n">
-        <v>45905</v>
+        <v>45899</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>18:38:34</t>
+          <t>02:15:15</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K210" t="n">
@@ -11547,7 +11543,7 @@
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=1305397517694727', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzEzMDUzOTc1MTc2OTQ3Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8xMzA1Mzk3NTE3Njk0NzI3', 'date': '2025-09-05T18:38:34.000Z', 'text': 'Como se llama este muchacho???', 'profileUrl': 'https://www.facebook.com/aurora.perilla.330485', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/539187800_742429121992654_5782601762293417872_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vGdEPt7LUkUQ7kNvwHHwUmm&amp;_nc_oc=AdmZmDE5NW9QQf6HXoI9bLtsbHE-SxuZyCz8A4L2RFMJCF-ORR2iD05LPbrfCJ3A4ts&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ZKsLMuGuOvWQSeVC4pv4IQ&amp;oh=00_AfbSkWxniniideEvRWdS1-P-ik23eosswVC93UqTXREz1w&amp;oe=68CF7253', 'profileId': 'pfbid02UXdPnfSuBJ1kduCgo7CRzjqxFfmQitJhGP5Q6F3FHe2j6sTwMZ8qVtD827QqUWP3l', 'profileName': 'Aurora Perilla', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1180576377441441?comment_id=1426223511978473', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE0MjYyMjM1MTE5Nzg0NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNDI2MjIzNTExOTc4NDcz', 'date': '2025-08-30T02:15:15.000Z', 'text': 'Pl””ppp Xd a', 'profileUrl': 'https://www.facebook.com/junior.samtamaria.7', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Sh0h5MnzbMAQ7kNvwEMa4pV&amp;_nc_oc=Adk1y1G5gEohWwDy9aoFIK2xDoFWHeatk9zKHmsODgV608p28CKHaOpfbXOYNby0H5w&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfYQTIGfVQ2n27SIj0eF2NGnrd65xgZWoStOSgvD-3Vv2g&amp;oe=68F23C7A', 'profileId': 'pfbid02jZ1tcz7kUWsFr3Gbt1kRWsDnn91S5JH6pYAz3qzM2SrnkKhgpXw5tNPb14kk3TVql', 'profileName': 'Juliito Santana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11573,23 +11569,23 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Que miedo</t>
+          <t>Qbueno es bisjar</t>
         </is>
       </c>
       <c r="G211" s="2" t="n">
-        <v>45905.83663194445</v>
+        <v>45896.73836805556</v>
       </c>
       <c r="H211" s="3" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>20:04:45</t>
+          <t>17:43:15</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K211" t="n">
@@ -11601,13 +11597,13 @@
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=2919243361597903', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzI5MTkyNDMzNjE1OTc5MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8yOTE5MjQzMzYxNTk3OTAz', 'date': '2025-09-05T20:04:45.000Z', 'text': 'Que miedo', 'profileUrl': 'https://www.facebook.com/marta.saldariaga.1', 'profilePicture': 'https://scontent.fagc3-2.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwH-wKxS&amp;_nc_oc=AdnFIx-g63iOK1UenlXlBDIuCOrb_RgPI5H8awVzYrOBBK1aLrhicTNWyfhZohr8sRM&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-2.fna&amp;oh=00_AfY2XtuSSUHHRX6BDuEBRfPz5RuORjpq4MAb9E10PCq0OA&amp;oe=68F1233A', 'profileId': 'pfbid033rY8cSrvYum1SxSLtuKERicZ48KrrSFUqJ3CmBYnsq4vfuiTmmwqVinvBvES4Zril', 'profileName': 'Marta Saldariaga', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=1039183548425579', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzEwMzkxODM1NDg0MjU1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8xMDM5MTgzNTQ4NDI1NTc5', 'date': '2025-08-27T17:43:15.000Z', 'text': 'Qbueno es bisjar', 'profileUrl': 'https://www.facebook.com/ligia.alarcon.376', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/468711526_1232674544701977_5473740533796622435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VTEkBui6tHEQ7kNvwFDucAX&amp;_nc_oc=Adm0KxwL-Zzki00s7ApNH17JaERagvsiaCwIMnK93fM0leUq4NhzofBZJ6rAd6wYNdQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=S2WHeUz6LkWGzVxLIjiVmA&amp;oh=00_AfariqpEFgTp5TPPhAppf9ZczYWoxU1mVRKIZs9iwhB-1g&amp;oe=68D09FBE', 'profileId': 'pfbid0UQRPzWXwLU3CtrxqPosDndN4DmgLTSgLPjvZk27uG1cajL8r9wNHTJ4TysJDkRxPl', 'profileName': 'Ligia Alarcon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -11621,24 +11617,24 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1176337131198699/?dco_ad_token=AaqMggo9she_oXbcU53r4SsXG3jH_6kQpXbuBX6XTs5dn-l7V-985swJcUxTM6MrdVnHBdSCvJBfvXnD&amp;dco_ad_id=120233154785120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1176249024540843/?dco_ad_token=AaqTLFyMFZhtPlS8-B1B7583fH6wU-cPy2VU87qFVvJKzI8UUl1mCmMPF5UwZWYLTxMQzbEXK-5Z4SB3&amp;dco_ad_id=120233112602190295</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Amén</t>
+          <t>Como se llama este muchacho???</t>
         </is>
       </c>
       <c r="G212" s="2" t="n">
-        <v>45898.98555555556</v>
+        <v>45905.77678240741</v>
       </c>
       <c r="H212" s="3" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>23:39:12</t>
+          <t>18:38:34</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11655,13 +11651,13 @@
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1114344684183634', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzExMTQzNDQ2ODQxODM2MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMTE0MzQ0Njg0MTgzNjM0', 'date': '2025-08-29T23:39:12.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/ricardo.de.jesus.zuleta.arroyave', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/542059740_3673984189574489_5013380962686759037_n.jpg?stp=c0.0.465.465a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LA1XSdRYtrMQ7kNvwF7hpaz&amp;_nc_oc=AdmDBF3zsg21OOArlnaBcynwM9vEG2SHq6NlF1ybUKrPgqlmeFMiXgBn9vP1IqRZBrc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_AfZgUO-QljtMf3XDBWQSL3pkiCAojov52eyZHoSGraja6Q&amp;oe=68CF822A', 'profileId': 'pfbid02Jz9iJJozMrrfFbthWwJNAbodVZ364h7i5BtmdjRYVR81JnVvUTZzmC6BquzRghX1l', 'profileName': 'Ricardo De Jesús Zuleta Arroyave', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=1305397517694727', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzEzMDUzOTc1MTc2OTQ3Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8xMzA1Mzk3NTE3Njk0NzI3', 'date': '2025-09-05T18:38:34.000Z', 'text': 'Como se llama este muchacho???', 'profileUrl': 'https://www.facebook.com/aurora.perilla.330485', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/539187800_742429121992654_5782601762293417872_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vGdEPt7LUkUQ7kNvwFEVAfu&amp;_nc_oc=AdkWT-5BmG3y-PbhPVDkDYcPPGmEu0bTqEwF6FtbnR33XLB-1861eicxGv_Pza-RZLw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=S2WHeUz6LkWGzVxLIjiVmA&amp;oh=00_AfY2sMSAIjLQNgXYYWHmxyWXiRd3-TozZFD42MVqnJ7MeQ&amp;oe=68D08B93', 'profileId': 'pfbid02UXdPnfSuBJ1kduCgo7CRzjqxFfmQitJhGP5Q6F3FHe2j6sTwMZ8qVtD827QqUWP3l', 'profileName': 'Aurora Perilla', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -11675,29 +11671,29 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1176337131198699/?dco_ad_token=AaqMggo9she_oXbcU53r4SsXG3jH_6kQpXbuBX6XTs5dn-l7V-985swJcUxTM6MrdVnHBdSCvJBfvXnD&amp;dco_ad_id=120233154785120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1176249024540843/?dco_ad_token=AaqTLFyMFZhtPlS8-B1B7583fH6wU-cPy2VU87qFVvJKzI8UUl1mCmMPF5UwZWYLTxMQzbEXK-5Z4SB3&amp;dco_ad_id=120233112602190295</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Amen</t>
+          <t>Huevadas</t>
         </is>
       </c>
       <c r="G213" s="2" t="n">
-        <v>45896.01971064815</v>
+        <v>45917.03641203704</v>
       </c>
       <c r="H213" s="3" t="n">
-        <v>45896</v>
+        <v>45917</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>00:28:23</t>
+          <t>00:52:26</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K213" t="n">
@@ -11709,13 +11705,13 @@
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=765498096064912', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0Xzc2NTQ5ODA5NjA2NDkxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF83NjU0OTgwOTYwNjQ5MTI=', 'date': '2025-08-27T00:28:23.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/nubia.cordero.50', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/464433348_8354490364648783_6672355853241575500_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=D7JeD2ziHaoQ7kNvwEYahdJ&amp;_nc_oc=Adk8KZyutcX2YU1T7iLfO3bldmyc0IAAjLN_Tu4YCpxdQAqRmGMn7uJpAQsBGeO9Y1s&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_AfZhvvWomec4hUL524WsHCj5cZxk_PdAO5Qhon809T0IvA&amp;oe=68CF975D', 'profileId': 'pfbid0344Ytijt8fqtLC87eGE4gpyNhKkQugs51RJQpoo46S8oGoYMpRkbthptjdbJEnhasl', 'profileName': 'Nubia Cordero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=808045311701735', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzgwODA0NTMxMTcwMTczNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV84MDgwNDUzMTE3MDE3MzU=', 'date': '2025-09-17T00:52:26.000Z', 'text': 'Huevadas', 'profileUrl': 'https://www.facebook.com/javier.gonzalez.138640', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/550217698_1497237428369794_7516436154476085732_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PIfbLVWHD5AQ7kNvwGzJfyd&amp;_nc_oc=AdnuusRUrza57Mp0YPpliKUftnGVOyrQI21U9JFdtosON779m-suzuAh5oPWSjqFvqM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=S2WHeUz6LkWGzVxLIjiVmA&amp;oh=00_AfZ3LRneUDeU7f41ZUodTE2lq4YtoU6QjZIYqniAQMOuaA&amp;oe=68D077EE', 'profileId': 'pfbid02hbYeTBJp4Xhmdiy1rev4UDftLrcw7iHo9bYgihEYwdYT7fo9i8ytoRab4kHT3E7nl', 'profileName': 'Javier Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -11729,24 +11725,24 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1176337131198699/?dco_ad_token=AaqMggo9she_oXbcU53r4SsXG3jH_6kQpXbuBX6XTs5dn-l7V-985swJcUxTM6MrdVnHBdSCvJBfvXnD&amp;dco_ad_id=120233154785120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1176249024540843/?dco_ad_token=AaqTLFyMFZhtPlS8-B1B7583fH6wU-cPy2VU87qFVvJKzI8UUl1mCmMPF5UwZWYLTxMQzbEXK-5Z4SB3&amp;dco_ad_id=120233112602190295</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Amen amen 🙏</t>
+          <t>Que miedo</t>
         </is>
       </c>
       <c r="G214" s="2" t="n">
-        <v>45897.05189814815</v>
+        <v>45905.83663194445</v>
       </c>
       <c r="H214" s="3" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>01:14:44</t>
+          <t>20:04:45</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11763,7 +11759,7 @@
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1962809447787635', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzE5NjI4MDk0NDc3ODc2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xOTYyODA5NDQ3Nzg3NjM1', 'date': '2025-08-28T01:14:44.000Z', 'text': 'Amen amen 🙏', 'profileUrl': 'https://www.facebook.com/cinibaldo.avilasotelo', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/337399890_2598520576954804_3518188180563978852_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0U2tYlbKGisQ7kNvwHcHXB8&amp;_nc_oc=AdnuUX2qQKz3uihyBg4lSuC6iC7Lm8YwOHIhL_DghwFqvY93ZlrijppTfqF1FPIed7w&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_AfY9IOhx4aUtphc9MxNudWYTll8siel4W32j3mtzkVQDiA&amp;oe=68CF96BA', 'profileId': 'pfbid02vcxDK2oubVUe17oWw7SwfmGQiDXZ17Bjfg9Vkkf8X5chVaZBi5s5XRWGBxe254uBl', 'profileName': 'Cinibaldo Avila Sotelo', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=2919243361597903', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzI5MTkyNDMzNjE1OTc5MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8yOTE5MjQzMzYxNTk3OTAz', 'date': '2025-09-05T20:04:45.000Z', 'text': 'Que miedo', 'profileUrl': 'https://www.facebook.com/marta.saldariaga.1', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Sh0h5MnzbMAQ7kNvwHpSbRH&amp;_nc_oc=Adlo7z3172wOoJZfkBEcC6c-gppSptspWVhk9UwVeoDjg9zabp4OOd23Goj1jeeY1j4&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AfZCU0oPtkyV4U_j8g8XY1grZL6QcIPFktqbWoqR1bHY8w&amp;oe=68F23C7A', 'profileId': 'pfbid0zJtwhHEZhjJLdL46KkZr9mR8mwNToQPyLYoEwxzaUhBX56gbmGzG89FRBVgKHum1l', 'profileName': 'Marta Saldariaga', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
@@ -11789,18 +11785,18 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Por mi parte te dará diezmo tu madre</t>
+          <t>Amén</t>
         </is>
       </c>
       <c r="G215" s="2" t="n">
-        <v>45902.16675925926</v>
+        <v>45898.98555555556</v>
       </c>
       <c r="H215" s="3" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>04:00:08</t>
+          <t>23:39:12</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11817,7 +11813,7 @@
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1317880313378263', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzEzMTc4ODAzMTMzNzgyNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMzE3ODgwMzEzMzc4MjYz', 'date': '2025-09-02T04:00:08.000Z', 'text': 'Por mi parte te dará diezmo tu madre', 'profileUrl': 'https://www.facebook.com/jeison.gremv', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/227922140_4233834270040514_3423583614073821437_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=I-FPqYxtJdcQ7kNvwFLwkYb&amp;_nc_oc=AdkGC4ui2x8jQDoIzpLofCRfX43tE_-7Z_3b2CAJEI5MQTsdyWBT1bfQetvtnMs8ocU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_AfaMMpwFrJHC7BPIIrmBk9-SYZh3EZ7AMdj0h9QcjkrRdg&amp;oe=68CF8334', 'profileId': 'pfbid02pUT1RZCoze8FtyhfggiHm9apUQApTTwgmhJgF5RiRWbsfccn8ct6NpJAT5dAk53l', 'profileName': 'Jeison Rincon Sdvsf', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1114344684183634', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzExMTQzNDQ2ODQxODM2MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMTE0MzQ0Njg0MTgzNjM0', 'date': '2025-08-29T23:39:12.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/ricardo.de.jesus.zuleta.arroyave', 'profilePicture': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t39.30808-1/542059740_3673984189574489_5013380962686759037_n.jpg?stp=c0.0.465.465a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LA1XSdRYtrMQ7kNvwGzFk0U&amp;_nc_oc=AdlpWc3BlSsO0Vhs3H8mu3cx7mOY9EKDmA5fJFd1kbiiHsZ5IDzuutt5wZdx_To9eiI&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_AfbpYpLzUpWsl6FDkuKxvjB1Wvk6mp96Tv1kp9led1yGoA&amp;oe=68D09B6A', 'profileId': 'pfbid0FSWXP9BdWi54W6UjU8CTap8GMP9Fk6nn9wn4TkR19WJZj7rGgAoCgvbvaGgK56kRl', 'profileName': 'Ricardo De Jesús Zuleta Arroyave', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -11843,18 +11839,18 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Jajajja Mi Chikis Trinquis🤣🤣🤣🤣🤣</t>
+          <t>Amen</t>
         </is>
       </c>
       <c r="G216" s="2" t="n">
-        <v>45897.7766550926</v>
+        <v>45896.01971064815</v>
       </c>
       <c r="H216" s="3" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>18:38:23</t>
+          <t>00:28:23</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11871,7 +11867,7 @@
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=619227981262280', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzYxOTIyNzk4MTI2MjI4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF82MTkyMjc5ODEyNjIyODA=', 'date': '2025-08-28T18:38:23.000Z', 'text': 'Jajajja Mi Chikis Trinquis🤣🤣🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/fabian.bayona.557183', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/539367909_767540099202088_2070375379187107734_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RNjJXmFY7JcQ7kNvwHDFeo-&amp;_nc_oc=Adl-c2UlzzPMmw_9g0DyeM74QgGE8H7PI_GJeNHQXjPECfsnhp1AB3LvO2Px6lohblU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_AfZDRvWKmRUGTt5gelr9BgBX4B4FYhCmIuYpKtxzlU31Cw&amp;oe=68CF8696', 'profileId': '100078383156972', 'profileName': 'Fabian Bayona', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=765498096064912', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0Xzc2NTQ5ODA5NjA2NDkxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF83NjU0OTgwOTYwNjQ5MTI=', 'date': '2025-08-27T00:28:23.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/nubia.cordero.50', 'profilePicture': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t39.30808-1/464433348_8354490364648783_6672355853241575500_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=D7JeD2ziHaoQ7kNvwHFB4aH&amp;_nc_oc=AdmlXDy9SMaNiXBpCUviG_SreXiPrOwocbDP4XN2Mpio-51teEBnzF0oNxOY1AW8HaM&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_AfbSxwlGTeGeNIF-nyl05WHX_CQAAL89p_7XbacumGDGnw&amp;oe=68D0785D', 'profileId': 'pfbid0z2xBEvgZzw3UBxosXH3N1xg42RrKjpaLJj4yV5q8pxk4uqDeyq3QZBp7af9B5fECl', 'profileName': 'Nubia Cordero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -11897,18 +11893,18 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>En bonos dé lactosuero</t>
+          <t>Amen amen 🙏</t>
         </is>
       </c>
       <c r="G217" s="2" t="n">
-        <v>45897.98400462963</v>
+        <v>45897.05189814815</v>
       </c>
       <c r="H217" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>23:36:58</t>
+          <t>01:14:44</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11925,7 +11921,7 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=2958933944294600', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzI5NTg5MzM5NDQyOTQ2MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yOTU4OTMzOTQ0Mjk0NjAw', 'date': '2025-08-28T23:36:58.000Z', 'text': 'En bonos dé lactosuero', 'profileUrl': 'https://www.facebook.com/fernandodejesus.roldanmedina', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/74599560_459031218061030_7009115240973467648_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nxjD5thSuRwQ7kNvwGxJPZi&amp;_nc_oc=AdmdrJ_X8sH9rHth_o6a8EN7u-7HBu1OYmxnxF7RqERuSodoSE-ZRIdyCnH1JMHYsvo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_AfZ2d036ENmY2iVO_JssmOcAYngeIiIocvcJxB45Gkg4og&amp;oe=68F1282C', 'profileId': 'pfbid02ScfrrkdsxAnbhsQViyxMZQ3Ejx8oRCHhhZMjzuztLhjA6CPP1BFoQLDafjKCsmeol', 'profileName': 'Fernando Dejesus Roldan Medina', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1962809447787635', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzE5NjI4MDk0NDc3ODc2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xOTYyODA5NDQ3Nzg3NjM1', 'date': '2025-08-28T01:14:44.000Z', 'text': 'Amen amen 🙏', 'profileUrl': 'https://www.facebook.com/cinibaldo.avilasotelo', 'profilePicture': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t39.30808-1/337399890_2598520576954804_3518188180563978852_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0U2tYlbKGisQ7kNvwG8yDzZ&amp;_nc_oc=AdmlranGuLMeyTLqEx5JECHWl3--HVfjzgf7MAStG6ucIsMMnKHlH9IJXQM7aYEhFr4&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_AfZMcozBtzCfvHKInbAW5n-WWMnm5JUE1M2DWfrVs3jSbQ&amp;oe=68D077BA', 'profileId': 'pfbid02vcxDK2oubVUe17oWw7SwfmGQiDXZ17Bjfg9Vkkf8X5chVaZBi5s5XRWGBxe254uBl', 'profileName': 'Cinibaldo Avila Sotelo', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -11951,18 +11947,18 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Que teso se pasó esa piscina sin ni siquiera sacar la cabeza  para respirar que SUPER humano</t>
+          <t>Por mi parte te dará diezmo tu madre</t>
         </is>
       </c>
       <c r="G218" s="2" t="n">
-        <v>45898.89039351852</v>
+        <v>45902.16675925926</v>
       </c>
       <c r="H218" s="3" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>21:22:10</t>
+          <t>04:00:08</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11979,7 +11975,7 @@
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=822492590226641', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzgyMjQ5MjU5MDIyNjY0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF84MjI0OTI1OTAyMjY2NDE=', 'date': '2025-08-29T21:22:10.000Z', 'text': 'Que teso se pasó esa piscina sin ni siquiera sacar la cabeza  para respirar que SUPER humano', 'profileUrl': 'https://www.facebook.com/gladys.ocampovelasquez', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/482019426_9935784143111782_7870094336133409706_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z_HyR_4bblMQ7kNvwHCBXwb&amp;_nc_oc=Adk7VrbLQWuGkyQPcIe6J_2Vk6lQJ9aZkbxM0qoknv2SVSmd-tKjYAnX3RCNIZAxrfg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_AfauiXIiH6Fyjn6OyDTX1FkE64yKeaf329xmxVfzpX7YSw&amp;oe=68CF7524', 'profileId': 'pfbid07kPMC1TBHKKWmEzX7ob4Yf7MJvtCmUam25XVugc4kQVuaXTgq6NUVZinYEAi1zt9l', 'profileName': 'Gladys Ocampo Velasquez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1317880313378263', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzEzMTc4ODAzMTMzNzgyNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMzE3ODgwMzEzMzc4MjYz', 'date': '2025-09-02T04:00:08.000Z', 'text': 'Por mi parte te dará diezmo tu madre', 'profileUrl': 'https://www.facebook.com/jeison.gremv', 'profilePicture': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t39.30808-1/227922140_4233834270040514_3423583614073821437_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=I-FPqYxtJdcQ7kNvwG8Q3AU&amp;_nc_oc=AdkMqWxsvUUbQf7wNTcyWlYGQ-tli3Mlaunc590FrhuLPAXv2Oa-Lef1SPr4UqvDh_Y&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_AfYb3wZNDT1rl9hXmj1QgSAl5lrhNttidr9qdfeIPeXnJw&amp;oe=68D09C74', 'profileId': 'pfbid026BxddSupqejc3Ma3wWZuAB4pP6DG9QJPPbgUdsg5kgtSqcjg81AAcUCrhzVYPYc3l', 'profileName': 'Jeison Rincon Sdvsf', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12005,18 +12001,18 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Bj</t>
+          <t>Jajajja Mi Chikis Trinquis🤣🤣🤣🤣🤣</t>
         </is>
       </c>
       <c r="G219" s="2" t="n">
-        <v>45897.12797453703</v>
+        <v>45897.7766550926</v>
       </c>
       <c r="H219" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>03:04:17</t>
+          <t>18:38:23</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -12033,7 +12029,7 @@
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=24964898946451389', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzI0OTY0ODk4OTQ2NDUxMzg5', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yNDk2NDg5ODk0NjQ1MTM4OQ==', 'date': '2025-08-28T03:04:17.000Z', 'text': 'Bj', 'profileUrl': 'https://www.facebook.com/irene.ramirez.743348', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwF5d6eS&amp;_nc_oc=AdnIsYCC7l9h4JvSDgRJeT8z3vawKFq1uVkQ5NgH1dZrVEcR72L2XBjaH4rxCkqd2Lw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfYe28rgQrnSjhGNinvNlGJbN7uE37p4-gdJEB7YuEjlgw&amp;oe=68F1233A', 'profileId': 'pfbid02xzfd2bXiGU5iEDCU3x6HGNdPKZdZjx7rSY7HYfoFkMFDh7JVxHjhJXKVwnPT9bAFl', 'profileName': 'Irene Ramirez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=619227981262280', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzYxOTIyNzk4MTI2MjI4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF82MTkyMjc5ODEyNjIyODA=', 'date': '2025-08-28T18:38:23.000Z', 'text': 'Jajajja Mi Chikis Trinquis🤣🤣🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/fabian.bayona.557183', 'profilePicture': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t39.30808-1/539367909_767540099202088_2070375379187107734_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RNjJXmFY7JcQ7kNvwGVaGe2&amp;_nc_oc=AdnDpHvo277qRu3vGnREAi-rHgthULLcmBy6Lu6kvTgAkX0StigISZxg5ikj8klmHzc&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_AfZA-TGmfrl-BNYvpqV9MqQ8GcpahCdMRYS7G9t-1eS9Yg&amp;oe=68D09FD6', 'profileId': '100078383156972', 'profileName': 'Fabian Bayona', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12059,23 +12055,23 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/profile.php?id=61567740453704&amp;mibextid=ZbWKwL</t>
+          <t>En bonos dé lactosuero</t>
         </is>
       </c>
       <c r="G220" s="2" t="n">
-        <v>45902.21217592592</v>
+        <v>45897.98400462963</v>
       </c>
       <c r="H220" s="3" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>05:05:32</t>
+          <t>23:36:58</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K220" t="n">
@@ -12087,7 +12083,7 @@
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=2350394328765006', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzIzNTAzOTQzMjg3NjUwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yMzUwMzk0MzI4NzY1MDA2', 'date': '2025-09-02T05:05:32.000Z', 'text': 'https://www.facebook.com/profile.php?id=61567740453704&amp;mibextid=ZbWKwL', 'attachments': [{'url': 'https://www.facebook.com/people/Caf%C3%A9GanoSalud/61567740453704/', 'source': None, 'title_with_entities': {'text': 'CaféGanoSalud'}, 'target': {'__typename': 'User', 'id': '61567740453704'}, 'action_links': [], 'media': {'__typename': 'ProfilePicAttachmentMedia', 'fallback_image': {'height': 100, 'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/515041267_122152897262591348_1665467544596160660_n.jpg?stp=dst-jpg_s100x100_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=f907e8&amp;_nc_ohc=DWSNFxVMDDoQ7kNvwGZFn9r&amp;_nc_oc=AdnyUzPOEsDaaM4vsFChj-4OjzrTwVk4OcAapUaG4eb5sqs_59jusMoXQC-o7EGai4w&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_AfZFQ-_1D3IKHX622h5ql05bWHkMO05XRELl86vYXN6vuA&amp;oe=68CF97F4', 'width': 100}, 'is_playable': False}, 'tracking': None}], 'profileUrl': 'https://www.facebook.com/felipe.rangel.716797', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/546422062_1512516880095500_144380655253868277_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x0DQ14_cZqoQ7kNvwE2wETP&amp;_nc_oc=AdlgStSPuC7IbV1ajqxaN0Ic-YsoWXoT61WpwFv6r8nR1n923RPXo_9XrSNOzSt9ePI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_AfYl53mMBgorEAayqAzEAJhy6wq_67JD5iCW3KGbxdaWbw&amp;oe=68CF9257', 'profileId': 'pfbid02NmZ7nhiKJ4LDMUbi3r28pLuWQ1MhvvKGXqDtX5r1aaG3rKaPzv3tNG7spqWa8zSpl', 'profileName': 'Felipe Rangel', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=2958933944294600', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzI5NTg5MzM5NDQyOTQ2MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yOTU4OTMzOTQ0Mjk0NjAw', 'date': '2025-08-28T23:36:58.000Z', 'text': 'En bonos dé lactosuero', 'profileUrl': 'https://www.facebook.com/fernandodejesus.roldanmedina', 'profilePicture': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t1.6435-1/74599560_459031218061030_7009115240973467648_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nxjD5thSuRwQ7kNvwHswZnR&amp;_nc_oc=AdmvQQveWXb3e6ruBZEnHTJLLPGvblpdFv04dKCGHpbsCUrvd0_sHSWA9vfNFhvU3yw&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_AfbrljChpF0dzTsm-X_Q-5Wo4Kgb8n4nqON-2YSwNLWYsw&amp;oe=68F2416C', 'profileId': 'pfbid02ScfrrkdsxAnbhsQViyxMZQ3Ejx8oRCHhhZMjzuztLhjA6CPP1BFoQLDafjKCsmeol', 'profileName': 'Fernando Dejesus Roldan Medina', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12111,16 +12107,20 @@
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Que teso se pasó esa piscina sin ni siquiera sacar la cabeza  para respirar que SUPER humano</t>
+        </is>
+      </c>
       <c r="G221" s="2" t="n">
-        <v>45897.72809027778</v>
+        <v>45898.89039351852</v>
       </c>
       <c r="H221" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>17:28:27</t>
+          <t>21:22:10</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12137,7 +12137,7 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=785696547306038', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0Xzc4NTY5NjU0NzMwNjAzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF83ODU2OTY1NDczMDYwMzg=', 'date': '2025-08-28T17:28:27.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.1997-6/514940247_10067184483371418_6571971317495021401_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=NIIqFklPov8Q7kNvwGWn9rK&amp;_nc_oc=AdkPaxntIvCg8CLlxtZGNIZxuocteNmlh7NpPZN9yYgMzmGwPgkV3nBlQlVBlzxxUsk&amp;_nc_zt=26&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_AfaaL06UHA0GPFpMs2PKyzA2MJcXnwhd6-ct8FgleJgBeg&amp;oe=68CF93E6', 'width': 120, 'height': 120}, 'id': '777910931279812'}], 'profileUrl': 'https://www.facebook.com/martha.herrera.948011', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/536275923_3188574451310186_1996496082865595930_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cfXWIKw8gVYQ7kNvwEvRJKm&amp;_nc_oc=AdlDCcnGMO58me6RwEA390BELW8pEV0UcdpE_iOD5VbENbfiy7o5cAPyOsPOgslZvAM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=5qbx-IJ_mg6_WCnrjOwVqA&amp;oh=00_Afbb-0sKUVeGGeBcPLMTJMgN4_TW5-zvsTnk7EngRgYtRQ&amp;oe=68CF9A70', 'profileId': 'pfbid0Lh6Yb9VxttnvLfCGN8jjQyGh5i8sHefUzuDuMF1haDnME1Xz545EMQxsRTLkx7Rol', 'profileName': 'Martha Patricia Herrera', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=822492590226641', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzgyMjQ5MjU5MDIyNjY0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF84MjI0OTI1OTAyMjY2NDE=', 'date': '2025-08-29T21:22:10.000Z', 'text': 'Que teso se pasó esa piscina sin ni siquiera sacar la cabeza  para respirar que SUPER humano', 'profileUrl': 'https://www.facebook.com/gladys.ocampovelasquez', 'profilePicture': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t39.30808-1/482019426_9935784143111782_7870094336133409706_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z_HyR_4bblMQ7kNvwH_DI4-&amp;_nc_oc=AdlG_482RAK6o2_9HqTnn2wPg6jMsAM-CFDd_S7QsxLRoTV-p7BBQi4FEnPujKqOy14&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_AfYeAKjeneFUABwgExsC2RyFvui1nMNMGZGG5GC-USJQ_g&amp;oe=68D08E64', 'profileId': 'pfbid02B7sXp2ooJxZxo9s4RJShedDftZXr643WfMsFzyU31NKQq7aytQhqvPZJwQVNuXg5l', 'profileName': 'Gladys Ocampo Velasquez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12163,23 +12163,23 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Toca es matar esas gonorreas que se creen que pues.... 🔫💥</t>
+          <t>Bj</t>
         </is>
       </c>
       <c r="G222" s="2" t="n">
-        <v>45902.51706018519</v>
+        <v>45897.12797453703</v>
       </c>
       <c r="H222" s="3" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>12:24:34</t>
+          <t>03:04:17</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K222" t="n">
@@ -12191,13 +12191,13 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1010116581122626', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzEwMTAxMTY1ODExMjI2MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMDEwMTE2NTgxMTIyNjI2', 'date': '2025-09-02T12:24:34.000Z', 'text': 'Toca es matar esas gonorreas que se creen que pues…. 🔫💥', 'profileUrl': 'https://www.facebook.com/M.veradi', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/469289898_9141700659183762_5293524939263993146_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=syIhn-QBBxsQ7kNvwETj6f_&amp;_nc_oc=AdlXd3GPrlFOYSPeYYoRJBLBzrKW_WVU_vF8a0eUES0K9v9a1oSHztyggJAR1teNGhY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=g9dFTb0w6m7A1ubG-vkzCg&amp;oh=00_AfZQO_inQVzObaWy3-vs-2hjfkRoc8-CAmBuQXmzb-3pzA&amp;oe=68CF917E', 'profileId': 'pfbid0neEKqYtyXL5B5YMQT5YPGaCn7U7ZGv9mDZrJQa6X3GRGN5JcCgTZxKSWrda11Qrnl', 'profileName': 'Maicol Vera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=24964898946451389', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzI0OTY0ODk4OTQ2NDUxMzg5', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yNDk2NDg5ODk0NjQ1MTM4OQ==', 'date': '2025-08-28T03:04:17.000Z', 'text': 'Bj', 'profileUrl': 'https://www.facebook.com/irene.ramirez.743348', 'profilePicture': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Sh0h5MnzbMAQ7kNvwFVjOLX&amp;_nc_oc=AdkzDxS6kAf6bTQb713OG_hz9j3P7sHc74Zjq842_t4SyoAHwNdi7ImT1FeNL65jxRA&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;oh=00_AfbrTNugzhT5oV1OfE_oQx0XD_eKD6o4OIfjCWdoh0RPDg&amp;oe=68F23C7A', 'profileId': 'pfbid02xzfd2bXiGU5iEDCU3x6HGNdPKZdZjx7rSY7HYfoFkMFDh7JVxHjhJXKVwnPT9bAFl', 'profileName': 'Irene Ramirez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -12211,16 +12211,30 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1176336844532061/?dco_ad_token=Aaruc96lxzeZ9Rec22yuREJkxJBjWHkhwVpsSvBAXTckhueaQwYzQKUMpnDDT3tu2FC_sBC1lqi20RHa&amp;dco_ad_id=120233155761890295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1176337131198699/?dco_ad_token=AaqMggo9she_oXbcU53r4SsXG3jH_6kQpXbuBX6XTs5dn-l7V-985swJcUxTM6MrdVnHBdSCvJBfvXnD&amp;dco_ad_id=120233154785120295</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>0</v>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61567740453704&amp;mibextid=ZbWKwL</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>45902.21217592592</v>
+      </c>
+      <c r="H223" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>05:05:32</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K223" t="n">
         <v>0</v>
@@ -12231,17 +12245,17 @@
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176336844532061/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=2350394328765006', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzIzNTAzOTQzMjg3NjUwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yMzUwMzk0MzI4NzY1MDA2', 'date': '2025-09-02T05:05:32.000Z', 'text': 'https://www.facebook.com/profile.php?id=61567740453704&amp;mibextid=ZbWKwL', 'attachments': [{'url': 'https://www.facebook.com/people/Caf%C3%A9GanoSalud/61567740453704/', 'source': None, 'title_with_entities': {'text': 'CaféGanoSalud'}, 'target': {'__typename': 'User', 'id': '61567740453704'}, 'action_links': [], 'media': {'__typename': 'ProfilePicAttachmentMedia', 'fallback_image': {'height': 100, 'uri': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t39.30808-1/515041267_122152897262591348_1665467544596160660_n.jpg?stp=dst-jpg_s100x100_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=f907e8&amp;_nc_ohc=GTGuw-vNht8Q7kNvwEh8GPl&amp;_nc_oc=Adn6XZ7BTjlwZ32eRtQxrStLUNAbnN-YMUkwH16zfLtto7csa4Xu89xP6Kh0kxmwm7Q&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_Afa2YT_XIaG_SvsMOaeRLV7uoIBpqpmURBMqR611f7bInQ&amp;oe=68D078F4', 'width': 100}, 'is_playable': False}, 'tracking': None}], 'profileUrl': 'https://www.facebook.com/felipe.rangel.716797', 'profilePicture': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t39.30808-1/546422062_1512516880095500_144380655253868277_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x0DQ14_cZqoQ7kNvwElxvum&amp;_nc_oc=AdkdZCcsDOQ3h7IsfPvParg06-AMKyt-qfniADnlqP6GKfjlqrNp0DqIS1NnMjzSHsA&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_AfYbb6R4s8Ba1eJ1E2_2woc737ZViXyAVMKUNNnQrknG6Q&amp;oe=68D0AB97', 'profileId': 'pfbid02NmZ7nhiKJ4LDMUbi3r28pLuWQ1MhvvKGXqDtX5r1aaG3rKaPzv3tNG7spqWa8zSpl', 'profileName': 'Felipe Rangel', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -12251,28 +12265,26 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545531175264144658?_r=1&amp;_t=ZS-8zmBxpXxaMB</t>
+          <t>https://www.facebook.com/100064672685926/posts/1176337131198699/?dco_ad_token=AaqMggo9she_oXbcU53r4SsXG3jH_6kQpXbuBX6XTs5dn-l7V-985swJcUxTM6MrdVnHBdSCvJBfvXnD&amp;dco_ad_id=120233154785120295</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>🥰</t>
-        </is>
-      </c>
+      <c r="F224" t="inlineStr"/>
       <c r="G224" s="2" t="n">
-        <v>45906.92133101852</v>
+        <v>45897.72809027778</v>
       </c>
       <c r="H224" s="3" t="n">
-        <v>45906</v>
+        <v>45897</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>22:06:43</t>
-        </is>
-      </c>
-      <c r="J224" t="n">
-        <v>0</v>
+          <t>17:28:27</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -12280,24 +12292,20 @@
       <c r="L224" t="b">
         <v>0</v>
       </c>
-      <c r="M224" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547100981442315016', 'createTime': 1757196403, 'createTimeISO': '2025-09-06T22:06:43.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7358668053859943430', 'uniqueId': 'valentinairiarte78', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/60e127df71d253559e6fd5bdd2019a6a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8bccf8b8&amp;x-expires=1758132000&amp;x-signature=lEFN6UlExx5uPKUi7CQvuQk0%2BEU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=785696547306038', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0Xzc4NTY5NjU0NzMwNjAzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF83ODU2OTY1NDczMDYwMzg=', 'date': '2025-08-28T17:28:27.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t39.1997-6/514940247_10067184483371418_6571971317495021401_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=NIIqFklPov8Q7kNvwG1KYc8&amp;_nc_oc=Adn0KtMEwP7GTeEpOHixgr3V3DA1u2kXppKifLyoRSF3CoPJmhaWjVbBpPGwrGNRvg0&amp;_nc_zt=26&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_Afab6P-EvVcyPCJqW-ufWsDKammq9TqVZO85yIVpwhRekg&amp;oe=68D0AD26', 'width': 120, 'height': 120}, 'id': '777910931279812'}], 'profileUrl': 'https://www.facebook.com/martha.herrera.948011', 'profilePicture': 'https://scontent.flnk2-1.fna.fbcdn.net/v/t39.30808-1/536275923_3188574451310186_1996496082865595930_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cfXWIKw8gVYQ7kNvwFZr1at&amp;_nc_oc=AdlWLr8XiuQYEu6xaYPwAsQLeD5__DS_UJtQqaeNQyffb4jySetxSZxbPt9GpEn-k9U&amp;_nc_zt=24&amp;_nc_ht=scontent.flnk2-1.fna&amp;_nc_gid=sSKJr1MiclpJ8cbVvX1zdw&amp;oh=00_AfaEV3kxWJDAbNF-yqMqopyuumzcdzhKUwDSKaVEAogJ9A&amp;oe=68D07B70', 'profileId': 'pfbid02Q4ajDAravWmBKqtKwS43R1CPZs1HjgL9dsvZ77GAE98BD2SuECSgEdqxPV3qrTRLl', 'profileName': 'Martha Patricia Herrera', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -12307,28 +12315,30 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545531175264144658?_r=1&amp;_t=ZS-8zmBxpXxaMB</t>
+          <t>https://www.facebook.com/100064672685926/posts/1176337131198699/?dco_ad_token=AaqMggo9she_oXbcU53r4SsXG3jH_6kQpXbuBX6XTs5dn-l7V-985swJcUxTM6MrdVnHBdSCvJBfvXnD&amp;dco_ad_id=120233154785120295</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>Toca es matar esas gonorreas que se creen que pues.... 🔫💥</t>
         </is>
       </c>
       <c r="G225" s="2" t="n">
-        <v>45906.92131944445</v>
+        <v>45902.51706018519</v>
       </c>
       <c r="H225" s="3" t="n">
-        <v>45906</v>
+        <v>45902</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>22:06:42</t>
-        </is>
-      </c>
-      <c r="J225" t="n">
-        <v>0</v>
+          <t>12:24:34</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -12336,24 +12346,20 @@
       <c r="L225" t="b">
         <v>0</v>
       </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547101006010712850', 'createTime': 1757196402, 'createTimeISO': '2025-09-06T22:06:42.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7358668053859943430', 'uniqueId': 'valentinairiarte78', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/60e127df71d253559e6fd5bdd2019a6a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8bccf8b8&amp;x-expires=1758132000&amp;x-signature=lEFN6UlExx5uPKUi7CQvuQk0%2BEU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1010116581122626', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzEwMTAxMTY1ODExMjI2MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMDEwMTE2NTgxMTIyNjI2', 'date': '2025-09-02T12:24:34.000Z', 'text': 'Toca es matar esas gonorreas que se creen que pues…. 🔫💥', 'profileUrl': 'https://www.facebook.com/M.veradi', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/469289898_9141700659183762_5293524939263993146_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=syIhn-QBBxsQ7kNvwGlAUMz&amp;_nc_oc=AdnB6CTMyWQwEi7ofBDZpFd0QFCrbXgpu96X8LhaqcMAwZjTiBMRi8ArUcgnD3DubBw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=dcO62JqLdD8l21nrOGEqiA&amp;oh=00_AfYJyFjIhq1Vk01qqDU7l8y1NSY6OsPpVqFHv9QrFXw9TQ&amp;oe=68D0AABE', 'profileId': 'pfbid0neEKqYtyXL5B5YMQT5YPGaCn7U7ZGv9mDZrJQa6X3GRGN5JcCgTZxKSWrda11Qrnl', 'profileName': 'Maicol Vera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -12363,26 +12369,14 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545531175264144658?_r=1&amp;_t=ZS-8zmBxpXxaMB</t>
+          <t>https://www.facebook.com/100064672685926/posts/1176336844532061/?dco_ad_token=Aaruc96lxzeZ9Rec22yuREJkxJBjWHkhwVpsSvBAXTckhueaQwYzQKUMpnDDT3tu2FC_sBC1lqi20RHa&amp;dco_ad_id=120233155761890295</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>😂</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="n">
-        <v>45906.64163194445</v>
-      </c>
-      <c r="H226" s="3" t="n">
-        <v>45906</v>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>15:23:57</t>
-        </is>
-      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>0</v>
       </c>
@@ -12392,14 +12386,10 @@
       <c r="L226" t="b">
         <v>0</v>
       </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7546997270815408914', 'createTime': 1757172237, 'createTimeISO': '2025-09-06T15:23:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7432420283090945029', 'uniqueId': 'dylan.david992', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cdc6f662b012226ad4703c41701e72ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c8f09b9&amp;x-expires=1758132000&amp;x-signature=T9yYruwpBwb74v5MxOcAzGO%2BSR8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176336844532061/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -12429,14 +12419,14 @@
         </is>
       </c>
       <c r="G227" s="2" t="n">
-        <v>45905.52364583333</v>
+        <v>45906.92133101852</v>
       </c>
       <c r="H227" s="3" t="n">
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>12:34:03</t>
+          <t>22:06:43</t>
         </is>
       </c>
       <c r="J227" t="n">
@@ -12455,7 +12445,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7546582391689020178', 'createTime': 1757075643, 'createTimeISO': '2025-09-05T12:34:03.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155295694504870918', 'uniqueId': 'jeidith09', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c7048b01e7e3dc817e1bb66c7e2d6161~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f38d5348&amp;x-expires=1758132000&amp;x-signature=i0QoZ1IBT7lWKXj15vehzGKDi8w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547100981442315016', 'createTime': 1757196403, 'createTimeISO': '2025-09-06T22:06:43.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7358668053859943430', 'uniqueId': 'valentinairiarte78', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/60e127df71d253559e6fd5bdd2019a6a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cda92eb5&amp;x-expires=1758204000&amp;x-signature=oRvy4AkEg3vQCNdsXQkQs4VJF7M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12481,18 +12471,18 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G228" s="2" t="n">
-        <v>45910.64380787037</v>
+        <v>45906.92131944445</v>
       </c>
       <c r="H228" s="3" t="n">
-        <v>45910</v>
+        <v>45906</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>15:27:05</t>
+          <t>22:06:42</t>
         </is>
       </c>
       <c r="J228" t="n">
@@ -12511,7 +12501,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7548482386813240081', 'createTime': 1757518025, 'createTimeISO': '2025-09-10T15:27:05.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6721877685993751557', 'uniqueId': 'teo_145', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7326029631846318085~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31adc162&amp;x-expires=1758132000&amp;x-signature=%2B%2FxxhVgHi%2BQnf2XoMCSnHZjUjkw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547101006010712850', 'createTime': 1757196402, 'createTimeISO': '2025-09-06T22:06:42.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7358668053859943430', 'uniqueId': 'valentinairiarte78', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/60e127df71d253559e6fd5bdd2019a6a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cda92eb5&amp;x-expires=1758204000&amp;x-signature=oRvy4AkEg3vQCNdsXQkQs4VJF7M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12537,18 +12527,18 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>✨</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G229" s="2" t="n">
-        <v>45907.14935185185</v>
+        <v>45906.64163194445</v>
       </c>
       <c r="H229" s="3" t="n">
-        <v>45907</v>
+        <v>45906</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>03:35:04</t>
+          <t>15:23:57</t>
         </is>
       </c>
       <c r="J229" t="n">
@@ -12567,13 +12557,13 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547185672164328199', 'createTime': 1757216104, 'createTimeISO': '2025-09-07T03:35:04.000Z', 'text': '✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246848051204473861', 'uniqueId': 'nata_visual', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c3dc3ecf5401382e7fe8f55726e29823~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=35fec1a1&amp;x-expires=1758132000&amp;x-signature=81UlaUc8gcHXJQPNaOx8GZ%2F3RXQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7546997270815408914', 'createTime': 1757172237, 'createTimeISO': '2025-09-06T15:23:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7432420283090945029', 'uniqueId': 'dylan.david992', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cdc6f662b012226ad4703c41701e72ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8211a064&amp;x-expires=1758204000&amp;x-signature=Tz8Kv9g4i7a4os7wHH%2BczQ7KmpU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -12587,24 +12577,24 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545536081081715986?_r=1&amp;_t=ZS-8zmBohiJNWk</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545531175264144658?_r=1&amp;_t=ZS-8zmBxpXxaMB</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>la mindiva cuando se embarace🫃🏻</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G230" s="2" t="n">
-        <v>45916.03368055556</v>
+        <v>45905.52364583333</v>
       </c>
       <c r="H230" s="3" t="n">
-        <v>45916</v>
+        <v>45905</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>00:48:30</t>
+          <t>12:34:03</t>
         </is>
       </c>
       <c r="J230" t="n">
@@ -12623,13 +12613,13 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550482463694111508', 'createTime': 1757983710, 'createTimeISO': '2025-09-16T00:48:30.000Z', 'text': 'la mindiva cuando se embarace\U0001fac3🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6971541913318065157', 'uniqueId': 'kiwiranarespaldo', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/12e2b38f8a37bd688f863bf50514ee50~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3f88cd39&amp;x-expires=1758132000&amp;x-signature=E0Wz2OsiD1GtF96b82FK6DSu%2F80%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7546582391689020178', 'createTime': 1757075643, 'createTimeISO': '2025-09-05T12:34:03.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155295694504870918', 'uniqueId': 'jeidith09', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c7048b01e7e3dc817e1bb66c7e2d6161~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e113af01&amp;x-expires=1758204000&amp;x-signature=kIXLXuCAPs%2FAM0OD370rb4mt8Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -12643,28 +12633,28 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545536081081715986?_r=1&amp;_t=ZS-8zmBohiJNWk</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545531175264144658?_r=1&amp;_t=ZS-8zmBxpXxaMB</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>jajaja jajaja lo amoooo🥰</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G231" s="2" t="n">
-        <v>45904.02359953704</v>
+        <v>45917.4969212963</v>
       </c>
       <c r="H231" s="3" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>00:33:59</t>
+          <t>11:55:34</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -12679,13 +12669,13 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546025738273587976', 'createTime': 1756946039, 'createTimeISO': '2025-09-04T00:33:59.000Z', 'text': 'jajaja jajaja lo amoooo🥰', 'diggCount': 19, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6843509781417329670', 'uniqueId': 'eddymoncada0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a6f746b18e9a20db68637b1bc8a17f17~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=5085b1b1&amp;x-expires=1758132000&amp;x-signature=uKf8HsGOOKtm8Y%2B9fsmun2Rxmpk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551025494327591698', 'createTime': 1758110134, 'createTimeISO': '2025-09-17T11:55:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686951262796448773', 'uniqueId': 'ferneycasanova943', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7726b8745322c6ffc1d6d9b7cea7e919~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8ee35f40&amp;x-expires=1758204000&amp;x-signature=jrJQm39w9vPiIHz0tPEgeB7vwEM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -12699,28 +12689,28 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545536081081715986?_r=1&amp;_t=ZS-8zmBohiJNWk</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545531175264144658?_r=1&amp;_t=ZS-8zmBxpXxaMB</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>yo la amo🥰🥰🥰</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G232" s="2" t="n">
-        <v>45904.04677083333</v>
+        <v>45910.64380787037</v>
       </c>
       <c r="H232" s="3" t="n">
-        <v>45904</v>
+        <v>45910</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>01:07:21</t>
+          <t>15:27:05</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -12735,13 +12725,13 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546034302162486032', 'createTime': 1756948041, 'createTimeISO': '2025-09-04T01:07:21.000Z', 'text': 'yo la amo🥰🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6795904690741167110', 'uniqueId': 'sandranoguera69', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7335740007803518982~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=a7473580&amp;x-expires=1758132000&amp;x-signature=h5uYvKolkOnokEI8asTxwEmfAmM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7548482386813240081', 'createTime': 1757518025, 'createTimeISO': '2025-09-10T15:27:05.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6721877685993751557', 'uniqueId': 'teo_145', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7326029631846318085~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=47f72070&amp;x-expires=1758204000&amp;x-signature=aAi%2FHpB7V5gdpW1h4A%2BDwz1SW7A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -12755,28 +12745,28 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545536081081715986?_r=1&amp;_t=ZS-8zmBohiJNWk</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545531175264144658?_r=1&amp;_t=ZS-8zmBxpXxaMB</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Dios alguna colaboración con productos de cabello 🥰😂me encantas sus videos</t>
+          <t>✨</t>
         </is>
       </c>
       <c r="G233" s="2" t="n">
-        <v>45906.7237037037</v>
+        <v>45907.14935185185</v>
       </c>
       <c r="H233" s="3" t="n">
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>17:22:08</t>
+          <t>03:35:04</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -12791,7 +12781,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547027727275213575', 'createTime': 1757179328, 'createTimeISO': '2025-09-06T17:22:08.000Z', 'text': 'Dios alguna colaboración con productos de cabello 🥰😂me encantas sus videos', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7408697910886335494', 'uniqueId': 'diario_amoratuesencia', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/cdd35b1982a3f4e54b5f09b322d6c1cb~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=b608c81c&amp;x-expires=1758132000&amp;x-signature=W1mwytLBc4FTHew%2B%2FJEFgHBEJEg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547185672164328199', 'createTime': 1757216104, 'createTimeISO': '2025-09-07T03:35:04.000Z', 'text': '✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246848051204473861', 'uniqueId': 'nata_visual', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c3dc3ecf5401382e7fe8f55726e29823~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ca6707c7&amp;x-expires=1758204000&amp;x-signature=Udc23eZTSNhANQ5L26kVegrjsEE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12817,22 +12807,22 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>uff bella😳</t>
+          <t>jajaja jajaja lo amoooo🥰</t>
         </is>
       </c>
       <c r="G234" s="2" t="n">
-        <v>45904.21774305555</v>
+        <v>45904.02359953704</v>
       </c>
       <c r="H234" s="3" t="n">
         <v>45904</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>05:13:33</t>
+          <t>00:33:59</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -12847,7 +12837,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546097800262615816', 'createTime': 1756962813, 'createTimeISO': '2025-09-04T05:13:33.000Z', 'text': 'uff bella😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7145117659229897734', 'uniqueId': 'yesidwwmvgk', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/58f3fdb8af91187edcc96cb95cf5a6be~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=a9f23b64&amp;x-expires=1758132000&amp;x-signature=sdLqE57qd1GCBGHuAn%2FAycB2eoU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546025738273587976', 'createTime': 1756946039, 'createTimeISO': '2025-09-04T00:33:59.000Z', 'text': 'jajaja jajaja lo amoooo🥰', 'diggCount': 20, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6843509781417329670', 'uniqueId': 'eddymoncada0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6f746b18e9a20db68637b1bc8a17f17~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=283ac529&amp;x-expires=1758204000&amp;x-signature=YzyZ2bC%2Bzb6jPGmzgbXEMXaQz%2B0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12873,22 +12863,22 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>jajajaja</t>
+          <t>Dios alguna colaboración con productos de cabello 🥰😂me encantas sus videos</t>
         </is>
       </c>
       <c r="G235" s="2" t="n">
-        <v>45912.035625</v>
+        <v>45906.7237037037</v>
       </c>
       <c r="H235" s="3" t="n">
-        <v>45912</v>
+        <v>45906</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>00:51:18</t>
+          <t>17:22:08</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -12903,7 +12893,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7548998829536133909', 'createTime': 1757638278, 'createTimeISO': '2025-09-12T00:51:18.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912517303940039686', 'uniqueId': 'ziomi293', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f29081993d58f9249ae13560db23600d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f2d86fd7&amp;x-expires=1758132000&amp;x-signature=yNt7z5HkUyYL9Bg6VkpZRAatONo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547027727275213575', 'createTime': 1757179328, 'createTimeISO': '2025-09-06T17:22:08.000Z', 'text': 'Dios alguna colaboración con productos de cabello 🥰😂me encantas sus videos', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7408697910886335494', 'uniqueId': 'diario_amoratuesencia', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/cdd35b1982a3f4e54b5f09b322d6c1cb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7f217e0&amp;x-expires=1758204000&amp;x-signature=OUMq4d%2BWvWSIANr%2F2AbXIDhifdY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12929,18 +12919,18 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Ella o elle</t>
+          <t>la mindiva cuando se embarace🫃🏻</t>
         </is>
       </c>
       <c r="G236" s="2" t="n">
-        <v>45905.02600694444</v>
+        <v>45916.03368055556</v>
       </c>
       <c r="H236" s="3" t="n">
-        <v>45905</v>
+        <v>45916</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>00:37:27</t>
+          <t>00:48:30</t>
         </is>
       </c>
       <c r="J236" t="n">
@@ -12959,7 +12949,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546397683633537799', 'createTime': 1757032647, 'createTimeISO': '2025-09-05T00:37:27.000Z', 'text': 'Ella o elle', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7377669743136228357', 'uniqueId': 'osca.ruiz18', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0bf24727a90b74f7912fddb38a794ed5~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=4cff9ac4&amp;x-expires=1758132000&amp;x-signature=MqPsZYFGZJ6m%2FIQlAV8PruYwX60%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550482463694111508', 'createTime': 1757983710, 'createTimeISO': '2025-09-16T00:48:30.000Z', 'text': 'la mindiva cuando se embarace\U0001fac3🏻', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6971541913318065157', 'uniqueId': 'kiwiranarespaldo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/12e2b38f8a37bd688f863bf50514ee50~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7918fec9&amp;x-expires=1758204000&amp;x-signature=fr3G%2FBbA4nNQikiVUEKaq%2FynYSI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12985,22 +12975,22 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Se ha descuidado bastante, no está conectada con energía femenina JAJAJAJA</t>
+          <t>uff bella😳</t>
         </is>
       </c>
       <c r="G237" s="2" t="n">
-        <v>45905.47608796296</v>
+        <v>45904.21774305555</v>
       </c>
       <c r="H237" s="3" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>11:25:34</t>
+          <t>05:13:33</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -13015,7 +13005,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546564749291815698', 'createTime': 1757071534, 'createTimeISO': '2025-09-05T11:25:34.000Z', 'text': 'Se ha descuidado bastante, no está conectada con energía femenina JAJAJAJA', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046864850069799941', 'uniqueId': 'la_lita123', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/83196dc4bf893efaa46906cb8dc3955a~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=5d257ea0&amp;x-expires=1758132000&amp;x-signature=b85nw8I8hOUNWBpuUEII%2FrUCfw4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546097800262615816', 'createTime': 1756962813, 'createTimeISO': '2025-09-04T05:13:33.000Z', 'text': 'uff bella😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7145117659229897734', 'uniqueId': 'yesidwwmvgk', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/58f3fdb8af91187edcc96cb95cf5a6be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ffd64878&amp;x-expires=1758204000&amp;x-signature=d%2BPvclEYx6BasD9Wj6YRjY2LMgw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13041,22 +13031,22 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>@Alexandra Berrio Gra @A.G 🦋</t>
+          <t>jajajaja</t>
         </is>
       </c>
       <c r="G238" s="2" t="n">
-        <v>45903.23967592593</v>
+        <v>45912.035625</v>
       </c>
       <c r="H238" s="3" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>05:45:08</t>
+          <t>00:51:18</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -13071,7 +13061,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545734822641287937', 'createTime': 1756878308, 'createTimeISO': '2025-09-03T05:45:08.000Z', 'text': '@Alexandra Berrio Gra @A.G 🦋', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6608011736459296774', 'uniqueId': 'gaviriaolgalu', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/b92f01e85131002c68f9db56f8fbada1~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=b8491e18&amp;x-expires=1758132000&amp;x-signature=GVeeFAG7aYRslhFeVTK1De9G3nY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': ['@Alexandra Berrio Gra', '@A.G 🦋'], 'detailedMentions': [{'userId': '6913978098741969926', 'nickName': 'Alexandra Berrio Gra', 'profileUrl': 'https://www.tiktok.com/@6913978098741969926', 'secUid': 'MS4wLjABAAAA1k4IzS4Y_6Da2a1HCLX9xI2LAvg9pMyNmU4ZCxBc_VoyOMRhQ7XEsiWAMwkL7SH8'}, {'userId': '6908424209359455237', 'nickName': 'A.G 🦋', 'profileUrl': 'https://www.tiktok.com/@6908424209359455237', 'secUid': 'MS4wLjABAAAAoPolos3YlAIXdIen4zKfB-ZyUdWYXulhpKbtYgoEX7fXq7TMTIlyMQDFhaI3BdLQ'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7548998829536133909', 'createTime': 1757638278, 'createTimeISO': '2025-09-12T00:51:18.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912517303940039686', 'uniqueId': 'ziomi293', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f29081993d58f9249ae13560db23600d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=20d4f858&amp;x-expires=1758204000&amp;x-signature=UJLnjyOXpjZTmippN%2Bhj8sAyVqw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13097,22 +13087,22 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>👍🏻</t>
+          <t>yo la amo🥰🥰🥰</t>
         </is>
       </c>
       <c r="G239" s="2" t="n">
-        <v>45915.94659722222</v>
+        <v>45904.04677083333</v>
       </c>
       <c r="H239" s="3" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>22:43:06</t>
+          <t>01:07:21</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -13127,7 +13117,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550450159071855376', 'createTime': 1757976186, 'createTimeISO': '2025-09-15T22:43:06.000Z', 'text': '👍🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7361873239523525638', 'uniqueId': 'esquivel.ibaez', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7388274832960503813~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1b6725bc&amp;x-expires=1758132000&amp;x-signature=Bx9ZQtKYEQxREdmiyzm8sGbFzYg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546034302162486032', 'createTime': 1756948041, 'createTimeISO': '2025-09-04T01:07:21.000Z', 'text': 'yo la amo🥰🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6795904690741167110', 'uniqueId': 'sandranoguera69', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7335740007803518982~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=edd0a1d7&amp;x-expires=1758204000&amp;x-signature=d%2FvPy8RqeKKjJxosMZoXCKToPPQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13153,22 +13143,22 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>Ella o elle</t>
         </is>
       </c>
       <c r="G240" s="2" t="n">
-        <v>45907.66957175926</v>
+        <v>45905.02600694444</v>
       </c>
       <c r="H240" s="3" t="n">
-        <v>45907</v>
+        <v>45905</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>16:04:11</t>
+          <t>00:37:27</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -13183,7 +13173,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547378713027412754', 'createTime': 1757261051, 'createTimeISO': '2025-09-07T16:04:11.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6833140688231859206', 'uniqueId': 'elisusi29', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1345745567d7c8fffe3c836064eca8a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=18464b2b&amp;x-expires=1758132000&amp;x-signature=aEHe3IU6M33gxdg07nIUgGUoRwQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546397683633537799', 'createTime': 1757032647, 'createTimeISO': '2025-09-05T00:37:27.000Z', 'text': 'Ella o elle', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7377669743136228357', 'uniqueId': 'osca.ruiz18', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0bf24727a90b74f7912fddb38a794ed5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d539b148&amp;x-expires=1758204000&amp;x-signature=fTahICNuw0XZu2cQCbkvX4aUHxk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13209,22 +13199,22 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>Se ha descuidado bastante, no está conectada con energía femenina JAJAJAJA</t>
         </is>
       </c>
       <c r="G241" s="2" t="n">
-        <v>45912.82488425926</v>
+        <v>45905.47608796296</v>
       </c>
       <c r="H241" s="3" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>19:47:50</t>
+          <t>11:25:34</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -13239,7 +13229,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7549291734821044999', 'createTime': 1757706470, 'createTimeISO': '2025-09-12T19:47:50.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197396568453858310', 'uniqueId': 'yolanda.rosero..25', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=e2fd8454&amp;x-expires=1758132000&amp;x-signature=z6M%2BRRGpY89CwW3mieG6f%2B8PhTQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546564749291815698', 'createTime': 1757071534, 'createTimeISO': '2025-09-05T11:25:34.000Z', 'text': 'Se ha descuidado bastante, no está conectada con energía femenina JAJAJAJA', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046864850069799941', 'uniqueId': 'la_lita123', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/83196dc4bf893efaa46906cb8dc3955a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=174a8c28&amp;x-expires=1758204000&amp;x-signature=w50vdtLbR94uI39%2FtDikWr4gU5I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13265,22 +13255,22 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>@Alexandra Berrio Gra @A.G 🦋</t>
         </is>
       </c>
       <c r="G242" s="2" t="n">
-        <v>45908.81203703704</v>
+        <v>45903.23967592593</v>
       </c>
       <c r="H242" s="3" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>19:29:20</t>
+          <t>05:45:08</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -13295,7 +13285,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547802661811208980', 'createTime': 1757359760, 'createTimeISO': '2025-09-08T19:29:20.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809678797618971654', 'uniqueId': 'ricardo_04_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/80a78e18c2efcba6d5deda78bfc8603e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=3f415a61&amp;x-expires=1758132000&amp;x-signature=hEjY0kk9XhgIhn62hvrEqnbWJuQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545734822641287937', 'createTime': 1756878308, 'createTimeISO': '2025-09-03T05:45:08.000Z', 'text': '@Alexandra Berrio Gra @A.G 🦋', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6608011736459296774', 'uniqueId': 'gaviriaolgalu', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b92f01e85131002c68f9db56f8fbada1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4a89e6d6&amp;x-expires=1758204000&amp;x-signature=GN6OK3LWaDuOqG3txztcNrjfVRc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alexandra Berrio Gra', '@A.G 🦋'], 'detailedMentions': [{'userId': '6913978098741969926', 'nickName': 'Alexandra Berrio Gra', 'profileUrl': 'https://www.tiktok.com/@6913978098741969926', 'secUid': 'MS4wLjABAAAA1k4IzS4Y_6Da2a1HCLX9xI2LAvg9pMyNmU4ZCxBc_VoyOMRhQ7XEsiWAMwkL7SH8'}, {'userId': '6908424209359455237', 'nickName': 'A.G 🦋', 'profileUrl': 'https://www.tiktok.com/@6908424209359455237', 'secUid': 'MS4wLjABAAAAoPolos3YlAIXdIen4zKfB-ZyUdWYXulhpKbtYgoEX7fXq7TMTIlyMQDFhaI3BdLQ'}]}</t>
         </is>
       </c>
     </row>
@@ -13321,18 +13311,18 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>😅😂😅😂😅😂😅😂😅😂</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G243" s="2" t="n">
-        <v>45908.88170138889</v>
+        <v>45911.56244212963</v>
       </c>
       <c r="H243" s="3" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>21:09:39</t>
+          <t>13:29:55</t>
         </is>
       </c>
       <c r="J243" t="n">
@@ -13351,7 +13341,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547828497968874261', 'createTime': 1757365779, 'createTimeISO': '2025-09-08T21:09:39.000Z', 'text': '😅😂😅😂😅😂😅😂😅😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923401090465874950', 'uniqueId': 'kaamila.27', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f2b043116bd9bf5105d385b9135a91d6~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=029f96e8&amp;x-expires=1758132000&amp;x-signature=KVMaY6UwYzOMQyqgViC%2FxDlpcwI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7548823307437916936', 'createTime': 1757597395, 'createTimeISO': '2025-09-11T13:29:55.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246554016846709765', 'uniqueId': 'jenn50012', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/51a0473a45bec8820863507d5416f2f9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e6b2cf2&amp;x-expires=1758204000&amp;x-signature=kazIc0VuOSBp%2BmfjU%2BuTkr%2Fdffw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13377,18 +13367,18 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>🤣🤣🤣</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G244" s="2" t="n">
-        <v>45903.1565625</v>
+        <v>45907.66957175926</v>
       </c>
       <c r="H244" s="3" t="n">
-        <v>45903</v>
+        <v>45907</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>03:45:27</t>
+          <t>16:04:11</t>
         </is>
       </c>
       <c r="J244" t="n">
@@ -13407,7 +13397,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545703981814530824', 'createTime': 1756871127, 'createTimeISO': '2025-09-03T03:45:27.000Z', 'text': '🤣🤣🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7109990555966620678', 'uniqueId': 'wwwyibis.avila.gmail.com', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7fc00513e7693d503519d5d9487f9d5d~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=8eeab51f&amp;x-expires=1758132000&amp;x-signature=Kp2ulfiRd8aD%2FZPAMmZ5roHfFD8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547378713027412754', 'createTime': 1757261051, 'createTimeISO': '2025-09-07T16:04:11.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6833140688231859206', 'uniqueId': 'elisusi29', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/1345745567d7c8fffe3c836064eca8a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3b43d931&amp;x-expires=1758204000&amp;x-signature=2sxLIO0om%2BRLSglIaSqrQ0x4fDs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13437,14 +13427,14 @@
         </is>
       </c>
       <c r="G245" s="2" t="n">
-        <v>45908.81130787037</v>
+        <v>45912.82488425926</v>
       </c>
       <c r="H245" s="3" t="n">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>19:28:17</t>
+          <t>19:47:50</t>
         </is>
       </c>
       <c r="J245" t="n">
@@ -13463,7 +13453,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547802344055685904', 'createTime': 1757359697, 'createTimeISO': '2025-09-08T19:28:17.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7456202778551518214', 'uniqueId': 'camacho_..1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/5ee71b4776cf0b2ae9e290e98507aa6b~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=2e93351f&amp;x-expires=1758132000&amp;x-signature=7ZmD6TJmVoPSV6%2FLpLg9DkQxyPc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7549291734821044999', 'createTime': 1757706470, 'createTimeISO': '2025-09-12T19:47:50.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197396568453858310', 'uniqueId': 'yolanda.rosero..25', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e6c9ece1&amp;x-expires=1758204000&amp;x-signature=%2BP9Pd3%2Bt5dMRXbPFOQpVgKTRjEc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13489,18 +13479,18 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😏</t>
         </is>
       </c>
       <c r="G246" s="2" t="n">
-        <v>45905.72173611111</v>
+        <v>45902.76243055556</v>
       </c>
       <c r="H246" s="3" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>17:19:18</t>
+          <t>18:17:54</t>
         </is>
       </c>
       <c r="J246" t="n">
@@ -13519,7 +13509,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546655910278693639', 'createTime': 1757092758, 'createTimeISO': '2025-09-05T17:19:18.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7182314054235489285', 'uniqueId': 'maicol.amaya4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7359184790438248453~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=707b1e2c&amp;x-expires=1758132000&amp;x-signature=2DNk%2B4aI3E2lbMvwvnrvDM2qGeo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545557749674017543', 'createTime': 1756837074, 'createTimeISO': '2025-09-02T18:17:54.000Z', 'text': '😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7160324190766859270', 'uniqueId': 'angie7.joaqui', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7302545795801153542~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0e1597dd&amp;x-expires=1758204000&amp;x-signature=SAotRHVLss2DHDIairTqBtSCHlk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13545,18 +13535,18 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G247" s="2" t="n">
-        <v>45907.39456018519</v>
+        <v>45908.81203703704</v>
       </c>
       <c r="H247" s="3" t="n">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>09:28:10</t>
+          <t>19:29:20</t>
         </is>
       </c>
       <c r="J247" t="n">
@@ -13575,7 +13565,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547276647496336135', 'createTime': 1757237290, 'createTimeISO': '2025-09-07T09:28:10.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532217903690597384', 'uniqueId': 'kevin.obando944', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9e28bb84b3cfdc3c59c758e27a6f8ac7~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1bb7d033&amp;x-expires=1758132000&amp;x-signature=%2F67IAhHztJrVE89AKKOfFdoBIQA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547802661811208980', 'createTime': 1757359760, 'createTimeISO': '2025-09-08T19:29:20.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809678797618971654', 'uniqueId': 'ricardo_04_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/80a78e18c2efcba6d5deda78bfc8603e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ace66db7&amp;x-expires=1758204000&amp;x-signature=p23tXRaw7Mw392i5g%2FFbdydOvf0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13601,18 +13591,18 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>🤣🤣🤣</t>
         </is>
       </c>
       <c r="G248" s="2" t="n">
-        <v>45907.08855324074</v>
+        <v>45903.1565625</v>
       </c>
       <c r="H248" s="3" t="n">
-        <v>45907</v>
+        <v>45903</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>02:07:31</t>
+          <t>03:45:27</t>
         </is>
       </c>
       <c r="J248" t="n">
@@ -13631,7 +13621,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547162879372952321', 'createTime': 1757210851, 'createTimeISO': '2025-09-07T02:07:31.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7065939336964883462', 'uniqueId': 'juanca3900', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e4fa7c3e6554933ac6fc005419ed64c4~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=d21df4de&amp;x-expires=1758132000&amp;x-signature=MZFAA8DMncvN4riGQZhwAlwSmB0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545703981814530824', 'createTime': 1756871127, 'createTimeISO': '2025-09-03T03:45:27.000Z', 'text': '🤣🤣🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7109990555966620678', 'uniqueId': 'wwwyibis.avila.gmail.com', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7fc00513e7693d503519d5d9487f9d5d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=866b29f2&amp;x-expires=1758204000&amp;x-signature=V76wyUjdmwUwkm3%2BzOUZL7qHYAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13657,18 +13647,18 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>😂😂😂</t>
+          <t>😂😂😂😂😂</t>
         </is>
       </c>
       <c r="G249" s="2" t="n">
-        <v>45906.12429398148</v>
+        <v>45906.07608796296</v>
       </c>
       <c r="H249" s="3" t="n">
         <v>45906</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>02:58:59</t>
+          <t>01:49:34</t>
         </is>
       </c>
       <c r="J249" t="n">
@@ -13687,7 +13677,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546805283675570962', 'createTime': 1757127539, 'createTimeISO': '2025-09-06T02:58:59.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961153154818327557', 'uniqueId': '1528monica', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e961ec1284a9992dadaa68ff9935115e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=8651914b&amp;x-expires=1758132000&amp;x-signature=hpdFqzqmNasLKm07nH%2FdGXwuX68%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546787336509588241', 'createTime': 1757123374, 'createTimeISO': '2025-09-06T01:49:34.000Z', 'text': '😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7279238842954744837', 'uniqueId': 'el.bucares', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7281433025459453958~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=98b6f9d8&amp;x-expires=1758204000&amp;x-signature=Op1ufyJgFGaSSEtsPawjxD7H9SQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13713,18 +13703,18 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>😂😂😂😂😂</t>
+          <t>🥰🥰🥰🥰🥰</t>
         </is>
       </c>
       <c r="G250" s="2" t="n">
-        <v>45906.07608796296</v>
+        <v>45903.08365740741</v>
       </c>
       <c r="H250" s="3" t="n">
-        <v>45906</v>
+        <v>45903</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>01:49:34</t>
+          <t>02:00:28</t>
         </is>
       </c>
       <c r="J250" t="n">
@@ -13743,7 +13733,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546787336509588241', 'createTime': 1757123374, 'createTimeISO': '2025-09-06T01:49:34.000Z', 'text': '😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7279238842954744837', 'uniqueId': 'el.bucares', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7281433025459453958~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=79c13471&amp;x-expires=1758132000&amp;x-signature=pdFBdZXdwwekcqu0y%2Boif9OmWlI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545676945808343815', 'createTime': 1756864828, 'createTimeISO': '2025-09-03T02:00:28.000Z', 'text': '🥰🥰🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6531784221063648256', 'uniqueId': 'leleleururir', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e5e70d3e4f5e6da355fb29a295a6bac6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45a3e571&amp;x-expires=1758204000&amp;x-signature=bO2V9PG0HJc639fOzbTEvFIiJQc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13769,18 +13759,18 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G251" s="2" t="n">
-        <v>45911.56244212963</v>
+        <v>45907.39456018519</v>
       </c>
       <c r="H251" s="3" t="n">
-        <v>45911</v>
+        <v>45907</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>13:29:55</t>
+          <t>09:28:10</t>
         </is>
       </c>
       <c r="J251" t="n">
@@ -13799,7 +13789,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7548823307437916936', 'createTime': 1757597395, 'createTimeISO': '2025-09-11T13:29:55.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246554016846709765', 'uniqueId': 'jenn50012', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/51a0473a45bec8820863507d5416f2f9~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=7106adb5&amp;x-expires=1758132000&amp;x-signature=jAirsH3IX7BobLLukwKRgnk3ao4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547276647496336135', 'createTime': 1757237290, 'createTimeISO': '2025-09-07T09:28:10.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532217903690597384', 'uniqueId': 'kevin.obando944', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9e28bb84b3cfdc3c59c758e27a6f8ac7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38ea3526&amp;x-expires=1758204000&amp;x-signature=42ph7Rvh3due84j1Qs16hMYMYRw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13825,18 +13815,18 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G252" s="2" t="n">
-        <v>45904.51769675926</v>
+        <v>45907.08855324074</v>
       </c>
       <c r="H252" s="3" t="n">
-        <v>45904</v>
+        <v>45907</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>12:25:29</t>
+          <t>02:07:31</t>
         </is>
       </c>
       <c r="J252" t="n">
@@ -13855,7 +13845,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546209094811468561', 'createTime': 1756988729, 'createTimeISO': '2025-09-04T12:25:29.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6770309293184828422', 'uniqueId': 'carolinadiaz572', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1319a734c88a0c024ca13c78af1f954e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=d82e03f0&amp;x-expires=1758132000&amp;x-signature=6qNnxRXrcuGR9%2FRRJtkNfB3Oyvw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547162879372952321', 'createTime': 1757210851, 'createTimeISO': '2025-09-07T02:07:31.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7065939336964883462', 'uniqueId': 'juanca3900', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/e4fa7c3e6554933ac6fc005419ed64c4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b160adc2&amp;x-expires=1758204000&amp;x-signature=NShhP5F3E1kq3i7b0Qwc6DnYsIQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13881,18 +13871,18 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>jajajaja @El mindo muy bueno</t>
+          <t>😂😂😂</t>
         </is>
       </c>
       <c r="G253" s="2" t="n">
-        <v>45904.48266203704</v>
+        <v>45906.12429398148</v>
       </c>
       <c r="H253" s="3" t="n">
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>11:35:02</t>
+          <t>02:58:59</t>
         </is>
       </c>
       <c r="J253" t="n">
@@ -13911,7 +13901,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546195948293407505', 'createTime': 1756985702, 'createTimeISO': '2025-09-04T11:35:02.000Z', 'text': 'jajajaja @El mindo muy bueno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6784388229891458054', 'uniqueId': 'marlonramirezsalserisimo', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/cede0c3900395a8cad32c4524e648067~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=cf70af7d&amp;x-expires=1758132000&amp;x-signature=ZPmCFU8JxaQmLWghdyF9TVf%2FEB4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': ['@El mindo'], 'detailedMentions': [{'userId': '6779613305843155973', 'nickName': 'El mindo', 'profileUrl': 'https://www.tiktok.com/@6779613305843155973', 'secUid': 'MS4wLjABAAAAwWXzyw9Oc4E6qikF4d7mtxggggaKflUt9HQXZbUlGLj9POpcWEvKhPmOGScHgf1r'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546805283675570962', 'createTime': 1757127539, 'createTimeISO': '2025-09-06T02:58:59.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961153154818327557', 'uniqueId': '1528monica', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/e961ec1284a9992dadaa68ff9935115e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7f19eb46&amp;x-expires=1758204000&amp;x-signature=G4%2FSMeCWNssd1vzYD1%2Fc9BS94Sc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13937,18 +13927,18 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>😏</t>
+          <t>😅😂😅😂😅😂😅😂😅😂</t>
         </is>
       </c>
       <c r="G254" s="2" t="n">
-        <v>45902.76243055556</v>
+        <v>45908.88170138889</v>
       </c>
       <c r="H254" s="3" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>18:17:54</t>
+          <t>21:09:39</t>
         </is>
       </c>
       <c r="J254" t="n">
@@ -13967,7 +13957,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545557749674017543', 'createTime': 1756837074, 'createTimeISO': '2025-09-02T18:17:54.000Z', 'text': '😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7160324190766859270', 'uniqueId': 'angie7.joaqui', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7302545795801153542~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f1ce8619&amp;x-expires=1758132000&amp;x-signature=JbfVxJ1JUOQXQ0MJI5cUvKQ9e3s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547828497968874261', 'createTime': 1757365779, 'createTimeISO': '2025-09-08T21:09:39.000Z', 'text': '😅😂😅😂😅😂😅😂😅😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923401090465874950', 'uniqueId': 'kaamila.27', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f2b043116bd9bf5105d385b9135a91d6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a5cebe7c&amp;x-expires=1758204000&amp;x-signature=9FxCJDmFHAbctSnY9TRhXgT3ESU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13993,18 +13983,18 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>🥰🥰🥰🥰🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G255" s="2" t="n">
-        <v>45903.08365740741</v>
+        <v>45905.72173611111</v>
       </c>
       <c r="H255" s="3" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>02:00:28</t>
+          <t>17:19:18</t>
         </is>
       </c>
       <c r="J255" t="n">
@@ -14023,7 +14013,7 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545676945808343815', 'createTime': 1756864828, 'createTimeISO': '2025-09-03T02:00:28.000Z', 'text': '🥰🥰🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6531784221063648256', 'uniqueId': 'leleleururir', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/e5e70d3e4f5e6da355fb29a295a6bac6~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=034b8392&amp;x-expires=1758132000&amp;x-signature=8qMHJ9h7LGRjbR1VRT3l2lK%2BBcQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546655910278693639', 'createTime': 1757092758, 'createTimeISO': '2025-09-05T17:19:18.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7182314054235489285', 'uniqueId': 'maicol.amaya4', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7359184790438248453~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bdd59443&amp;x-expires=1758204000&amp;x-signature=kd9G%2FAa5HVvlbJXSEva95RpU4Zc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14049,18 +14039,18 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>me gustan los hombres😏😏</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G256" s="2" t="n">
-        <v>45914.83643518519</v>
+        <v>45904.51769675926</v>
       </c>
       <c r="H256" s="3" t="n">
-        <v>45914</v>
+        <v>45904</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>20:04:28</t>
+          <t>12:25:29</t>
         </is>
       </c>
       <c r="J256" t="n">
@@ -14079,7 +14069,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550038189143409424', 'createTime': 1757880268, 'createTimeISO': '2025-09-14T20:04:28.000Z', 'text': 'me gustan los hombres😏😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7173840673258243077', 'uniqueId': 'juadiego1729', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7173871054656372742~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=8e3ac3e6&amp;x-expires=1758132000&amp;x-signature=OT13zHeyddakXMZbzwqVK1WbW0U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546209094811468561', 'createTime': 1756988729, 'createTimeISO': '2025-09-04T12:25:29.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6770309293184828422', 'uniqueId': 'carolinadiaz572', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/42bf6d15c9e20e7befc20dde42e3fb89~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=25d413bd&amp;x-expires=1758204000&amp;x-signature=NjMLQHR%2Be%2Ber2jqzKVBCVaSKIFk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14105,18 +14095,18 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Si este comentario llega a 100 likes alpina me tiene que regalar algo 😊</t>
+          <t>jajajaja @El mindo muy bueno</t>
         </is>
       </c>
       <c r="G257" s="2" t="n">
-        <v>45916.09694444444</v>
+        <v>45904.48266203704</v>
       </c>
       <c r="H257" s="3" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>02:19:36</t>
+          <t>11:35:02</t>
         </is>
       </c>
       <c r="J257" t="n">
@@ -14135,13 +14125,13 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550505984062702354', 'createTime': 1757989176, 'createTimeISO': '2025-09-16T02:19:36.000Z', 'text': 'Si este comentario llega a 100 likes alpina me tiene que regalar algo 😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811204888635278342', 'uniqueId': 'el_teban__62', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/64456009fdac3c91d879c6bd22398ff2~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=781bfaa5&amp;x-expires=1758132000&amp;x-signature=m2EW1vrTJjmmkuHLO%2F4Lc%2FfJaJE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546195948293407505', 'createTime': 1756985702, 'createTimeISO': '2025-09-04T11:35:02.000Z', 'text': 'jajajaja @El mindo muy bueno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6784388229891458054', 'uniqueId': 'marlonramirezsalserisimo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/cede0c3900395a8cad32c4524e648067~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30e13eb9&amp;x-expires=1758204000&amp;x-signature=ZuFx7HYneJhwdyDa8JpIqFh9p9Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@El mindo'], 'detailedMentions': [{'userId': '6779613305843155973', 'nickName': 'El mindo', 'profileUrl': 'https://www.tiktok.com/@6779613305843155973', 'secUid': 'MS4wLjABAAAAwWXzyw9Oc4E6qikF4d7mtxggggaKflUt9HQXZbUlGLj9POpcWEvKhPmOGScHgf1r'}]}</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -14155,28 +14145,28 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545537780177227015?_r=1&amp;_t=ZS-8zmBj8nzZVS</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545536081081715986?_r=1&amp;_t=ZS-8zmBohiJNWk</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>1primrro</t>
+          <t>👍🏻</t>
         </is>
       </c>
       <c r="G258" s="2" t="n">
-        <v>45902.77964120371</v>
+        <v>45915.94659722222</v>
       </c>
       <c r="H258" s="3" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>18:42:41</t>
+          <t>22:43:06</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -14191,13 +14181,13 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7545564121321243399', 'createTime': 1756838561, 'createTimeISO': '2025-09-02T18:42:41.000Z', 'text': '1primrro', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7326022616908252165', 'uniqueId': 'juan411593', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d5f1150c35ba98d2b7b939545ef1ef23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0f20f50&amp;x-expires=1758132000&amp;x-signature=M1TE8vRuWF1YyVh5EJwJilINfIQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550450159071855376', 'createTime': 1757976186, 'createTimeISO': '2025-09-15T22:43:06.000Z', 'text': '👍🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7361873239523525638', 'uniqueId': 'esquivel.ibaez', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7388274832960503813~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5e829dc6&amp;x-expires=1758204000&amp;x-signature=2Vla0rRtL1HY%2FPcVByuuQ32pZlQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -14211,24 +14201,24 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545537780177227015?_r=1&amp;_t=ZS-8zmBj8nzZVS</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545536081081715986?_r=1&amp;_t=ZS-8zmBohiJNWk</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Como aparecen ellos ?</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G259" s="2" t="n">
-        <v>45908.76921296296</v>
+        <v>45908.81130787037</v>
       </c>
       <c r="H259" s="3" t="n">
         <v>45908</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>18:27:40</t>
+          <t>19:28:17</t>
         </is>
       </c>
       <c r="J259" t="n">
@@ -14247,13 +14237,13 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547786769216307976', 'createTime': 1757356060, 'createTimeISO': '2025-09-08T18:27:40.000Z', 'text': 'Como aparecen ellos ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446616697296192518', 'uniqueId': 'sebas_molina777', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68ff66452a63e6001d56a9cae9ab49f8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d6e2ab28&amp;x-expires=1758132000&amp;x-signature=nO9Wa4DrouAN7dSpBsoyxkYf6nc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547802344055685904', 'createTime': 1757359697, 'createTimeISO': '2025-09-08T19:28:17.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7456202778551518214', 'uniqueId': 'camacho_..1', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5ee71b4776cf0b2ae9e290e98507aa6b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4ad78ec7&amp;x-expires=1758204000&amp;x-signature=Xu%2B0ZoLf%2BxiXCDVI%2Fx0tFPyl%2BYQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -14267,24 +14257,24 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545537780177227015?_r=1&amp;_t=ZS-8zmBj8nzZVS</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545536081081715986?_r=1&amp;_t=ZS-8zmBohiJNWk</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>Si este comentario llega a 100 likes alpina me tiene que regalar algo 😊</t>
         </is>
       </c>
       <c r="G260" s="2" t="n">
-        <v>45915.89502314815</v>
+        <v>45916.09694444444</v>
       </c>
       <c r="H260" s="3" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>21:28:50</t>
+          <t>02:19:36</t>
         </is>
       </c>
       <c r="J260" t="n">
@@ -14303,13 +14293,13 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550430987072930567', 'createTime': 1757971730, 'createTimeISO': '2025-09-15T21:28:50.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357802501138318341', 'uniqueId': 'david.blanco380', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d11660b256de36cb1a340dc2b38c005d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=471096ec&amp;x-expires=1758132000&amp;x-signature=1BStPliTnP%2FCA%2FOTnDFIqiNPgA4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550505984062702354', 'createTime': 1757989176, 'createTimeISO': '2025-09-16T02:19:36.000Z', 'text': 'Si este comentario llega a 100 likes alpina me tiene que regalar algo 😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811204888635278342', 'uniqueId': 'el_teban__62', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/64456009fdac3c91d879c6bd22398ff2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8d92554b&amp;x-expires=1758204000&amp;x-signature=M003Jmd730Nyz8uXJ7lEXa%2BaU4s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -14323,24 +14313,24 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545537780177227015?_r=1&amp;_t=ZS-8zmBj8nzZVS</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545536081081715986?_r=1&amp;_t=ZS-8zmBohiJNWk</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>me gustan los hombres😏😏</t>
         </is>
       </c>
       <c r="G261" s="2" t="n">
-        <v>45915.54484953704</v>
+        <v>45914.83643518519</v>
       </c>
       <c r="H261" s="3" t="n">
-        <v>45915</v>
+        <v>45914</v>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>13:04:35</t>
+          <t>20:04:28</t>
         </is>
       </c>
       <c r="J261" t="n">
@@ -14359,7 +14349,7 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550301110642066184', 'createTime': 1757941475, 'createTimeISO': '2025-09-15T13:04:35.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7115431558710133766', 'uniqueId': 'javierhernandosua', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7115432535828889605~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f2bb3be&amp;x-expires=1758132000&amp;x-signature=1%2FC8EixhVyRrYdjA%2Bo6tOVRx6n8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550038189143409424', 'createTime': 1757880268, 'createTimeISO': '2025-09-14T20:04:28.000Z', 'text': 'me gustan los hombres😏😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7173840673258243077', 'uniqueId': 'juadiego1729', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7173871054656372742~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=26e176b2&amp;x-expires=1758204000&amp;x-signature=uxQAb0px2oN%2F7hXf3DTM%2FDgKGDA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14385,22 +14375,22 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>1primrro</t>
         </is>
       </c>
       <c r="G262" s="2" t="n">
-        <v>45908.7078587963</v>
+        <v>45902.77964120371</v>
       </c>
       <c r="H262" s="3" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>16:59:19</t>
+          <t>18:42:41</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -14415,7 +14405,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547764000685146898', 'createTime': 1757350759, 'createTimeISO': '2025-09-08T16:59:19.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7003455091987350534', 'uniqueId': 'sandrayepes539', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7326963283473203206~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=036cb897&amp;x-expires=1758132000&amp;x-signature=m8wPHtLy3OHe%2BYLB71FJ0xn3hHI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7545564121321243399', 'createTime': 1756838561, 'createTimeISO': '2025-09-02T18:42:41.000Z', 'text': '1primrro', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7326022616908252165', 'uniqueId': 'juan411593', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d5f1150c35ba98d2b7b939545ef1ef23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2f3e5787&amp;x-expires=1758204000&amp;x-signature=gHw67ScDaqdtNP1YdTK8B4ajIWg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14441,18 +14431,18 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>Como aparecen ellos ?</t>
         </is>
       </c>
       <c r="G263" s="2" t="n">
-        <v>45908.27546296296</v>
+        <v>45908.76921296296</v>
       </c>
       <c r="H263" s="3" t="n">
         <v>45908</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>06:36:40</t>
+          <t>18:27:40</t>
         </is>
       </c>
       <c r="J263" t="n">
@@ -14471,7 +14461,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547603548419834632', 'createTime': 1757313400, 'createTimeISO': '2025-09-08T06:36:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7256136602760545286', 'uniqueId': 'daniel_080909', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/0d7592cf4f1179a66d215d049423707e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c01fcaa&amp;x-expires=1758132000&amp;x-signature=q3OacSVzH5zVfNc5S7qgvlJnshQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547786769216307976', 'createTime': 1757356060, 'createTimeISO': '2025-09-08T18:27:40.000Z', 'text': 'Como aparecen ellos ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446616697296192518', 'uniqueId': 'sebas_molina777', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68ff66452a63e6001d56a9cae9ab49f8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6368b159&amp;x-expires=1758204000&amp;x-signature=URvfQiUtPrOdABc8O0Z4i8TpHJY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14497,25 +14487,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G264" s="2" t="n">
-        <v>45907.16725694444</v>
+        <v>45915.89502314815</v>
       </c>
       <c r="H264" s="3" t="n">
-        <v>45907</v>
+        <v>45915</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>04:00:51</t>
+          <t>21:28:50</t>
         </is>
       </c>
       <c r="J264" t="n">
         <v>0</v>
       </c>
       <c r="K264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L264" t="b">
         <v>0</v>
@@ -14527,7 +14517,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547192299391648520', 'createTime': 1757217651, 'createTimeISO': '2025-09-07T04:00:51.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7102522054742819846', 'uniqueId': 'alejandragonzale650', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/adc1a74c6e5cb907eced488103037dcc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f1e76edd&amp;x-expires=1758132000&amp;x-signature=Wa5TCxkfkUpACR5Ed6W1qpzPHqo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550430987072930567', 'createTime': 1757971730, 'createTimeISO': '2025-09-15T21:28:50.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357802501138318341', 'uniqueId': 'david.blanco380', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d11660b256de36cb1a340dc2b38c005d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e05a9ed&amp;x-expires=1758204000&amp;x-signature=pWKTCGwsuzavX%2Bw7SJuHCH%2F8vdU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14553,18 +14543,18 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G265" s="2" t="n">
-        <v>45906.03145833333</v>
+        <v>45915.54484953704</v>
       </c>
       <c r="H265" s="3" t="n">
-        <v>45906</v>
+        <v>45915</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>00:45:18</t>
+          <t>13:04:35</t>
         </is>
       </c>
       <c r="J265" t="n">
@@ -14583,7 +14573,7 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7546770817275970312', 'createTime': 1757119518, 'createTimeISO': '2025-09-06T00:45:18.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6805253552618079238', 'uniqueId': 'gabriela_alen', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/67c5e91b652de2b7d975e2a5a5d01a6e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8523c0b5&amp;x-expires=1758132000&amp;x-signature=jjIJZkd3oP4KE6eA6pDavr3GCSE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550301110642066184', 'createTime': 1757941475, 'createTimeISO': '2025-09-15T13:04:35.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7115431558710133766', 'uniqueId': 'javierhernandosua', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7115432535828889605~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=35cc86bf&amp;x-expires=1758204000&amp;x-signature=rJMCfZVhLnHCY3LwxwbAGiqPLTQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14609,18 +14599,18 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>😘</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G266" s="2" t="n">
-        <v>45916.57572916667</v>
+        <v>45908.7078587963</v>
       </c>
       <c r="H266" s="3" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>13:49:03</t>
+          <t>16:59:19</t>
         </is>
       </c>
       <c r="J266" t="n">
@@ -14639,7 +14629,7 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550683656576549640', 'createTime': 1758030543, 'createTimeISO': '2025-09-16T13:49:03.000Z', 'text': '😘', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259806146189313030', 'uniqueId': 'yeison.andres.her', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/53f2527478c25d6ee27a34b1361bf2b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9de8110b&amp;x-expires=1758132000&amp;x-signature=PO5x4f95ASZ4JzKzx5extHGyAGI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547764000685146898', 'createTime': 1757350759, 'createTimeISO': '2025-09-08T16:59:19.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7003455091987350534', 'uniqueId': 'sandrayepes539', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7326963283473203206~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7bb3e0e3&amp;x-expires=1758204000&amp;x-signature=MgzKgTSQ55sNwf4T%2FSxkNRuJDSs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14669,14 +14659,14 @@
         </is>
       </c>
       <c r="G267" s="2" t="n">
-        <v>45916.47895833333</v>
+        <v>45908.27546296296</v>
       </c>
       <c r="H267" s="3" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>11:29:42</t>
+          <t>06:36:40</t>
         </is>
       </c>
       <c r="J267" t="n">
@@ -14695,13 +14685,13 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550647742705779463', 'createTime': 1758022182, 'createTimeISO': '2025-09-16T11:29:42.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6812084789551875078', 'uniqueId': 'user88397006', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a6830c9109a3eb28376cded9db42200a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d01923cb&amp;x-expires=1758132000&amp;x-signature=C7bPM%2BPVwl6A%2BChclPNOGo%2Ft%2Bgc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547603548419834632', 'createTime': 1757313400, 'createTimeISO': '2025-09-08T06:36:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7256136602760545286', 'uniqueId': 'daniel_080909', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/0d7592cf4f1179a66d215d049423707e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=29295f54&amp;x-expires=1758204000&amp;x-signature=MRIRGsQSthZqZQSAjj5nq3PPEbo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -14715,31 +14705,31 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545543093358038273?_r=1&amp;_t=ZS-8zmBflgSzMV</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545537780177227015?_r=1&amp;_t=ZS-8zmBj8nzZVS</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>hoy me compré un bonyurt y no me han dejado salir anuncios de bonyurt 😭</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G268" s="2" t="n">
-        <v>45907.1599537037</v>
+        <v>45907.16725694444</v>
       </c>
       <c r="H268" s="3" t="n">
         <v>45907</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>03:50:20</t>
+          <t>04:00:51</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L268" t="b">
         <v>0</v>
@@ -14751,13 +14741,13 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547189606544212744', 'createTime': 1757217020, 'createTimeISO': '2025-09-07T03:50:20.000Z', 'text': 'hoy me compré un bonyurt y no me han dejado salir anuncios de bonyurt 😭', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7221693427170608134', 'uniqueId': 'stbtfly', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/619e71ce4636dddceb27191c89b77358~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a531ca1&amp;x-expires=1758132000&amp;x-signature=nzqQr9RAUxNHIRBFoWVE%2B%2F2gR48%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547192299391648520', 'createTime': 1757217651, 'createTimeISO': '2025-09-07T04:00:51.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7102522054742819846', 'uniqueId': 'alejandragonzale650', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/adc1a74c6e5cb907eced488103037dcc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a23fd06b&amp;x-expires=1758204000&amp;x-signature=cZkWx97%2FkDYIJIWLqxc2DRFh1OQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -14771,24 +14761,24 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545543093358038273?_r=1&amp;_t=ZS-8zmBflgSzMV</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545537780177227015?_r=1&amp;_t=ZS-8zmBj8nzZVS</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
         <is>
-          <t>jajajaja</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G269" s="2" t="n">
-        <v>45916.60461805556</v>
+        <v>45906.03145833333</v>
       </c>
       <c r="H269" s="3" t="n">
-        <v>45916</v>
+        <v>45906</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>14:30:39</t>
+          <t>00:45:18</t>
         </is>
       </c>
       <c r="J269" t="n">
@@ -14807,13 +14797,13 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550694365079126804', 'createTime': 1758033039, 'createTimeISO': '2025-09-16T14:30:39.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959897399867786246', 'uniqueId': 'comosehace08', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f1f6f988&amp;x-expires=1758132000&amp;x-signature=AulPvUJeQpgJJy%2B8FtwfrYswMAs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7546770817275970312', 'createTime': 1757119518, 'createTimeISO': '2025-09-06T00:45:18.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6805253552618079238', 'uniqueId': 'gabriela_alen', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/67c5e91b652de2b7d975e2a5a5d01a6e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eece6027&amp;x-expires=1758204000&amp;x-signature=0sJt%2BemlLwrzk8Hxm5EUFS4toQo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -14827,24 +14817,24 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545543093358038273?_r=1&amp;_t=ZS-8zmBflgSzMV</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545537780177227015?_r=1&amp;_t=ZS-8zmBj8nzZVS</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
         <is>
-          <t>queee</t>
+          <t>😘</t>
         </is>
       </c>
       <c r="G270" s="2" t="n">
-        <v>45903.17142361111</v>
+        <v>45916.57572916667</v>
       </c>
       <c r="H270" s="3" t="n">
-        <v>45903</v>
+        <v>45916</v>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>04:06:51</t>
+          <t>13:49:03</t>
         </is>
       </c>
       <c r="J270" t="n">
@@ -14863,13 +14853,13 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545709513765290759', 'createTime': 1756872411, 'createTimeISO': '2025-09-03T04:06:51.000Z', 'text': 'queee', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7154518960976905221', 'uniqueId': 'david77..3', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a014257cff9ef8d07ac8b916c6f9ae9e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=37c066de&amp;x-expires=1758132000&amp;x-signature=DOLNdVcDobevkaNEHMvpHKfj54c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550683656576549640', 'createTime': 1758030543, 'createTimeISO': '2025-09-16T13:49:03.000Z', 'text': '😘', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259806146189313030', 'uniqueId': 'yeison.andres.her', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/53f2527478c25d6ee27a34b1361bf2b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5b0557e1&amp;x-expires=1758204000&amp;x-signature=RKPWSiIj4YTsFgkzIQ3uQmON5bE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -14883,24 +14873,24 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545543093358038273?_r=1&amp;_t=ZS-8zmBflgSzMV</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545537780177227015?_r=1&amp;_t=ZS-8zmBj8nzZVS</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>🤪</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G271" s="2" t="n">
-        <v>45906.96251157407</v>
+        <v>45916.47895833333</v>
       </c>
       <c r="H271" s="3" t="n">
-        <v>45906</v>
+        <v>45916</v>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>23:06:01</t>
+          <t>11:29:42</t>
         </is>
       </c>
       <c r="J271" t="n">
@@ -14919,7 +14909,7 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547116277643723528', 'createTime': 1757199961, 'createTimeISO': '2025-09-06T23:06:01.000Z', 'text': '🤪', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7087009017579111430', 'uniqueId': 'elsantyrl', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4bc47151b891526fe542d5b74a22fea7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=abe3ba56&amp;x-expires=1758132000&amp;x-signature=oKYJiLIjv6GobPkGEFV%2F84S1%2B4M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550647742705779463', 'createTime': 1758022182, 'createTimeISO': '2025-09-16T11:29:42.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6812084789551875078', 'uniqueId': 'user88397006', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a6830c9109a3eb28376cded9db42200a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9005a288&amp;x-expires=1758204000&amp;x-signature=wWhx3q%2B%2F2hXZXcAl6uH2GATOPbA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14945,25 +14935,25 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>hoy me compré un bonyurt y no me han dejado salir anuncios de bonyurt 😭</t>
         </is>
       </c>
       <c r="G272" s="2" t="n">
-        <v>45915.88739583334</v>
+        <v>45907.1599537037</v>
       </c>
       <c r="H272" s="3" t="n">
-        <v>45915</v>
+        <v>45907</v>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>21:17:51</t>
+          <t>03:50:20</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L272" t="b">
         <v>0</v>
@@ -14975,7 +14965,7 @@
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550428171239195399', 'createTime': 1757971071, 'createTimeISO': '2025-09-15T21:17:51.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '310381012813938688', 'uniqueId': 'natgomez.x', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3bf4b94a2fd4b7dc7eecf23827bf75c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5949c08&amp;x-expires=1758132000&amp;x-signature=wRD9gST3YrVv1wCmT%2By8NZtEpeg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547189606544212744', 'createTime': 1757217020, 'createTimeISO': '2025-09-07T03:50:20.000Z', 'text': 'hoy me compré un bonyurt y no me han dejado salir anuncios de bonyurt 😭', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7221693427170608134', 'uniqueId': 'stbtfly', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/619e71ce4636dddceb27191c89b77358~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c99f107d&amp;x-expires=1758204000&amp;x-signature=e4zZ9BkUOV7gFgiQh7%2BX2gEaCz4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15001,18 +14991,18 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>❤️❤️❤</t>
+          <t>jajajaja</t>
         </is>
       </c>
       <c r="G273" s="2" t="n">
-        <v>45915.75493055556</v>
+        <v>45916.60461805556</v>
       </c>
       <c r="H273" s="3" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>18:07:06</t>
+          <t>14:30:39</t>
         </is>
       </c>
       <c r="J273" t="n">
@@ -15031,7 +15021,7 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550379057759978248', 'createTime': 1757959626, 'createTimeISO': '2025-09-15T18:07:06.000Z', 'text': '❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6908722576434185222', 'uniqueId': 'correita.16', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1b2932d67ade51120c1529f2363d60c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f1f6336&amp;x-expires=1758132000&amp;x-signature=P0BRQg4UEMblUzRsKRmr83cxhD0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550694365079126804', 'createTime': 1758033039, 'createTimeISO': '2025-09-16T14:30:39.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959897399867786246', 'uniqueId': 'comosehace08', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e6c9ece1&amp;x-expires=1758204000&amp;x-signature=%2BP9Pd3%2Bt5dMRXbPFOQpVgKTRjEc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15057,18 +15047,18 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>queee</t>
         </is>
       </c>
       <c r="G274" s="2" t="n">
-        <v>45904.49728009259</v>
+        <v>45903.17142361111</v>
       </c>
       <c r="H274" s="3" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>11:56:05</t>
+          <t>04:06:51</t>
         </is>
       </c>
       <c r="J274" t="n">
@@ -15087,7 +15077,7 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7546201520821175047', 'createTime': 1756986965, 'createTimeISO': '2025-09-04T11:56:05.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6978585189425611781', 'uniqueId': 'joseleonelportill2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7321812502752690181~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=474c2f94&amp;x-expires=1758132000&amp;x-signature=5HLW9ckipJUgcNicIEG%2FdO3QFZk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545709513765290759', 'createTime': 1756872411, 'createTimeISO': '2025-09-03T04:06:51.000Z', 'text': 'queee', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7154518960976905221', 'uniqueId': 'david77..3', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a014257cff9ef8d07ac8b916c6f9ae9e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9614aea8&amp;x-expires=1758204000&amp;x-signature=TJK9tEXwVyHLuBgx83UTzeJUY%2B0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15113,18 +15103,18 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>😍</t>
+          <t>🤪</t>
         </is>
       </c>
       <c r="G275" s="2" t="n">
-        <v>45916.59555555556</v>
+        <v>45906.96251157407</v>
       </c>
       <c r="H275" s="3" t="n">
-        <v>45916</v>
+        <v>45906</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>14:17:36</t>
+          <t>23:06:01</t>
         </is>
       </c>
       <c r="J275" t="n">
@@ -15143,7 +15133,7 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550691016673313556', 'createTime': 1758032256, 'createTimeISO': '2025-09-16T14:17:36.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7131151200246072326', 'uniqueId': 'nio.de.oro486', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/2d86f9e5ce7c7cbe90e31c3589833958~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2074c86c&amp;x-expires=1758132000&amp;x-signature=75OWY%2Brgqip6FTk9nHufRpiXTsI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547116277643723528', 'createTime': 1757199961, 'createTimeISO': '2025-09-06T23:06:01.000Z', 'text': '🤪', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7087009017579111430', 'uniqueId': 'elsantyrl', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4bc47151b891526fe542d5b74a22fea7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=08569bb0&amp;x-expires=1758204000&amp;x-signature=2RQaEnOHowTyUqO4wACgKt6D74w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15173,14 +15163,14 @@
         </is>
       </c>
       <c r="G276" s="2" t="n">
-        <v>45907.80752314815</v>
+        <v>45904.49728009259</v>
       </c>
       <c r="H276" s="3" t="n">
-        <v>45907</v>
+        <v>45904</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>19:22:50</t>
+          <t>11:56:05</t>
         </is>
       </c>
       <c r="J276" t="n">
@@ -15199,7 +15189,7 @@
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547429816326112017', 'createTime': 1757272970, 'createTimeISO': '2025-09-07T19:22:50.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6858021236414399493', 'uniqueId': 'juansebas290', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/44d9c3e86e797b929bc195018c4e78b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=86b2b386&amp;x-expires=1758132000&amp;x-signature=cyWpEEH2mPVQxa6ov3GdC0qhXj8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7546201520821175047', 'createTime': 1756986965, 'createTimeISO': '2025-09-04T11:56:05.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6978585189425611781', 'uniqueId': 'joseleonelportill2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7321812502752690181~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6b8dc16&amp;x-expires=1758204000&amp;x-signature=w4Mqpnjz93x%2Ba9KLH6de3dXmP8Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15229,14 +15219,14 @@
         </is>
       </c>
       <c r="G277" s="2" t="n">
-        <v>45903.64616898148</v>
+        <v>45907.80752314815</v>
       </c>
       <c r="H277" s="3" t="n">
-        <v>45903</v>
+        <v>45907</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>15:30:29</t>
+          <t>19:22:50</t>
         </is>
       </c>
       <c r="J277" t="n">
@@ -15255,7 +15245,7 @@
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545885695215420168', 'createTime': 1756913429, 'createTimeISO': '2025-09-03T15:30:29.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6894579239481213957', 'uniqueId': 'williambejarano04', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7327240204639698951~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5e969e24&amp;x-expires=1758132000&amp;x-signature=58oC50UBnPxQBgB19diZ3NMALn0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547429816326112017', 'createTime': 1757272970, 'createTimeISO': '2025-09-07T19:22:50.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6858021236414399493', 'uniqueId': 'juansebas290', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/44d9c3e86e797b929bc195018c4e78b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9d8d78d4&amp;x-expires=1758204000&amp;x-signature=e83%2B0Fr33TGWu%2FaDP%2BXWoSjwPMU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15281,18 +15271,18 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>😳</t>
+          <t>💙</t>
         </is>
       </c>
       <c r="G278" s="2" t="n">
-        <v>45903.13053240741</v>
+        <v>45907.17275462963</v>
       </c>
       <c r="H278" s="3" t="n">
-        <v>45903</v>
+        <v>45907</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>03:07:58</t>
+          <t>04:08:46</t>
         </is>
       </c>
       <c r="J278" t="n">
@@ -15311,7 +15301,7 @@
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545694344875934485', 'createTime': 1756868878, 'createTimeISO': '2025-09-03T03:07:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369002548668122117', 'uniqueId': 'hernan.patio67', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7369002923495260165~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c1e478c5&amp;x-expires=1758132000&amp;x-signature=iK0QcOr%2FiHS3u2g0xutmr0AUC00%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547194337542963975', 'createTime': 1757218126, 'createTimeISO': '2025-09-07T04:08:46.000Z', 'text': '💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6909704687071560710', 'uniqueId': 'cielochaves', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/34fbaf090b699aca74dfa4d6d22b51a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dff768aa&amp;x-expires=1758204000&amp;x-signature=Qsu2aCGQutJhUy4wbR3QQ8rOYhw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15337,18 +15327,18 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>💙</t>
+          <t>❤️❤️❤</t>
         </is>
       </c>
       <c r="G279" s="2" t="n">
-        <v>45907.17275462963</v>
+        <v>45915.75493055556</v>
       </c>
       <c r="H279" s="3" t="n">
-        <v>45907</v>
+        <v>45915</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>04:08:46</t>
+          <t>18:07:06</t>
         </is>
       </c>
       <c r="J279" t="n">
@@ -15367,7 +15357,7 @@
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547194337542963975', 'createTime': 1757218126, 'createTimeISO': '2025-09-07T04:08:46.000Z', 'text': '💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6909704687071560710', 'uniqueId': 'cielochaves', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/34fbaf090b699aca74dfa4d6d22b51a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2b3a2f32&amp;x-expires=1758132000&amp;x-signature=M1VeBwLYYKwEnwFsfPP%2BFYwzdrA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550379057759978248', 'createTime': 1757959626, 'createTimeISO': '2025-09-15T18:07:06.000Z', 'text': '❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6908722576434185222', 'uniqueId': 'correita.16', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1b2932d67ade51120c1529f2363d60c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=678a90f3&amp;x-expires=1758204000&amp;x-signature=A1w%2FIsEWMOnFRc2t10xjKdJ3lf8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15393,18 +15383,18 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>jajaj a mi amigo le salió y no se dio cuenta hasta que yo lo ví en la basura jajaj</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G280" s="2" t="n">
-        <v>45914.74405092592</v>
+        <v>45917.56686342593</v>
       </c>
       <c r="H280" s="3" t="n">
-        <v>45914</v>
+        <v>45917</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>17:51:26</t>
+          <t>13:36:17</t>
         </is>
       </c>
       <c r="J280" t="n">
@@ -15423,7 +15413,7 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550003952378233607', 'createTime': 1757872286, 'createTimeISO': '2025-09-14T17:51:26.000Z', 'text': 'jajaj a mi amigo le salió y no se dio cuenta hasta que yo lo ví en la basura jajaj', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7501862813942596615', 'uniqueId': 'julietaaaaaa141', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/cffeab8019138265525603e19dd3d496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5117cce0&amp;x-expires=1758132000&amp;x-signature=OCd5QhAlCGzKpCwXROOAYmLU7Ks%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551051455088591634', 'createTime': 1758116177, 'createTimeISO': '2025-09-17T13:36:17.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7101699671811277830', 'uniqueId': 'paolavargasgalvis', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/87193764b171e202edf69ebfdb5b6a16~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f5e8ab9c&amp;x-expires=1758204000&amp;x-signature=a%2Fc6dcC7CB3SjevJR29%2FroZDtt0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15449,18 +15439,18 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>bájale de precio y la compro 😠</t>
+          <t>😍</t>
         </is>
       </c>
       <c r="G281" s="2" t="n">
-        <v>45904.07752314815</v>
+        <v>45916.59555555556</v>
       </c>
       <c r="H281" s="3" t="n">
-        <v>45904</v>
+        <v>45916</v>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>01:51:38</t>
+          <t>14:17:36</t>
         </is>
       </c>
       <c r="J281" t="n">
@@ -15479,13 +15469,13 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7546045730332427015', 'createTime': 1756950698, 'createTimeISO': '2025-09-04T01:51:38.000Z', 'text': 'bájale de precio y la compro 😠', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446031101488874501', 'uniqueId': 'romn.jos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/424e91eb2f1b89d3d2ca4861dc958b45~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8244f07a&amp;x-expires=1758132000&amp;x-signature=GlrN7jcdvAJ7EwV3sBSJXPWHKDc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550691016673313556', 'createTime': 1758032256, 'createTimeISO': '2025-09-16T14:17:36.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7131151200246072326', 'uniqueId': 'nio.de.oro486', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/2d86f9e5ce7c7cbe90e31c3589833958~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5309015&amp;x-expires=1758204000&amp;x-signature=qW5nmQL%2FmvlWA%2Fg9rr697EEAwSA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -15499,28 +15489,28 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543093358038273?_r=1&amp;_t=ZS-8zmBflgSzMV</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Dios mío tantos pasos 😅</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G282" s="2" t="n">
-        <v>45913.12027777778</v>
+        <v>45903.64616898148</v>
       </c>
       <c r="H282" s="3" t="n">
-        <v>45913</v>
+        <v>45903</v>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>02:53:12</t>
+          <t>15:30:29</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -15535,13 +15525,13 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549401305296749368', 'createTime': 1757731992, 'createTimeISO': '2025-09-13T02:53:12.000Z', 'text': 'Dios mío tantos pasos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '219720050335805441', 'uniqueId': 'mishellcruzcruz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/59df1ef53e096ffffe5d5f78f2958ff6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8f672cf&amp;x-expires=1758132000&amp;x-signature=GK08uCvLynLyKbe61yhyadoNhhc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545885695215420168', 'createTime': 1756913429, 'createTimeISO': '2025-09-03T15:30:29.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6894579239481213957', 'uniqueId': 'williambejarano04', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7327240204639698951~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=134d61ec&amp;x-expires=1758204000&amp;x-signature=lHnegw6sBQl%2F3u6mOlVQaLNrn8A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -15555,24 +15545,24 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543093358038273?_r=1&amp;_t=ZS-8zmBflgSzMV</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>hola,el mío adentro del vaso traía una estrella y lo bote eso que significaba 😭😞</t>
+          <t>😳</t>
         </is>
       </c>
       <c r="G283" s="2" t="n">
-        <v>45915.18513888889</v>
+        <v>45903.13053240741</v>
       </c>
       <c r="H283" s="3" t="n">
-        <v>45915</v>
+        <v>45903</v>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>04:26:36</t>
+          <t>03:07:58</t>
         </is>
       </c>
       <c r="J283" t="n">
@@ -15591,13 +15581,13 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550167623225787143', 'createTime': 1757910396, 'createTimeISO': '2025-09-15T04:26:36.000Z', 'text': 'hola,el mío adentro del vaso traía una estrella y lo bote eso que significaba 😭😞', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7326736144429876229', 'uniqueId': 'lisse9272', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/6d68ea31ad8492af7bc72a7718d443fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a67d059b&amp;x-expires=1758132000&amp;x-signature=2gDaG9dMYrYGbD36Ov%2FPaYE1T6o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545694344875934485', 'createTime': 1756868878, 'createTimeISO': '2025-09-03T03:07:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369002548668122117', 'uniqueId': 'hernan.patio67', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7369002923495260165~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e23fd445&amp;x-expires=1758204000&amp;x-signature=JpndDmjDRPrUG5rx4N05jJEiXVo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -15611,28 +15601,28 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543093358038273?_r=1&amp;_t=ZS-8zmBflgSzMV</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>si a bueno</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G284" s="2" t="n">
-        <v>45908.03688657407</v>
+        <v>45915.88739583334</v>
       </c>
       <c r="H284" s="3" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>00:53:07</t>
+          <t>21:17:51</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
@@ -15647,13 +15637,13 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7547514997161657093', 'createTime': 1757292787, 'createTimeISO': '2025-09-08T00:53:07.000Z', 'text': 'si a bueno', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7459487929128748037', 'uniqueId': '_santiago_878', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9987b3d6668c9d69a3f2c605d7b80cdb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=980d4026&amp;x-expires=1758132000&amp;x-signature=YietisIU7n%2B%2FVbvcPGBRD8gy84g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550428171239195399', 'createTime': 1757971071, 'createTimeISO': '2025-09-15T21:17:51.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '310381012813938688', 'uniqueId': 'natgomez.x', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3bf4b94a2fd4b7dc7eecf23827bf75c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9094086c&amp;x-expires=1758204000&amp;x-signature=aU8o0VeWvB7lqbRBM8wp%2BzJGXt4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -15667,24 +15657,24 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543093358038273?_r=1&amp;_t=ZS-8zmBflgSzMV</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>jajaj a mi amigo le salió y no se dio cuenta hasta que yo lo ví en la basura jajaj</t>
         </is>
       </c>
       <c r="G285" s="2" t="n">
-        <v>45914.14807870371</v>
+        <v>45914.74405092592</v>
       </c>
       <c r="H285" s="3" t="n">
         <v>45914</v>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>03:33:14</t>
+          <t>17:51:26</t>
         </is>
       </c>
       <c r="J285" t="n">
@@ -15703,13 +15693,13 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549782796458853127', 'createTime': 1757820794, 'createTimeISO': '2025-09-14T03:33:14.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6877643636655703045', 'uniqueId': 'johanitha490', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7332964579657547782~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d2beea5&amp;x-expires=1758132000&amp;x-signature=vxgzg1KwqYV61Uau7xIbty6OiOI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550003952378233607', 'createTime': 1757872286, 'createTimeISO': '2025-09-14T17:51:26.000Z', 'text': 'jajaj a mi amigo le salió y no se dio cuenta hasta que yo lo ví en la basura jajaj', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7501862813942596615', 'uniqueId': 'julietaaaaaa141', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/cffeab8019138265525603e19dd3d496~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2deb7bcf&amp;x-expires=1758204000&amp;x-signature=v1tC6io9KsV9jeZVsQ689DajCIs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -15723,24 +15713,24 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543093358038273?_r=1&amp;_t=ZS-8zmBflgSzMV</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>bájale de precio y la compro 😠</t>
         </is>
       </c>
       <c r="G286" s="2" t="n">
-        <v>45914.06708333334</v>
+        <v>45904.07752314815</v>
       </c>
       <c r="H286" s="3" t="n">
-        <v>45914</v>
+        <v>45904</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>01:36:36</t>
+          <t>01:51:38</t>
         </is>
       </c>
       <c r="J286" t="n">
@@ -15759,7 +15749,7 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549752705234666248', 'createTime': 1757813796, 'createTimeISO': '2025-09-14T01:36:36.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6993517803189945349', 'uniqueId': 'brandonsoler6', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/041379e9dd8964d3d3f9a145e44e2553~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8821fd5d&amp;x-expires=1758132000&amp;x-signature=WZKqeck%2BMRUrlfXwfIx4gIef3lg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7546045730332427015', 'createTime': 1756950698, 'createTimeISO': '2025-09-04T01:51:38.000Z', 'text': 'bájale de precio y la compro 😠', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446031101488874501', 'uniqueId': 'romn.jos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/424e91eb2f1b89d3d2ca4861dc958b45~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=882bf0a4&amp;x-expires=1758204000&amp;x-signature=%2Fj5hPV1HtHwfvhGqXnY0%2FAETW9k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15785,22 +15775,22 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>Dios mío tantos pasos 😅</t>
         </is>
       </c>
       <c r="G287" s="2" t="n">
-        <v>45912.83803240741</v>
+        <v>45913.12027777778</v>
       </c>
       <c r="H287" s="3" t="n">
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>20:06:46</t>
+          <t>02:53:12</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K287" t="n">
         <v>0</v>
@@ -15815,7 +15805,7 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549296625492738834', 'createTime': 1757707606, 'createTimeISO': '2025-09-12T20:06:46.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7115888336006513670', 'uniqueId': 'emi01ly', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/509c8ea06017da9a3aa0c46d75adc24c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=088cfac0&amp;x-expires=1758132000&amp;x-signature=UusnKS231PpdDEb2CzlnnvRR1Pk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549401305296749368', 'createTime': 1757731992, 'createTimeISO': '2025-09-13T02:53:12.000Z', 'text': 'Dios mío tantos pasos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '219720050335805441', 'uniqueId': 'mishellcruzcruz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/59df1ef53e096ffffe5d5f78f2958ff6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=376aa4d8&amp;x-expires=1758204000&amp;x-signature=IO6Sb6jal4SXq9o%2F1f9ejDy8wJk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15841,18 +15831,18 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>😻</t>
+          <t>hola,el mío adentro del vaso traía una estrella y lo bote eso que significaba 😭😞</t>
         </is>
       </c>
       <c r="G288" s="2" t="n">
-        <v>45912.09761574074</v>
+        <v>45915.18513888889</v>
       </c>
       <c r="H288" s="3" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>02:20:34</t>
+          <t>04:26:36</t>
         </is>
       </c>
       <c r="J288" t="n">
@@ -15871,7 +15861,7 @@
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549021871145911058', 'createTime': 1757643634, 'createTimeISO': '2025-09-12T02:20:34.000Z', 'text': '😻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7182237744306324485', 'uniqueId': 'x_barajzz', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/15fc416b91708e470b8d2d89e921850e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d32dafeb&amp;x-expires=1758132000&amp;x-signature=G1ajWB6aztsT6rntsMV%2F8IZqIp4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550167623225787143', 'createTime': 1757910396, 'createTimeISO': '2025-09-15T04:26:36.000Z', 'text': 'hola,el mío adentro del vaso traía una estrella y lo bote eso que significaba 😭😞', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7326736144429876229', 'uniqueId': 'lisse9272', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6d68ea31ad8492af7bc72a7718d443fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3fae894&amp;x-expires=1758204000&amp;x-signature=heFFyQRG1zKasZ%2FpZ4CUVextgyE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15897,22 +15887,22 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>si a bueno</t>
         </is>
       </c>
       <c r="G289" s="2" t="n">
-        <v>45911.78550925926</v>
+        <v>45908.03688657407</v>
       </c>
       <c r="H289" s="3" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>18:51:08</t>
+          <t>00:53:07</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K289" t="n">
         <v>0</v>
@@ -15927,7 +15917,7 @@
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7548906048800244496', 'createTime': 1757616668, 'createTimeISO': '2025-09-11T18:51:08.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6913972140094833669', 'uniqueId': 'neidyscarolina1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a79f17cd53ffefebf6d322084fa0ad7f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=57aff48a&amp;x-expires=1758132000&amp;x-signature=6DGrin%2BqlT5tQqi9TgBQh6IS6yA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7547514997161657093', 'createTime': 1757292787, 'createTimeISO': '2025-09-08T00:53:07.000Z', 'text': 'si a bueno', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7459487929128748037', 'uniqueId': '_santiago_878', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9987b3d6668c9d69a3f2c605d7b80cdb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f727b6e1&amp;x-expires=1758204000&amp;x-signature=Idwtp4ZeOYrG0nEyJy9hzMp10ew%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15953,18 +15943,18 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😭</t>
         </is>
       </c>
       <c r="G290" s="2" t="n">
-        <v>45910.92893518518</v>
+        <v>45916.03925925926</v>
       </c>
       <c r="H290" s="3" t="n">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>22:17:40</t>
+          <t>00:56:32</t>
         </is>
       </c>
       <c r="J290" t="n">
@@ -15983,7 +15973,7 @@
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7548588162223653640', 'createTime': 1757542660, 'createTimeISO': '2025-09-10T22:17:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7315037365822505989', 'uniqueId': 'elkinfuertes303', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d6174d82b30147907ac4d7b92356da88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5add9e38&amp;x-expires=1758132000&amp;x-signature=7BCcOh7b5v%2B%2F69m61VPwE84qE%2Fo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550484544701383442', 'createTime': 1757984192, 'createTimeISO': '2025-09-16T00:56:32.000Z', 'text': '😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7391146841637225478', 'uniqueId': 'carmenceciliaholg', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a4e5c5dece9e8282f8adee7955828a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7851e1a&amp;x-expires=1758204000&amp;x-signature=YVbQfgzYKl3E8KG3bxEHldHwDpM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16013,14 +16003,14 @@
         </is>
       </c>
       <c r="G291" s="2" t="n">
-        <v>45908.77496527778</v>
+        <v>45914.14807870371</v>
       </c>
       <c r="H291" s="3" t="n">
-        <v>45908</v>
+        <v>45914</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>18:35:57</t>
+          <t>03:33:14</t>
         </is>
       </c>
       <c r="J291" t="n">
@@ -16039,7 +16029,7 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7547788903202439943', 'createTime': 1757356557, 'createTimeISO': '2025-09-08T18:35:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831696197633606661', 'uniqueId': 'lilifuquen', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7336739008699400198~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2816db99&amp;x-expires=1758132000&amp;x-signature=IqfNySF97DdX3ag%2BcWSwmeeEERs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549782796458853127', 'createTime': 1757820794, 'createTimeISO': '2025-09-14T03:33:14.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6877643636655703045', 'uniqueId': 'johanitha490', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7332964579657547782~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e84c0815&amp;x-expires=1758204000&amp;x-signature=OhQ7eg8XzNZT2PvlKg8IfiQMsN8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16069,14 +16059,14 @@
         </is>
       </c>
       <c r="G292" s="2" t="n">
-        <v>45904.75347222222</v>
+        <v>45914.06708333334</v>
       </c>
       <c r="H292" s="3" t="n">
-        <v>45904</v>
+        <v>45914</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>18:05:00</t>
+          <t>01:36:36</t>
         </is>
       </c>
       <c r="J292" t="n">
@@ -16095,7 +16085,7 @@
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7546296565088420629', 'createTime': 1757009100, 'createTimeISO': '2025-09-04T18:05:00.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7245646099741508614', 'uniqueId': 'maria.monrroy4', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7dce654aeb7239745d5853d35ba3b5c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e9077fe9&amp;x-expires=1758132000&amp;x-signature=ouydQiDz20EDeWPTup1XMkcM%2BFQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549752705234666248', 'createTime': 1757813796, 'createTimeISO': '2025-09-14T01:36:36.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6993517803189945349', 'uniqueId': 'brandonsoler6', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/041379e9dd8964d3d3f9a145e44e2553~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0c1ff5e&amp;x-expires=1758204000&amp;x-signature=V2ULU8djv%2FaECON8rsd9RGkWqd4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16125,14 +16115,14 @@
         </is>
       </c>
       <c r="G293" s="2" t="n">
-        <v>45916.77731481481</v>
+        <v>45912.83803240741</v>
       </c>
       <c r="H293" s="3" t="n">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>18:39:20</t>
+          <t>20:06:46</t>
         </is>
       </c>
       <c r="J293" t="n">
@@ -16151,7 +16141,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550758460531589909', 'createTime': 1758047960, 'createTimeISO': '2025-09-16T18:39:20.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7024338619876475909', 'uniqueId': 'tatiana_florez21', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/dfb9a22717c6f441dcc57aca39ebc1b2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=40e980b1&amp;x-expires=1758132000&amp;x-signature=fjR4EFa3Nk6a5o7OB68J%2F3SK7mU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549296625492738834', 'createTime': 1757707606, 'createTimeISO': '2025-09-12T20:06:46.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7115888336006513670', 'uniqueId': 'emi01ly', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/509c8ea06017da9a3aa0c46d75adc24c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=451cfc48&amp;x-expires=1758204000&amp;x-signature=1%2FKjcR2Rzc3y8wtnwZ6TBpEDxjo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16177,37 +16167,373 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>😭</t>
+          <t>😻</t>
         </is>
       </c>
       <c r="G294" s="2" t="n">
-        <v>45916.03925925926</v>
+        <v>45912.09761574074</v>
       </c>
       <c r="H294" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>02:20:34</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="b">
+        <v>0</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549021871145911058', 'createTime': 1757643634, 'createTimeISO': '2025-09-12T02:20:34.000Z', 'text': '😻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7182237744306324485', 'uniqueId': 'x_barajzz', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/15fc416b91708e470b8d2d89e921850e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=774fc1c4&amp;x-expires=1758204000&amp;x-signature=4p9sFUMAJl5omyKZo5t1NCNWkVI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>47</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>🥰</t>
+        </is>
+      </c>
+      <c r="G295" s="2" t="n">
+        <v>45911.78550925926</v>
+      </c>
+      <c r="H295" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>18:51:08</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="b">
+        <v>0</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7548906048800244496', 'createTime': 1757616668, 'createTimeISO': '2025-09-11T18:51:08.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6913972140094833669', 'uniqueId': 'neidyscarolina1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a79f17cd53ffefebf6d322084fa0ad7f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38fe368a&amp;x-expires=1758204000&amp;x-signature=ICNWrgch1ArvpMTh7RE3PFR%2B2JQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>47</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>🥰</t>
+        </is>
+      </c>
+      <c r="G296" s="2" t="n">
+        <v>45910.92893518518</v>
+      </c>
+      <c r="H296" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>22:17:40</t>
+        </is>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="b">
+        <v>0</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7548588162223653640', 'createTime': 1757542660, 'createTimeISO': '2025-09-10T22:17:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7315037365822505989', 'uniqueId': 'elkinfuertes303', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d6174d82b30147907ac4d7b92356da88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4993b75b&amp;x-expires=1758204000&amp;x-signature=8gO%2BWYbaA6NzYeW9EAx6rExshHs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>47</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>😂</t>
+        </is>
+      </c>
+      <c r="G297" s="2" t="n">
+        <v>45908.77496527778</v>
+      </c>
+      <c r="H297" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>18:35:57</t>
+        </is>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="b">
+        <v>0</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7547788903202439943', 'createTime': 1757356557, 'createTimeISO': '2025-09-08T18:35:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831696197633606661', 'uniqueId': 'lilifuquen', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7336739008699400198~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7caa7ab6&amp;x-expires=1758204000&amp;x-signature=FFqFchMSaIMb9Y71GPiJRftORds%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>47</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>😂</t>
+        </is>
+      </c>
+      <c r="G298" s="2" t="n">
+        <v>45904.75347222222</v>
+      </c>
+      <c r="H298" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>18:05:00</t>
+        </is>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="b">
+        <v>0</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7546296565088420629', 'createTime': 1757009100, 'createTimeISO': '2025-09-04T18:05:00.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7245646099741508614', 'uniqueId': 'maria.monrroy4', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7dce654aeb7239745d5853d35ba3b5c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=395a00f7&amp;x-expires=1758204000&amp;x-signature=xsWJDLHByGjf3ngLVl%2FeYhhZXJo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>47</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>😂</t>
+        </is>
+      </c>
+      <c r="G299" s="2" t="n">
+        <v>45916.96805555555</v>
+      </c>
+      <c r="H299" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="I294" t="inlineStr">
-        <is>
-          <t>00:56:32</t>
-        </is>
-      </c>
-      <c r="J294" t="n">
-        <v>0</v>
-      </c>
-      <c r="K294" t="n">
-        <v>0</v>
-      </c>
-      <c r="L294" t="b">
-        <v>0</v>
-      </c>
-      <c r="M294" t="inlineStr">
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>23:14:00</t>
+        </is>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="b">
+        <v>0</v>
+      </c>
+      <c r="M299" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="N294" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550484544701383442', 'createTime': 1757984192, 'createTimeISO': '2025-09-16T00:56:32.000Z', 'text': '😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7391146841637225478', 'uniqueId': 'carmenceciliaholg', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a4e5c5dece9e8282f8adee7955828a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f45c2f79&amp;x-expires=1758132000&amp;x-signature=PM29tOko6X0prlEatABiw8RrCY0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550829187214328583', 'createTime': 1758064440, 'createTimeISO': '2025-09-16T23:14:00.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844523592266728453', 'uniqueId': 'alejandromontesrestrepo', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/77ea5c7b3509eb546e76410674ad6696~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b974ecb6&amp;x-expires=1758204000&amp;x-signature=IaMH2iMl6U4eoBmo9fCcZQ9h87c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>47</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alpinacol/video/7545543148685004039?_r=1&amp;_t=ZS-8zmBbHs0rLe</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>🥰</t>
+        </is>
+      </c>
+      <c r="G300" s="2" t="n">
+        <v>45916.77731481481</v>
+      </c>
+      <c r="H300" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>18:39:20</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="b">
+        <v>0</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550758460531589909', 'createTime': 1758047960, 'createTimeISO': '2025-09-16T18:39:20.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7024338619876475909', 'uniqueId': 'tatiana_florez21', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/dfb9a22717c6f441dcc57aca39ebc1b2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c4d0b660&amp;x-expires=1758204000&amp;x-signature=DmAYBnONJ5MgOCgBtjWnMx5j%2Fbk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17015,7 +17341,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0601206011100005801070033001000100000000010100330000</t>
+          <t>0601206011100058010700330011000100000000001010033000</t>
         </is>
       </c>
     </row>
@@ -17034,11 +17360,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>114013220100000002110010</t>
+          <t>1140132202000000021100010</t>
         </is>
       </c>
     </row>
@@ -17057,11 +17383,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>111610901000001000010000</t>
+          <t>11271010010000010000020010</t>
         </is>
       </c>
     </row>
@@ -17084,7 +17410,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10086020411112000</t>
+          <t>10086020511112000</t>
         </is>
       </c>
     </row>
@@ -17103,11 +17429,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>0101</t>
         </is>
       </c>
     </row>
@@ -17170,7 +17496,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -17194,7 +17520,7 @@
         <v>28</v>
       </c>
       <c r="E45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -17233,7 +17559,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -17254,10 +17580,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N499"/>
+  <dimension ref="A1:N500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/17904743937230556', 'id': '17904743937230556', 'text': 'Yo tengo el regalo y la estrella y no sale nada más', 'ownerUsername': 'sarasofia1823', 'ownerProfilePicUrl': 'https://scontent-lax3-2.cdninstagram.com/v/t51.2885-19/21911148_1939140299659416_218538162337611776_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GGxWTgGYGLtIo_MGAAAAAABNZwgDbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MjAuQzMifQ%3D%3D&amp;_nc_ohc=W7s0ZJ8LHBIQ7kNvwF_THBe&amp;_nc_oc=Adlzakog1fkrP_htOlP0vssYPA300P4hLuNlp6kBy95G_QDu1tGx_9TFHkY3mofwKFU&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.cdninstagram.com&amp;oh=00_Aff6RdDqLKGB7evb8imrp3wMFtjTlgWH-j4jVz5yoYKE7g&amp;oe=68EAF676', 'timestamp': '2025-08-31T04:53:11.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406028389691', 'full_name': 'Andre_Caro', 'id': '6077528946', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '1608938044534940549', 'profile_pic_url': 'https://scontent-lax3-2.cdninstagram.com/v/t51.2885-19/21911148_1939140299659416_218538162337611776_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GGxWTgGYGLtIo_MGAAAAAABNZwgDbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MjAuQzMifQ%3D%3D&amp;_nc_ohc=W7s0ZJ8LHBIQ7kNvwF_THBe&amp;_nc_oc=Adlzakog1fkrP_htOlP0vssYPA300P4hLuNlp6kBy95G_QDu1tGx_9TFHkY3mofwKFU&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.cdninstagram.com&amp;oh=00_Aff6RdDqLKGB7evb8imrp3wMFtjTlgWH-j4jVz5yoYKE7g&amp;oe=68EAF676', 'username': 'sarasofia1823'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/17904743937230556', 'id': '17904743937230556', 'text': 'Yo tengo el regalo y la estrella y no sale nada más', 'ownerUsername': 'sarasofia1823', 'ownerProfilePicUrl': 'https://scontent-iad3-2.cdninstagram.com/v/t51.2885-19/21911148_1939140299659416_218538162337611776_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GGxWTgGYGLtIo_MGAAAAAABNZwgDbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MjAuQzMifQ%3D%3D&amp;_nc_ohc=W7s0ZJ8LHBIQ7kNvwEvVWv4&amp;_nc_oc=AdkIbouEpZHJlV9FXbHIcioTQg2n6QdnqTcF5K936dn6Y1_E184A4zP_49CdtvYLWHw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.cdninstagram.com&amp;oh=00_AfeAFVqfbDPUdnmM_iqLa4MVw99mn99TeLkhlMe12fHqxQ&amp;oe=68EC47F6', 'timestamp': '2025-08-31T04:53:11.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406028389691', 'full_name': 'Andre_Caro', 'id': '6077528946', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '1608938044534940549', 'profile_pic_url': 'https://scontent-iad3-2.cdninstagram.com/v/t51.2885-19/21911148_1939140299659416_218538162337611776_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=100&amp;ig_cache_key=GGxWTgGYGLtIo_MGAAAAAABNZwgDbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MjAuQzMifQ%3D%3D&amp;_nc_ohc=W7s0ZJ8LHBIQ7kNvwEvVWv4&amp;_nc_oc=AdkIbouEpZHJlV9FXbHIcioTQg2n6QdnqTcF5K936dn6Y1_E184A4zP_49CdtvYLWHw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.cdninstagram.com&amp;oh=00_AfeAFVqfbDPUdnmM_iqLa4MVw99mn99TeLkhlMe12fHqxQ&amp;oe=68EC47F6', 'username': 'sarasofia1823'}}</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18082485682907011', 'id': '18082485682907011', 'text': 'Pensé que era el único jajajaja nada del premio', 'ownerUsername': 'luisny2234', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/457867768_1051394046694506_1012659243833018400_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ig_cache_key=GPiBShtqFKzAPLwDACDILos3sA0ObkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=e-WvL7HF8ZIQ7kNvwGEJXf8&amp;_nc_oc=Adl0mNLpgjZIUjUqYIQ_dhyqG6eKq8TQkXa1bib-pTqwlaVE2ru8F3qprKyO4eEw5_E&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_Afc-10bs42DDsbH8Ksi2FRIGj7FvBJZ3LMT9CoNNOl8GEg&amp;oe=68EAD6C8', 'timestamp': '2025-08-30T00:16:41.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 1, 'owner': {'fbid_v2': '17841402286159531', 'full_name': 'Luis Navas Yrazabal', 'id': '2236252205', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3447888495445571002', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/457867768_1051394046694506_1012659243833018400_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ig_cache_key=GPiBShtqFKzAPLwDACDILos3sA0ObkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=e-WvL7HF8ZIQ7kNvwGEJXf8&amp;_nc_oc=Adl0mNLpgjZIUjUqYIQ_dhyqG6eKq8TQkXa1bib-pTqwlaVE2ru8F3qprKyO4eEw5_E&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_Afc-10bs42DDsbH8Ksi2FRIGj7FvBJZ3LMT9CoNNOl8GEg&amp;oe=68EAD6C8', 'username': 'luisny2234'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18082485682907011', 'id': '18082485682907011', 'text': 'Pensé que era el único jajajaja nada del premio', 'ownerUsername': 'luisny2234', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/457867768_1051394046694506_1012659243833018400_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ig_cache_key=GPiBShtqFKzAPLwDACDILos3sA0ObkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=e-WvL7HF8ZIQ7kNvwG6ocD9&amp;_nc_oc=AdlKV6mmslKD1Vq_Mhhy7-CCpzYC2gR_KF_-Wjh4czVmO4gf5ysrBOaVG0o8GRIvipI&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_AfelMuSOvd_BuHuIKDs0I0MRU8I6iHIp_Wsg4a7yCB9t2w&amp;oe=68EC2848', 'timestamp': '2025-08-30T00:16:41.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 1, 'owner': {'fbid_v2': '17841402286159531', 'full_name': 'Luis Navas Yrazabal', 'id': '2236252205', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3447888495445571002', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/457867768_1051394046694506_1012659243833018400_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=108&amp;ig_cache_key=GPiBShtqFKzAPLwDACDILos3sA0ObkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=e-WvL7HF8ZIQ7kNvwG6ocD9&amp;_nc_oc=AdlKV6mmslKD1Vq_Mhhy7-CCpzYC2gR_KF_-Wjh4czVmO4gf5ysrBOaVG0o8GRIvipI&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_AfelMuSOvd_BuHuIKDs0I0MRU8I6iHIp_Wsg4a7yCB9t2w&amp;oe=68EC2848', 'username': 'luisny2234'}}</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18087212188834287', 'id': '18087212188834287', 'text': 'Noooo prefiero comprar otra cosa porque ya tengo 20 de gana bono de y no sale nada mas,mejor compro papas margarita que me da plata en nequi', 'ownerUsername': 'patricia_rc0314', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=LGlPAAfjpbsQ7kNvwFNzzld&amp;_nc_oc=AdmbDzuIUmBIboTmnVD_9S0L4qNoMzAl5oUNzxHiMpS39HT_f7qnyyH9lDNcJ7gWiHw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfemmvWcIUwyN8taYmNfYKdCBuFql6vf10PyCoQNtPtNRA&amp;oe=68EAF50D', 'timestamp': '2025-08-28T16:13:22.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 2, 'owner': {'fbid_v2': '17841437076287467', 'full_name': 'Patricia Ramirez', 'id': '37019739876', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2989083268729601379', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=LGlPAAfjpbsQ7kNvwFNzzld&amp;_nc_oc=AdmbDzuIUmBIboTmnVD_9S0L4qNoMzAl5oUNzxHiMpS39HT_f7qnyyH9lDNcJ7gWiHw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfemmvWcIUwyN8taYmNfYKdCBuFql6vf10PyCoQNtPtNRA&amp;oe=68EAF50D', 'username': 'patricia_rc0314'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18087212188834287', 'id': '18087212188834287', 'text': 'Noooo prefiero comprar otra cosa porque ya tengo 20 de gana bono de y no sale nada mas,mejor compro papas margarita que me da plata en nequi', 'ownerUsername': 'patricia_rc0314', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=LGlPAAfjpbsQ7kNvwGP1qTe&amp;_nc_oc=Adk26n68vs4QNtDHOLVBv3iV0GGpEFRZcdyU1FI-4pI9xUCX9yAlAXy9hxWnI-Gw_jU&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_Afds6HAdURkHmh5GEeRcn2DxM8oPQQ-8m2I-hvd-ezxbIg&amp;oe=68EC468D', 'timestamp': '2025-08-28T16:13:22.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 2, 'owner': {'fbid_v2': '17841437076287467', 'full_name': 'Patricia Ramirez', 'id': '37019739876', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2989083268729601379', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=LGlPAAfjpbsQ7kNvwGP1qTe&amp;_nc_oc=Adk26n68vs4QNtDHOLVBv3iV0GGpEFRZcdyU1FI-4pI9xUCX9yAlAXy9hxWnI-Gw_jU&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_Afds6HAdURkHmh5GEeRcn2DxM8oPQQ-8m2I-hvd-ezxbIg&amp;oe=68EC468D', 'username': 'patricia_rc0314'}}</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18154319803391261', 'id': '18154319803391261', 'text': 'SE ACABÓ LA PROMO????? NO SIRVE EL ENLACE PARA REGISTRAR LAS ETIQUETAS Y LOS CÓDIGOS', 'ownerUsername': 'flywithmelib', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.82787-19/527339137_18520244029061640_461975705700376262_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GIGObh8IeoFWEMxBAMaeIel0RGkGbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=-wH5JHLgpQ8Q7kNvwG-bSyY&amp;_nc_oc=AdmuxhqQoiTWtS65JlVrzbCivDRgNIBrGTwXOfLm9gnML3mIBdu5XQKnU1x-HleIcKo&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;_nc_gid=sFFCRXaYI05Bjv0hGeQ0LA&amp;oh=00_AfcKWHZkDtuFchzwYCrSx-PToCsy8k3tqyXuYtUVDqZnrQ&amp;oe=68EB00DC', 'timestamp': '2025-08-31T18:24:23.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401849186020', 'full_name': 'Immelissabel✈️🇨🇴', 'id': '1025341639', 'is_mentionable': False, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3691881045453868236', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.82787-19/527339137_18520244029061640_461975705700376262_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GIGObh8IeoFWEMxBAMaeIel0RGkGbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=-wH5JHLgpQ8Q7kNvwG-bSyY&amp;_nc_oc=AdmuxhqQoiTWtS65JlVrzbCivDRgNIBrGTwXOfLm9gnML3mIBdu5XQKnU1x-HleIcKo&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;_nc_gid=sFFCRXaYI05Bjv0hGeQ0LA&amp;oh=00_AfcKWHZkDtuFchzwYCrSx-PToCsy8k3tqyXuYtUVDqZnrQ&amp;oe=68EB00DC', 'username': 'flywithmelib'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/18154319803391261', 'id': '18154319803391261', 'text': 'SE ACABÓ LA PROMO????? NO SIRVE EL ENLACE PARA REGISTRAR LAS ETIQUETAS Y LOS CÓDIGOS', 'ownerUsername': 'flywithmelib', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.82787-19/527339137_18520244029061640_461975705700376262_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GIGObh8IeoFWEMxBAMaeIel0RGkGbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=-wH5JHLgpQ8Q7kNvwHvHUkP&amp;_nc_oc=Adl2wrKrcxxdbm0u6ov-hy4mJqkm8Db0bHCg5J_ciHboUzEgTCqPRmy_GbKM3v4IxSo&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;_nc_gid=JT1sImvVGLo-HmrvIBidBw&amp;oh=00_AffotjdE2tznm44lWOOxh8AwBpwL0hZyeqwIWa__rkgAjw&amp;oe=68EC525C', 'timestamp': '2025-08-31T18:24:23.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401849186020', 'full_name': 'Immelissabel✈️🇨🇴', 'id': '1025341639', 'is_mentionable': False, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3691881045453868236', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.82787-19/527339137_18520244029061640_461975705700376262_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GIGObh8IeoFWEMxBAMaeIel0RGkGbmNDAQAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=-wH5JHLgpQ8Q7kNvwHvHUkP&amp;_nc_oc=Adl2wrKrcxxdbm0u6ov-hy4mJqkm8Db0bHCg5J_ciHboUzEgTCqPRmy_GbKM3v4IxSo&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;_nc_gid=JT1sImvVGLo-HmrvIBidBw&amp;oh=00_AffotjdE2tznm44lWOOxh8AwBpwL0hZyeqwIWa__rkgAjw&amp;oe=68EC525C', 'username': 'flywithmelib'}}</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/17914497912049995', 'id': '17914497912049995', 'text': 'Solo sale Gana Bono de  no salen mas,pura mentira eso', 'ownerUsername': 'patricia_rc0314', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=LGlPAAfjpbsQ7kNvwFNzzld&amp;_nc_oc=AdmbDzuIUmBIboTmnVD_9S0L4qNoMzAl5oUNzxHiMpS39HT_f7qnyyH9lDNcJ7gWiHw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfemmvWcIUwyN8taYmNfYKdCBuFql6vf10PyCoQNtPtNRA&amp;oe=68EAF50D', 'timestamp': '2025-08-24T17:17:46.000Z', 'repliesCount': 2, 'replies': [], 'likesCount': 3, 'owner': {'fbid_v2': '17841437076287467', 'full_name': 'Patricia Ramirez', 'id': '37019739876', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2989083268729601379', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=LGlPAAfjpbsQ7kNvwFNzzld&amp;_nc_oc=AdmbDzuIUmBIboTmnVD_9S0L4qNoMzAl5oUNzxHiMpS39HT_f7qnyyH9lDNcJ7gWiHw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfemmvWcIUwyN8taYmNfYKdCBuFql6vf10PyCoQNtPtNRA&amp;oe=68EAF50D', 'username': 'patricia_rc0314'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/', 'commentUrl': 'https://www.instagram.com/p/DNVr1GRA2Sr/c/17914497912049995', 'id': '17914497912049995', 'text': 'Solo sale Gana Bono de  no salen mas,pura mentira eso', 'ownerUsername': 'patricia_rc0314', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=LGlPAAfjpbsQ7kNvwGP1qTe&amp;_nc_oc=Adk26n68vs4QNtDHOLVBv3iV0GGpEFRZcdyU1FI-4pI9xUCX9yAlAXy9hxWnI-Gw_jU&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_Afds6HAdURkHmh5GEeRcn2DxM8oPQQ-8m2I-hvd-ezxbIg&amp;oe=68EC468D', 'timestamp': '2025-08-24T17:17:46.000Z', 'repliesCount': 2, 'replies': [], 'likesCount': 3, 'owner': {'fbid_v2': '17841437076287467', 'full_name': 'Patricia Ramirez', 'id': '37019739876', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2989083268729601379', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/318478340_3379348505678906_3087051416559872494_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GASY_xI61EDjfwEMAO7pak-oaNcqbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy45NDQuQzMifQ%3D%3D&amp;_nc_ohc=LGlPAAfjpbsQ7kNvwGP1qTe&amp;_nc_oc=Adk26n68vs4QNtDHOLVBv3iV0GGpEFRZcdyU1FI-4pI9xUCX9yAlAXy9hxWnI-Gw_jU&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_Afds6HAdURkHmh5GEeRcn2DxM8oPQQ-8m2I-hvd-ezxbIg&amp;oe=68EC468D', 'username': 'patricia_rc0314'}}</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18049169207312341', 'id': '18049169207312341', 'text': 'Buenísimos! Ya me gané un viaje con Wingo', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-sof1-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ig_cache_key=GNp5kRusEFTKztcBAJqPhjcJhnYRbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=-snM5LueWTcQ7kNvwEwdEs2&amp;_nc_oc=AdkF_UJ5GHlZgDfyoiBTcybHYV4XHUDnc817WilmCG8p3Hvq3xXwYiBOU68U8_KKVbs&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-1.cdninstagram.com&amp;oh=00_Afcdxw1NFXJVNe4Lqg5AK3wKbdE3KiaFabAxRFmzfEZLRA&amp;oe=68EAE411', 'timestamp': '2025-09-15T20:20:28.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-sof1-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ig_cache_key=GNp5kRusEFTKztcBAJqPhjcJhnYRbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=-snM5LueWTcQ7kNvwEwdEs2&amp;_nc_oc=AdkF_UJ5GHlZgDfyoiBTcybHYV4XHUDnc817WilmCG8p3Hvq3xXwYiBOU68U8_KKVbs&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-1.cdninstagram.com&amp;oh=00_Afcdxw1NFXJVNe4Lqg5AK3wKbdE3KiaFabAxRFmzfEZLRA&amp;oe=68EAE411', 'username': 'danielbp4'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18049169207312341', 'id': '18049169207312341', 'text': 'Buenísimos! Ya me gané un viaje con Wingo', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ig_cache_key=GNp5kRusEFTKztcBAJqPhjcJhnYRbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=7hvxz09qZJIQ7kNvwH5WaQZ&amp;_nc_oc=AdnkNrsLTwwiiHdT-DIQil3HEp2g6tIDiinqPYSIkyxHmzGMccZb5CQhWvUDGrWJNyc&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfezqEVKuHt36P39Pkkj9PIBFCY-Z75M08uz26sRu5sLMg&amp;oe=68EC3591', 'timestamp': '2025-09-15T20:20:28.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ig_cache_key=GNp5kRusEFTKztcBAJqPhjcJhnYRbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=7hvxz09qZJIQ7kNvwH5WaQZ&amp;_nc_oc=AdnkNrsLTwwiiHdT-DIQil3HEp2g6tIDiinqPYSIkyxHmzGMccZb5CQhWvUDGrWJNyc&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfezqEVKuHt36P39Pkkj9PIBFCY-Z75M08uz26sRu5sLMg&amp;oe=68EC3591', 'username': 'danielbp4'}}</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18088290970796704', 'id': '18088290970796704', 'text': 'and what pass what no my those delivery my from i make the vertion my offerted after of all kaligraficoz is a reality when termind and conditions in the trasher', 'ownerUsername': 'realdaneyescobar', 'ownerProfilePicUrl': 'https://scontent-sof1-2.cdninstagram.com/v/t51.2885-19/424827397_1044897176739860_4804732201523493492_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ig_cache_key=GAVaUhkU4AsVVLYDAHQ6sBB71q1CbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MTIuQzMifQ%3D%3D&amp;_nc_ohc=_QjH5marlacQ7kNvwFKtrbG&amp;_nc_oc=Adlvs9NPbb2vI4JpoMKFQDESnBNf_yPL1GPgLcOFVXOftZJtxHBK6qKq3jq8PQCsdrw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-2.cdninstagram.com&amp;oh=00_AfdPSbA0kFBtyeVV7SDTFqic-vaukZs8fydlnSysWPcBFw&amp;oe=68EAD32D', 'timestamp': '2025-08-15T16:06:33.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841402090809377', 'full_name': 'Graffity Artist', 'id': '2075021693', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3293974623514436809', 'profile_pic_url': 'https://scontent-sof1-2.cdninstagram.com/v/t51.2885-19/424827397_1044897176739860_4804732201523493492_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ig_cache_key=GAVaUhkU4AsVVLYDAHQ6sBB71q1CbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MTIuQzMifQ%3D%3D&amp;_nc_ohc=_QjH5marlacQ7kNvwFKtrbG&amp;_nc_oc=Adlvs9NPbb2vI4JpoMKFQDESnBNf_yPL1GPgLcOFVXOftZJtxHBK6qKq3jq8PQCsdrw&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-2.cdninstagram.com&amp;oh=00_AfdPSbA0kFBtyeVV7SDTFqic-vaukZs8fydlnSysWPcBFw&amp;oe=68EAD32D', 'username': 'realdaneyescobar'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18088290970796704', 'id': '18088290970796704', 'text': 'and what pass what no my those delivery my from i make the vertion my offerted after of all kaligraficoz is a reality when termind and conditions in the trasher', 'ownerUsername': 'realdaneyescobar', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/424827397_1044897176739860_4804732201523493492_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ig_cache_key=GAVaUhkU4AsVVLYDAHQ6sBB71q1CbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MTIuQzMifQ%3D%3D&amp;_nc_ohc=_QjH5marlacQ7kNvwHqWHfX&amp;_nc_oc=AdksqMxTlB56PWWfNlUG-4UoJFxBnpQhPQr4yM0mbLYyKOcg8E3b2QJPh4dpn1QZIEQ&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfeRUHmVxWI0QtnqV0cxBbxAHfAxpBbOWuNFAWfcZChV9A&amp;oe=68EC24AD', 'timestamp': '2025-08-15T16:06:33.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841402090809377', 'full_name': 'Graffity Artist', 'id': '2075021693', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3293974623514436809', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/424827397_1044897176739860_4804732201523493492_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=109&amp;ig_cache_key=GAVaUhkU4AsVVLYDAHQ6sBB71q1CbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy43MTIuQzMifQ%3D%3D&amp;_nc_ohc=_QjH5marlacQ7kNvwHqWHfX&amp;_nc_oc=AdksqMxTlB56PWWfNlUG-4UoJFxBnpQhPQr4yM0mbLYyKOcg8E3b2QJPh4dpn1QZIEQ&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfeRUHmVxWI0QtnqV0cxBbxAHfAxpBbOWuNFAWfcZChV9A&amp;oe=68EC24AD', 'username': 'realdaneyescobar'}}</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18401573713187124', 'id': '18401573713187124', 'text': 'No esos premios no salen ya compré 15 y nada', 'ownerUsername': 'dianamarceladiaz_', 'ownerProfilePicUrl': 'https://scontent-sof1-1.cdninstagram.com/v/t51.2885-19/464924557_535747669073398_73713164185481327_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GI0vthv2HYF5QucBAG_wi3a74QUBbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=Jx48zMdyn_4Q7kNvwFc2tYu&amp;_nc_oc=Adkl5BRb_Hf_M--vAsxbI0vbCslvzSX6QcErNpfeMJhSP5CZjVu1oEk2WWCW22qmd80&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-1.cdninstagram.com&amp;oh=00_AfcevMJNIfB8mW_BhLXUV04P42gXOb4plSjOvA8Tf_94rw&amp;oe=68EAF485', 'timestamp': '2025-09-10T12:54:30.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841400902536425', 'full_name': 'Diana Marcela Diaz Quintero', 'id': '1051230084', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1759803350, 'profile_pic_id': '3489825159090091672', 'profile_pic_url': 'https://scontent-sof1-1.cdninstagram.com/v/t51.2885-19/464924557_535747669073398_73713164185481327_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GI0vthv2HYF5QucBAG_wi3a74QUBbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=Jx48zMdyn_4Q7kNvwFc2tYu&amp;_nc_oc=Adkl5BRb_Hf_M--vAsxbI0vbCslvzSX6QcErNpfeMJhSP5CZjVu1oEk2WWCW22qmd80&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-1.cdninstagram.com&amp;oh=00_AfcevMJNIfB8mW_BhLXUV04P42gXOb4plSjOvA8Tf_94rw&amp;oe=68EAF485', 'username': 'dianamarceladiaz_'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/', 'commentUrl': 'https://www.instagram.com/p/DNVrxfVAV3l/c/18401573713187124', 'id': '18401573713187124', 'text': 'No esos premios no salen ya compré 15 y nada', 'ownerUsername': 'dianamarceladiaz_', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/464924557_535747669073398_73713164185481327_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GI0vthv2HYF5QucBAG_wi3a74QUBbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=Jx48zMdyn_4Q7kNvwE0ajJC&amp;_nc_oc=Adn_ASU2tFsCI3gyTCBntWz0pHz7bgrwof7_iAcM2WaUXLmxIUjLJXagr6YgP4OGo_g&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfcY-2_U2LvDN72CpqqiHmyq-aTggqnhLCtU4SISDG0c3g&amp;oe=68EC4605', 'timestamp': '2025-09-10T12:54:30.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841400902536425', 'full_name': 'Diana Marcela Diaz Quintero', 'id': '1051230084', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1759849337, 'profile_pic_id': '3489825159090091672', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/464924557_535747669073398_73713164185481327_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=104&amp;ig_cache_key=GI0vthv2HYF5QucBAG_wi3a74QUBbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4zMjAuQzMifQ%3D%3D&amp;_nc_ohc=Jx48zMdyn_4Q7kNvwE0ajJC&amp;_nc_oc=Adn_ASU2tFsCI3gyTCBntWz0pHz7bgrwof7_iAcM2WaUXLmxIUjLJXagr6YgP4OGo_g&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfcY-2_U2LvDN72CpqqiHmyq-aTggqnhLCtU4SISDG0c3g&amp;oe=68EC4605', 'username': 'dianamarceladiaz_'}}</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/17869367490434445', 'id': '17869367490434445', 'text': 'Buenísima!!', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-sof1-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=-snM5LueWTcQ7kNvwHO4v7u&amp;_nc_oc=AdlYbaRz7X3Ozf2apOcUIE__H5EVUXgECPngu7cE9acydwVbOJQvixeUTadSvI12uDs&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-1.cdninstagram.com&amp;oh=00_AfdZy6Id2S_hsNNfMYk_5EJbER3BhflY81PxKAIeL4xIeg&amp;oe=68EAE411', 'timestamp': '2025-09-15T21:16:39.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-sof1-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=-snM5LueWTcQ7kNvwHO4v7u&amp;_nc_oc=AdlYbaRz7X3Ozf2apOcUIE__H5EVUXgECPngu7cE9acydwVbOJQvixeUTadSvI12uDs&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-1.cdninstagram.com&amp;oh=00_AfdZy6Id2S_hsNNfMYk_5EJbER3BhflY81PxKAIeL4xIeg&amp;oe=68EAE411', 'username': 'danielbp4'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/17869367490434445', 'id': '17869367490434445', 'text': 'Buenísima!!', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=7hvxz09qZJIQ7kNvwEG8mZA&amp;_nc_oc=AdnPAcIuo5t5r8M5JCeoA4z01H-dD4_dgZJXDPgglkCHbIVIcHDplQX_6XGH2mgy9DE&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_Afc5XN4LdvN2Vf0sAnUe-DAqI3pITCAA9PY4zkDFcMFB7A&amp;oe=68EC3591', 'timestamp': '2025-09-15T21:16:39.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=7hvxz09qZJIQ7kNvwEG8mZA&amp;_nc_oc=AdnPAcIuo5t5r8M5JCeoA4z01H-dD4_dgZJXDPgglkCHbIVIcHDplQX_6XGH2mgy9DE&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_Afc5XN4LdvN2Vf0sAnUe-DAqI3pITCAA9PY4zkDFcMFB7A&amp;oe=68EC3591', 'username': 'danielbp4'}}</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/18067220132251782', 'id': '18067220132251782', 'text': 'Buenísimos bonos 🛍️🤑', 'ownerUsername': 'la_titi_iregui', 'ownerProfilePicUrl': 'https://scontent-sof1-1.cdninstagram.com/v/t51.2885-19/294887052_741799106873453_3778519975709069666_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=RlA5ZoADGasQ7kNvwGCZGXe&amp;_nc_oc=AdkMcjSv5vzL44oq8s9OcxQkwDn6TNeS2fr69bOEg1uPNZP8wPokUIvycMIONFmCw4o&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-1.cdninstagram.com&amp;oh=00_AffcGryNAe8cRyjI4NN3ieuoVXxRATqxweDVXgRPpiz4Xw&amp;oe=68EAF5D1', 'timestamp': '2025-09-15T23:56:43.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401487910056', 'full_name': 'Cristina Iregui Casas', 'id': '3633597', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 1759787972, 'profile_pic_id': '2888115834838359994', 'profile_pic_url': 'https://scontent-sof1-1.cdninstagram.com/v/t51.2885-19/294887052_741799106873453_3778519975709069666_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=RlA5ZoADGasQ7kNvwGCZGXe&amp;_nc_oc=AdkMcjSv5vzL44oq8s9OcxQkwDn6TNeS2fr69bOEg1uPNZP8wPokUIvycMIONFmCw4o&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-1.cdninstagram.com&amp;oh=00_AffcGryNAe8cRyjI4NN3ieuoVXxRATqxweDVXgRPpiz4Xw&amp;oe=68EAF5D1', 'username': 'la_titi_iregui'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/18067220132251782', 'id': '18067220132251782', 'text': 'Buenísimos bonos 🛍️🤑', 'ownerUsername': 'la_titi_iregui', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/294887052_741799106873453_3778519975709069666_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=RlA5ZoADGasQ7kNvwHekjPp&amp;_nc_oc=AdnzJDc5Sn8qzWHPjRTnghDWrPEfM9LTl9EqOJPPWsyMsxG9GCe3HqrrBISZo9utl9k&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_AfcvlvLV9VLNtO28G-AApR76YI7azwKSdA7BdzAPdkj9kQ&amp;oe=68EC4751', 'timestamp': '2025-09-15T23:56:43.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841401487910056', 'full_name': 'Cristina Iregui Casas', 'id': '3633597', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '2888115834838359994', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/294887052_741799106873453_3778519975709069666_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=RlA5ZoADGasQ7kNvwHekjPp&amp;_nc_oc=AdnzJDc5Sn8qzWHPjRTnghDWrPEfM9LTl9EqOJPPWsyMsxG9GCe3HqrrBISZo9utl9k&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_AfcvlvLV9VLNtO28G-AApR76YI7azwKSdA7BdzAPdkj9kQ&amp;oe=68EC4751', 'username': 'la_titi_iregui'}}</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/18402628888141774', 'id': '18402628888141774', 'text': 'Me gané un bono de wingo', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-sof1-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=-snM5LueWTcQ7kNvwHO4v7u&amp;_nc_oc=AdlYbaRz7X3Ozf2apOcUIE__H5EVUXgECPngu7cE9acydwVbOJQvixeUTadSvI12uDs&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-1.cdninstagram.com&amp;oh=00_AfdZy6Id2S_hsNNfMYk_5EJbER3BhflY81PxKAIeL4xIeg&amp;oe=68EAE411', 'timestamp': '2025-09-15T21:16:49.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-sof1-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=-snM5LueWTcQ7kNvwHO4v7u&amp;_nc_oc=AdlYbaRz7X3Ozf2apOcUIE__H5EVUXgECPngu7cE9acydwVbOJQvixeUTadSvI12uDs&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-sof1-1.cdninstagram.com&amp;oh=00_AfdZy6Id2S_hsNNfMYk_5EJbER3BhflY81PxKAIeL4xIeg&amp;oe=68EAE411', 'username': 'danielbp4'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DNVr0veg684/', 'commentUrl': 'https://www.instagram.com/p/DNVr0veg684/c/18402628888141774', 'id': '18402628888141774', 'text': 'Me gané un bono de wingo', 'ownerUsername': 'danielbp4', 'ownerProfilePicUrl': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=7hvxz09qZJIQ7kNvwEG8mZA&amp;_nc_oc=AdnPAcIuo5t5r8M5JCeoA4z01H-dD4_dgZJXDPgglkCHbIVIcHDplQX_6XGH2mgy9DE&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_Afc5XN4LdvN2Vf0sAnUe-DAqI3pITCAA9PY4zkDFcMFB7A&amp;oe=68EC3591', 'timestamp': '2025-09-15T21:16:49.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841406785483358', 'full_name': 'Daniel Barraza Puerta', 'id': '6906866182', 'is_mentionable': True, 'is_private': True, 'is_verified': False, 'profile_pic_id': '3475603083976930854', 'profile_pic_url': 'https://scontent-iad3-1.cdninstagram.com/v/t51.2885-19/462518746_518758134452396_1258340520041025434_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDgwLkMzIn0%3D&amp;_nc_ohc=7hvxz09qZJIQ7kNvwEG8mZA&amp;_nc_oc=AdnPAcIuo5t5r8M5JCeoA4z01H-dD4_dgZJXDPgglkCHbIVIcHDplQX_6XGH2mgy9DE&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.cdninstagram.com&amp;oh=00_Afc5XN4LdvN2Vf0sAnUe-DAqI3pITCAA9PY4zkDFcMFB7A&amp;oe=68EC3591', 'username': 'danielbp4'}}</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02gCxggxarbHcaENWk2XvKygkUzfy2HA6cKVZH8thMFvMXQwu91cgCvXr3UHN5pn4Nl?comment_id=1134435085288982', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzExMzQ0MzUwODUyODg5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF8xMTM0NDM1MDg1Mjg4OTgy', 'date': '2025-08-28T03:35:11.000Z', 'text': 'Jv', 'profileUrl': 'https://www.facebook.com/juan.carlos.garcia.garcia.391460', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwHVCj8n&amp;_nc_oc=AdkW_XJuO9ErcwDFsUVrIXdpRn3Il5R99IWWwPflSuZE1SZXNcXKw_KuNWznv2zq6Vw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_Afd3L_rYmDPYsiIjepO76OtrRpu2wPtJwOKZPcaocWzuyg&amp;oe=690C9A7A', 'profileId': 'pfbid02XbDSyYvANa1XPXQYxVFUzYqh2NGkt1rJMU5zfCVLZ1MXLutXma6e4oyVhYDRTqRWl', 'profileName': 'Juan Carlos García García', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0cfKVmnxVkEMVKTT6roSgt56nGtbnwD9grSJm5c4ieF3JuQJidYCxAqaW36Amfntwl?comment_id=1134435085288982', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzExMzQ0MzUwODUyODg5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF8xMTM0NDM1MDg1Mjg4OTgy', 'date': '2025-08-28T03:35:11.000Z', 'text': 'Jv', 'profileUrl': 'https://www.facebook.com/juan.carlos.garcia.garcia.391460', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEJIiEN&amp;_nc_oc=AdnOjHqtvArO96q-NkV4pLR22vEfuOYvq4FrVW5zfs95CrG-uIndMhsQe98Kkt8vC48oKpmF_DLOYQaAo8qXk5cB&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;oh=00_Afc612bpoKhhJw4Ns2W42S5SRHHMQigzpoI0i5e2p0HHrw&amp;oe=690DEBFA', 'profileId': 'pfbid0TZcjVjibhcmf4MgmbTTiPevH84qa41ft9rawMyXzZyuErskNAFsHg6mJ5FAw5tK4l', 'profileName': 'Juan Carlos García García', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02gCxggxarbHcaENWk2XvKygkUzfy2HA6cKVZH8thMFvMXQwu91cgCvXr3UHN5pn4Nl?comment_id=781921801187112', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzc4MTkyMTgwMTE4NzExMg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF83ODE5MjE4MDExODcxMTI=', 'date': '2025-08-17T23:07:16.000Z', 'text': 'Loki', 'profileUrl': 'https://www.facebook.com/people/Cristian-Mauricio-Buitrago-Meneses/pfbid02UitUxtTQU7bZoc6vJfA659fgPce7B9U4FqcCvwKtzGsdHP112WtjgnDZyBHWpPCWl/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/463254763_122162816708254471_2043284699880586958_n.jpg?stp=c125.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=15-Sn8O21hAQ7kNvwEQilI1&amp;_nc_oc=AdnnwPEvEIN7TSYF851OKlc7297Z8K-ukfa1PQAzXHM1I_kiU8Xm1o3hmSMz8-uN9pM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=2rN6dDl07tGhoZwCKhtzng&amp;oh=00_Afdnmu1DS4FL5wlLlZlzSZZXRYJNYGHTjyMKXZu99_W5yw&amp;oe=68EAE3A3', 'profileId': 'pfbid02UitUxtTQU7bZoc6vJfA659fgPce7B9U4FqcCvwKtzGsdHP112WtjgnDZyBHWpPCWl', 'profileName': 'Cristian Mauricio Buitrago Meneses', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0cfKVmnxVkEMVKTT6roSgt56nGtbnwD9grSJm5c4ieF3JuQJidYCxAqaW36Amfntwl?comment_id=781921801187112', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzc4MTkyMTgwMTE4NzExMg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF83ODE5MjE4MDExODcxMTI=', 'date': '2025-08-17T23:07:16.000Z', 'text': 'Loki', 'profileUrl': 'https://www.facebook.com/people/Cristian-Mauricio-Buitrago-Meneses/pfbid0QhHmV5Fqo1a1f362mXxz7hKk4eYHbYc5scJ4eSNJLvdsDAFDLmD5bKbTsS3oSWfAl/', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/463254763_122162816708254471_2043284699880586958_n.jpg?stp=c125.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=15-Sn8O21hAQ7kNvwGJgopC&amp;_nc_oc=AdmjcPneUh43EhhKtRm14vV-gaIdjic69UIceNk-dJxNUhLE7tj755ZAkKzgR0Vf4jKP70hN0lY3B_bWFL8cIN64&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=51feaakoBBDm0g06TJHqtQ&amp;oh=00_AfdIKKZ6uXBwMsLKnzMJWIRlRS1mv0x6rrmMF42COKt8Ag&amp;oe=68EC3523', 'profileId': 'pfbid0QhHmV5Fqo1a1f362mXxz7hKk4eYHbYc5scJ4eSNJLvdsDAFDLmD5bKbTsS3oSWfAl', 'profileName': 'Cristian Mauricio Buitrago Meneses', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02gCxggxarbHcaENWk2XvKygkUzfy2HA6cKVZH8thMFvMXQwu91cgCvXr3UHN5pn4Nl?comment_id=2141140766376181', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzIxNDExNDA3NjYzNzYxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF8yMTQxMTQwNzY2Mzc2MTgx', 'date': '2025-08-29T23:30:57.000Z', 'text': 'A 36', 'profileUrl': 'https://www.facebook.com/miguel.barreiro.889488', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/533131002_122140073354720271_3717502967093328577_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=i0L_Bc5fuz0Q7kNvwFaMbdn&amp;_nc_oc=AdnIn3VSMmxY08eWZwAG4OkhvraEC6bmlnzjVuT93j9ZUXjPM7uC-ih84LGDjLDDCtQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2rN6dDl07tGhoZwCKhtzng&amp;oh=00_AffovDzgYv_3YFZi2dG8xD-8Ct9h8GkKghhXXv7uwwR-PQ&amp;oe=68EADEE4', 'profileId': 'pfbid0NyoGsyQxNTFPhq9XRx7rcoeNeq41oyJN9x2kXQbN6BuaLnx7qmUVBuVxS7Uw1QDxl', 'profileName': 'Miguel Barreiro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0cfKVmnxVkEMVKTT6roSgt56nGtbnwD9grSJm5c4ieF3JuQJidYCxAqaW36Amfntwl?comment_id=2141140766376181', 'id': 'Y29tbWVudDoxMTcxNjkyMjIxNjYzMTkwXzIxNDExNDA3NjYzNzYxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MTY5MjIyMTY2MzE5MF8yMTQxMTQwNzY2Mzc2MTgx', 'date': '2025-08-29T23:30:57.000Z', 'text': 'A 36', 'profileUrl': 'https://www.facebook.com/miguel.barreiro.889488', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/533131002_122140073354720271_3717502967093328577_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KU3TDEgtM24Q7kNvwE3lLuL&amp;_nc_oc=Adkura14Q7_YfMFfbiiVFBLzQ49Y1QVtHWbeRlykX0LNPsvz0t1BDuXfHeBtsLeCDC_uluMDXDNOXwfiiuVZ4VHC&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=51feaakoBBDm0g06TJHqtQ&amp;oh=00_AfeEetE8766nurxY-YSqFEA0kIqAQ0Ts_l8iVk5uLVi0Iw&amp;oe=68EC3064', 'profileId': 'pfbid02SqEz4eLnDpQ95GE3E6snS4qX3moKCPJLUK73d4dNnna3mURZziAjB9nqf8QJgUmvl', 'profileName': 'Miguel Barreiro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1171692221663190', 'postTitle': '¡Puedes registrar desde una etiqueta e ir acumulándolas para armar tus frases!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1171691858329893/'}</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1134151125291537', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMzQxNTExMjUyOTE1Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTM0MTUxMTI1MjkxNTM3', 'date': '2025-08-27T04:49:34.000Z', 'text': 'Super delicioso', 'profileUrl': 'https://www.facebook.com/wendyppu', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/467505958_8539573739430137_7870276209555588789_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9Cz2zcAksV4Q7kNvwFxEEc7&amp;_nc_oc=Adm17ObndzrMsi4mTlzRkcKJH3ZhaHfA2sXoiaYR_IVGJ1jbKIPpD_4BOVXQrALkSZ4&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=QpX_NTJ8Mrubk-dqtcSuxQ&amp;oh=00_AfcHDqvSP8pgWHOYDyqJ63vxFS9umUZ_wjbHpy91xmGk0w&amp;oe=68EAF925', 'profileId': 'pfbid0phwEhniaqwqY5BhDyjpj83xTtK1MZsxqnw7MTtWdMGB3pqMNswgviRPRQ7so8yCEl', 'profileName': 'Wendy Peñaranda', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1134151125291537', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMzQxNTExMjUyOTE1Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTM0MTUxMTI1MjkxNTM3', 'date': '2025-08-27T04:49:34.000Z', 'text': 'Super delicioso', 'profileUrl': 'https://www.facebook.com/wendyppu', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/467505958_8539573739430137_7870276209555588789_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Uz1hnAoNgZIQ7kNvwGMj1PE&amp;_nc_oc=AdnTV3bcCaeR5p219mhlkV3XxIEs7inJlLZeR4rXDb2am_gYsRk47iDijxd3zd1K8SE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=lWDxdnlWDLaKvnntpryXRQ&amp;oh=00_AfdC-bATIn4yik-ItlFFYmI13ZcQlP_oE78Ctgm3dUFRWw&amp;oe=68EC4AA5', 'profileId': 'pfbid02t5RRKp5Csjd4EtfCpCE62sb75qK1EoVQJsKVk8fYbqg4sWz8eDUBtWJZ8WgDASkel', 'profileName': 'Wendy Peñaranda', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1959947894850746', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5NTk5NDc4OTQ4NTA3NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTU5OTQ3ODk0ODUwNzQ2', 'date': '2025-08-21T22:16:11.000Z', 'text': 'Me encanta....', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/508308202_10222417440503600_4014222806330509908_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oWSfANG8wl4Q7kNvwEPuqSi&amp;_nc_oc=AdlGSo66eI6LCEqeHiuJZDCzxzAql2yx311b91CDLlCtNjTv_NzVdedtxKESxXH1Qis&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=QpX_NTJ8Mrubk-dqtcSuxQ&amp;oh=00_AffYW7Z3m_XZxd8QOkg0MP3Ne5ATKvHNS23B3ch6Izgs4g&amp;oe=68EAFAB0', 'profileId': 'pfbid0gmHfUAtJpaDjYvxBfKBpFo8jMyQw46iJUHN2ivcpJUKTBPgau4Zz7XopamY1yKBFl', 'profileName': 'Lopez Kty', 'likesCount': '14', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1959947894850746', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5NTk5NDc4OTQ4NTA3NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTU5OTQ3ODk0ODUwNzQ2', 'date': '2025-08-21T22:16:11.000Z', 'text': 'Me encanta....', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/508308202_10222417440503600_4014222806330509908_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bN28cyJlKwoQ7kNvwHo6Wsf&amp;_nc_oc=Adn01H1OxXpkiuKXN_5C0bnoS1mESjfN1wFgbd1E5zv-ggbvsV6rHqWcJHxIIjbB2pE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=lWDxdnlWDLaKvnntpryXRQ&amp;oh=00_AfehyxH8ps7VTYImU4rTnpCUUVfd6nKR9fK543B0hOXwvA&amp;oe=68EC4C30', 'profileId': 'pfbid02kcjNeqp8g1x8GPjRk5n265mnLGqohKeBwdvysWAbZ8oqWvz7QKAk6gBsmz2K9b2Tl', 'profileName': 'Lopez Kty', 'likesCount': '14', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=759430156876256', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1OTQzMDE1Njg3NjI1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTk0MzAxNTY4NzYyNTY=', 'date': '2025-08-28T15:51:04.000Z', 'text': 'Delicioso y nutritivo', 'profileUrl': 'https://www.facebook.com/people/Patricia-Tapia/pfbid0X2EaqZtPSRR6PMAAmDaLV8TTids6JVsj5RTeiUhnP2ihFuM7UMbvECac48QuLYMzl/', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/557580035_806732771964401_4909195108048232996_n.jpg?stp=c0.0.397.397a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SHtUvns0SToQ7kNvwGKI00J&amp;_nc_oc=AdlCSV-OMZbqYTPG1j4COYcEfIM9Rc117nXCyNfqy93DPDbdsZo9TQW5uKI-n9Gs1IA&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=QpX_NTJ8Mrubk-dqtcSuxQ&amp;oh=00_AfffU-XFpSDjph4u8N-xx7U3BT8f70vPiaTKgUKJa8E3ZA&amp;oe=68EB0C96', 'profileId': 'pfbid0X2EaqZtPSRR6PMAAmDaLV8TTids6JVsj5RTeiUhnP2ihFuM7UMbvECac48QuLYMzl', 'profileName': 'Patricia Tapia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=759430156876256', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1OTQzMDE1Njg3NjI1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTk0MzAxNTY4NzYyNTY=', 'date': '2025-08-28T15:51:04.000Z', 'text': 'Delicioso y nutritivo', 'profileUrl': 'https://www.facebook.com/people/Patricia-Tapia/pfbid02asgJ2EpDHpBrpeHfEMgb9FKzhZKBsENJLdWrVouchXDjPhyekzARN6G5ekkTFUw6l/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/557580035_806732771964401_4909195108048232996_n.jpg?stp=c0.0.397.397a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SHtUvns0SToQ7kNvwGkPmh1&amp;_nc_oc=Adl0TfzBa9a7F_MeHYG0VvpfNi3w2c9XGTZEdEMkaHyq0ucqny9FsaasxLLCTRMWovU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=lWDxdnlWDLaKvnntpryXRQ&amp;oh=00_AffiOs2skpQKFSmtuQ0yD2G0F-MmOuGGQBlMCYez0VP6IQ&amp;oe=68EC5E16', 'profileId': 'pfbid02asgJ2EpDHpBrpeHfEMgb9FKzhZKBsENJLdWrVouchXDjPhyekzARN6G5ekkTFUw6l', 'profileName': 'Patricia Tapia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1931807994353588', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5MzE4MDc5OTQzNTM1ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTMxODA3OTk0MzUzNTg4', 'date': '2025-08-24T01:51:50.000Z', 'text': 'Me encanta yo quiero uno', 'profileUrl': 'https://www.facebook.com/andrea.lasso.rodriguez.2025', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/550231366_122142347870700475_1475488408178351722_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EJcK1gqKObkQ7kNvwGGsPNI&amp;_nc_oc=AdmsDNjjZLMpYGvopAtNgt7x39TDL6gJh8907jDGVs2_EOpIhF5G6o4AFzu0ArEIBnY&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=QpX_NTJ8Mrubk-dqtcSuxQ&amp;oh=00_AffYLo4NrQYdBlOTf1hDMt0CDCFT9rlIJPqutJ8_x4nIBg&amp;oe=68EAF379', 'profileId': 'pfbid0SvA4KkZhbMqec6nYq6MExKmHR8zVpmnbvKY7K7XqQL8E7QRthGDnqcCUNnuDixZsl', 'profileName': 'Andrea Lasso Rodríguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1931807994353588', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5MzE4MDc5OTQzNTM1ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTMxODA3OTk0MzUzNTg4', 'date': '2025-08-24T01:51:50.000Z', 'text': 'Me encanta yo quiero uno', 'profileUrl': 'https://www.facebook.com/andrea.lasso.rodriguez.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/550231366_122142347870700475_1475488408178351722_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EJcK1gqKObkQ7kNvwEtfJ_Q&amp;_nc_oc=Adk0VTmG9TkSfkBvkQStsXPXs1E1ubdABkcfoZAazc-egKCMUWmZTcNzWh95Uc87aGA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=lWDxdnlWDLaKvnntpryXRQ&amp;oh=00_AffXRS3eiy5pXjTgsN7JB68u_TXamlEaOzgZXh2AOZn8JA&amp;oe=68EC44F9', 'profileId': 'pfbid02WHeEwmvKcywL7ZeDVis3ndChWtE8c2Vgov7bUdj7wCSsWaQ17MkBQiHZMsWWhvu7l', 'profileName': 'Andrea Lasso Rodríguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1002013275278537', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwMDIwMTMyNzUyNzg1Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDAyMDEzMjc1Mjc4NTM3', 'date': '2025-08-26T14:28:38.000Z', 'text': '100x100 delicioso', 'profileUrl': 'https://www.facebook.com/alfonso.parada.754703', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwHHFkWx&amp;_nc_oc=AdnG9QM_Nmpgr7bYBF9eU9wrRnNKvVESLMPBUduMJRk7lSHfEUUKd-XJBYWvGXqnIpg&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;oh=00_Afe7JL1G4QKgbGadnaPtlkSqx9sqW3FSbzyKGCOgQbeAAg&amp;oe=690C9A7A', 'profileId': 'pfbid02aUR63qR7huva5q6va2fXxTxxCxFFGjz5X15rC8kTyeBasZAfU7HxWvThur213KTql', 'profileName': 'Alfonso Parada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1002013275278537', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwMDIwMTMyNzUyNzg1Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDAyMDEzMjc1Mjc4NTM3', 'date': '2025-08-26T14:28:38.000Z', 'text': '100x100 delicioso', 'profileUrl': 'https://www.facebook.com/alfonso.parada.754703', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEMSkrU&amp;_nc_oc=AdnhGdmDJldH5TCwCigDNKttA1czKrOJplrLBtOHdaUrdY7ZsP6-aqZryhJEkF5CHsg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfesQhqhmrpGXESXAagJycEh5Hfo4Bp0-9QgU4JoG_jtLw&amp;oe=690DEBFA', 'profileId': 'pfbid0WSpNa2DZ37Jc6MKRSe273BBfjJAx9cHZcsFmGupMc3vrKsdd6fC4RNw781EeAFt3l', 'profileName': 'Alfonso Parada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=634915359659230', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzYzNDkxNTM1OTY1OTIzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF82MzQ5MTUzNTk2NTkyMzA=', 'date': '2025-08-29T02:57:02.000Z', 'text': 'Son los mejores les doy un 1000', 'profileUrl': 'https://www.facebook.com/people/Luna-Mar/pfbid0Csn2kTWJjvV5j5P48nLHtc5yHe2dbBTwjL4NLkcmjn9tV1dPDijLXKdywG5oBECcl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwHHFkWx&amp;_nc_oc=AdnG9QM_Nmpgr7bYBF9eU9wrRnNKvVESLMPBUduMJRk7lSHfEUUKd-XJBYWvGXqnIpg&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;oh=00_Afe7JL1G4QKgbGadnaPtlkSqx9sqW3FSbzyKGCOgQbeAAg&amp;oe=690C9A7A', 'profileId': 'pfbid0Csn2kTWJjvV5j5P48nLHtc5yHe2dbBTwjL4NLkcmjn9tV1dPDijLXKdywG5oBECcl', 'profileName': 'Luna Mar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=634915359659230', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzYzNDkxNTM1OTY1OTIzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF82MzQ5MTUzNTk2NTkyMzA=', 'date': '2025-08-29T02:57:02.000Z', 'text': 'Son los mejores les doy un 1000', 'profileUrl': 'https://www.facebook.com/people/Luna-Mar/pfbid02GjDjw8S8bGj5rnGZzVsVjCKuAqPoDsEX5vesqjLXWKVYAN5s8chG2pY6zsxwE6Wdl/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEMSkrU&amp;_nc_oc=AdnhGdmDJldH5TCwCigDNKttA1czKrOJplrLBtOHdaUrdY7ZsP6-aqZryhJEkF5CHsg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfesQhqhmrpGXESXAagJycEh5Hfo4Bp0-9QgU4JoG_jtLw&amp;oe=690DEBFA', 'profileId': 'pfbid02GjDjw8S8bGj5rnGZzVsVjCKuAqPoDsEX5vesqjLXWKVYAN5s8chG2pY6zsxwE6Wdl', 'profileName': 'Luna Mar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1539699547407987', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE1Mzk2OTk1NDc0MDc5ODc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNTM5Njk5NTQ3NDA3OTg3', 'date': '2025-08-22T01:06:40.000Z', 'text': 'Es el contenido que les encanta a mis hijos 🤩', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/553310342_24623851133933621_8698051837016572924_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gvro7iTzjiAQ7kNvwGPjm6-&amp;_nc_oc=AdnmbokLXO2_9SbFq7I00i9XkYq0Cw5jKcx4i6sO1YRThHF8ey1d4dmNLhBvsdp68JA&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=QpX_NTJ8Mrubk-dqtcSuxQ&amp;oh=00_AfeBGbf6FKzjkg1OrpcjmXgKfirp6ZCpyMzUFY-GFpKm4w&amp;oe=68EB0935', 'profileId': 'pfbid0jL2prCqMG4wcRM2mMdnHcaKpGTja6TsoMH8KAnRBSGkTAUusW6FakFrpgfEqqA8Gl', 'profileName': 'Lorena Hernandez Gonzalez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1539699547407987', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE1Mzk2OTk1NDc0MDc5ODc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNTM5Njk5NTQ3NDA3OTg3', 'date': '2025-08-22T01:06:40.000Z', 'text': 'Es el contenido que les encanta a mis hijos 🤩', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/553310342_24623851133933621_8698051837016572924_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gvro7iTzjiAQ7kNvwG1CgZE&amp;_nc_oc=AdlvHukENBdOQnGrpWVk8XRZErI4EiaUpsTFB8ucPjzS7VoIL0vr2H9ulTZnQEr8Hi8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=lWDxdnlWDLaKvnntpryXRQ&amp;oh=00_AfcqztmQocvI1ozrCzW0bZrtNd06Ky4mZQ0DeG8DiRBCoA&amp;oe=68EC5AB5', 'profileId': 'pfbid02nhX1UEByHp9KGVbkwM2szzMHKdoL4qoCf6RErXsWsBrvz21z8edTXkkcpgGPdLN6l', 'profileName': 'Lorena Hernandez Gonzalez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1809163456338339', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4MDkxNjM0NTYzMzgzMzk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODA5MTYzNDU2MzM4MzM5', 'date': '2025-08-23T02:04:38.000Z', 'text': 'Lokillo está gordillo de comer Bon Yurt 😁 Rico y delicioso alimento 💪🏻😁', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/551004346_2612089235802675_3114660317057779911_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3nBSJZw62KwQ7kNvwG1GYLK&amp;_nc_oc=AdlCEpkG_9nJESvKPbGQSv6sIx9THvFQz7KpeL8huMWaeUUrmAundmRor3V0pUMZvjo&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=QpX_NTJ8Mrubk-dqtcSuxQ&amp;oh=00_Aff_xN7jvezGqhzVxuHvzm6h0WpeNerc4OzE6c64QlRfaw&amp;oe=68EAEEF9', 'profileId': 'pfbid02vjxGZMPCgLsw2izUixwKe1hE2YB7bcuQKC2JmSo498LfHA2vHGYN9HyWtpccZCYxl', 'profileName': 'Carlos Giraldo', 'likesCount': '23', 'commentsCount': 5, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1809163456338339', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4MDkxNjM0NTYzMzgzMzk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODA5MTYzNDU2MzM4MzM5', 'date': '2025-08-23T02:04:38.000Z', 'text': 'Lokillo está gordillo de comer Bon Yurt 😁 Rico y delicioso alimento 💪🏻😁', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/551004346_2612089235802675_3114660317057779911_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3nBSJZw62KwQ7kNvwEe8nIP&amp;_nc_oc=AdnHNLkPgFt-gnVN0eSeOyBsnrkobL-cYg8ZW0tqzxHyppwRCNzeAGKobCwT2_0lgd4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=lWDxdnlWDLaKvnntpryXRQ&amp;oh=00_AfcG33T2mb7e4O2YFlyeVG0pJuZnYTfmkeXzzxDs0ALX1Q&amp;oe=68EC4079', 'profileId': 'pfbid0riMZ5YBe1Qi85zLtoJ46WhaaQTqUtKU5MEQjqaNL7GPWwQAEdTry1Zeccsi1n8Bql', 'profileName': 'Carlos Giraldo', 'likesCount': '23', 'commentsCount': 5, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1686242388758750', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE2ODYyNDIzODg3NTg3NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNjg2MjQyMzg4NzU4NzUw', 'date': '2025-08-20T06:02:39.000Z', 'text': 'Que rica bebida y más con cereal 😋🤤🍫', 'profileUrl': 'https://www.facebook.com/andersonsteven.llanten.3', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/471977007_1109828727603036_1112624026591436266_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=f0qzc30QX44Q7kNvwFz0-iK&amp;_nc_oc=AdnH-0KFG8IdK-8CwRK6c75TVi_49hHMDZLQVRK5XykGdzgAlfNo7frx9Mg-Qs1h7bA&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=QpX_NTJ8Mrubk-dqtcSuxQ&amp;oh=00_AfcJ1Cl1XkByYYWJxvKSrFmhM_mCWcyAFq3bkUCenb1qtQ&amp;oe=68EB0C4B', 'profileId': '100057277579802', 'profileName': 'Anderson Steven Llanten', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1686242388758750', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE2ODYyNDIzODg3NTg3NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNjg2MjQyMzg4NzU4NzUw', 'date': '2025-08-20T06:02:39.000Z', 'text': 'Que rica bebida y más con cereal 😋🤤🍫', 'profileUrl': 'https://www.facebook.com/andersonsteven.llanten.3', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/471977007_1109828727603036_1112624026591436266_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=DodnhVQ95cIQ7kNvwGlaNiV&amp;_nc_oc=AdkOaK8DyPcwx-Pa3UfXZLix1QLPOlQg6lyMYRHdAC3jpXn55T0wK_ImI3D3XTQg-EQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=lWDxdnlWDLaKvnntpryXRQ&amp;oh=00_AfeArL6lX_YjwbWCdyLyY1uwkiPXDopfL-X_gCk3aZenWg&amp;oe=68EC5DCB', 'profileId': '100057277579802', 'profileName': 'Anderson Steven Llanten', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1276392853748154', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEyNzYzOTI4NTM3NDgxNTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMjc2MzkyODUzNzQ4MTU0', 'date': '2025-08-19T17:08:58.000Z', 'text': 'El Loki Dabeibano  ya sale promocionando Bon Yurt eso mi Loki lleva  nuestro  pueblito  por lo alto 😘❤💞', 'profileUrl': 'https://www.facebook.com/people/V%C4%85l%C4%99nt%C4%AFn%C4%85-%C4%84rd%C4%AFl%C4%85-L%C3%B8p%C4%99%C5%BE/pfbid0GcT4EYuAdKJZpNdH2een31Tuc3uTpSC4oa5Zrrvhz4ESDq5ESJce84W2tyKrQtQBl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/481674715_122094513200801080_7547546818748536907_n.jpg?stp=c0.24.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ufxXpGW72ssQ7kNvwHDVLkW&amp;_nc_oc=AdllHtOlvFR7jUJp3Oam_Ac2GWsA76H002J8WClkWHvziIytt2hexV_vGqq0qU5NY1c&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=QpX_NTJ8Mrubk-dqtcSuxQ&amp;oh=00_AfcmqCKmUVICSdpELvF40oBdzYMJyeGYWHwhaeqFKw1ZeA&amp;oe=68EAF8F4', 'profileId': 'pfbid0GcT4EYuAdKJZpNdH2een31Tuc3uTpSC4oa5Zrrvhz4ESDq5ESJce84W2tyKrQtQBl', 'profileName': 'Vąlęntįną Ąrdįlą Løpęž', 'likesCount': '3', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1276392853748154', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEyNzYzOTI4NTM3NDgxNTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMjc2MzkyODUzNzQ4MTU0', 'date': '2025-08-19T17:08:58.000Z', 'text': 'El Loki Dabeibano  ya sale promocionando Bon Yurt eso mi Loki lleva  nuestro  pueblito  por lo alto 😘❤💞', 'profileUrl': 'https://www.facebook.com/people/V%C4%85l%C4%99nt%C4%AFn%C4%85-%C4%84rd%C4%AFl%C4%85-L%C3%B8p%C4%99%C5%BE/pfbid02LTtmRDpzUjC4TSD1TFHMvgwyX1cnhBFmCTYMhnjrP3fPUjkDcVZeTQLjhK1iGpzyl/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/481674715_122094513200801080_7547546818748536907_n.jpg?stp=c0.24.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ufxXpGW72ssQ7kNvwES3AkU&amp;_nc_oc=Adla4zGc_sGINCZeMWi7cvCXK-FsMQU5eSCA_HBhN1_kivMUUX-D44SPE0iENkfiH7I&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=lWDxdnlWDLaKvnntpryXRQ&amp;oh=00_AfchS9wu4B4UD6fUZSVig_n54-91nDL0M4SMa7ZJTRvHJA&amp;oe=68EC4A74', 'profileId': 'pfbid02LTtmRDpzUjC4TSD1TFHMvgwyX1cnhBFmCTYMhnjrP3fPUjkDcVZeTQLjhK1iGpzyl', 'profileName': 'Vąlęntįną Ąrdįlą Løpęž', 'likesCount': '3', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1419329749152945', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0MTkzMjk3NDkxNTI5NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDE5MzI5NzQ5MTUyOTQ1', 'date': '2025-08-27T20:50:25.000Z', 'text': 'Que rica esa boca Loki!!', 'profileUrl': 'https://www.facebook.com/ypinedaruiz1', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/542183273_24510095768628895_2316325469213779369_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Gmr2UIt6deEQ7kNvwHoKQzo&amp;_nc_oc=Adn1oNzZv6UgyqarWJyag5buc0alCqE54humMQeouPj58KVYakHryxHqVEMmYEYy7p0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_Affw71kUxzZ9GIHz0b56KyoYdKgPtnyK72dvmtOYJTTLqQ&amp;oe=68EAF882', 'profileId': 'pfbid02BS7xckqgLSfKD9cbjH256G9GjM8supJDbZTQYPoxrsFc6APefZta9rE8emiadyaol', 'profileName': 'Yolimar Pineda Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1170398941792518?comment_id=1419329749152945', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0MTkzMjk3NDkxNTI5NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDE5MzI5NzQ5MTUyOTQ1', 'date': '2025-08-27T20:50:25.000Z', 'text': 'Que rica esa boca Loki!!', 'profileUrl': 'https://www.facebook.com/ypinedaruiz1', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/542183273_24510095768628895_2316325469213779369_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QudOMVnSbGsQ7kNvwEcBdV1&amp;_nc_oc=Adk4i3AoL5dK1e6jYdrkbPKLc8-p8zZ0oSehprVBE9Q1pthNZ0OtDwNz0sVRHHv4yw1NGWohXO6GZJNMQoSs52Bx&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_AfcD6ej4wpmoNxIr2n6R8Wrd3FR_HgzQHrVEcj6jJLST8Q&amp;oe=68EC4A02', 'profileId': 'pfbid07QXF8we7feN3UKXmDBDYTqfBc6iSw7dWNGpvMFwYDXWWvXiDPzwQB2poKey9rEcDl', 'profileName': 'Yolimar Pineda Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=4226072554302120', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQyMjYwNzI1NTQzMDIxMjA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MjI2MDcyNTU0MzAyMTIw', 'date': '2025-08-24T21:59:18.000Z', 'text': 'Bueno', 'profileUrl': 'https://www.facebook.com/nelson.ordones.311056', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/462560680_1065506931878769_1746695199810364978_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=zqe55zZ9ojMQ7kNvwExY-t9&amp;_nc_oc=AdmbgnZCNBpGVMQnLipV3ksz6nWkfuIZq5Hb5G4DQ4AebeQL7m5Pbv3TlfZ2OSZ74ks&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_Affp6YKfC0W6-ibxDw62IlCVHgeKJxGTOqe06eP5fRK0yA&amp;oe=68EAE2C4', 'profileId': '100052584173694', 'profileName': 'Nelson Yecith Ordones Parejo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1170398941792518?comment_id=4226072554302120', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQyMjYwNzI1NTQzMDIxMjA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MjI2MDcyNTU0MzAyMTIw', 'date': '2025-08-24T21:59:18.000Z', 'text': 'Bueno', 'profileUrl': 'https://www.facebook.com/nelson.ordones.311056', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/462560680_1065506931878769_1746695199810364978_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=PagmD67mQ00Q7kNvwGqG8uw&amp;_nc_oc=AdlkQk8XQD2qgONuZIkv2M8hj_WXVq7XANJbt0Qb7G3agvBJ2LpbENvUGws-VsgnDlsKszK1xWcyvWcxusk_xvJT&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_AffxVcvGpahvzk8Cngt55tWK-AaH2iz5LSzvYXtjRefFxg&amp;oe=68EC3444', 'profileId': '100052584173694', 'profileName': 'Nelson Yecith Ordones Parejo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1083098197269598', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwODMwOTgxOTcyNjk1OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDgzMDk4MTk3MjY5NTk4', 'date': '2025-08-16T04:39:48.000Z', 'text': 'es muy bueno pero muy poco', 'attachments': [{'__typename': 'Sticker', 'frame_count': 12, 'frame_rate': 83, 'frames_per_column': 3, 'frames_per_row': 4, 'label': 'Thumbs Up, girl giving thumbs up', 'pack': {'name': 'Noo-Hin', 'id': '1193273174104906'}, 'sprite_image': {'uri': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.1997-6/47472862_1846683478763869_5271603212267290624_n.png?stp=dst-png_p240x240&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=ba09c1&amp;_nc_ohc=A7rSdzG2DRsQ7kNvwEaTRI7&amp;_nc_oc=Adn-gc9gnV_92Ox7IwKCZrxbtRFj70TeAxyezv_fBzK_MOUTuuwe1NeBOZs_4XcHJbg&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_AfeovwOEoWHQBq4s7dvxVJyLzJAEodo347QllBZtnHFbDA&amp;oe=68EAF77E'}, 'image': {'uri': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.1997-6/47614232_1846683475430536_3135922765756891136_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=kyrv7Q7YwXMQ7kNvwFY0CvE&amp;_nc_oc=AdljMpnslC0wGMeCMS8B36DoL9ML-46TjTrHaGF57PK77PikvDvuIuu2IovRzEwGAjM&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_AfdfQh1AlMG8qe7EN5DWMEDEpP9kM-gPYO2QwXu66lrDCw&amp;oe=68EADDE3', 'width': 80, 'height': 80}, 'id': '1193278434104380'}], 'profileUrl': 'https://www.facebook.com/andrea.jisell.gerena', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/348614154_1298627834419218_3175707734262848380_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VkmwxnrGFo0Q7kNvwEBi86y&amp;_nc_oc=Adnne6S4_O0v57lRC0hvLkrUx871D9_wEJxQ99wymA2mg4nWn57sBCohkDY7OFnZN3s&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_AfelxPZux_lv0_JUFuwlETl4fjBt06kAqUrwylVpciH-Vw&amp;oe=68EAEF71', 'profileId': 'pfbid0YjwhLbxd3FwtusmniR9TsNrnRPdjE9Aeb4E6Aa1dVqXoFpygHJM7NfkPC31FJ4pCl', 'profileName': 'Andrea Jisell Gerena', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1170398941792518?comment_id=1083098197269598', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwODMwOTgxOTcyNjk1OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDgzMDk4MTk3MjY5NTk4', 'date': '2025-08-16T04:39:48.000Z', 'text': 'es muy bueno pero muy poco', 'attachments': [{'__typename': 'Sticker', 'frame_count': 12, 'frame_rate': 83, 'frames_per_column': 3, 'frames_per_row': 4, 'label': 'Thumbs Up, girl giving thumbs up', 'pack': {'name': 'Noo-Hin', 'id': '1193273174104906'}, 'sprite_image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.1997-6/47472862_1846683478763869_5271603212267290624_n.png?stp=dst-png_p240x240&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=ba09c1&amp;_nc_ohc=A7rSdzG2DRsQ7kNvwF9Y_Fb&amp;_nc_oc=Adk7Pmif8gq6-uYm9TduUoZ1wfXtZTuffNLI4_TsL8cIegSOkeXGDrQ0e9Fs4mJ8vhx6njgzbZEgSkIyrxgSwveV&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_Affcl-JbcSR0D7YU16jeMPKj-1j0014MY1dJd5WpItHQbA&amp;oe=68EC48FE'}, 'image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.1997-6/47614232_1846683475430536_3135922765756891136_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=kyrv7Q7YwXMQ7kNvwE3w0Z7&amp;_nc_oc=Adn0bS9IQQGJiKuxJ1atmGru92oWJY6g9MyG4XuJhRnhXhkN4lGcJqnpQT2vnMILXTzV3MEwne9IVsYG1axEZEOn&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_AfdoFaYqUic_0s9r5Fbk3TrAYZHMxirjU0rPgPPWOTNlrw&amp;oe=68EC2F63', 'width': 80, 'height': 80}, 'id': '1193278434104380'}], 'profileUrl': 'https://www.facebook.com/andrea.jisell.gerena', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/348614154_1298627834419218_3175707734262848380_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VkmwxnrGFo0Q7kNvwHAD5Nh&amp;_nc_oc=AdliaVCFHNFhQN9cCqYwm-UUScBRwnAR3tWnwfWROJeUAsnOffHS-1eW8ZR3mWokGNo1JhcGjaY4bV19F6lezXoh&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_AfcZnFea8BqWwipxnMNSuEb4ZXQShYOemqHO8wYeLxZsRA&amp;oe=68EC40F1', 'profileId': 'pfbid02c7RsxdKF4rDVFzLXMX1AZifNxkMqw9YQe38qUjXhdWSeuWNGacxKrqW8dc7kKXEEl', 'profileName': 'Andrea Jisell Gerena', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1553562459411769', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE1NTM1NjI0NTk0MTE3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNTUzNTYyNDU5NDExNzY5', 'date': '2025-08-24T14:26:06.000Z', 'text': 'Sale solo regalo llevo 10 yogurt', 'profileUrl': 'https://www.facebook.com/yeidiz.arroyo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/545983455_25279976524924780_47157597036104731_n.jpg?stp=c0.36.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DybbJEdkSMMQ7kNvwFGNIuR&amp;_nc_oc=AdkX7JfEi9gjh7OTOlYz3gKNlKIXBH2N4GUo_byY9IShkCQkziSbJP38gLSuxg9GPZM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_AfdS6K8PVLgdhNxa0GHktKnGb-sOesUNsNyZrFnuWIFfgw&amp;oe=68EB0822', 'profileId': 'pfbid05c1QMkihNvWR51rkfYK7j3CgQ25nVvsQAYVtDz2yR2VnWkGVXnxuSByHmFUWfSpkl', 'profileName': 'Day Diaz', 'likesCount': '0', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1170398941792518?comment_id=1553562459411769', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE1NTM1NjI0NTk0MTE3Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNTUzNTYyNDU5NDExNzY5', 'date': '2025-08-24T14:26:06.000Z', 'text': 'Sale solo regalo llevo 10 yogurt', 'profileUrl': 'https://www.facebook.com/yeidiz.arroyo', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/545983455_25279976524924780_47157597036104731_n.jpg?stp=c0.36.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DybbJEdkSMMQ7kNvwFc4T2l&amp;_nc_oc=AdmsyEeuCmU2yXMhJHhzRjpQZ56DGmj_KvCFkRXQANDAyZEOWU9NxfHTS3JHm3vFH95zmU-YGppAWqpK060i07bj&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_AffJsz93rR1cW-1K-S-cZ3-Wp-EzIpern0z3NU5QTSG0ew&amp;oe=68EC59A2', 'profileId': 'pfbid029TT7YReXEE4Yey1LkVGuE67StPsxZPuTyEwUrHrAXva6vuC8B7HXqoDNLg64Npucl', 'profileName': 'Day Diaz', 'likesCount': '0', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=613623884904175', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzYxMzYyMzg4NDkwNDE3NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF82MTM2MjM4ODQ5MDQxNzU=', 'date': '2025-08-20T03:21:13.000Z', 'text': 'Esta era la campaña donde salía bless', 'profileUrl': 'https://www.facebook.com/tacos.tostones', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.6435-1/105384843_700203510548077_3304227752436628158_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x_iKU6M_gmMQ7kNvwFADxT4&amp;_nc_oc=AdkEuyH9XZPwgLdilxvbN0RfaOokuSY-0MTPl8YQmCMDFethfu07XY9uDUNLMSys4xI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_AfdA0-mvnHbHO-oJWwVVPlJzQi4MDAeWOEeny7syftcDwg&amp;oe=690C7F97', 'profileId': 'pfbid02BSLepPzL2vs7QbzTPhX2gvn8TRcpB8zDQen7sWkLhXSXvvXG3qDiDUiNAP7x96ndl', 'profileName': 'Tacos Tostones', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1170398941792518?comment_id=613623884904175', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzYxMzYyMzg4NDkwNDE3NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF82MTM2MjM4ODQ5MDQxNzU=', 'date': '2025-08-20T03:21:13.000Z', 'text': 'Esta era la campaña donde salía bless', 'profileUrl': 'https://www.facebook.com/tacos.tostones', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/105384843_700203510548077_3304227752436628158_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x_iKU6M_gmMQ7kNvwEDYpym&amp;_nc_oc=AdnfL3wv_8WqFodhJLuUkdxTLup1hfkoD3_zlTkpOTb2i6FgmjkaO72g9LKIZPtYCLQBgQ9Q9F0efuBTcSsT1Ne8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_AfdBcRtuFzEDwHLgnX9wNE1l5NvWLmV-LytUAWwRZZRm7A&amp;oe=690DD117', 'profileId': 'pfbid07QjwLanmN5Bza2P7cP4rDH5kYs8ZVCuXfaB5SCATcwX2QSiyXcwaKtZrwKWhTRw5l', 'profileName': 'Tacos Tostones', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1471141737564489', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NzExNDE3Mzc1NjQ0ODk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDcxMTQxNzM3NTY0NDg5', 'date': '2025-08-23T21:58:01.000Z', 'text': 'Bueno x lo menos no opaca a sus amiguitos .los suaves', 'profileUrl': 'https://www.facebook.com/andres.zaramacastiblanco', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/308441094_10159936068582302_928911923576938665_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tDY61g4si8kQ7kNvwFguK_Q&amp;_nc_oc=Adm-WgC_XbGJ8D_y63LEhWfYqZtv-H6PdxSbYsQbo2lWkNoTWZ4IwCRPF0t5PPbhNa0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_AfejRCGQN7bBlLDLQyIvF2M7PD0OKs21uEa0GwtForYbNQ&amp;oe=68EAF7E4', 'profileId': 'pfbid02VALMA7Jtn5MCDzxE3o41gajufR9N8632c3qaJZYdvNXWa4oHmb8CzdZ2cMhBJaEjl', 'profileName': 'Andres Zarama Castiblanco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1170398941792518?comment_id=1471141737564489', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NzExNDE3Mzc1NjQ0ODk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDcxMTQxNzM3NTY0NDg5', 'date': '2025-08-23T21:58:01.000Z', 'text': 'Bueno x lo menos no opaca a sus amiguitos .los suaves', 'profileUrl': 'https://www.facebook.com/andres.zaramacastiblanco', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/308441094_10159936068582302_928911923576938665_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tDY61g4si8kQ7kNvwEiIZLr&amp;_nc_oc=Adk3g9ipMgVydoZl4CS_1Y-N1894qP0oJKUCg7M-qJIQi7vgDEhbC2L29VkTr3qqkoLs6RzW8zrtzx9EfJ-YctjE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_Afezi42lFIwSArD6etPkegouDefdOIMXuqnN3xSUWmJHtw&amp;oe=68EC4964', 'profileId': 'pfbid0R8jdgJ7L79PZ3UgkjYBHmnDezi1gyaBQSK4AhQMugfh5CQnCXNRwaXN9YfX6mQdml', 'profileName': 'Andres Zarama Castiblanco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=793555486530539', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc5MzU1NTQ4NjUzMDUzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83OTM1NTU0ODY1MzA1Mzk=', 'date': '2025-08-21T23:59:52.000Z', 'text': 'Para ver a caradebonjour', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/490079629_1217648870088367_153390787830383485_n.jpg?stp=c427.19.638.639a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jwIUZYsHR4EQ7kNvwG3ASow&amp;_nc_oc=AdnChiKgWqXfBKiPjswpQY84Sl-FjBH0FJzyk6UIsizqis-U8ARRHtULlh8owtRBTjI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_AfdTeZNAiPJ43l0p-GrE34OAW4RJj5Y5kTwX8pT9TF-Otg&amp;oe=68EAF289', 'profileId': 'pfbid02Pfsru8W5ejFkkuUhw1p1zJEqmzK6p3FiyRt7MvBW6dQGRodixZyYYxgKai3pHy7ml', 'profileName': 'Cristhian Gray', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1170398941792518?comment_id=793555486530539', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc5MzU1NTQ4NjUzMDUzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83OTM1NTU0ODY1MzA1Mzk=', 'date': '2025-08-21T23:59:52.000Z', 'text': 'Para ver a caradebonjour', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/490079629_1217648870088367_153390787830383485_n.jpg?stp=c427.19.638.639a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zg6ujRyw73YQ7kNvwG4v6mS&amp;_nc_oc=Adl9M4raFpfJUHIk0o2kYsCx7LWiKiwtaOEys_leq4hzWWlY5ClF_1flEFe3yFgtB2ROXLW0jXj6Jnv3AA4YTLvC&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_Afcj7NHlt4tCfR9PmgwNyXuZQUw73Gh-8XzaOPl2C7UY8Q&amp;oe=68EC4409', 'profileId': 'pfbid0L8EfyxsioRym49kHkTMoGHEtudTynduN9xGAzZFQEd4Qe223H7hSEo9xg5xNKpgcl', 'profileName': 'Cristhian Gray', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=772245961962991', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc3MjI0NTk2MTk2Mjk5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NzIyNDU5NjE5NjI5OTE=', 'date': '2025-08-26T11:35:44.000Z', 'text': 'Mucho esfuerzo para tan poco jeje', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/505621334_10162850577374721_609300677416242569_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ElBfAKfYTXEQ7kNvwGbzHu9&amp;_nc_oc=AdkiFK80BptRCZNAFassuPuNlJd4AoptCqfMjzBt8S4937pb7AmYJbQ5DkS_hJxZIEw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_AfejTv8a-7AS76nxy-EidXnKMJxqQ3fo9_Wfn1_hQh55ZQ&amp;oe=68EADBA4', 'profileId': 'pfbid02j3RyCBDSiZsSTmCTUBd9vyRHskhvJ58sPy4kaD4XQLYbZLp7oymu4SRRE5BA5m7jl', 'profileName': 'Diana Ardila', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1170398941792518?comment_id=772245961962991', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc3MjI0NTk2MTk2Mjk5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NzIyNDU5NjE5NjI5OTE=', 'date': '2025-08-26T11:35:44.000Z', 'text': 'Mucho esfuerzo para tan poco jeje', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/505621334_10162850577374721_609300677416242569_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ElBfAKfYTXEQ7kNvwEg2hEI&amp;_nc_oc=AdnQMOErTIrbP5Kirfww6iVYONFO3Bwjwh2BgLfynWPJbHETdFyky5xvKW7wTrFLOi071Puzd821xmJ7Q7_pUidU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_AfdIN6nP8IKc_iVGTHjkuumBbs05-BpHUtKvNnB50FGasg&amp;oe=68EC2D24', 'profileId': 'pfbid0fVnnH1b5sJ5oFGJFtvfH3r1g9USJ3H2mZYTzAGzMC82YGFPDLo6brKdwsMwuTBhKl', 'profileName': 'Diana Ardila', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=2029240560944248', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIwMjkyNDA1NjA5NDQyNDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMDI5MjQwNTYwOTQ0MjQ4', 'date': '2025-08-23T10:34:06.000Z', 'text': '¿Bonos? ¡Eso pa qué!\n¡Plata! Lo que necesitamos es plata!', 'profileUrl': 'https://www.facebook.com/people/Mejia-Xtiam/61572770517903/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/557950767_122163965870759017_4695076090908175616_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=2KNIEvMWZs4Q7kNvwEzgfIy&amp;_nc_oc=AdkLOKiU8as1u8FKexq7kpxoMPJM2VVDcC1WPhOQzX-KVDXU_WBpyPslGCPRuaDYZZA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_AfejQB5seDB4BWmFyOSQFBw7_xqPhbijLBpMbAxZPgA5zw&amp;oe=68EAEEEA', 'profileId': '61572770517903', 'profileName': 'Mejia Xtiam', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1170398941792518?comment_id=2029240560944248', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIwMjkyNDA1NjA5NDQyNDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMDI5MjQwNTYwOTQ0MjQ4', 'date': '2025-08-23T10:34:06.000Z', 'text': '¿Bonos? ¡Eso pa qué!\n¡Plata! Lo que necesitamos es plata!', 'profileUrl': 'https://www.facebook.com/people/Mejia-Xtiam/61572770517903/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/557950767_122163965870759017_4695076090908175616_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=BCvx3y7HLNAQ7kNvwHSo1ac&amp;_nc_oc=Adlgg9LVcLYqqaJAAsS4OmzIi3XkkkTCXVCZNDf5qcoiZMQqa3uE-ibQ43_JbTpZPaEGGQFjlsFo2eC0nASgjXuC&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_AfeAxD8NR85G5WU8m1UI28_Am_YJ-VcG0cT_zmBlxF-1NQ&amp;oe=68EC406A', 'profileId': '61572770517903', 'profileName': 'Mejia Xtiam', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1092922006240363', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwOTI5MjIwMDYyNDAzNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDkyOTIyMDA2MjQwMzYz', 'date': '2025-08-24T03:18:50.000Z', 'text': 'Ya estoy dentro', 'profileUrl': 'https://www.facebook.com/gutierrez.parra.2025', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/461937530_122164883702246479_9100878982232549001_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Gj-0wdsjKrUQ7kNvwHTdQAM&amp;_nc_oc=AdnSReywQ06WuXbxJQ4Bjtqd7PTXU_I_eoRp97hB9ljBHZZTUMrQmI-6xN_L10R2TZQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=opfCVs7ZybVoLHjdeDNWbg&amp;oh=00_Afcwuw4nM7Xga-f1yvUJ8MSLeb_sQ2dGaYZeG8McSQiV1w&amp;oe=68EAF282', 'profileId': '61557394383266', 'profileName': 'Gutierrez Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/1170398941792518?comment_id=1092922006240363', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwOTI5MjIwMDYyNDAzNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDkyOTIyMDA2MjQwMzYz', 'date': '2025-08-24T03:18:50.000Z', 'text': 'Ya estoy dentro', 'profileUrl': 'https://www.facebook.com/gutierrez.parra.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/461937530_122164883702246479_9100878982232549001_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Gj-0wdsjKrUQ7kNvwHCQHxP&amp;_nc_oc=Adn8RD8jGJrGcb_eCwC4viYwiOBfL8gPAS6QNR9MZ8gSOjRCi3CyxvSOgm8gCQHRnwEyufgmwQfQCjzFij_jeuEM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=MfEFIzviB1TKS20Yfb-A6w&amp;oh=00_Afdj6QLszJLBSWLpPvw6PT5oRlnxkim5b7PZmmMIVqjF5A&amp;oe=68EC4402', 'profileId': '61557394383266', 'profileName': 'Gutierrez Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1484788615985509', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0ODQ3ODg2MTU5ODU1MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDg0Nzg4NjE1OTg1NTA5', 'date': '2025-08-29T02:14:49.000Z', 'text': 'Muy costoso', 'profileUrl': 'https://www.facebook.com/yeisonandres.solano.9', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/549248258_1082108024003281_1189331171176088114_n.jpg?stp=c0.0.1024.1024a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0V1t8FpUDkIQ7kNvwFy3cLs&amp;_nc_oc=AdlPdj92gY7X7F67AUL_gob0d1vphk1hbNk5U1HxFsrq5U0ZyIK7U7NwfMbUjAna_2k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=GHjP1hIiFO1x4PmuPX_xVQ&amp;oh=00_Affpi98g0V6v3L0A856_vEPfkmvkhCqjIcOC0jgXn1qszg&amp;oe=68EADE46', 'profileId': 'pfbid0cRzhdqEteGXhwJFTyNH5X3sNTEWEFyGnSGYUdWEp41VYzH3uGg6HWkAVc4qbaxZGl', 'profileName': 'Yëïsön Ändrës Sölänö', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1484788615985509', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0ODQ3ODg2MTU5ODU1MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDg0Nzg4NjE1OTg1NTA5', 'date': '2025-08-29T02:14:49.000Z', 'text': 'Muy costoso', 'profileUrl': 'https://www.facebook.com/yeisonandres.solano.9', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/549248258_1082108024003281_1189331171176088114_n.jpg?stp=c0.0.1024.1024a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ag7SDRSDydAQ7kNvwHvrW0J&amp;_nc_oc=AdlOymYc1Be5Wci2fs6O_EWgU57UhXrw8V58bwPpJdKqt4xi6434ijLpgvqDDg5r2d17Ui0AQZcNtEvbwP-8JJ9w&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=z7cppKkS_Ekf5LejN20K9Q&amp;oh=00_Afffdj0zhWhoBdZHkHk5HG_y1DcUDoVNcNuRZ0ziW6j9Kg&amp;oe=68EC2FC6', 'profileId': 'pfbid02gHSQpWAiVftavKgoU7cT6j4At8Q3wdojjca5kCj5TsNs64nWs5LkPM8qFR4cgEYgl', 'profileName': 'Yëïsön Ändrës Sölänö', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=24325868677077398', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzI0MzI1ODY4Njc3MDc3Mzk4', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yNDMyNTg2ODY3NzA3NzM5OA==', 'date': '2025-08-25T16:25:17.000Z', 'text': 'Todo movimiento es fríamente calculado', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/292611740_1488708938214326_8064061170465608584_n.jpg?stp=c0.0.1171.1171a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=j9dSeb3aqdEQ7kNvwHwtBeV&amp;_nc_oc=AdmOh-dLD6MZHVVCYzFyea4RhlJSJjlv9wTk76K1EnStiZO8TPUTZIeuQnLdu2_A7Hc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=GHjP1hIiFO1x4PmuPX_xVQ&amp;oh=00_AfcHs03f8yKdZlR9VvLs1W9U7BSp7nf6f9lCNECGPwpX7Q&amp;oe=68EAFEBA', 'profileId': 'pfbid02GF3Vjc5BEQx65D2vmLdEV3oFJnVmmM3ftt7zejETf1K29GQy7RZ46qEAXv8m8H3Jl', 'profileName': 'Jhon Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=24325868677077398', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzI0MzI1ODY4Njc3MDc3Mzk4', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yNDMyNTg2ODY3NzA3NzM5OA==', 'date': '2025-08-25T16:25:17.000Z', 'text': 'Todo movimiento es fríamente calculado', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/292611740_1488708938214326_8064061170465608584_n.jpg?stp=c0.0.1171.1171a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1rTbBR_d3EkQ7kNvwH9b1zF&amp;_nc_oc=Adk0A6CYr5O9KVssdH3OjqdtrLdv3GT5txtFXrh-25DyPhuvWz0LqVAaA0zCOFvmxzdq-J3-Ucz6rxlVGmThCSo3&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=z7cppKkS_Ekf5LejN20K9Q&amp;oh=00_AfeMxmlzirNY2AcpjSG8oBTAuAi430b6iZJdQZcZL8elMw&amp;oe=68EC503A', 'profileId': 'pfbid0CDSnFnscZXE924izdL5os59AyMrexbBJfHr8fFa4WMhDuuuMyxD8tDw8QmmoYUydl', 'profileName': 'Jhon Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1463158881357664', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NjMxNTg4ODEzNTc2NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDYzMTU4ODgxMzU3NjY0', 'date': '2025-08-15T18:23:43.000Z', 'text': 'Muy caro y muy poquito', 'profileUrl': 'https://www.facebook.com/Dieg0alejandr', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/382242083_10161067317212866_6210645977518425260_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=I-FjkLPGiUsQ7kNvwEQOSDl&amp;_nc_oc=AdkjJOGsXfeUdKBgARPGClIpD3YDFNlXEXy5QA4iWTDDHSRAyy-tBhBrAIXvVqk77kQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=GHjP1hIiFO1x4PmuPX_xVQ&amp;oh=00_AfdPL2MNHxzevMul8yy_MfeNdVkMgB6HwHL1vs6Udsngyg&amp;oe=68EAF841', 'profileId': '707227865', 'profileName': 'ارانا دياغو', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1463158881357664', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NjMxNTg4ODEzNTc2NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDYzMTU4ODgxMzU3NjY0', 'date': '2025-08-15T18:23:43.000Z', 'text': 'Muy caro y muy poquito', 'profileUrl': 'https://www.facebook.com/Dieg0alejandr', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/382242083_10161067317212866_6210645977518425260_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=I-FjkLPGiUsQ7kNvwGYrIYx&amp;_nc_oc=AdmAItuHJJ0P8aNJ1dJw2-5I70nXhicbiT0VTCwhXD2mEOmN0qwBzjeSqO8yiId-2fniiKB7243Sh3K73eqtccyO&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=z7cppKkS_Ekf5LejN20K9Q&amp;oh=00_Affd_9JKRGH2ZNZfLcX5mFDdcGsaoPn6JgAc4v5SHbLlyA&amp;oe=68EC49C1', 'profileId': '707227865', 'profileName': 'ارانا دياغو', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=759916216897081', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1OTkxNjIxNjg5NzA4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTk5MTYyMTY4OTcwODE=', 'date': '2025-08-24T13:08:10.000Z', 'text': 'Pero el bonyurt esta muy caro 🥲', 'profileUrl': 'https://www.facebook.com/andres.gutierrez.cdlm.2025', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/461629165_8402506506532438_777487518196150272_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aPcUdecoDlgQ7kNvwHoAHZO&amp;_nc_oc=AdleN-2C_6y5DpXdkT872cRzIEmkTlmtEIFGLA2NcstmUxCjFTCJ3_itCeeDna41yBw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=GHjP1hIiFO1x4PmuPX_xVQ&amp;oh=00_AfcZhRY08adwL2BHJtto-Y2WCqznuLPGnmLbyqdTATgdow&amp;oe=68EB035D', 'profileId': '100003195175211', 'profileName': 'Andres Gutierrez Cdlm', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=759916216897081', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1OTkxNjIxNjg5NzA4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTk5MTYyMTY4OTcwODE=', 'date': '2025-08-24T13:08:10.000Z', 'text': 'Pero el bonyurt esta muy caro 🥲', 'profileUrl': 'https://www.facebook.com/andres.gutierrez.cdlm.2025', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/461629165_8402506506532438_777487518196150272_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aPcUdecoDlgQ7kNvwHN1QG7&amp;_nc_oc=Adm_cU5tDWs5I33DY526rwXHd_j-HFR_aujKLT_6K2N_XG8zcQ7ZEOhP3f5yc6Z6_nW0rmJc5lNZZChUzcOabBPK&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=z7cppKkS_Ekf5LejN20K9Q&amp;oh=00_Afc-z23hCW524mvMQSX7ZuUoMozHCRflltqWeQ8nXYWxSw&amp;oe=68EC54DD', 'profileId': '100003195175211', 'profileName': 'Andres Gutierrez Cdlm', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=2250016172180362', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIyNTAwMTYxNzIxODAzNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMjUwMDE2MTcyMTgwMzYy', 'date': '2025-08-21T17:47:54.000Z', 'text': 'Bien caro y porfin se deja ver bon yurt con una promo que raro', 'profileUrl': 'https://www.facebook.com/yury.munarneuta', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/436425887_1501224170817530_287396434671943491_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gDw6sOpQYU0Q7kNvwEiN8K9&amp;_nc_oc=AdkNgAaRNhuKPUUEdsISrYAnWWHMh4kr5To8I-YqrTrH2f9hTJsEpRA7X9kRNbr2M94&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=GHjP1hIiFO1x4PmuPX_xVQ&amp;oh=00_AfenD9pA6oDKEvNUltpgDRllRvoJeS0nLE03G7-VdkzE_g&amp;oe=68EAE374', 'profileId': 'pfbid02a77wqYtAWqqExioaprK52wzFza51mFtwAmDW39empa8Txx5CV7dL8yQqSGH3sk74l', 'profileName': 'Yury Munar Neuta', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=2250016172180362', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIyNTAwMTYxNzIxODAzNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMjUwMDE2MTcyMTgwMzYy', 'date': '2025-08-21T17:47:54.000Z', 'text': 'Bien caro y porfin se deja ver bon yurt con una promo que raro', 'profileUrl': 'https://www.facebook.com/yury.munarneuta', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/436425887_1501224170817530_287396434671943491_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gDw6sOpQYU0Q7kNvwGJRFVl&amp;_nc_oc=Adm5MWFdN1qgC0g_hZ0AhEQtxyS9WYkFUcvsklWTwGgt11_UfHcUAb2UyuR5Ru8CsSdLYdh-qbqDsND76X_h2CDp&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=z7cppKkS_Ekf5LejN20K9Q&amp;oh=00_Afdj4R_3PJvAUmDp4RqZtSu-EpjMhUUF8XHrt2KqzIyPrA&amp;oe=68EC34F4', 'profileId': 'pfbid0WZUkvPFofWpzYteQd3L4qHihesJTSEtzasd96dVZR7NTDrDR3VQvWGzBjNJzYHyel', 'profileName': 'Yury Munar Neuta', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4144,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1091350796399376', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwOTEzNTA3OTYzOTkzNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDkxMzUwNzk2Mzk5Mzc2', 'date': '2025-08-28T18:32:18.000Z', 'text': 'Cual es el premio?', 'profileUrl': 'https://www.facebook.com/angelica.sambrano.148', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/448901137_3747896052121134_5568580828897389632_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ORnYnImNOWkQ7kNvwHApGa-&amp;_nc_oc=Adm5NCHdbu5EDM2Qy-s4F28jiJVnALs5cPQgpr-vxBWs8Q5knxy6u2Hf2-xX_WS-CKc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=GHjP1hIiFO1x4PmuPX_xVQ&amp;oh=00_Afcia8PrGdKd6ws_xlENwgkQs2n4H9FjjPvTzHoCaqBfHQ&amp;oe=68EAEF83', 'profileId': 'pfbid02WuLZNxJrNgCPUyirJ81D3zv4qudVXj8HfRVdGzRQcuWacEsHgkSiuuDjB3RPSazl', 'profileName': 'Mårce Acvdo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1091350796399376', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwOTEzNTA3OTYzOTkzNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDkxMzUwNzk2Mzk5Mzc2', 'date': '2025-08-28T18:32:18.000Z', 'text': 'Cual es el premio?', 'profileUrl': 'https://www.facebook.com/angelica.sambrano.148', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/448901137_3747896052121134_5568580828897389632_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ORnYnImNOWkQ7kNvwHklh5C&amp;_nc_oc=AdlxzP4DI9CrJ6DRvHMToacI147-douBe_30cyKlDI6o0XDF2AIpZuPoev6dssh63kJTikyKxZcl_eelhHr376sG&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=z7cppKkS_Ekf5LejN20K9Q&amp;oh=00_AfeeQoYUX81Tw67loYw1awKMt_NLj9mtUzXEt3e8IyW7oQ&amp;oe=68EC4103', 'profileId': 'pfbid026NM3k3t8hcyJLxKavz159Hm3iz3Rn1KNBrN6HWUaAnZRpaXV4dQypzcBkxoQ9SdSl', 'profileName': 'Mårce Acvdo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1426680105094604', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0MjY2ODAxMDUwOTQ2MDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDI2NjgwMTA1MDk0NjA0', 'date': '2025-08-18T16:21:54.000Z', 'text': 'No deja completar la tercer etiqueta dice que vuelva mañana 👎', 'profileUrl': 'https://www.facebook.com/bladimir.pache', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/549602243_784899290855124_2532036010952826542_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZRMj2KhgGHAQ7kNvwE_lOhR&amp;_nc_oc=AdkC2FtZQ9U6SvqXzpszvlyjB_lUDsDsZZavBE9VLArahVhfFc5-scmoabcP_FHz0bM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=GHjP1hIiFO1x4PmuPX_xVQ&amp;oh=00_AfdgLBM-BSCo8LMJbr0oCl53ob1Q1jPH6kMhnP71q9mMbQ&amp;oe=68EAEDD3', 'profileId': 'pfbid02Ygzdy9KeP8F7xTwvUppoKtviZrvBnSzAEBnDVhgahf2CZM2hcnSwgKZxL7r1S5Z4l', 'profileName': 'Bladimir Pache', 'likesCount': '6', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1426680105094604', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0MjY2ODAxMDUwOTQ2MDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDI2NjgwMTA1MDk0NjA0', 'date': '2025-08-18T16:21:54.000Z', 'text': 'No deja completar la tercer etiqueta dice que vuelva mañana 👎', 'profileUrl': 'https://www.facebook.com/bladimir.pache', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/549602243_784899290855124_2532036010952826542_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZRMj2KhgGHAQ7kNvwGMObxk&amp;_nc_oc=AdmHWTWqNAiVB1J2VGRf0DeFLE9PIhmEIBVDEB6epO6NtGSiR6lTBKSTjbpudh9y5YkXyHzczbGJWUtioyiFUCQS&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=z7cppKkS_Ekf5LejN20K9Q&amp;oh=00_Afc3g8FzZLyrvsSKf0L2y1fbo5HhIX2qjre65CTfKmeUBg&amp;oe=68EC3F53', 'profileId': 'pfbid0V9MT3yhHXxRRwnjarxPT3RNha2RUr6KPxg6F1aSSu1wDPsqgP4Dn8LnRnE8JPVD5l', 'profileName': 'Bladimir Pache', 'likesCount': '6', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=4161504917455527', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQxNjE1MDQ5MTc0NTU1Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MTYxNTA0OTE3NDU1NTI3', 'date': '2025-08-15T21:02:02.000Z', 'text': 'Eso ya no trae es nada,, y bien caro que sí es', 'profileUrl': 'https://www.facebook.com/ana.mendez.588301', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/516741506_1731055484962455_3660435960556219367_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FflcxjikKGYQ7kNvwFp428p&amp;_nc_oc=AdlfMU86rDS1jiZOHJb8V0gCYbgE1bQMsbBlwLdz2GgT_xYjjClTYLNL7rz7KK0lbbM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=GHjP1hIiFO1x4PmuPX_xVQ&amp;oh=00_AfeYk47Xb3kyB5_Zt34EDFk7et6o-rFGqY9PwEWJ57Cy6Q&amp;oe=68EB0945', 'profileId': 'pfbid029VR6zqbN6emyjJCpQ1nNtRrzrWytwnYY3hh8cBAuZyuKywbZvza8AGUGTTqggpdyl', 'profileName': 'Ana Mendez', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=4161504917455527', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQxNjE1MDQ5MTc0NTU1Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MTYxNTA0OTE3NDU1NTI3', 'date': '2025-08-15T21:02:02.000Z', 'text': 'Eso ya no trae es nada,, y bien caro que sí es', 'profileUrl': 'https://www.facebook.com/ana.mendez.588301', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/516741506_1731055484962455_3660435960556219367_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FflcxjikKGYQ7kNvwHit3Np&amp;_nc_oc=AdmJZX4XggMvPyz5AfBFtJY25pc5G4s-aQb-GEJN28zzXhgJlObXkx-vZRcnm_ydiGHth2i-6K6DHiCck1Wd-OcK&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=z7cppKkS_Ekf5LejN20K9Q&amp;oh=00_AffjAXY752DQIQv3DSzsn1PQgRQcsSK4ajbHlenCnD0JLg&amp;oe=68EC5AC5', 'profileId': 'pfbid05TpPX2PoRpRqtWkMgzsth9ZjnYXaLY2iZrfez4nogZqUPmiPpTf2ojgifAd1XKmrl', 'profileName': 'Ana Mendez', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1911048179741699', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5MTEwNDgxNzk3NDE2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTExMDQ4MTc5NzQxNjk5', 'date': '2025-08-28T18:59:24.000Z', 'text': 'Ya no es espeso como antes :(', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/381161792_10160496318156281_5996530756716113129_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t6TrReeq2t4Q7kNvwHFEXv9&amp;_nc_oc=AdlKZQ-LuZgq9upvsOASNfJDpy0q6ryRcbKvTwYuNQIlPKeBeNC2dtXR8jhuIDqTPeQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=GHjP1hIiFO1x4PmuPX_xVQ&amp;oh=00_AfdzTsewhPpIiya8OJ6DkeSF0keKaklRh68TGdEnXYcDFA&amp;oe=68EB07AB', 'profileId': 'pfbid022jF1uphaV8hVUoGfJuNKLL5E5J2kwLAm1reod8Dp3Dygd86sCVHrpbmBRnunqTFMl', 'profileName': 'Jen Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1911048179741699', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE5MTEwNDgxNzk3NDE2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xOTExMDQ4MTc5NzQxNjk5', 'date': '2025-08-28T18:59:24.000Z', 'text': 'Ya no es espeso como antes :(', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/381161792_10160496318156281_5996530756716113129_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t6TrReeq2t4Q7kNvwGP0I5X&amp;_nc_oc=AdmgKQ2LRnGPswVB9B3yMSL33TGrc7F446Biaf7UZ_G9F7wlwgIuKRwilWN50-BH0aMlbAxn-M_rKo9lQ-HfVFqp&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=z7cppKkS_Ekf5LejN20K9Q&amp;oh=00_AfeeZltWahoAp37dgDmM8t_eqOmzsP4I66queLCUGWMvog&amp;oe=68EC592B', 'profileId': 'pfbid0366jCXr4CWq2RdGT8cXAF5JMprr1d5meRVhuRLJVJdzkGdjPFsbjZ1To6bbk4vYw4l', 'profileName': 'Jen Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1285330253224490', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEyODUzMzAyNTMyMjQ0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMjg1MzMwMjUzMjI0NDkw', 'date': '2025-08-18T18:17:39.000Z', 'text': 'La verdad deja solo tomar la foto de la etiqueta pero no deja tomar la foto de la tapa del bonyourt', 'profileUrl': 'https://www.facebook.com/sandrapatricia.tiquecabezas', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/169085078_10224951261910508_3553400314664040320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U6jRcLZ8kvgQ7kNvwGUmG5V&amp;_nc_oc=AdkCx8a0TGq0h4AwLu9ZkUYBeBwEH08K0I5CJadPsH5ez2InkeZVa7QxX0DfLRccpMU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=GHjP1hIiFO1x4PmuPX_xVQ&amp;oh=00_AfcuOen8cwZEtSYxH4J-6TblXmyHuhDpqmN6ym_PKqTiiQ&amp;oe=690C76DA', 'profileId': 'pfbid02bbPvpRV25x8A57LG6U1RFtmqn2n7ana5543U8sfVkpUDkrkkBsCDRdiXum7K1Mx8l', 'profileName': 'Sandra Patricia Tique Cabezas', 'likesCount': '4', 'commentsCount': 6, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1285330253224490', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEyODUzMzAyNTMyMjQ0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMjg1MzMwMjUzMjI0NDkw', 'date': '2025-08-18T18:17:39.000Z', 'text': 'La verdad deja solo tomar la foto de la etiqueta pero no deja tomar la foto de la tapa del bonyourt', 'profileUrl': 'https://www.facebook.com/sandrapatricia.tiquecabezas', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t1.6435-1/169085078_10224951261910508_3553400314664040320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U6jRcLZ8kvgQ7kNvwE7FsXa&amp;_nc_oc=Adk5et-fWvGNdj02M5AbsjLDJi74_2arWPyq71dZe6BZiQN0G_OyAplrXgWjYCndQU65v2kfflgk1iZubAX9LKzj&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=z7cppKkS_Ekf5LejN20K9Q&amp;oh=00_AfdpB_HZ1Wduo8VWKOIKHVmkTR1q9OhhnB8fftpG5FITlg&amp;oe=690DC85A', 'profileId': 'pfbid0Y3kjuFrfEvPPktp4dUftEHuAV6aUEzoUHNysRadkpkCd9shac4jCDR4FVyXeefgRl', 'profileName': 'Sandra Patricia Tique Cabezas', 'likesCount': '4', 'commentsCount': 6, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1050655663724124', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwNTA2NTU2NjM3MjQxMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDUwNjU1NjYzNzI0MTI0', 'date': '2025-08-16T16:05:03.000Z', 'text': 'Fabian Diaz Rojas Si trae, bueno los que compre si traían la etiqueta con la promoción solo que todas las etiquetas salen es Bono de. Y no sale más palabras para armar.', 'profileUrl': 'https://www.facebook.com/kendry.padillamartinez', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/70871129_2868823029813340_5742895277941981184_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FirMXVIJRAQQ7kNvwFS3tIf&amp;_nc_oc=AdkgQMXd904ZPbzR_OeqZ2l_5VhtdLAn3xFYIv4_6jd3J845NBdf-_VDGL9SsGrWrFU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=NxFLDydahjQeSHV5YXS_WQ&amp;oh=00_AfdwFhk4UuxLLc76_0RIK462KTleJe7JYpJpTXxQmRZOlg&amp;oe=690CA420', 'profileId': 'pfbid0zQUexxznicGkz8c2DG26BWRwc27LgFu3vPDxRXFw33RezAXMES5VebtWZA2oXDH9l', 'profileName': 'Kepa Elu Mar', 'likesCount': '5', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1050655663724124', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEwNTA2NTU2NjM3MjQxMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMDUwNjU1NjYzNzI0MTI0', 'date': '2025-08-16T16:05:03.000Z', 'text': 'Fabian Diaz Rojas Si trae, bueno los que compre si traían la etiqueta con la promoción solo que todas las etiquetas salen es Bono de. Y no sale más palabras para armar.', 'profileUrl': 'https://www.facebook.com/kendry.padillamartinez', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/560914279_25407223438879978_1825058394262675767_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CPxG86-4yIwQ7kNvwGBnYXv&amp;_nc_oc=AdnpobrOCsmKpaPkX_3IDbir5QaCQSRWyLqmUOQWs01WNafyRuX1vfSC_t14JIxhdeI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=U9-zP1Yv7bwWepUWI9LDkQ&amp;oh=00_AfeODNZq1wopEUr1IqK8d-D_yt_Bj2QYd7YkVZYCa4EKOA&amp;oe=68EC39C4', 'profileId': 'pfbid034FvN9dvcZt2eB6UohAsRywMFoSofRHbcKhN1CuJR7QoE4mikNJdc66XSZhvibmAnl', 'profileName': 'Kepa Elu Mar', 'likesCount': '5', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=24421001617568753', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzI0NDIxMDAxNjE3NTY4NzUz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yNDQyMTAwMTYxNzU2ODc1Mw==', 'date': '2025-08-25T23:45:10.000Z', 'text': 'Quien a ganado yo no e ganado nada', 'profileUrl': 'https://www.facebook.com/sntndr.zharit', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/339441732_5845067702257266_6678489310265434472_n.jpg?stp=c0.0.600.600a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KxThdNtbC4EQ7kNvwGtl1pb&amp;_nc_oc=AdmWUtgz-ngow5NqYEompbj-P11uS4-bLPB-_UUC50UdG-e58Q3uOInBubs0Nwu4ZyA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NxFLDydahjQeSHV5YXS_WQ&amp;oh=00_AffM1LNFUvNnio2fOBIhmSwPN6-SGJMnk_8W7TlHyGS8ew&amp;oe=68EAD5EA', 'profileId': 'pfbid02QknMPsEGPc1KXG8UAAGxELLMs8iCAQg1s8UhtNJ6n9jcQSyNuDp8sBTRmk1DPXYol', 'profileName': 'Sntndr Zharit', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=24421001617568753', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzI0NDIxMDAxNjE3NTY4NzUz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yNDQyMTAwMTYxNzU2ODc1Mw==', 'date': '2025-08-25T23:45:10.000Z', 'text': 'Quien a ganado yo no e ganado nada', 'profileUrl': 'https://www.facebook.com/sntndr.zharit', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/339441732_5845067702257266_6678489310265434472_n.jpg?stp=c0.0.600.600a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dNH95sgXuVAQ7kNvwEgtbv0&amp;_nc_oc=Adn7QIc4a3BKIxTsAiYEEL0PEoDvHJhX7U5ldfs-bBi-1wGNwyOKk1cJGSsIeE9PoBk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=U9-zP1Yv7bwWepUWI9LDkQ&amp;oh=00_AfcjWac53y-LgcJRr0rp5xZd2JE5SwTNMjW-Cy4uppSeyw&amp;oe=68EC5FAA', 'profileId': 'pfbid0MD9AUhbuYPit1mMrAyZtqqwe4PJ3S3dx2ZEXSQzGdez1aUFutKL86gAdnAKmii9ul', 'profileName': 'Sntndr Zharit', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1310838200458237', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEzMTA4MzgyMDA0NTgyMzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMzEwODM4MjAwNDU4MjM3', 'date': '2025-08-23T01:43:13.000Z', 'text': 'Promo para poder vender como están de caros', 'profileUrl': 'https://www.facebook.com/mono.garcia.990581', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/545259290_701053019617347_4701829651419119319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dZV8z01NNpQQ7kNvwGFgy5D&amp;_nc_oc=Adm-kepHjsoOjeVQeNOcPuz4u0QCo_gDcjKXOv1D-j5Py6nqKiGDvEm9z7p0T0v6tUY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NxFLDydahjQeSHV5YXS_WQ&amp;oh=00_AfcBHG1etwy5EG6jWk2WWTTedn8Nqbb6Ez66z8qAXjl1Jg&amp;oe=68EB0C08', 'profileId': 'pfbid0ztsZvtsHw7dY8qxfJGtNZ2URyEZ2WP63JzbaxVEpH8YaUjr1VXBNHEDtNEqcGZGXl', 'profileName': 'Orland Garcia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1310838200458237', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzEzMTA4MzgyMDA0NTgyMzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMzEwODM4MjAwNDU4MjM3', 'date': '2025-08-23T01:43:13.000Z', 'text': 'Promo para poder vender como están de caros', 'profileUrl': 'https://www.facebook.com/mono.garcia.990581', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/545259290_701053019617347_4701829651419119319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dZV8z01NNpQQ7kNvwHkLP6K&amp;_nc_oc=AdlGSLPx3Kt36WB6mC7VHxhkA3G89gzBl7NjelTyFg1f8J67hIkCmTg0hmrVrqlGFSM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=U9-zP1Yv7bwWepUWI9LDkQ&amp;oh=00_Affu03DYKwtlWRrvk29Srcum7JN3IJfw8kxMKwsT_W4APg&amp;oe=68EC5D88', 'profileId': 'pfbid034kKH7Zo7nWoVrzoxm8hM7SgTxsQAzfSd8RbhVgjwDx9jEpXxXcwWSbxwmkTfRVVzl', 'profileName': 'Orland Garcia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=792486116689833', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc5MjQ4NjExNjY4OTgzMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83OTI0ODYxMTY2ODk4MzM=', 'date': '2025-08-29T04:56:00.000Z', 'text': 'Le dieron cajas de bonyurt de chococrispis?', 'profileUrl': 'https://www.facebook.com/joseb.l.amour.de.dieu', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514343997_122141036642709419_5960750840293920963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4zeZJx2XFvUQ7kNvwF4qNDZ&amp;_nc_oc=Adle8jjt-Lt5oPj6mZkyr31w2B6H6NXjL5EA9OzfBaYTVJqbcSYhDUGM-XVIWO-WET8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NxFLDydahjQeSHV5YXS_WQ&amp;oh=00_AfegULoHiRtWeUFZOe9hBJogqzhqOop1fkk_6iD1yJvAnQ&amp;oe=68EAD716', 'profileId': 'pfbid0UDwyzQMHt4SYavCPyp2MeFhLWmAnMXs3iHZjnYY9WaGk9XFtuiUn312t3eTF1FtLl', 'profileName': "Joséb L'amour de Dieu", 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=792486116689833', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc5MjQ4NjExNjY4OTgzMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83OTI0ODYxMTY2ODk4MzM=', 'date': '2025-08-29T04:56:00.000Z', 'text': 'Le dieron cajas de bonyurt de chococrispis?', 'profileUrl': 'https://www.facebook.com/joseb.l.amour.de.dieu', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/514343997_122141036642709419_5960750840293920963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4zeZJx2XFvUQ7kNvwH-NNiG&amp;_nc_oc=AdnuHj-IRGmKCHs8W4CBOzLIEcsmJNX51nVKDrLCoODcU-2uQB9q8zRfLNYgcdQFhII&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=U9-zP1Yv7bwWepUWI9LDkQ&amp;oh=00_Afd66xI_gjInNV96Il2gQ2ST8RCv38K5CTPIdRCy0H2j5g&amp;oe=68EC2896', 'profileId': 'pfbid02Y5PhB5H7jNZhqMgSV8mGRPXG9ZjmkFhvEhSP1HNRtG4PaezkJKRbrUGSX3Jam9Wkl', 'profileName': "Joséb L'amour de Dieu", 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1764834620787514', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE3NjQ4MzQ2MjA3ODc1MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNzY0ODM0NjIwNzg3NTE0', 'date': '2025-08-16T21:18:55.000Z', 'text': 'Si no lo deja inscribirse', 'profileUrl': 'https://www.facebook.com/martha.jimenez.416448', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/433009143_1230487934580836_6908465968097519066_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KFECqb71QwEQ7kNvwHaNBd5&amp;_nc_oc=AdmOdGslNtvaXqefwoa54iALQEtAdyjmD4F-jPRY0LtxZRPMo6HurRXZq_rbLHkczs0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=NxFLDydahjQeSHV5YXS_WQ&amp;oh=00_AfdhGcsWtf-O9pLHJJb42ssM7QSb5YI1Dx0I3KFKe-8gzg&amp;oe=68EB0AAD', 'profileId': 'pfbid0V7PPHrq99HFLFnvkf1t5qJZUgoLwZb92GB4KygtT3AtAFwdpmB6f994H57661ki5l', 'profileName': 'Martha Jimenez', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1764834620787514', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE3NjQ4MzQ2MjA3ODc1MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNzY0ODM0NjIwNzg3NTE0', 'date': '2025-08-16T21:18:55.000Z', 'text': 'Si no lo deja inscribirse', 'profileUrl': 'https://www.facebook.com/martha.jimenez.416448', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/433009143_1230487934580836_6908465968097519066_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KFECqb71QwEQ7kNvwFvpiBf&amp;_nc_oc=Admi1tAPeD8x01M0kctrOBQbfx6ydVd1BcRzWYSMw9KEEhKdd8ORnLb6Dbl9l0V6WFI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=U9-zP1Yv7bwWepUWI9LDkQ&amp;oh=00_AfeEwkZd6aZ817wqeJFg2dNE6QuR8EX1aX5pE-1Txa-Vsg&amp;oe=68EC5C2D', 'profileId': 'pfbid02Yxq6UXkxzZVejw5vnfHskGp8mPaD9RJBKt5acHHSUqUU4ggRbB9G4tXjnp9LZggtl', 'profileName': 'Martha Jimenez', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1650183732322472', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE2NTAxODM3MzIzMjI0NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNjUwMTgzNzMyMzIyNDcy', 'date': '2025-08-28T05:45:32.000Z', 'text': 'En qué consiste la dinámica?', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/554083859_1468996674314146_7272219999449576452_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=CKjL7BQMc-4Q7kNvwEo_MUd&amp;_nc_oc=Adk5es6DLLdziXoSUGHtCWIGj8ewNL73skgUk2I8CQQK5DXF3c6mjTTvzF34bg3QmBY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=NxFLDydahjQeSHV5YXS_WQ&amp;oh=00_Afdy0Myzrf7i7huD5-elc4YQOIBj0Vy-OFiaAz9LpPQoww&amp;oe=68EB0AE1', 'profileId': '100036114819809', 'profileName': 'Ivohepe Herpe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1650183732322472', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE2NTAxODM3MzIzMjI0NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNjUwMTgzNzMyMzIyNDcy', 'date': '2025-08-28T05:45:32.000Z', 'text': 'En qué consiste la dinámica?', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/554083859_1468996674314146_7272219999449576452_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=uUWCHTElzXIQ7kNvwETlJee&amp;_nc_oc=AdlJzk1PIM1gMGoSpqf66_g7mNT9hOi5LDzmQRwaCyifiKXcZNIauXuPchphFR1qCZI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=U9-zP1Yv7bwWepUWI9LDkQ&amp;oh=00_AffP_BIZ2PwxICGAYCMLypi901q9waX-DtudcPya5AB-AQ&amp;oe=68EC5C61', 'profileId': '100036114819809', 'profileName': 'Ivohepe Herpe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1479092219912332', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NzkwOTIyMTk5MTIzMzI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDc5MDkyMjE5OTEyMzMy', 'date': '2025-08-20T18:36:36.000Z', 'text': 'Entre mil ,una y entre 10 mil ? Ninguna', 'profileUrl': 'https://www.facebook.com/silvana.rodriguez.1213986', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/425326901_2551727151666568_5546543243206401141_n.jpg?stp=c0.120.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xNz0SmdDnkwQ7kNvwEB5mQb&amp;_nc_oc=AdllspSXlsj2GA7qEYroQaR3SeKR9ZWz2I5QGlXTSqGkbLqIYqUL2HHkE5CjrG51nvw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=NxFLDydahjQeSHV5YXS_WQ&amp;oh=00_Afdh84X5k1Va42VsMwi6p9uMx_gsmn27uFjfwxs1krOUCg&amp;oe=68EAEDF6', 'profileId': 'pfbid02YQipViE8DUEnCMp2mnYh6BnNcAw2LLCw8EGWtUiovctUJXTzf7zxgPtAcyvnwQiTl', 'profileName': 'Silvana Rodriguez', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1479092219912332', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NzkwOTIyMTk5MTIzMzI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDc5MDkyMjE5OTEyMzMy', 'date': '2025-08-20T18:36:36.000Z', 'text': 'Entre mil ,una y entre 10 mil ? Ninguna', 'profileUrl': 'https://www.facebook.com/silvana.rodriguez.1213986', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/558512487_3094170634088881_4204498319869569212_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gOBLOIIREdQQ7kNvwH23fYc&amp;_nc_oc=Adk6chz9QtDm1s90QgMEDPHH9qNTgXg3oB-nyUFnqIEqIwCXOfK60vJuV3JCz3Wya_M&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=U9-zP1Yv7bwWepUWI9LDkQ&amp;oh=00_AfftfVVRFTmpfPREYvjq56Q-25tWYMsP_eKFGRDJdKyizw&amp;oe=68EC4082', 'profileId': 'pfbid0Us5daYbmNHZUDdtAeRojMWUEHQ26EVQCF4B3fknJhFLuNecz6x3tdS9NpyrjgFQcl', 'profileName': 'Silvana Rodriguez', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4792,7 +4792,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=2108493479644128', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIxMDg0OTM0Nzk2NDQxMjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMTA4NDkzNDc5NjQ0MTI4', 'date': '2025-08-16T23:36:23.000Z', 'text': 'Exceso de azúcar y lactosueros..🙄', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/487319083_10236445916110645_3965358070865649238_n.jpg?stp=c0.0.366.366a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zak62HJG7kUQ7kNvwFf4-Ve&amp;_nc_oc=AdkwWKX6bajlG2UhVBusajjxL2hZQOTbanWFZjjlmQNASGMhGKB4MXe0f5N_BtNmFf4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=NxFLDydahjQeSHV5YXS_WQ&amp;oh=00_Affgw3eLT-tBaB8JRVBJdhm2uLOCy4hbVS5GvWRIohDo4A&amp;oe=68EAF1A9', 'profileId': 'pfbid02xK2ypNqEwLtXsjT8W88f4NeUvLCvTPpfeiZGYASYhxZ6tHjY72QpsNbxNi3CBSrGl', 'profileName': 'Karolina Kja', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=2108493479644128', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzIxMDg0OTM0Nzk2NDQxMjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8yMTA4NDkzNDc5NjQ0MTI4', 'date': '2025-08-16T23:36:23.000Z', 'text': 'Exceso de azúcar y lactosueros..🙄', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/487319083_10236445916110645_3965358070865649238_n.jpg?stp=c0.0.366.366a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zak62HJG7kUQ7kNvwHzYbBE&amp;_nc_oc=AdnSQPZCxosCEAAhnfOnIAxATZnOp5A2KwEhc8FFirQrsmYljx0qCDqgvhSJhI36sLs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=U9-zP1Yv7bwWepUWI9LDkQ&amp;oh=00_AfdtsPar0nSCIV7t9PW7I7czS_jPbvk8eqF5dG4pYbN9wQ&amp;oe=68EC4329', 'profileId': 'pfbid0tmPnuDCt6CjWFP2Kj95THdo7CVdUW7do2GjDASPEpdLBeck83bQySMGdqbjj8KQ9l', 'profileName': 'Karolina Kja', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1448726483110234', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NDg3MjY0ODMxMTAyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDQ4NzI2NDgzMTEwMjM0', 'date': '2025-08-22T00:25:17.000Z', 'text': 'Será cierto???', 'profileUrl': 'https://www.facebook.com/diego.barreto.716', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/419124201_10231665520643901_860220546070691865_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=L1R_2mOCj-sQ7kNvwFvPNAg&amp;_nc_oc=AdlpcgWQ4nM479t2UJkBvfOE4BqRWfxLm9NpFdhmNb9taqn3Kqeh1A7lbu6ILNpErQM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=NxFLDydahjQeSHV5YXS_WQ&amp;oh=00_AfcLniTlXviq2FqqiUYJGY2dh4Q26U69FsqcSj79FXVs0g&amp;oe=68EB02C6', 'profileId': '1318496675', 'profileName': 'Diego Barreto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1448726483110234', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NDg3MjY0ODMxMTAyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDQ4NzI2NDgzMTEwMjM0', 'date': '2025-08-22T00:25:17.000Z', 'text': 'Será cierto???', 'profileUrl': 'https://www.facebook.com/diego.barreto.716', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/419124201_10231665520643901_860220546070691865_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=muDrmLg_8-sQ7kNvwGnHKTl&amp;_nc_oc=Adlw0dkJMcOYDU1HcgihD3EZ187OZf7bYPvsHjmzlup9vfmCNOLRkAB9Fb-mZlzrWD4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=U9-zP1Yv7bwWepUWI9LDkQ&amp;oh=00_Afc9Y4aKfAm1zWEtKI6mq7HCUh1Q_dbLeXHtYQwSqBmnag&amp;oe=68EC5446', 'profileId': '1318496675', 'profileName': 'Diego Barreto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1822553905349628', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4MjI1NTM5MDUzNDk2Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODIyNTUzOTA1MzQ5NjI4', 'date': '2025-08-20T04:31:07.000Z', 'text': 'Si fuera cierto esto solo se lo ganan los propios dueños y familiares y acaso por ahí uno de los trabajadores', 'profileUrl': 'https://www.facebook.com/diaz.magda.813170', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/532217640_1418152876131819_2381907829061478679_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KNArdgj_iOcQ7kNvwEZQOva&amp;_nc_oc=AdnMtJIzWDnQ_ESXpd5xTRnW3rrtn1xDzfWiJZ4weZWl-Ym9RHP3kYhRSxOebhWY3n4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=NxFLDydahjQeSHV5YXS_WQ&amp;oh=00_AffeZCN0SfWLmRIn1YKUoQBoJ3geb6qh1XXKBp98k0phiw&amp;oe=68EAFA0E', 'profileId': 'pfbid023JfJV5HiQcMfSF3Hr2SsTDjmYNjYveKcnU9oZX3F6iW4Lhx7GoA4LpdTjrkLqf3rl', 'profileName': 'Diaz Magda', 'likesCount': '0', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1822553905349628', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4MjI1NTM5MDUzNDk2Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODIyNTUzOTA1MzQ5NjI4', 'date': '2025-08-20T04:31:07.000Z', 'text': 'Si fuera cierto esto solo se lo ganan los propios dueños y familiares y acaso por ahí uno de los trabajadores', 'profileUrl': 'https://www.facebook.com/diaz.magda.813170', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/532217640_1418152876131819_2381907829061478679_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KNArdgj_iOcQ7kNvwHR0uPb&amp;_nc_oc=AdnhrMjGv1uNJdt41JTr3oW8J0TBhsFN0CvCm49V5d6hXCtuUwful5YMiSmpeqjIMAw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=U9-zP1Yv7bwWepUWI9LDkQ&amp;oh=00_Afdvs0D0Cvz0ak_gwqyFyZgmkLyGMbW-PqgSbm7y_LZY2Q&amp;oe=68EC4B8E', 'profileId': 'pfbid037A71fkDYFvxt1rEnPBNgYMicUXRCgPKFkV7iRjdNx6pvkHrSif9M7aR2Hp3XRqHsl', 'profileName': 'Diaz Magda', 'likesCount': '0', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=752752344292285', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1Mjc1MjM0NDI5MjI4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTI3NTIzNDQyOTIyODU=', 'date': '2025-08-25T12:16:03.000Z', 'text': 'Pura mierda no ganan nada', 'profileUrl': 'https://www.facebook.com/frankgil.rodriguezbello', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.6435-1/177129736_4385676784777362_7560418220600693959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OkoOOCAe4IoQ7kNvwEyHxgu&amp;_nc_oc=AdnUEgZuNthpXHKXyQ4x1T1aGRJzbgxhl5TB2z1HgBONtXtBFO2Pmk3QnxH7Td3pVTQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_AfcO73TIv_WNzTtIpJg4WqgK3Yw2KbNGYcydz_wUue5P2A&amp;oe=690C8EEF', 'profileId': 'pfbid02Rr8BRQyYr5LZyv8JHZEiQrwrHxmyRJraLss12xEtg9mZjDditxTkdugmaWGdzkLQl', 'profileName': 'Frankgil Rodriguez Bello', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=752752344292285', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1Mjc1MjM0NDI5MjI4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTI3NTIzNDQyOTIyODU=', 'date': '2025-08-25T12:16:03.000Z', 'text': 'Pura mierda no ganan nada', 'profileUrl': 'https://www.facebook.com/frankgil.rodriguezbello', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/177129736_4385676784777362_7560418220600693959_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yxjXIvskBfEQ7kNvwE33Zce&amp;_nc_oc=Adn081eL5ooW6YenCr_Sv2eOXkV19q27xZMqdg7sgTpvofJ6zAavGLS_7kUDugS4DxvB5ewTNUHGnyBFPw8sdYzE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_AfeEEBnsXNIJ30HHu-QiqDizf_m7fvPy2WKxj5Za7wqNzg&amp;oe=690DE06F', 'profileId': 'pfbid0MpXTwbmzB9BK6o7j1X66Ta8qBFfnwknLEjSGcbqXkTdju9bwHQeLcGdfKhBpX6fwl', 'profileName': 'Frankgil Rodriguez Bello', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5008,7 +5008,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1120381086677656', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMjAzODEwODY2Nzc2NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTIwMzgxMDg2Njc3NjU2', 'date': '2025-08-18T13:10:19.000Z', 'text': 'Eso es mentira', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/452634196_1534339997169984_8844195637229541364_n.jpg?stp=c0.81.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bq8gf6gj9KMQ7kNvwG7nTQw&amp;_nc_oc=AdmE1G_A_DMs84NKGSmAHZfLzwdLfPOwZEBfV3oqEpFEDUsl4P2blUBArWo_02gvDZQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_AfdgAvfMy0dXcYxz2XvJfLQ2DetvkUwvuzrycZh7pupFKg&amp;oe=68EAD735', 'profileId': '100017819941079', 'profileName': 'Cecilia Florez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1120381086677656', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMjAzODEwODY2Nzc2NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTIwMzgxMDg2Njc3NjU2', 'date': '2025-08-18T13:10:19.000Z', 'text': 'Eso es mentira', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/452634196_1534339997169984_8844195637229541364_n.jpg?stp=c0.81.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bq8gf6gj9KMQ7kNvwFS3Vyo&amp;_nc_oc=AdmuMdODLz6f2mrExD2LH7KllwIsGyXFugAx4uRd-0Mchltm9DWXTV8ALYU_IBpw0AkTufMJiuiNJ8HFP3GkWqc8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_AfeyLcaf03W6iBl6iSQa1WbzA9yM9k14AQ_akKd3u2FlBA&amp;oe=68EC28B5', 'profileId': '100017819941079', 'profileName': 'Cecilia Florez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5062,7 +5062,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=32096847839914013', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzMyMDk2ODQ3ODM5OTE0MDEz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8zMjA5Njg0NzgzOTkxNDAxMw==', 'date': '2025-08-27T00:51:54.000Z', 'text': 'El yogur vale $3500 es difícil que le salga la palabra gana en dos tarros $7000 mil el tercer intento $3500  y nada ya son $10500 y así sucesivamente no gana ni mierdecita es para los bobos.. jjjjjj', 'profileUrl': 'https://www.facebook.com/jhonalexander.rangelvalbuena', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/415587060_2362706170582186_4838539986313662188_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4aVEOZk0FeEQ7kNvwEQtjJR&amp;_nc_oc=AdkGoRyYQEW7llfOlAKUsl_jUHUIEui41alEQ5lTif6T416DiyqDukWFsUrsRFD7wDY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_AfefV8zz5nBkenuGek6Zwxlx8Srkjn1VM7SlRLoXIAxzqw&amp;oe=68EAFCFB', 'profileId': 'pfbid0VAfQmwUNzhNXzAkP3jdacpGuGj3Ujh6pVYZp1UVKQGEB3Cd3P3Qn18Nn2kXe2Vh2l', 'profileName': 'Samuel Steven Sr.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=32096847839914013', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzMyMDk2ODQ3ODM5OTE0MDEz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8zMjA5Njg0NzgzOTkxNDAxMw==', 'date': '2025-08-27T00:51:54.000Z', 'text': 'El yogur vale $3500 es difícil que le salga la palabra gana en dos tarros $7000 mil el tercer intento $3500  y nada ya son $10500 y así sucesivamente no gana ni mierdecita es para los bobos.. jjjjjj', 'profileUrl': 'https://www.facebook.com/jhonalexander.rangelvalbuena', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/415587060_2362706170582186_4838539986313662188_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4aVEOZk0FeEQ7kNvwGQVjzy&amp;_nc_oc=AdnjXqXKtsVu6G2r6fBn_8n8yvP9LfFCoN18pimGwBv1bGq8XrmA7bKVPxn_M1keQjWdh50elEBQocXqHVgW-Chq&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_AfcVs3ZlMx3gIptx9epam9-q82sHEQBiBTwOLcTYAm-IXw&amp;oe=68EC4E7B', 'profileId': 'pfbid02Z277xcQCr42iej8XzCpvfFGGrTav9HjPwhAZNB7CkBrefWrrM275YA4njWTqVSdKl', 'profileName': 'Samuel Steven Sr.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=750135404291021', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1MDEzNTQwNDI5MTAyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTAxMzU0MDQyOTEwMjE=', 'date': '2025-08-22T17:13:48.000Z', 'text': 'Huy el loki con BON YURT', 'profileUrl': 'https://www.facebook.com/andres.camacho.724314', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/544710870_122249918990225983_7303777820267523140_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9vjE7VGGx3gQ7kNvwGFDlAV&amp;_nc_oc=AdnqNK71lDyY7cQ-SgfTP154frLRO40VEV0KLZ7N9ztNXnOrFRWW593R8fGEh-qOuN4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_Affrq424AM07KXTJnmGzNuaop_XxHtjdyXZX0UA7efRldQ&amp;oe=68EAEC52', 'profileId': 'pfbid02ZLzukSL7cgTyWr9bLDURV51teERkwbqAzEtFjrVaumHij2CBvBrQdhrVR2qa5kfvl', 'profileName': 'Andres Camacho', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=750135404291021', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc1MDEzNTQwNDI5MTAyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NTAxMzU0MDQyOTEwMjE=', 'date': '2025-08-22T17:13:48.000Z', 'text': 'Huy el loki con BON YURT', 'profileUrl': 'https://www.facebook.com/andres.camacho.724314', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/544710870_122249918990225983_7303777820267523140_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9vjE7VGGx3gQ7kNvwGyzaqG&amp;_nc_oc=AdkgMpweKkXAq5HFIVNOL_ZCFMutb3CgPoShGi7j0inKbo8pbhyPp7X0-CuJUFYcy7AB9ffsKf43LiIa0BfjRGk8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_AfdT9-iyBoUT8Q4FHTyN9TDAS6cDcIawf06Pn4gVq7HQ6Q&amp;oe=68EC3DD2', 'profileId': 'pfbid0VoMiqGhkmR6NhaAweiJj7kKftEqsKtJ6791WwfzTKcHNQ6ZeMY6amNR1bRfAJKnrl', 'profileName': 'Andres Camacho', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=4281269768822215', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQyODEyNjk3Njg4MjIyMTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MjgxMjY5NzY4ODIyMjE1', 'date': '2025-08-16T18:33:17.000Z', 'text': 'Eso es pura mentira, nisiquiera deja tomar la foto', 'profileUrl': 'https://www.facebook.com/people/Diego-Arce/pfbid02rjzTUtKtpaWYR7dm53xWNsAxNj8SqyoGptUETG9yLNGEKitk8BXxEXq36v8ab49Gl/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/530702935_122142770576805720_7289191483445824218_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uugsvZc8ZJMQ7kNvwGv25II&amp;_nc_oc=Admm70o_sorgyXfxKGlOqJ7EBfQcBEBy_syUerp0wh6x2pCqKRcxGZqtQWWIZl6X_-U&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_AfdzPeXNtVl2z-bpHpuhQyyoZpb9KGGPRg9UJ9Iu7mdwZw&amp;oe=68EAF6D2', 'profileId': 'pfbid02rjzTUtKtpaWYR7dm53xWNsAxNj8SqyoGptUETG9yLNGEKitk8BXxEXq36v8ab49Gl', 'profileName': 'Diego Arce', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=4281269768822215', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzQyODEyNjk3Njg4MjIyMTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF80MjgxMjY5NzY4ODIyMjE1', 'date': '2025-08-16T18:33:17.000Z', 'text': 'Eso es pura mentira, nisiquiera deja tomar la foto', 'profileUrl': 'https://www.facebook.com/people/Diego-Arce/pfbid0oCMGZihXyS8ye4ojt41oXCFwqh6grJHXEPKhgtaEFfJpXwu7gRgwQZL33CzqgbRnl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/530702935_122142770576805720_7289191483445824218_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uugsvZc8ZJMQ7kNvwF0C9TE&amp;_nc_oc=AdkZLkMW1FS8685p6vtEa7NGs_sIKCzugZley7kkzySDyQqhycwHRSNSsQYzSDkZackEluottWovzUtjAsRK2Gr6&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_Affamc4OXt-Q0vRusFl_HDNW2ekkaYBTejw8nSKMPL9Jqw&amp;oe=68EC4852', 'profileId': 'pfbid0oCMGZihXyS8ye4ojt41oXCFwqh6grJHXEPKhgtaEFfJpXwu7gRgwQZL33CzqgbRnl', 'profileName': 'Diego Arce', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1115652919917699', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMTU2NTI5MTk5MTc2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTE1NjUyOTE5OTE3Njk5', 'date': '2025-08-26T01:34:15.000Z', 'text': 'Ami no me deja tomar la foto', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/470070557_3881301305439067_594575361940528464_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ypIuCeJyd0oQ7kNvwEoIrqW&amp;_nc_oc=AdlV6zwCb1pi3Xs4RJc68ErIC6m7iBHBpA4BffmWpSHI0POfQELHGEvoh0SRNmCz7U0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_AffqqJcZnJrQ6lHDXLgpivIOnNEsHiJqleTuMetO2P_QJA&amp;oe=68EAD662', 'profileId': 'pfbid0UHmgPVmQNhGTzmmLAAYDkL2cCmVAsxtgQk5ZCbaFbnQtoc9JitrfiTBAYGJ9ZzaVl', 'profileName': 'Andrea Velez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1115652919917699', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExMTU2NTI5MTk5MTc2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTE1NjUyOTE5OTE3Njk5', 'date': '2025-08-26T01:34:15.000Z', 'text': 'Ami no me deja tomar la foto', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/470070557_3881301305439067_594575361940528464_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ypIuCeJyd0oQ7kNvwEHa5-7&amp;_nc_oc=AdmG9avTF6S6ij0V3sqbFi75wHlmyCP-W271VlF3FjbYDrTfG4y93nsaUV2KLzR9OJH0gcxk0V67I2Ym4Cd7j8E1&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_Afcwp6vN0854_ilQn-tS-GQhs_AbXL4OF_P-8jeXHYANdA&amp;oe=68EC6022', 'profileId': 'pfbid02Y9DPaAhEE6gG267CEGHMvjfxR3NtQrJs9KcpXEMmnFxdCtUeygp5183UX49vXJgbl', 'profileName': 'Andrea Velez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1185115210120205', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExODUxMTUyMTAxMjAyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTg1MTE1MjEwMTIwMjA1', 'date': '2025-08-19T02:07:39.000Z', 'text': 'Componga eso solo deja ingresar 2 y no la otra plis uno lo que hace 😂😂😂', 'profileUrl': 'https://www.facebook.com/Suarezalejandra30', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/464726330_1062722565552651_5593026694289908028_n.jpg?stp=c0.0.612.612a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ECIDDoLOOAgQ7kNvwFQnzwb&amp;_nc_oc=Adlr58H_qH8zJ7Rzega8IN6ajSiunoEw9LDB3DeP9mWK40sJX8y-oouFi-740TyWXO0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_AffQ2CuZm606dzPJX1QAZrVjnpzW8fio2tHk-ISxDuBQpQ&amp;oe=68EB0D8A', 'profileId': '100054447526950', 'profileName': 'Alejandra Suarez', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1185115210120205', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzExODUxMTUyMTAxMjAyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xMTg1MTE1MjEwMTIwMjA1', 'date': '2025-08-19T02:07:39.000Z', 'text': 'Componga eso solo deja ingresar 2 y no la otra plis uno lo que hace 😂😂😂', 'profileUrl': 'https://www.facebook.com/Suarezalejandra30', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/464726330_1062722565552651_5593026694289908028_n.jpg?stp=c0.0.612.612a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=sOAnETkmZ_YQ7kNvwEyNBdq&amp;_nc_oc=AdnP4TqosuNLQp9dAqm_2Xgh-kNKTYFp_w6vB61NhB9H8IgApgzKdkpD-ts7U3vtMeBLi_YAONA6mGPpjBPR6VDr&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_Afe8SWIQ1QJy9L9QbIhUZVw63LD-lCejEwETtu4N0ufkMQ&amp;oe=68EC5F0A', 'profileId': '100054447526950', 'profileName': 'Alejandra Suarez', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1459713115235977', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NTk3MTMxMTUyMzU5Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDU5NzEzMTE1MjM1OTc3', 'date': '2025-08-16T06:30:01.000Z', 'text': 'Eso n0 trae  nada publicidad engañosa', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-6/534187421_10237344221566548_5215797444915998323_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=Bfyft5j8DHMQ7kNvwGflg5Y&amp;_nc_oc=Adk6IOOtHhDlLh3dnVfRmonziB0tGX2nyWKiGNQPFXwvpvLqDGQ5vysNGrPiMLzq2ZU&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_AfeOrq_XAYxoC35nj1xLg0UOde3PQKRquYIoisftQ1keUA&amp;oe=68EB00A6'}, 'id': '10237344221526547', 'cix_screen': None, 'massive_image': {'width': 540, 'height': 960}, 'image': {'uri': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-6/534187421_10237344221566548_5215797444915998323_n.jpg?stp=dst-jpg_p118x90_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=Bfyft5j8DHMQ7kNvwGflg5Y&amp;_nc_oc=Adk6IOOtHhDlLh3dnVfRmonziB0tGX2nyWKiGNQPFXwvpvLqDGQ5vysNGrPiMLzq2ZU&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_AffjdV4gw_QgDTrnGPvlrFqDILA1vKWklkEYo5yzx7Zb5A&amp;oe=68EB00A6', 'width': 118, 'height': 210}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/fabianthecrow', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/354067744_10229999487992799_7063213958346107302_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ryx7uLIp4qAQ7kNvwEPTEnU&amp;_nc_oc=AdmIRNE30XFuo_lSRF3hFle_c-Wlwa-wMU5hvMCXyO7OMJ22i18-ggoZ8vrqru56Iy0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_Afe-ZXHgMt1pOHaemqaf5zKrvcLTQrISIgp-yJJ9AtkrKg&amp;oe=68EB0296', 'profileId': 'pfbid0nD88YHaXfd3u28RgKgRGeD9vYPXazsidi54P1nisz56icb7Ghs7YAGYU1wdqiij6l', 'profileName': 'Fabian Diaz Rojas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1459713115235977', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE0NTk3MTMxMTUyMzU5Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xNDU5NzEzMTE1MjM1OTc3', 'date': '2025-08-16T06:30:01.000Z', 'text': 'Eso n0 trae  nada publicidad engañosa', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/534187421_10237344221566548_5215797444915998323_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=Bfyft5j8DHMQ7kNvwHuNJi6&amp;_nc_oc=AdnjSiNkf714lnx27tSXJK0kt9uvfnC7UJ27MTjcu4BjnTBxlK8n5B_jnCeVeGgoy76-KO9lNXt-rFu3zzJF8QWt&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_Afee2bbSr0KrfnFmTb_idmVPi8nfNrNjMv1Ij3Z9ybiD2g&amp;oe=68EC5226'}, 'id': '10237344221526547', 'cix_screen': None, 'massive_image': {'width': 540, 'height': 960}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/534187421_10237344221566548_5215797444915998323_n.jpg?stp=dst-jpg_p118x90_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=Bfyft5j8DHMQ7kNvwHuNJi6&amp;_nc_oc=AdnjSiNkf714lnx27tSXJK0kt9uvfnC7UJ27MTjcu4BjnTBxlK8n5B_jnCeVeGgoy76-KO9lNXt-rFu3zzJF8QWt&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_AfcRvoqJn0vGojPnQrPbOhkenrByrf-xtphTklPy2kRYpw&amp;oe=68EC5226', 'width': 118, 'height': 210}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/fabianthecrow', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/354067744_10229999487992799_7063213958346107302_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QeM4h9meR8gQ7kNvwFJ2Jk7&amp;_nc_oc=Adl3bANygYxOTdMDjfs1pkQ8uYNUD8BWMN8pED1tiHl6nXKaUC9cBlczp8RtN8AIHIpHODSHz_Ye3uivPSJNSq8g&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_Afdgb7IoccN_MTZY2ojWwf9qWQUVhWIW0ilppjJlQOa2Tw&amp;oe=68EC5416', 'profileId': 'pfbid02qacKAJw9hRa3WVz5AXS9ZfAKs5ijMyHJN7cELnWDBRBaGxvVnbWdpUTgbSVPz2drl', 'profileName': 'Fabian Diaz Rojas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=1886374095552977', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4ODYzNzQwOTU1NTI5Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODg2Mzc0MDk1NTUyOTc3', 'date': '2025-08-24T16:06:08.000Z', 'text': 'Ese man es un asco de persona....', 'profileUrl': 'https://www.facebook.com/libia.miranda.121', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/448484826_953761139824713_217244319080151186_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HE6mqWodj0wQ7kNvwGns3DI&amp;_nc_oc=Adlb0otI_UVVpx7FmbNpvmDJecF0qNuhI31V7MqFb3uvD7uFGqy9cyVYFrhtQ2BDLfE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_AfdVqz8m0-tfVr-Hw7yv-H3_j_U1xV7oOac_PGBKdCkwPQ&amp;oe=68EAFC98', 'profileId': 'pfbid02AqcP5wyzp7xAwbjJS9hi5asdM9UcyN18zUew5DaHX5Bw8DCAe5Mcnn6bMhS6Y1k7l', 'profileName': 'Libia Miranda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=1886374095552977', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4XzE4ODYzNzQwOTU1NTI5Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF8xODg2Mzc0MDk1NTUyOTc3', 'date': '2025-08-24T16:06:08.000Z', 'text': 'Ese man es un asco de persona....', 'profileUrl': 'https://www.facebook.com/libia.miranda.121', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/448484826_953761139824713_217244319080151186_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QVhc2Q3H6mQQ7kNvwH_fn7G&amp;_nc_oc=AdlkQfw1dqgbPFhBa6pNQbfKKI7KIvF0svV3deDg6_b-p5H3GL7ddmjTDrdOD0YNo-LIQ11qQlR2B8G44lA2mCw3&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_AffR6DRQ0vKn_Yf1W_gA6LGzMTlvGjCOYJsrpnyQH0gjvw&amp;oe=68EC4E18', 'profileId': 'pfbid06p1fc8nS9A9T1AszoWokp13ShMkg3qHRgazv3kBT1a7Bi1Rzgqo4ym5B2uBhKeDYl', 'profileName': 'Libia Miranda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027rjN78EmCiFLF6yvkgyxGS3YuEYzMFBrB7qFg1x8JuzVGvfCWYtE89g8h2zVn3xYl?comment_id=776453175083585', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc3NjQ1MzE3NTA4MzU4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NzY0NTMxNzUwODM1ODU=', 'date': '2025-08-29T01:54:43.000Z', 'text': 'Cuando salen esas promociones la gente compra hasta el paquete completo y no ganan es nada 😭😭😭', 'profileUrl': 'https://www.facebook.com/jonatan.rolon', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/405232782_7255762734476564_8966792079219826695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=c4z-GksT5HsQ7kNvwF7rEc6&amp;_nc_oc=AdmB7kUGevI2V46q6mxqSy3h6gF9vO018df7BwFOqIDrrnQvBEQ9T0xXTa9uCPvgC_Q&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=Pj06qqAv4KromGbHwFTccw&amp;oh=00_Aff66iFjiMBl4_NZxm0fmKDLYhttbpFoCGQ826YhbTGGLQ&amp;oe=68EAFEFB', 'profileId': '100001287292160', 'profileName': 'Jonatan Rolon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid04K6BBxcQMb3PUSxDwXP2Zm1Zwu1dggNk5AEJBa2qXZdH4yH98UCdw9rQNiJ6xY5Ql?comment_id=776453175083585', 'id': 'Y29tbWVudDoxMTcwMzk4OTQxNzkyNTE4Xzc3NjQ1MzE3NTA4MzU4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODk0MTc5MjUxOF83NzY0NTMxNzUwODM1ODU=', 'date': '2025-08-29T01:54:43.000Z', 'text': 'Cuando salen esas promociones la gente compra hasta el paquete completo y no ganan es nada 😭😭😭', 'profileUrl': 'https://www.facebook.com/jonatan.rolon', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/405232782_7255762734476564_8966792079219826695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aeK6Fuze4eEQ7kNvwHrsER9&amp;_nc_oc=AdlQHlnx6uKiRkIOc3ZSs_394c4QukeNsdpHTq8qZ8jPl0xcMEJ9uGvD-lQX-rwqaCcwcrTHKHyXURdzUMmg_cjc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Nz-iOmvuqIFi6Ltn0u7Qfw&amp;oh=00_AfemGPSdtjHVCDYRXjgXizhHz2Dzum9vezwrcuvgKjhmIw&amp;oe=68EC507B', 'profileId': '100001287292160', 'profileName': 'Jonatan Rolon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398941792518', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398088459270/'}</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5494,7 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1822478522023492', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE4MjI0Nzg1MjIwMjM0OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xODIyNDc4NTIyMDIzNDky', 'date': '2025-08-24T23:19:12.000Z', 'text': 'Elegante', 'profileUrl': 'https://www.facebook.com/jose.quinones.723527', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/484293509_122174038334293825_2798302913096566844_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WP3_A1m3rfEQ7kNvwFRfOEe&amp;_nc_oc=AdluhA6xfofb34E-KDhQIVjt7ADOueKRS1eyCRhU4lSPtrU2vqN2NHC5WGPXCfNenJs&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=Tlk5_gkZsVWKBJskswIaCQ&amp;oh=00_AfeepJbU-GIgrlqB-T3JYhTcgGMxty2uT8vwJW6fyt_HiQ&amp;oe=68EAE31A', 'profileId': '61558814773416', 'profileName': 'Jose Quiñones', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1822478522023492', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE4MjI0Nzg1MjIwMjM0OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xODIyNDc4NTIyMDIzNDky', 'date': '2025-08-24T23:19:12.000Z', 'text': 'Elegante', 'profileUrl': 'https://www.facebook.com/jose.quinones.723527', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/484293509_122174038334293825_2798302913096566844_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WP3_A1m3rfEQ7kNvwEv8tln&amp;_nc_oc=Adl7jnhe0jApqL3e-teJ1RkfE_XtCoP9jaW9BT5IBlh1onGei4RPPO2necRrRpKhg60&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=2Vvq0T3mAlNcUUeWzPNEmA&amp;oh=00_AfdW57w3YwfZ1LMxLb_pKSg0LElh3FvVjSudsE-nuBdLjA&amp;oe=68EC349A', 'profileId': '61558814773416', 'profileName': 'Jose Quiñones', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1929122727938850', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5MjkxMjI3Mjc5Mzg4NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTI5MTIyNzI3OTM4ODUw', 'date': '2025-08-24T18:24:10.000Z', 'text': 'Buena papayo', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/513955197_1089820249686822_3714323986721359203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=FST_SKozf3cQ7kNvwHHCWDv&amp;_nc_oc=AdnL8KoHwBFx4nRvJWk6odRVkHmkwijRvkHpFu_Ouszix61QpmrIWpPLgvGNWj7YbiE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=Tlk5_gkZsVWKBJskswIaCQ&amp;oh=00_AfcdkmgQyf5s6hwwRGNX_D1GQoP6T0EUjIWrlUyT4LbC4A&amp;oe=68EAE6CB', 'profileId': '100059765715586', 'profileName': 'Turco Ortiz', 'likesCount': '7', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1929122727938850', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5MjkxMjI3Mjc5Mzg4NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTI5MTIyNzI3OTM4ODUw', 'date': '2025-08-24T18:24:10.000Z', 'text': 'Buena papayo', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/513955197_1089820249686822_3714323986721359203_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=FST_SKozf3cQ7kNvwEsKZw0&amp;_nc_oc=Adn2FdlbAfYxh_wWp4RbXU_RaItpJE_XJ82XGgmNzfjFvaBm8Of_mlVeNGhqan7epIc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=2Vvq0T3mAlNcUUeWzPNEmA&amp;oh=00_AfdhohhiT_r_5rZ_uzN5IgX0Y6KBZh0zgPDm4StOoYo-3w&amp;oe=68EC384B', 'profileId': '100059765715586', 'profileName': 'Turco Ortiz', 'likesCount': '7', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5602,7 +5602,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=625533767016581', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYyNTUzMzc2NzAxNjU4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182MjU1MzM3NjcwMTY1ODE=', 'date': '2025-08-31T21:50:44.000Z', 'text': 'Que bueno chévere', 'profileUrl': 'https://www.facebook.com/rosiris.tirado.79', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/318876509_5751772464890342_4553535761637008071_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z3rj8_tMOpcQ7kNvwEUFgKf&amp;_nc_oc=AdlQfaZkT61ptHf8CDpn2nO1UmaXrP_JgxPbQcz8E_amOcri7M_boAfzpwkAhDAMoJA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=Tlk5_gkZsVWKBJskswIaCQ&amp;oh=00_Afdv8rAPRgmslRYmvAPGJU7i0e0O-h7ruAJFLfW31tN1gg&amp;oe=68EAEE84', 'profileId': 'pfbid02Vo2dnCuAhzx7H1VhG4z8fyiv8UuevtkFKzc1bC3fS7r5YKSwh5zmrRziLS9MPV68l', 'profileName': 'Rosiris Tirado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=625533767016581', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYyNTUzMzc2NzAxNjU4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182MjU1MzM3NjcwMTY1ODE=', 'date': '2025-08-31T21:50:44.000Z', 'text': 'Que bueno chévere', 'profileUrl': 'https://www.facebook.com/rosiris.tirado.79', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/318876509_5751772464890342_4553535761637008071_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UBsXMElHKvYQ7kNvwHEjtmB&amp;_nc_oc=Adng15n_81RtsUwqGJxp173g6Cs3_fyqR0Jeihw1OGlhiSEh5_HKV6fv56oBVd43h9w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=2Vvq0T3mAlNcUUeWzPNEmA&amp;oh=00_AfeboaSrjvF_BrGCGgTphCXlwdnH_PLO4ovZ31BbRbvqJg&amp;oe=68EC4004', 'profileId': 'pfbid0SFPSs3GorxWNLBCuqQQvfYyFwgirhoXT3dWDcyNwYrYS834FWcq4DffrghjjKXatl', 'profileName': 'Rosiris Tirado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1196634089154940', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExOTY2MzQwODkxNTQ5NDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTk2NjM0MDg5MTU0OTQw', 'date': '2025-08-31T16:13:22.000Z', 'text': 'Que bueno mi loquillo', 'profileUrl': 'https://www.facebook.com/jesly.ibarguen.mosquera', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/490705607_615391658148284_7137657784117800471_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C6dvy4OdgPIQ7kNvwF3zihH&amp;_nc_oc=AdkNxMnYOLVP2oFYHyiMqOUXy2HN4nJPKq5fMslKpYTOkDADobUqrPTSZedTmGED3-U&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=Tlk5_gkZsVWKBJskswIaCQ&amp;oh=00_AfcJAarSodeo_G9gBQR1H9yCI8XiA6Q0S0KN-SL5cK_VGg&amp;oe=68EAD769', 'profileId': 'pfbid02EvbZmjkwNhNTcMYvP3RhdUuY9sNLzKchNUjDqa9msk9rM6xp8B4y6ksanTE54GVPl', 'profileName': 'Jesly Ibarguen Mosquera', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1196634089154940', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExOTY2MzQwODkxNTQ5NDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTk2NjM0MDg5MTU0OTQw', 'date': '2025-08-31T16:13:22.000Z', 'text': 'Que bueno mi loquillo', 'profileUrl': 'https://www.facebook.com/jesly.ibarguen.mosquera', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490705607_615391658148284_7137657784117800471_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C6dvy4OdgPIQ7kNvwEgDgs0&amp;_nc_oc=AdmENpIzk1um_NPsXVd6DHlxwdSj2HIhBc6xE0RAasCfBNt3B5cSQL0adUmxdJYb_ms&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=2Vvq0T3mAlNcUUeWzPNEmA&amp;oh=00_AfdGJkQQXzzuby4Ba7QKGaattOMJEOyjrYfeUkJgZCjuIQ&amp;oe=68EC28E9', 'profileId': 'pfbid0BNxNra8aXQs1cgMncZGoxRzMYydZg3AaKJbzwSVUrb7QVMjPZ8oBZ9ryo3tbThz6l', 'profileName': 'Jesly Ibarguen Mosquera', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1281639713466726', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyODE2Mzk3MTM0NjY3MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjgxNjM5NzEzNDY2NzI2', 'date': '2025-08-22T14:30:02.000Z', 'text': 'Si el bonyur era rico así solito. Cómo será ahora que se combina bonyur con LOKILLO😋😋😋', 'profileUrl': 'https://www.facebook.com/rocio.ovallosbarbosa', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/473616422_10234419535327036_6801076088117551709_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-fv0mCfcZAcQ7kNvwHilQSG&amp;_nc_oc=Adme--CKHdd6kInOpNrevCvoa97rBPAl6JLHZx-uttoy_5ixDco1qemcJiJF4p44jmw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=Tlk5_gkZsVWKBJskswIaCQ&amp;oh=00_AffOOKbj0f9UMh54C0kOLTA694oHs7WuYuQD9wGX4cd6_A&amp;oe=68EADCFA', 'profileId': '1153157565', 'profileName': 'Rocio Ovallos Barbosa', 'likesCount': '20', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1281639713466726', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyODE2Mzk3MTM0NjY3MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjgxNjM5NzEzNDY2NzI2', 'date': '2025-08-22T14:30:02.000Z', 'text': 'Si el bonyur era rico así solito. Cómo será ahora que se combina bonyur con LOKILLO😋😋😋', 'profileUrl': 'https://www.facebook.com/rocio.ovallosbarbosa', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/473616422_10234419535327036_6801076088117551709_n.jpg?stp=c0.0.1080.1080a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-fv0mCfcZAcQ7kNvwG_H8P4&amp;_nc_oc=AdmI6564axDPYUSeAsOyt1GvAJVN6kuUxRIK9CZlO957QmIdg2i3eSBUpCL4UsAWobQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=2Vvq0T3mAlNcUUeWzPNEmA&amp;oh=00_Afd9HmV0eKv8ZPeF_qrRcq4eaRCn5WcsXO44q6NnynhOgQ&amp;oe=68EC2E7A', 'profileId': '1153157565', 'profileName': 'Rocio Ovallos Barbosa', 'likesCount': '20', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5764,7 +5764,7 @@
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1955389891929788', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NTUzODk4OTE5Mjk3ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTU1Mzg5ODkxOTI5Nzg4', 'date': '2025-08-30T14:54:15.000Z', 'text': 'Mira tú esa monda y uno acá esperando nuevo capítulo de perros criollos! JAJAJAJAJAJAJAJAJAJAJAJAJ te amo Loki', 'profileUrl': 'https://www.facebook.com/fernandacosmetics96', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/520920314_1246593880343599_1111365114605700818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ve-mtBDX5R4Q7kNvwG5Ajpq&amp;_nc_oc=AdnLyf4kuO-hxVYx29D-CcxQUc1bw8FY-pyl_CFgBQiXRCV_iFwP7s2B1DgM3uiWc7Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=Tlk5_gkZsVWKBJskswIaCQ&amp;oh=00_AffU7yofg6263E6XhZ-OvjcLG5pLDveaGrvXEkE5iD1q5Q&amp;oe=68EAF610', 'profileId': '100049789951806', 'profileName': 'Cosmetologa Cosmiatra May Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1955389891929788', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NTUzODk4OTE5Mjk3ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTU1Mzg5ODkxOTI5Nzg4', 'date': '2025-08-30T14:54:15.000Z', 'text': 'Mira tú esa monda y uno acá esperando nuevo capítulo de perros criollos! JAJAJAJAJAJAJAJAJAJAJAJAJ te amo Loki', 'profileUrl': 'https://www.facebook.com/fernandacosmetics96', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/520920314_1246593880343599_1111365114605700818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ve-mtBDX5R4Q7kNvwH00OsE&amp;_nc_oc=AdnXq8qfLfiSUizFDrTOy_umVJEWB98Rxbl-ZKQG8eAOTwGPUzzgYRiq4aGTSniOMgA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=2Vvq0T3mAlNcUUeWzPNEmA&amp;oh=00_AfcTBZJWk5SsrP_DU4fU-ciw6n1wKaawHfMWh6yfOZ5X1A&amp;oe=68EC4790', 'profileId': '100049789951806', 'profileName': 'Cosmetologa Cosmiatra May Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=782285414385538', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc4MjI4NTQxNDM4NTUzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183ODIyODU0MTQzODU1Mzg=', 'date': '2025-09-04T10:27:28.000Z', 'text': 'LOKILLO el mejor', 'profileUrl': 'https://www.facebook.com/yimmyalbornozjr', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/484867736_643987678250871_7818427368768413231_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Ntczuwar8FwQ7kNvwEnUhQg&amp;_nc_oc=Adm1sF2c0iEPaSAgNdiLpzD_IKX_OunWecseUylXcKQiKVkJkxZjVgNYijr6JckxcHI&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=Tlk5_gkZsVWKBJskswIaCQ&amp;oh=00_Afd9UirS8pEl3p20tA9Mh1grFee49yKW2wVhjlp2ZfiACw&amp;oe=68EAF9B2', 'profileId': '100079189340095', 'profileName': 'Yimmy Albornoz Jr.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=782285414385538', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc4MjI4NTQxNDM4NTUzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183ODIyODU0MTQzODU1Mzg=', 'date': '2025-09-04T10:27:28.000Z', 'text': 'LOKILLO el mejor', 'profileUrl': 'https://www.facebook.com/yimmyalbornozjr', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/484867736_643987678250871_7818427368768413231_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TmSzFKD6WjAQ7kNvwHE-TW3&amp;_nc_oc=Admf_Gcg3FHAvFU77l_0zUeypIP-fL87T9cK9M4YJ0rFPsEu08f7GWENveuQZ1fRmv0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2Vvq0T3mAlNcUUeWzPNEmA&amp;oh=00_AfdWD2PC4WSW7v9Xu7DqcwYGszqnLZKch8EFB_KQPvxL-g&amp;oe=68EC4B32', 'profileId': '100079189340095', 'profileName': 'Yimmy Albornoz Jr.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=759726296920289', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1OTcyNjI5NjkyMDI4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTk3MjYyOTY5MjAyODk=', 'date': '2025-08-26T18:51:33.000Z', 'text': 'Jejejjeje ese era el bless jajajaja cantando', 'profileUrl': 'https://www.facebook.com/alex.valle.906120', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/525332803_752863117698014_7098047070177921233_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Lej3P9r0dS0Q7kNvwG9rJvR&amp;_nc_oc=AdkOS377ECwUlZiK9VcJmNVp4fICVq069IzGHDXIt379GHAO5-OFPP-wmr8ezP66A5w&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=Tlk5_gkZsVWKBJskswIaCQ&amp;oh=00_AffCmIcDSAjfgZVMIHlgqo77dAOwGRcT3xzcZQcOgGt2gw&amp;oe=68EAED11', 'profileId': '100089229964764', 'profileName': 'Alex Valle', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=759726296920289', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1OTcyNjI5NjkyMDI4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTk3MjYyOTY5MjAyODk=', 'date': '2025-08-26T18:51:33.000Z', 'text': 'Jejejjeje ese era el bless jajajaja cantando', 'profileUrl': 'https://www.facebook.com/alex.valle.906120', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/525332803_752863117698014_7098047070177921233_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Lej3P9r0dS0Q7kNvwGUak5w&amp;_nc_oc=AdkutD_MilyQ7DBsdX69GsD8wP6od7cuQgKWbyu3EqkBWGxxfbW5uis-i7JNFyajXAI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=2Vvq0T3mAlNcUUeWzPNEmA&amp;oh=00_AfdBFC_dJ5CHwca5X73Z478Phhq86zp6diBQU07vRzmWIQ&amp;oe=68EC3E91', 'profileId': '100089229964764', 'profileName': 'Alex Valle', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=766685555735636', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc2NjY4NTU1NTczNTYzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NjY2ODU1NTU3MzU2MzY=', 'date': '2025-08-23T02:59:43.000Z', 'text': 'Loki te amoooooo', 'profileUrl': 'https://www.facebook.com/Adrianita1984', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/515436282_631680579966050_2146966360550331034_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NiwUpCIQxUwQ7kNvwEPU_2v&amp;_nc_oc=Adng6aPS9uX6EBlvCqo6fjqI49nQmeJTK30xd4P8fojQOUvFo2hBhj2tqGG6krA1r6w&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=Tlk5_gkZsVWKBJskswIaCQ&amp;oh=00_Afd_kgTM7PF-kE6NaTB_i3NDuoFmbIFf6FUNVrzAZccd0Q&amp;oe=68EAEA18', 'profileId': 'pfbid0S7rPT4CMoWdS6WxidLu2chUDx4DKcGGWwBQ5aBhSvtqnwCQkXKttSizEMf99DuH6l', 'profileName': 'Adriana Fernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=766685555735636', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc2NjY4NTU1NTczNTYzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NjY2ODU1NTU3MzU2MzY=', 'date': '2025-08-23T02:59:43.000Z', 'text': 'Loki te amoooooo', 'profileUrl': 'https://www.facebook.com/Adrianita1984', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/515436282_631680579966050_2146966360550331034_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NiwUpCIQxUwQ7kNvwGaiJlh&amp;_nc_oc=AdnwKyw4dEfzaZoF-iKEYy6aDAulsdbeOkq9F1YZN0iZOzx2zqa7RWdAVi8-46Uy8Eg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=2Vvq0T3mAlNcUUeWzPNEmA&amp;oh=00_Afft442RLM23_nCYH98rU3f4AMrRSeusi8ylYPpyKzKvZQ&amp;oe=68EC3B98', 'profileId': 'pfbid02VyJ6dj8Bf17TGqJvoee3TETf9YbNJjtqFSbeB6r5AhtzUqG2a5xdk4YMgvTujXtYl', 'profileName': 'Adriana Fernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -5980,7 +5980,7 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1323845609162864', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzMjM4NDU2MDkxNjI4NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzIzODQ1NjA5MTYyODY0', 'date': '2025-08-30T18:39:30.000Z', 'text': 'Deme 10 de una vez ❤️', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/538614175_10163973755431983_2899712820755373490_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HgvawWroB58Q7kNvwHXYVvQ&amp;_nc_oc=AdkPu3-9ZGlBU2yS_11Abp3_LEzCEOB4SmDUmEwKAKE6ctKh9rD5cWytC-xziyVEWxY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=Tlk5_gkZsVWKBJskswIaCQ&amp;oh=00_AfeJ9MEJ7UpbpiGwBAIQqYnVUEkiAVy4JSMNBHYMrztCYw&amp;oe=68EAEBEA', 'profileId': 'pfbid036YGToQtngEfRXbXyja3TamrjBZcbsBqq8d9Sdpzo4AXijnn7chM7MqfvV5CeQC4l', 'profileName': 'Mariana Pineda Angel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1323845609162864', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzMjM4NDU2MDkxNjI4NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzIzODQ1NjA5MTYyODY0', 'date': '2025-08-30T18:39:30.000Z', 'text': 'Deme 10 de una vez ❤️', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/538614175_10163973755431983_2899712820755373490_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HgvawWroB58Q7kNvwEOb52w&amp;_nc_oc=AdnLuPtERT_Bum3v3RG5wh8TQDYsTYUrTyKWiefxL7_PvRIYdIsfah9SrGvlTUNKhv0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=2Vvq0T3mAlNcUUeWzPNEmA&amp;oh=00_AfcmIiXHEBcCeZvlQgEZwptVMH0xpLkcl91sJOQm2GKF0g&amp;oe=68EC3D6A', 'profileId': 'pfbid026wyyeULieBqgbcoMaGB5HQSbbprM7QQWTHNp94GKBrsYb6RaL4Rqhv7qEmYXUpr2l', 'profileName': 'Mariana Pineda Angel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6034,7 @@
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2585406545156676', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI1ODU0MDY1NDUxNTY2NzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNTg1NDA2NTQ1MTU2Njc2', 'date': '2025-08-22T21:22:01.000Z', 'text': 'Te admiro ladillo tu la rompes', 'profileUrl': 'https://www.facebook.com/sergioandrecaicedo', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/528269033_24585035534459233_3732001438658360675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=JKY4bprTJdEQ7kNvwHlAMuR&amp;_nc_oc=AdmpRKbKefA2vVyLW8CrfLFehiNtGhotrrHNssZZ7at7shHQjFcWmN5kUqpVFjCMwBQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=pr_BwSU9n2SZElw-sXy2KA&amp;oh=00_AfehH0DhYzwX7dZ-zFNmhavPvwRGG4UMPgI4oRQC3g_m0A&amp;oe=68EAE008', 'profileId': '100001383837594', 'profileName': 'Sergio Andres Caicedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2585406545156676', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI1ODU0MDY1NDUxNTY2NzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNTg1NDA2NTQ1MTU2Njc2', 'date': '2025-08-22T21:22:01.000Z', 'text': 'Te admiro ladillo tu la rompes', 'profileUrl': 'https://www.facebook.com/sergioandrecaicedo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/528269033_24585035534459233_3732001438658360675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=JKY4bprTJdEQ7kNvwEDhOj5&amp;_nc_oc=AdlFsZQ07s5CgQF9yJx_nAa8BP6rlUVqDMTiQTeWfoKbLO3AldcTuV1ev-kPaA8x--Q&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=ijcR0e5HIiYrATbVbOzPKw&amp;oh=00_Afd_rIk66yJ9xYLClI4qUqOmldnNi07QeI7vmXwfIAf9Dw&amp;oe=68EC3188', 'profileId': '100001383837594', 'profileName': 'Sergio Andres Caicedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1453559232523874', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE0NTM1NTkyMzI1MjM4NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNDUzNTU5MjMyNTIzODc0', 'date': '2025-09-17T18:20:37.000Z', 'text': 'Compre y compre bonyurt y solo me sale\nGana\nBono de\nYa tengo como treinta etiquetas de lo mismo', 'profileUrl': 'https://www.facebook.com/edward.rosero.31', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/362605819_6527099150700724_6664936323246146686_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mPO7xMkyZNgQ7kNvwGrwYew&amp;_nc_oc=Adki9QshqBDZLgwYnqnMcDHc8sllyjuS4bxYqJEtYaSKP9NOL8tX2-7y96wwrqekwRY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=pr_BwSU9n2SZElw-sXy2KA&amp;oh=00_AfdUb933Rwa4oOYGu9qYPhzZDARbS5jX7NZMaqpMrf4qYQ&amp;oe=68EAFFEA', 'profileId': '100002021103301', 'profileName': 'Edward Rosero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1453559232523874', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE0NTM1NTkyMzI1MjM4NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNDUzNTU5MjMyNTIzODc0', 'date': '2025-09-17T18:20:37.000Z', 'text': 'Compre y compre bonyurt y solo me sale\nGana\nBono de\nYa tengo como treinta etiquetas de lo mismo', 'profileUrl': 'https://www.facebook.com/edward.rosero.31', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/362605819_6527099150700724_6664936323246146686_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mPO7xMkyZNgQ7kNvwHtyykO&amp;_nc_oc=AdkttYoI3vxWvbHXEqw2OejG2kYyicja31pf_a7jZpsmtfswrzhA___13i61mVEQpb8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=ijcR0e5HIiYrATbVbOzPKw&amp;oh=00_Afd4M98MPWzpB_3Lt_U7ymvWMvsDYiaMfbm5CUYkhTX73g&amp;oe=68EC516A', 'profileId': '100002021103301', 'profileName': 'Edward Rosero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=809837878378598', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzgwOTgzNzg3ODM3ODU5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM184MDk4Mzc4NzgzNzg1OTg=', 'date': '2025-09-10T04:25:40.000Z', 'text': 'La única forma q me aguante una publicidad jejejej', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/443713861_7964916240193701_1822002741145861079_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aFJs7TialzgQ7kNvwGlod4H&amp;_nc_oc=Adk6YZKEvrWWHKpPda9NjHboiKwFwWLizmGksns6O9Rhrvrwu0lATzQFXei-b-5--B0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=pr_BwSU9n2SZElw-sXy2KA&amp;oh=00_AfclwKU5Y4qxaUAjnpY-AcPeFdEoNhJNMAGFZPHDWI_UTg&amp;oe=68EB0972', 'profileId': 'pfbid0ySftMQKxKRdH7pgsHTFx9Af6WqFchgkjeJ15VMypieGz2sXpDH6CbE83oT3oXWASl', 'profileName': 'Stephanie Giordani', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=809837878378598', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzgwOTgzNzg3ODM3ODU5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM184MDk4Mzc4NzgzNzg1OTg=', 'date': '2025-09-10T04:25:40.000Z', 'text': 'La única forma q me aguante una publicidad jejejej', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/443713861_7964916240193701_1822002741145861079_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=93zn27Hrz9MQ7kNvwFDFeX9&amp;_nc_oc=AdkOVVb1xmfozVg4ECEsekIgND9waGNVA_b6NQBMsOzxDe6X015QiGb8s5MRfNcixfM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=ijcR0e5HIiYrATbVbOzPKw&amp;oh=00_AfdaTLXyLb9EfSMT7nWJnTsxbiGZXJf6OQ56WdEWhKsacw&amp;oe=68EC5AF2', 'profileId': 'pfbid033J7bY5FnAuVrbLCBWFVTzZ2NaopLMjYumkZXgbyadmQBSbbrJuBoyb7RFWjVe3oul', 'profileName': 'Stephanie Giordani', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1941458779980984', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NDE0NTg3Nzk5ODA5ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTQxNDU4Nzc5OTgwOTg0', 'date': '2025-08-24T03:13:45.000Z', 'text': 'Y lo mejor de todo que lo creen a uno pendejo y compré y compré bon yurt y no sale ni un raspaoooo pa un domingo', 'profileUrl': 'https://www.facebook.com/juliocesar.cardenasrodriguez.54', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/82270127_137295337939518_8341976502010074168_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S70sJHM5_IIQ7kNvwFhJ7hr&amp;_nc_oc=AdnF5Tg0aBe_2fSpArfmciLK1I1mdgBRv1VBbT5XMwMsjalGUcLsAlYRX0B4erZ_20E&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=pr_BwSU9n2SZElw-sXy2KA&amp;oh=00_AffZEHnisRBOLEIPBpRo0btWM0PcnEhetvQ2BuFgaMT1Gw&amp;oe=690CA402', 'profileId': 'pfbid0GykDt55Df6crapd1SNNVjJCMg6ctLuHfxnzx2PuPim41v5ctYoEERhVjFZ8k1J92l', 'profileName': 'Julio Cesar Cárdenas Rodríguez', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1941458779980984', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NDE0NTg3Nzk5ODA5ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTQxNDU4Nzc5OTgwOTg0', 'date': '2025-08-24T03:13:45.000Z', 'text': 'Y lo mejor de todo que lo creen a uno pendejo y compré y compré bon yurt y no sale ni un raspaoooo pa un domingo', 'profileUrl': 'https://www.facebook.com/juliocesar.cardenasrodriguez.54', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/82270127_137295337939518_8341976502010074168_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DHe7cCNArLEQ7kNvwHKo5Ic&amp;_nc_oc=AdltkuzG9XOj1SYRfFg502rdwo5B__iRIoX8yhP3Bx_IdHOaraKUG54usOvOVZ8M_-s&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=ijcR0e5HIiYrATbVbOzPKw&amp;oh=00_AfcG9jbOErof1zAZlejOaVg37oMELs3y9vAtvlg8bWS_TQ&amp;oe=690DF582', 'profileId': 'pfbid02LqBw4k13WWLuxPCE8ZejYbn8nFSbFNcRyTSyUGbvXum38jgPT2Rft2jM1HHXsnVFl', 'profileName': 'Julio Cesar Cárdenas Rodríguez', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6253,7 +6253,7 @@
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1126156946083186', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMjYxNTY5NDYwODMxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTI2MTU2OTQ2MDgzMTg2', 'date': '2025-08-23T20:00:53.000Z', 'text': 'Lo unico bueno que pudo sacar alpina. Fué a loquillo en una propaganda 👌🏻', 'profileUrl': 'https://www.facebook.com/JohaoHdez', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/524694274_122146293566773327_5965559268779805949_n.jpg?stp=c0.403.1536.1536a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=spRUMShExNsQ7kNvwF5mD4H&amp;_nc_oc=AdkZi5mqtLyIZvnLyoQUI8RtPkjhunjwiJVxWMoE6t59yOQq1VJJQAT5_DK8Z6lnsKA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=pr_BwSU9n2SZElw-sXy2KA&amp;oh=00_Afd4cTbP28tPMqK486o5ul5LzH4KF9fa7iAfRzAgIqd3rw&amp;oe=68EAF10F', 'profileId': 'pfbid0jpD3cVZCnKsYVX9rdHKhkzCCXdifRN32jeoVNeBjAR8zxafSoMuqDeXB8PbLC94wl', 'profileName': 'Hernandez Johao', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1126156946083186', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMjYxNTY5NDYwODMxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTI2MTU2OTQ2MDgzMTg2', 'date': '2025-08-23T20:00:53.000Z', 'text': 'Lo unico bueno que pudo sacar alpina. Fué a loquillo en una propaganda 👌🏻', 'profileUrl': 'https://www.facebook.com/JohaoHdez', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/524694274_122146293566773327_5965559268779805949_n.jpg?stp=c0.403.1536.1536a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YchPGmec7a8Q7kNvwHF-kWj&amp;_nc_oc=AdmBXDqBfpy75JmBXjYRghVNPQFiWdJDROoFmzt4FqYVGho9r7svPkPa49staYPmDrw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=ijcR0e5HIiYrATbVbOzPKw&amp;oh=00_Aff6D0-V8ZOVwoKFgNCv2JXGPMS9NvtsNwUgBhN4UaQapw&amp;oe=68EC428F', 'profileId': 'pfbid02oBhEEWupoydJ4WefrhAxVUqnxXHpcK19i4Tg1VdNNHuygJDGzC9U8zAZSwHNuH3il', 'profileName': 'Hernandez Johao', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=801413722394566', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzgwMTQxMzcyMjM5NDU2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM184MDE0MTM3MjIzOTQ1NjY=', 'date': '2025-09-10T13:43:41.000Z', 'text': '"El nombre perfecto para este sorteo improvisado. No se ven los ganadores. Complete primero todas las frases y nada, no he visto ni al primer ganador".', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/502580408_3922647438065636_7395170395017184822_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bERfzZirkFEQ7kNvwFeEx5b&amp;_nc_oc=AdlV_XAgKcBaJSikqMZutr5MjgrC4dkvi-LsUy0B0TRrbcge1Y9F2VRF4s_05yIZzxc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=pr_BwSU9n2SZElw-sXy2KA&amp;oh=00_AfeoTU13xfXDrFIJnnjelJu7xvsuixiUeRgSp6AU6i3dXg&amp;oe=68EADDB4', 'profileId': 'pfbid0bsfnKqqbqwwJf8D4gBtMt3q3PtecBR5gvA5JqJtdRX8jLkfiR19ZCs4kVJ2CgZv1l', 'profileName': 'Cardonaa Diianaa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=801413722394566', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzgwMTQxMzcyMjM5NDU2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM184MDE0MTM3MjIzOTQ1NjY=', 'date': '2025-09-10T13:43:41.000Z', 'text': '"El nombre perfecto para este sorteo improvisado. No se ven los ganadores. Complete primero todas las frases y nada, no he visto ni al primer ganador".', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/502580408_3922647438065636_7395170395017184822_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k7xo5TKbmkUQ7kNvwH76DQs&amp;_nc_oc=AdlLwd2vxxcYQK4k2Rht61w-K5gVhjUykihEwH3fgiBEKcn_URoLNU8ITl7zYidMg9g&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=ijcR0e5HIiYrATbVbOzPKw&amp;oh=00_AfeqtMTqS5RcI2W0U9hSdSdjqIu_Pt9nmvO0rDObiW0Khw&amp;oe=68EC2F34', 'profileId': 'pfbid02fj7VWWmRhTJABm2nBMSagMWouwkPAcUKej47JRs9YpffdJvvbrCK1eRQp7n2z3g5l', 'profileName': 'Cardonaa Diianaa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=706636655769224', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzcwNjYzNjY1NTc2OTIyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183MDY2MzY2NTU3NjkyMjQ=', 'date': '2025-08-15T20:48:13.000Z', 'text': 'Esos bon yurt solo. Lo pueden comprar los de estrato 4 para arriba, que producto tan caro y tan poquito que es', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/483064201_3849010855310662_4877008829820244224_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=uLKJiiPQEusQ7kNvwFCDW1x&amp;_nc_oc=Adn_6QoTusoEQx9ri_w04fzfQnpcwJg-nIaVEd-vLJvJMtm5u0EEdl8tX0kxMOxmu98&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=pr_BwSU9n2SZElw-sXy2KA&amp;oh=00_Afdtt6tPf6s1qmXj0_P2z0rfMjEVoUfmQQx0mBh_YeM2lA&amp;oe=68EAE3F0', 'profileId': '100006053552767', 'profileName': 'Cristian Melan', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=706636655769224', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzcwNjYzNjY1NTc2OTIyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183MDY2MzY2NTU3NjkyMjQ=', 'date': '2025-08-15T20:48:13.000Z', 'text': 'Esos bon yurt solo. Lo pueden comprar los de estrato 4 para arriba, que producto tan caro y tan poquito que es', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/483064201_3849010855310662_4877008829820244224_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ZfdjphAs9eoQ7kNvwHXb_1V&amp;_nc_oc=AdnPL7f5TXGCfTDTa9_cImOthjdhacL51A-iJFzXFjAJQMjGninaBw5drc8i585Xj7Q&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=ijcR0e5HIiYrATbVbOzPKw&amp;oh=00_AffcjzWCIHpjLwkJTjFhL44dwTewPgzaFBCan_Xlk4mF2A&amp;oe=68EC3570', 'profileId': '100006053552767', 'profileName': 'Cristian Melan', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1253548079835538', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyNTM1NDgwNzk4MzU1Mzg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjUzNTQ4MDc5ODM1NTM4', 'date': '2025-08-15T17:04:49.000Z', 'text': 'Reciclar xq con el mínimo, en 3 bonyur son medio día de trabajo...', 'profileUrl': 'https://www.facebook.com/yleonardo.perez.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/545160860_2285397468530009_6363577824185687762_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=zGdXVQzZzBMQ7kNvwHJAYt5&amp;_nc_oc=AdmwS0ufMMJqa6oGY58M2WyPUE6XlUkGKf7LTfj_fDkWwzCOJVQLGUEchhpZhVzHITw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=pr_BwSU9n2SZElw-sXy2KA&amp;oh=00_Afe6uIkjBPwh4CZr9ULUMMIaABL9hVGPmWAZNW_O-RBrVg&amp;oe=68EB01CE', 'profileId': '100011793342927', 'profileName': 'YLeonardo PErez', 'likesCount': '7', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1253548079835538', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyNTM1NDgwNzk4MzU1Mzg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjUzNTQ4MDc5ODM1NTM4', 'date': '2025-08-15T17:04:49.000Z', 'text': 'Reciclar xq con el mínimo, en 3 bonyur son medio día de trabajo...', 'profileUrl': 'https://www.facebook.com/yleonardo.perez.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/545160860_2285397468530009_6363577824185687762_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=zGdXVQzZzBMQ7kNvwHW5kNt&amp;_nc_oc=AdlVYDjwI2THxrUS9sROx0IftcJBQoI7dxye5VKs4YaHtQaLOyflqtWx2KgGqlVGYg4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=ijcR0e5HIiYrATbVbOzPKw&amp;oh=00_Afd2aeTrdRc5xByirZGBxfmIaJkVTHJ7POz0tb_9dp2epg&amp;oe=68EC534E', 'profileId': '100011793342927', 'profileName': 'YLeonardo PErez', 'likesCount': '7', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6469,7 +6469,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1341803910994751', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzNDE4MDM5MTA5OTQ3NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzQxODAzOTEwOTk0NzUx', 'date': '2025-09-13T22:40:47.000Z', 'text': 'La esencia del pana es la troba', 'profileUrl': 'https://www.facebook.com/Mk.mercy.MS', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/477890542_3968527456693594_6365367082735739551_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-D0TLrnlbFcQ7kNvwHMXg7f&amp;_nc_oc=AdlKfJC_4Lw7WO3Eb865D223OU7OTUf02CUqeUcQNcL15eFzo2YNL6YBlhr48FTF0U0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=pr_BwSU9n2SZElw-sXy2KA&amp;oh=00_AffmqGcVzeHC2mQF4iQdqeOhWd3-wuAhrTAdQLhBhg2RuA&amp;oe=68EAF8AB', 'profileId': '100006091357697', 'profileName': 'Mk Mercy', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1341803910994751', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzNDE4MDM5MTA5OTQ3NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzQxODAzOTEwOTk0NzUx', 'date': '2025-09-13T22:40:47.000Z', 'text': 'La esencia del pana es la troba', 'profileUrl': 'https://www.facebook.com/Mk.mercy.MS', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/477890542_3968527456693594_6365367082735739551_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-D0TLrnlbFcQ7kNvwG1piWv&amp;_nc_oc=AdnJF9Yl10Dudmi9ZLn7NEgcSYqlKTBFNPsM84kDxRnxF2iNOoq-UHzq5fz8wyWEqn0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=ijcR0e5HIiYrATbVbOzPKw&amp;oh=00_AfeUezCZjZlLTVfXsto66lgW2v6xgEZDZep6ymIS3q9KYA&amp;oe=68EC4A2B', 'profileId': '100006091357697', 'profileName': 'Mk Mercy', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=749535657840873', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc0OTUzNTY1Nzg0MDg3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NDk1MzU2NTc4NDA4NzM=', 'date': '2025-08-23T18:35:18.000Z', 'text': 'con los ojos separados', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/492736801_1244682600335479_9180170920030715078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QTkUQEKQpEMQ7kNvwG7jwqB&amp;_nc_oc=AdkBGu8LL1bLRfFNymyJz-p-sQsdYJjWiEXNWXKNwQkVvw1XmiUjpEbaxb6OHNoJsyE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=pr_BwSU9n2SZElw-sXy2KA&amp;oh=00_AfcwtK2pR6nN_ddeHyPyLMKQv2H85OhMjgdA83shViMNXg&amp;oe=68EADD24', 'profileId': '100043812534158', 'profileName': 'Juan Fernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=749535657840873', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc0OTUzNTY1Nzg0MDg3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NDk1MzU2NTc4NDA4NzM=', 'date': '2025-08-23T18:35:18.000Z', 'text': 'con los ojos separados', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/492736801_1244682600335479_9180170920030715078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QTkUQEKQpEMQ7kNvwFhWgoI&amp;_nc_oc=Adl6YUjutQwAcEzQIhToX2vINr3teazli83l06F8YkmoCwodKOfrr4V8DWVkbF1v4Ik&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=ijcR0e5HIiYrATbVbOzPKw&amp;oh=00_AfeWZRbnJWctF7zp5KfE62fUVzuclkgcxSu5Jh1G37IhcQ&amp;oe=68EC2EA4', 'profileId': '100043812534158', 'profileName': 'Juan Fernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2105761439914052', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIxMDU3NjE0Mzk5MTQwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMTA1NzYxNDM5OTE0MDUy', 'date': '2025-08-15T17:21:13.000Z', 'text': 'Lokillo Ese comercial me hizo recordar las tapas de coca cola nunca ganamos nada', 'profileUrl': 'https://www.facebook.com/wuilfredooo', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/328138307_539592814931439_7325708827018350825_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XTrGMhXi_v8Q7kNvwF2NIpk&amp;_nc_oc=AdmaWTPpjz7-SmeE_t4zoAyVPohc-29N_p39pBouBkIfo9F-h4ckssQVCrjVJt8n5N6gmn-stYbLdSNg4aQGqdfS&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=Q9q16Issj-QXABUWNLGxkg&amp;oh=00_Afds1much6G1VkE4ecnRp7VxfNKy-Jwg_lMjx1XEz7ikMQ&amp;oe=68EAE954', 'profileId': '100005015103640', 'profileName': 'Carmen Julia Barros', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2105761439914052', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIxMDU3NjE0Mzk5MTQwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMTA1NzYxNDM5OTE0MDUy', 'date': '2025-08-15T17:21:13.000Z', 'text': 'Lokillo Ese comercial me hizo recordar las tapas de coca cola nunca ganamos nada', 'profileUrl': 'https://www.facebook.com/wuilfredooo', 'profilePicture': 'https://scontent.fsgu1-1.fna.fbcdn.net/v/t39.30808-1/328138307_539592814931439_7325708827018350825_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XTrGMhXi_v8Q7kNvwGLRth2&amp;_nc_oc=AdkvjrJ7yDFSc8BauTfYalLyzVwqMW4iuCn-SZ7050ncXw1M2O8AvYfAvgFp_58Hd4s&amp;_nc_zt=24&amp;_nc_ht=scontent.fsgu1-1.fna&amp;_nc_gid=vSZ1pnfCyilai88n5Iot9A&amp;oh=00_Afdun-0hLJYNk86fIjYizJLVcMa0QbZUGqlX9rovFCy6Dw&amp;oe=68EC3AD4', 'profileId': '100005015103640', 'profileName': 'Carmen Julia Barros', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2013899612487308', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIwMTM4OTk2MTI0ODczMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMDEzODk5NjEyNDg3MzA4', 'date': '2025-08-22T04:31:58.000Z', 'text': 'El producto más caro de la historia', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/481976078_9055785127877796_8505931625811225954_n.jpg?stp=c0.125.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UqIrXOFxVHsQ7kNvwEBGsr4&amp;_nc_oc=Adl5c_lqYJVEoHO0Tr2xzpqrl6Z5YMlc_m9Mh4KjP3UVa1kX3C0f7b58z5Icm6enn58IolHmlk2UwH5UwyiiDKHA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=Q9q16Issj-QXABUWNLGxkg&amp;oh=00_AffMz5fESF_1WbL9uKkNjJ7wA8SNCBNuiNm2lHVwKoNjLQ&amp;oe=68EB0920', 'profileId': 'pfbid0m71xqKYpiMK2m9URCCdjqGx1ddcHpbn4J2FBnbA2BT3nyjw5vyPX7xr39WUsw3Ztl', 'profileName': 'Alejandro Recalde Martinez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2013899612487308', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIwMTM4OTk2MTI0ODczMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMDEzODk5NjEyNDg3MzA4', 'date': '2025-08-22T04:31:58.000Z', 'text': 'El producto más caro de la historia', 'profilePicture': 'https://scontent.fsgu1-1.fna.fbcdn.net/v/t39.30808-1/481976078_9055785127877796_8505931625811225954_n.jpg?stp=c0.125.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UqIrXOFxVHsQ7kNvwG9VTVl&amp;_nc_oc=AdnKtojAJmNMMY5HILlC7pq3KdnQuJG_4wCVCMOgIf_pCA6EMfjq2tjup9PWL9Oa4mw&amp;_nc_zt=24&amp;_nc_ht=scontent.fsgu1-1.fna&amp;_nc_gid=vSZ1pnfCyilai88n5Iot9A&amp;oh=00_AffLJ16N0QferU2zdL8TkQXWhXktyBkzpbS3u20QigrFog&amp;oe=68EC5AA0', 'profileId': 'pfbid02pxTg1zUeZhE169UYGu5sd2LhnWvhHdfn98VfmYuZWh841jFtBkoJTwpqskK1QmQWl', 'profileName': 'Alejandro Recalde Martinez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1088170050193261', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEwODgxNzAwNTAxOTMyNjE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMDg4MTcwMDUwMTkzMjYx', 'date': '2025-09-07T12:56:24.000Z', 'text': 'Payasoo', 'profileUrl': 'https://www.facebook.com/cesar.carrillo.682398', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/500741570_702917446004945_6277698656411821929_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TPxS0DCcVN0Q7kNvwGYtZeb&amp;_nc_oc=AdkpQKaqNyZ_3wQ5LCUXK_PKXIT0RkUM2a35bwAOe5kyarUnKsDNRmfE1ADftsm1aY14xEOOwKhipYh7YCOdbLz2&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Q9q16Issj-QXABUWNLGxkg&amp;oh=00_Afe1bVpHycBcG92OlM1xThfE7N8wiVKTFhgr0wwxRbdMiA&amp;oe=68EAEB9C', 'profileId': '100088600870323', 'profileName': 'Cesar Carrillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1088170050193261', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEwODgxNzAwNTAxOTMyNjE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMDg4MTcwMDUwMTkzMjYx', 'date': '2025-09-07T12:56:24.000Z', 'text': 'Payasoo', 'profileUrl': 'https://www.facebook.com/cesar.carrillo.682398', 'profilePicture': 'https://scontent.fsgu1-1.fna.fbcdn.net/v/t39.30808-1/500741570_702917446004945_6277698656411821929_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MdIf87rcWAMQ7kNvwEd7ju5&amp;_nc_oc=AdnOcicrinu49Uj-Mseckcb4TFZqW9-aEHxYNfwnADPMy_xD5PKpzhj-oGty1yhFbb8&amp;_nc_zt=24&amp;_nc_ht=scontent.fsgu1-1.fna&amp;_nc_gid=vSZ1pnfCyilai88n5Iot9A&amp;oh=00_AfcXIsW9j-xE0fG6gXSevRd5d8vvbDv21wL7fies5DBg-g&amp;oe=68EC3D1C', 'profileId': '100088600870323', 'profileName': 'Cesar Carrillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6739,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=4205150759756528', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzQyMDUxNTA3NTk3NTY1Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM180MjA1MTUwNzU5NzU2NTI4', 'date': '2025-08-22T02:13:45.000Z', 'text': 'Loquillo es un perrateo', 'profileUrl': 'https://www.facebook.com/people/Juan-Tejedor/pfbid0xMf4UTqzektzeNQzcrZMRPSnbSPqA8EGYw4GgwHaUqjmvT7QGwhPXs7mPAcKACv3l/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/540733553_122125518092946134_6005075357348607371_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EA3zQD5Al1kQ7kNvwGzYsMJ&amp;_nc_oc=AdmnSB69B9n9IliJ7GnmFBdnBgPqZEmUjXqCU09Zy8eJMRk9AtOfzBO1IZO9AqIG2YP7qKZ9HBmLBk4Cz0Xuq0a0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Q9q16Issj-QXABUWNLGxkg&amp;oh=00_AfekRl4TDFkiZK959ZQk_UIkzso2xqPVZ-gCRJyhyZ8KuA&amp;oe=68EB0A61', 'profileId': 'pfbid0xMf4UTqzektzeNQzcrZMRPSnbSPqA8EGYw4GgwHaUqjmvT7QGwhPXs7mPAcKACv3l', 'profileName': 'Juan Tejedor', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=4205150759756528', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzQyMDUxNTA3NTk3NTY1Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM180MjA1MTUwNzU5NzU2NTI4', 'date': '2025-08-22T02:13:45.000Z', 'text': 'Loquillo es un perrateo', 'profileUrl': 'https://www.facebook.com/people/Juan-Tejedor/pfbid031j9F6VCcgGnqqes8UfMupLHXF3hpso9hZgyQQV8H92GPc1D41dpS9aYufxtZb5Erl/', 'profilePicture': 'https://scontent.fsgu1-1.fna.fbcdn.net/v/t39.30808-1/540733553_122125518092946134_6005075357348607371_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ItDnFmMHuSUQ7kNvwEY0KO3&amp;_nc_oc=AdmfRTnff0xBif74jLYQq1k_A74_4KxwhtzBTSH0AmrnZKrMAlFG8iKOoZytlNzA0DE&amp;_nc_zt=24&amp;_nc_ht=scontent.fsgu1-1.fna&amp;_nc_gid=vSZ1pnfCyilai88n5Iot9A&amp;oh=00_Afe71vbdbW0PRZA-n8sTevBc1w2q-0WVxxISXgm5AQc2nA&amp;oe=68EC5BE1', 'profileId': 'pfbid031j9F6VCcgGnqqes8UfMupLHXF3hpso9hZgyQQV8H92GPc1D41dpS9aYufxtZb5Erl', 'profileName': 'Juan Tejedor', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6793,7 +6793,7 @@
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=557399307395977', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzU1NzM5OTMwNzM5NTk3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM181NTczOTkzMDczOTU5Nzc=', 'date': '2025-08-27T23:26:07.000Z', 'text': 'Loki en todo lado menos sacando los capítulos 😭', 'profileUrl': 'https://www.facebook.com/andrea.ortiz.413263', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/518139584_742672255033793_6034599880526097320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=C6a9lZqECAcQ7kNvwG91hva&amp;_nc_oc=AdkQ0RgmA3xFaZfGPomw0PVPqBF5DSMgkizk_PgL-mRPRJbh14ezc1IoMQLVFVBlChZELDh2XXD0a01NriN12jNO&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Q9q16Issj-QXABUWNLGxkg&amp;oh=00_AffpnYIWmHrgSOPRUDJvSVfm4iCfNYyZabnZcvRRdgyRgQ&amp;oe=68EADE4D', 'profileId': '100078730758510', 'profileName': 'Andrea Ortiz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=557399307395977', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzU1NzM5OTMwNzM5NTk3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM181NTczOTkzMDczOTU5Nzc=', 'date': '2025-08-27T23:26:07.000Z', 'text': 'Loki en todo lado menos sacando los capítulos 😭', 'profileUrl': 'https://www.facebook.com/andrea.ortiz.413263', 'profilePicture': 'https://scontent.fsgu1-1.fna.fbcdn.net/v/t39.30808-1/518139584_742672255033793_6034599880526097320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=JoYfJChtd0EQ7kNvwGi7ZQV&amp;_nc_oc=AdnHzpQUXw5f1w4t3K_94jqgUVOb1OUetVXebAsvVV83JcTVnNa1EwfWYdYbxabYwSo&amp;_nc_zt=24&amp;_nc_ht=scontent.fsgu1-1.fna&amp;_nc_gid=vSZ1pnfCyilai88n5Iot9A&amp;oh=00_AfcQFthqxT5zWG7nU2ud3wiyrTqOzGmk0Axm7oVrYM3BHA&amp;oe=68EC2FCD', 'profileId': '100078730758510', 'profileName': 'Andrea Ortiz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=24698250009792631', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI0Njk4MjUwMDA5NzkyNjMx', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNDY5ODI1MDAwOTc5MjYzMQ==', 'date': '2025-08-30T13:23:47.000Z', 'text': 'Le creo la trova por qué el rapeo estuvo muy boleta', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/513493385_1773897183478812_5275291222877607114_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VLLylKp40OEQ7kNvwFbVOvV&amp;_nc_oc=AdkkTX_h_ikfs_0dsma6zT13imiroo6AwdPoo32SCAeUJzniiN9isBH-1zS2AK3XuWG0e_GXQNSfu4RF5ryVBH-b&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=Q9q16Issj-QXABUWNLGxkg&amp;oh=00_AfemgubDuKfaCKQ2oPniIL7_gKs1AXCcHgTp8TZFFtBQ3g&amp;oe=68EADAA4', 'profileId': 'pfbid036z4GT6nGr2gY81M8dju4itegNDaGL8EL9tLP21hv1kXmiisNgogeMZQp3hXuTKqul', 'profileName': 'Marlon E J Chavez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=24698250009792631', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI0Njk4MjUwMDA5NzkyNjMx', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNDY5ODI1MDAwOTc5MjYzMQ==', 'date': '2025-08-30T13:23:47.000Z', 'text': 'Le creo la trova por qué el rapeo estuvo muy boleta', 'profilePicture': 'https://scontent.fsgu1-1.fna.fbcdn.net/v/t39.30808-1/513493385_1773897183478812_5275291222877607114_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VLLylKp40OEQ7kNvwG3WvkX&amp;_nc_oc=Adk4Zsbqe2ctxX-Omak2AI9b84WHXyCDwfoQOsTh1FhlWKv6ynWXt2UPdeP9f1GEa5o&amp;_nc_zt=24&amp;_nc_ht=scontent.fsgu1-1.fna&amp;_nc_gid=vSZ1pnfCyilai88n5Iot9A&amp;oh=00_AfeDGuaQjkXMRvkl1LCO8wnZ8-Q06s5mGYZFIj2ibv_Q2Q&amp;oe=68EC2C24', 'profileId': 'pfbid023SR5Xw9uzqivZhDrjy4qkcrEvjTFcC8ma7RJvY7sH2p7j4iPN1p4TiZZcgYmTtGql', 'profileName': 'Marlon E J Chavez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1124423585756060', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMjQ0MjM1ODU3NTYwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTI0NDIzNTg1NzU2MDYw', 'date': '2025-09-12T02:27:43.000Z', 'text': 'No me he podido registrar', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/441458566_8103202729701138_6892881768584729373_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6P7CJBP9WGMQ7kNvwEcxTsY&amp;_nc_oc=AdnRYoKGSFrR8dXtgwoSvucSYHOYtle5DvWZZ_n_b_DwTAd9WhTQ1eC3KmDl0wlcEUldWQfHlCp86RbQBo5hzoJ-&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Q9q16Issj-QXABUWNLGxkg&amp;oh=00_AffuE2LNP9JUy4RXOKf2jtgJBmqYigq-dyodO_8s4hInpA&amp;oe=68EAE44B', 'profileId': 'pfbid02HkdYBP1XdEUt9qaWUSuJoaXuZZFuM91azrHBs7CE6wDcWPNiRC4H7ueBK3vbWWfLl', 'profileName': 'Vanessa Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1124423585756060', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMjQ0MjM1ODU3NTYwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTI0NDIzNTg1NzU2MDYw', 'date': '2025-09-12T02:27:43.000Z', 'text': 'No me he podido registrar', 'profilePicture': 'https://scontent.fsgu1-1.fna.fbcdn.net/v/t39.30808-1/441458566_8103202729701138_6892881768584729373_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6P7CJBP9WGMQ7kNvwGRmDcr&amp;_nc_oc=AdlGlaXRUynvkNkUEx_n2knnlPVikqEd5n26NTwHQkYvZpikNoZrfIHGI32qcmWAK7U&amp;_nc_zt=24&amp;_nc_ht=scontent.fsgu1-1.fna&amp;_nc_gid=vSZ1pnfCyilai88n5Iot9A&amp;oh=00_AffkyTTIgO1ZfvzvGdrTslSRB2VhqiKoweN7qm2azcLoEQ&amp;oe=68EC35CB', 'profileId': 'pfbid0ECzMGDPAn38nGg2aA4oDAf9MN9cQkUnuEDXXgfvce2bejyn8QGE49BWDCnCPaTqzl', 'profileName': 'Vanessa Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6955,7 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2009729783131496', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIwMDk3Mjk3ODMxMzE0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMDA5NzI5NzgzMTMxNDk2', 'date': '2025-08-31T17:00:23.000Z', 'text': 'Lokillo', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/264976480_940916340170683_8198740197248731791_n.jpg?stp=c0.0.959.959a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1x-PkMnMWe0Q7kNvwHZQ006&amp;_nc_oc=Adm9xVeHVJ9jjqtGzUq-SUJzcpUOk3wI4rv1wFq8MecsptNI40QYj8ejb6cU7Qm6d_YsmKsybOngnIiE2qsG_zXc&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Q9q16Issj-QXABUWNLGxkg&amp;oh=00_AfeQJLmozJXNC1DRrljV-d3fiqUWy5L5scfClvZ7zK7ZaA&amp;oe=68EAD92D', 'profileId': 'pfbid0UR6535LJaC2yZt8s9iaUSCZyWXff2kR9grAvHVA5tB6n34EtrXw2TYt9EmEzRTYil', 'profileName': 'Dupont Théodore', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=2009729783131496', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzIwMDk3Mjk3ODMxMzE0OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yMDA5NzI5NzgzMTMxNDk2', 'date': '2025-08-31T17:00:23.000Z', 'text': 'Lokillo', 'profilePicture': 'https://scontent.fsgu1-1.fna.fbcdn.net/v/t39.30808-1/264976480_940916340170683_8198740197248731791_n.jpg?stp=c0.0.959.959a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1x-PkMnMWe0Q7kNvwGOVCcU&amp;_nc_oc=Adk0sMdbNkH3ms4Ym5Fafpb-48-n5uJq0D94zGGHEZv6EuGb4EdknqXKc1NeZiyQ4Os&amp;_nc_zt=24&amp;_nc_ht=scontent.fsgu1-1.fna&amp;_nc_gid=vSZ1pnfCyilai88n5Iot9A&amp;oh=00_AfcpDrMBcaAS0FCbUIwwUhL6RLeJJQzg9PavtvJdffapdg&amp;oe=68EC2AAD', 'profileId': 'pfbid02XnaFf6gvbvz5Ykr1h2hEBpxVt3Rpy18KkxMMoT3J1t3J56AZwGB4MD9WXiQssUR8l', 'profileName': 'Dupont Théodore', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=4311830235711396', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzQzMTE4MzAyMzU3MTEzOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM180MzExODMwMjM1NzExMzk2', 'date': '2025-08-23T21:02:18.000Z', 'text': 'Y la diabetes la pagan tambn', 'profileUrl': 'https://www.facebook.com/people/Andrea-Lopez/pfbid02muybyFBkUttvwgEi7ckPQoL7rbPdpY278K3tJ3hXjMXEoCHdC5wRdF3eoKUxFnoDl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/499210462_587466867736399_6830558126335191743_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k7jwXL0vm2EQ7kNvwGyrJOj&amp;_nc_oc=AdlAI2CFhYjV8s-wjnxnLvWH4uZK1PbSuKG4n0mAx3t-hlwcyYxsFiyPo6uPRHgbRSD6F5d83DS2qWMNSK0YbAzI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Q9q16Issj-QXABUWNLGxkg&amp;oh=00_AfdBPIcqvErfYB-bQBeuIo_Y3V6R5th0m_qTOkjcrNwf2Q&amp;oe=68EB05A9', 'profileId': 'pfbid02muybyFBkUttvwgEi7ckPQoL7rbPdpY278K3tJ3hXjMXEoCHdC5wRdF3eoKUxFnoDl', 'profileName': 'Andrea Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=4311830235711396', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzQzMTE4MzAyMzU3MTEzOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM180MzExODMwMjM1NzExMzk2', 'date': '2025-08-23T21:02:18.000Z', 'text': 'Y la diabetes la pagan tambn', 'profileUrl': 'https://www.facebook.com/people/Andrea-Lopez/pfbid0iNLR45ZPdeQKojyjiuQMhF29r5h7hRtihshK3J3yB5pBGGLaQuMML26rhAmBdNKpl/', 'profilePicture': 'https://scontent.fsgu1-1.fna.fbcdn.net/v/t39.30808-1/499210462_587466867736399_6830558126335191743_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k7jwXL0vm2EQ7kNvwF_6FHH&amp;_nc_oc=AdnFWG_I3ToBL4QBiJlrFzqzR8MFJMVdT4HxopG4JiTqs8jLxAnQkUPqnOdNSmvX7JI&amp;_nc_zt=24&amp;_nc_ht=scontent.fsgu1-1.fna&amp;_nc_gid=vSZ1pnfCyilai88n5Iot9A&amp;oh=00_Afdf8yTrCzkiEeJwzqzgL7oznar5h3haDkqgcVLYzDZA2Q&amp;oe=68EC5729', 'profileId': 'pfbid0iNLR45ZPdeQKojyjiuQMhF29r5h7hRtihshK3J3yB5pBGGLaQuMML26rhAmBdNKpl', 'profileName': 'Andrea Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=758779093537985', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1ODc3OTA5MzUzNzk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTg3NzkwOTM1Mzc5ODU=', 'date': '2025-08-30T13:38:48.000Z', 'text': 'Jajajajajjaja con el lokillo', 'profileUrl': 'https://www.facebook.com/juan.espinosa.963703', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/532015457_122183347580359006_4303600097273574602_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SI3QK724nTwQ7kNvwELKj0r&amp;_nc_oc=AdlWL8X4aW9slXUrBzCHyd0pKrCYZA1XGoZ4Be_oqXy10NV2MSG2fsrMhBgBfVgkhfGSbG-HtyfBAzszmaC-dvuF&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Q9q16Issj-QXABUWNLGxkg&amp;oh=00_AffTXFRo9epQKuiJ8vpd-ULV2EzlRvEbG4KybuLLHHJE3Q&amp;oe=68EAF2A3', 'profileId': '61560770202104', 'profileName': 'Juan Espinosa', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=758779093537985', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1ODc3OTA5MzUzNzk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTg3NzkwOTM1Mzc5ODU=', 'date': '2025-08-30T13:38:48.000Z', 'text': 'Jajajajajjaja con el lokillo', 'profileUrl': 'https://www.facebook.com/juan.espinosa.963703', 'profilePicture': 'https://scontent.fsgu1-1.fna.fbcdn.net/v/t39.30808-1/532015457_122183347580359006_4303600097273574602_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SI3QK724nTwQ7kNvwEXlC1o&amp;_nc_oc=Adl_cdETwIOxkW1hmvFjb8FwRw1QS_VYipMbJ2G-sKK33Srzp4nvPlfquPhIeHfzOs0&amp;_nc_zt=24&amp;_nc_ht=scontent.fsgu1-1.fna&amp;_nc_gid=vSZ1pnfCyilai88n5Iot9A&amp;oh=00_AfdQcApwychaIJEtNsVyARXeJC-P9p7REuwjxAky-l2oZQ&amp;oe=68EC4423', 'profileId': '61560770202104', 'profileName': 'Juan Espinosa', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=714587254949800', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzcxNDU4NzI1NDk0OTgwMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183MTQ1ODcyNTQ5NDk4MDA=', 'date': '2025-08-31T22:31:42.000Z', 'text': 'Por lo barato eso jajaja', 'profileUrl': 'https://www.facebook.com/yolmer.alvarado.571586', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/531988135_122134663298858595_5803130642910373327_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=m9B2riqSOEEQ7kNvwED9Ytj&amp;_nc_oc=AdnnnM0eAJTLD34r0V_YHQgxFiql6hfpIpw5PiDWd9JmnG-qL_lpuUzBAA5R45G3Pw4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=8ah8Ethwo2ckKiSaodth6g&amp;oh=00_AfdSkYonHHUOlRNfZXDi__O37Q0xsz661swWJRLBqS1pbA&amp;oe=68EB030F', 'profileId': 'pfbid02ChqZSnvepufW6htTtenHsgEAUivhxRZKPK1riWw8QfKMgPUfrECWMZBWEEcoy1Uol', 'profileName': 'Yolmer Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=714587254949800', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzcxNDU4NzI1NDk0OTgwMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183MTQ1ODcyNTQ5NDk4MDA=', 'date': '2025-08-31T22:31:42.000Z', 'text': 'Por lo barato eso jajaja', 'profileUrl': 'https://www.facebook.com/yolmer.alvarado.571586', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/531988135_122134663298858595_5803130642910373327_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=m9B2riqSOEEQ7kNvwFFSpTZ&amp;_nc_oc=AdlT-_Ydku2BCQSg-1bQsDXIu-UmgBXlowYJe49Z9kCEcPtsll_zqqD4L6TKW1Z3Yy4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=wquQMos7s4pxsRQMGgQmnQ&amp;oh=00_AfcdV9MaHQgKvujeD9FEUG9v2CDXmXIcLtEC74ons6MhzA&amp;oe=68EC548F', 'profileId': 'pfbid09ACNXdJHynHJeLLU7iKoCTrw1CqNotL1TWtHvVu31vkJtNoK2h5poFkuc5D9rAnnl', 'profileName': 'Yolmer Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=637479319018992', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYzNzQ3OTMxOTAxODk5Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182Mzc0NzkzMTkwMTg5OTI=', 'date': '2025-08-30T23:28:50.000Z', 'text': 'Quedó boof ese anuncio 😌', 'profileUrl': 'https://www.facebook.com/people/Adri%C3%A1n-Hurtado/pfbid02WhtMd4YzCX17C7Boz6BciZodP5JFNEB5YAixcY9QZ4mz6Johq5D1VBeie15MuJcXl/', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/514259464_710657781815384_7100988446541262556_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NxBxDxw9VToQ7kNvwHeBwZn&amp;_nc_oc=AdkyB-5NEZ8Wc_kd8ex_-xCf_Sp8jX-mvJCrjKacjPlYhc6tWFeg0H5KZCFdw2OZb4c&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=8ah8Ethwo2ckKiSaodth6g&amp;oh=00_AfeHTU9cGsisvZuSCTxpXD3Xw9_uzHGH0Q4_F3tcyi_mMA&amp;oe=68EB0CD8', 'profileId': 'pfbid02WhtMd4YzCX17C7Boz6BciZodP5JFNEB5YAixcY9QZ4mz6Johq5D1VBeie15MuJcXl', 'profileName': 'Adrián Hurtado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=637479319018992', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYzNzQ3OTMxOTAxODk5Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182Mzc0NzkzMTkwMTg5OTI=', 'date': '2025-08-30T23:28:50.000Z', 'text': 'Quedó boof ese anuncio 😌', 'profileUrl': 'https://www.facebook.com/people/Adri%C3%A1n-Hurtado/pfbid0SgHe9FMRXb7H3joQexLWfy8ZndoKUKTb6J1FqCyBcBtExG6wR67KRGURvygNw7wYl/', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/514259464_710657781815384_7100988446541262556_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NxBxDxw9VToQ7kNvwEIjqnY&amp;_nc_oc=AdnADylTLnUwpU02cGgcgo9fE8_xlzsptqJQy9AaHjI1hVA5OIRt7ji2slNy_DBLvcw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=wquQMos7s4pxsRQMGgQmnQ&amp;oh=00_Afd3Km-IPy_uZ7TdlouDyDUbHFP7VuvQIjG-xOzeBJ-jNg&amp;oe=68EC5E58', 'profileId': 'pfbid0SgHe9FMRXb7H3joQexLWfy8ZndoKUKTb6J1FqCyBcBtExG6wR67KRGURvygNw7wYl', 'profileName': 'Adrián Hurtado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7225,7 +7225,7 @@
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1298845918372934', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyOTg4NDU5MTgzNzI5MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjk4ODQ1OTE4MzcyOTM0', 'date': '2025-09-08T16:09:20.000Z', 'text': 'Ya me registre', 'profileUrl': 'https://www.facebook.com/vanessa.nieto.635844', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/559005058_122198243660284470_5449111530113179211_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YwwKvLrDDGQQ7kNvwFPz0AM&amp;_nc_oc=AdnoFgvx6kyf-DjjtuiUhJyubsXR1_BgFhPn2OowaiyYlFGc2GrCkf5PRzBw0NGVjSc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=8ah8Ethwo2ckKiSaodth6g&amp;oh=00_AfeWZ-FwjjWQz1AxxF1vLGRYbM-Uj6tg9KkvfEbBBTWvzw&amp;oe=68EB0817', 'profileId': 'pfbid02J9Egz6bmxdE3Mzp3C448z6ftR8LeCauyaaSXbbjam4K2HALtJYJxvyUQ3sn255QNl', 'profileName': 'Vanessa Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1298845918372934', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEyOTg4NDU5MTgzNzI5MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMjk4ODQ1OTE4MzcyOTM0', 'date': '2025-09-08T16:09:20.000Z', 'text': 'Ya me registre', 'profileUrl': 'https://www.facebook.com/vanessa.nieto.635844', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/559005058_122198243660284470_5449111530113179211_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YwwKvLrDDGQQ7kNvwHFxwWe&amp;_nc_oc=AdlcEZcx9AMUl4UgJjQdLARUuWdWsnMtkg9n-XOThLC1QP7RIa8wU6qIE_t62dlaaR4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=wquQMos7s4pxsRQMGgQmnQ&amp;oh=00_Afd4-vt7sz-4Js0cDus7za3DZCpUVF7YBdkDHoWT7oUoZg&amp;oe=68EC5997', 'profileId': 'pfbid0E7dyWHQDHYjrJiutuNiHNPabQuHCdeFkS8TY7b8xSFq56TtVKkCbQWrsbsXghEzSl', 'profileName': 'Vanessa Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1467404814299923', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE0Njc0MDQ4MTQyOTk5MjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNDY3NDA0ODE0Mjk5OTIz', 'date': '2025-08-30T20:46:50.000Z', 'text': 'Sería bueno que traiga vareta 😹😹', 'profileUrl': 'https://www.facebook.com/JOSE.SALAZAR.JOSE', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/503839459_24201641799454373_308409316597837877_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_EKjBDu8WpMQ7kNvwEsvRKJ&amp;_nc_oc=AdmDThlFyXW6TauEpvFOY5VY6CK0WLD5lFyFDsYZRnZL4Jlo87LrEzxBWFV0BYaKB2Q&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=8ah8Ethwo2ckKiSaodth6g&amp;oh=00_AffpzGc7NlxYPl6EiaFXnVflXo7pbK3qqq87tmbcUnlv9w&amp;oe=68EB07C7', 'profileId': 'pfbid02dNVQBjxGU5ZQZaG37nLykc6M3R2VzvVupA6JFw4ZLmLiTHgoVUtFgcrh1wBFGM3Ll', 'profileName': 'Josè Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1467404814299923', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE0Njc0MDQ4MTQyOTk5MjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNDY3NDA0ODE0Mjk5OTIz', 'date': '2025-08-30T20:46:50.000Z', 'text': 'Sería bueno que traiga vareta 😹😹', 'profileUrl': 'https://www.facebook.com/JOSE.SALAZAR.JOSE', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/503839459_24201641799454373_308409316597837877_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_EKjBDu8WpMQ7kNvwE9x6EJ&amp;_nc_oc=AdmO5piSrXycqQnQDbKT9SEOufSkMsru1gf-wEc9Pk6Xwvrxsc2Ivf1wYog-kXK8LCg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=wquQMos7s4pxsRQMGgQmnQ&amp;oh=00_Afdlw9-P6fquI5F1pbIE8-xJy0rPQVtzq6RyfWKf0K8jIw&amp;oe=68EC5947', 'profileId': 'pfbid0ZLtghvkhoF6Vv3i3HEroB1n2E8pHKqy7SrYCRPHPh9qbQLG8D3f3NoWJr6tKgxZCl', 'profileName': 'Josè Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7333,7 +7333,7 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=787469003971814', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc4NzQ2OTAwMzk3MTgxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183ODc0NjkwMDM5NzE4MTQ=', 'date': '2025-08-23T00:51:37.000Z', 'text': 'Pero cuando va al hotel se cree mucha chimba , más picado que muela de gamin', 'profileUrl': 'https://www.facebook.com/janeth.ortiz.562', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/492302363_9874981929231401_5399690138389940040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mJSoiCn9qYkQ7kNvwEEtCW6&amp;_nc_oc=AdnyRMBPbKdE3ufiXmtAN8dtjIgVtWUANQVdK0OGFgoYmV1mvC4YhweDfjWJ7-sYRSw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=8ah8Ethwo2ckKiSaodth6g&amp;oh=00_Aff_KNqk4dvLoAXlmuLL_LQ9ghoh85C69qgLei8nirSRMQ&amp;oe=68EAD84C', 'profileId': 'pfbid02LazSRvc99ELDdnrNw4w3NLtFrqCAijh7TSiU9WXKcugsuuXGH1FcMTNAguUhHFHbl', 'profileName': 'Janeth Ortiz', 'likesCount': '0', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=787469003971814', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc4NzQ2OTAwMzk3MTgxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183ODc0NjkwMDM5NzE4MTQ=', 'date': '2025-08-23T00:51:37.000Z', 'text': 'Pero cuando va al hotel se cree mucha chimba , más picado que muela de gamin', 'profileUrl': 'https://www.facebook.com/janeth.ortiz.562', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/492302363_9874981929231401_5399690138389940040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mJSoiCn9qYkQ7kNvwH0MxBQ&amp;_nc_oc=AdliZsx2FLK-2iYzF7yOjR1B7vdXYEXR6qRepcd6wU8CdZZcRRSgspFRUxwKRX2HTF0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=wquQMos7s4pxsRQMGgQmnQ&amp;oh=00_Afdrub8AOXQnbHU7TkXDl4GRL0VZFiyCkwvVVV0ql-sopQ&amp;oe=68EC29CC', 'profileId': 'pfbid0GZPix7QaUJ8eRD5TT1EKWP9K5twJggcGsPNQhGXCe6YeqKYQzRP416orUWwwvfHrl', 'profileName': 'Janeth Ortiz', 'likesCount': '0', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7387,7 +7387,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1305526370815437', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzMDU1MjYzNzA4MTU0Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzA1NTI2MzcwODE1NDM3', 'date': '2025-09-09T00:42:32.000Z', 'text': 'Un perro. Criollo se reconoce por comprar  las promos a ver si gana alguito jajajajajajja', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/131931166_821101022075161_6917352098055066331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zgmrGH--2mIQ7kNvwFoTmsB&amp;_nc_oc=AdlGvnGvjaiyRj0NgIV9z9FcKi9goNq6yw_nUPUPMviybN6cXHEuZ2TM7Niy65llQcE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=8ah8Ethwo2ckKiSaodth6g&amp;oh=00_AfcysiDSWWzqvwquaF0oYiQ8ppVxJ_9WShzikLmfwWt73A&amp;oe=690CA7E7', 'profileId': 'pfbid02aXoSv7p8VA5SfhHRCgvFjA9HGyPAhRxQiKojkjnGC6wehjDRcKC5CTjMNxkqTxhfl', 'profileName': 'Marce Guevara', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1305526370815437', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzEzMDU1MjYzNzA4MTU0Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMzA1NTI2MzcwODE1NDM3', 'date': '2025-09-09T00:42:32.000Z', 'text': 'Un perro. Criollo se reconoce por comprar  las promos a ver si gana alguito jajajajajajja', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/131931166_821101022075161_6917352098055066331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zgmrGH--2mIQ7kNvwH1dJRP&amp;_nc_oc=Adnj86NKYmmpMhY6FK25O8NZId4JsGgLMR28qRg3gdNtTcnNOOw9Nsj_1UF3wP9dRYg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=wquQMos7s4pxsRQMGgQmnQ&amp;oh=00_AfcC6jJcu1fyIL24J0f2y7iS29pSG88Dd657z6L0AO3o8Q&amp;oe=690DF967', 'profileId': 'pfbid0WWCjSJcZpKDt96CLnGqhJ93QkWDCYtgTDgETBVRdjAA9DAM4fhcaAPQSB1YPLgdDl', 'profileName': 'Marce Guevara', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=635092229304000', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYzNTA5MjIyOTMwNDAwMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182MzUwOTIyMjkzMDQwMDA=', 'date': '2025-08-31T20:29:37.000Z', 'text': 'Ajajaja nooo pana no pasa nada', 'profileUrl': 'https://www.facebook.com/geeko18', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/484965824_9626052460748624_4969313495346629245_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=XwERadEjfawQ7kNvwFMenOR&amp;_nc_oc=Adk8bS0LBDyGcC8Egc0sAr5vDoFvSNagoqbm9W_7PIUqXvPsS_S7Hm7XLT3g3Ibg1gc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=8ah8Ethwo2ckKiSaodth6g&amp;oh=00_AffnDpr68n4iOXIDx9m6beLz6kErN2j684LRFouWncsVjg&amp;oe=68EAF129', 'profileId': '100000318985525', 'profileName': 'Darwin Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=635092229304000', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzYzNTA5MjIyOTMwNDAwMA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182MzUwOTIyMjkzMDQwMDA=', 'date': '2025-08-31T20:29:37.000Z', 'text': 'Ajajaja nooo pana no pasa nada', 'profileUrl': 'https://www.facebook.com/geeko18', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/484965824_9626052460748624_4969313495346629245_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tslXnjoCf2gQ7kNvwEOs3pV&amp;_nc_oc=AdmodVUrgsh7TW5EFOihbyRacvdpHBCHBKsWMq0OBAc0cAUb5qvO2xee50-t5hhByfs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=wquQMos7s4pxsRQMGgQmnQ&amp;oh=00_AfeQ6s8tNNqifHqn_BITHj7WpTWVtZ3bF1UzAZwONQWexQ&amp;oe=68EC42A9', 'profileId': '100000318985525', 'profileName': 'Darwin Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1508591493466170', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE1MDg1OTE0OTM0NjYxNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNTA4NTkxNDkzNDY2MTcw', 'date': '2025-09-17T20:46:52.000Z', 'text': 'Huy no muy malo ,está vez no loquillo,aunque el bonyourt si', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/312456650_2403860083116851_2954847847914416471_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=34b0sRF8t30Q7kNvwG7DPPQ&amp;_nc_oc=AdmXlKIREvZD4i4JZu4_ENhOR8sA1SX-AGComvQKzC2Z4U54o5-djqub2dxp134clnc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=8ah8Ethwo2ckKiSaodth6g&amp;oh=00_Afd2g3Tp0abY-CB3pMgv_i7J4ZkcoWKLfLntFGiOWPfJlg&amp;oe=68EB05FC', 'profileId': 'pfbid028829hVuDB5ZbiTNL6FbXX9qoNee67jt9ep6pNdLBMtMR99Mzq7yoGNduuhepHGRul', 'profileName': 'Carlos Mario Alvarez Villamil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1508591493466170', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE1MDg1OTE0OTM0NjYxNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNTA4NTkxNDkzNDY2MTcw', 'date': '2025-09-17T20:46:52.000Z', 'text': 'Huy no muy malo ,está vez no loquillo,aunque el bonyourt si', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/312456650_2403860083116851_2954847847914416471_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=34b0sRF8t30Q7kNvwHhzQaU&amp;_nc_oc=AdniCa_Kevo_11oJ9Hi0lZjhf7WGBWO5zFEkDSIFj2G4zgwEoKD5YLsZ13lVcIh8IQU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=wquQMos7s4pxsRQMGgQmnQ&amp;oh=00_AffFScgq738afpKOAzjJUnHsAEfTYq5AUZFXo8S4eP5iIg&amp;oe=68EC577C', 'profileId': 'pfbid04aNxnLGrKpYrGFXf7BU9FR5mvD34V4GRSaxbafxjGYRr4pu6gGop1dKkX91qHDjKl', 'profileName': 'Carlos Mario Alvarez Villamil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7549,7 +7549,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=775366625081989', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc3NTM2NjYyNTA4MTk4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NzUzNjY2MjUwODE5ODk=', 'date': '2025-09-12T17:27:57.000Z', 'text': 'Por la plata baila el mono', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/558829709_24488495837512437_2178647610893412230_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ERB1oyU3mGoQ7kNvwEPC2cy&amp;_nc_oc=AdndvA7xS2U-SAYtjmoLSKqRSp-GRIo2dUOMlYKIAVU-BSZgvr13N0qNC0EIozW91JM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=8ah8Ethwo2ckKiSaodth6g&amp;oh=00_AfcUQ5wTokJr6p2JiyrSVGY-FA_kkKx5gW6CN8Yx670RJg&amp;oe=68EAD5DB', 'profileId': '100003360819313', 'profileName': 'Hugo Grisales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=775366625081989', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc3NTM2NjYyNTA4MTk4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NzUzNjY2MjUwODE5ODk=', 'date': '2025-09-12T17:27:57.000Z', 'text': 'Por la plata baila el mono', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/558829709_24488495837512437_2178647610893412230_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ERB1oyU3mGoQ7kNvwFw7pFA&amp;_nc_oc=Adn0Y6XlStODQtqb1U1qrW0ABiJ1EL1TZ_619ziIdB4gpVvFo5NS5P1iIB5gzatmaVU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=wquQMos7s4pxsRQMGgQmnQ&amp;oh=00_AfcRHi5nB-bLRDjI_aE-QG0oLWHz3xDLcWAWu6Tc_L4kYw&amp;oe=68EC5F9B', 'profileId': '100003360819313', 'profileName': 'Hugo Grisales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=662475230230821', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzY2MjQ3NTIzMDIzMDgyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182NjI0NzUyMzAyMzA4MjE=', 'date': '2025-09-09T21:38:39.000Z', 'text': 'Especularon con el precio y Ya el pueblo no lo come', 'profileUrl': 'https://www.facebook.com/jorget.rodriguezatencia', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/94832835_1610297162455267_5295818057493512192_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-oqEwZAEADcQ7kNvwFrME3V&amp;_nc_oc=AdnKv8hko5e3CuvoHQQhyA_kp6uuEZNXbOxKsLJBCSmCf1wxVxzdhcSeKV2JKkK0lAI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=8ah8Ethwo2ckKiSaodth6g&amp;oh=00_AfckZRxGMbxZOndxONK_7-V0NhPdRVUOUrKlBxB7MqIW2Q&amp;oe=690C78F3', 'profileId': 'pfbid02wpRSxWjPYerY8YfqQBmR2Tez2bDVuVrnjzrZMosr7Jg9VSaZHZyiQNYxKfY8ZxpVl', 'profileName': 'Jorge T Rodriguez A', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=662475230230821', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzY2MjQ3NTIzMDIzMDgyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182NjI0NzUyMzAyMzA4MjE=', 'date': '2025-09-09T21:38:39.000Z', 'text': 'Especularon con el precio y Ya el pueblo no lo come', 'profileUrl': 'https://www.facebook.com/jorget.rodriguezatencia', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/94832835_1610297162455267_5295818057493512192_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-oqEwZAEADcQ7kNvwGiIpWU&amp;_nc_oc=AdlT8xdG_I4sXyF3OU2IlYXypDXmjvq83nLpOfQO6W5iE56d1s-plkjmjMsrHPVbULQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=wquQMos7s4pxsRQMGgQmnQ&amp;oh=00_AffY2rIdD_gaFOsZ3RMmq-2pk_YnuNA3XGAncSJtWjGpqg&amp;oe=690DCA73', 'profileId': 'pfbid0tGnG3M72hJVC2tEkCuzHZyUjAR4fNY85G44s91zZxAgErEzPCrChWLNgTFvSWqdvl', 'profileName': 'Jorge T Rodriguez A', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1131900612151684', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzE5MDA2MTIxNTE2ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMxOTAwNjEyMTUxNjg0', 'date': '2025-09-05T02:37:16.000Z', 'text': 'Tristeza que se vendan', 'profileUrl': 'https://www.facebook.com/people/Cosmo-Gancia/pfbid02ZWHKHfUxXWYKGrH61mcwwR8xnrvza8tG59gxUfooEdddXWdJryyNRb87kkuer4cJl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/472131474_122134662332465466_4403674578418752934_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RhJodLEU00gQ7kNvwGG8YY-&amp;_nc_oc=AdkTtqmHk2xWwqmEbS74Eqoeal4s1g2BiZJnrrslt3F6ienEflYB4IYdyI23paRiIV4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=J8QyRahNoKp7vwDs-y2MKg&amp;oh=00_AfdE6Paqyoh7vpfGOkHqUM6Q1PYuI-WgvZvl2LfaZsgBhg&amp;oe=68EADBF2', 'profileId': 'pfbid02ZWHKHfUxXWYKGrH61mcwwR8xnrvza8tG59gxUfooEdddXWdJryyNRb87kkuer4cJl', 'profileName': 'Cosmo Gancia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1131900612151684', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzE5MDA2MTIxNTE2ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMxOTAwNjEyMTUxNjg0', 'date': '2025-09-05T02:37:16.000Z', 'text': 'Tristeza que se vendan', 'profileUrl': 'https://www.facebook.com/people/Cosmo-Gancia/pfbid0VUgborHPrWq2WT9QXweMyk5uCo5Rkt1MGZqyhB53D1RbVCjf3ECMfR623jpfr8Cdl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/472131474_122134662332465466_4403674578418752934_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RhJodLEU00gQ7kNvwGmAkvE&amp;_nc_oc=AdloDWtpTaMGEtfJdiNve5tgM3_5f66xA_Q8J9WY3NNwbfLuEtJXbEs8AD_Mi0DAUD0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=0i9h9zgcpdTBpMnpXvxfSQ&amp;oh=00_AfcRPU2jsgnGHgVtXcyZleqh7ZM35PKF3iJz4mzYCFFRfg&amp;oe=68EC2D72', 'profileId': 'pfbid0VUgborHPrWq2WT9QXweMyk5uCo5Rkt1MGZqyhB53D1RbVCjf3ECMfR623jpfr8Cdl', 'profileName': 'Cosmo Gancia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=757628130403488', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1NzYyODEzMDQwMzQ4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTc2MjgxMzA0MDM0ODg=', 'date': '2025-09-04T04:42:13.000Z', 'text': 'Un producto caro muy poquito y solo para estratos 10 por culpa del esposo de la cabal ayyy hijitos 🔥😅😅😅', 'profileUrl': 'https://www.facebook.com/hobbyviral.co', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/469278946_1749589532527616_1066663188948231330_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LsPJ3yNk1FcQ7kNvwH-MfHk&amp;_nc_oc=AdkAsa3C83Tb7_XvFlvx2abraVFtBmFu7i9xrvHHetx1Hbwb6F8XSHUfgotlT_MeMuI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=J8QyRahNoKp7vwDs-y2MKg&amp;oh=00_Aff8fyd_G8KY2dRk9gt7mf9h6eHaD1J9TjlmzInBdT4Mag&amp;oe=68EAF79A', 'profileId': '100024297577254', 'profileName': 'Hobbyviral ViralCo', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=757628130403488', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc1NzYyODEzMDQwMzQ4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NTc2MjgxMzA0MDM0ODg=', 'date': '2025-09-04T04:42:13.000Z', 'text': 'Un producto caro muy poquito y solo para estratos 10 por culpa del esposo de la cabal ayyy hijitos 🔥😅😅😅', 'profileUrl': 'https://www.facebook.com/hobbyviral.co', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/469278946_1749589532527616_1066663188948231330_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LsPJ3yNk1FcQ7kNvwF8BnJd&amp;_nc_oc=AdmkPAj80cAFyMlpoF97WimS6PYsr4l1YhxAouuJ8iHZwPKmcMHyk8t3G9JNuW7-qvE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=0i9h9zgcpdTBpMnpXvxfSQ&amp;oh=00_AffRbUh5DB_2aHwnYAuMt41vAHlzEnTzu1aw1XNzNJmzPg&amp;oe=68EC491A', 'profileId': '100024297577254', 'profileName': 'Hobbyviral ViralCo', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7765,7 +7765,7 @@
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1155020503107603', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExNTUwMjA1MDMxMDc2MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTU1MDIwNTAzMTA3NjAz', 'date': '2025-08-27T11:50:50.000Z', 'text': 'A mí solo me ha salido "bono de" y a ¿ustedes?', 'profileUrl': 'https://www.facebook.com/wendyppu', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/467505958_8539573739430137_7870276209555588789_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9Cz2zcAksV4Q7kNvwFnE5uL&amp;_nc_oc=AdkJnt4KWDn4u-8cy7N8p86qjWtTJafk6NrVYUeruaPt01rN6KsN-Bnb45MyRYXYUSo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=J8QyRahNoKp7vwDs-y2MKg&amp;oh=00_AffB3ZT4qgqyC_aX31zd_xefmrwoUittqVrRhX0RhnCX6Q&amp;oe=68EAF925', 'profileId': 'pfbid0phwEhniaqwqY5BhDyjpj83xTtK1MZsxqnw7MTtWdMGB3pqMNswgviRPRQ7so8yCEl', 'profileName': 'Wendy Peñaranda', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1155020503107603', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExNTUwMjA1MDMxMDc2MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTU1MDIwNTAzMTA3NjAz', 'date': '2025-08-27T11:50:50.000Z', 'text': 'A mí solo me ha salido "bono de" y a ¿ustedes?', 'profileUrl': 'https://www.facebook.com/wendyppu', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/467505958_8539573739430137_7870276209555588789_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Uz1hnAoNgZIQ7kNvwHnxDyy&amp;_nc_oc=AdkxaPMtfmcbJkyqx4LlP-06vJeA3DANK3HunXC1v4lfMfD5J1FuVrP6cIqwDVEmi08&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=0i9h9zgcpdTBpMnpXvxfSQ&amp;oh=00_Afdk9mMLcgGARe8LWlrTBhb3NZaKnPgl7OPE8Zobkuipyw&amp;oe=68EC4AA5', 'profileId': 'pfbid02t5RRKp5Csjd4EtfCpCE62sb75qK1EoVQJsKVk8fYbqg4sWz8eDUBtWJZ8WgDASkel', 'profileName': 'Wendy Peñaranda', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7819,7 +7819,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=744584198492577', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc0NDU4NDE5ODQ5MjU3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NDQ1ODQxOTg0OTI1Nzc=', 'date': '2025-08-17T23:33:33.000Z', 'text': 'Homenaje al rap de maluma ?', 'profileUrl': 'https://www.facebook.com/182ManuSanchez', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/484868360_10235431148176915_864792537858997081_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=CPvQhD4wu3wQ7kNvwEYC-os&amp;_nc_oc=AdktL6UztFSN7tE77ebuqtZNrmEwqyUlMCTAkbXICgB2Dfy-r4O8uSfzqFqbb6oRuKI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=J8QyRahNoKp7vwDs-y2MKg&amp;oh=00_AffMwyJ-CKsggeT-OvuWKjYOeGYGgUD_09m14DltDlKWpg&amp;oe=68EAFB64', 'profileId': '1158861820', 'profileName': 'Manu Sanchez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=744584198492577', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzc0NDU4NDE5ODQ5MjU3Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM183NDQ1ODQxOTg0OTI1Nzc=', 'date': '2025-08-17T23:33:33.000Z', 'text': 'Homenaje al rap de maluma ?', 'profileUrl': 'https://www.facebook.com/182ManuSanchez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/484868360_10235431148176915_864792537858997081_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Vo_GHpbqQ6IQ7kNvwHnusaY&amp;_nc_oc=AdmLdD_0M-wqHNzV4-xodoqP2-vcbPn1dmKj_d-q37tSXj2ib7kYBteq4ZNkE2LjAjQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=0i9h9zgcpdTBpMnpXvxfSQ&amp;oh=00_AffzMzHP-7JTCj9ePoazZs8yLgOt2M2h0VVk9M1BRDMCzg&amp;oe=68EC4CE4', 'profileId': '1158861820', 'profileName': 'Manu Sanchez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7873,7 +7873,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1130026065691445', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzAwMjYwNjU2OTE0NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMwMDI2MDY1NjkxNDQ1', 'date': '2025-08-27T20:07:13.000Z', 'text': 'Y más con esa traba que manda quien no le va a gustar comer jajajaj nadien lo vio 😅😈☠️', 'profileUrl': 'https://www.facebook.com/people/Moreno-Yjmu/pfbid02P8KHGZPDMV2HWWuSE2yZKBW594GSc1uZEpb1wxtfoMh1hGxogLtYko1C3hsLLoRvl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/525157870_122232401708075850_6271042705009001019_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9cQ-ucTHf2cQ7kNvwHs95Qr&amp;_nc_oc=AdlS-NlvVBm5X__K6M8tardpzv-Kdp6ccDZStLsBmyuJEfuO5m4bppaKQcDE2TE81hs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=J8QyRahNoKp7vwDs-y2MKg&amp;oh=00_AffFVrpyw6aUQZa25D2uYcZxLhw7kuceel4WyS9vevMzAw&amp;oe=68EAEBE6', 'profileId': 'pfbid02P8KHGZPDMV2HWWuSE2yZKBW594GSc1uZEpb1wxtfoMh1hGxogLtYko1C3hsLLoRvl', 'profileName': 'Moreno Yjmu', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1130026065691445', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzAwMjYwNjU2OTE0NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMwMDI2MDY1NjkxNDQ1', 'date': '2025-08-27T20:07:13.000Z', 'text': 'Y más con esa traba que manda quien no le va a gustar comer jajajaj nadien lo vio 😅😈☠️', 'profileUrl': 'https://www.facebook.com/people/Moreno-Yjmu/pfbid0Kag6MPkrWBkCCEf64jCmriXYGJxrVpp4w9vJNDeLeX6Frxy3kXcCPQ593kf7qtjhl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/525157870_122232401708075850_6271042705009001019_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9cQ-ucTHf2cQ7kNvwF9FvGO&amp;_nc_oc=AdnVElk3mufFe8zeIMZBpcQBdcD4z7d02c1BGERRS91sWTUG0Q-nKARUOksD62NJhjw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=0i9h9zgcpdTBpMnpXvxfSQ&amp;oh=00_Afd3LqfH2Mhkg9uN_2C0Gu7PtzNhX0LpsKGbR-8FLyslyw&amp;oe=68EC3D66', 'profileId': 'pfbid0Kag6MPkrWBkCCEf64jCmriXYGJxrVpp4w9vJNDeLeX6Frxy3kXcCPQ593kf7qtjhl', 'profileName': 'Moreno Yjmu', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=24846705224914171', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI0ODQ2NzA1MjI0OTE0MTcx', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNDg0NjcwNTIyNDkxNDE3MQ==', 'date': '2025-08-27T03:25:03.000Z', 'text': 'Y si lo dice don chimb○, así es ñiñooo', 'profileUrl': 'https://www.facebook.com/nelson.banolgomez', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/481045084_1263563154708043_865372212940582099_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qeNWCBkWoUAQ7kNvwGmN8wa&amp;_nc_oc=AdlwO0JutYHFblMuAGchfmZ4UPptBrxpD66B7_X8KbLfw__eAT9TSH8EJDI5Wcx4qWE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=J8QyRahNoKp7vwDs-y2MKg&amp;oh=00_Afc2yAFhXwmgMvQktliom-YdVOLublT8xoxoIkA7x7XSQQ&amp;oe=68EAE2EB', 'profileId': '100031631121053', 'profileName': 'Nelson DH', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=24846705224914171', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzI0ODQ2NzA1MjI0OTE0MTcx', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18yNDg0NjcwNTIyNDkxNDE3MQ==', 'date': '2025-08-27T03:25:03.000Z', 'text': 'Y si lo dice don chimb○, así es ñiñooo', 'profileUrl': 'https://www.facebook.com/nelson.banolgomez', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/481045084_1263563154708043_865372212940582099_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qeNWCBkWoUAQ7kNvwHOdvQo&amp;_nc_oc=Adk3CXxFMv6kpQcxtju5vzmX9tFMC8NFyV6rmHOurIP2LnVltM2byBcXd5eq3XcWBUk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=0i9h9zgcpdTBpMnpXvxfSQ&amp;oh=00_AfcSB3wqX33wmdhtB6jW_ZSV2UHWxNqIOPtUE68hIkeQQg&amp;oe=68EC346B', 'profileId': '100031631121053', 'profileName': 'Nelson DH', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=680609458332572', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzY4MDYwOTQ1ODMzMjU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182ODA2MDk0NTgzMzI1NzI=', 'date': '2025-08-16T14:26:45.000Z', 'text': 'Pa cuando siguen con los capítulos de perros criollos o es que ya terminaron con eso🤷🏽\u200d♂️🤷🏽\u200d♂️🤷🏽\u200d♂️', 'profileUrl': 'https://www.facebook.com/maicol.orozco.626', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/519070524_3078775878957580_1449762759200854014_n.jpg?stp=c7.0.638.638a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XccxO08yiWoQ7kNvwHjZ59J&amp;_nc_oc=AdlZSD-5xIau6rzN3Rzs2bnedhivQoblW-ur-S-UdvaGiKZ8koX-pxwidu6gLRckxNY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=J8QyRahNoKp7vwDs-y2MKg&amp;oh=00_Afedclv4BNMVZ5cQ0zY_3xLZIJFhta15DJsCQ2P--HwhXg&amp;oe=68EB0134', 'profileId': 'pfbid0C8kPMqnCobhpsSC38qDvNaYHhDBwXekeTuaVZLQ8g1qpgD9ATfZfc4gYkX36btWDl', 'profileName': 'Yesid Maicol Ramirez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=680609458332572', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzY4MDYwOTQ1ODMzMjU3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM182ODA2MDk0NTgzMzI1NzI=', 'date': '2025-08-16T14:26:45.000Z', 'text': 'Pa cuando siguen con los capítulos de perros criollos o es que ya terminaron con eso🤷🏽\u200d♂️🤷🏽\u200d♂️🤷🏽\u200d♂️', 'profileUrl': 'https://www.facebook.com/maicol.orozco.626', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/519070524_3078775878957580_1449762759200854014_n.jpg?stp=c7.0.638.638a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XccxO08yiWoQ7kNvwFg9_i8&amp;_nc_oc=AdkegLPkDLs-RMsCMcE3fubGLY-mbaqiwCZGga9TA81Y6bi7EGQQXPYiSmnj74I82JY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=0i9h9zgcpdTBpMnpXvxfSQ&amp;oh=00_Aff07Op3YAclDA8pTVegoFYZ0RJYChC-3BNmP99nAvO2yw&amp;oe=68EC52B4', 'profileId': 'pfbid02FzC6YWi2exLr3pyq5zpRVGfZoAtg8rkRVyjEgYkzKFLiw14ZWve81p4NrvFPwSDdl', 'profileName': 'Yesid Maicol Ramirez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1132408365405107', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzI0MDgzNjU0MDUxMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMyNDA4MzY1NDA1MTA3', 'date': '2025-08-15T01:41:00.000Z', 'text': 'Esa damier est pensada es para jodernosbtodo es rosk nunkn gana nadie q si', 'profileUrl': 'https://www.facebook.com/edwin.y.villamizar', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/533021043_10163253556138686_3558464915085023225_n.jpg?stp=c6.0.348.348a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=trVIZftkhiUQ7kNvwG6I_lx&amp;_nc_oc=AdlnANALI04WdQdM1TgF-avrLVHD82O2O-_9orbsENWadSEITWL48fiOzwbCzcO0YzI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=J8QyRahNoKp7vwDs-y2MKg&amp;oh=00_AfdZwNUA5SLmAfeZEGP-xd60c98wZgt3ibfpOHoSCimCjw&amp;oe=68EAFC7C', 'profileId': '702898685', 'profileName': 'Yair Vills Villamizar', 'likesCount': '3', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1132408365405107', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzExMzI0MDgzNjU0MDUxMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xMTMyNDA4MzY1NDA1MTA3', 'date': '2025-08-15T01:41:00.000Z', 'text': 'Esa damier est pensada es para jodernosbtodo es rosk nunkn gana nadie q si', 'profileUrl': 'https://www.facebook.com/edwin.y.villamizar', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/533021043_10163253556138686_3558464915085023225_n.jpg?stp=c6.0.348.348a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=z8xr7SXryD4Q7kNvwFmDXfn&amp;_nc_oc=AdnPXjGeDPts_ZQYKHEqyR3IesVplUO7DzPz0pPVFC-vhrY70NVarlui5L2IGzU5CZg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=0i9h9zgcpdTBpMnpXvxfSQ&amp;oh=00_Afe4-exo7jzDj6k8vS-PPEoveUDCnZV-CwQJpMoKiYXMkA&amp;oe=68EC4DFC', 'profileId': '702898685', 'profileName': 'Yair Vills Villamizar', 'likesCount': '3', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8089,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1548810496491984', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE1NDg4MTA0OTY0OTE5ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNTQ4ODEwNDk2NDkxOTg0', 'date': '2025-08-31T01:53:22.000Z', 'text': 'Por qué no buscan un freestyler para hacer la propaganda?', 'profileUrl': 'https://www.facebook.com/andres.robles.449156', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/343804326_625469346287661_5219833204558983862_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LrdjFuw0mTsQ7kNvwHuxyF7&amp;_nc_oc=AdnndgLHWwgK1eSCPqyIt84eN17TMWF5Ow8jWj5PBeQXW-lGA1Z2nDIUPc7hB2QGApE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=J8QyRahNoKp7vwDs-y2MKg&amp;oh=00_Afeckjp1TVQUj-KaRXX9nXqXbjgXZs-tMcZ0N832DN0qxA&amp;oe=68EADA95', 'profileId': '100067474576686', 'profileName': 'Andres Robles', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1548810496491984', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE1NDg4MTA0OTY0OTE5ODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xNTQ4ODEwNDk2NDkxOTg0', 'date': '2025-08-31T01:53:22.000Z', 'text': 'Por qué no buscan un freestyler para hacer la propaganda?', 'profileUrl': 'https://www.facebook.com/andres.robles.449156', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/343804326_625469346287661_5219833204558983862_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=LrdjFuw0mTsQ7kNvwGMPwWM&amp;_nc_oc=Adnsp1aatOVhoJ5St-p6jsajrSQ_ppGBxFRAXzFznIv3NGXcI3wjhKh2905SuL4NmUU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=0i9h9zgcpdTBpMnpXvxfSQ&amp;oh=00_AfdX5mPac1V8A69I6KFEfC4ZrgYVibiL2WdXuf0revkpgw&amp;oe=68EC2C15', 'profileId': '100067474576686', 'profileName': 'Andres Robles', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1971617000254868', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NzE2MTcwMDAyNTQ4Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTcxNjE3MDAwMjU0ODY4', 'date': '2025-08-31T23:02:13.000Z', 'text': 'Le quito la publicidad a el bendito', 'profileUrl': 'https://www.facebook.com/musikmen1125', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/506456469_24409567195294179_5777579543912253548_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=zRdZPO4w1EMQ7kNvwG2z-AQ&amp;_nc_oc=Adk5-WKEWBUu9h6DnkCGdQcNwqCNcnrsPOiMp8p5mdUZ-bHMSTe_CiLNPi_IF9xDJpY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=J8QyRahNoKp7vwDs-y2MKg&amp;oh=00_AfdTVW8YxYrWUP3iIRfKtRz4PL9kvfcF-N8eqlBptzvccQ&amp;oe=68EAE4D8', 'profileId': '100000027126647', 'profileName': 'Adrian Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/760033376862081/?comment_id=1971617000254868', 'id': 'Y29tbWVudDoxMTcwMzk4NDI1MTI1OTAzXzE5NzE2MTcwMDAyNTQ4Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODQyNTEyNTkwM18xOTcxNjE3MDAwMjU0ODY4', 'date': '2025-08-31T23:02:13.000Z', 'text': 'Le quito la publicidad a el bendito', 'profileUrl': 'https://www.facebook.com/musikmen1125', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/506456469_24409567195294179_5777579543912253548_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kF_n9hy6SIgQ7kNvwH-3YJ2&amp;_nc_oc=Adm4kVKXIfPWrLi6MLMsnAuv9veEDarrBKfDktmj39yxE2WgxiB8Z-jYZknyhqxWYv8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=0i9h9zgcpdTBpMnpXvxfSQ&amp;oh=00_AfemM4BQ6LmQG88YFRX3R_z3rUPEnzAfKUQUtIyl_awimQ&amp;oe=68EC3658', 'profileId': '100000027126647', 'profileName': 'Adrian Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398425125903', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170397798459299/'}</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=794358936276443', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc5NDM1ODkzNjI3NjQ0Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183OTQzNTg5MzYyNzY0NDM=', 'date': '2025-08-20T20:32:18.000Z', 'text': 'Nice, funny', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/453163641_26832621189684642_2271740473424978389_n.jpg?stp=c0.14.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5BIrsy51eyQQ7kNvwFun7Cy&amp;_nc_oc=AdlouxJVoae_6yjM5IQEcCY1AaQX3vs8ILewTdliDR6lx9hq449KxmnnotNJOtmpwhw&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=WkbNTYEiti74irgYab661w&amp;oh=00_Afce-iLM_r2ScPjKcdoSv2SCiXomqXNYgKfqksaLp23FRA&amp;oe=68EAE94B', 'profileId': '100000903734775', 'profileName': 'Diego Martinez OO', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=794358936276443', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc5NDM1ODkzNjI3NjQ0Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183OTQzNTg5MzYyNzY0NDM=', 'date': '2025-08-20T20:32:18.000Z', 'text': 'Nice, funny', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/453163641_26832621189684642_2271740473424978389_n.jpg?stp=c0.14.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ZG8Mmg0VQIcQ7kNvwHXLKiS&amp;_nc_oc=AdniN8B6_c6DGeUqFC31KqkcvdXRmCfxZsrJ7HZgXXwuoF4cmSh3VyEYY1KyA_HNaTRls5Q4-agF_EbhOy85x1IN&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=QqmPa6i-1XtO45Qj1I0e0Q&amp;oh=00_AffoVjMFq3m_PqmYOLfRl_UE0EuO1mzSF-vUneFgT4BULQ&amp;oe=68EC3ACB', 'profileId': '100000903734775', 'profileName': 'Diego Martinez OO', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=789320190290234', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4OTMyMDE5MDI5MDIzNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODkzMjAxOTAyOTAyMzQ=', 'date': '2025-08-22T18:46:32.000Z', 'text': 'Bendiciones ladillo me alegra por ti', 'profileUrl': 'https://www.facebook.com/sergioandrecaicedo', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/528269033_24585035534459233_3732001438658360675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=JKY4bprTJdEQ7kNvwF8o1Md&amp;_nc_oc=AdlB5ZE_j5qnTQU249XaxMI1UaaANX333dy3Ry-X-BwaCNa9-5ewWB3oJHEYisDY-Fk&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=WkbNTYEiti74irgYab661w&amp;oh=00_AffrX6pG5My6wLV_ipZZCQ2DQ1PDpKN3xDeBhmzUoXq8Dg&amp;oe=68EAE008', 'profileId': '100001383837594', 'profileName': 'Sergio Andres Caicedo', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=789320190290234', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4OTMyMDE5MDI5MDIzNA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODkzMjAxOTAyOTAyMzQ=', 'date': '2025-08-22T18:46:32.000Z', 'text': 'Bendiciones ladillo me alegra por ti', 'profileUrl': 'https://www.facebook.com/sergioandrecaicedo', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/528269033_24585035534459233_3732001438658360675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=JKY4bprTJdEQ7kNvwEFF7nU&amp;_nc_oc=AdlO7mdDfuvetGm-81eL8mrLqIPY4bw1vhvbMQ06qa2JoNjVQaYaXbtXtQLKFkvVywFSY0Mc2SPqGWNdY2aR-X3C&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=QqmPa6i-1XtO45Qj1I0e0Q&amp;oh=00_Afd0c2hfhBo0vhH45-Ij7RcI2iRVRIvXVdbFOgbo3AOs7g&amp;oe=68EC3188', 'profileId': '100001383837594', 'profileName': 'Sergio Andres Caicedo', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8305,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=3622223137911006', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzM2MjIyMjMxMzc5MTEwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18zNjIyMjIzMTM3OTExMDA2', 'date': '2025-09-06T22:03:54.000Z', 'text': 'Me gane el Bono de wingo exelente', 'profileUrl': 'https://www.facebook.com/martinalonso.mendezcardenas', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/503389173_9914115415336433_7580075318209485435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3eAy4ql1yDEQ7kNvwEVTKA9&amp;_nc_oc=AdmokvtNW_SJtl3vuETFks-oFvlOJ3fkuuCmFJf2nH0y3DB26SoBwlJVlOo05M2dLaQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=WkbNTYEiti74irgYab661w&amp;oh=00_AfckFipzrP48e_KdnSJ1VguGxyz9VbMul0lm5sQEHWT5Zw&amp;oe=68EB01B7', 'profileId': 'pfbid02RPNHCXRfZFNc29zzE3rNxs8WzK7QqwBNWk1tPVN7vbNYaisVwqNZqDBYqU9LrKYbl', 'profileName': 'Martin Alonso Mendez Cardenas', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=3622223137911006', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzM2MjIyMjMxMzc5MTEwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18zNjIyMjIzMTM3OTExMDA2', 'date': '2025-09-06T22:03:54.000Z', 'text': 'Me gane el Bono de wingo exelente', 'profileUrl': 'https://www.facebook.com/martinalonso.mendezcardenas', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/503389173_9914115415336433_7580075318209485435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3eAy4ql1yDEQ7kNvwEMNNAn&amp;_nc_oc=Admmev7z0-WC6RsXnGe1A9oTm0ZXJOwMf0BFZcR4vAejKvKyRtn8jmiZDEywT-60Ui17Mnb-q-uxd3I4t4pVHFSG&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=QqmPa6i-1XtO45Qj1I0e0Q&amp;oh=00_AfctiJvosohTuDdbVB3X-8j1XiUYFwRCMR907SiN4AONfQ&amp;oe=68EC5337', 'profileId': 'pfbid0MMmZiiE6tE9o2yNaHmnD4FGZLZwjs5NtRmsbKWqghBhsCqweNeoWDfrjMjNU7ij8l', 'profileName': 'Martin Alonso Mendez Cardenas', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8359,7 +8359,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=4128555244081607', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzQxMjg1NTUyNDQwODE2MDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN180MTI4NTU1MjQ0MDgxNjA3', 'date': '2025-08-14T20:29:44.000Z', 'text': 'Que hagooooo', 'profileUrl': 'https://www.facebook.com/VolviercraftMC', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/558227761_778419274998927_7806467932923199286_n.jpg?stp=c0.167.338.338a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=GuiUf5CkJh0Q7kNvwFx1CTH&amp;_nc_oc=AdmLJfcTRi-CsLbOh5bikdJ-Xoi3rz4zWQyYWHlvVjKOQ86ReiNuP-npQzQkt-d0kC4&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=WkbNTYEiti74irgYab661w&amp;oh=00_Afdl3mG1Nvn2bE4bvCZXAheKA3h-4g41mtCKUPe_c8Fk1g&amp;oe=68EAF0E9', 'profileId': '100084925837930', 'profileName': 'Juan Murillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=4128555244081607', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzQxMjg1NTUyNDQwODE2MDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN180MTI4NTU1MjQ0MDgxNjA3', 'date': '2025-08-14T20:29:44.000Z', 'text': 'Que hagooooo', 'profileUrl': 'https://www.facebook.com/VolviercraftMC', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/558227761_778419274998927_7806467932923199286_n.jpg?stp=c0.167.338.338a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bpys89EFQFEQ7kNvwFAXMuO&amp;_nc_oc=Adn6aluIDM-Wcn861Syj1-gnnuZ3xZt7YqPLSPbpCYZp_yIA4yT2qONoMqJMAviK8QW-MhNVlEy15gRc6SO_iyT6&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=QqmPa6i-1XtO45Qj1I0e0Q&amp;oh=00_Aff4qnVNs2pKgGkRXtAVZf-JAYvn4blBjUQjrLNelGnqIw&amp;oe=68EC4269', 'profileId': '100084925837930', 'profileName': 'Juan Murillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8413,7 +8413,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=788480480226133', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4ODQ4MDQ4MDIyNjEzMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODg0ODA0ODAyMjYxMzM=', 'date': '2025-09-08T20:31:52.000Z', 'text': 'Bon yurt de lo más sobrevalorado, aparte diminuto', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/219746045_1403063120094328_5816677017871857951_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PHbM7rlYuX4Q7kNvwHTRr-f&amp;_nc_oc=Adk7eKCNF5b-ZTaU7Bm1MzcQhocEjwTKTp2f13riTyq-dJiKB83uyVKi3MBZGvNR5l4&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=WkbNTYEiti74irgYab661w&amp;oh=00_AfdWV4CrIpoIMZSlpSvnFCSF-Vk3VcHgtvaG_BYgRb0KBw&amp;oe=68EAF7CD', 'profileId': 'pfbid0bKEXdegY7uj7rjpjyvtHefLXQfTgngDm6rw9keHVReuprqr8z41jopLJ1YeXndUvl', 'profileName': 'Santiago Bedoya', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=788480480226133', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4ODQ4MDQ4MDIyNjEzMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODg0ODA0ODAyMjYxMzM=', 'date': '2025-09-08T20:31:52.000Z', 'text': 'Bon yurt de lo más sobrevalorado, aparte diminuto', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/219746045_1403063120094328_5816677017871857951_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PHbM7rlYuX4Q7kNvwHWgfXj&amp;_nc_oc=Admrhd-fJ4nEYfxI4xFvGY2_KnT3Qz1JTakyvNdHEdtcCTigE9DM5unAUvlmBXGJ5ux13tsUlWbLbHZEN_A4DCtq&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=QqmPa6i-1XtO45Qj1I0e0Q&amp;oh=00_AffPr2GmmG0fdSWXB5Qly9DSj-PPC6-GxZVy1PiW4ZhxYA&amp;oe=68EC494D', 'profileId': 'pfbid02fAgEpKcMyLi1ijXKr1xDRScuCANgczaLT7NDds93zZ2CHPVuJVnfn28jLPSuayarl', 'profileName': 'Santiago Bedoya', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8467,7 +8467,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1949581569153731', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE5NDk1ODE1NjkxNTM3MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xOTQ5NTgxNTY5MTUzNzMx', 'date': '2025-09-01T20:35:24.000Z', 'text': 'Te sale siempre lo mismo', 'profileUrl': 'https://www.facebook.com/dinaluz.puente', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/492503848_4195904467305941_9210599787112824267_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IyFR-8TOw8sQ7kNvwG5xj1n&amp;_nc_oc=AdmPq-wlB804-BNu36A1sBIPIibX0V6ycLrjWAHUlCu613BjeWmKUAuZiSAY1WcE244&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=WkbNTYEiti74irgYab661w&amp;oh=00_AfcGWXnng8geLTfrRFZVJ6tlGDeUQ0nhYUT3VE5TLmCAfg&amp;oe=68EADF2C', 'profileId': 'pfbid0YNRrvgH29jwXm3Xesi1n6SzSvGhWvFQGeCw5KEFvPR6KD56hyoErCQwJ7XNK2ZT1l', 'profileName': 'Dina Puente', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1949581569153731', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE5NDk1ODE1NjkxNTM3MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xOTQ5NTgxNTY5MTUzNzMx', 'date': '2025-09-01T20:35:24.000Z', 'text': 'Te sale siempre lo mismo', 'profileUrl': 'https://www.facebook.com/dinaluz.puente', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/492503848_4195904467305941_9210599787112824267_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IyFR-8TOw8sQ7kNvwFwPFT9&amp;_nc_oc=Admyryy1T8OJTpLKMHORT782gVcZn2Z09NjZqPI-jwF0HGnLAZTzYeMF695WIIUUzrYCBPXE0eJOJLAIWG9fI6WF&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=QqmPa6i-1XtO45Qj1I0e0Q&amp;oh=00_AfeUh5QFxN-0hNI3S2ZMwlDc-AhAUk5HX5zN0TdV9PwVJA&amp;oe=68EC30AC', 'profileId': 'pfbid02cDsa7MCr19ghoW3an1VkaNnsQbujjZP9ThxwDhEcAQ41rKUJ4HDD7ecudpefSNv6l', 'profileName': 'Dina Puente', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=24324332833855313', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzI0MzI0MzMyODMzODU1MzEz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yNDMyNDMzMjgzMzg1NTMxMw==', 'date': '2025-08-28T23:50:20.000Z', 'text': 'Cuando tenía 10 años, mi padre me obligó a ir al velorio de un amigo suyo que no conocía. Cuando llegamos allí, me quedé en un rincón esperando para irme. Entonces, un hombre se me acercó y me dijo: "disfruta tu vida muchacho, sé feliz porque yo no la disfruté". Puso su mano sobre mi cabeza y se alejó. Antes de irnos, mi padre me obligó a despedirme del muerto, y cuando miré el ataúd me asusté: era el hombre que me hablaba mientras yo estaba en un rincón. Empecé a no poder dormir, tenía miedo de estar solo, iba al psicólogo, no apagaba las luces por las noches... Años después descubrí algo increíble que cambió mi vida: aquel miserable mu€rtº tenía un hermano gemelo...', 'profileUrl': 'https://www.facebook.com/people/Julio-Acosta/pfbid0N6FYCKBLBUzKjJfUPkLskAcVxVBinVaFgWeR7o3fB3xz4iiepxopwLYTn9rXgWZ2l/', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwG2xpB3&amp;_nc_oc=Adn6VvpjXDCOJNypLVzJQsgmSZ9u859jlZiC4Uh3mvu_ygwZTUTKCESKlHtKHUEb6bs&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;oh=00_AffN18MPXoATNESF_t7kGSmCP_wnLbasMk8ktyw9Tj7itw&amp;oe=690C9A7A', 'profileId': 'pfbid0N6FYCKBLBUzKjJfUPkLskAcVxVBinVaFgWeR7o3fB3xz4iiepxopwLYTn9rXgWZ2l', 'profileName': 'Julio Acosta', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=24324332833855313', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzI0MzI0MzMyODMzODU1MzEz', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yNDMyNDMzMjgzMzg1NTMxMw==', 'date': '2025-08-28T23:50:20.000Z', 'text': 'Cuando tenía 10 años, mi padre me obligó a ir al velorio de un amigo suyo que no conocía. Cuando llegamos allí, me quedé en un rincón esperando para irme. Entonces, un hombre se me acercó y me dijo: "disfruta tu vida muchacho, sé feliz porque yo no la disfruté". Puso su mano sobre mi cabeza y se alejó. Antes de irnos, mi padre me obligó a despedirme del muerto, y cuando miré el ataúd me asusté: era el hombre que me hablaba mientras yo estaba en un rincón. Empecé a no poder dormir, tenía miedo de estar solo, iba al psicólogo, no apagaba las luces por las noches... Años después descubrí algo increíble que cambió mi vida: aquel miserable mu€rtº tenía un hermano gemelo...', 'profileUrl': 'https://www.facebook.com/people/Julio-Acosta/pfbid02RTjipLXxDBm7jYNeZb7q1Ss9Xqz6tZEW9k6tXuWZwWccGawpPuMbnGrRMriHVvwhl/', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwHx49jg&amp;_nc_oc=Adm6gxewoNtWerjabZrQZoGxmT0magQiul7KiJA7HNT5wxWwN2bjC-wwEptZBeH1RoJCBPmnTNQ0MLlbzvfW3woN&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;oh=00_Afdxw6cq2CDBdG3BNL-zuSNnepgKdghiuwJj7nLX6_1O_w&amp;oe=690DEBFA', 'profileId': 'pfbid02RTjipLXxDBm7jYNeZb7q1Ss9Xqz6tZEW9k6tXuWZwWccGawpPuMbnGrRMriHVvwhl', 'profileName': 'Julio Acosta', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1152286790065694', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzExNTIyODY3OTAwNjU2OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMTUyMjg2NzkwMDY1Njk0', 'date': '2025-08-19T23:04:06.000Z', 'text': 'Siempre me sale lo mismo voy a tener que destapar antes de comprar 🤣🤣🤣', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/544979563_24870058956018810_3872045628246113546_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hsND0j5ktcgQ7kNvwEBzwaK&amp;_nc_oc=AdkxYO2yJMDKlGOwFzqpWtilii7YdattgFCP3CvLhLtzDKbDQ06XMRtA616vcGszlJY&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=WkbNTYEiti74irgYab661w&amp;oh=00_AfdnvQBjDunLu8Pyu-McBQGHBCojTpeYovq1aPzaKpi9nA&amp;oe=68EAF81A', 'profileId': '100003241493156', 'profileName': 'Ossa Yura', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1152286790065694', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzExNTIyODY3OTAwNjU2OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMTUyMjg2NzkwMDY1Njk0', 'date': '2025-08-19T23:04:06.000Z', 'text': 'Siempre me sale lo mismo voy a tener que destapar antes de comprar 🤣🤣🤣', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/544979563_24870058956018810_3872045628246113546_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hsND0j5ktcgQ7kNvwFtSFWa&amp;_nc_oc=Adl7cnHRugdqK35MUoWrA2MGWBLVsxOJN7BwrWzmwx_TeaFN5jmjTRNjnf7N6F3PcmScHAfHAwF9uDL4inbfwuNh&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=QqmPa6i-1XtO45Qj1I0e0Q&amp;oh=00_AffCgV7uFgP0bbhP6b3eeKURlnQV8BSCg9hnaJ4gD2R9lQ&amp;oe=68EC499A', 'profileId': '100003241493156', 'profileName': 'Ossa Yura', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8629,7 +8629,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2250188958828563', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIyNTAxODg5NTg4Mjg1NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMjUwMTg4OTU4ODI4NTYz', 'date': '2025-09-08T03:18:05.000Z', 'text': '😂', 'profileUrl': 'https://www.facebook.com/juancarlos.uruenavelasquez', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/500037074_10233341091207589_6402490109221385624_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=a-HhjjfRbgYQ7kNvwFwPOfE&amp;_nc_oc=AdlwhLvdeDIdox1bMylNrZwYJNmOirYv7v2ESzSH5hfY4PQhL25Nbig4bWIdAd1c6Vs&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=WkbNTYEiti74irgYab661w&amp;oh=00_Afc9XOtBpfiNFegxekJagRaJDGJFbr3cmvRXcjzpyQe_mw&amp;oe=68EAF876', 'profileId': 'pfbid0R2QBAqR6jsqUtDCUvtPpmFKoAJLgj5UHiK7ozW9KRJCRapwq4zDitgvnbfYc5Puyl', 'profileName': 'Juan Carlos Urueña Velasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2250188958828563', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIyNTAxODg5NTg4Mjg1NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMjUwMTg4OTU4ODI4NTYz', 'date': '2025-09-08T03:18:05.000Z', 'text': '😂', 'profileUrl': 'https://www.facebook.com/juancarlos.uruenavelasquez', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/500037074_10233341091207589_6402490109221385624_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=a-HhjjfRbgYQ7kNvwGX2HGv&amp;_nc_oc=AdlfSkm5kx4w35BR8nDUQvMQylKbHTGctywNsxaMsEvvOb3dK7M72RZF-_XSOAvIdYNYWUCH4MjWu59VwmN5_NvV&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=QqmPa6i-1XtO45Qj1I0e0Q&amp;oh=00_Affz_wGUrWX66Dwx9SM1-8bVEOHsWFy3wRM_3C-UBhtysA&amp;oe=68EC49F6', 'profileId': 'pfbid02UPtMnrmimZpqqijUt9JFwYrN3MzKHnrYa8dEzfdEFa2aNEmtLm9rwZZ4CGMdUf1Xl', 'profileName': 'Juan Carlos Urueña Velasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8683,7 +8683,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1906374613475747', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE5MDYzNzQ2MTM0NzU3NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xOTA2Mzc0NjEzNDc1NzQ3', 'date': '2025-08-14T19:15:12.000Z', 'text': 'Lokillo🧠💪', 'profileUrl': 'https://www.facebook.com/davidsantiago.berriozapa', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/449720479_2969496736526630_6856378620134697430_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WzlCGTDIzG8Q7kNvwFybfu_&amp;_nc_oc=AdlB_3Cj7H1qS98wep4pWIZOhkzA2HjaWONNiaoDDYHCXOsdahJQK_ZbFAbmeThHG80&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=WkbNTYEiti74irgYab661w&amp;oh=00_AfcbaTToAyxp54QZvaPVkHMbXjMFVbvW5Xn63oKndCtdiw&amp;oe=68EAE033', 'profileId': '100003989995046', 'profileName': 'David Berrio', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1906374613475747', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE5MDYzNzQ2MTM0NzU3NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xOTA2Mzc0NjEzNDc1NzQ3', 'date': '2025-08-14T19:15:12.000Z', 'text': 'Lokillo🧠💪', 'profileUrl': 'https://www.facebook.com/davidsantiago.berriozapa', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/449720479_2969496736526630_6856378620134697430_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mMglYVrh_nAQ7kNvwFh2ZBt&amp;_nc_oc=AdmV4t418AB_60V9dPvD-G1U4oVWRysO5U7ZTcCQG26TRZpUc5VMmwdR4YSaMlKHjv9ei65-NuNigxM3TWIWso84&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=QqmPa6i-1XtO45Qj1I0e0Q&amp;oh=00_AfdXxCPpKGFI0M_FcCq5M07YNVyah6dlDOue77xnQCwoIg&amp;oe=68EC31B3', 'profileId': '100003989995046', 'profileName': 'David Berrio', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8737,7 +8737,7 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=785016947277203', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4NTAxNjk0NzI3NzIwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODUwMTY5NDcyNzcyMDM=', 'date': '2025-08-23T16:57:42.000Z', 'text': 'https://www.appyippee.com/fission-share/index.html?code=K4PDKZ', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/555918215_3017870938395774_6981584497249809967_n.jpg?stp=c0.24.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VZQjpagRZ0AQ7kNvwGzcpAQ&amp;_nc_oc=AdlNbhoq76L7Fr4-lk_1l6TfRPzh5ATmnqAbnysttjTZoKW3-JLIixVWi2Amx3ySEno&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=-XH1t1Uv8FC7g5dTAxffig&amp;oh=00_AfeyJdD-I9DPwHvtrAm2PDu8ZW5CMR3MzXqTgIKX-d5lPQ&amp;oe=68EADA47', 'profileId': 'pfbid05SBKuWnypnUYHdUH9f5rZPbg1aJKm4xMWuQ1aF4yw5bZCsFe5NQjhpbv1DWLAh4Wl', 'profileName': 'Yuya Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=785016947277203', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4NTAxNjk0NzI3NzIwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODUwMTY5NDcyNzcyMDM=', 'date': '2025-08-23T16:57:42.000Z', 'text': 'https://www.appyippee.com/fission-share/index.html?code=K4PDKZ', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/555918215_3017870938395774_6981584497249809967_n.jpg?stp=c0.24.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y0IMp4gv9p8Q7kNvwGkh0dX&amp;_nc_oc=AdlcKWSbE9-yNWZWph2ev9hO9QBpCQRp_-0XWIvDwfqbHJgxVxe4BY2cNXJDr8jL1b4&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=J0lRsqIjmtvA7LZ0NA_4Rg&amp;oh=00_Aff2VTKUTARQejXMTcWURG3KWwrdSnEUuXfWEnlP3qUB2g&amp;oe=68EC2BC7', 'profileId': 'pfbid029Hd36Biog7qc3o5qjRPUp5RvszMWegfcYdqDcSp7Q9XKny3y1yVkuUJdnEa3hojil', 'profileName': 'Yuya Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1277538970312739', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEyNzc1Mzg5NzAzMTI3Mzk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMjc3NTM4OTcwMzEyNzM5', 'date': '2025-09-17T19:16:03.000Z', 'text': 'Los alimentos procesados son muy dañino para la salud por su bien no consumir', 'profileUrl': 'https://www.facebook.com/mauro.ortega.794', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/343784390_557667656453292_5134301949329312730_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yVmmOeil2S4Q7kNvwFkStIa&amp;_nc_oc=AdnBSfFfwR7FDUlzQIPacDhYNS18sJmH0aWf031O79sYnJlGY16EAY1NYk7djH8a8CQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=-XH1t1Uv8FC7g5dTAxffig&amp;oh=00_AfdgBR5N-1CZsrJVdg3LUyWMS2b7I_H7OAvrB0QArb8gAQ&amp;oe=68EAEA07', 'profileId': 'pfbid02RTJLR4EepHHspJxJMzDFMpW1RrN96vA4yuKHnfcue2C4N2TTHXSRCkGN6jXKkQB7l', 'profileName': 'Mauro Ortega', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1277538970312739', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEyNzc1Mzg5NzAzMTI3Mzk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMjc3NTM4OTcwMzEyNzM5', 'date': '2025-09-17T19:16:03.000Z', 'text': 'Los alimentos procesados son muy dañino para la salud por su bien no consumir', 'profileUrl': 'https://www.facebook.com/mauro.ortega.794', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/343784390_557667656453292_5134301949329312730_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yVmmOeil2S4Q7kNvwEOBNlL&amp;_nc_oc=AdnaYi0lgtbGZ6mLfCiEqfspJbM8pJVdm_zyNaCuDu8HqZTUV99Krs65MAN4umCzydw&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=J0lRsqIjmtvA7LZ0NA_4Rg&amp;oh=00_AfdvnBxuGc-dz6YgroUjEGu6uDV4yX7u69AM6z_Sg-g86A&amp;oe=68EC3B87', 'profileId': 'pfbid0Muf9VtcHy5kVrAB3qvT6Ku15Z1kmosQ79dL2iSSpT5iiNrpSmbj8ntZV7epzPAH9l', 'profileName': 'Mauro Ortega', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1282026933191894', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEyODIwMjY5MzMxOTE4OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMjgyMDI2OTMzMTkxODk0', 'date': '2025-09-15T20:01:29.000Z', 'text': 'Donde consigo ese filtró de ojos separados', 'profileUrl': 'https://www.facebook.com/sebas.hernandez.332', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/502747781_3387702538038715_1808166903862498253_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=D_tl-QZNoi0Q7kNvwGmv4f3&amp;_nc_oc=AdmeEw7N1vHB8IwQdaR6GFP8CSnCreZ9rh1ZetQRReRO1PwSBvp43bwYaq01mX6C3kc&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=-XH1t1Uv8FC7g5dTAxffig&amp;oh=00_Aff_1BZbLIG5hbnIFEoRU80as2jzSP4BREddxnziBv0CBg&amp;oe=68EAF044', 'profileId': 'pfbid02JgMued4ShjxAsdMVATTB26mTEqLGgYZXa2rzHBhcF7brHNLPbSkVF5J3LcVvwbxWl', 'profileName': 'Jhoan Sebastian Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1282026933191894', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEyODIwMjY5MzMxOTE4OTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMjgyMDI2OTMzMTkxODk0', 'date': '2025-09-15T20:01:29.000Z', 'text': 'Donde consigo ese filtró de ojos separados', 'profileUrl': 'https://www.facebook.com/sebas.hernandez.332', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/502747781_3387702538038715_1808166903862498253_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=D_tl-QZNoi0Q7kNvwGsaMho&amp;_nc_oc=AdkjUdoJRzN0ig1KfsGcBeqeM3Q0TQR1c2wTqM_705Zd2VhaxEvQBGd2yrXkDRfzz-s&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=J0lRsqIjmtvA7LZ0NA_4Rg&amp;oh=00_AffVBmdShSzzSomwO2C-6rv_btBFruYaLc0JdP_JKg3MZA&amp;oe=68EC41C4', 'profileId': 'pfbid0EemCAort2p1u4xVvbnWpjNDgBpFhbLqrWS4NSqivybicNfwHsHG4s8RaFQXfzppJl', 'profileName': 'Jhoan Sebastian Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8899,7 +8899,7 @@
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=796171119600972', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc5NjE3MTExOTYwMDk3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183OTYxNzExMTk2MDA5NzI=', 'date': '2025-09-12T19:54:25.000Z', 'text': 'El humorista Lokillo o Rasta cuando', 'profileUrl': 'https://www.facebook.com/wilsonwuilfredo218', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/487240133_10226400012937568_7785190409366601970_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qsqgvJf0dacQ7kNvwFWeoTA&amp;_nc_oc=AdkKGLF3xndXVPKc9LX6_V3WyXEgBfq6OJZJC3KJja77oIVxeYRNMVnEuX7wXcxhtEA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=-XH1t1Uv8FC7g5dTAxffig&amp;oh=00_AfcOFI7fhDfrvsLtQnFx815aOJjNUmlSN-71Yjgx-xSuPQ&amp;oe=68EAF111', 'profileId': '1560561300', 'profileName': 'Wilson Wuilfredo Uribe Camargo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=796171119600972', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc5NjE3MTExOTYwMDk3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183OTYxNzExMTk2MDA5NzI=', 'date': '2025-09-12T19:54:25.000Z', 'text': 'El humorista Lokillo o Rasta cuando', 'profileUrl': 'https://www.facebook.com/wilsonwuilfredo218', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/487240133_10226400012937568_7785190409366601970_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qsqgvJf0dacQ7kNvwEAp66o&amp;_nc_oc=AdmmeK0xAYQb6hucFGNyEhWurceZxUS_VQGVX4RgvvEpg5ZY5xLShgVdl1ePWMQRpP4&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=J0lRsqIjmtvA7LZ0NA_4Rg&amp;oh=00_Afe3JAP_rTRf4cwZjW4YwYQ3YPpHx4mfVGADBp2HOLD56w&amp;oe=68EC4291', 'profileId': '1560561300', 'profileName': 'Wilson Wuilfredo Uribe Camargo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=24577296805216386', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzI0NTc3Mjk2ODA1MjE2Mzg2', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yNDU3NzI5NjgwNTIxNjM4Ng==', 'date': '2025-09-02T19:29:53.000Z', 'text': 'Me gané un bono de totto por 30 lucas ☺️', 'profileUrl': 'https://www.facebook.com/de.la.rosa.alvarez.371738', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/540984522_1090383303239857_5400543002481956654_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=31KJMTy72gsQ7kNvwGRK434&amp;_nc_oc=AdkZRv9T28-mBbgIHEWK6CEbvIjQ56X7CeOWIC1o749gOsodeUpu94hiYmM8n3DZk0s&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=-XH1t1Uv8FC7g5dTAxffig&amp;oh=00_AfcHybuaTVFb0Sjk2fyhgQN691-awEJAmCWbwamffl3I3w&amp;oe=68EAF157', 'profileId': '100068045928905', 'profileName': 'De La Rosa Álvarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=24577296805216386', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzI0NTc3Mjk2ODA1MjE2Mzg2', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yNDU3NzI5NjgwNTIxNjM4Ng==', 'date': '2025-09-02T19:29:53.000Z', 'text': 'Me gané un bono de totto por 30 lucas ☺️', 'profileUrl': 'https://www.facebook.com/de.la.rosa.alvarez.371738', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/540984522_1090383303239857_5400543002481956654_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=31KJMTy72gsQ7kNvwG1Zi7v&amp;_nc_oc=AdmNZA3Vlv0pcKkjA9_jgDtYvsn6XiIirV13s7wayfeBjmdySbogIIngXV8pUbRUUbs&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=J0lRsqIjmtvA7LZ0NA_4Rg&amp;oh=00_AfeYtY3r1dmG49EQ0sj_wHaPizkBwLTUKRlDyN63IFxkMQ&amp;oe=68EC42D7', 'profileId': '100068045928905', 'profileName': 'De La Rosa Álvarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9007,7 +9007,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2143718549442869', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIxNDM3MTg1NDk0NDI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMTQzNzE4NTQ5NDQyODY5', 'date': '2025-09-02T02:48:01.000Z', 'text': 'Tour quien se cree que porque vende yogurt . Vas a grabarme el dulces sueños jajaja', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/547474191_797548726116090_1249034083126676489_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3BYvf81MvT0Q7kNvwH7dgfO&amp;_nc_oc=AdlbADODDAFOQOqbk7WZKvrIJiCIsNwN4lj5mK3YnLMUbRZkkcBAHtti-E_OHe95D0c&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=-XH1t1Uv8FC7g5dTAxffig&amp;oh=00_Afc1R-IxiHRdTrXQs-iwLinl36PYZVZZZ1D4gzyUJ9RVvQ&amp;oe=68EB0396', 'profileId': '100075829097914', 'profileName': 'Zk Guillz Andres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2143718549442869', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIxNDM3MTg1NDk0NDI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMTQzNzE4NTQ5NDQyODY5', 'date': '2025-09-02T02:48:01.000Z', 'text': 'Tour quien se cree que porque vende yogurt . Vas a grabarme el dulces sueños jajaja', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/547474191_797548726116090_1249034083126676489_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=0kBV245LbswQ7kNvwFnjqEn&amp;_nc_oc=Adl6tW8bVl9rWzSzR75R9Lx-8daeWGeNvjH2RNiDMHVK0WQu3lZHzTifz22Kn09TYzU&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=J0lRsqIjmtvA7LZ0NA_4Rg&amp;oh=00_AfeeM9vqyviYC2hhWJiHAdSVLWrXRa24jjdzD9-0cPVC7w&amp;oe=68EC5516', 'profileId': '100075829097914', 'profileName': 'Zk Guillz Andres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=801123155671195', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzgwMTEyMzE1NTY3MTE5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN184MDExMjMxNTU2NzExOTU=', 'date': '2025-08-20T03:00:14.000Z', 'text': 'Está muy costoso , uno con uno no tiene y con 2 se descudra .', 'profileUrl': 'https://www.facebook.com/milely4350', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/447849630_827516849288592_7957439215733837409_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xZDYlHhhLWsQ7kNvwEpwfKn&amp;_nc_oc=AdlLfic86SYCRMXsRiqKHmige5yLM5G1mNdpFI_keGg9yV958gxERvdlV0f4FLdmMa4&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=-XH1t1Uv8FC7g5dTAxffig&amp;oh=00_AfebxhjDPUfFdgGb4FLsWMYVLFTgCJYt6E3pBoVG_jpaPw&amp;oe=68EB0C2A', 'profileId': '100060908546655', 'profileName': 'Diana Milena Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=801123155671195', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzgwMTEyMzE1NTY3MTE5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN184MDExMjMxNTU2NzExOTU=', 'date': '2025-08-20T03:00:14.000Z', 'text': 'Está muy costoso , uno con uno no tiene y con 2 se descudra .', 'profileUrl': 'https://www.facebook.com/milely4350', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/447849630_827516849288592_7957439215733837409_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=b7A481w9CbMQ7kNvwGrEkoa&amp;_nc_oc=AdlUulMUME0X6H12PhVANnazWz7BijcCQL65AI13GJfctY2CgbRXpfbWrFkaosMAlWU&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=J0lRsqIjmtvA7LZ0NA_4Rg&amp;oh=00_AfcjE2-TZuXX8SzIsWhU4EhoSzjNKQxSolXBo0AhhRqUhA&amp;oe=68EC5DAA', 'profileId': '100060908546655', 'profileName': 'Diana Milena Cano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9115,7 +9115,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=682712641512375', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzY4MjcxMjY0MTUxMjM3NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN182ODI3MTI2NDE1MTIzNzU=', 'date': '2025-09-18T01:14:20.000Z', 'text': 'ese hp es el hinbesil más grande de los comediantes', 'profileUrl': 'https://www.facebook.com/yenni.lozada.2025', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/499933383_677207398539502_1194699044254798519_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SuMQxnY8f3QQ7kNvwEhC6Y_&amp;_nc_oc=AdlEcVJV1J5-NDVFvgpin_mE1P9-kSXSFyBNp6v_LXVTgavPE5ZU-BA8JCKkC1sSHsg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=-XH1t1Uv8FC7g5dTAxffig&amp;oh=00_AfdNkMww285PBqOnIkjZ4-ZEjSF1K-MB-o55-GHloDssnw&amp;oe=68EAFCDD', 'profileId': 'pfbid0ZoeWd7PHa1SNmmT26ApLV4dp7gzkcDFSyN3sn7p3Q7ojev1zzCvGf9ns7AYA6cj2l', 'profileName': 'Yenni Lozada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=682712641512375', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzY4MjcxMjY0MTUxMjM3NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN182ODI3MTI2NDE1MTIzNzU=', 'date': '2025-09-18T01:14:20.000Z', 'text': 'ese hp es el hinbesil más grande de los comediantes', 'profileUrl': 'https://www.facebook.com/yenni.lozada.2025', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/499933383_677207398539502_1194699044254798519_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3tcF4n-h6jwQ7kNvwGji_Ye&amp;_nc_oc=AdnqVDg0fA_jmH_vC8krJa3Yy6EqwNp8FJn2FE9fKd1snssWKQ41e393BNbIjcL3ANM&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=J0lRsqIjmtvA7LZ0NA_4Rg&amp;oh=00_AfeNeXFQNx_y3nG9u_lYzLrwTWAi2TAbhhTiTgDWAsMFeg&amp;oe=68EC4E5D', 'profileId': 'pfbid02df6DonK7RLVrP1VWkqextNpJG76Cns6C3pYqXrbvhCsVQPVXL8BqJTtXTxuZQmJ2l', 'profileName': 'Yenni Lozada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9169,7 +9169,7 @@
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1682413752424583', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE2ODI0MTM3NTI0MjQ1ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xNjgyNDEzNzUyNDI0NTgz', 'date': '2025-09-13T17:07:09.000Z', 'text': 'Q Pereza  tengo 30 y todos dicen bono', 'profileUrl': 'https://www.facebook.com/GladysZpt', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/319053019_1289303481626548_4008065350537320596_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=G8w7mSIoNhwQ7kNvwEIJI9U&amp;_nc_oc=Adl_3W6x-HWf-_1Darg5KPuKsKs_SLAj1Z7kDWoDkahvocOn2uJ6gTtVQVrwAoZy7Iw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=-XH1t1Uv8FC7g5dTAxffig&amp;oh=00_AfekNAAFLQRFALtJpdUz7vAAOUcoPp2J3NtYK0gFvj9IaQ&amp;oe=68EAFA56', 'profileId': 'pfbid0XJHi7MqFuk2bFGaKEfbGJ5XqV4fxUeMruqfhDEKWEvLeQ1fuce1hvTJUZ8hjKz63l', 'profileName': 'Gladys Zap', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1682413752424583', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE2ODI0MTM3NTI0MjQ1ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xNjgyNDEzNzUyNDI0NTgz', 'date': '2025-09-13T17:07:09.000Z', 'text': 'Q Pereza  tengo 30 y todos dicen bono', 'profileUrl': 'https://www.facebook.com/GladysZpt', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/319053019_1289303481626548_4008065350537320596_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=G8w7mSIoNhwQ7kNvwHEKE7L&amp;_nc_oc=AdncYdqwJNnBP7EZ-nynTeF8U0ouKAeiXrGj-5tWsu5Vxm8VrNkVBzYzx4G1fACAj_w&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=J0lRsqIjmtvA7LZ0NA_4Rg&amp;oh=00_AffsFTehWRhu1hVNLa5R4nVGtS4p1NbDrIkkueVBEs8fQA&amp;oe=68EC4BD6', 'profileId': 'pfbid02afmtjPBswFVjLA8WY18a5egGty9rsCF2jkWRWmJPExga18XojQpVpZZ6HLPEP2Swl', 'profileName': 'Gladys Zap', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1320887502789114', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMjA4ODc1MDI3ODkxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzIwODg3NTAyNzg5MTE0', 'date': '2025-08-21T23:58:54.000Z', 'text': 'Cuántos años lleva el Bonyurt de Alpina en Colombia  y sacan promociones irregulares e irrelevantes', 'profileUrl': 'https://www.facebook.com/perdomo.marino.juan.felipe', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/538528939_31948620381391719_2219385852100271695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-d_gA5m17m0Q7kNvwHyC1Rm&amp;_nc_oc=AdlBGO5VZDdyXeDetS9GBpm8pvURucBHA1Ta15IZH9ybejwtGJubrePQESnzvJW36Mw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=-XH1t1Uv8FC7g5dTAxffig&amp;oh=00_AffbTFWV2dwTQtXxJZ-b32t_CgLCwUmCQeFxig4F25l5VQ&amp;oe=68EB0DEF', 'profileId': '100000115149503', 'profileName': 'Perdomo Mariño Juan Felipe', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1320887502789114', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMjA4ODc1MDI3ODkxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzIwODg3NTAyNzg5MTE0', 'date': '2025-08-21T23:58:54.000Z', 'text': 'Cuántos años lleva el Bonyurt de Alpina en Colombia  y sacan promociones irregulares e irrelevantes', 'profileUrl': 'https://www.facebook.com/perdomo.marino.juan.felipe', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/538528939_31948620381391719_2219385852100271695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-d_gA5m17m0Q7kNvwFTVaBH&amp;_nc_oc=AdkjXCEWaxiCMyD8A2o0HPoFPsRFZhpXutMv-VOTsXXHrX20WN0T9qsPceQSZFzJ0j8&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=J0lRsqIjmtvA7LZ0NA_4Rg&amp;oh=00_AffxNM2H2v-rANeFUTrSdr-mik328LM8sbVQncqONdCOoA&amp;oe=68EC5F6F', 'profileId': '100000115149503', 'profileName': 'Perdomo Mariño Juan Felipe', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9277,7 +9277,7 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1353912616299116', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzNTM5MTI2MTYyOTkxMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzUzOTEyNjE2Mjk5MTE2', 'date': '2025-09-01T13:32:39.000Z', 'text': 'Cancerbero si debe estar muy triste', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/558829709_24488495837512437_2178647610893412230_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ERB1oyU3mGoQ7kNvwG9tASy&amp;_nc_oc=AdmtZVhkpU2nxLPLj1UWuHgUFGDf4nHgb8YvxM9eJuotWF68q-BQ7H19ahobRDzSOiA&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_AfeorTPOFpWZ7Has8JVmXn7c9731ZrdkEfn5mvU9H83Arw&amp;oe=68EAD5DB', 'profileId': '100003360819313', 'profileName': 'Hugo Grisales', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1353912616299116', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzNTM5MTI2MTYyOTkxMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzUzOTEyNjE2Mjk5MTE2', 'date': '2025-09-01T13:32:39.000Z', 'text': 'Cancerbero si debe estar muy triste', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/558829709_24488495837512437_2178647610893412230_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ERB1oyU3mGoQ7kNvwETz-V2&amp;_nc_oc=Adm0nwtWsTm-nG4B-pdOqux796COq51fsqc_mVDe8JNyYlpF0j9Ex-3Yrcpe4MslbkI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_AfeA2tYQ7gnY7bihCkWjR7m1MMRIVMko_kqagYxMTG3y5w&amp;oe=68EC5F9B', 'profileId': '100003360819313', 'profileName': 'Hugo Grisales', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=729131353282781', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzcyOTEzMTM1MzI4Mjc4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183MjkxMzEzNTMyODI3ODE=', 'date': '2025-08-16T16:40:53.000Z', 'text': 'Pura mierda compro los paquetes de a 4 y eso no trae ni mierda', 'profileUrl': 'https://www.facebook.com/fabianthecrow', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/354067744_10229999487992799_7063213958346107302_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ryx7uLIp4qAQ7kNvwF8kcX9&amp;_nc_oc=AdkQghP1r9aQxmKb6dK6BuAImbBsuvrqExAuQk_HCzxYqsJCKzsoHyG3xPVIx7BXYh8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_AfeP787VPupEe3NC687wC7S2RHbe50inXFyyqSViPo4Kbg&amp;oe=68EB0296', 'profileId': 'pfbid0nD88YHaXfd3u28RgKgRGeD9vYPXazsidi54P1nisz56icb7Ghs7YAGYU1wdqiij6l', 'profileName': 'Fabian Diaz Rojas', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=729131353282781', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzcyOTEzMTM1MzI4Mjc4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183MjkxMzEzNTMyODI3ODE=', 'date': '2025-08-16T16:40:53.000Z', 'text': 'Pura mierda compro los paquetes de a 4 y eso no trae ni mierda', 'profileUrl': 'https://www.facebook.com/fabianthecrow', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/354067744_10229999487992799_7063213958346107302_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QeM4h9meR8gQ7kNvwGjGaNu&amp;_nc_oc=Adn-dnzxttfUnGwd3aq11teaSb_lOXjYDVWZRB54wpg9Hc9GpUJFsvU7yAL-vuerL4Y&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_AfdNdJzQh-dB36BiUvPVrxQNiYCrUo9-aosUG9uD3idYrw&amp;oe=68EC5416', 'profileId': 'pfbid02qacKAJw9hRa3WVz5AXS9ZfAKs5ijMyHJN7cELnWDBRBaGxvVnbWdpUTgbSVPz2drl', 'profileName': 'Fabian Diaz Rojas', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9385,7 +9385,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1315490533272219', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMTU0OTA1MzMyNzIyMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzE1NDkwNTMzMjcyMjE5', 'date': '2025-09-13T20:13:08.000Z', 'text': 'Esto es mentira hay que mandar al tina por estar engañando a la gente', 'profileUrl': 'https://www.facebook.com/johana.marcela.187923', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/462291765_563966629491775_4636719095284282256_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=v_ZFsCzB8QsQ7kNvwHceSCD&amp;_nc_oc=AdnXAGN5lE4TZdvAmtysJgkuMxzYbLSAhScClKD9OweQMWT2BKjME3pEi_DKkR88vDQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_AfeXenhjt-XM4XfqEijnn1qVBCajTgjpog_N_uOYkpgszA&amp;oe=68EAEF6C', 'profileId': '100076353282847', 'profileName': 'Johana Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1315490533272219', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMTU0OTA1MzMyNzIyMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzE1NDkwNTMzMjcyMjE5', 'date': '2025-09-13T20:13:08.000Z', 'text': 'Esto es mentira hay que mandar al tina por estar engañando a la gente', 'profileUrl': 'https://www.facebook.com/johana.marcela.187923', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/462291765_563966629491775_4636719095284282256_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=v_ZFsCzB8QsQ7kNvwGbsUKb&amp;_nc_oc=Adnn8kJMZWDNsnCFU1OqDrpl8m73EoCoDdJAASZLdoUQA27wLqRSH-uOzM89gEixFQs&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_Afd0nJUsL-eTpHfudE3MlHmFR6rr7Nq0d6cDeFo0lWdIqw&amp;oe=68EC40EC', 'profileId': '100076353282847', 'profileName': 'Johana Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9439,7 @@
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=789215370267591', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4OTIxNTM3MDI2NzU5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODkyMTUzNzAyNjc1OTE=', 'date': '2025-09-15T17:28:56.000Z', 'text': 'Esa gente del centro demoníaco no tiene límites!', 'profileUrl': 'https://www.facebook.com/cesar.augusto.chapal.jaramillo', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwEJv7LB&amp;_nc_oc=AdnUKBUfQm59lqr9s1wPnNGdYER4ItbfyBpH7jQtJbW7fPGkVqwvTM397u4iUnmM5Jo&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_Afd8HU5ZOmD_aLeI17ReI2oRV0jy4ifkpI2I4HZsifSIZg&amp;oe=690C9A7A', 'profileId': 'pfbid05nAUxbujiUfaPaWtpda9ehnDBUDedUV16Pp6LtGbWpUTFDKyqMhpG2ZgLqXQtJXvl', 'profileName': 'Cesar Augusto Chapal Jaramillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=789215370267591', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3Xzc4OTIxNTM3MDI2NzU5MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN183ODkyMTUzNzAyNjc1OTE=', 'date': '2025-09-15T17:28:56.000Z', 'text': 'Esa gente del centro demoníaco no tiene límites!', 'profileUrl': 'https://www.facebook.com/cesar.augusto.chapal.jaramillo', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwHSIEHr&amp;_nc_oc=AdkZn9MgjjYHnYo5nlLfXVxTU6Hp8sGDxFc8BQ2z0Sz-dTOIHN64pCnOM5qu5xN9Rw0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfehPCWrqOLfjN3uo6tqFuLRGhFBZEpJdlpX9-OVZUNysw&amp;oe=690DEBFA', 'profileId': 'pfbid0299efadGMk9t9SNP3G8R8fiLZworJSX675Qccbz1Kw6HP9HNYXT2MwMz1k4e3HaJAl', 'profileName': 'Cesar Augusto Chapal Jaramillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2160659107788235', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIxNjA2NTkxMDc3ODgyMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMTYwNjU5MTA3Nzg4MjM1', 'date': '2025-09-17T09:25:51.000Z', 'attachments': [{'__typename': 'GenericAttachmentMedia', 'sticker_image': {'__typename': 'Image', 'uri': 'https://external-hou1-1.xx.fbcdn.net/emg1/v/t13/15485977876854298326?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FvfhRiJG2bbgAAAAd%2Fclapping-leonardo-dicaprio.gif%3Fc%3DVjFfZmFjZWJvb2tfd2ViY29tbWVudHM&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;_nc_oc=Adldz2ajx8zU1m1Ltk9QBgXmuFYGMt3WeAZvfUd7mHnU9nSX8rUUdUmwgDMrzhYwM8c&amp;ccb=13-1&amp;oh=06_Q3-3Aa2WNJZgjMb2ni0Q6hCSpxy36Az-eRjgFAeHVmBO_Qmq&amp;oe=68E717B0&amp;_nc_sid=9e3c15'}, 'id': '797630876535927', 'image': {'height': 396, 'width': 396, 'uri': 'https://external-hou1-1.xx.fbcdn.net/emg1/v/t13/15485977876854298326?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FvfhRiJG2bbgAAAAd%2Fclapping-leonardo-dicaprio.gif%3Fc%3DVjFfZmFjZWJvb2tfd2ViY29tbWVudHM&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-emg0_q75_s396x396_tt6&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;_nc_oc=Adldz2ajx8zU1m1Ltk9QBgXmuFYGMt3WeAZvfUd7mHnU9nSX8rUUdUmwgDMrzhYwM8c&amp;ccb=13-1&amp;oh=06_Q3-3Ab5OIoYFaK3LU_sfPGFnjw8DF2q-6zMd4X6vR3a6wBg3&amp;oe=68E717B0&amp;_nc_sid=c97757'}, 'animated_image': {'height': 498, 'width': 498, 'uri': 'https://external-hou1-1.xx.fbcdn.net/emg1/v/t13/15485977876854298326?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FvfhRiJG2bbgAAAAd%2Fclapping-leonardo-dicaprio.gif%3Fc%3DVjFfZmFjZWJvb2tfd2ViY29tbWVudHM&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;_nc_oc=Adldz2ajx8zU1m1Ltk9QBgXmuFYGMt3WeAZvfUd7mHnU9nSX8rUUdUmwgDMrzhYwM8c&amp;ccb=13-1&amp;oh=06_Q3-3Aa2WNJZgjMb2ni0Q6hCSpxy36Az-eRjgFAeHVmBO_Qmq&amp;oe=68E717B0&amp;_nc_sid=9e3c15'}, 'animated_image_caption': None, 'animated_image_attribution': 'Tenor'}], 'profileUrl': 'https://www.facebook.com/erika.gil.557294', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/321771403_1814541122266209_8360928479478834800_n.jpg?stp=c0.23.688.688a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JbP3MbRn0CQQ7kNvwEbMxwd&amp;_nc_oc=Adm9YbD72Jfrr_e_2mELw5F0_xkdLpLukvDGESJC4P9ni1DpPxvpEvYus924jj2gSXc&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_AfeauYCWhuLHFM9_YZDV_8vTtsAQ2Guch99AF5ElPtRJmg&amp;oe=68EAEB06', 'profileId': 'pfbid0MnZQBUuqnXYM86zUWP6Eqh5RUoMTTNqpMrUMqb2dYsJMYaroExNBpyQ8rfWPsHQ6l', 'profileName': 'Erika Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=2160659107788235', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzIxNjA2NTkxMDc3ODgyMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18yMTYwNjU5MTA3Nzg4MjM1', 'date': '2025-09-17T09:25:51.000Z', 'attachments': [{'__typename': 'GenericAttachmentMedia', 'sticker_image': {'__typename': 'Image', 'uri': 'https://external-hou1-1.xx.fbcdn.net/emg1/v/t13/15485977876854298326?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FvfhRiJG2bbgAAAAd%2Fclapping-leonardo-dicaprio.gif%3Fc%3DVjFfZmFjZWJvb2tfd2ViY29tbWVudHM&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;_nc_oc=AdldPPyQ2XT679QJGJJTxfS9v-_x1jZd-lXj0duPMa0TPsfVJ9iWf9BPgge-XxR11FE&amp;ccb=13-1&amp;oh=06_Q3-3AXxum1O9_2hs5xSABU4h9RSRSm6jl9jGA0jX-F1nkEpL&amp;oe=68E86930&amp;_nc_sid=9e3c15'}, 'id': '797630876535927', 'image': {'height': 396, 'width': 396, 'uri': 'https://external-hou1-1.xx.fbcdn.net/emg1/v/t13/15485977876854298326?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FvfhRiJG2bbgAAAAd%2Fclapping-leonardo-dicaprio.gif%3Fc%3DVjFfZmFjZWJvb2tfd2ViY29tbWVudHM&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-emg0_q75_s396x396_tt6&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;_nc_oc=AdldPPyQ2XT679QJGJJTxfS9v-_x1jZd-lXj0duPMa0TPsfVJ9iWf9BPgge-XxR11FE&amp;ccb=13-1&amp;oh=06_Q3-3AWol8JvH__UqN_bB-7TI6ZqqFxRZhmTUk9A4mcUHyBag&amp;oe=68E86930&amp;_nc_sid=c97757'}, 'animated_image': {'height': 498, 'width': 498, 'uri': 'https://external-hou1-1.xx.fbcdn.net/emg1/v/t13/15485977876854298326?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FvfhRiJG2bbgAAAAd%2Fclapping-leonardo-dicaprio.gif%3Fc%3DVjFfZmFjZWJvb2tfd2ViY29tbWVudHM&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;_nc_oc=AdldPPyQ2XT679QJGJJTxfS9v-_x1jZd-lXj0duPMa0TPsfVJ9iWf9BPgge-XxR11FE&amp;ccb=13-1&amp;oh=06_Q3-3AXxum1O9_2hs5xSABU4h9RSRSm6jl9jGA0jX-F1nkEpL&amp;oe=68E86930&amp;_nc_sid=9e3c15'}, 'animated_image_caption': None, 'animated_image_attribution': 'Tenor'}], 'profileUrl': 'https://www.facebook.com/erika.gil.557294', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/321771403_1814541122266209_8360928479478834800_n.jpg?stp=c0.23.688.688a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JbP3MbRn0CQQ7kNvwGBPDiG&amp;_nc_oc=AdlThxxkZIkDTf_PSyJemfJGyGQAJ63teefBT1O71EmhgHX-wfT89T-sqvLwaRrsHzg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_Afdh7eVqaBgkKw-_hYlVBPawNEn8GIgQizfqpEoKz-kn5g&amp;oe=68EC3C86', 'profileId': 'pfbid02Re17N9qfe1cJ6ybzJ2gBnwccJ98L26RtCU8CaNiegKa179Hte9BpnnkPkdEqUrHQl', 'profileName': 'Erika Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1111456604274641', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzExMTE0NTY2MDQyNzQ2NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMTExNDU2NjA0Mjc0NjQx', 'date': '2025-08-31T23:04:58.000Z', 'text': 'Payaso', 'profileUrl': 'https://www.facebook.com/sebaselfenix', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/471524488_9019788934731578_2156914218164910347_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Oj4g6mrJ6pkQ7kNvwEine8k&amp;_nc_oc=Adn9KBMBY77fptadlbh6045FSSwh-ZAF5j0H--f5AYYnaYL9rZvWR06LwxrOncRBrwo&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_AffB1PxpJZKDKdUU8ETxbq5MVU5yCaViVv-RWzmJ50HAiw&amp;oe=68EAF91C', 'profileId': '100001016832932', 'profileName': 'Sebas Diaz Rios', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1111456604274641', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzExMTE0NTY2MDQyNzQ2NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMTExNDU2NjA0Mjc0NjQx', 'date': '2025-08-31T23:04:58.000Z', 'text': 'Payaso', 'profileUrl': 'https://www.facebook.com/sebaselfenix', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/471524488_9019788934731578_2156914218164910347_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Oj4g6mrJ6pkQ7kNvwEqKWan&amp;_nc_oc=AdmsOd4AvlEnlZaQJ4197nlSNh0ryyf3csSR18e7u2UDIEdNuzzdkfz16fTVk9EPmOg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_Afebod4ck-syb7ETVyxREozA_W5i1oWKjVpNoKjQYZUIcQ&amp;oe=68EC4A9C', 'profileId': '100001016832932', 'profileName': 'Sebas Diaz Rios', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1391939948930923', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzOTE5Mzk5NDg5MzA5MjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzkxOTM5OTQ4OTMwOTIz', 'date': '2025-09-17T14:47:08.000Z', 'text': 'Cuando la plata habla las mierdas caminan', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/558829709_24488495837512437_2178647610893412230_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ERB1oyU3mGoQ7kNvwG9tASy&amp;_nc_oc=AdmtZVhkpU2nxLPLj1UWuHgUFGDf4nHgb8YvxM9eJuotWF68q-BQ7H19ahobRDzSOiA&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_AfeorTPOFpWZ7Has8JVmXn7c9731ZrdkEfn5mvU9H83Arw&amp;oe=68EAD5DB', 'profileId': '100003360819313', 'profileName': 'Hugo Grisales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1391939948930923', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzOTE5Mzk5NDg5MzA5MjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzkxOTM5OTQ4OTMwOTIz', 'date': '2025-09-17T14:47:08.000Z', 'text': 'Cuando la plata habla las mierdas caminan', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/558829709_24488495837512437_2178647610893412230_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ERB1oyU3mGoQ7kNvwETz-V2&amp;_nc_oc=Adm0nwtWsTm-nG4B-pdOqux796COq51fsqc_mVDe8JNyYlpF0j9Ex-3Yrcpe4MslbkI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_AfeA2tYQ7gnY7bihCkWjR7m1MMRIVMko_kqagYxMTG3y5w&amp;oe=68EC5F9B', 'profileId': '100003360819313', 'profileName': 'Hugo Grisales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9647,7 +9647,7 @@
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1318768099140308', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMTg3NjgwOTkxNDAzMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzE4NzY4MDk5MTQwMzA4', 'date': '2025-09-12T11:40:30.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/547071227_24627133536918712_1266811620884646346_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=_Qe8Yh444RsQ7kNvwFPyL4e&amp;_nc_oc=AdlzS-kmLy1ZrUjVLrmi0iddoMK_Et6cWAbpNDUUbo5Y_s0q3zG1W1jRp_Z_OMYG4uY&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_AfffwVp5UjNWEouCbk693R1nNq0F0s-j8_1M499EDgBBoQ&amp;oe=68EAFA86'}, 'id': '24627133533585379', 'cix_screen': None, 'massive_image': {'width': 679, 'height': 960}, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/547071227_24627133536918712_1266811620884646346_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=_Qe8Yh444RsQ7kNvwFPyL4e&amp;_nc_oc=AdlzS-kmLy1ZrUjVLrmi0iddoMK_Et6cWAbpNDUUbo5Y_s0q3zG1W1jRp_Z_OMYG4uY&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_AfewtW1S8qDIxIYvk7g1bCD2YF_qhCNCHB0nqBiWu5-RCQ&amp;oe=68EAFA86', 'width': 159, 'height': 225}, 'ocrText': "May be an image of 1 person and text that says 'PACT COLOMBIA HISTÓRICO HUMANA ANGELICA GUTIERREZ SENADO VOTA ESTE 26 DE OCTUBRE CAMPO CAMPO TIENE VOZ! ¡EL'"}], 'profileUrl': 'https://www.facebook.com/angelicamaria.gutierrezdaza', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/558510828_24840700175562046_258295541199898956_n.jpg?stp=c0.0.980.980a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dvz87cFIM9kQ7kNvwF9iG_R&amp;_nc_oc=AdnV7aZZedCYHpevmLV-c5nxuIRnImRVCXng_uhYrb6_Hm8mDou11XCtKruzuf4enw0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_AfeqYXkpi8fMNeyh5wEDD3bTS5OcGOTJr1RfUoqW5CiAIQ&amp;oe=68EAE9CC', 'profileId': '100001462207613', 'profileName': 'Angélica María Gutiérrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1318768099140308', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzEzMTg3NjgwOTkxNDAzMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xMzE4NzY4MDk5MTQwMzA4', 'date': '2025-09-12T11:40:30.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/547071227_24627133536918712_1266811620884646346_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=n48Oe_lgAEgQ7kNvwFyztDf&amp;_nc_oc=AdnlVfnEbGy_y76mZZb-R0SnIkUFbbNHc3BfH0-HYbpc0lQzThBYq7SBwM_hfwSGUy8&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_AfeMn20ejUnjaFtckndSTx7OjAXzLKhMSp9t2yktT-69Rg&amp;oe=68EC4C06'}, 'id': '24627133533585379', 'cix_screen': None, 'massive_image': {'width': 679, 'height': 960}, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/547071227_24627133536918712_1266811620884646346_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=n48Oe_lgAEgQ7kNvwFyztDf&amp;_nc_oc=AdnlVfnEbGy_y76mZZb-R0SnIkUFbbNHc3BfH0-HYbpc0lQzThBYq7SBwM_hfwSGUy8&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_AfdebR-uZzK2q9S6sm_uOCQma0a0u_NJ0gzyUe42S6UDeA&amp;oe=68EC4C06', 'width': 159, 'height': 225}, 'ocrText': "May be an image of 1 person and text that says 'PACT COLOMBIA HISTÓRICO HUMANA ANGELICA GUTIERREZ SENADO VOTA ESTE 26 DE OCTUBRE CAMPO CAMPO TIENE VOZ! ¡EL'"}], 'profileUrl': 'https://www.facebook.com/angelicamaria.gutierrezdaza', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/558510828_24840700175562046_258295541199898956_n.jpg?stp=c0.0.980.980a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dvz87cFIM9kQ7kNvwGpJK-f&amp;_nc_oc=AdkQpUZ5YXDzwQENxZ3qHc1VfsFSWsCZQamaTzCclk9tRd-GBOHS3vQYALV3TJd3XaA&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_Aff-P9jCVS9-EqT-8vo3-MJ7YCdTIsmM6en0VNjG8Zqw9w&amp;oe=68EC3B4C', 'profileId': '100001462207613', 'profileName': 'Angélica María Gutiérrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9697,7 +9697,7 @@
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1448349506276835', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE0NDgzNDk1MDYyNzY4MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xNDQ4MzQ5NTA2Mjc2ODM1', 'date': '2025-09-17T21:49:55.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/519682347_647183707694240_4357783784143021279_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=bvL7HujNExQQ7kNvwEfo6mS&amp;_nc_oc=AdmIrtB5MaxmHJA_5nTXnVFYFwmgtYfzyTdWtYYIuKafmbCU1ym5MrUZr7qOd_SfCoI&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_Afc-tajzKrdCd0PeEnyBVm-lBdDuUeF8k_msERUtGfoqiQ&amp;oe=68EAF3B3', 'width': 120, 'height': 120}, 'id': '825748813349774'}], 'profileUrl': 'https://www.facebook.com/nubiaines.acevedomorales', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/401797580_1413712179179830_5557349237601965483_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uQSVNT3R5s0Q7kNvwEV5fru&amp;_nc_oc=AdmK1H_TOjg1Sz7-5OFboXqUNy2EOMH1gLGhDlVLOOwPPEpmf1UMDo7INN-SW_ZflhY&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=btUlqos5A0VfSPP3Iq6alA&amp;oh=00_AffxjOTb5gHtneRnkGeADA5NcJkxfMlJa40FhhGAao-huQ&amp;oe=68EAE187', 'profileId': 'pfbid033vhXLjTBLX7UUsHTGfNiL36r2oPru4s9szZcs4XyNFDZZ4xUFZpkNj1arWHQeLD5l', 'profileName': 'Nubia Ines Acevedo Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/613385591574630/?comment_id=1448349506276835', 'id': 'Y29tbWVudDoxMTcwMzk5MDUxNzkyNTA3XzE0NDgzNDk1MDYyNzY4MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5OTA1MTc5MjUwN18xNDQ4MzQ5NTA2Mjc2ODM1', 'date': '2025-09-17T21:49:55.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': "Avatar is smiling with their eyebrows upturned, they're resting their chin on their curled fists and little red hearts are floating around them.", 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/519682347_647183707694240_4357783784143021279_n.webp?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=bvL7HujNExQQ7kNvwGorw07&amp;_nc_oc=AdlYK1YggbITeLDtf103b1A3rryrvvzKpEpHYGLD2PBRFt-fTGk6P8qgYqmC5Wwfj98&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_AfdLBOlSCeLYkhrQgjuRc-WeZ5ASTSLq9USWHLZ0vCXTqw&amp;oe=68EC4533', 'width': 120, 'height': 120}, 'id': '825748813349774'}], 'profileUrl': 'https://www.facebook.com/nubiaines.acevedomorales', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/401797580_1413712179179830_5557349237601965483_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uQSVNT3R5s0Q7kNvwExjVv9&amp;_nc_oc=AdkniHl_jhtG2JCeXIgwz2m2eZ_N8hvsIDZ_hSZahFH1y9AgPVRxdFQXGpGU3fxOF7I&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=jdCIQkgN1wLc57fETzXmpg&amp;oh=00_Afde4AmvLJITgy85q2n46DzK-Vu3uWQ03pKD9R7M3ymmLg&amp;oe=68EC3307', 'profileId': 'pfbid0yu6orvFcfQnpPZSunfimyXepRVUEZgE7hJoPcZXMqQRZiMEfHfyTRAPAFVFG59qul', 'profileName': 'Nubia Ines Acevedo Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170399051792507', 'postTitle': 'Promo Improvisada de Bon Yurt', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398138459265/'}</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9751,7 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1552070705774995', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE1NTIwNzA3MDU3NzQ5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNTUyMDcwNzA1Nzc0OTk1', 'date': '2025-08-24T21:42:29.000Z', 'text': 'Wowwww', 'profileUrl': 'https://www.facebook.com/GustavoGonzalezHernandez15', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/504824099_10223683889599962_4259216643596317637_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fhT7yMBZFlAQ7kNvwHpuxOj&amp;_nc_oc=AdmNeOEE_5Qn3ydtA93pd3-__gS_dm5gU8RGCzlkTvqxqORW821v4NoWv2XMVhOB0pl8bpqBP7c0snuCoD3JQ_XR&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=WnF0TJLBvSlC4bEVWJ8LzQ&amp;oh=00_Afdk3l5oudwev3PtTvu514w7VFoWebDwBpkHhfk-EqkiUQ&amp;oe=68EAE29B', 'profileId': '1673966876', 'profileName': 'Gustavo González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1552070705774995', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE1NTIwNzA3MDU3NzQ5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNTUyMDcwNzA1Nzc0OTk1', 'date': '2025-08-24T21:42:29.000Z', 'text': 'Wowwww', 'profileUrl': 'https://www.facebook.com/GustavoGonzalezHernandez15', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/504824099_10223683889599962_4259216643596317637_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fhT7yMBZFlAQ7kNvwHkJe0H&amp;_nc_oc=AdnXL9rWf_I2JoOHaEJOg6-ZTisZadzT1HuppOr_Qb-A0dmnhfvHGqmMvIoxkHvWEIE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=EUP7E_JoGeDCC89Hiw377w&amp;oh=00_Afd4rW2MNnVYtT2rO7rST1WE4nQzvmwIfCE5EWuXUJTlyA&amp;oe=68EC341B', 'profileId': '1673966876', 'profileName': 'Gustavo González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9805,7 +9805,7 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1995263167898436', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE5OTUyNjMxNjc4OTg0MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xOTk1MjYzMTY3ODk4NDM2', 'date': '2025-09-02T15:10:51.000Z', 'text': 'Buenas cuantos hay que consumir, en toda mi familia llevamos casi 200 y aún no nos sale nada, donde están los ganadores', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/393806649_10232985388560191_9067605354079393690_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FYjoDukSrCEQ7kNvwGK3Wqa&amp;_nc_oc=AdmNj8RwGkGDna2lD0DuDym6k_o1FOgdmHZkSdmBnmwrOCu0Pi3xX_y3jkrYRz_Vkm8bSBx9kWtinQVIF-jWFhmB&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=WnF0TJLBvSlC4bEVWJ8LzQ&amp;oh=00_AfeLhxZtMsK7OnmtwcW24-1guSmwtVXXn6P8ybYsnOAsQw&amp;oe=68EAE2DE', 'profileId': 'pfbid0ZQGzhjsWtuxFW6QTu66jp1MNcLyMEfLBTTtu7wuddES1BuwTuKw46dfGeb29EzA2l', 'profileName': 'Lenis Perez', 'likesCount': '12', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1995263167898436', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE5OTUyNjMxNjc4OTg0MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xOTk1MjYzMTY3ODk4NDM2', 'date': '2025-09-02T15:10:51.000Z', 'text': 'Buenas cuantos hay que consumir, en toda mi familia llevamos casi 200 y aún no nos sale nada, donde están los ganadores', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/393806649_10232985388560191_9067605354079393690_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FYjoDukSrCEQ7kNvwGoJND9&amp;_nc_oc=AdlVdYngun9EBYezJxWh1Z1RI_3bmASTOyTxyYeDV4NK_rvGnTJSL7weB2hjywRFZ60&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=EUP7E_JoGeDCC89Hiw377w&amp;oh=00_AfcHTN25zgYyPIeIfR49udfW8HWKIyM0r-KmMlyohXmABg&amp;oe=68EC345E', 'profileId': 'pfbid02dFihtQoLkVqSexJkS8SAkg2hK7MruAbDSE3DMP7aGwHyDYH5tEwchxrpNPEvb3H4l', 'profileName': 'Lenis Perez', 'likesCount': '12', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9860,7 +9860,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1285963919320542', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEyODU5NjM5MTkzMjA1NDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMjg1OTYzOTE5MzIwNTQy', 'date': '2025-08-30T03:14:51.000Z', 'text': 'Solo me sale bono ya me\n E comido 12 bon your', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/456333656_2207780302909473_6582403035976290320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QWlSv7c9_2IQ7kNvwEKjn60&amp;_nc_oc=Adki3WUIQK7kr038v7wLrHj-_1ZRzLTjZia4vxk2ww-ViJSP4DQTPi98Jh8dkP8MW7A-fmYIWPP8VSISw60hRJGj&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=WnF0TJLBvSlC4bEVWJ8LzQ&amp;oh=00_AfeorRpytYXkZqBZcCIlAs2DUe3wjljWh9zXzIBxvjV1sw&amp;oe=68EAD9F9', 'profileId': '100010325746937', 'profileName': 'Ulloque P', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1285963919320542', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEyODU5NjM5MTkzMjA1NDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMjg1OTYzOTE5MzIwNTQy', 'date': '2025-08-30T03:14:51.000Z', 'text': 'Solo me sale bono ya me\n E comido 12 bon your', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/456333656_2207780302909473_6582403035976290320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_-rkhTUVTlgQ7kNvwFvA6Vf&amp;_nc_oc=AdkjCASHfAH_POs26Vqf_Rxe_jn9tUILxkvrK1dsgkEUArqRZQrYPvxgjD3sC4w7X0U&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=EUP7E_JoGeDCC89Hiw377w&amp;oh=00_AfdF05KtXyNmQjPqIuRQ55pRArzAxA6a0ebwC0cApJ9aFA&amp;oe=68EC2B79', 'profileId': '100010325746937', 'profileName': 'Ulloque P', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9914,7 +9914,7 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1119097146863108', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExMTkwOTcxNDY4NjMxMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTE5MDk3MTQ2ODYzMTA4', 'date': '2025-09-08T02:54:28.000Z', 'text': '😂', 'profileUrl': 'https://www.facebook.com/juancarlos.uruenavelasquez', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/500037074_10233341091207589_6402490109221385624_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=a-HhjjfRbgYQ7kNvwELxJHz&amp;_nc_oc=AdnZGAFfO71ORmrADbBDc6fWIATSeq1vlfybKuQ1bWCKwM5kPrtb5O4MAGp1D8eKx3-lF019xCk0jQwPhCdpyfQt&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=WnF0TJLBvSlC4bEVWJ8LzQ&amp;oh=00_AfdIUcl1PWTh8_WxYSLhMSP8TL-eTgdJiO9kutfva4o6wA&amp;oe=68EAF876', 'profileId': 'pfbid0R2QBAqR6jsqUtDCUvtPpmFKoAJLgj5UHiK7ozW9KRJCRapwq4zDitgvnbfYc5Puyl', 'profileName': 'Juan Carlos Urueña Velasquez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1119097146863108', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExMTkwOTcxNDY4NjMxMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTE5MDk3MTQ2ODYzMTA4', 'date': '2025-09-08T02:54:28.000Z', 'text': '😂', 'profileUrl': 'https://www.facebook.com/juancarlos.uruenavelasquez', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/500037074_10233341091207589_6402490109221385624_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=a-HhjjfRbgYQ7kNvwHUMXqD&amp;_nc_oc=AdmfvwIY1smWexqgO8LvnIb_72-1XcDV8QdWz0-yiGRi2B8JCTntMxTtdM60_fn5lJI&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=EUP7E_JoGeDCC89Hiw377w&amp;oh=00_AfdxvPnMdItO3c5M6WFFiqwyMjDIi3UT7IwQnGZUnXdlAw&amp;oe=68EC49F6', 'profileId': 'pfbid02UPtMnrmimZpqqijUt9JFwYrN3MzKHnrYa8dEzfdEFa2aNEmtLm9rwZZ4CGMdUf1Xl', 'profileName': 'Juan Carlos Urueña Velasquez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1339141280903766', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMzkxNDEyODA5MDM3NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzM5MTQxMjgwOTAzNzY2', 'date': '2025-09-15T04:19:32.000Z', 'text': 'Estafa como siempre', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/306579133_10160333043523432_3403082654770756560_n.jpg?stp=c0.0.474.474a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sJ9JLPeiAGMQ7kNvwHdn-zC&amp;_nc_oc=Adl6EWej5_3uKoVT39QTVC06rwxqZGZTS7HnkzPiHFrN1QsV3VO_Of6NZBF8rZ5NnqTBERzGZgSbDsxizVg4UeKq&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=WnF0TJLBvSlC4bEVWJ8LzQ&amp;oh=00_AfftXiHUUD_KsDSAmuHEwVXR7U4-7H0bXAMeEsXGPoaU8g&amp;oe=68EAD841', 'profileId': 'pfbid02nMrohH4LWJBzQxCn7nbyJJ7bP3aP6YzCQAMDqLdkBQKycgM2DAdtC96SoKjTbBsfl', 'profileName': 'Juan Carlos Rozo Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1339141280903766', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMzkxNDEyODA5MDM3NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzM5MTQxMjgwOTAzNzY2', 'date': '2025-09-15T04:19:32.000Z', 'text': 'Estafa como siempre', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/306579133_10160333043523432_3403082654770756560_n.jpg?stp=c0.0.474.474a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sJ9JLPeiAGMQ7kNvwGnrfrK&amp;_nc_oc=Adksxp7CdDfFSi4ji5GTOrg9qWZ-Tf5fcDZyjj6o1_7wbf9BAgG9XhFaI8g10bYX5xE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=EUP7E_JoGeDCC89Hiw377w&amp;oh=00_Affeha8659HSpNKwrQR3cEskd6ti74PgG97FutE5ol1U5A&amp;oe=68EC29C1', 'profileId': 'pfbid0ipDcn7RyevFzBu1ihKAriZ1nicwJvSQQqUhtan8nhuDz7kqRLrbSRBnbvTMNK5wLl', 'profileName': 'Juan Carlos Rozo Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10022,7 +10022,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=674777048961476', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzY3NDc3NzA0ODk2MTQ3Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M182NzQ3NzcwNDg5NjE0NzY=', 'date': '2025-08-30T02:47:39.000Z', 'text': 'En serio los premios son descuentos. No alcanza para un premio de verdad?. El bono de wingo es de 15% de descuento en un pasaje con mil restricciones. No les alcanza para un tiquete, con todo lo que vende alpina? La emoción se nos fue al piso cuando redimimos el premio. Sale uno perdiendo más, si compra con ese bono', 'profileUrl': 'https://www.facebook.com/mauricio.rusinque', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/447447350_10231523721453669_3681938507405524141_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=9Tngn8YR6EoQ7kNvwG-bvWg&amp;_nc_oc=AdlZ3gkorb-EKQWYTcibm7yA_NDkcY90-DgjRdjuVaMdw-6PlLIY486eB7yylInraHoc8R8C_m09IYCJk-cKb7k5&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=WnF0TJLBvSlC4bEVWJ8LzQ&amp;oh=00_AffZbdrmq9PuWNcxmZYF7pMtIMfxKLRqNN44rC-vDGxIqw&amp;oe=68EAFCBA', 'profileId': '1158240961', 'profileName': 'Mauricio Rusinque', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=674777048961476', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzY3NDc3NzA0ODk2MTQ3Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M182NzQ3NzcwNDg5NjE0NzY=', 'date': '2025-08-30T02:47:39.000Z', 'text': 'En serio los premios son descuentos. No alcanza para un premio de verdad?. El bono de wingo es de 15% de descuento en un pasaje con mil restricciones. No les alcanza para un tiquete, con todo lo que vende alpina? La emoción se nos fue al piso cuando redimimos el premio. Sale uno perdiendo más, si compra con ese bono', 'profileUrl': 'https://www.facebook.com/mauricio.rusinque', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/447447350_10231523721453669_3681938507405524141_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=9Tngn8YR6EoQ7kNvwEwD2kC&amp;_nc_oc=AdkX0Bnt3_527CK3AosPuPOuojzMNT8l-XjYJ_IUbu6CZkYOwUHNCUUBu7a9Pz5FgB8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=EUP7E_JoGeDCC89Hiw377w&amp;oh=00_AfeVh3eajb1usv27F2tcDYJW-M2lHOO3eZdeGDaIZ3NzSw&amp;oe=68EC4E3A', 'profileId': '1158240961', 'profileName': 'Mauricio Rusinque', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10076,7 +10076,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2174074263073737', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIxNzQwNzQyNjMwNzM3Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMTc0MDc0MjYzMDczNzM3', 'date': '2025-09-09T06:16:09.000Z', 'text': 'Premios tan m.....s', 'profileUrl': 'https://www.facebook.com/jimmymauricio.valenciagarcia', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/462255160_8717554801641125_175399083759338104_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=PQbTFzVbxUUQ7kNvwHv5bRJ&amp;_nc_oc=AdlATgymyOJWkzChhm7zYFs5bzgLz--UwKyo3f2zfN4SEqSOfPCQ5qcl54qm9cC9SnN04rKwNvVhlV7oUztRWcIU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=WnF0TJLBvSlC4bEVWJ8LzQ&amp;oh=00_AfdA1ZXJzw1mwAFubaz4Y34OObyHhb4AfK5At3jc_l3zoA&amp;oe=68EB0C34', 'profileId': '100001600746705', 'profileName': 'Jm Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2174074263073737', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIxNzQwNzQyNjMwNzM3Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMTc0MDc0MjYzMDczNzM3', 'date': '2025-09-09T06:16:09.000Z', 'text': 'Premios tan m.....s', 'profileUrl': 'https://www.facebook.com/jimmymauricio.valenciagarcia', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/462255160_8717554801641125_175399083759338104_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=PQbTFzVbxUUQ7kNvwEW3Xy6&amp;_nc_oc=Adk1rgp23E5uB78yWpeKzM97G1hNSWqbf8gtlwfJtIotHK5xho3aNzhBZB0Fv5lJ-hE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=EUP7E_JoGeDCC89Hiw377w&amp;oh=00_AfdVMdpqs74K_EVxd5r1UJcfV5SAzYnfotDZ5DgoKkga8A&amp;oe=68EC5DB4', 'profileId': '100001600746705', 'profileName': 'Jm Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10130,7 +10130,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1099915022288150', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEwOTk5MTUwMjIyODgxNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMDk5OTE1MDIyMjg4MTUw', 'date': '2025-08-30T18:00:56.000Z', 'text': '3 etiquetas de lactosuero', 'profileUrl': 'https://www.facebook.com/fernandodejesus.roldanmedina', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/74599560_459031218061030_7009115240973467648_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U_xYKzqH1I4Q7kNvwGFJy-q&amp;_nc_oc=AdnpmJX1mKyTJyb29rwpdMrXMAyow44UvIq_LFWyombmbS_hwMQIztcijKhOWv6j7YxVZ9U4fdXvjhhCSQbKMw-4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=WnF0TJLBvSlC4bEVWJ8LzQ&amp;oh=00_AfcntvQN5AINy5Q4ATOb7U2Ql7l7ZKwPpuxV6tSYKVA4mw&amp;oe=690C9F6C', 'profileId': 'pfbid02Snwv9vDK3hK9REZmJAPhy3vpC2qzs35ZD7nAtYSAxPSdSCdM2LgLoFpg5v7VGXALl', 'profileName': 'Fernando Dejesus Roldan Medina', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1099915022288150', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEwOTk5MTUwMjIyODgxNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMDk5OTE1MDIyMjg4MTUw', 'date': '2025-08-30T18:00:56.000Z', 'text': '3 etiquetas de lactosuero', 'profileUrl': 'https://www.facebook.com/fernandodejesus.roldanmedina', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.6435-1/74599560_459031218061030_7009115240973467648_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U_xYKzqH1I4Q7kNvwEFDDI6&amp;_nc_oc=AdkjgoOyyyqJAB6y7Se11rZl5Pvqlkhw7Mn5C5YdN--v4dhkpoDpitmDwF62lpRr28E&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=EUP7E_JoGeDCC89Hiw377w&amp;oh=00_Aff8xeQWghDqpFB0AOKNjBr6f72kR31Q5-y14TxPO2CfVA&amp;oe=690DF0EC', 'profileId': 'pfbid0NmMCg71kNjaARrRGtUJqpHzLpiaBscYhtQKcGzozWUowrrpMFmvNHEkSu6K3SGFYl', 'profileName': 'Fernando Dejesus Roldan Medina', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10184,7 +10184,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1352219256473654', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzNTIyMTkyNTY0NzM2NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzUyMjE5MjU2NDczNjU0', 'date': '2025-09-17T15:53:19.000Z', 'text': 'Juegan con la gente solo otra que lo consuman', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/378284017_659771032796871_5987370787651705540_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JafGN8mLOrYQ7kNvwFJkqkU&amp;_nc_oc=Adm7o69gbYYbsUeibsSMESJHlwCOHwSbVWZSLl8YimqleD_-wsZlW-wx7R-P0gLa2QAGn17-dHwhF5bDcdLiVtW1&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=WnF0TJLBvSlC4bEVWJ8LzQ&amp;oh=00_Afca3_riRRPdP7vyf5GMiNJbx2jQE9B0y3SHNd85Jz4_9Q&amp;oe=68EADE15', 'profileId': 'pfbid0kVrMa4XPn7uyxugMCFq2g87Xiq46XcquDgbV7bKDgV3hFAWPZf66X9GnhysaYZewl', 'profileName': 'Mildrey Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1352219256473654', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzNTIyMTkyNTY0NzM2NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzUyMjE5MjU2NDczNjU0', 'date': '2025-09-17T15:53:19.000Z', 'text': 'Juegan con la gente solo otra que lo consuman', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/378284017_659771032796871_5987370787651705540_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JafGN8mLOrYQ7kNvwF-XAlv&amp;_nc_oc=Adm2OLCeAJSAwzvC_U2WKNugTja169vFShK1u2v-NsdmMBy_YYRFh6mAZhT90DQNgM8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=EUP7E_JoGeDCC89Hiw377w&amp;oh=00_AfdXLxWCEXWuLNv7H3_n0fye2FFqArAOtW0G8IBzjgqmTg&amp;oe=68EC2F95', 'profileId': 'pfbid02pMJ4kjTDdTFhaMfecHW69HtZRAeceifwBwfv95knUsL1TzaEem5EzPJGL3R73fXvl', 'profileName': 'Mildrey Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10238,7 +10238,7 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=4285999004951708', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzQyODU5OTkwMDQ5NTE3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M180Mjg1OTk5MDA0OTUxNzA4', 'date': '2025-09-13T13:32:37.000Z', 'text': 'Y', 'profileUrl': 'https://www.facebook.com/esteisy.yissed', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/475673129_2415008895507881_6371712224887950061_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ryQGiyeRU5MQ7kNvwGQR2BH&amp;_nc_oc=AdmMw_7nqSCSywt3aGIPsvCZvrBC7rZXjR7rQXEcGq4PJ6PV8RT0a3-dMo7gI53e5Q02l_oi4edEe_mMe_FL_kV_&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=WnF0TJLBvSlC4bEVWJ8LzQ&amp;oh=00_AffuSr_w5w4WRO0vgyGr6wWweuPGOqLOgBkX5TlhVHE38g&amp;oe=68EB00C7', 'profileId': 'pfbid02QeZJaKD7USy4eVo6mHXX41CjesMkf5LiZMN7GtUEgb6ogayCG3FGYui8EnhC8HT3l', 'profileName': 'Ëstëisy Yissed', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=4285999004951708', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzQyODU5OTkwMDQ5NTE3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M180Mjg1OTk5MDA0OTUxNzA4', 'date': '2025-09-13T13:32:37.000Z', 'text': 'Y', 'profileUrl': 'https://www.facebook.com/esteisy.yissed', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/475673129_2415008895507881_6371712224887950061_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ryQGiyeRU5MQ7kNvwFOODAe&amp;_nc_oc=AdllwC9QiiIAfuNL0yXZovxLZmF6x0iSkB-gUUgcvAks9_Ni5uzlTIkUOPkJZ8HdP9c&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=EUP7E_JoGeDCC89Hiw377w&amp;oh=00_Aff61czJJuTb3kJIq7kxI2uQGXw5RO-0KEJvChkWYmiwGA&amp;oe=68EC5247', 'profileId': 'pfbid0M6v7f9akdDZoaTnrsW81MEvZ3HGqUG9sgz2o9ieuin9tVDwmXexDzvAfzF1D8w3Cl', 'profileName': 'Ëstëisy Yissed', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10292,7 +10292,7 @@
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1304837871301074', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMDQ4Mzc4NzEzMDEwNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzA0ODM3ODcxMzAxMDc0', 'date': '2025-08-31T14:29:24.000Z', 'text': 'Como son las frases?', 'profileUrl': 'https://www.facebook.com/lesvia.mariano.3', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/525560263_1326043802212047_4731061571387816022_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fjsPHZfhRakQ7kNvwHxIgPs&amp;_nc_oc=AdkQ2T2E2SWS67HLXLJ0WEZNv56M1dPtlUXxAnVCykGP3KPs3GTEwBtMScrTeuOkpH4&amp;_nc_zt=24&amp;_nc_ht=scontent.fpia1-1.fna&amp;_nc_gid=vRL_U2ZKBaymvvYKZ_WT0Q&amp;oh=00_Afe5tymwd7FF2EWegS3jNa6bXaVcGcpNFbxtYXor2P5LkQ&amp;oe=68EAD73D', 'profileId': '100044193193595', 'profileName': 'Esther Mariano Donado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1304837871301074', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMDQ4Mzc4NzEzMDEwNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzA0ODM3ODcxMzAxMDc0', 'date': '2025-08-31T14:29:24.000Z', 'text': 'Como son las frases?', 'profileUrl': 'https://www.facebook.com/lesvia.mariano.3', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/525560263_1326043802212047_4731061571387816022_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fjsPHZfhRakQ7kNvwH5ZbNc&amp;_nc_oc=Admsf5h9CJEJY1a8IcXedPq8XK1FcDPMsBwIH9gTmov5vPmgY4RraK3sDFQmVfCNIIk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=o4GEN6-BALD_5rYF1lYBuA&amp;oh=00_AfdtYiWHiXnPRuFLgd9HDQjAzo0-H5ahw4YiAAbDwDQAkg&amp;oe=68EC60FD', 'profileId': '100044193193595', 'profileName': 'Esther Mariano Donado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10346,7 +10346,7 @@
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=758198823591260', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzc1ODE5ODgyMzU5MTI2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183NTgxOTg4MjM1OTEyNjA=', 'date': '2025-08-31T14:29:32.000Z', 'text': 'Donde las encuentro', 'profileUrl': 'https://www.facebook.com/lesvia.mariano.3', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/525560263_1326043802212047_4731061571387816022_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fjsPHZfhRakQ7kNvwHxIgPs&amp;_nc_oc=AdkQ2T2E2SWS67HLXLJ0WEZNv56M1dPtlUXxAnVCykGP3KPs3GTEwBtMScrTeuOkpH4&amp;_nc_zt=24&amp;_nc_ht=scontent.fpia1-1.fna&amp;_nc_gid=vRL_U2ZKBaymvvYKZ_WT0Q&amp;oh=00_Afe5tymwd7FF2EWegS3jNa6bXaVcGcpNFbxtYXor2P5LkQ&amp;oe=68EAD73D', 'profileId': '100044193193595', 'profileName': 'Esther Mariano Donado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=758198823591260', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzc1ODE5ODgyMzU5MTI2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183NTgxOTg4MjM1OTEyNjA=', 'date': '2025-08-31T14:29:32.000Z', 'text': 'Donde las encuentro', 'profileUrl': 'https://www.facebook.com/lesvia.mariano.3', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/525560263_1326043802212047_4731061571387816022_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fjsPHZfhRakQ7kNvwH5ZbNc&amp;_nc_oc=Admsf5h9CJEJY1a8IcXedPq8XK1FcDPMsBwIH9gTmov5vPmgY4RraK3sDFQmVfCNIIk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=o4GEN6-BALD_5rYF1lYBuA&amp;oh=00_AfdtYiWHiXnPRuFLgd9HDQjAzo0-H5ahw4YiAAbDwDQAkg&amp;oe=68EC60FD', 'profileId': '100044193193595', 'profileName': 'Esther Mariano Donado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10400,7 +10400,7 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1302438678195544', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMDI0Mzg2NzgxOTU1NDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzAyNDM4Njc4MTk1NTQ0', 'date': '2025-09-02T19:59:24.000Z', 'text': '🤦🏻\u200d♀️🤷🏻\u200d♀️', 'profileUrl': 'https://www.facebook.com/yulypaola.hoyosvaron', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/438830629_1497095684555425_5662243041614435254_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fLifkL_Wl-8Q7kNvwEzsliB&amp;_nc_oc=AdnUvHGBv1Zhu87Ey3DQQNvhkDux0LMSyXnEuqDj5bsW9v1_RW09TESjFv2XguRNwnU&amp;_nc_zt=24&amp;_nc_ht=scontent.fpia1-1.fna&amp;_nc_gid=vRL_U2ZKBaymvvYKZ_WT0Q&amp;oh=00_Afctjg9XwN5a3NoiW6qCM7qhb_YKU85REgFTGyZsB2sD4g&amp;oe=68EAFE31', 'profileId': '100027650224938', 'profileName': 'Yuly Paola Hoyos Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1302438678195544', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMDI0Mzg2NzgxOTU1NDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzAyNDM4Njc4MTk1NTQ0', 'date': '2025-09-02T19:59:24.000Z', 'text': '🤦🏻\u200d♀️🤷🏻\u200d♀️', 'profileUrl': 'https://www.facebook.com/yulypaola.hoyosvaron', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/438830629_1497095684555425_5662243041614435254_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KSwue4cOccAQ7kNvwHZdF_M&amp;_nc_oc=Adn_eIv85LC-BUcCNVRwrq4Lmip2cqn4FSJn4GcW0x_j3LjV7ltpipuXFSk-JKKBbL8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=o4GEN6-BALD_5rYF1lYBuA&amp;oh=00_AfcQYdCSynbKsdKH2hSDacCEQoTQ2tXAI-puJwwih1Lqcw&amp;oe=68EC4FB1', 'profileId': '100027650224938', 'profileName': 'Yuly Paola Hoyos Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10454,7 +10454,7 @@
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=4321453451456458', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzQzMjE0NTM0NTE0NTY0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M180MzIxNDUzNDUxNDU2NDU4', 'date': '2025-09-15T03:14:31.000Z', 'text': 'Si no me dan unas entradas a perros criollos no quiero bon yurt', 'profileUrl': 'https://www.facebook.com/Guillermoantonio.cardoso12', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/467334036_3103052006713361_7019559155726780211_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-7cOPuNGoQIQ7kNvwHheMhK&amp;_nc_oc=AdkORqSAXdqbYFnIKcn0ZiUqBQ-J3_Qew3Ql-ry44_hdnqWcYAgY-8zT6SqbVmdki8c&amp;_nc_zt=24&amp;_nc_ht=scontent.fpia1-1.fna&amp;_nc_gid=vRL_U2ZKBaymvvYKZ_WT0Q&amp;oh=00_AfefHWulxwJktUwFBbnUELccZ0kDBLBcD98FoGda-sZb7g&amp;oe=68EAF16F', 'profileId': '100010257763479', 'profileName': 'Antonio Cardoso', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=4321453451456458', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzQzMjE0NTM0NTE0NTY0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M180MzIxNDUzNDUxNDU2NDU4', 'date': '2025-09-15T03:14:31.000Z', 'text': 'Si no me dan unas entradas a perros criollos no quiero bon yurt', 'profileUrl': 'https://www.facebook.com/Guillermoantonio.cardoso12', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/467334036_3103052006713361_7019559155726780211_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-7cOPuNGoQIQ7kNvwGYHLSd&amp;_nc_oc=Adlxwv294EPdblOBRsCeqjJv6hn3lN5dex-yhbt61UwUstEFZZ8KjoBmXBShJ-yy52s&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=o4GEN6-BALD_5rYF1lYBuA&amp;oh=00_AfdoNF8_pyGySbIW--yE1fdZ2luixfU3rsR99XiTY9Isgg&amp;oe=68EC42EF', 'profileId': '100010257763479', 'profileName': 'Antonio Cardoso', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10537,7 +10537,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1319711546514916', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMTk3MTE1NDY1MTQ5MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzE5NzExNTQ2NTE0OTE2', 'date': '2025-09-11T12:51:37.000Z', 'text': '. Exceso de horas extras (violación del límite legal)\n\nEn Colombia solo se permiten 12 horas extra a la semana (Ley 50 de 1990, Art. 22).\n\nEso equivale a máximo 48 horas extra al mes.\n\nTú hiciste 60 horas extras, por lo que hubo un exceso de al menos 12 horas ilegales.\n\n2. No te dieron descanso semanal obligatorio\n\nSegún el Código Sustantivo del Trabajo (Art. 172 y 173), tienes derecho a 1 día de descanso remunerado por cada 6 días de trabajo.\n\nSi trabajaste todos los días sin descanso (lunes a domingo) durante 4 semanas, eso es ilegal y genera:\n\nPago doble del día de descanso no concedido, o\n\nDescanso compensatorio remunerado.\n\nAlpina  viola la ley \nSituación Derecho que se genera\n\nTrabajaste más de 12 h extra/sem Pago de horas extra con recargo (25%-75%)\nTrabajaste día de descanso Pago con recargo dominical (75%) o doble\nNo tuviste descanso semanal Descanso compensatorio o pago equivalente\nMás de 60 horas extra en 1 mes Reclamo por jornada ilegal / abuso laboral\n\nReuniremos las \nHorarios firmados, planillas, turnos, correos, chats de trabajo, etc.\n\nCualquier soporte que demuestre las 60 horas extras y la ausencia de descansos.\n\nSi el empleador no paga lo debido, puedes presentar una demanda laboral por incumplimiento y exigir el pago retroactivo, recargos y compensaciones.\n\nPuedes hacerlo con abogado o con asesoría gratuita del Ministerio.\n📌 IMPORTANTE:\n\nNo te pueden despedir por reclamar tus derechos laborales.\nSi lo hacen, es un despido sin justa causa y te correspondería una indemnización.\nSerán expuestos los jefes directos de cedi Fontibón con nombres propios pa que les dé vergüenza y dejen el acoso laboral la explotación así sus empleados temporales \nTemporal Adecco Colombia \nPermite la violación de la ley \nY no regula \nPedimos como trabajadores activos la presencia del Ministerio del Trabajo Colombia \nCra 7 # 32 63 Ministerio De Trabajo Bogota \nMinisterio de Salud y Protección Social', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/468804200_10161191011938495_9167221412661860919_n.jpg?stp=c96.0.288.288a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6NtbviN2kDsQ7kNvwEdei3b&amp;_nc_oc=AdnmAwgy6KtuNO4DiSWeKxLMA6WG0ZCtl7z6UvJGXIgv6jrx0JipH7igvCkRLUnJ90w&amp;_nc_zt=24&amp;_nc_ht=scontent.fpia1-1.fna&amp;_nc_gid=vRL_U2ZKBaymvvYKZ_WT0Q&amp;oh=00_Afde6VGskKlZXh5tvk1MIyIsLttqAO8NMA7jTAxPhBaJBA&amp;oe=68EAE669', 'profileId': 'pfbid0RP3MxNhc3U9oK5rVMpjsBtMmgjPiWjwPf8HhLqrooQuGBN1mTQLnZ2h5Smwbp2j1l', 'profileName': 'Sample Samyaza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1319711546514916', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzEzMTk3MTE1NDY1MTQ5MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMzE5NzExNTQ2NTE0OTE2', 'date': '2025-09-11T12:51:37.000Z', 'text': '. Exceso de horas extras (violación del límite legal)\n\nEn Colombia solo se permiten 12 horas extra a la semana (Ley 50 de 1990, Art. 22).\n\nEso equivale a máximo 48 horas extra al mes.\n\nTú hiciste 60 horas extras, por lo que hubo un exceso de al menos 12 horas ilegales.\n\n2. No te dieron descanso semanal obligatorio\n\nSegún el Código Sustantivo del Trabajo (Art. 172 y 173), tienes derecho a 1 día de descanso remunerado por cada 6 días de trabajo.\n\nSi trabajaste todos los días sin descanso (lunes a domingo) durante 4 semanas, eso es ilegal y genera:\n\nPago doble del día de descanso no concedido, o\n\nDescanso compensatorio remunerado.\n\nAlpina  viola la ley \nSituación Derecho que se genera\n\nTrabajaste más de 12 h extra/sem Pago de horas extra con recargo (25%-75%)\nTrabajaste día de descanso Pago con recargo dominical (75%) o doble\nNo tuviste descanso semanal Descanso compensatorio o pago equivalente\nMás de 60 horas extra en 1 mes Reclamo por jornada ilegal / abuso laboral\n\nReuniremos las \nHorarios firmados, planillas, turnos, correos, chats de trabajo, etc.\n\nCualquier soporte que demuestre las 60 horas extras y la ausencia de descansos.\n\nSi el empleador no paga lo debido, puedes presentar una demanda laboral por incumplimiento y exigir el pago retroactivo, recargos y compensaciones.\n\nPuedes hacerlo con abogado o con asesoría gratuita del Ministerio.\n📌 IMPORTANTE:\n\nNo te pueden despedir por reclamar tus derechos laborales.\nSi lo hacen, es un despido sin justa causa y te correspondería una indemnización.\nSerán expuestos los jefes directos de cedi Fontibón con nombres propios pa que les dé vergüenza y dejen el acoso laboral la explotación así sus empleados temporales \nTemporal Adecco Colombia \nPermite la violación de la ley \nY no regula \nPedimos como trabajadores activos la presencia del Ministerio del Trabajo Colombia \nCra 7 # 32 63 Ministerio De Trabajo Bogota \nMinisterio de Salud y Protección Social', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/468804200_10161191011938495_9167221412661860919_n.jpg?stp=c96.0.288.288a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6NtbviN2kDsQ7kNvwF1xEc8&amp;_nc_oc=AdnvmVMfLO386PwpW_O9kuQsZqpIaooxvll4s5L1UZwYGjqK8yFez6i8Lrb0iAMEpWE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=o4GEN6-BALD_5rYF1lYBuA&amp;oh=00_AfeZ7YDSagUhfr-PvEeM97QMA-VZ7lfdAsb_OojbWCs3gA&amp;oe=68EC37E9', 'profileId': 'pfbid02VEV593dRtk8rcTxZY89NshxnHPGGCTyQ9MvwfDxhNb9rF2x6ommcUZQrKpkATz2al', 'profileName': 'Sample Samyaza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2262618314169777', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIyNjI2MTgzMTQxNjk3Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMjYyNjE4MzE0MTY5Nzc3', 'date': '2025-08-30T17:01:54.000Z', 'text': 'No deja tomar la foto.  Que triste.', 'profileUrl': 'https://www.facebook.com/hillaryandrea.figueroa.3', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwEAQ1TZ&amp;_nc_oc=AdluROzWOdIyNu7vPsx4m72w1vlykI_KkEFQciKuOz_Cv51l1AQuSBHxAhvHn7mJnlw&amp;_nc_zt=24&amp;_nc_ht=scontent.fpia1-1.fna&amp;oh=00_Afe7ZjsfPKP4CdhQdkvGJlq3MIaKPi8ldG-8P3JHQCxFig&amp;oe=690C9A7A', 'profileId': 'pfbid02Qnd82gvrxkDqdJqfibXxzbmxqVvvfXbY8y2QoPLsr9TbozvM1zz74wmAu3ejSf4l', 'profileName': 'Handrea Figueroa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2262618314169777', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIyNjI2MTgzMTQxNjk3Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMjYyNjE4MzE0MTY5Nzc3', 'date': '2025-08-30T17:01:54.000Z', 'text': 'No deja tomar la foto.  Que triste.', 'profileUrl': 'https://www.facebook.com/hillaryandrea.figueroa.3', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwE-rpZa&amp;_nc_oc=AdnX95FdZQLsOzVjCSM6tJZaZ4pW5adAcbQoRve964YMinotkQLJfAgujQEIgk-QRrQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;oh=00_AfcV9Z3gEqyX9AYrtdDx2E79ClmR-5svebHJSAH1b00xrw&amp;oe=690DEBFA', 'profileId': 'pfbid025nGok43YtfVmP49F43RuWxuvooCbqdmBVB85dDiZ48pT4Nh1bmr7Ht3hhke9ikt9l', 'profileName': 'Handrea Figueroa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10645,7 +10645,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1148345793813477', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExNDgzNDU3OTM4MTM0Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTQ4MzQ1NzkzODEzNDc3', 'date': '2025-09-02T19:59:16.000Z', 'text': 'Pura estafa', 'profileUrl': 'https://www.facebook.com/yulypaola.hoyosvaron', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/438830629_1497095684555425_5662243041614435254_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fLifkL_Wl-8Q7kNvwEzsliB&amp;_nc_oc=AdnUvHGBv1Zhu87Ey3DQQNvhkDux0LMSyXnEuqDj5bsW9v1_RW09TESjFv2XguRNwnU&amp;_nc_zt=24&amp;_nc_ht=scontent.fpia1-1.fna&amp;_nc_gid=vRL_U2ZKBaymvvYKZ_WT0Q&amp;oh=00_Afctjg9XwN5a3NoiW6qCM7qhb_YKU85REgFTGyZsB2sD4g&amp;oe=68EAFE31', 'profileId': '100027650224938', 'profileName': 'Yuly Paola Hoyos Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1148345793813477', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExNDgzNDU3OTM4MTM0Nzc=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTQ4MzQ1NzkzODEzNDc3', 'date': '2025-09-02T19:59:16.000Z', 'text': 'Pura estafa', 'profileUrl': 'https://www.facebook.com/yulypaola.hoyosvaron', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/438830629_1497095684555425_5662243041614435254_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KSwue4cOccAQ7kNvwHZdF_M&amp;_nc_oc=Adn_eIv85LC-BUcCNVRwrq4Lmip2cqn4FSJn4GcW0x_j3LjV7ltpipuXFSk-JKKBbL8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=o4GEN6-BALD_5rYF1lYBuA&amp;oh=00_AfcQYdCSynbKsdKH2hSDacCEQoTQ2tXAI-puJwwih1Lqcw&amp;oe=68EC4FB1', 'profileId': '100027650224938', 'profileName': 'Yuly Paola Hoyos Varon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10699,7 +10699,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1480252106344986', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE0ODAyNTIxMDYzNDQ5ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNDgwMjUyMTA2MzQ0OTg2', 'date': '2025-09-16T21:49:11.000Z', 'text': 'Que productos tan caros mano estas. Empresas como engañan ala poblasion', 'profileUrl': 'https://www.facebook.com/yinson.betancourt.56', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/492402376_1226424815761370_2825994292987965249_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=PCFC1jy-ArMQ7kNvwFjQCUs&amp;_nc_oc=AdmRaYw9foWyY5ai1RNP9Fqfj5M4aW0HulEOIsIODyWgkMhzdCwlgnezevkft9cDIV8&amp;_nc_zt=24&amp;_nc_ht=scontent.fpia1-1.fna&amp;_nc_gid=vRL_U2ZKBaymvvYKZ_WT0Q&amp;oh=00_AfeSe7DeuWM8TtBAySQQuffdesekskq-yknmW3dvlTWEkg&amp;oe=68EAD82E', 'profileId': '100051815882245', 'profileName': 'Yonsi Gamer', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1480252106344986', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE0ODAyNTIxMDYzNDQ5ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNDgwMjUyMTA2MzQ0OTg2', 'date': '2025-09-16T21:49:11.000Z', 'text': 'Que productos tan caros mano estas. Empresas como engañan ala poblasion', 'profileUrl': 'https://www.facebook.com/yinson.betancourt.56', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/492402376_1226424815761370_2825994292987965249_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=PCFC1jy-ArMQ7kNvwFQUFbA&amp;_nc_oc=Admu1PHflceUDWgh0hUk0LASxLReWNBBhkuFOq6WfKkwcwCotDIMQceWR0MeAzrR3n4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=o4GEN6-BALD_5rYF1lYBuA&amp;oh=00_AffhDltjqv2caGwU2AgXmKAwC5XzfIYD8rjEoxyClIbAIw&amp;oe=68EC29AE', 'profileId': '100051815882245', 'profileName': 'Yonsi Gamer', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10753,7 +10753,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=25034995509419998', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzI1MDM0OTk1NTA5NDE5OTk4', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yNTAzNDk5NTUwOTQxOTk5OA==', 'date': '2025-09-13T03:49:51.000Z', 'text': 'Que vale el bonyur?? Tienda quien sabe', 'profileUrl': 'https://www.facebook.com/valentiina2i', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/432045497_409380475157198_1612605420938331753_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6_f_6gaFRH8Q7kNvwGZ0IMn&amp;_nc_oc=AdnJfzwxjh36K79V66iVCwscLenw_O8G_f23-1V_TR4zt96hsFfCB2JdqnGstLMVSZY&amp;_nc_zt=24&amp;_nc_ht=scontent.fpia1-1.fna&amp;_nc_gid=vRL_U2ZKBaymvvYKZ_WT0Q&amp;oh=00_AfeptmjDTsCudym8m3QL4drTNgOHkwwFLQmUCVmcfmsJiA&amp;oe=68EAF6F2', 'profileId': '100082557461426', 'profileName': 'Valentina Alegriia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=25034995509419998', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzI1MDM0OTk1NTA5NDE5OTk4', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yNTAzNDk5NTUwOTQxOTk5OA==', 'date': '2025-09-13T03:49:51.000Z', 'text': 'Que vale el bonyur?? Tienda quien sabe', 'profileUrl': 'https://www.facebook.com/valentiina2i', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/432045497_409380475157198_1612605420938331753_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6_f_6gaFRH8Q7kNvwGTSRcy&amp;_nc_oc=AdlGjtXgTuv4LcTPjAa_9rrwFm0VPs8KtD_HCLTW8Lz8CkjQwUzgLYFGhVLlBQIZPVY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=o4GEN6-BALD_5rYF1lYBuA&amp;oh=00_Afcj1OapYumjzLCrtd7z9RETQGRGNmgbym4yzJ-dzHG6yg&amp;oe=68EC4872', 'profileId': '100082557461426', 'profileName': 'Valentina Alegriia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10807,7 +10807,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=724596703906535', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzcyNDU5NjcwMzkwNjUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183MjQ1OTY3MDM5MDY1MzU=', 'date': '2025-08-14T20:56:41.000Z', 'text': 'Escogieron al mejor para su comercial. Grande Lokifanaticos Lokillo F Perros criollos humor', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/554283196_10230277462144097_3300535628429397527_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=zSqJPCSp42UQ7kNvwFwudzx&amp;_nc_oc=AdmV5Hw5nK0sfbljpH4LbeZCpJ34JoEy3VNQL8rMf_3QmzYtTh4ljtMhVf6SyBHzHos&amp;_nc_zt=24&amp;_nc_ht=scontent.fpia1-1.fna&amp;_nc_gid=vRL_U2ZKBaymvvYKZ_WT0Q&amp;oh=00_AfcsJG6pnA2_xyjgkk9uLiMGvjlXKsHTTm9b-2Ag9P6SkA&amp;oe=68EB0061', 'profileId': '1342212316', 'profileName': 'Renato León', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=724596703906535', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzcyNDU5NjcwMzkwNjUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183MjQ1OTY3MDM5MDY1MzU=', 'date': '2025-08-14T20:56:41.000Z', 'text': 'Escogieron al mejor para su comercial. Grande Lokifanaticos Lokillo F Perros criollos humor', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/554283196_10230277462144097_3300535628429397527_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OJqv85jEKGkQ7kNvwFx91ih&amp;_nc_oc=Adls4osrC5NBuPc3meesFxlRygv76_01u7WaBR7V2SKewKW48evNvHo8-gXwR9jm7vE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=o4GEN6-BALD_5rYF1lYBuA&amp;oh=00_AffOglyZnjgA7vDk5CPICM39MdImzYTpUbwrxlE_IQ2wEA&amp;oe=68EC51E1', 'profileId': '1342212316', 'profileName': 'Renato León', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1738780296998401', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE3Mzg3ODAyOTY5OTg0MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNzM4NzgwMjk2OTk4NDAx', 'date': '2025-09-12T16:22:39.000Z', 'text': 'Pura mentira, es para q consuman mas productos alpina ya q han bajado mucho la calidad y la gente ha dejado d tomarlos comerlos, lo digo por experiencia propia .', 'profilePicture': 'https://scontent.ftol2-1.fna.fbcdn.net/v/t39.30808-1/431823540_10163331879484097_7233140630272241717_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=a2p_NyTGfoEQ7kNvwG0yVzW&amp;_nc_oc=Adl5Y22t83Bk9AW-x1DUq-vAsiV1ISPSLKEsTH1OgZqqIjsobT7Knrc8y6dSSXIxilw&amp;_nc_zt=24&amp;_nc_ht=scontent.ftol2-1.fna&amp;_nc_gid=aI-mdLD7DB9Nj7LAa3tMKQ&amp;oh=00_Afcd8lKrSfCHGf9uqwMrduBbnlL5qDQ3y9dBgiH5Oo2azw&amp;oe=68EAE705', 'profileId': '591499096', 'profileName': 'Ustaris Cindy', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1738780296998401', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE3Mzg3ODAyOTY5OTg0MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xNzM4NzgwMjk2OTk4NDAx', 'date': '2025-09-12T16:22:39.000Z', 'text': 'Pura mentira, es para q consuman mas productos alpina ya q han bajado mucho la calidad y la gente ha dejado d tomarlos comerlos, lo digo por experiencia propia .', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/431823540_10163331879484097_7233140630272241717_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=a2p_NyTGfoEQ7kNvwHBkZJ9&amp;_nc_oc=AdkDgiu3lGqjE3SAl22Ojs2ZrH4X4QK-PhshOIf7g3_YX-U9aKrqmi3Uh4wNTbWbkMw&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=KVeDudsQiiRiTt4xK2nbhQ&amp;oh=00_AfdtGWhYa_zH8yfNlJjtloF27p6tEkC3EoXioBvk8mAfKQ&amp;oe=68EC3885', 'profileId': '591499096', 'profileName': 'Ustaris Cindy', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10915,7 +10915,7 @@
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1865717550724154', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE4NjU3MTc1NTA3MjQxNTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xODY1NzE3NTUwNzI0MTU0', 'date': '2025-09-11T02:00:43.000Z', 'text': 'Se tiraron ese producto. contratando. Para la publicidad  a este bobo hpta que se cree muy gracioso. Burlándose del defecto. fisico de las personas. Así  se debe burlar de los que consumen dichos. productos. prefiero tomar agua. que comprar un producto recomendado por este hijo de mala madre. y le mando un madrazo para cada vez que se burle de los defectos de las personas. Sobre todo los que presentan.  Labio leporino.', 'profileUrl': 'https://www.facebook.com/orlando.martinezpinzon', 'profilePicture': 'https://scontent.ftol2-1.fna.fbcdn.net/v/t39.30808-1/471583647_8957673610982590_7959540666962251375_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=b8dyCKC0YeUQ7kNvwGNF2dH&amp;_nc_oc=AdkM2zB7j_BInArjuBAczrzpegxcOmHEqQGqPoXPEICujQU7XdON3eXBWx74yhyVUas&amp;_nc_zt=24&amp;_nc_ht=scontent.ftol2-1.fna&amp;_nc_gid=aI-mdLD7DB9Nj7LAa3tMKQ&amp;oh=00_AfdGp2uB29meTRCfMxbQ6KeKAMxqfjW7whEyBUbPEhKuWQ&amp;oe=68EAF584', 'profileId': '100002201208765', 'profileName': 'Orlando Martinez Pinzon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1865717550724154', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzE4NjU3MTc1NTA3MjQxNTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xODY1NzE3NTUwNzI0MTU0', 'date': '2025-09-11T02:00:43.000Z', 'text': 'Se tiraron ese producto. contratando. Para la publicidad  a este bobo hpta que se cree muy gracioso. Burlándose del defecto. fisico de las personas. Así  se debe burlar de los que consumen dichos. productos. prefiero tomar agua. que comprar un producto recomendado por este hijo de mala madre. y le mando un madrazo para cada vez que se burle de los defectos de las personas. Sobre todo los que presentan.  Labio leporino.', 'profileUrl': 'https://www.facebook.com/orlando.martinezpinzon', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/471583647_8957673610982590_7959540666962251375_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bC2s7wVPknwQ7kNvwGDthMh&amp;_nc_oc=Adl0I3b1uIfRHanq4Fetj1iBkGTa2GWhk9Tzrs0HcmXNKaLVyHTeeQdmwqSdwz_qLJ8&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=KVeDudsQiiRiTt4xK2nbhQ&amp;oh=00_AfdO0nyR75wE3YaujnXJJP5XaCSlLXl_GmzrnPoHjIP-RQ&amp;oe=68EC4704', 'profileId': '100002201208765', 'profileName': 'Orlando Martinez Pinzon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1162156705793834', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExNjIxNTY3MDU3OTM4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTYyMTU2NzA1NzkzODM0', 'date': '2025-09-09T01:16:48.000Z', 'text': 'Eso es solo para que compren 🤦🏼\u200d♀️ y la gente cae como pendeja  🤦🏼\u200d♀️', 'profileUrl': 'https://www.facebook.com/milu.car.2025', 'profilePicture': 'https://scontent.ftol2-1.fna.fbcdn.net/v/t39.30808-1/521948708_1205510488012858_5959259398121625391_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CxF5awxlR6UQ7kNvwFggLeC&amp;_nc_oc=AdnfiPwDmD6thssv36H-TdrVNr6aiz20jQphmX3IOsvbGDdqUXJO-mMM-V7uz84MJQw&amp;_nc_zt=24&amp;_nc_ht=scontent.ftol2-1.fna&amp;_nc_gid=aI-mdLD7DB9Nj7LAa3tMKQ&amp;oh=00_AfdqnY9QFyu9r__dytxblA_d5aKGcDedK4gItsdD8FvXmg&amp;oe=68EB06F7', 'profileId': 'pfbid03249KQ3c6hQ1CvX86jsrXERJSAKCmdj1jfYr4ubfZBVcyyMmS78XKj1m379rfimJLl', 'profileName': 'Milú Car', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=1162156705793834', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzExNjIxNTY3MDU3OTM4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18xMTYyMTU2NzA1NzkzODM0', 'date': '2025-09-09T01:16:48.000Z', 'text': 'Eso es solo para que compren 🤦🏼\u200d♀️ y la gente cae como pendeja  🤦🏼\u200d♀️', 'profileUrl': 'https://www.facebook.com/milu.car.2025', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/521948708_1205510488012858_5959259398121625391_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NDgQVrIiOsoQ7kNvwF4TF5F&amp;_nc_oc=AdlAat_yGMq7WOBZCU0J4PevqTmSEdljZJNivJ48fiMcm0dyUH8RV2Dkmk-amW2sM2c&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=KVeDudsQiiRiTt4xK2nbhQ&amp;oh=00_Aff72D3tcwH3p6UbEweyLWwpz6HJnK8hyGuyvywEhyfuvg&amp;oe=68EC5877', 'profileId': 'pfbid0x2YbvEQY2SVNJ2QUHCs9K7p4mqMaTCMxvRGCjchwGR3YNCJ6ctz7S2ruQCg9kBR9l', 'profileName': 'Milú Car', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -11026,7 +11026,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=788590320222935', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzc4ODU5MDMyMDIyMjkzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183ODg1OTAzMjAyMjI5MzU=', 'date': '2025-09-12T15:04:09.000Z', 'text': 'Yo lo mismo un monton pero solo sle gana \nY de vez en cuando bono\nPero ninca sale la otra \nEs una perdida . Ea mentira', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent.ftol2-1.fna.fbcdn.net/v/t39.30808-6/546378274_122139003284817828_5962940374141215323_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=NT86HxPXfMMQ7kNvwEtRArR&amp;_nc_oc=AdlMWoMkYN1nR-WInpZZFcNC7qBP1eBW7dkfYihsytS8itN_prP_l6gQEtHOI10qTiA&amp;_nc_zt=23&amp;_nc_ht=scontent.ftol2-1.fna&amp;_nc_gid=aI-mdLD7DB9Nj7LAa3tMKQ&amp;oh=00_AfdzuWbz8IP95KiIpCJotJQMNmYcakf0CP8XRGgYr16Vvw&amp;oe=68EAE4A6'}, 'id': '122139003278817828', 'cix_screen': None, 'massive_image': {'width': 540, 'height': 960}, 'image': {'uri': 'https://scontent.ftol2-1.fna.fbcdn.net/v/t39.30808-6/546378274_122139003284817828_5962940374141215323_n.jpg?stp=dst-jpg_p118x90_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=NT86HxPXfMMQ7kNvwEtRArR&amp;_nc_oc=AdlMWoMkYN1nR-WInpZZFcNC7qBP1eBW7dkfYihsytS8itN_prP_l6gQEtHOI10qTiA&amp;_nc_zt=23&amp;_nc_ht=scontent.ftol2-1.fna&amp;_nc_gid=aI-mdLD7DB9Nj7LAa3tMKQ&amp;oh=00_AfeqWiqHU4PcwNIAx7iEeUNLd1YDPUCcC21aA6zAQh5kQw&amp;oe=68EAE4A6', 'width': 118, 'height': 210}, 'ocrText': 'May be an image of hat and text'}], 'profileUrl': 'https://www.facebook.com/people/Jair-Steven-Aguilar-Parra/pfbid0mpBviVSksU7vQ9JjjTuZ4xvwRBhe8mANy2VpTKb1EPZo2dJkqWbznMHKJCAoA4Lkl/', 'profilePicture': 'https://scontent.ftol2-1.fna.fbcdn.net/v/t39.30808-1/484902614_122093909294817828_3569101749663849690_n.jpg?stp=c0.26.335.335a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Gl4coOK4LN0Q7kNvwG31jKO&amp;_nc_oc=AdlRlraHr8i8wK60o-NGc1xNbGnjcZxz97r37ub3grCLIjaBWH3KXjZGhl89aE6Q3Ss&amp;_nc_zt=24&amp;_nc_ht=scontent.ftol2-1.fna&amp;_nc_gid=aI-mdLD7DB9Nj7LAa3tMKQ&amp;oh=00_AfeTj8labVJF4e2BtpH-psyWWCP-rcsKSuiGUfD2ZHkDlw&amp;oe=68EB052C', 'profileId': 'pfbid0mpBviVSksU7vQ9JjjTuZ4xvwRBhe8mANy2VpTKb1EPZo2dJkqWbznMHKJCAoA4Lkl', 'profileName': 'Jair Steven Aguilar Parra', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=788590320222935', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzc4ODU5MDMyMDIyMjkzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M183ODg1OTAzMjAyMjI5MzU=', 'date': '2025-09-12T15:04:09.000Z', 'text': 'Yo lo mismo un monton pero solo sle gana \nY de vez en cuando bono\nPero ninca sale la otra \nEs una perdida . Ea mentira', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-6/546378274_122139003284817828_5962940374141215323_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=NLHGPR4UMW0Q7kNvwFYQDoU&amp;_nc_oc=Adnkn-9RYwwgUhW_zOyfneFRH7f3NDlalUdJhrVvmJuoRfhdLW0vV0KjasStlgCiTMI&amp;_nc_zt=23&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=KVeDudsQiiRiTt4xK2nbhQ&amp;oh=00_AfdAs8bdyxxYJo4B9hKrU9L_yoL0pQrYNbXMwJ6fs8VTww&amp;oe=68EC3626'}, 'id': '122139003278817828', 'cix_screen': None, 'massive_image': {'width': 540, 'height': 960}, 'image': {'uri': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-6/546378274_122139003284817828_5962940374141215323_n.jpg?stp=dst-jpg_p118x90_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=NLHGPR4UMW0Q7kNvwFYQDoU&amp;_nc_oc=Adnkn-9RYwwgUhW_zOyfneFRH7f3NDlalUdJhrVvmJuoRfhdLW0vV0KjasStlgCiTMI&amp;_nc_zt=23&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=KVeDudsQiiRiTt4xK2nbhQ&amp;oh=00_AfccYsWyqkVZWNGGq7l21S1bvpKUPVMo3ad8zcu6tE1ucg&amp;oe=68EC3626', 'width': 118, 'height': 210}, 'ocrText': 'May be an image of hat and text'}], 'profileUrl': 'https://www.facebook.com/people/Jair-Steven-Aguilar-Parra/pfbid02qBg7LWoNu1cDiT6sVk2bsoY5bxBurfX2aW74ZPfYpgGcYMtHnQXGEVVNvpjvEeVhl/', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/484902614_122093909294817828_3569101749663849690_n.jpg?stp=c0.26.335.335a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BNDsPII9XjcQ7kNvwEaxQEP&amp;_nc_oc=AdnQaHy9OCEIlnhKq9_gBkCffwhLzkuxWfJmIurK7i5imaF0avP6MYCXPyggjH5C1W8&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=KVeDudsQiiRiTt4xK2nbhQ&amp;oh=00_AffJ5MpSlgGLBQZl5lqNP38vGDgWpqCl23GHMZe7biwF_Q&amp;oe=68EC56AC', 'profileId': 'pfbid02qBg7LWoNu1cDiT6sVk2bsoY5bxBurfX2aW74ZPfYpgGcYMtHnQXGEVVNvpjvEeVhl', 'profileName': 'Jair Steven Aguilar Parra', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -11080,7 +11080,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2194857641013662', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIxOTQ4NTc2NDEwMTM2NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMTk0ODU3NjQxMDEzNjYy', 'date': '2025-08-24T19:15:27.000Z', 'text': 'Los ojos se separan por el non yurt o el actor ya vino así?', 'profileUrl': 'https://www.facebook.com/djjervisbritto', 'profilePicture': 'https://scontent.ftol2-1.fna.fbcdn.net/v/t39.30808-1/512308568_3588568117941161_4318364993899148592_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WRhQeMu8eoYQ7kNvwGN4RWr&amp;_nc_oc=AdlEAZ4QrIRRC3LmLyUU2rop0NWpsPRGfMcHLrRauM6NIhRSys7AtPkvKfWl99eIi_c&amp;_nc_zt=24&amp;_nc_ht=scontent.ftol2-1.fna&amp;_nc_gid=aI-mdLD7DB9Nj7LAa3tMKQ&amp;oh=00_AfePnOWUkL6OTRf3kn-qoYwmlN198LuKhXw_TkBaoHbjWA&amp;oe=68EAEEE1', 'profileId': 'pfbid03M4gwX9pRWQEwzheK29jv3vJoNRBKitjtX7YWoRABz8JsKUAHX5BhGFQkAaprFWzl', 'profileName': 'Ricardo Brito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/759703363667253/?comment_id=2194857641013662', 'id': 'Y29tbWVudDoxMTcwMzk4ODI1MTI1ODYzXzIxOTQ4NTc2NDEwMTM2NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTE3MDM5ODgyNTEyNTg2M18yMTk0ODU3NjQxMDEzNjYy', 'date': '2025-08-24T19:15:27.000Z', 'text': 'Los ojos se separan por el non yurt o el actor ya vino así?', 'profileUrl': 'https://www.facebook.com/djjervisbritto', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/512308568_3588568117941161_4318364993899148592_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CIHyAcTMIigQ7kNvwGyaVan&amp;_nc_oc=Adk8sQ3Q0kM_t1IF0Whdz3y9uKCfq-TcXs2d_GpJUUi8iwGoBEeavVH88LbjQQOizcE&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=KVeDudsQiiRiTt4xK2nbhQ&amp;oh=00_Afe4al3bvOkyXKItMgB2qOoMwKO1BbU1Snm03x3CcD8iGQ&amp;oe=68EC4061', 'profileId': 'pfbid026iYsZYWST4F9gNwcXFgnyCMp9u4UrGeVn1mUVfZnRLZWxXNeyKwRXrfvemcw5sAql', 'profileName': 'Ricardo Brito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1170398825125863', 'postTitle': 'Conoce cómo aquí.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1170398131792599/'}</t>
         </is>
       </c>
     </row>
@@ -11134,7 +11134,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1479443956593294', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE0Nzk0NDM5NTY1OTMyOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNDc5NDQzOTU2NTkzMjk0', 'date': '2025-09-03T16:04:16.000Z', 'text': 'Amén amén', 'profileUrl': 'https://www.facebook.com/enilda.contreraabila', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/320334293_706107167751774_4352346114311114242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ioB34NggsJgQ7kNvwGTvRXa&amp;_nc_oc=AdnLhSBKkyBRMk8GktXXQ9dwveecyJGUcuezeFXtLfiMANWK2_2M1MGcsEvsAxXCyZw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=0YmV-lii7yF5JR604TDY7g&amp;oh=00_AfeXUBgzfllPyZ5fyYUHd9-nCtfpeVY4iaR3RCAmrE3AbQ&amp;oe=68EB0435', 'profileId': 'pfbid02uVf39BkQ6ehdJYeaWGcBMutzNq8gjAWihzrnPnyM6wBYAxsTfYzcV4qE8uU2jXYEl', 'profileName': 'Enilda Contrera Abila', 'likesCount': '12', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1479443956593294', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE0Nzk0NDM5NTY1OTMyOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNDc5NDQzOTU2NTkzMjk0', 'date': '2025-09-03T16:04:16.000Z', 'text': 'Amén amén', 'profileUrl': 'https://www.facebook.com/enilda.contreraabila', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/320334293_706107167751774_4352346114311114242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ioB34NggsJgQ7kNvwHHU3WR&amp;_nc_oc=AdlG9JBEuZSHNR930_aH-en6rJCXJFTZGDuxd9aWDlMl6ZmHQsOz3QEJVr6KOrBJJ2A&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=J37q1a3NVoXgJBZ4JQfrfQ&amp;oh=00_AferKisAtmLAQP_Y2_Vo-cVXk5KAF1UvtvQnQQq8Zx8qdA&amp;oe=68EC55B5', 'profileId': 'pfbid0qx1rE283FQ8GCqcTxY9qsnSuaNMrZMMNy4jHweGy5YkwPhphF27Fdc3nVVnyv4SDl', 'profileName': 'Enilda Contrera Abila', 'likesCount': '12', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11188,7 +11188,7 @@
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1361749818858014', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEzNjE3NDk4MTg4NTgwMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMzYxNzQ5ODE4ODU4MDE0', 'date': '2025-10-01T04:19:27.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/diana.ortiz.580945', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwEqH9N9&amp;_nc_oc=Admu9_J5Uv-n06X67HC1r-UAUnMCK-NLD6FbN53COmL6xGItG0VaB-SbnzE1EZcsNrg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AffnRKA0T5gbS1wfyMhopaJ8zxHqknKPsCNjfoyaoAfi3w&amp;oe=690C9A7A', 'profileId': 'pfbid0XLUNLBHedxGRg2kihtZWmw2Yvdyiyz9CtfZpqVF7er83NToYYFdRwqd7zrTFKA6dl', 'profileName': 'Diana Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1361749818858014', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEzNjE3NDk4MTg4NTgwMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMzYxNzQ5ODE4ODU4MDE0', 'date': '2025-10-01T04:19:27.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/diana.ortiz.580945', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwGyqUe5&amp;_nc_oc=AdnqdViazSkyqDDXhDEycTdt5uhgotca-nDrSj-6z4QyA-FNtshqpycF-WI1faidMHA&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;oh=00_AfcI32s3WgLvUR0LU36SBB2278guruydhG_CtwcXXJzO_A&amp;oe=690DEBFA', 'profileId': 'pfbid02ahxYxCeGfZeDRQM9Pp1aJYjy4q4wy7QAVHKfdBwBtnnC7X27CEJ8xuX86BE8RUVDl', 'profileName': 'Diana Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11242,7 +11242,7 @@
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1072997844663993', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEwNzI5OTc4NDQ2NjM5OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMDcyOTk3ODQ0NjYzOTkz', 'date': '2025-09-21T08:22:54.000Z', 'text': 'Gracias dios y arcangel Rafael Amén amén', 'profileUrl': 'https://www.facebook.com/pablo.villarraga.50', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/469860495_1775218256623732_391467092699990466_n.jpg?stp=c0.120.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hf_fz3jdDiUQ7kNvwElqn2n&amp;_nc_oc=AdkHDXaLVxRHrHZoiq33rDBqSK3FXNXhLx9fgGAY_agQsEJtMbuxorprAY9PttPDo3c&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=0YmV-lii7yF5JR604TDY7g&amp;oh=00_Affgz-axxJ8sT_qAzGtHARXhpT0fTCLafQ5vQUUoJR8AFQ&amp;oe=68EAE32B', 'profileId': '100024067236246', 'profileName': 'Pablo Villarraga', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1072997844663993', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEwNzI5OTc4NDQ2NjM5OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMDcyOTk3ODQ0NjYzOTkz', 'date': '2025-09-21T08:22:54.000Z', 'text': 'Gracias dios y arcangel Rafael Amén amén', 'profileUrl': 'https://www.facebook.com/pablo.villarraga.50', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/469860495_1775218256623732_391467092699990466_n.jpg?stp=c0.120.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=O-_361OASFIQ7kNvwFWaijB&amp;_nc_oc=AdkZEUDX_toh6cd-Pv5heebDj5-p56aVQhfpPk4P_1f6YwbE2RWSJ2aXgKCgtHbfS18&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=J37q1a3NVoXgJBZ4JQfrfQ&amp;oh=00_AfcblRuCCs4ZJnq-BS3XJpOpnwi3oPJ5HIfkyJtDxYTNlw&amp;oe=68EC34AB', 'profileId': '100024067236246', 'profileName': 'Pablo Villarraga', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11296,7 +11296,7 @@
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1878598552699217', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE4Nzg1OTg1NTI2OTkyMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xODc4NTk4NTUyNjk5MjE3', 'date': '2025-09-15T11:28:56.000Z', 'text': 'Yo me gane ese Bono ya me salio regalo estrella y wingo', 'profileUrl': 'https://www.facebook.com/martinalonso.mendezcardenas', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/503389173_9914115415336433_7580075318209485435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3eAy4ql1yDEQ7kNvwHiM3fJ&amp;_nc_oc=AdltMNrPWRIRtRcmG0DT2i3SvuGcqj6JpkPVCQziMNTLhCz7bPI6Nh9TkLMhhanUvSo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=0YmV-lii7yF5JR604TDY7g&amp;oh=00_Afcz_y6LoigyN2XjkCgI5VTcrmJk-5yLwWaWL9llurSVtA&amp;oe=68EB01B7', 'profileId': 'pfbid02RPNHCXRfZFNc29zzE3rNxs8WzK7QqwBNWk1tPVN7vbNYaisVwqNZqDBYqU9LrKYbl', 'profileName': 'Martin Alonso Mendez Cardenas', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1878598552699217', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE4Nzg1OTg1NTI2OTkyMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xODc4NTk4NTUyNjk5MjE3', 'date': '2025-09-15T11:28:56.000Z', 'text': 'Yo me gane ese Bono ya me salio regalo estrella y wingo', 'profileUrl': 'https://www.facebook.com/martinalonso.mendezcardenas', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/503389173_9914115415336433_7580075318209485435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3eAy4ql1yDEQ7kNvwGWQ5kv&amp;_nc_oc=Adl_T7vEtlEg9mm3ib50xnfdErIohemuFgwWYepdnaWRULHYJb4QEyAO8RIlgLAEgH0&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=J37q1a3NVoXgJBZ4JQfrfQ&amp;oh=00_Afe8KlnOeA9sDxG0mZ0FH-trjOd_cNxA-vCM4e2wPVw3sA&amp;oe=68EC5337', 'profileId': 'pfbid0MMmZiiE6tE9o2yNaHmnD4FGZLZwjs5NtRmsbKWqghBhsCqweNeoWDfrjMjNU7ij8l', 'profileName': 'Martin Alonso Mendez Cardenas', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=806181935401797', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzgwNjE4MTkzNTQwMTc5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV84MDYxODE5MzU0MDE3OTc=', 'date': '2025-08-30T03:33:29.000Z', 'text': 'Siiiiii', 'profileUrl': 'https://www.facebook.com/gertru.galeano', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/453241156_1946689299112578_5603295884914557993_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zmahgZB2jY4Q7kNvwGeeW5f&amp;_nc_oc=Adm7e_6AqekFqBhXGHYZVhG2mNpNnq8KF46_z8TwnAzVHUIkOFlcivnK8N8Q16pNd4g&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=0YmV-lii7yF5JR604TDY7g&amp;oh=00_AfcptTVXTMTIKz_NQHPNn5KnBTjWek1YjAeBh9n47QjIGg&amp;oe=68EB055A', 'profileId': 'pfbid0BE7HQvMjVPVLKK1D8kPQ3Ym3VTmdQJXHHug6sfhjABemuswNTydmHs4ggRSw8T5Ml', 'profileName': 'Gertru Galeano', 'likesCount': '12', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=806181935401797', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzgwNjE4MTkzNTQwMTc5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV84MDYxODE5MzU0MDE3OTc=', 'date': '2025-08-30T03:33:29.000Z', 'text': 'Siiiiii', 'profileUrl': 'https://www.facebook.com/gertru.galeano', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/453241156_1946689299112578_5603295884914557993_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zmahgZB2jY4Q7kNvwG_l5Vp&amp;_nc_oc=Adlo6V1wIG85Zk8cUC13sOAqxLY7nYNrrMYTUrDRKqQZkr4D7mxY34t74gnnby-NpBQ&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=J37q1a3NVoXgJBZ4JQfrfQ&amp;oh=00_AfefpDgagtACpG3a9lqpTYp_9tQLZYU0HfMq_jc42urJ8A&amp;oe=68EC56DA', 'profileId': 'pfbid02F5YzbbHZLkehsa9bsaiEJhVt7offpoM32c7gdQdhs7DR6pWtWdCB4neMHES4zZVyl', 'profileName': 'Gertru Galeano', 'likesCount': '12', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11404,7 +11404,7 @@
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1055018476707485', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEwNTUwMTg0NzY3MDc0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMDU1MDE4NDc2NzA3NDg1', 'date': '2025-09-04T23:55:33.000Z', 'text': 'Dios nos regala el no pide nada.. solo que hagamos su voluntad.. por favor Dios nos ama y no pide nada a nadie. .', 'profileUrl': 'https://www.facebook.com/yohana.renjifoaguilar', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/281727795_4485156771586830_184429928610834186_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jPk7_5329zkQ7kNvwHzGAoX&amp;_nc_oc=AdlpWwj_8CpD6rFx_wMSyf1ImhgrQ5Es0M89PNCO096v3LPVioP3J6AsJn4wHYEBIuA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=0YmV-lii7yF5JR604TDY7g&amp;oh=00_AfdDvdxXpUw5Wp6Gxgw60Y1gNEK3Z8HvZC3jijjriwzLow&amp;oe=68EAEC63', 'profileId': 'pfbid0ijJZ7kq23MvcBwbFAPgCGfktceaY7V8Ls7tERkaPutDkeynW9UdvBqpYJJLccWi8l', 'profileName': 'Yohana Renjifo Aguilar', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1055018476707485', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEwNTUwMTg0NzY3MDc0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMDU1MDE4NDc2NzA3NDg1', 'date': '2025-09-04T23:55:33.000Z', 'text': 'Dios nos regala el no pide nada.. solo que hagamos su voluntad.. por favor Dios nos ama y no pide nada a nadie. .', 'profileUrl': 'https://www.facebook.com/yohana.renjifoaguilar', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/281727795_4485156771586830_184429928610834186_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jPk7_5329zkQ7kNvwEWvO2y&amp;_nc_oc=AdlVfKcW0j8_0QJ5RtohQ8U6oYJS-calvM_fb9e4xViwILrkH7e4Pcm-xq6d5CS2V9E&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=J37q1a3NVoXgJBZ4JQfrfQ&amp;oh=00_AfckqYNceMyOrnqdnMHdK0UPmNgQtrLXQsfRc90EOK4K4A&amp;oe=68EC3DE3', 'profileId': 'pfbid02nakGJRkqtkBnPhaJhD4FvhuA76eEvwmWSpSaE4eqHC8FfkrH2VnLPfyseBNiobA5l', 'profileName': 'Yohana Renjifo Aguilar', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11458,7 +11458,7 @@
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1528139415219424', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MjgxMzk0MTUyMTk0MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTI4MTM5NDE1MjE5NDI0', 'date': '2025-09-13T02:58:13.000Z', 'text': 'Son muideliciosos', 'profileUrl': 'https://www.facebook.com/doris.lopez.695120', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/494498201_122185371560304162_1114354951070197205_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sBhr22zhG7wQ7kNvwGziteI&amp;_nc_oc=Admn0yZsOvW4N5h9TlwnTwhF32O2-ma-WDGaiEuBS8BWkiKnDOLme1rRG3FVt62g1eg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=0YmV-lii7yF5JR604TDY7g&amp;oh=00_AfekKFCQr2DyecRqYemoBoCDnto2Ue8v4Zb-iomREsBUfA&amp;oe=68EAEF97', 'profileId': 'pfbid0juLn3FfiFiqo2uSMY7Cb957Lfebk2wXtuAYCSV3R5F3iAJAEwC93df5yzsMiRMftl', 'profileName': 'Doris Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1528139415219424', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MjgxMzk0MTUyMTk0MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTI4MTM5NDE1MjE5NDI0', 'date': '2025-09-13T02:58:13.000Z', 'text': 'Son muideliciosos', 'profileUrl': 'https://www.facebook.com/doris.lopez.695120', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/494498201_122185371560304162_1114354951070197205_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sBhr22zhG7wQ7kNvwHlEBjc&amp;_nc_oc=Admpi3NhsJlYKJ7_YMsPG7nc9v0KbvcgEBUTRT6kdPYp9oalQmoC0vrZXA6YzjyQEBw&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=J37q1a3NVoXgJBZ4JQfrfQ&amp;oh=00_AffbUq3ASwl7Y4zI4TfVrj6A39vjNDDDJujN2Ajv_CEFDA&amp;oe=68EC4117', 'profileId': 'pfbid02oknVDvbY7CNTrYobHTcD7rXahCWD5MDR67syFyWd3MRoSj2SxgMLEysqbn6vHTmYl', 'profileName': 'Doris Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11512,7 +11512,7 @@
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1501093894398836', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MDEwOTM4OTQzOTg4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTAxMDkzODk0Mzk4ODM2', 'date': '2025-09-08T13:14:02.000Z', 'text': 'Patras .como.el.cangrejo.paralebola', 'profileUrl': 'https://www.facebook.com/margarita.chalacienfuegos', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/473176318_1757395085083325_975802289531587094_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YaHdUOvFT6cQ7kNvwGrjIpg&amp;_nc_oc=AdmDVbo41ybiJD96-v6Mx5PDCToXLpMPtnzFH9DjJkSk8qgP1aMWRqfSwfmSh5ZJlkY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=0YmV-lii7yF5JR604TDY7g&amp;oh=00_AffrWA8OPWNsqJL1FDvpKYR5mN3KU4TZCvMoqpkaAbMQPA&amp;oe=68EAD940', 'profileId': 'pfbid02nhBxT9eSpwYabxYqt99CyScFX6SLftBLmatDpmndSuFD6G4H8qqkxK3dCjDKZ6Q6l', 'profileName': 'Margarita Chala Cienfuegos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1501093894398836', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MDEwOTM4OTQzOTg4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTAxMDkzODk0Mzk4ODM2', 'date': '2025-09-08T13:14:02.000Z', 'text': 'Patras .como.el.cangrejo.paralebola', 'profileUrl': 'https://www.facebook.com/margarita.chalacienfuegos', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/473176318_1757395085083325_975802289531587094_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YaHdUOvFT6cQ7kNvwE5cLJN&amp;_nc_oc=Adnx22Sz2dNbp0oXbS43eBB-0p5mcCpFEWsW41XvmL5goqrU6ASAlqdNAXwdVdXI03A&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=J37q1a3NVoXgJBZ4JQfrfQ&amp;oh=00_AffuEZa7YeicZoxSfF5lJwOuh1u9lkBgJm9NUBp4rg9RLA&amp;oe=68EC2AC0', 'profileId': 'pfbid0j9YmXz25ykzU4ahEnBtbjXxzgQE8Xss7eoCE5uz2yWHYyGAEsVwuRPJqcZFCUnoyl', 'profileName': 'Margarita Chala Cienfuegos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11566,7 +11566,7 @@
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1715400812448302', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE3MTU0MDA4MTI0NDgzMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNzE1NDAwODEyNDQ4MzAy', 'date': '2025-09-13T10:48:54.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gildardo.bermudez.965', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/495937811_1631906188199890_2167358861022892213_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HwnHImGY6UMQ7kNvwGcDWzy&amp;_nc_oc=AdkTEqbbMtSPMEPMC8S81p4EzK5IGP-EnHF5ddeuJMy_Dl9wV26rxsg5WAT9uagbgeE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=0YmV-lii7yF5JR604TDY7g&amp;oh=00_AfevdQfmjIvXPE6UHpV0xLrJF4YZ6idqAo0X2VJc9WU5yg&amp;oe=68EB04CD', 'profileId': 'pfbid02q1JLY2Tgryf4yjNKr8bXnhxC6ZS3cAZ4J8tMZaoXsLYeKPVEVP5VTS6JRV8Yzaghl', 'profileName': 'Gildardo Bermudez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1715400812448302', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE3MTU0MDA4MTI0NDgzMDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNzE1NDAwODEyNDQ4MzAy', 'date': '2025-09-13T10:48:54.000Z', 'text': 'Mmm', 'profileUrl': 'https://www.facebook.com/gildardo.bermudez.965', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/495937811_1631906188199890_2167358861022892213_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t5eYDLkLC4wQ7kNvwH0SEdu&amp;_nc_oc=Adm-d039KZ4JJR8D3oQNnSMEChVCuwfMxnQci_tOJ9o_2tn_K2HRgnv0WvN-RedhlNo&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=J37q1a3NVoXgJBZ4JQfrfQ&amp;oh=00_AfcH-Qu3OGokI0SP1GsXp7buF9rTIdxMgjBd4qxpxZZrmQ&amp;oe=68EC564D', 'profileId': 'pfbid0kyhd4DG8C4hm85GUFa9XkvyEbB19WfuwkAyDKAYkptZY5RhL33uvniEy1bmNARxkl', 'profileName': 'Gildardo Bermudez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11620,7 +11620,7 @@
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1142732064394671', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzExNDI3MzIwNjQzOTQ2NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMTQyNzMyMDY0Mzk0Njcx', 'date': '2025-09-05T19:49:56.000Z', 'text': 'La toalla envíame los 200 mil', 'profileUrl': 'https://www.facebook.com/angela.gallegoobando', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/117821250_3121258741322603_8388127109224866_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fOLGY15v1W0Q7kNvwGzkyhY&amp;_nc_oc=Adlg6rkzHhc28oWI7k5pFgNHkvudgKGyFpDFGHs0iXz-iKfOM9a1JmS4Kwwko9JXnKY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=0YmV-lii7yF5JR604TDY7g&amp;oh=00_AfdsJwOAUy9xi00Qk5SpWRgQgCjzW0QfE3TqJ5P4OoNVgQ&amp;oe=690C8108', 'profileId': 'pfbid02sNo5VBfwgWKRhGn4Ww6nmktRFJqP7M1zPvHcJf678nj3MxqfFHxt9ePHnRym6oF8l', 'profileName': 'Angela Gallego Obando', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1142732064394671', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzExNDI3MzIwNjQzOTQ2NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMTQyNzMyMDY0Mzk0Njcx', 'date': '2025-09-05T19:49:56.000Z', 'text': 'La toalla envíame los 200 mil', 'profileUrl': 'https://www.facebook.com/angela.gallegoobando', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/117821250_3121258741322603_8388127109224866_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DlnM9Vq3tVgQ7kNvwF2mJt_&amp;_nc_oc=AdksX3vcTdCDduB2SsIyDSBz1pjtLeJ9_d1ioDhyrXT-ux_UWKbpttUlFNxruLBlKUg&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=J37q1a3NVoXgJBZ4JQfrfQ&amp;oh=00_Afcl_BBN_gdhNpXarhn5ckyqGR4rr8A7WEsmgi_zvKX3rQ&amp;oe=690DD288', 'profileId': 'pfbid0oMCN1NUP1beoTwMqfa9wHwoc3KRiDrEJ9gycBHPyWavBknukr8UHP51HJ4R7hoBjl', 'profileName': 'Angela Gallego Obando', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11674,7 +11674,7 @@
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=780469111188728', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzc4MDQ2OTExMTE4ODcyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV83ODA0NjkxMTExODg3Mjg=', 'date': '2025-09-05T15:12:05.000Z', 'text': 'Jungkook bb un', 'profileUrl': 'https://www.facebook.com/stella.ariza.756', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.6435-1/98366498_275984360191637_3917021177658212352_n.jpg?stp=c0.0.1216.1216a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nJ7gsRfGlAUQ7kNvwGvFLQZ&amp;_nc_oc=Adlr6TvymKHwOWevQOIvFVOD6s1NNO4O8332tLN_-5nVBbp8BL5Kh449VhbVrYJuq4w&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=XuP21JiJS7yW-afaakQa6g&amp;oh=00_Affuc8jKcGgGGserWey8_gLuP3KyiUKUv4ADP31lydU7dg&amp;oe=690CAAB0', 'profileId': 'pfbid0229w7bF9RAyd4Xw8yNbAYBuuLQawWaMrStyeE17WofcGvGVdTZ7MRQh4ihKesXfQDl', 'profileName': 'Stella Ariza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=780469111188728', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzc4MDQ2OTExMTE4ODcyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV83ODA0NjkxMTExODg3Mjg=', 'date': '2025-09-05T15:12:05.000Z', 'text': 'Jungkook bb un', 'profileUrl': 'https://www.facebook.com/stella.ariza.756', 'profilePicture': 'https://scontent.fdet3-1.fna.fbcdn.net/v/t1.6435-1/98366498_275984360191637_3917021177658212352_n.jpg?stp=c0.0.1216.1216a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tJGjK6mgBDoQ7kNvwGAgIeB&amp;_nc_oc=Admr4kz6awC0aRntbYvMEAhU6zjzdMzENssH6wvq8mEqbwV59nwoJ3rYljSiq46nReg&amp;_nc_zt=24&amp;_nc_ht=scontent.fdet3-1.fna&amp;_nc_gid=B7vrc-hm-PQFkV53LTPOZw&amp;oh=00_AfeCd77eJAF2ok4z9S8zmwB274IsC9wQNGjorwaBkNGEQA&amp;oe=690DFC30', 'profileId': 'pfbid035XRJDGW3CXyHq8mp3Qy3g6MmiVMEJNwGbWNTsy2d56bNpizRXHstHA8vEK652qwZl', 'profileName': 'Stella Ariza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11728,7 +11728,7 @@
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1512146523560802', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MTIxNDY1MjM1NjA4MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTEyMTQ2NTIzNTYwODAy', 'date': '2025-09-07T10:10:34.000Z', 'text': 'Debería agendar una cita podría perder el bisje', 'profileUrl': 'https://www.facebook.com/juan.paez.812426', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.6435-1/59811774_115047019699095_100990005572272128_n.jpg?stp=c7.0.405.405a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6-Sm3qEJNzwQ7kNvwESgm-Y&amp;_nc_oc=AdlyejS9BSVOgM3gi0_f1V6V3y8742whhPWrnwVVVuEHu68P2lsDmQFDc1MkSwoV00A&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=XuP21JiJS7yW-afaakQa6g&amp;oh=00_AfeNpgBsWgfCHSpW1jaNZv6naWKGvhpxkICOtmxYDm3VUQ&amp;oe=690C7883', 'profileId': 'pfbid0pKL5u58LWfJTahLxGbNoZf4WuL1etFtXb5UbpcFhiwjqP5Jz8gruTXaHJn3JtCc4l', 'profileName': 'Juan Paez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1512146523560802', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE1MTIxNDY1MjM1NjA4MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNTEyMTQ2NTIzNTYwODAy', 'date': '2025-09-07T10:10:34.000Z', 'text': 'Debería agendar una cita podría perder el bisje', 'profileUrl': 'https://www.facebook.com/juan.paez.812426', 'profilePicture': 'https://scontent.fdet3-1.fna.fbcdn.net/v/t1.6435-1/59811774_115047019699095_100990005572272128_n.jpg?stp=c7.0.405.405a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6-Sm3qEJNzwQ7kNvwGQZi-U&amp;_nc_oc=AdkKz6fbE3CIh4URTODPIqDRW_RmCZmkeRyd3mEdvwJV6_4DFsscvwVvuIvCRSYKGlc&amp;_nc_zt=24&amp;_nc_ht=scontent.fdet3-1.fna&amp;_nc_gid=B7vrc-hm-PQFkV53LTPOZw&amp;oh=00_AfdWvBbAAp8M5MRlnqHAtiDZMNA6RTGqzUOpSL6hW8hemA&amp;oe=690DCA03', 'profileId': 'pfbid02tAmo5k4ANBALAutvenw6PbTK6CgD53DddVxrDtgoESRfZGTjRTHJ8WUV92wT9gB9l', 'profileName': 'Juan Paez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11782,7 +11782,7 @@
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1277138447236700', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEyNzcxMzg0NDcyMzY3MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMjc3MTM4NDQ3MjM2NzAw', 'date': '2025-09-06T23:36:12.000Z', 'text': 'Chirimoya', 'profileUrl': 'https://www.facebook.com/nancy.benavidez.332', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/549382984_1521817452571260_874462812366851561_n.jpg?stp=c7.0.691.691a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JXR8a63X3V4Q7kNvwFEimow&amp;_nc_oc=AdmXDiT9VNRR32WPc_lLQu3cAgjSgSbuIzrgNvdKjqD1C9x_V1RtWwAmGsF4Pe-a6d0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=XuP21JiJS7yW-afaakQa6g&amp;oh=00_AffVjxwBYSXU5s0AcdCtnG95svhdvF6Xe6f0-oJ_rm-zkw&amp;oe=68EB0685', 'profileId': 'pfbid02hD4ULn6xVDZTiPrinatPTRGNNKyuFZrguKCbQvLyhSwT1E8gNLFva3uLX3vhmKfkl', 'profileName': 'Nancy Benavidez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1277138447236700', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEyNzcxMzg0NDcyMzY3MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMjc3MTM4NDQ3MjM2NzAw', 'date': '2025-09-06T23:36:12.000Z', 'text': 'Chirimoya', 'profileUrl': 'https://www.facebook.com/nancy.benavidez.332', 'profilePicture': 'https://scontent.fdet3-1.fna.fbcdn.net/v/t39.30808-1/549382984_1521817452571260_874462812366851561_n.jpg?stp=c7.0.691.691a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JXR8a63X3V4Q7kNvwEWuNme&amp;_nc_oc=AdkKPh2Sn7ZVNDL-vX91gYkOiYZZ75xvZ3VMdL56nO_oi-JPmEAIzvdWEbVRQK7EIWw&amp;_nc_zt=24&amp;_nc_ht=scontent.fdet3-1.fna&amp;_nc_gid=B7vrc-hm-PQFkV53LTPOZw&amp;oh=00_AfcRzMNwUV5pB8I_GA3sY0WWdnt9MXMm0LvmiUvrcFUi4Q&amp;oe=68EC5805', 'profileId': 'pfbid0dBTkrxuPp5FCpphpqV2vFPAjmXSNSjnVDNkrodYAss9avr62WL6LTfvT342Hprjfl', 'profileName': 'Nancy Benavidez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11836,7 @@
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1670948286916243', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE2NzA5NDgyODY5MTYyNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNjcwOTQ4Mjg2OTE2MjQz', 'date': '2025-09-21T02:42:18.000Z', 'text': 'Veneno', 'profileUrl': 'https://www.facebook.com/carlosalberto.gomezsuarez.9', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t1.6435-1/186036017_10159245072397760_5436949220499350174_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=GfTfaOAu_kUQ7kNvwGrsLX8&amp;_nc_oc=AdlPf7UiqII4Wdw7fokpvUVP7kv6ph7ScT1pX7K7KExFRYPssoy_h68n49IdVxv8LXk&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=XuP21JiJS7yW-afaakQa6g&amp;oh=00_Afe-jWHOBXXnWvl48e3rbl0GoOuw3ZLVk-b9Wl9dTDhlwg&amp;oe=690CA3CE', 'profileId': '791382759', 'profileName': 'Carlos Alberto Gómez Suárez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1670948286916243', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE2NzA5NDgyODY5MTYyNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNjcwOTQ4Mjg2OTE2MjQz', 'date': '2025-09-21T02:42:18.000Z', 'text': 'Veneno', 'profileUrl': 'https://www.facebook.com/carlosalberto.gomezsuarez.9', 'profilePicture': 'https://scontent.fdet3-1.fna.fbcdn.net/v/t1.6435-1/186036017_10159245072397760_5436949220499350174_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=GfTfaOAu_kUQ7kNvwFmiuj0&amp;_nc_oc=AdkA18-DLlfbIRxxUl1586uMGHbCXU_yB-igcm35oIWgxFlGXefYsWB89VabSU3hsdg&amp;_nc_zt=24&amp;_nc_ht=scontent.fdet3-1.fna&amp;_nc_gid=B7vrc-hm-PQFkV53LTPOZw&amp;oh=00_AfcaTj-iqvEkDMb7kH8IGsxjGy6VRYjOP5rY9KckaVndcA&amp;oe=690DF54E', 'profileId': '791382759', 'profileName': 'Carlos Alberto Gómez Suárez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=3761205484177010', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzM3NjEyMDU0ODQxNzcwMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8zNzYxMjA1NDg0MTc3MDEw', 'date': '2025-09-04T02:58:35.000Z', 'text': 'Hay quien fuera Rocita', 'profileUrl': 'https://www.facebook.com/anamaria.pineros.37', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwEwfne4&amp;_nc_oc=Adm82QxlCBOFRUoBYFgCBCLglT6p8TFurjNSZk23z4-5TN0q_WUhO2L37Npfa_nW_Bc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;oh=00_AfdVUjhM_C-SF8E8ux3aHF1YD1PXQeA0e9Q4E6HUV2OmAA&amp;oe=690C9A7A', 'profileId': 'pfbid088ttELqa2qZSanwR7BQUfHrbym41BLhvJRdLnzQBCjW3N1UDrKVRTWh6w3Dh75Sgl', 'profileName': 'Ana Maria Piñeros', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=3761205484177010', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzM3NjEyMDU0ODQxNzcwMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8zNzYxMjA1NDg0MTc3MDEw', 'date': '2025-09-04T02:58:35.000Z', 'text': 'Hay quien fuera Rocita', 'profileUrl': 'https://www.facebook.com/anamaria.pineros.37', 'profilePicture': 'https://scontent.fdet3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEgf5fa&amp;_nc_oc=Adnch2aJuLT4RHARETqq1J45XsD23beTFQA_osdrNaX_WcbFTuvxfqLpjo5K_mPGGOM&amp;_nc_zt=24&amp;_nc_ht=scontent.fdet3-1.fna&amp;oh=00_AfeERTv2zO-H8YeEIvEA4MemS2HWAGJqujtVA4qAoB34Yw&amp;oe=690DEBFA', 'profileId': 'pfbid02BWP4rNCC4WTdGqHth5rV8Amvn6uCcbsy7NpBAnNjFpFcCLv6AFezADT2WxJXKd5Ll', 'profileName': 'Ana Maria Piñeros', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11944,7 +11944,7 @@
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1264377514956795', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEyNjQzNzc1MTQ5NTY3OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMjY0Mzc3NTE0OTU2Nzk1', 'date': '2025-08-30T00:12:46.000Z', 'text': 'Que productos tan caro todas la empresas ya se. Pasan por esto producto 4000 un bonyurt', 'profileUrl': 'https://www.facebook.com/yinson.betancourt.56', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/492402376_1226424815761370_2825994292987965249_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=PCFC1jy-ArMQ7kNvwEcMciS&amp;_nc_oc=AdmT9d6QsHDVTbIFSsgu2crIupH14edMYJLZ2kidbDDRzv6YEpBeL3ffmJjV1Ga6N1g&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=XuP21JiJS7yW-afaakQa6g&amp;oh=00_Afdlcz1-r192S_HUvfFJgcPNFHYoiIL_MLTs4nwqqMTUug&amp;oe=68EAD82E', 'profileId': '100051815882245', 'profileName': 'Yonsi Gamer', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1264377514956795', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEyNjQzNzc1MTQ5NTY3OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMjY0Mzc3NTE0OTU2Nzk1', 'date': '2025-08-30T00:12:46.000Z', 'text': 'Que productos tan caro todas la empresas ya se. Pasan por esto producto 4000 un bonyurt', 'profileUrl': 'https://www.facebook.com/yinson.betancourt.56', 'profilePicture': 'https://scontent.fdet3-1.fna.fbcdn.net/v/t39.30808-1/492402376_1226424815761370_2825994292987965249_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=PCFC1jy-ArMQ7kNvwGrcBY0&amp;_nc_oc=Adn7COdZmxxXwHwrUXLiCY4KSPgZnOvZcOIA9Ls3NzOS2OizRi8AFkW4Q051ahd7c1Y&amp;_nc_zt=24&amp;_nc_ht=scontent.fdet3-1.fna&amp;_nc_gid=B7vrc-hm-PQFkV53LTPOZw&amp;oh=00_AfdrBVYfodATmTwLNgWCX8fzBeKOF2GM3rUB9ymglvMW_w&amp;oe=68EC29AE', 'profileId': '100051815882245', 'profileName': 'Yonsi Gamer', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -11998,7 +11998,7 @@
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1006289224862545', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEwMDYyODkyMjQ4NjI1NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMDA2Mjg5MjI0ODYyNTQ1', 'date': '2025-09-03T13:31:18.000Z', 'text': 'Uhm, no reparten ni agua. . .', 'profileUrl': 'https://www.facebook.com/ivanca.ca', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.6435-1/180186173_10225961481333432_3714690082736398764_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cz8Et9PgPDsQ7kNvwHfrZ0m&amp;_nc_oc=AdmnToJJEYvXMqYr4fMDKWl_QBMQ3bupp04XWgeEchTDZbnDQcgSgb8UcBGJy3Ub0Uc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=XuP21JiJS7yW-afaakQa6g&amp;oh=00_Afex3jJgkBptGmr42-hi99sWvQ2Wbnp10P4Ek_Q83DQo0A&amp;oe=690C81BA', 'profileId': 'pfbid02bQhBJZX778N2DwjhwVfREPKnNhZc43fYYEq3iddqhaNs2GLvoXVBghQ41xhK83TRl', 'profileName': 'Ivan Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1006289224862545', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEwMDYyODkyMjQ4NjI1NDU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMDA2Mjg5MjI0ODYyNTQ1', 'date': '2025-09-03T13:31:18.000Z', 'text': 'Uhm, no reparten ni agua. . .', 'profileUrl': 'https://www.facebook.com/ivanca.ca', 'profilePicture': 'https://scontent.fdet3-1.fna.fbcdn.net/v/t1.6435-1/180186173_10225961481333432_3714690082736398764_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cz8Et9PgPDsQ7kNvwF-fCeg&amp;_nc_oc=AdkD3BngVRwyM01v1KD03WF0aD37bxmjGzfjHuGyLEY6kiqZv5qF7ifQbGMqOkyoYZA&amp;_nc_zt=24&amp;_nc_ht=scontent.fdet3-1.fna&amp;_nc_gid=B7vrc-hm-PQFkV53LTPOZw&amp;oh=00_AfcLEkhJLmNSGj4m4amT39wtRZwXL7UOYi4dPzdkg6DABA&amp;oe=690DD33A', 'profileId': 'pfbid0XP6TpkKYSDtP6QoL2PYSQh4LgFexs5Pbw36hYqaqmDgsFW9VL9BAYhb3XABvZnWXl', 'profileName': 'Ivan Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1328886292303428', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEzMjg4ODYyOTIzMDM0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMzI4ODg2MjkyMzAzNDI4', 'date': '2025-09-21T18:09:58.000Z', 'text': 'Pero allá se fue de arrodillado', 'profileUrl': 'https://www.facebook.com/luis.gomez.561360', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/457357371_122101115276498995_3405248328064500221_n.jpg?stp=c0.0.384.384a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=s03WSAmEp7UQ7kNvwEQ51pr&amp;_nc_oc=Admn53Z4X8JyBRPE_HkGTR0dGXmKatbgWiL4GeOazqBrvMEorG-KDYf2Dob0oPUyEBY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=XuP21JiJS7yW-afaakQa6g&amp;oh=00_Afe8z57wWRmk8IeQiP7ua2joO8kdeRA-03uUyqCG4a3YbA&amp;oe=68EAF6FB', 'profileId': 'pfbid02tWYFwC2GZLe3TwFrQXgwaveGyAZmYLDSvMp6VK3TeJDb5Ve36f593RxnxFsfx6vVl', 'profileName': 'Luis Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1328886292303428', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzEzMjg4ODYyOTIzMDM0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xMzI4ODg2MjkyMzAzNDI4', 'date': '2025-09-21T18:09:58.000Z', 'text': 'Pero allá se fue de arrodillado', 'profileUrl': 'https://www.facebook.com/luis.gomez.561360', 'profilePicture': 'https://scontent.fdet3-1.fna.fbcdn.net/v/t39.30808-1/457357371_122101115276498995_3405248328064500221_n.jpg?stp=c0.0.384.384a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=s03WSAmEp7UQ7kNvwFaJ2X3&amp;_nc_oc=AdlxGbZeBgLR94MnvNkD9vAcStD07bozP2-7lw84OG9OcKp5__9wd70syGUv0ZtDZnc&amp;_nc_zt=24&amp;_nc_ht=scontent.fdet3-1.fna&amp;_nc_gid=B7vrc-hm-PQFkV53LTPOZw&amp;oh=00_Afcz7QstYseVTKJsFXW9jKq0yk-UAjcgao2D4v5tQtnLfA&amp;oe=68EC487B', 'profileId': 'pfbid0pxu522PuiDJzemCp3zsFLHYtuX6ESChs1hK8wgTfG4vJvDv3hf5ngZ88kZfvxkUpl', 'profileName': 'Luis Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -12106,7 +12106,7 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=4170668003203626', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzQxNzA2NjgwMDMyMDM2MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV80MTcwNjY4MDAzMjAzNjI2', 'date': '2025-09-07T14:09:35.000Z', 'text': 'Chirimoya', 'profileUrl': 'https://www.facebook.com/yadevic.jimenez', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/359533033_6128844193911187_2299624385370835019_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DDsyg4ekrpoQ7kNvwFaOwOO&amp;_nc_oc=Adnb39hCMTpkGPsRycQzFiQPPifzpmtzcnIbuGJyqBV-jFhVolWh66flYE2bzOg6bkc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=XuP21JiJS7yW-afaakQa6g&amp;oh=00_AffN6R8-gxxyRkfM61T3A17TcOUfxYqKavX3RrdledW6zw&amp;oe=68EB01D7', 'profileId': 'pfbid022EjnzviQBQjTUWVvv94dTwgtHHaCGJ5kh3ziVhcbygfVaYjAbJeJ4MGwRxVfN7pzl', 'profileName': 'Yarinys Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=4170668003203626', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzQxNzA2NjgwMDMyMDM2MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV80MTcwNjY4MDAzMjAzNjI2', 'date': '2025-09-07T14:09:35.000Z', 'text': 'Chirimoya', 'profileUrl': 'https://www.facebook.com/yadevic.jimenez', 'profilePicture': 'https://scontent.fdet3-1.fna.fbcdn.net/v/t39.30808-1/359533033_6128844193911187_2299624385370835019_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DDsyg4ekrpoQ7kNvwGB3GdX&amp;_nc_oc=Adn5ldtzTsxrAU0OpmZru-AbEhzqr5ZdejX7TyP-jxq3uXO6WSAthZasq8z8ZywMSbU&amp;_nc_zt=24&amp;_nc_ht=scontent.fdet3-1.fna&amp;_nc_gid=B7vrc-hm-PQFkV53LTPOZw&amp;oh=00_Affu4Hj7X9ZcGCAwAFLLdIrAp62y3CY-q0OrRFxJ4OKlpQ&amp;oe=68EC5357', 'profileId': 'pfbid035cDycx52DCbScJLFrLFvpedA8vBgCmBunNkr9emtEPhpaqhjRvKUM9gQHeees5hMl', 'profileName': 'Yarinys Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -12160,7 +12160,7 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid029DMyj3eVdUsNpDZMpUq8DzLMz5bNiHjagP5W96f8sV29qM8DBy1ic5pZpBavRwcgl?comment_id=1426223511978473', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE0MjYyMjM1MTE5Nzg0NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNDI2MjIzNTExOTc4NDcz', 'date': '2025-08-30T02:15:15.000Z', 'text': 'Pl””ppp Xd a', 'profileUrl': 'https://www.facebook.com/junior.samtamaria.7', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwEwfne4&amp;_nc_oc=Adm82QxlCBOFRUoBYFgCBCLglT6p8TFurjNSZk23z4-5TN0q_WUhO2L37Npfa_nW_Bc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;oh=00_AfdVUjhM_C-SF8E8ux3aHF1YD1PXQeA0e9Q4E6HUV2OmAA&amp;oe=690C9A7A', 'profileId': 'pfbid02jjHwv9hBaCWT4eVDXxEt2cHnbP1Cf4nKfaERfkAY2r3f9n7e493Dcej7nW3Y1BZ9l', 'profileName': 'Juliito Santana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid05finot28nJtTEpmt4qVgqDEUEtzCRU1XarHpMTRsdBxiCRk6Y6F9dJWPemtFm1nXl?comment_id=1426223511978473', 'id': 'Y29tbWVudDoxMTgwNTc2Mzc3NDQxNDQxXzE0MjYyMjM1MTE5Nzg0NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjM3NzQ0MTQ0MV8xNDI2MjIzNTExOTc4NDcz', 'date': '2025-08-30T02:15:15.000Z', 'text': 'Pl””ppp Xd a', 'profileUrl': 'https://www.facebook.com/junior.samtamaria.7', 'profilePicture': 'https://scontent.fdet3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEgf5fa&amp;_nc_oc=Adnch2aJuLT4RHARETqq1J45XsD23beTFQA_osdrNaX_WcbFTuvxfqLpjo5K_mPGGOM&amp;_nc_zt=24&amp;_nc_ht=scontent.fdet3-1.fna&amp;oh=00_AfeERTv2zO-H8YeEIvEA4MemS2HWAGJqujtVA4qAoB34Yw&amp;oe=690DEBFA', 'profileId': 'pfbid0fhhESLVcuEQUBAzTykGRtnc57XJhEfDiQDFaJ3T2xT43ES4iZz6cm3xxbGGC7z5al', 'profileName': 'Juliito Santana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576377441441', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249481207464/'}</t>
         </is>
       </c>
     </row>
@@ -12214,7 +12214,7 @@
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=1039183548425579', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzEwMzkxODM1NDg0MjU1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8xMDM5MTgzNTQ4NDI1NTc5', 'date': '2025-08-27T17:43:15.000Z', 'text': 'Qbueno es bisjar', 'profileUrl': 'https://www.facebook.com/ligia.alarcon.376', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/468711526_1232674544701977_5473740533796622435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5_DbNuQzm3MQ7kNvwEYWhku&amp;_nc_oc=Adl3nNQx-3Ej8i3eU-z670EfdAXuWGOocVjVtFZ-71z5KuwvMD2haBgIc3R-zZFcg6g&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=TWt2AKvbUmHP6jx9Pfi5pQ&amp;oh=00_Affm3DjsTQKEdZk9f6FlQaCh4Df34xLTWF6YQXViFeNdBw&amp;oe=68EAFDBE', 'profileId': 'pfbid0U6jvj2YAcG1FKs8vgyHJ8Bwgj2DjpUY5HFu3N2fYdP5dLGUSYnxQ1Yt5w99R6tJTl', 'profileName': 'Ligia Alarcon', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=1039183548425579', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzEwMzkxODM1NDg0MjU1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8xMDM5MTgzNTQ4NDI1NTc5', 'date': '2025-08-27T17:43:15.000Z', 'text': 'Qbueno es bisjar', 'profileUrl': 'https://www.facebook.com/ligia.alarcon.376', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/468711526_1232674544701977_5473740533796622435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5_DbNuQzm3MQ7kNvwH60z3s&amp;_nc_oc=AdlhPaycPy2L3kNA_JGjDfKhJP6AFM00VbA2WZ1VA0ZnEk9eBT4AkqEmNmWMJt0u42g&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=3Cd-aidJZnC_MKYB5Cx2wQ&amp;oh=00_Afeiiyz3Ee-9sPUDT15CeMuXnasDsGKTrb42Bt2ZJDu3pg&amp;oe=68EC4F3E', 'profileId': 'pfbid02XxBduhTzTYhxGWqtNHB3XzXjZ8s1SCbfoScyfbrw1qUTZS5bqSfk5FYBMQxeqsJWl', 'profileName': 'Ligia Alarcon', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=3831010013857080', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzM4MzEwMTAwMTM4NTcwODA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8zODMxMDEwMDEzODU3MDgw', 'date': '2025-09-21T20:48:28.000Z', 'text': 'Cuento', 'profileUrl': 'https://www.facebook.com/jimmy.sevillano.940', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/471774830_1314527339898779_8829064290758106992_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9LpJyqBHRm0Q7kNvwGRylVm&amp;_nc_oc=Adn0c65gSiHydFRZ9NRmJkw8WVPWSyza6w6ekf-MrDOHqk1LxSDeSACVxPLnncwUiPo&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=TWt2AKvbUmHP6jx9Pfi5pQ&amp;oh=00_AfduuHk4ii60KRRWEJHsGoETRQw8B2AA4syc4iBkw-tfEA&amp;oe=68EAEED9', 'profileId': 'pfbid0hcS3jNWtb9UqQkYZsZzp4KMo8rRtv8Jz2Hywh1S5zXSTuVnm81XApjDaJJAbkiUdl', 'profileName': 'Jimmy Sevillano', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=3831010013857080', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzM4MzEwMTAwMTM4NTcwODA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8zODMxMDEwMDEzODU3MDgw', 'date': '2025-09-21T20:48:28.000Z', 'text': 'Cuento', 'profileUrl': 'https://www.facebook.com/jimmy.sevillano.940', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/471774830_1314527339898779_8829064290758106992_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9LpJyqBHRm0Q7kNvwFxYTx7&amp;_nc_oc=AdnRavmklLnrjRBycw1XNtYLGBsk8QTPjk4e5GjRHo5cvF4Z1PnoUmSER-A9CrY4_qw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=3Cd-aidJZnC_MKYB5Cx2wQ&amp;oh=00_Aff2IdOCV_SNmXHZALkMOwYH7aYObes3tphxQk0MCJrQ2w&amp;oe=68EC4059', 'profileId': 'pfbid02mTskv3SiSUbD9vYYicBENhmtgf54TLESbfDu1Qo1KCeqhaYg3ds6U1FoKV2WsdUVl', 'profileName': 'Jimmy Sevillano', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
@@ -12322,7 +12322,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=2234317643670429', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzIyMzQzMTc2NDM2NzA0Mjk=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8yMjM0MzE3NjQzNjcwNDI5', 'date': '2025-09-18T05:38:20.000Z', 'text': 'Loquillo', 'profileUrl': 'https://www.facebook.com/carmen.achagua.1', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/454811512_1983358728764708_1263957014677589581_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YPaXEbp3RysQ7kNvwENye4-&amp;_nc_oc=Adkp4rIIb0jsoVfArs3BOH_dgAm1bhX1Q8H7Rfnb-lNE0PB2GyGDPvLL9tRAtsSygNs&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=TWt2AKvbUmHP6jx9Pfi5pQ&amp;oh=00_AfcvGrmrafAtz89mUxewwNKtLGcIEG2R56HQzkM3177S_A&amp;oe=68EAE243', 'profileId': 'pfbid02jFmjT5Vyd8LvCi2DoDvmpsDpCz1Pzn5escnm6pKGQtaDCGUnqcXgumHHfXyRit7Rl', 'profileName': 'Carmen Achagua', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=2234317643670429', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzIyMzQzMTc2NDM2NzA0Mjk=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8yMjM0MzE3NjQzNjcwNDI5', 'date': '2025-09-18T05:38:20.000Z', 'text': 'Loquillo', 'profileUrl': 'https://www.facebook.com/carmen.achagua.1', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/454811512_1983358728764708_1263957014677589581_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YPaXEbp3RysQ7kNvwFRoqZH&amp;_nc_oc=AdmZn1RLYsw3BpxAfcnu0Y9Qu2lgfhoveeOkb6UqvesrSsBOUP8LBs-VzAOe2GDv7qc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=3Cd-aidJZnC_MKYB5Cx2wQ&amp;oh=00_AfcHCpv-vJYcDhd8J6R0O9-Q-73Fl8JGNytAwQG3GQttKw&amp;oe=68EC33C3', 'profileId': 'pfbid0fEB1yGJQxGPtyAHcZRNx3oFY9kCCcdeqMgaRrk8K3XLUqg4geuiCHLct53NumDGDl', 'profileName': 'Carmen Achagua', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
@@ -12376,7 +12376,7 @@
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=1305397517694727', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzEzMDUzOTc1MTc2OTQ3Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8xMzA1Mzk3NTE3Njk0NzI3', 'date': '2025-09-05T18:38:34.000Z', 'text': 'Como se llama este muchacho???', 'profileUrl': 'https://www.facebook.com/aurora.perilla.330485', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/560625305_772918032277096_3808961486397097674_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ROO5tspvtZAQ7kNvwF1b6Uk&amp;_nc_oc=AdmbxtpENUdfGFb9hG8kKNtHsp81RPwvdHSpQ-xWOc9l_4y9VBPfAaH0y9ElQSH1CZQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=TWt2AKvbUmHP6jx9Pfi5pQ&amp;oh=00_AfefgysGawzCA75H--bOdkNundiVvInNDMJKyFmSylwOJg&amp;oe=68EAF7F2', 'profileId': 'pfbid0QgJjc1pmbrME24LqgFvcXyVLX7pbJmLtZUMnhKR84CQzrqrVfW13dqMo2WteWmkbl', 'profileName': 'Aurora Perilla', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=1305397517694727', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzEzMDUzOTc1MTc2OTQ3Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8xMzA1Mzk3NTE3Njk0NzI3', 'date': '2025-09-05T18:38:34.000Z', 'text': 'Como se llama este muchacho???', 'profileUrl': 'https://www.facebook.com/aurora.perilla.330485', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/560625305_772918032277096_3808961486397097674_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GiZPo5t5ulcQ7kNvwHJbT2z&amp;_nc_oc=AdkrbGoShi5vUoQjlCYA356RwB3TTWB08ZsGqfGcHT8KYUXkcDsqMO11gFVtwpqP0-Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=3Cd-aidJZnC_MKYB5Cx2wQ&amp;oh=00_AfdxOyf8yVmXD5FpJEMtByANooOTvQ9q4IkkcTG7DdBrNA&amp;oe=68EC4972', 'profileId': 'pfbid02UXkSngkbTCzL7TooV1LbxvKUmZRf9GWYXYCesfL81wRxrmdQjnaLyMunBbjrBmeKl', 'profileName': 'Aurora Perilla', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
@@ -12430,7 +12430,7 @@
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=808045311701735', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzgwODA0NTMxMTcwMTczNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV84MDgwNDUzMTE3MDE3MzU=', 'date': '2025-09-17T00:52:26.000Z', 'text': 'Huevadas', 'profileUrl': 'https://www.facebook.com/javier.gonzalez.138640', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/559044729_1513559543404249_3498317567492383739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TA2TgOISpiwQ7kNvwHRDIJi&amp;_nc_oc=AdkliruycNnviHUdXBspVv-cZ7BdrPs6FlBlfv8_2vLCbvWuwyUUrvkw0YIGP3u4mt4&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=TWt2AKvbUmHP6jx9Pfi5pQ&amp;oh=00_AfdL1eTW72hYn75fqfThZc4iOhhWzytdLxYuiQQA2xdKJw&amp;oe=68EADEFE', 'profileId': 'pfbid02hmphkLtFA5cpbraFP7rqViEfi89cDfhJQEiB41zDjydvNAKcHefha7ZPbtFzt5rpl', 'profileName': 'Javier Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=808045311701735', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzgwODA0NTMxMTcwMTczNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV84MDgwNDUzMTE3MDE3MzU=', 'date': '2025-09-17T00:52:26.000Z', 'text': 'Huevadas', 'profileUrl': 'https://www.facebook.com/javier.gonzalez.138640', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/559044729_1513559543404249_3498317567492383739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=G9WsINj-Vm8Q7kNvwGtpD-V&amp;_nc_oc=AdlnnGKNa3tL48PSEZQPBD97munxOYZEdpZOW2dO5fRLFMg2kqDhO5DFLUhBmpKir1c&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=3Cd-aidJZnC_MKYB5Cx2wQ&amp;oh=00_AfenNvz9tAxRXnyxbRyPoh0Hf7dzMMYAIA-2C5xyckzwTQ&amp;oe=68EC307E', 'profileId': 'pfbid0dkDzGXggV3YCjrDCerSb9FpMzoZt46yo9ChGDwsTZCwWMthpVqEsvFSqYfyNPZxZl', 'profileName': 'Javier Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
@@ -12484,7 +12484,7 @@
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=2919243361597903', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzI5MTkyNDMzNjE1OTc5MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8yOTE5MjQzMzYxNTk3OTAz', 'date': '2025-09-05T20:04:45.000Z', 'text': 'Que miedo', 'profileUrl': 'https://www.facebook.com/marta.saldariaga.1', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwHgidct&amp;_nc_oc=Adkx3FVq4mfcp6UqmrDXFWkti-lLZ3_gxuc99JIMqTYcxEaVSeERK7gV7VJhh2Xn9n8&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;oh=00_Afc7TVPrD8JFVBfRB_7jMkiNDkhj4wZJbEhryk4ILjgS5A&amp;oe=690C9A7A', 'profileId': 'pfbid0z1DURoEnyW9ZCRqyQmUvcBtbfyCSjo7DDurirBnArnsX8Ba8DusNmXMvCT1v1ehxl', 'profileName': 'Marta Saldariaga', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=2919243361597903', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzI5MTkyNDMzNjE1OTc5MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8yOTE5MjQzMzYxNTk3OTAz', 'date': '2025-09-05T20:04:45.000Z', 'text': 'Que miedo', 'profileUrl': 'https://www.facebook.com/marta.saldariaga.1', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwFskQia&amp;_nc_oc=AdlPEsSasFArhqsfFybwdxJGb0IgcCGPxkkCWIwjTO42TsDjLWQLJi5A9FoJ5S0yzfM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;oh=00_AffRW2h1OkpXO2GaNqfJAqbqzcIa4GP8-t95w9GU7pg7hA&amp;oe=690DEBFA', 'profileId': 'pfbid033rfBcUAcpovSwvMB8SQVJqwx2GiASHipuH1U43tVqvrjyhQZaWXiHEXL5FNN4Qufl', 'profileName': 'Marta Saldariaga', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
@@ -12538,7 +12538,7 @@
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=1288452196628517', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzEyODg0NTIxOTY2Mjg1MTc=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8xMjg4NDUyMTk2NjI4NTE3', 'date': '2025-09-29T22:50:33.000Z', 'text': 'Hijueputa tipo más feo y sin talento, el Idela para poner el anuncio más castroso del mundo, pro este trozo de mierda asqueroso hijipueta me interrumpen my playlist? En mi vida vuelvo a comprar un bonyourt hptas .l.', 'profileUrl': 'https://www.facebook.com/people/Manuel-Hernandez/pfbid02TGMpg2HqufDMCYULMBnUBfEy45LD1Ro7PR21vR9xFU5ZZ6qzS59tv2XvgnSVt5KLl/', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/512253664_2143694059444579_5643670789685777833_n.jpg?stp=c61.0.705.705a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ORSho4FUANcQ7kNvwHiywmo&amp;_nc_oc=AdmjgLHUwNEP-98lUe13ZBehvzdPCUd1YHuFlANrKpBUhTQKl6Y8onREHZlNVZcenjA&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=TWt2AKvbUmHP6jx9Pfi5pQ&amp;oh=00_AffoAToBsFDmF7syxXFMkoIA1Tjr9EbpNThfhoI0rmilzA&amp;oe=68EB0982', 'profileId': 'pfbid02TGMpg2HqufDMCYULMBnUBfEy45LD1Ro7PR21vR9xFU5ZZ6qzS59tv2XvgnSVt5KLl', 'profileName': 'Manuel Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/691018997325689/?comment_id=1288452196628517', 'id': 'Y29tbWVudDoxMTgwNTc2NDM3NDQxNDM1XzEyODg0NTIxOTY2Mjg1MTc=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3NjQzNzQ0MTQzNV8xMjg4NDUyMTk2NjI4NTE3', 'date': '2025-09-29T22:50:33.000Z', 'text': 'Hijueputa tipo más feo y sin talento, el Idela para poner el anuncio más castroso del mundo, pro este trozo de mierda asqueroso hijipueta me interrumpen my playlist? En mi vida vuelvo a comprar un bonyourt hptas .l.', 'profileUrl': 'https://www.facebook.com/people/Manuel-Hernandez/pfbid0PEm7CD6HEmc4sdAm3hCE9Ek1cA1SAkCxKDajexY9b2TVkme6b2iEK1bbqqy3VJEcl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/512253664_2143694059444579_5643670789685777833_n.jpg?stp=c61.0.705.705a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ORSho4FUANcQ7kNvwGxiq-2&amp;_nc_oc=AdnPj7mBD558mLozAwoqg2cbB30ts9HzUN-Wo4zAypoOAh9fcyhtCe58MINvWEsqEVw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=3Cd-aidJZnC_MKYB5Cx2wQ&amp;oh=00_AfdbcPCRAdvy_dF164fF7vKsu4l3LTSgY0KTzrOX1guWZw&amp;oe=68EC5B02', 'profileId': 'pfbid0PEm7CD6HEmc4sdAm3hCE9Ek1cA1SAkCxKDajexY9b2TVkme6b2iEK1bbqqy3VJEcl', 'profileName': 'Manuel Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180576437441435', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176249024540843/'}</t>
         </is>
       </c>
     </row>
@@ -12592,7 +12592,7 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1114344684183634', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzExMTQzNDQ2ODQxODM2MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMTE0MzQ0Njg0MTgzNjM0', 'date': '2025-08-29T23:39:12.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/ricardo.de.jesus.zuleta.arroyave', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/542059740_3673984189574489_5013380962686759037_n.jpg?stp=c0.0.465.465a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6ibFa7noUcsQ7kNvwHjRsX7&amp;_nc_oc=Adl0Y5Rnu5Zy78fIrLe-FtbjKsjCpurH0AHMrzteo7YYkqjDKcB5uHNxuAdpDxWOeAU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_AfcMXcESyGbmzT8VitW9xUh97XIDKiz42ex0ftZlH-ogdQ&amp;oe=68EAF96A', 'profileId': 'pfbid0F8q47fBrnNjoHXLQ4gYnKzieXd4nRzaukcAfR8nKEUyr5CuCSXw2MWAeZ9HTVvtdl', 'profileName': 'Ricardo De Jesús Zuleta Arroyave', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1114344684183634', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzExMTQzNDQ2ODQxODM2MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMTE0MzQ0Njg0MTgzNjM0', 'date': '2025-08-29T23:39:12.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/ricardo.de.jesus.zuleta.arroyave', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/542059740_3673984189574489_5013380962686759037_n.jpg?stp=c0.0.465.465a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6ibFa7noUcsQ7kNvwEUKJKi&amp;_nc_oc=AdlXuP-vLLqmpnnVea1kf6kqUyYA4lB_pvdGAthEG1ciiS6mV3CX_gbaA6ul8Sh-v3c&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_AfdiPeDJGoDgt6uYXf2H3sqE-UnItAUVmRCS4qgJ7VA4uw&amp;oe=68EC4AEA', 'profileId': 'pfbid02JzGmJL7gdmQvZ5au3m8irjyzWZuFBu6wQmFVUzJFMkwXKYmTBUGpqQp24vU8ZTzwl', 'profileName': 'Ricardo De Jesús Zuleta Arroyave', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12646,7 +12646,7 @@
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=765498096064912', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0Xzc2NTQ5ODA5NjA2NDkxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF83NjU0OTgwOTYwNjQ5MTI=', 'date': '2025-08-27T00:28:23.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/nubia.cordero.50', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/464433348_8354490364648783_6672355853241575500_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XPT3qc1lH5IQ7kNvwEfgo_e&amp;_nc_oc=AdlnzbE59cnTHguI9GbirPTmUsQvapPXL0lUFNp5uHOgtT9duKQMDxzKfHbi_Yb9ys4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_Afc9eQtVRA60jwMkMCuJ0zzZOSz9zqlrQsTl2ModjEiUBw&amp;oe=68EB0E9D', 'profileId': 'pfbid0zDEEY6G16ZRTkrromxAGdaC3zdhsgxioxeBhnTqHye75f2YQy44wxJ6pGn5CWHi6l', 'profileName': 'Nubia Cordero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=765498096064912', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0Xzc2NTQ5ODA5NjA2NDkxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF83NjU0OTgwOTYwNjQ5MTI=', 'date': '2025-08-27T00:28:23.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/nubia.cordero.50', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/464433348_8354490364648783_6672355853241575500_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XPT3qc1lH5IQ7kNvwHnFgLe&amp;_nc_oc=Adll92E7pW3vp5grh7QarkP6PYrOvPMBRXscy6PYDxjlOOmzwlTiwPNMToEQ31pqGE0&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_AffnvW-9rG35etZbtuomMwK7hUHMaebcg4B-P2Unmgm37g&amp;oe=68EC601D', 'profileId': 'pfbid033aiRA7cd8C7hU4h1rNsHsUMxVXWbwKoyGKxgF3mAEbB4k7yHdfdkifSWU1YFz2LEl', 'profileName': 'Nubia Cordero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12700,7 +12700,7 @@
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1962809447787635', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzE5NjI4MDk0NDc3ODc2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xOTYyODA5NDQ3Nzg3NjM1', 'date': '2025-08-28T01:14:44.000Z', 'text': 'Amen amen 🙏', 'profileUrl': 'https://www.facebook.com/cinibaldo.avilasotelo', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/337399890_2598520576954804_3518188180563978852_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=enrpiMpjrpIQ7kNvwEmNaSF&amp;_nc_oc=AdlX-hSZtuoL_v8XWIcsaMVpMijShKW-9fMWMOgJHpqpaJXC4NlYeGG2vSOBbJaqB5c&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_AfdDFkAqegJyMJZBCUmanhVsOa9FcN5HiENi2eTY09wfZg&amp;oe=68EB0DFA', 'profileId': 'pfbid02voEGcCPLgrFG2fWsLzYykt5xkmLAuZDWVqZ1Qjw1EwFZ6Pre8hP1CMPU8Jj568oEl', 'profileName': 'Cinibaldo Avila Sotelo', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1962809447787635', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzE5NjI4MDk0NDc3ODc2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xOTYyODA5NDQ3Nzg3NjM1', 'date': '2025-08-28T01:14:44.000Z', 'text': 'Amen amen 🙏', 'profileUrl': 'https://www.facebook.com/cinibaldo.avilasotelo', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/337399890_2598520576954804_3518188180563978852_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=enrpiMpjrpIQ7kNvwF4eNG5&amp;_nc_oc=AdnE0h2dQGK6h5bEUq-gm4U-9wrSjwhshsglbmgv9vmIDCmdeSbUApfG_ND0Kt2SBYo&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_AfcwLtBT259jLay0U727AlQcuQP9_AZz5hWYjXmIEi5S6A&amp;oe=68EC5F7A', 'profileId': 'pfbid0rmdZ8PBn1vetWfPdjnS2S9rejbDfDqA9d8FEJZnkVKjUEFiM6g8Me8TjZN7njvTNl', 'profileName': 'Cinibaldo Avila Sotelo', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12754,7 +12754,7 @@
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1317880313378263', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzEzMTc4ODAzMTMzNzgyNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMzE3ODgwMzEzMzc4MjYz', 'date': '2025-09-02T04:00:08.000Z', 'text': 'Por mi parte te dará diezmo tu madre', 'profileUrl': 'https://www.facebook.com/jeison.gremv', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/227922140_4233834270040514_3423583614073821437_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tENiJsMO9EsQ7kNvwEkJMiW&amp;_nc_oc=AdmOiMMxMgSlGoohl7IDpVXQCQLB7rJ-YsasRRZCLjQvJkWW7MJ3gBVaVWBeKxiMTpw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_AfcWStSyBDIuwfoE3jtxzIcYJ6q5HVxqYbsf9pr9FyDDwA&amp;oe=68EAFA74', 'profileId': 'pfbid026NEgvcVFw5seCaxC8aPBJZCExEmhnaC6Ws6gXKqu8pcXBhg2QLm9AgT8tGvbwjK1l', 'profileName': 'Jeison Rincon Sdvsf', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1317880313378263', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzEzMTc4ODAzMTMzNzgyNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMzE3ODgwMzEzMzc4MjYz', 'date': '2025-09-02T04:00:08.000Z', 'text': 'Por mi parte te dará diezmo tu madre', 'profileUrl': 'https://www.facebook.com/jeison.gremv', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/227922140_4233834270040514_3423583614073821437_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BQfndwwsudAQ7kNvwE-fTfP&amp;_nc_oc=AdlUYY7imLAGonvxI2zEyTb08jXHokHfbbyyjbAsfP_H5r_bCE9IEah_uo5lRV64944&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_AfeQI01b4fTttKBtgMmsF5hIEuqZaQKnkJBuNZfK6KW2qA&amp;oe=68EC4BF4', 'profileId': 'pfbid02pbW1Sru5z6hBojEUpntgurZL9DZcgxbjTkfxT292G6FGxncxjdNdvzbMeGCo3YCl', 'profileName': 'Jeison Rincon Sdvsf', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12808,7 +12808,7 @@
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=619227981262280', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzYxOTIyNzk4MTI2MjI4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF82MTkyMjc5ODEyNjIyODA=', 'date': '2025-08-28T18:38:23.000Z', 'text': 'Jajajja Mi Chikis Trinquis🤣🤣🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/fabian.bayona.557183', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/539367909_767540099202088_2070375379187107734_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oobp_vO33i8Q7kNvwHYxuUw&amp;_nc_oc=AdmoSJNC5IVFsaHEcBEMjEUh7A-BSJ6ImZ4eT1P0KPBGM2UkQTriZudKy1ftNV_xCQI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_Afe_lWGAHBpwHhKjgV86NxMkvuk7ziSzi2SnX3TlSEsSHg&amp;oe=68EAFDD6', 'profileId': 'pfbid0N62sRufnKh1oeY4AgjP4W4Y6VjYNbmMWqrtSLGRBU8ta6Mit1zndn5aB3VntmHPDl', 'profileName': 'Fabian Bayona', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=619227981262280', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzYxOTIyNzk4MTI2MjI4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF82MTkyMjc5ODEyNjIyODA=', 'date': '2025-08-28T18:38:23.000Z', 'text': 'Jajajja Mi Chikis Trinquis🤣🤣🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/fabian.bayona.557183', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/539367909_767540099202088_2070375379187107734_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oobp_vO33i8Q7kNvwHcMgxt&amp;_nc_oc=AdkaonWNSjrQDPB8A_vTLt1Bs3m7V3h0G9bpqeHIbGSdkkVITwvpQ7vbkGO18oI8vKw&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_AffkS6mACZLCGhxHsNTgGybjOMaY8M7p4omzHk9Vu04HcA&amp;oe=68EC4F56', 'profileId': 'pfbid02RTX43w2QMY2YjX9kvyD8VZhHQd5vrB72qDetYfv3D3bFyghmQ7FRRv5X1Wpr5aHwl', 'profileName': 'Fabian Bayona', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12862,7 +12862,7 @@
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=2958933944294600', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzI5NTg5MzM5NDQyOTQ2MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yOTU4OTMzOTQ0Mjk0NjAw', 'date': '2025-08-28T23:36:58.000Z', 'text': 'En bonos dé lactosuero', 'profileUrl': 'https://www.facebook.com/fernandodejesus.roldanmedina', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.6435-1/74599560_459031218061030_7009115240973467648_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U_xYKzqH1I4Q7kNvwFN4Tq0&amp;_nc_oc=Adk64OIM__pn9qyRFa1WdP5cIc5vUe3cnmnkkLW6ZM5juwMoaGe4hk2ZjHwcvnKWhWo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_Affzoa1rsdSq-_ahDePWrhWcG_vHQZvTTfo_Amp-IVz78g&amp;oe=690C9F6C', 'profileId': 'pfbid02Snwv9vDK3hK9REZmJAPhy3vpC2qzs35ZD7nAtYSAxPSdSCdM2LgLoFpg5v7VGXALl', 'profileName': 'Fernando Dejesus Roldan Medina', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=2958933944294600', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzI5NTg5MzM5NDQyOTQ2MDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yOTU4OTMzOTQ0Mjk0NjAw', 'date': '2025-08-28T23:36:58.000Z', 'text': 'En bonos dé lactosuero', 'profileUrl': 'https://www.facebook.com/fernandodejesus.roldanmedina', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t1.6435-1/74599560_459031218061030_7009115240973467648_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U_xYKzqH1I4Q7kNvwGcWMoa&amp;_nc_oc=AdnX33pUw_24YH4VLzjoWZy5oZ8C5aCtJBTnmD2G-9szlRWjtJYsc0kF5ER7GNlqgb8&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_AfeT8azgqzNEilEKtKtccF8BmfM3ugmziHCHF95XLEEJOA&amp;oe=690DF0EC', 'profileId': 'pfbid0NmMCg71kNjaARrRGtUJqpHzLpiaBscYhtQKcGzozWUowrrpMFmvNHEkSu6K3SGFYl', 'profileName': 'Fernando Dejesus Roldan Medina', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12916,7 +12916,7 @@
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=822492590226641', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzgyMjQ5MjU5MDIyNjY0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF84MjI0OTI1OTAyMjY2NDE=', 'date': '2025-08-29T21:22:10.000Z', 'text': 'Que teso se pasó esa piscina sin ni siquiera sacar la cabeza  para respirar que SUPER humano', 'profileUrl': 'https://www.facebook.com/gladys.ocampovelasquez', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/482019426_9935784143111782_7870094336133409706_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gQVvTE9QBEQQ7kNvwGcNC5B&amp;_nc_oc=AdlwXzfMNlpU0is6Fb9XCJxA6S4YVeL9N44HTu-LnwqAZdcAxDKRo41P-ELgnTCR9b4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_AfdQFV3v-t74SyrENJuW4UBYEhiF2pRQbsDSBhgxtF7v1A&amp;oe=68EAEC64', 'profileId': 'pfbid02BJ9b7CPEQWtnmYDYAdoWcM7AwPoqtAkrhGfWCRRvM59qhx95qxYVPZCqizMUbLAVl', 'profileName': 'Gladys Ocampo Velasquez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=822492590226641', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzgyMjQ5MjU5MDIyNjY0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF84MjI0OTI1OTAyMjY2NDE=', 'date': '2025-08-29T21:22:10.000Z', 'text': 'Que teso se pasó esa piscina sin ni siquiera sacar la cabeza  para respirar que SUPER humano', 'profileUrl': 'https://www.facebook.com/gladys.ocampovelasquez', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/482019426_9935784143111782_7870094336133409706_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gQVvTE9QBEQQ7kNvwHQ5yIj&amp;_nc_oc=Adlhqf-p04YYp6ymEtateaBARuoQH1B3CLJAEQBotdOJ-CGmz0tWNAtDXJu4hpFHBAk&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_AfecFep3wXOldck1eTdo__0bAXA1_ab4FKzJ58mLGWGaDw&amp;oe=68EC3DE4', 'profileId': 'pfbid07GYsdPBfjVt4utWx8jpaNg1AuyHppwMk7t86kfcetMrYNyXFwXzWf6yCxd5NDTeml', 'profileName': 'Gladys Ocampo Velasquez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -12970,7 +12970,7 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=24964898946451389', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzI0OTY0ODk4OTQ2NDUxMzg5', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yNDk2NDg5ODk0NjQ1MTM4OQ==', 'date': '2025-08-28T03:04:17.000Z', 'text': 'Bj', 'profileUrl': 'https://www.facebook.com/irene.ramirez.743348', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=pZvdryK-N40Q7kNvwF0Fews&amp;_nc_oc=AdlntdBkFQw0Cm3CoHcX_lYVJZrCDC63aR0GZSo3WbFtAQyDF1f8LzOlCTHSskB2Wdo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;oh=00_Afcvi2siVhbKBUc5PhD4ZXQWca4hjMaDQx6WQHvWK7-4Og&amp;oe=690C9A7A', 'profileId': 'pfbid02yAwgKm79N1u3AjiwTcfhKfHyrcuuWvoHx3EkWid9pJ89rvsetq2WJFNXpHGPVhEol', 'profileName': 'Irene Ramirez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=24964898946451389', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzI0OTY0ODk4OTQ2NDUxMzg5', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yNDk2NDg5ODk0NjQ1MTM4OQ==', 'date': '2025-08-28T03:04:17.000Z', 'text': 'Bj', 'profileUrl': 'https://www.facebook.com/irene.ramirez.743348', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEIv5aD&amp;_nc_oc=Adkp1Cka1zGaVdxhnzu6gEJrLYiDw5AQct5pzjIqECUrr_HXZX68_Um_3xmjtmJ-ZGI&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;oh=00_AfckWI2Zz6rhppTiJVAAe5TBDq7Q5Sia-krlD-WqITry8w&amp;oe=690DEBFA', 'profileId': 'pfbid0u9Lxqwuah2i7sTQzN2LZUYk55Q75GUk1f44877htzog4Y66hw6HBueMiSZUKc8Mml', 'profileName': 'Irene Ramirez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -13024,7 +13024,7 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=2350394328765006', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzIzNTAzOTQzMjg3NjUwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yMzUwMzk0MzI4NzY1MDA2', 'date': '2025-09-02T05:05:32.000Z', 'text': 'https://www.facebook.com/profile.php?id=61567740453704&amp;mibextid=ZbWKwL', 'attachments': [{'url': 'https://www.facebook.com/people/Caf%C3%A9GanoSalud/61567740453704/', 'source': None, 'title_with_entities': {'text': 'CaféGanoSalud'}, 'target': {'__typename': 'User', 'id': '61567740453704'}, 'action_links': [], 'media': {'__typename': 'ProfilePicAttachmentMedia', 'fallback_image': {'height': 100, 'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/515041267_122152897262591348_1665467544596160660_n.jpg?stp=dst-jpg_s100x100_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=f907e8&amp;_nc_ohc=CztYE81Y03gQ7kNvwH_mao6&amp;_nc_oc=AdmTqHKQul1bQdWVd3zsNaegjbbmLAkZaTn3zGeYnaYViHxPFMH6DiYUlz62PD5f7rg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_AfdgVq_TYKGJ-KJHsBkaZrWrBU3CHvwjDsymZrNhP4NSBA&amp;oe=68EAD6F4', 'width': 100}, 'is_playable': False}, 'tracking': None}], 'profileUrl': 'https://www.facebook.com/felipe.rangel.716797', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/546422062_1512516880095500_144380655253868277_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=i42_S7bnozkQ7kNvwGcz_Mi&amp;_nc_oc=Adnkg_kTnXnchXj077wLDciXURtqthJhrNYWMV-OuFA_phSddpjOoYHooWkeL5DOc4g&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_AffxlCiR9NX3d8GdOFvKBsWkY_HNTWTqaTLmotAlPrtu1Q&amp;oe=68EB0997', 'profileId': 'pfbid02NwqB5sHkPTTUNzkUKziKZCuPHbTJYgpYCqYd6FXXW7o3WpLLa2dyd9nsTAVUcfPUl', 'profileName': 'Felipe Rangel', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=2350394328765006', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzIzNTAzOTQzMjg3NjUwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8yMzUwMzk0MzI4NzY1MDA2', 'date': '2025-09-02T05:05:32.000Z', 'text': 'https://www.facebook.com/profile.php?id=61567740453704&amp;mibextid=ZbWKwL', 'attachments': [{'url': 'https://www.facebook.com/people/Caf%C3%A9GanoSalud/61567740453704/', 'source': None, 'title_with_entities': {'text': 'CaféGanoSalud'}, 'target': {'__typename': 'User', 'id': '61567740453704'}, 'action_links': [], 'media': {'__typename': 'ProfilePicAttachmentMedia', 'fallback_image': {'height': 100, 'uri': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/515041267_122152897262591348_1665467544596160660_n.jpg?stp=dst-jpg_s100x100_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=f907e8&amp;_nc_ohc=t1rH_GdEFikQ7kNvwF6x6hU&amp;_nc_oc=AdmDFQetD5kYgJYHs2lcXiS8F-us7pnXx-SgQ-mYZU8nH_-A0HUN6gj1aQSU87XYOCs&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_AffvBD1LH5GjJ-RzOwnldauNT7fF6Y6XKMrHlBKWkttVJg&amp;oe=68EC60B4', 'width': 100}, 'is_playable': False}, 'tracking': None}], 'profileUrl': 'https://www.facebook.com/felipe.rangel.716797', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/546422062_1512516880095500_144380655253868277_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=i42_S7bnozkQ7kNvwGuFT9d&amp;_nc_oc=AdkH4MYiCIKa13gc0Q0bJs0YZbez8r9GKqUiTIZee8t0O8XyA3qCmeY69RLpZ8FaDgc&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_Aff3oPoFo3phkH5e8E8STeoABNKt7U2_bpMO_XNPzoussA&amp;oe=68EC5B17', 'profileId': 'pfbid0JvETc46BiW8VL4NcyXpzTTb3v6KLEF7fkFiA1vYxbuHRLCAHRb4tgXALbgNk81T2l', 'profileName': 'Felipe Rangel', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -13074,7 +13074,7 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=785696547306038', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0Xzc4NTY5NjU0NzMwNjAzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF83ODU2OTY1NDczMDYwMzg=', 'date': '2025-08-28T17:28:27.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.1997-6/514940247_10067184483371418_6571971317495021401_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=Bt8FtCDPNL8Q7kNvwGnb_S7&amp;_nc_oc=AdkiYfRWvHk-rRIKNRNS4Ouy-GmuZNEFGlWoXKeSwTlog67xiRh-YVULHhGixwnj94A&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_Aff_XgqrGRRYynybk8HtGqWD6HPKUF3OSE3K1z0h-xftpw&amp;oe=68EB0B26', 'width': 120, 'height': 120}, 'id': '777910931279812'}], 'profileUrl': 'https://www.facebook.com/martha.herrera.948011', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/536275923_3188574451310186_1996496082865595930_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DtI8NfYfZAwQ7kNvwH2M2z0&amp;_nc_oc=Adm3Ht0ydiVzqcKOLGQ8o_c8fNXn-sdzemcJ57tAk9ZZ5n5i4Kiiwdi1r4nUw0kKOTU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=mlodK1J7-CNwqJk7Mlv-AA&amp;oh=00_Afeg6ASrYGRoT3A67CSpyLy1fb5RX09Ogwq1nR2YnLzMbQ&amp;oe=68EAD970', 'profileId': 'pfbid02QErnWLS228EpwUFif63quFryoB5737sEhma7Pmcwmxhb4hDixfxzDCvLknkhxEZ4l', 'profileName': 'Martha Patricia Herrera', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=785696547306038', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0Xzc4NTY5NjU0NzMwNjAzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF83ODU2OTY1NDczMDYwMzg=', 'date': '2025-08-28T17:28:27.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.1997-6/514940247_10067184483371418_6571971317495021401_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=Bt8FtCDPNL8Q7kNvwH9rKe5&amp;_nc_oc=AdnUnm0icxg6AMcT0spbMQpt944Zw6rqZ0ps7F_rQDhq9CvLT0Si1T1sFXF2YOMR6M8&amp;_nc_zt=26&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_AfdfScpjl2EUe6S-gfA1y24W0KUpK7hdT_Lclj4Zx7WAFg&amp;oe=68EC5CA6', 'width': 120, 'height': 120}, 'id': '777910931279812'}], 'profileUrl': 'https://www.facebook.com/martha.herrera.948011', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/536275923_3188574451310186_1996496082865595930_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AUu77iJvvTIQ7kNvwEGoE00&amp;_nc_oc=AdnLGF_HUW0BRjQSd9SC4G5Gf3tHpLwairyr5sDaC3IvanaLayR6nShiGLH1I04SfVE&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=61jXkd4ztAFAbGsi0PgQXg&amp;oh=00_Afe1MgyKk06iWOZ8g0NnIogV_9aNYBPkAnPX5kR0wsszuA&amp;oe=68EC2AF0', 'profileId': 'pfbid0LhDbbAofAu2PF2NWUydcUXn7itBkT84qAHvjcKNCFDBv4LTboY7PubyiQfNJoxqcl', 'profileName': 'Martha Patricia Herrera', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -13128,7 +13128,7 @@
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1010116581122626', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzEwMTAxMTY1ODExMjI2MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMDEwMTE2NTgxMTIyNjI2', 'date': '2025-09-02T12:24:34.000Z', 'text': 'Toca es matar esas gonorreas que se creen que pues…. 🔫💥', 'profileUrl': 'https://www.facebook.com/M.veradi', 'profilePicture': 'https://scontent.fshd1-1.fna.fbcdn.net/v/t39.30808-1/469289898_9141700659183762_5293524939263993146_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zx0mzpemig4Q7kNvwGp5gew&amp;_nc_oc=AdlDKbeeOnk_fJT610z3iocsg0UIPX0O-znR9LqhewWmHSkrsrgc5ebxUkbHqAGc1xU&amp;_nc_zt=24&amp;_nc_ht=scontent.fshd1-1.fna&amp;_nc_gid=tjzqiP4vXafy6wITOdV6ig&amp;oh=00_Afdw482RBFnWYkK7PNNEzN69JQ5t72EPrP4RQ_LV6IwCvA&amp;oe=68EB08BE', 'profileId': 'pfbid0nLYra4uCo4bj2Fdj6HKdYdRhhsxknKiDfJBA3dBoNjsd5Ak2HU7K51NojrRQghazl', 'profileName': 'Maicol Vera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/videos/1323366259304539/?comment_id=1010116581122626', 'id': 'Y29tbWVudDoxMTgwNTc5ODgwNzc0NDI0XzEwMTAxMTY1ODExMjI2MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTE4MDU3OTg4MDc3NDQyNF8xMDEwMTE2NTgxMTIyNjI2', 'date': '2025-09-02T12:24:34.000Z', 'text': 'Toca es matar esas gonorreas que se creen que pues…. 🔫💥', 'profileUrl': 'https://www.facebook.com/M.veradi', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/469289898_9141700659183762_5293524939263993146_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zx0mzpemig4Q7kNvwGKuZCP&amp;_nc_oc=AdlCU_XV6sSmLPJRX4-nIss3pq4xlvTfOadkEkH1RF0oLu7Gty9zEac4aj1wM4X_mYY&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=I272kndTKt7qZKrnqqGw7w&amp;oh=00_AfdXy81Mv99DBpVt04F3mtSQC4ZrsrKhgBq5M5EBnm-1GA&amp;oe=68EC5A3E', 'profileId': 'pfbid02rBzZkjq2eWftS2pnVod5JEdx68Z5dRh5fe31tpJAcNyfpqusFoadhmiaS3qARiB5l', 'profileName': 'Maicol Vera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1180579880774424', 'postTitle': 'Convierte ese antojito en bonos de Wingo y hasta 9 marcas para disfrutar', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1176337131198699/'}</t>
         </is>
       </c>
     </row>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7555740633667912456', 'createTime': 1759207960, 'createTimeISO': '2025-09-30T04:52:40.000Z', 'text': 'La vos de samanta correa 😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806421239608951814', 'uniqueId': 'r_carvajal', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/574b9e6daded0eb9e10158469cc26769~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b6d0a181&amp;x-expires=1759932000&amp;x-signature=HiK7JwXoATjTcXVHv1jk4JKoOEQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7555740633667912456', 'createTime': 1759207960, 'createTimeISO': '2025-09-30T04:52:40.000Z', 'text': 'La vos de samanta correa 😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806421239608951814', 'uniqueId': 'r_carvajal', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/574b9e6daded0eb9e10158469cc26769~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a9fc7f8e&amp;x-expires=1760018400&amp;x-signature=giD7yGUIl%2BuDN9T2UZZ5pW84rWk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7552298523976696596', 'createTime': 1758406554, 'createTimeISO': '2025-09-20T22:15:54.000Z', 'text': 'en sopó donde está Alpina tampoco hay agua 😂😂', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6814181690941654022', 'uniqueId': 'robertjhd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0ab8bf417943c9b0c8fae3b3d1dfe0ef~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d99103ac&amp;x-expires=1759932000&amp;x-signature=nLExQzaaMDogS6LlByUrM%2FEtTyA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7552298523976696596', 'createTime': 1758406554, 'createTimeISO': '2025-09-20T22:15:54.000Z', 'text': 'en sopó donde está Alpina tampoco hay agua 😂😂', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6814181690941654022', 'uniqueId': 'robertjhd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0ab8bf417943c9b0c8fae3b3d1dfe0ef~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6435ce8d&amp;x-expires=1760018400&amp;x-signature=UU71jOgryivvMae5pAqlkIDefDs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553510118542082837', 'createTime': 1758688630, 'createTimeISO': '2025-09-24T04:37:10.000Z', 'text': 'Son ideas mías o se parece a Carlos Parra 🕊', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7474350256768812037', 'uniqueId': 'franyeli_oficialg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3783766b05943ff784b3634909f9b154~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=89c671da&amp;x-expires=1759932000&amp;x-signature=r6dMOPlnwlEsRJvBnyXnc%2FIS7SI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553510118542082837', 'createTime': 1758688630, 'createTimeISO': '2025-09-24T04:37:10.000Z', 'text': 'Son ideas mías o se parece a Carlos Parra 🕊', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7474350256768812037', 'uniqueId': 'franyeli_oficialg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3783766b05943ff784b3634909f9b154~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f80b12e2&amp;x-expires=1760018400&amp;x-signature=5bq2ue5neS3YSA%2F7doBBFlITP1Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553822019763077906', 'createTime': 1758761253, 'createTimeISO': '2025-09-25T00:47:33.000Z', 'text': 'uy si hoy', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7386023313685906437', 'uniqueId': 'rolquev1987', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/190d79bec411a15e1a3599a919bd0604~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f4cf29b2&amp;x-expires=1759932000&amp;x-signature=Hg%2BPzXyTZKQwN%2FWLla2mmwgUrRc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553822019763077906', 'createTime': 1758761253, 'createTimeISO': '2025-09-25T00:47:33.000Z', 'text': 'uy si hoy', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7386023313685906437', 'uniqueId': 'rolquev1987', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bbf132d95144fb42259f2edadeb54de7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=20b816fb&amp;x-expires=1760018400&amp;x-signature=7d9lnMPY%2BODapne%2FcEQYC7Ql7Bk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13538,18 +13538,18 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G249" s="2" t="n">
-        <v>45906.64163194445</v>
+        <v>45906.92133101852</v>
       </c>
       <c r="H249" s="3" t="n">
         <v>45906</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>15:23:57</t>
+          <t>22:06:43</t>
         </is>
       </c>
       <c r="J249" t="n">
@@ -13568,7 +13568,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7546997270815408914', 'createTime': 1757172237, 'createTimeISO': '2025-09-06T15:23:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7432420283090945029', 'uniqueId': 'dylan.david992', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cdc6f662b012226ad4703c41701e72ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a616518f&amp;x-expires=1759932000&amp;x-signature=7iKgFzcQjo%2BRbKxKui5ub0M3aXY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547100981442315016', 'createTime': 1757196403, 'createTimeISO': '2025-09-06T22:06:43.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7358668053859943430', 'uniqueId': 'valentinairiarte78', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/60e127df71d253559e6fd5bdd2019a6a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d7b8d432&amp;x-expires=1760018400&amp;x-signature=4IYOHigr95ePGJ2Dax4LNQzRzIw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13594,18 +13594,18 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G250" s="2" t="n">
-        <v>45927.58152777778</v>
+        <v>45906.92131944445</v>
       </c>
       <c r="H250" s="3" t="n">
-        <v>45927</v>
+        <v>45906</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>13:57:24</t>
+          <t>22:06:42</t>
         </is>
       </c>
       <c r="J250" t="n">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554767746380137223', 'createTime': 1758981444, 'createTimeISO': '2025-09-27T13:57:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6941210199248421893', 'uniqueId': 'oscarsalamanca.18', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/32196085db45e0a29813f96d88b49efc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=42eec5bb&amp;x-expires=1759932000&amp;x-signature=Ie6do1W27LTJn8jPXtgGZRuNUL8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547101006010712850', 'createTime': 1757196402, 'createTimeISO': '2025-09-06T22:06:42.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7358668053859943430', 'uniqueId': 'valentinairiarte78', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/60e127df71d253559e6fd5bdd2019a6a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d7b8d432&amp;x-expires=1760018400&amp;x-signature=4IYOHigr95ePGJ2Dax4LNQzRzIw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13654,14 +13654,14 @@
         </is>
       </c>
       <c r="G251" s="2" t="n">
-        <v>45929.69112268519</v>
+        <v>45929.70466435186</v>
       </c>
       <c r="H251" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>16:35:13</t>
+          <t>16:54:43</t>
         </is>
       </c>
       <c r="J251" t="n">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7555550588186755848', 'createTime': 1759163713, 'createTimeISO': '2025-09-29T16:35:13.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6845341438856594437', 'uniqueId': 'alexanderdiagoruiz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7334322837010710534~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e5f9021b&amp;x-expires=1759932000&amp;x-signature=tuN0bVMZlhCw3x8bjICvRq70W80%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7555555608058675986', 'createTime': 1759164883, 'createTimeISO': '2025-09-29T16:54:43.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7383558783006704645', 'uniqueId': 'diana.milena.niet8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/6b956aeb5c0c69bfb29ed90aade62e2a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=37515c68&amp;x-expires=1760018400&amp;x-signature=mqWZxoR8aOoRP%2FnLZBSTJIWmlno%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554952282120143633', 'createTime': 1759024416, 'createTimeISO': '2025-09-28T01:53:36.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301041497531581446', 'uniqueId': 'ydy.rojas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/040cc1cca856adce920bf28a3100b5ea~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=28907383&amp;x-expires=1759932000&amp;x-signature=vbnswvOTtEQybpMRzQ0njsT9kk4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554952282120143633', 'createTime': 1759024416, 'createTimeISO': '2025-09-28T01:53:36.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301041497531581446', 'uniqueId': 'ydy.rojas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/040cc1cca856adce920bf28a3100b5ea~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2435d006&amp;x-expires=1760018400&amp;x-signature=BSSl3XHv3aEbQJlwVB76ZKsw8lg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13766,14 +13766,14 @@
         </is>
       </c>
       <c r="G253" s="2" t="n">
-        <v>45905.52364583333</v>
+        <v>45927.58152777778</v>
       </c>
       <c r="H253" s="3" t="n">
-        <v>45905</v>
+        <v>45927</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>12:34:03</t>
+          <t>13:57:24</t>
         </is>
       </c>
       <c r="J253" t="n">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7546582391689020178', 'createTime': 1757075643, 'createTimeISO': '2025-09-05T12:34:03.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155295694504870918', 'uniqueId': 'jeidith09', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/22edae5fb917c2438d97b1904bd0e98c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0c115317&amp;x-expires=1759932000&amp;x-signature=ZoI3o%2FRXvjJ3xiaNL0XrkAPxU50%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554767746380137223', 'createTime': 1758981444, 'createTimeISO': '2025-09-27T13:57:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6941210199248421893', 'uniqueId': 'oscarsalamanca.18', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/32196085db45e0a29813f96d88b49efc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a21c5532&amp;x-expires=1760018400&amp;x-signature=FLabnSpBOc%2BpAYVu%2FpLE02qbgy4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13848,7 +13848,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554372827082081032', 'createTime': 1758889494, 'createTimeISO': '2025-09-26T12:24:54.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7178329174728868870', 'uniqueId': 'user1521513705', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7178329355146723333~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=af32d2a5&amp;x-expires=1759932000&amp;x-signature=UFSSF0kpvm4GuxmMaLgBCwiKCh0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554372827082081032', 'createTime': 1758889494, 'createTimeISO': '2025-09-26T12:24:54.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7178329174728868870', 'uniqueId': 'user1521513705', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7178329355146723333~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=00f220b9&amp;x-expires=1760018400&amp;x-signature=vmTAcSInCaLtdLOV33qaElVwLaM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13904,7 +13904,7 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554202409934979848', 'createTime': 1758849824, 'createTimeISO': '2025-09-26T01:23:44.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6810759719402669061', 'uniqueId': 'mariaalejandramejia14', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72767bf8885dc46303da47979b5ff34e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=05244eeb&amp;x-expires=1759932000&amp;x-signature=cq2qmcq8WkQIk8XCBEyarEj%2B6O4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554202409934979848', 'createTime': 1758849824, 'createTimeISO': '2025-09-26T01:23:44.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6810759719402669061', 'uniqueId': 'mariaalejandramejia14', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72767bf8885dc46303da47979b5ff34e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c349c250&amp;x-expires=1760018400&amp;x-signature=kqetLE%2BEGKR2WlY0R4VJ0H5RoPE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13934,14 +13934,14 @@
         </is>
       </c>
       <c r="G256" s="2" t="n">
-        <v>45927.53928240741</v>
+        <v>45929.69112268519</v>
       </c>
       <c r="H256" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>12:56:34</t>
+          <t>16:35:13</t>
         </is>
       </c>
       <c r="J256" t="n">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554752073629008658', 'createTime': 1758977794, 'createTimeISO': '2025-09-27T12:56:34.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7402686794432021509', 'uniqueId': 'yidneilis.melo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/041a73c17de0aa9aab3113ad87abcbbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d5305200&amp;x-expires=1759932000&amp;x-signature=Ctbd9awxoosIMRXROidElhnEc0w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7555550588186755848', 'createTime': 1759163713, 'createTimeISO': '2025-09-29T16:35:13.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6845341438856594437', 'uniqueId': 'alexanderdiagoruiz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7334322837010710534~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cfa6e70c&amp;x-expires=1760018400&amp;x-signature=2g7beYXJ4yhO67YvVsn45Zxle9M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553374058659021586', 'createTime': 1758656953, 'createTimeISO': '2025-09-23T19:49:13.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781866419343082501', 'uniqueId': 'mondongo5251', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65b3feea4be6b752adb9bdcee75b933d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=20b0038f&amp;x-expires=1759932000&amp;x-signature=XfKZ7fkMZ%2FxhlWS9hdbLfbNNK6w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553374058659021586', 'createTime': 1758656953, 'createTimeISO': '2025-09-23T19:49:13.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6781866419343082501', 'uniqueId': 'mondongo5251', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/65b3feea4be6b752adb9bdcee75b933d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a05114a4&amp;x-expires=1760018400&amp;x-signature=pxt3vnrrpYKvPwkx1LdRMPIQujg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14072,7 +14072,7 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553255609367282439', 'createTime': 1758629374, 'createTimeISO': '2025-09-23T12:09:34.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936577418196337669', 'uniqueId': 'ssandramartinez31', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/425dd3bf1c631da9823b6959c092b040~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e60b725e&amp;x-expires=1759932000&amp;x-signature=hJFKD%2BxGr10jsImKbu%2Bb1DO8NRw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553255609367282439', 'createTime': 1758629374, 'createTimeISO': '2025-09-23T12:09:34.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6936577418196337669', 'uniqueId': 'ssandramartinez31', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/425dd3bf1c631da9823b6959c092b040~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe19486a&amp;x-expires=1760018400&amp;x-signature=yYSY%2FIgqfTvPxQEs0GSiUehqM0k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14128,7 +14128,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553124478294688519', 'createTime': 1758598842, 'createTimeISO': '2025-09-23T03:40:42.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7059448072250672133', 'uniqueId': 'rosadeliamorales4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7099567069691445253~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d869dc4c&amp;x-expires=1759932000&amp;x-signature=0UycOYtf5x2SZHoQL%2BfbDbdDnDY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553124478294688519', 'createTime': 1758598842, 'createTimeISO': '2025-09-23T03:40:42.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7059448072250672133', 'uniqueId': 'rosadeliamorales4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7099567069691445253~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e3d56e3&amp;x-expires=1760018400&amp;x-signature=w9EbciGDPNFYXNE7CmSbDJ5NhO8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14158,14 +14158,14 @@
         </is>
       </c>
       <c r="G260" s="2" t="n">
-        <v>45923.11752314815</v>
+        <v>45906.64163194445</v>
       </c>
       <c r="H260" s="3" t="n">
-        <v>45923</v>
+        <v>45906</v>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>02:49:14</t>
+          <t>15:23:57</t>
         </is>
       </c>
       <c r="J260" t="n">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553111120309142289', 'createTime': 1758595754, 'createTimeISO': '2025-09-23T02:49:14.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6639005345460011013', 'uniqueId': 'shawlds', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/13309a3331570e4942d500066f913887~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=79f66f78&amp;x-expires=1759932000&amp;x-signature=qYPFHLWMnNfKbysiDctqE7B1nQY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7546997270815408914', 'createTime': 1757172237, 'createTimeISO': '2025-09-06T15:23:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7432420283090945029', 'uniqueId': 'dylan.david992', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cdc6f662b012226ad4703c41701e72ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1361334d&amp;x-expires=1760018400&amp;x-signature=DqzD5xNHOwD2Pf1WdfDQCFhWi%2Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554496921667191559', 'createTime': 1758918391, 'createTimeISO': '2025-09-26T20:26:31.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7266208227091547141', 'uniqueId': 'esnaiber.jose.mat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7266208407765811205~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=17317527&amp;x-expires=1759932000&amp;x-signature=2%2F07vAEDU7r7IkBRCjuaP%2FqKw7I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554496921667191559', 'createTime': 1758918391, 'createTimeISO': '2025-09-26T20:26:31.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7266208227091547141', 'uniqueId': 'esnaiber.jose.mat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7266208407765811205~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b88dac9a&amp;x-expires=1760018400&amp;x-signature=m0RSVIZpyCcmdAAFlP2a5THUKCc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14296,7 +14296,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7552382310374359816', 'createTime': 1758426043, 'createTimeISO': '2025-09-21T03:40:43.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7172928159380882437', 'uniqueId': 'karenlorenaruizos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0e3ef964e2518a1fc85b703de1b2104c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=575219f5&amp;x-expires=1759932000&amp;x-signature=Uf6rMf%2F%2FRsQ04NBACQQiEAitiHM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7552382310374359816', 'createTime': 1758426043, 'createTimeISO': '2025-09-21T03:40:43.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7172928159380882437', 'uniqueId': 'karenlorenaruizos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0e3ef964e2518a1fc85b703de1b2104c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d62a3250&amp;x-expires=1760018400&amp;x-signature=CXoOPmCr0UYlDXDjDVacG5VKzHY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7552357081198887687', 'createTime': 1758420166, 'createTimeISO': '2025-09-21T02:02:46.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155205006445970437', 'uniqueId': 'lizardo_75', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/57c4e9e4e0153b5b6b559c27253f611c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=34015b0d&amp;x-expires=1759932000&amp;x-signature=SDN55AWRhknacSydbzcSERxP75M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7552357081198887687', 'createTime': 1758420166, 'createTimeISO': '2025-09-21T02:02:46.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155205006445970437', 'uniqueId': 'lizardo_75', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/57c4e9e4e0153b5b6b559c27253f611c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3de9e5b7&amp;x-expires=1760018400&amp;x-signature=VKjY6N8yTp31fsTYg%2BEPrNxkXzE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7552305357461422856', 'createTime': 1758408132, 'createTimeISO': '2025-09-20T22:42:12.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7326685490744591366', 'uniqueId': 'ivan.mina0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327494395840692229~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc40e436&amp;x-expires=1759932000&amp;x-signature=URreiqicwOVydQClUyzhlzH0c0E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7552305357461422856', 'createTime': 1758408132, 'createTimeISO': '2025-09-20T22:42:12.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7326685490744591366', 'uniqueId': 'ivan.mina0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327494395840692229~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3d2977a9&amp;x-expires=1760018400&amp;x-signature=h0ZxVBC6K03qs%2Bg2Su7%2BkjAUvv0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14464,7 +14464,7 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7552208062266770194', 'createTime': 1758385469, 'createTimeISO': '2025-09-20T16:24:29.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367603719666729990', 'uniqueId': 'miledipia', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e49928a623a3abc1c76459204379a371~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d457768&amp;x-expires=1759932000&amp;x-signature=WF%2FnbfUzcAkQUiRSNwdOzsvCOn0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7552208062266770194', 'createTime': 1758385469, 'createTimeISO': '2025-09-20T16:24:29.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367603719666729990', 'uniqueId': 'miledipia', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e49928a623a3abc1c76459204379a371~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=40ff17cb&amp;x-expires=1760018400&amp;x-signature=z4ZUSP%2FpAol8y%2BAN55aS3qDyUwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14520,7 +14520,7 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551574056514061064', 'createTime': 1758237869, 'createTimeISO': '2025-09-18T23:24:29.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7115680153766528005', 'uniqueId': 'yordymarcelo7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7118401701987975173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f33051d1&amp;x-expires=1759932000&amp;x-signature=PSON8BO8bNaNLIWx%2BAgioDwsGuU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551574056514061064', 'createTime': 1758237869, 'createTimeISO': '2025-09-18T23:24:29.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7115680153766528005', 'uniqueId': 'yordymarcelo7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7118401701987975173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a5260986&amp;x-expires=1760018400&amp;x-signature=NdEmBb5SP5i%2Fb6I2%2FTtrb8iz0E0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14546,18 +14546,18 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G267" s="2" t="n">
-        <v>45918.57680555555</v>
+        <v>45927.53928240741</v>
       </c>
       <c r="H267" s="3" t="n">
-        <v>45918</v>
+        <v>45927</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>13:50:36</t>
+          <t>12:56:34</t>
         </is>
       </c>
       <c r="J267" t="n">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551426229847032594', 'createTime': 1758203436, 'createTimeISO': '2025-09-18T13:50:36.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075578708484031493', 'uniqueId': 'carlosjuliojimnez5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7306998977713405957~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=89eb89d6&amp;x-expires=1759932000&amp;x-signature=y9N43Tua3FICD9R795obdPDlfZ0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554752073629008658', 'createTime': 1758977794, 'createTimeISO': '2025-09-27T12:56:34.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7402686794432021509', 'uniqueId': 'yidneilis.melo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/041a73c17de0aa9aab3113ad87abcbbd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8025c907&amp;x-expires=1760018400&amp;x-signature=B51UBWOsH2O8HH8MKjkESMuDIJc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14632,7 +14632,7 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551409146379043591', 'createTime': 1758199462, 'createTimeISO': '2025-09-18T12:44:22.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6780117363469239302', 'uniqueId': 'anahirodriguez5977', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8c57a4b1742cc1db628e41e247808500~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=77c764e6&amp;x-expires=1759932000&amp;x-signature=o3oZDUjvFW5UYug1%2FxUi%2FnJ7%2BT0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551409146379043591', 'createTime': 1758199462, 'createTimeISO': '2025-09-18T12:44:22.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6780117363469239302', 'uniqueId': 'anahirodriguez5977', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8c57a4b1742cc1db628e41e247808500~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb1590d8&amp;x-expires=1760018400&amp;x-signature=ntKRrWFUDA2%2F%2BtQ1yC7M95%2F2XmU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14688,7 +14688,7 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551393341700244232', 'createTime': 1758195779, 'createTimeISO': '2025-09-18T11:42:59.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7466268582919750672', 'uniqueId': 'exelente24', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e58ceccb&amp;x-expires=1759932000&amp;x-signature=ZxPhst8TfJ%2Bxl%2FMdGw5nQMgDe8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551393341700244232', 'createTime': 1758195779, 'createTimeISO': '2025-09-18T11:42:59.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7466268582919750672', 'uniqueId': 'exelente24', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d69240f&amp;x-expires=1760018400&amp;x-signature=lGmXLJbqmHXUrrhBTSRx5ZFVuaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14744,7 +14744,7 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551025494327591698', 'createTime': 1758110134, 'createTimeISO': '2025-09-17T11:55:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686951262796448773', 'uniqueId': 'ferneycasanova943', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7726b8745322c6ffc1d6d9b7cea7e919~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=260ee4f9&amp;x-expires=1759932000&amp;x-signature=Xy3KLlrX0py4zmR0RfjuL9ubP1E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551025494327591698', 'createTime': 1758110134, 'createTimeISO': '2025-09-17T11:55:34.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686951262796448773', 'uniqueId': 'ferneycasanova943', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7726b8745322c6ffc1d6d9b7cea7e919~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2624e728&amp;x-expires=1760018400&amp;x-signature=26xQbP8CY2%2B%2BPEXHZsj%2F2Gbp%2F4Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14800,7 +14800,7 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7548482386813240081', 'createTime': 1757518025, 'createTimeISO': '2025-09-10T15:27:05.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6721877685993751557', 'uniqueId': 'teo_145', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326029631846318085~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a9dd4603&amp;x-expires=1759932000&amp;x-signature=AZodJTqrKFvCTAF83Tylu7S9hT4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7548482386813240081', 'createTime': 1757518025, 'createTimeISO': '2025-09-10T15:27:05.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6721877685993751557', 'uniqueId': 'teo_145', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326029631846318085~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e2a1df04&amp;x-expires=1760018400&amp;x-signature=JUuFXoFJrNquCzfJB32oBCH9NTg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14856,7 @@
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547185672164328199', 'createTime': 1757216104, 'createTimeISO': '2025-09-07T03:35:04.000Z', 'text': '✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246848051204473861', 'uniqueId': 'nata_visual', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c3dc3ecf5401382e7fe8f55726e29823~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e658dc96&amp;x-expires=1759932000&amp;x-signature=rRZkPIQbOIGJntpB5zB9L7W1gDI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547185672164328199', 'createTime': 1757216104, 'createTimeISO': '2025-09-07T03:35:04.000Z', 'text': '✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246848051204473861', 'uniqueId': 'nata_visual', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c3dc3ecf5401382e7fe8f55726e29823~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f444592a&amp;x-expires=1760018400&amp;x-signature=8NWAzLcrJhEAEHg%2BPz9co%2FGoqB4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14882,18 +14882,18 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G273" s="2" t="n">
-        <v>45906.92133101852</v>
+        <v>45923.11752314815</v>
       </c>
       <c r="H273" s="3" t="n">
-        <v>45906</v>
+        <v>45923</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>22:06:43</t>
+          <t>02:49:14</t>
         </is>
       </c>
       <c r="J273" t="n">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547100981442315016', 'createTime': 1757196403, 'createTimeISO': '2025-09-06T22:06:43.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7358668053859943430', 'uniqueId': 'valentinairiarte78', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/60e127df71d253559e6fd5bdd2019a6a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=26780c99&amp;x-expires=1759932000&amp;x-signature=%2Fdwf1lWH9rwfX8lmTdodYPcrAfs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553111120309142289', 'createTime': 1758595754, 'createTimeISO': '2025-09-23T02:49:14.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6639005345460011013', 'uniqueId': 'shawlds', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/13309a3331570e4942d500066f913887~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=446f2a06&amp;x-expires=1760018400&amp;x-signature=lvmtsYHT7bg9qFi6O5U3tKhB1Hs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14938,18 +14938,18 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G274" s="2" t="n">
-        <v>45906.92131944445</v>
+        <v>45905.52364583333</v>
       </c>
       <c r="H274" s="3" t="n">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>22:06:42</t>
+          <t>12:34:03</t>
         </is>
       </c>
       <c r="J274" t="n">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7547101006010712850', 'createTime': 1757196402, 'createTimeISO': '2025-09-06T22:06:42.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7358668053859943430', 'uniqueId': 'valentinairiarte78', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/60e127df71d253559e6fd5bdd2019a6a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=26780c99&amp;x-expires=1759932000&amp;x-signature=%2Fdwf1lWH9rwfX8lmTdodYPcrAfs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7546582391689020178', 'createTime': 1757075643, 'createTimeISO': '2025-09-05T12:34:03.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7155295694504870918', 'uniqueId': 'jeidith09', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/22edae5fb917c2438d97b1904bd0e98c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=274e6465&amp;x-expires=1760018400&amp;x-signature=EAzoO9NIue%2BEhSjdP9YpbZYRifM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -14994,18 +14994,18 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>🔥</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G275" s="2" t="n">
-        <v>45927.25682870371</v>
+        <v>45918.57680555555</v>
       </c>
       <c r="H275" s="3" t="n">
-        <v>45927</v>
+        <v>45918</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>06:09:50</t>
+          <t>13:50:36</t>
         </is>
       </c>
       <c r="J275" t="n">
@@ -15024,7 +15024,7 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554647214922089232', 'createTime': 1758953390, 'createTimeISO': '2025-09-27T06:09:50.000Z', 'text': '🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6924845547498226693', 'uniqueId': 'jjamesjimenez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ef3c84bc1d70e2ff5c60d490bb45da9d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4864e131&amp;x-expires=1759932000&amp;x-signature=9tmkMW16SP6rZb23P6Rkacymhxk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7551426229847032594', 'createTime': 1758203436, 'createTimeISO': '2025-09-18T13:50:36.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075578708484031493', 'uniqueId': 'carlosjuliojimnez5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7306998977713405957~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf39b5f6&amp;x-expires=1760018400&amp;x-signature=J%2FRIqd6jt0%2B%2B7dSl2luFWELPiIY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15054,14 +15054,14 @@
         </is>
       </c>
       <c r="G276" s="2" t="n">
-        <v>45923.05306712963</v>
+        <v>45927.25682870371</v>
       </c>
       <c r="H276" s="3" t="n">
-        <v>45923</v>
+        <v>45927</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>01:16:25</t>
+          <t>06:09:50</t>
         </is>
       </c>
       <c r="J276" t="n">
@@ -15080,7 +15080,7 @@
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553087282044257042', 'createTime': 1758590185, 'createTimeISO': '2025-09-23T01:16:25.000Z', 'text': '🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7196792839476085765', 'uniqueId': 'pedrojosequiones', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7202714243363831814~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cafce124&amp;x-expires=1759932000&amp;x-signature=Lroygn3BkZcqCuOUVqejHgBKL%2Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7554647214922089232', 'createTime': 1758953390, 'createTimeISO': '2025-09-27T06:09:50.000Z', 'text': '🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6924845547498226693', 'uniqueId': 'jjamesjimenez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ef3c84bc1d70e2ff5c60d490bb45da9d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=69a4a984&amp;x-expires=1760018400&amp;x-signature=jQvMFKmo91Y9%2BNNqGL532nellwQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15106,18 +15106,18 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>😡</t>
+          <t>🔥</t>
         </is>
       </c>
       <c r="G277" s="2" t="n">
-        <v>45924.63584490741</v>
+        <v>45923.05306712963</v>
       </c>
       <c r="H277" s="3" t="n">
-        <v>45924</v>
+        <v>45923</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>15:15:37</t>
+          <t>01:16:25</t>
         </is>
       </c>
       <c r="J277" t="n">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553674636812796680', 'createTime': 1758726937, 'createTimeISO': '2025-09-24T15:15:37.000Z', 'text': '😡', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7032367701557642245', 'uniqueId': '_santanderiana1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1e27f19fa8bcbe43590381b04b3f5790~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b38139ea&amp;x-expires=1759932000&amp;x-signature=npH%2BpL2RUaoNJBxsxXwEDz1UavQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553087282044257042', 'createTime': 1758590185, 'createTimeISO': '2025-09-23T01:16:25.000Z', 'text': '🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7196792839476085765', 'uniqueId': 'pedrojosequiones', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7202714243363831814~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=940c9db2&amp;x-expires=1760018400&amp;x-signature=5%2BFzaZasp37QJrErr4BpJQiXZys%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15162,18 +15162,18 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😡</t>
         </is>
       </c>
       <c r="G278" s="2" t="n">
-        <v>45929.70466435186</v>
+        <v>45924.63584490741</v>
       </c>
       <c r="H278" s="3" t="n">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>16:54:43</t>
+          <t>15:15:37</t>
         </is>
       </c>
       <c r="J278" t="n">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7555555608058675986', 'createTime': 1759164883, 'createTimeISO': '2025-09-29T16:54:43.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7383558783006704645', 'uniqueId': 'diana.milena.niet8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/6b956aeb5c0c69bfb29ed90aade62e2a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4faed28&amp;x-expires=1759932000&amp;x-signature=LOMEp6ktn7k9vufUFfRHdUh9aXo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'input': 'https://www.tiktok.com/@alpinacol/video/7545531175264144658', 'cid': '7553674636812796680', 'createTime': 1758726937, 'createTimeISO': '2025-09-24T15:15:37.000Z', 'text': '😡', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7032367701557642245', 'uniqueId': '_santanderiana1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1e27f19fa8bcbe43590381b04b3f5790~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b06047eb&amp;x-expires=1760018400&amp;x-signature=Qau%2F37iiGGbwNQt1Abq0XYmqjOM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546025738273587976', 'createTime': 1756946039, 'createTimeISO': '2025-09-04T00:33:59.000Z', 'text': 'jajaja jajaja lo amoooo🥰', 'diggCount': 36, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6843509781417329670', 'uniqueId': 'eddymoncada0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6f746b18e9a20db68637b1bc8a17f17~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bcd9e943&amp;x-expires=1759932000&amp;x-signature=mDAtKz3Wn7aTOOqSBSsm09vgFz4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546025738273587976', 'createTime': 1756946039, 'createTimeISO': '2025-09-04T00:33:59.000Z', 'text': 'jajaja jajaja lo amoooo🥰', 'diggCount': 36, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6843509781417329670', 'uniqueId': 'eddymoncada0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6f746b18e9a20db68637b1bc8a17f17~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=27450088&amp;x-expires=1760018400&amp;x-signature=cw4ffJ6C8XdLZ3NCuxDq%2Bi6%2Biwc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550482463694111508', 'createTime': 1757983710, 'createTimeISO': '2025-09-16T00:48:30.000Z', 'text': 'la mindiva cuando se embarace🫃🏻', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6971541913318065157', 'uniqueId': 'analu_536', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/12e2b38f8a37bd688f863bf50514ee50~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=09c23bdc&amp;x-expires=1759932000&amp;x-signature=%2BHw%2Bv0%2FZyXLXBvOwNyVTJeDKiWs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550482463694111508', 'createTime': 1757983710, 'createTimeISO': '2025-09-16T00:48:30.000Z', 'text': 'la mindiva cuando se embarace🫃🏻', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6971541913318065157', 'uniqueId': 'analu_536', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/12e2b38f8a37bd688f863bf50514ee50~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2960b9f6&amp;x-expires=1760018400&amp;x-signature=PZxdZn1QelYfkCGPIXOa%2BiDOFcc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547027727275213575', 'createTime': 1757179328, 'createTimeISO': '2025-09-06T17:22:08.000Z', 'text': 'Dios alguna colaboración con productos de cabello 🥰😂me encantas sus videos', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7408697910886335494', 'uniqueId': 'diario_amoratuesencia', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cdd35b1982a3f4e54b5f09b322d6c1cb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ba680e99&amp;x-expires=1759932000&amp;x-signature=gQTcjrmjy8feUyhs2we240S8lIk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547027727275213575', 'createTime': 1757179328, 'createTimeISO': '2025-09-06T17:22:08.000Z', 'text': 'Dios alguna colaboración con productos de cabello 🥰😂me encantas sus videos', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7408697910886335494', 'uniqueId': 'diario_amoratuesencia', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cdd35b1982a3f4e54b5f09b322d6c1cb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5f8a59f0&amp;x-expires=1760018400&amp;x-signature=q5h6RNICgRXwVoVzsl8uvK9RvwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15386,22 +15386,22 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
         <is>
-          <t>yo la amo🥰🥰🥰</t>
+          <t>jajaja jajajaja jajajaja</t>
         </is>
       </c>
       <c r="G282" s="2" t="n">
-        <v>45904.04677083333</v>
+        <v>45924.07853009259</v>
       </c>
       <c r="H282" s="3" t="n">
-        <v>45904</v>
+        <v>45924</v>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>01:07:21</t>
+          <t>01:53:05</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K282" t="n">
         <v>0</v>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546034302162486032', 'createTime': 1756948041, 'createTimeISO': '2025-09-04T01:07:21.000Z', 'text': 'yo la amo🥰🥰🥰', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6795904690741167110', 'uniqueId': 'sandranoguera69', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7335740007803518982~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5d9e4b6&amp;x-expires=1759932000&amp;x-signature=agaABQ6m3SNczuCA3HThheExYhQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7553467816608776967', 'createTime': 1758678785, 'createTimeISO': '2025-09-24T01:53:05.000Z', 'text': 'jajaja jajajaja jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6960824967346471942', 'uniqueId': 'cindyarias474', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/f027e424ab808225be6a6dd67139fe69~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=89c9a90e&amp;x-expires=1760018400&amp;x-signature=HXQgnotGnFyFMnzu5%2FLaDgpyQWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15442,22 +15442,22 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>al principio le entendí "ella es mi tía "</t>
+          <t>uff bella😳</t>
         </is>
       </c>
       <c r="G283" s="2" t="n">
-        <v>45927.05962962963</v>
+        <v>45904.21774305555</v>
       </c>
       <c r="H283" s="3" t="n">
-        <v>45927</v>
+        <v>45904</v>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>01:25:52</t>
+          <t>05:13:33</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K283" t="n">
         <v>0</v>
@@ -15472,7 +15472,7 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554574049306166034', 'createTime': 1758936352, 'createTimeISO': '2025-09-27T01:25:52.000Z', 'text': 'al principio le entendí "ella es mi tía "', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7492483624807678984', 'uniqueId': 'nicky_8342', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/05c8bf0507e855bc9d730b901fc3e64b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=03c94bb9&amp;x-expires=1759932000&amp;x-signature=CLlqsz%2F8B9meRu04w0B4rDd7uVg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546097800262615816', 'createTime': 1756962813, 'createTimeISO': '2025-09-04T05:13:33.000Z', 'text': 'uff bella😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7145117659229897734', 'uniqueId': 'yesidwwmvgk', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/58f3fdb8af91187edcc96cb95cf5a6be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4d86e844&amp;x-expires=1760018400&amp;x-signature=nie58epQRRulaFa%2BmHfh8X70U0I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15498,22 +15498,22 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>shakira</t>
+          <t>yo la amo🥰🥰🥰</t>
         </is>
       </c>
       <c r="G284" s="2" t="n">
-        <v>45920.81329861111</v>
+        <v>45904.04677083333</v>
       </c>
       <c r="H284" s="3" t="n">
-        <v>45920</v>
+        <v>45904</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>19:31:09</t>
+          <t>01:07:21</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
@@ -15528,7 +15528,7 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7552256121601032978', 'createTime': 1758396669, 'createTimeISO': '2025-09-20T19:31:09.000Z', 'text': 'shakira', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518511530653434888', 'uniqueId': 'federico.rystone', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba436a7252826484dc044cba22c69b78~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e25dc6c9&amp;x-expires=1759932000&amp;x-signature=jTzBMv1t6BKWcc47TM1BclRChnE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546034302162486032', 'createTime': 1756948041, 'createTimeISO': '2025-09-04T01:07:21.000Z', 'text': 'yo la amo🥰🥰🥰', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6795904690741167110', 'uniqueId': 'sandranoguera69', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7335740007803518982~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c462ae9c&amp;x-expires=1760018400&amp;x-signature=USObWHLKkzhuM5eOWq%2B6DWcCJyA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15554,22 +15554,22 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>jajajaja</t>
+          <t>al principio le entendí "ella es mi tía "</t>
         </is>
       </c>
       <c r="G285" s="2" t="n">
-        <v>45912.035625</v>
+        <v>45927.05962962963</v>
       </c>
       <c r="H285" s="3" t="n">
-        <v>45912</v>
+        <v>45927</v>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>00:51:18</t>
+          <t>01:25:52</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K285" t="n">
         <v>0</v>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7548998829536133909', 'createTime': 1757638278, 'createTimeISO': '2025-09-12T00:51:18.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912517303940039686', 'uniqueId': 'ziomi293', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f29081993d58f9249ae13560db23600d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24e4b22d&amp;x-expires=1759932000&amp;x-signature=DQMA84w7ykP8vJ3mr%2BvoHilcfO0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554574049306166034', 'createTime': 1758936352, 'createTimeISO': '2025-09-27T01:25:52.000Z', 'text': 'al principio le entendí "ella es mi tía "', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7492483624807678984', 'uniqueId': 'nicky_8342', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/05c8bf0507e855bc9d730b901fc3e64b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=52b866f2&amp;x-expires=1760018400&amp;x-signature=9onIU2YCbHqxeWwPHBoTikQm8%2Fw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15640,7 +15640,7 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554037032264762119', 'createTime': 1758811313, 'createTimeISO': '2025-09-25T14:41:53.000Z', 'text': 'este Man las imitaaaaaaa tannnnnn bieeeeeeeeen jajajajajajaakaj jajajaa que cuando las conoces te da risa jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7216865272228709382', 'uniqueId': 'jorgepinilla17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/67e509c633b655ae7a2badc539c21c23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5f2ebcc1&amp;x-expires=1759932000&amp;x-signature=mAtpYIycq8ctmJvKHttZ1nZ%2B%2BtQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554037032264762119', 'createTime': 1758811313, 'createTimeISO': '2025-09-25T14:41:53.000Z', 'text': 'este Man las imitaaaaaaa tannnnnn bieeeeeeeeen jajajajajajaakaj jajajaa que cuando las conoces te da risa jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7216865272228709382', 'uniqueId': 'jorgepinilla17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/67e509c633b655ae7a2badc539c21c23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8a4b6921&amp;x-expires=1760018400&amp;x-signature=Yp0fG4RsohluOwH03khNUFklJPA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15666,18 +15666,18 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>😂😂😂será el</t>
+          <t>shakira</t>
         </is>
       </c>
       <c r="G287" s="2" t="n">
-        <v>45920.15556712963</v>
+        <v>45920.81329861111</v>
       </c>
       <c r="H287" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>03:44:01</t>
+          <t>19:31:09</t>
         </is>
       </c>
       <c r="J287" t="n">
@@ -15696,7 +15696,7 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7552012071371244295', 'createTime': 1758339841, 'createTimeISO': '2025-09-20T03:44:01.000Z', 'text': '😂😂😂será el', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7424167216642196485', 'uniqueId': 'user5876011300480', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e58ceccb&amp;x-expires=1759932000&amp;x-signature=ZxPhst8TfJ%2Bxl%2FMdGw5nQMgDe8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7552256121601032978', 'createTime': 1758396669, 'createTimeISO': '2025-09-20T19:31:09.000Z', 'text': 'shakira', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7518511530653434888', 'uniqueId': 'federico.rystone', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba436a7252826484dc044cba22c69b78~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=97d1227c&amp;x-expires=1760018400&amp;x-signature=0a40KzEU45ZLKAA538ofHuYVvn8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15722,18 +15722,18 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>jajaja jajajaja jajajaja</t>
+          <t>😂😂😂será el</t>
         </is>
       </c>
       <c r="G288" s="2" t="n">
-        <v>45924.07853009259</v>
+        <v>45920.15556712963</v>
       </c>
       <c r="H288" s="3" t="n">
-        <v>45924</v>
+        <v>45920</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>01:53:05</t>
+          <t>03:44:01</t>
         </is>
       </c>
       <c r="J288" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7553467816608776967', 'createTime': 1758678785, 'createTimeISO': '2025-09-24T01:53:05.000Z', 'text': 'jajaja jajajaja jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6960824967346471942', 'uniqueId': 'cindyarias474', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/f027e424ab808225be6a6dd67139fe69~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6164af43&amp;x-expires=1759932000&amp;x-signature=LV2kCL8hXai9m9CQ14gimZiM9oI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7552012071371244295', 'createTime': 1758339841, 'createTimeISO': '2025-09-20T03:44:01.000Z', 'text': '😂😂😂será el', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7424167216642196485', 'uniqueId': 'user5876011300480', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d69240f&amp;x-expires=1760018400&amp;x-signature=lGmXLJbqmHXUrrhBTSRx5ZFVuaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15778,18 +15778,18 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>uff bella😳</t>
+          <t>jajajaja</t>
         </is>
       </c>
       <c r="G289" s="2" t="n">
-        <v>45904.21774305555</v>
+        <v>45912.035625</v>
       </c>
       <c r="H289" s="3" t="n">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>05:13:33</t>
+          <t>00:51:18</t>
         </is>
       </c>
       <c r="J289" t="n">
@@ -15808,7 +15808,7 @@
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546097800262615816', 'createTime': 1756962813, 'createTimeISO': '2025-09-04T05:13:33.000Z', 'text': 'uff bella😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7145117659229897734', 'uniqueId': 'yesidwwmvgk', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/58f3fdb8af91187edcc96cb95cf5a6be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1ea3887d&amp;x-expires=1759932000&amp;x-signature=EFI8cQIsVu9Ef%2FkXH87qNCq3j1A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7548998829536133909', 'createTime': 1757638278, 'createTimeISO': '2025-09-12T00:51:18.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912517303940039686', 'uniqueId': 'ziomi293', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f29081993d58f9249ae13560db23600d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b1092206&amp;x-expires=1760018400&amp;x-signature=R4GIGbtZrBolrPyZsX9sZxl0VTw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15834,18 +15834,18 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Ella o elle</t>
+          <t>Se ha descuidado bastante, no está conectada con energía femenina JAJAJAJA</t>
         </is>
       </c>
       <c r="G290" s="2" t="n">
-        <v>45905.02600694444</v>
+        <v>45905.47608796296</v>
       </c>
       <c r="H290" s="3" t="n">
         <v>45905</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>00:37:27</t>
+          <t>11:25:34</t>
         </is>
       </c>
       <c r="J290" t="n">
@@ -15864,7 +15864,7 @@
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546397683633537799', 'createTime': 1757032647, 'createTimeISO': '2025-09-05T00:37:27.000Z', 'text': 'Ella o elle', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7377669743136228357', 'uniqueId': 'osca.ruiz18', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0bf24727a90b74f7912fddb38a794ed5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cfc943d8&amp;x-expires=1759932000&amp;x-signature=jFxco419jrFKkLVkCP%2BUXRYAAec%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546564749291815698', 'createTime': 1757071534, 'createTimeISO': '2025-09-05T11:25:34.000Z', 'text': 'Se ha descuidado bastante, no está conectada con energía femenina JAJAJAJA', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046864850069799941', 'uniqueId': 'la_lita123', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/83196dc4bf893efaa46906cb8dc3955a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41f86e52&amp;x-expires=1760018400&amp;x-signature=Xw4e2iPRjiW9rKplGmWjdMzcnFY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15890,18 +15890,18 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Se ha descuidado bastante, no está conectada con energía femenina JAJAJAJA</t>
+          <t>Ella o elle</t>
         </is>
       </c>
       <c r="G291" s="2" t="n">
-        <v>45905.47608796296</v>
+        <v>45905.02600694444</v>
       </c>
       <c r="H291" s="3" t="n">
         <v>45905</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>11:25:34</t>
+          <t>00:37:27</t>
         </is>
       </c>
       <c r="J291" t="n">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546564749291815698', 'createTime': 1757071534, 'createTimeISO': '2025-09-05T11:25:34.000Z', 'text': 'Se ha descuidado bastante, no está conectada con energía femenina JAJAJAJA', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7046864850069799941', 'uniqueId': 'la_lita123', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/83196dc4bf893efaa46906cb8dc3955a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2695f881&amp;x-expires=1759932000&amp;x-signature=D9ZNXZuGTSRCltOtqfcv10xxMx8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546397683633537799', 'createTime': 1757032647, 'createTimeISO': '2025-09-05T00:37:27.000Z', 'text': 'Ella o elle', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7377669743136228357', 'uniqueId': 'osca.ruiz18', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0bf24727a90b74f7912fddb38a794ed5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=58d368d5&amp;x-expires=1760018400&amp;x-signature=3K1dEyL9BEfOyByrihCTmPoYD34%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -15976,7 +15976,7 @@
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545734822641287937', 'createTime': 1756878308, 'createTimeISO': '2025-09-03T05:45:08.000Z', 'text': '@Alexandra Berrio Gra @A.G 🦋', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6608011736459296774', 'uniqueId': 'gaviriaolgalu', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b92f01e85131002c68f9db56f8fbada1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1d7cf1cf&amp;x-expires=1759932000&amp;x-signature=fbPPNPrye85BVNXBJGXO%2B5kK%2FAg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alexandra Berrio Gra', '@A.G 🦋'], 'detailedMentions': [{'userId': '6913978098741969926', 'nickName': 'Alexandra Berrio Gra', 'profileUrl': 'https://www.tiktok.com/@6913978098741969926', 'secUid': 'MS4wLjABAAAA1k4IzS4Y_6Da2a1HCLX9xI2LAvg9pMyNmU4ZCxBc_VoyOMRhQ7XEsiWAMwkL7SH8'}, {'userId': '6908424209359455237', 'nickName': 'A.G 🦋', 'profileUrl': 'https://www.tiktok.com/@6908424209359455237', 'secUid': 'MS4wLjABAAAAoPolos3YlAIXdIen4zKfB-ZyUdWYXulhpKbtYgoEX7fXq7TMTIlyMQDFhaI3BdLQ'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545734822641287937', 'createTime': 1756878308, 'createTimeISO': '2025-09-03T05:45:08.000Z', 'text': '@Alexandra Berrio Gra @A.G 🦋', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6608011736459296774', 'uniqueId': 'gaviriaolgalu', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b92f01e85131002c68f9db56f8fbada1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=780c4422&amp;x-expires=1760018400&amp;x-signature=00kDK9hhoV0CLSCTkoDEvbWy1B8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alexandra Berrio Gra', '@A.G 🦋'], 'detailedMentions': [{'userId': '6913978098741969926', 'nickName': 'Alexandra Berrio Gra', 'profileUrl': 'https://www.tiktok.com/@6913978098741969926', 'secUid': 'MS4wLjABAAAA1k4IzS4Y_6Da2a1HCLX9xI2LAvg9pMyNmU4ZCxBc_VoyOMRhQ7XEsiWAMwkL7SH8'}, {'userId': '6908424209359455237', 'nickName': 'A.G 🦋', 'profileUrl': 'https://www.tiktok.com/@6908424209359455237', 'secUid': 'MS4wLjABAAAAoPolos3YlAIXdIen4zKfB-ZyUdWYXulhpKbtYgoEX7fXq7TMTIlyMQDFhaI3BdLQ'}]}</t>
         </is>
       </c>
     </row>
@@ -16002,18 +16002,18 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>🥺</t>
+          <t>jajajaja @El mindo muy bueno</t>
         </is>
       </c>
       <c r="G293" s="2" t="n">
-        <v>45921.59204861111</v>
+        <v>45904.48266203704</v>
       </c>
       <c r="H293" s="3" t="n">
-        <v>45921</v>
+        <v>45904</v>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>14:12:33</t>
+          <t>11:35:02</t>
         </is>
       </c>
       <c r="J293" t="n">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7552545142957130514', 'createTime': 1758463953, 'createTimeISO': '2025-09-21T14:12:33.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6836545459734348806', 'uniqueId': 'mariaemma81', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f3b5d9be1b594dc497902fc911bfeb90~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c97bbf20&amp;x-expires=1759932000&amp;x-signature=utXW6du6DusiLlqgH7pr7OWsfr0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546195948293407505', 'createTime': 1756985702, 'createTimeISO': '2025-09-04T11:35:02.000Z', 'text': 'jajajaja @El mindo muy bueno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6784388229891458054', 'uniqueId': 'marlonramirezsalserisimo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cede0c3900395a8cad32c4524e648067~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=db1618f9&amp;x-expires=1760018400&amp;x-signature=ZFfxJGwyfwaU36Q8ixFoNHPFsu0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@El mindo'], 'detailedMentions': [{'userId': '6779613305843155973', 'nickName': 'El mindo', 'profileUrl': 'https://www.tiktok.com/@6779613305843155973', 'secUid': 'MS4wLjABAAAAwWXzyw9Oc4E6qikF4d7mtxggggaKflUt9HQXZbUlGLj9POpcWEvKhPmOGScHgf1r'}]}</t>
         </is>
       </c>
     </row>
@@ -16058,18 +16058,18 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G294" s="2" t="n">
-        <v>45925.69847222222</v>
+        <v>45918.93907407407</v>
       </c>
       <c r="H294" s="3" t="n">
-        <v>45925</v>
+        <v>45918</v>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>16:45:48</t>
+          <t>22:32:16</t>
         </is>
       </c>
       <c r="J294" t="n">
@@ -16088,7 +16088,7 @@
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554068977828266759', 'createTime': 1758818748, 'createTimeISO': '2025-09-25T16:45:48.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7335074115550381061', 'uniqueId': 'giovanniquintero51', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7337131208209858565~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2f6a0667&amp;x-expires=1759932000&amp;x-signature=24X4l8fk8n2UcSSlFJoRUxCxjaU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7551560585995338503', 'createTime': 1758234736, 'createTimeISO': '2025-09-18T22:32:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7242529772303320070', 'uniqueId': 'anthonymatheus613', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7242544013687914501~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2a02ca66&amp;x-expires=1760018400&amp;x-signature=Abl0emzd46pnrbCCBOzGtNpQgoE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16114,18 +16114,18 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr">
         <is>
-          <t>💖</t>
+          <t>😩</t>
         </is>
       </c>
       <c r="G295" s="2" t="n">
-        <v>45921.69791666666</v>
+        <v>45929.53787037037</v>
       </c>
       <c r="H295" s="3" t="n">
-        <v>45921</v>
+        <v>45929</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>12:54:32</t>
         </is>
       </c>
       <c r="J295" t="n">
@@ -16144,7 +16144,7 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7552584426967515911', 'createTime': 1758473100, 'createTimeISO': '2025-09-21T16:45:00.000Z', 'text': '💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6960823693015155718', 'uniqueId': 'yaninisfernandez', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61f2c6291d353ba5f2a343b5fcab18b3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c7d0ac56&amp;x-expires=1759932000&amp;x-signature=MgZ9gINeusLuh%2BAlfWkhODPP1YY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7555493716271973127', 'createTime': 1759150472, 'createTimeISO': '2025-09-29T12:54:32.000Z', 'text': '😩', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7552730992646538247', 'uniqueId': 'sagitario0820', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d69240f&amp;x-expires=1760018400&amp;x-signature=lGmXLJbqmHXUrrhBTSRx5ZFVuaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16170,18 +16170,18 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>😏</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G296" s="2" t="n">
-        <v>45902.76243055556</v>
+        <v>45929.49773148148</v>
       </c>
       <c r="H296" s="3" t="n">
-        <v>45902</v>
+        <v>45929</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>18:17:54</t>
+          <t>11:56:44</t>
         </is>
       </c>
       <c r="J296" t="n">
@@ -16200,7 +16200,7 @@
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545557749674017543', 'createTime': 1756837074, 'createTimeISO': '2025-09-02T18:17:54.000Z', 'text': '😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7160324190766859270', 'uniqueId': 'angie7.joaqui', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7302545795801153542~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac765431&amp;x-expires=1759932000&amp;x-signature=nmXv%2BXFldceM78IIFigk%2FlRF5VI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7555478812118532871', 'createTime': 1759147004, 'createTimeISO': '2025-09-29T11:56:44.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6530566362937431055', 'uniqueId': 'andresfit1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d69240f&amp;x-expires=1760018400&amp;x-signature=lGmXLJbqmHXUrrhBTSRx5ZFVuaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16226,18 +16226,18 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😏</t>
         </is>
       </c>
       <c r="G297" s="2" t="n">
-        <v>45923.49199074074</v>
+        <v>45902.76243055556</v>
       </c>
       <c r="H297" s="3" t="n">
-        <v>45923</v>
+        <v>45902</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>11:48:28</t>
+          <t>18:17:54</t>
         </is>
       </c>
       <c r="J297" t="n">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7553250168742871815', 'createTime': 1758628108, 'createTimeISO': '2025-09-23T11:48:28.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7108416636059157510', 'uniqueId': 'user0314atm', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7108417440043761669~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3526b782&amp;x-expires=1759932000&amp;x-signature=C9xgLhvSw5tDGoJAez1Hz%2BprMio%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545557749674017543', 'createTime': 1756837074, 'createTimeISO': '2025-09-02T18:17:54.000Z', 'text': '😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7160324190766859270', 'uniqueId': 'angie7.joaqui', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7302545795801153542~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b50c2902&amp;x-expires=1760018400&amp;x-signature=%2BlcMSBCgbu%2Bpcbbk%2Fg%2FkQwYg3sQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16282,18 +16282,18 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
         <is>
-          <t>😂😂😂😂😂</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G298" s="2" t="n">
-        <v>45906.07608796296</v>
+        <v>45928.83846064815</v>
       </c>
       <c r="H298" s="3" t="n">
-        <v>45906</v>
+        <v>45928</v>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>01:49:34</t>
+          <t>20:07:23</t>
         </is>
       </c>
       <c r="J298" t="n">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546787336509588241', 'createTime': 1757123374, 'createTimeISO': '2025-09-06T01:49:34.000Z', 'text': '😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7279238842954744837', 'uniqueId': 'el.bucares', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7281433025459453958~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=27cf345f&amp;x-expires=1759932000&amp;x-signature=WcELt3qn9X0fq8B%2F5e8ISngZ9cA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7555234134768534273', 'createTime': 1759090043, 'createTimeISO': '2025-09-28T20:07:23.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6886279505053287429', 'uniqueId': 'clau_lau13', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7332949971857047554~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f85e2b06&amp;x-expires=1760018400&amp;x-signature=0m7QnXM6yQA6qrWTY%2FBGq2me9Lw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16338,18 +16338,18 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr">
         <is>
-          <t>😂😂😂</t>
+          <t>😂😂😂😂😂</t>
         </is>
       </c>
       <c r="G299" s="2" t="n">
-        <v>45906.12429398148</v>
+        <v>45927.76994212963</v>
       </c>
       <c r="H299" s="3" t="n">
-        <v>45906</v>
+        <v>45927</v>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>02:58:59</t>
+          <t>18:28:43</t>
         </is>
       </c>
       <c r="J299" t="n">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546805283675570962', 'createTime': 1757127539, 'createTimeISO': '2025-09-06T02:58:59.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961153154818327557', 'uniqueId': '1528monica', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e961ec1284a9992dadaa68ff9935115e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a440de70&amp;x-expires=1759932000&amp;x-signature=1cnQB22fEU20bJwx1OS5IB82bao%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554837640732132117', 'createTime': 1758997723, 'createTimeISO': '2025-09-27T18:28:43.000Z', 'text': '😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842453252349854726', 'uniqueId': 'helenlopezcabrera', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b89f22dd365ae007bde920281d0beffe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d4145cf&amp;x-expires=1760018400&amp;x-signature=Fy3jK%2BarLS%2FdW%2BK%2FNkDMwUj%2Fp3I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16424,7 +16424,7 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547378713027412754', 'createTime': 1757261051, 'createTimeISO': '2025-09-07T16:04:11.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6833140688231859206', 'uniqueId': 'elisusi29', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/1345745567d7c8fffe3c836064eca8a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fd7d9412&amp;x-expires=1759932000&amp;x-signature=VsHFhe%2B3N1micZmoIQJztcix5z0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547378713027412754', 'createTime': 1757261051, 'createTimeISO': '2025-09-07T16:04:11.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6833140688231859206', 'uniqueId': 'elisusi29', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/1345745567d7c8fffe3c836064eca8a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=94ef83ff&amp;x-expires=1760018400&amp;x-signature=IdU%2Bcmp7TeGkVPTXu78v3WDXVdE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16450,18 +16450,18 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
         <is>
-          <t>jajajaja @El mindo muy bueno</t>
+          <t>🥰🥰🥰🥰🥰</t>
         </is>
       </c>
       <c r="G301" s="2" t="n">
-        <v>45904.48266203704</v>
+        <v>45903.08365740741</v>
       </c>
       <c r="H301" s="3" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>11:35:02</t>
+          <t>02:00:28</t>
         </is>
       </c>
       <c r="J301" t="n">
@@ -16480,7 +16480,7 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546195948293407505', 'createTime': 1756985702, 'createTimeISO': '2025-09-04T11:35:02.000Z', 'text': 'jajajaja @El mindo muy bueno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6784388229891458054', 'uniqueId': 'marlonramirezsalserisimo', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cede0c3900395a8cad32c4524e648067~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d3a6bac&amp;x-expires=1759932000&amp;x-signature=qZ1vw%2BM9iQNxamwrQmQGqNHhTRQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@El mindo'], 'detailedMentions': [{'userId': '6779613305843155973', 'nickName': 'El mindo', 'profileUrl': 'https://www.tiktok.com/@6779613305843155973', 'secUid': 'MS4wLjABAAAAwWXzyw9Oc4E6qikF4d7mtxggggaKflUt9HQXZbUlGLj9POpcWEvKhPmOGScHgf1r'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545676945808343815', 'createTime': 1756864828, 'createTimeISO': '2025-09-03T02:00:28.000Z', 'text': '🥰🥰🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6531784221063648256', 'uniqueId': 'leleleururir', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e5e70d3e4f5e6da355fb29a295a6bac6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d2baa79c&amp;x-expires=1760018400&amp;x-signature=FO5vNVerwsy50mq6O1fF4PdBG94%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16506,18 +16506,18 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🤣🤣🤣</t>
         </is>
       </c>
       <c r="G302" s="2" t="n">
-        <v>45929.49773148148</v>
+        <v>45903.1565625</v>
       </c>
       <c r="H302" s="3" t="n">
-        <v>45929</v>
+        <v>45903</v>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>11:56:44</t>
+          <t>03:45:27</t>
         </is>
       </c>
       <c r="J302" t="n">
@@ -16536,7 +16536,7 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7555478812118532871', 'createTime': 1759147004, 'createTimeISO': '2025-09-29T11:56:44.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6530566362937431055', 'uniqueId': 'andresfit1', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=daf70492&amp;x-expires=1759932000&amp;x-signature=R0xMx2X9gEWUyvfh9NYV3JGICWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545703981814530824', 'createTime': 1756871127, 'createTimeISO': '2025-09-03T03:45:27.000Z', 'text': '🤣🤣🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7109990555966620678', 'uniqueId': 'wwwyibis.avila.gmail.com', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7fc00513e7693d503519d5d9487f9d5d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a27d2927&amp;x-expires=1760018400&amp;x-signature=A8zU4R50HFPLbJOk%2BFJgo%2Fupi90%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16562,18 +16562,18 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G303" s="2" t="n">
-        <v>45907.08855324074</v>
+        <v>45925.69847222222</v>
       </c>
       <c r="H303" s="3" t="n">
-        <v>45907</v>
+        <v>45925</v>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>02:07:31</t>
+          <t>16:45:48</t>
         </is>
       </c>
       <c r="J303" t="n">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547162879372952321', 'createTime': 1757210851, 'createTimeISO': '2025-09-07T02:07:31.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7065939336964883462', 'uniqueId': 'juanca3900', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/33106be20946cd94c1e688413b124a8f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad011742&amp;x-expires=1759932000&amp;x-signature=sPgTiIX7%2BsbdEaplZwaFONUNZKg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554068977828266759', 'createTime': 1758818748, 'createTimeISO': '2025-09-25T16:45:48.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7335074115550381061', 'uniqueId': 'giovanniquintero51', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7337131208209858565~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=330be081&amp;x-expires=1760018400&amp;x-signature=4a%2BfhxPEZdLlaCJsrlg%2BmiFBU%2F0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16618,18 +16618,18 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>🥰🥰🥰🥰🥰</t>
+          <t>😅😂😅😂😅😂😅😂😅😂</t>
         </is>
       </c>
       <c r="G304" s="2" t="n">
-        <v>45903.08365740741</v>
+        <v>45908.88170138889</v>
       </c>
       <c r="H304" s="3" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>02:00:28</t>
+          <t>21:09:39</t>
         </is>
       </c>
       <c r="J304" t="n">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545676945808343815', 'createTime': 1756864828, 'createTimeISO': '2025-09-03T02:00:28.000Z', 'text': '🥰🥰🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6531784221063648256', 'uniqueId': 'leleleururir', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e5e70d3e4f5e6da355fb29a295a6bac6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3cd3918a&amp;x-expires=1759932000&amp;x-signature=ZmZu4dP19R7TtXI8%2Fj7CBM%2FCP30%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547828497968874261', 'createTime': 1757365779, 'createTimeISO': '2025-09-08T21:09:39.000Z', 'text': '😅😂😅😂😅😂😅😂😅😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923401090465874950', 'uniqueId': 'kaamila.27', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f2b043116bd9bf5105d385b9135a91d6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41917e53&amp;x-expires=1760018400&amp;x-signature=sTL4ynruUIfOk2Gf5MlspTnKq6c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16674,18 +16674,18 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t>😍</t>
+          <t>🥺</t>
         </is>
       </c>
       <c r="G305" s="2" t="n">
-        <v>45927.70649305556</v>
+        <v>45927.67527777778</v>
       </c>
       <c r="H305" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>16:57:21</t>
+          <t>16:12:24</t>
         </is>
       </c>
       <c r="J305" t="n">
@@ -16704,7 +16704,7 @@
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554814130390074119', 'createTime': 1758992241, 'createTimeISO': '2025-09-27T16:57:21.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6973249541391008774', 'uniqueId': 'victorlopez57589', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/807b916aeea60a0c0be9c8a3a33bc91f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f381a8c9&amp;x-expires=1759932000&amp;x-signature=v4gAmECsWObpoo88hgD519s%2BSDs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554802511599092488', 'createTime': 1758989544, 'createTimeISO': '2025-09-27T16:12:24.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7486165731773219895', 'uniqueId': 'lina.jerez5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a09ad675127d6a16714f8d3516d39aed~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bd77cd91&amp;x-expires=1760018400&amp;x-signature=YpWUfg%2B98AVZX%2FzIxy6kgkcYTrw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16730,18 +16730,18 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>🥺</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G306" s="2" t="n">
-        <v>45927.67527777778</v>
+        <v>45923.49199074074</v>
       </c>
       <c r="H306" s="3" t="n">
-        <v>45927</v>
+        <v>45923</v>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>16:12:24</t>
+          <t>11:48:28</t>
         </is>
       </c>
       <c r="J306" t="n">
@@ -16760,7 +16760,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554802511599092488', 'createTime': 1758989544, 'createTimeISO': '2025-09-27T16:12:24.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7486165731773219895', 'uniqueId': 'lina.jerez5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a09ad675127d6a16714f8d3516d39aed~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0653ed35&amp;x-expires=1759932000&amp;x-signature=VfdB69dsBe5A%2BJwmpCtdT6zzHfg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7553250168742871815', 'createTime': 1758628108, 'createTimeISO': '2025-09-23T11:48:28.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7108416636059157510', 'uniqueId': 'user0314atm', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7108417440043761669~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=50e15f43&amp;x-expires=1760018400&amp;x-signature=jaHKz63p2%2F%2B6FizDN09fC3vEL08%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16790,14 +16790,14 @@
         </is>
       </c>
       <c r="G307" s="2" t="n">
-        <v>45927.76994212963</v>
+        <v>45906.07608796296</v>
       </c>
       <c r="H307" s="3" t="n">
-        <v>45927</v>
+        <v>45906</v>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>18:28:43</t>
+          <t>01:49:34</t>
         </is>
       </c>
       <c r="J307" t="n">
@@ -16816,7 +16816,7 @@
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554837640732132117', 'createTime': 1758997723, 'createTimeISO': '2025-09-27T18:28:43.000Z', 'text': '😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842453252349854726', 'uniqueId': 'helenlopezcabrera', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b89f22dd365ae007bde920281d0beffe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc5dc887&amp;x-expires=1759932000&amp;x-signature=nf4gtmebGt9zuhXmAL0knZtuvqE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546787336509588241', 'createTime': 1757123374, 'createTimeISO': '2025-09-06T01:49:34.000Z', 'text': '😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7279238842954744837', 'uniqueId': 'el.bucares', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7281433025459453958~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=23074edb&amp;x-expires=1760018400&amp;x-signature=Zr1Gv94MY1B3IdfHYkHArrp%2FmY8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16872,7 +16872,7 @@
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546655910278693639', 'createTime': 1757092758, 'createTimeISO': '2025-09-05T17:19:18.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7182314054235489285', 'uniqueId': 'maicol.amaya4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7359184790438248453~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1ccab1e0&amp;x-expires=1759932000&amp;x-signature=NrXy48ooIPF%2B%2FzRHfS6qmxTzI%2F0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546655910278693639', 'createTime': 1757092758, 'createTimeISO': '2025-09-05T17:19:18.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7182314054235489285', 'uniqueId': 'maicol.amaya4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7359184790438248453~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6c5d3b1d&amp;x-expires=1760018400&amp;x-signature=8PtsaeVwpdGKH15UmGhGoKqwk8I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16898,18 +16898,18 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G309" s="2" t="n">
-        <v>45918.93907407407</v>
+        <v>45929.51097222222</v>
       </c>
       <c r="H309" s="3" t="n">
-        <v>45918</v>
+        <v>45929</v>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>22:32:16</t>
+          <t>12:15:48</t>
         </is>
       </c>
       <c r="J309" t="n">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7551560585995338503', 'createTime': 1758234736, 'createTimeISO': '2025-09-18T22:32:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7242529772303320070', 'uniqueId': 'anthonymatheus613', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7242544013687914501~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=42452e91&amp;x-expires=1759932000&amp;x-signature=skcyAjhDzAl07LFpPjSyt8%2BZOdk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7555483731324224274', 'createTime': 1759148148, 'createTimeISO': '2025-09-29T12:15:48.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7432693523005015045', 'uniqueId': 'ruam118', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=35ef26d5&amp;x-expires=1760018400&amp;x-signature=tl%2BqCvRW522bUHfKeVfcdlgeQOI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -16954,18 +16954,18 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t>😩</t>
+          <t>😍</t>
         </is>
       </c>
       <c r="G310" s="2" t="n">
-        <v>45929.53787037037</v>
+        <v>45927.70649305556</v>
       </c>
       <c r="H310" s="3" t="n">
-        <v>45929</v>
+        <v>45927</v>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>12:54:32</t>
+          <t>16:57:21</t>
         </is>
       </c>
       <c r="J310" t="n">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7555493716271973127', 'createTime': 1759150472, 'createTimeISO': '2025-09-29T12:54:32.000Z', 'text': '😩', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7552730992646538247', 'uniqueId': 'sagitario0820', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e58ceccb&amp;x-expires=1759932000&amp;x-signature=ZxPhst8TfJ%2Bxl%2FMdGw5nQMgDe8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554814130390074119', 'createTime': 1758992241, 'createTimeISO': '2025-09-27T16:57:21.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6973249541391008774', 'uniqueId': 'victorlopez57589', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/807b916aeea60a0c0be9c8a3a33bc91f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3ae927e1&amp;x-expires=1760018400&amp;x-signature=5H806cXGk%2FRY9gzir2lT%2BNfjqPs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17010,18 +17010,18 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>😳</t>
         </is>
       </c>
       <c r="G311" s="2" t="n">
-        <v>45928.83846064815</v>
+        <v>45926.64869212963</v>
       </c>
       <c r="H311" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>20:07:23</t>
+          <t>15:34:07</t>
         </is>
       </c>
       <c r="J311" t="n">
@@ -17040,7 +17040,7 @@
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7555234134768534273', 'createTime': 1759090043, 'createTimeISO': '2025-09-28T20:07:23.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6886279505053287429', 'uniqueId': 'clau_lau13', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7332949971857047554~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a44118bf&amp;x-expires=1759932000&amp;x-signature=vU5VHAHsyQnUJgi2vvLhn73BVRM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554421581344441096', 'createTime': 1758900847, 'createTimeISO': '2025-09-26T15:34:07.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7548278115316106246', 'uniqueId': 'laurita_11097', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=35ef26d5&amp;x-expires=1760018400&amp;x-signature=tl%2BqCvRW522bUHfKeVfcdlgeQOI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17066,18 +17066,18 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t>🤣🤣🤣</t>
+          <t>❤</t>
         </is>
       </c>
       <c r="G312" s="2" t="n">
-        <v>45903.1565625</v>
+        <v>45926.19291666667</v>
       </c>
       <c r="H312" s="3" t="n">
-        <v>45903</v>
+        <v>45926</v>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>03:45:27</t>
+          <t>04:37:48</t>
         </is>
       </c>
       <c r="J312" t="n">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7545703981814530824', 'createTime': 1756871127, 'createTimeISO': '2025-09-03T03:45:27.000Z', 'text': '🤣🤣🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7109990555966620678', 'uniqueId': 'wwwyibis.avila.gmail.com', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7fc00513e7693d503519d5d9487f9d5d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4effdc83&amp;x-expires=1759932000&amp;x-signature=x8JvBwGRlu8ZlEreCbfy0iBcPxY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554252451235922696', 'createTime': 1758861468, 'createTimeISO': '2025-09-26T04:37:48.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6894807330082767878', 'uniqueId': 'alexlu_1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/bef3c2718e574cc1519dcf2035e14cc3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ee6e7688&amp;x-expires=1760018400&amp;x-signature=yJMZ0R%2FgamaxUI01ZiUt6S9NEiQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17122,18 +17122,18 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t>😅😂😅😂😅😂😅😂😅😂</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G313" s="2" t="n">
-        <v>45908.88170138889</v>
+        <v>45925.71322916666</v>
       </c>
       <c r="H313" s="3" t="n">
-        <v>45908</v>
+        <v>45925</v>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>21:09:39</t>
+          <t>17:07:03</t>
         </is>
       </c>
       <c r="J313" t="n">
@@ -17152,7 +17152,7 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547828497968874261', 'createTime': 1757365779, 'createTimeISO': '2025-09-08T21:09:39.000Z', 'text': '😅😂😅😂😅😂😅😂😅😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923401090465874950', 'uniqueId': 'kaamila.27', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f2b043116bd9bf5105d385b9135a91d6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=62f41792&amp;x-expires=1759932000&amp;x-signature=UY%2BVTQ%2BMEQBCJ%2FbMGVKwQNd5aqU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554074452167574280', 'createTime': 1758820023, 'createTimeISO': '2025-09-25T17:07:03.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7524894492974498834', 'uniqueId': 'adrianita.rueda', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/5f40f60be46ca2976ffd2714fe013dd0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0cb53d2c&amp;x-expires=1760018400&amp;x-signature=BYKJe5V%2B1uJMbizVh%2FCi2z0TTI4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17178,18 +17178,18 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂😂😂😂</t>
         </is>
       </c>
       <c r="G314" s="2" t="n">
-        <v>45907.39456018519</v>
+        <v>45923.43799768519</v>
       </c>
       <c r="H314" s="3" t="n">
-        <v>45907</v>
+        <v>45923</v>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>09:28:10</t>
+          <t>10:30:43</t>
         </is>
       </c>
       <c r="J314" t="n">
@@ -17208,7 +17208,7 @@
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547276647496336135', 'createTime': 1757237290, 'createTimeISO': '2025-09-07T09:28:10.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532217903690597384', 'uniqueId': 'kevin.obando944', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9e28bb84b3cfdc3c59c758e27a6f8ac7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c414d978&amp;x-expires=1759932000&amp;x-signature=CM489NfFjVAKC52L6qKNDkUnRgY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7553230139720368903', 'createTime': 1758623443, 'createTimeISO': '2025-09-23T10:30:43.000Z', 'text': '😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6817189118427694085', 'uniqueId': 'user90291148', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7327520080811622405~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=edd4d220&amp;x-expires=1760018400&amp;x-signature=mvS%2FOK%2BPAIlVE1%2BtmQqjkDHYnBI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17234,18 +17234,18 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>😈</t>
+          <t>💖</t>
         </is>
       </c>
       <c r="G315" s="2" t="n">
-        <v>45919.81491898148</v>
+        <v>45921.69791666666</v>
       </c>
       <c r="H315" s="3" t="n">
-        <v>45919</v>
+        <v>45921</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>19:33:29</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="J315" t="n">
@@ -17264,7 +17264,7 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7551885639546651413', 'createTime': 1758310409, 'createTimeISO': '2025-09-19T19:33:29.000Z', 'text': '😈', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7395934044830319622', 'uniqueId': 'valle.del.cauca8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/eb12fecc62dd4ac8bb207de6183a623a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=26507304&amp;x-expires=1759932000&amp;x-signature=kyi68CUp%2BQyq3NuyaPcDTnlVhVk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7552584426967515911', 'createTime': 1758473100, 'createTimeISO': '2025-09-21T16:45:00.000Z', 'text': '💖', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6960823693015155718', 'uniqueId': 'yaninisfernandez', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/61f2c6291d353ba5f2a343b5fcab18b3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c6eb98ba&amp;x-expires=1760018400&amp;x-signature=avl2dmokQugidK3xOBA8lT2EmjQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17290,18 +17290,18 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t>😂😂😂</t>
+          <t>🥺</t>
         </is>
       </c>
       <c r="G316" s="2" t="n">
-        <v>45920.23740740741</v>
+        <v>45921.59204861111</v>
       </c>
       <c r="H316" s="3" t="n">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>05:41:52</t>
+          <t>14:12:33</t>
         </is>
       </c>
       <c r="J316" t="n">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7552042456460559125', 'createTime': 1758346912, 'createTimeISO': '2025-09-20T05:41:52.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6868732194216690693', 'uniqueId': 'claudiajerez56', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7321676190291329025~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3a3ca646&amp;x-expires=1759932000&amp;x-signature=h%2FmaDOyI9MOizf%2FJhGxi2E%2BqIMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7552545142957130514', 'createTime': 1758463953, 'createTimeISO': '2025-09-21T14:12:33.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6836545459734348806', 'uniqueId': 'mariaemma81', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f3b5d9be1b594dc497902fc911bfeb90~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7d20474a&amp;x-expires=1760018400&amp;x-signature=mXu0KFeMbJCGlvDUKBYQzr5%2Fjn8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17346,18 +17346,18 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂😂😂</t>
         </is>
       </c>
       <c r="G317" s="2" t="n">
-        <v>45904.51769675926</v>
+        <v>45920.23740740741</v>
       </c>
       <c r="H317" s="3" t="n">
-        <v>45904</v>
+        <v>45920</v>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>12:25:29</t>
+          <t>05:41:52</t>
         </is>
       </c>
       <c r="J317" t="n">
@@ -17376,7 +17376,7 @@
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546209094811468561', 'createTime': 1756988729, 'createTimeISO': '2025-09-04T12:25:29.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6770309293184828422', 'uniqueId': 'carolinadiaz572', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/42bf6d15c9e20e7befc20dde42e3fb89~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b6d7a40&amp;x-expires=1759932000&amp;x-signature=VcvrMdY2dV1QiJ07zg1FWYX%2Bzjo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7552042456460559125', 'createTime': 1758346912, 'createTimeISO': '2025-09-20T05:41:52.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6868732194216690693', 'uniqueId': 'claudiajerez56', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7321676190291329025~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=db6d6b16&amp;x-expires=1760018400&amp;x-signature=BdAmRL%2BBHdREWxhnQ%2FgyA7CKvSQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17402,18 +17402,18 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G318" s="2" t="n">
-        <v>45929.51097222222</v>
+        <v>45911.56244212963</v>
       </c>
       <c r="H318" s="3" t="n">
-        <v>45929</v>
+        <v>45911</v>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>12:15:48</t>
+          <t>13:29:55</t>
         </is>
       </c>
       <c r="J318" t="n">
@@ -17432,7 +17432,7 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7555483731324224274', 'createTime': 1759148148, 'createTimeISO': '2025-09-29T12:15:48.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7432693523005015045', 'uniqueId': 'ruam118', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e58ceccb&amp;x-expires=1759932000&amp;x-signature=ZxPhst8TfJ%2Bxl%2FMdGw5nQMgDe8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7548823307437916936', 'createTime': 1757597395, 'createTimeISO': '2025-09-11T13:29:55.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246554016846709765', 'uniqueId': 'jenn50012', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/51a0473a45bec8820863507d5416f2f9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=858f3750&amp;x-expires=1760018400&amp;x-signature=Yux5nd54feKdH%2FHuPvNT2qGFfZs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17458,18 +17458,18 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😂😂</t>
         </is>
       </c>
       <c r="G319" s="2" t="n">
-        <v>45925.71322916666</v>
+        <v>45917.7609375</v>
       </c>
       <c r="H319" s="3" t="n">
-        <v>45925</v>
+        <v>45917</v>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>17:07:03</t>
+          <t>18:15:45</t>
         </is>
       </c>
       <c r="J319" t="n">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554074452167574280', 'createTime': 1758820023, 'createTimeISO': '2025-09-25T17:07:03.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7524894492974498834', 'uniqueId': 'adrianita.rueda', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5f40f60be46ca2976ffd2714fe013dd0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f76ee96b&amp;x-expires=1759932000&amp;x-signature=1rKInFT6IlFGSBCywhF6nyBsIeA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7551123290023510800', 'createTime': 1758132945, 'createTimeISO': '2025-09-17T18:15:45.000Z', 'text': '😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7113646586802291718', 'uniqueId': 'layessi_01', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/90138863676749d643018befc9c25226~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=edaa5312&amp;x-expires=1760018400&amp;x-signature=1kuYrQ7iKRv7v4ZFWxKHQQhQPhQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17518,14 +17518,14 @@
         </is>
       </c>
       <c r="G320" s="2" t="n">
-        <v>45908.81130787037</v>
+        <v>45917.75802083333</v>
       </c>
       <c r="H320" s="3" t="n">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>19:28:17</t>
+          <t>18:11:33</t>
         </is>
       </c>
       <c r="J320" t="n">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547802344055685904', 'createTime': 1757359697, 'createTimeISO': '2025-09-08T19:28:17.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7456202778551518214', 'uniqueId': 'camacho_..1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5ee71b4776cf0b2ae9e290e98507aa6b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ed4f9010&amp;x-expires=1759932000&amp;x-signature=2Q93Ut%2Bp9ZbjJIZFpI3ezeNjUJU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7551122371433743111', 'createTime': 1758132693, 'createTimeISO': '2025-09-17T18:11:33.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7513758447301854215', 'uniqueId': 'roxibellm06', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1ac4c2bfd97e8a659951c288bbb2c28e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1edd32ac&amp;x-expires=1760018400&amp;x-signature=4yDgLzimYrJp7jquhVauqqbzi60%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17570,18 +17570,18 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G321" s="2" t="n">
-        <v>45908.81203703704</v>
+        <v>45912.82488425926</v>
       </c>
       <c r="H321" s="3" t="n">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>19:29:20</t>
+          <t>19:47:50</t>
         </is>
       </c>
       <c r="J321" t="n">
@@ -17600,7 +17600,7 @@
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547802661811208980', 'createTime': 1757359760, 'createTimeISO': '2025-09-08T19:29:20.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809678797618971654', 'uniqueId': 'ricardo_04_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/80a78e18c2efcba6d5deda78bfc8603e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cb5075ae&amp;x-expires=1759932000&amp;x-signature=35Jd0MgoVfj6mddor8BqQctqB3k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7549291734821044999', 'createTime': 1757706470, 'createTimeISO': '2025-09-12T19:47:50.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197396568453858310', 'uniqueId': 'yolanda.rosero..25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d69240f&amp;x-expires=1760018400&amp;x-signature=lGmXLJbqmHXUrrhBTSRx5ZFVuaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17626,18 +17626,18 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>😂😂</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G322" s="2" t="n">
-        <v>45917.7609375</v>
+        <v>45908.81130787037</v>
       </c>
       <c r="H322" s="3" t="n">
-        <v>45917</v>
+        <v>45908</v>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>18:15:45</t>
+          <t>19:28:17</t>
         </is>
       </c>
       <c r="J322" t="n">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7551123290023510800', 'createTime': 1758132945, 'createTimeISO': '2025-09-17T18:15:45.000Z', 'text': '😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7113646586802291718', 'uniqueId': 'layessi_01', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/90138863676749d643018befc9c25226~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82af7b8b&amp;x-expires=1759932000&amp;x-signature=bGCaFgNr4FAbb2DvOjoFp%2Fp8huA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547802344055685904', 'createTime': 1757359697, 'createTimeISO': '2025-09-08T19:28:17.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7456202778551518214', 'uniqueId': 'camacho_..1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5ee71b4776cf0b2ae9e290e98507aa6b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e8573f07&amp;x-expires=1760018400&amp;x-signature=TCyjYQXFUT2G0D3Xv1ZwxaG9itk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17686,14 +17686,14 @@
         </is>
       </c>
       <c r="G323" s="2" t="n">
-        <v>45917.75802083333</v>
+        <v>45907.39456018519</v>
       </c>
       <c r="H323" s="3" t="n">
-        <v>45917</v>
+        <v>45907</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>18:11:33</t>
+          <t>09:28:10</t>
         </is>
       </c>
       <c r="J323" t="n">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7551122371433743111', 'createTime': 1758132693, 'createTimeISO': '2025-09-17T18:11:33.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7513758447301854215', 'uniqueId': 'roxibellm06', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1ac4c2bfd97e8a659951c288bbb2c28e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3a8854aa&amp;x-expires=1759932000&amp;x-signature=Hf2nVaIexfC6UesvNYOM5s6E3c4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547276647496336135', 'createTime': 1757237290, 'createTimeISO': '2025-09-07T09:28:10.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532217903690597384', 'uniqueId': 'kevin.obando944', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9e28bb84b3cfdc3c59c758e27a6f8ac7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=53e61841&amp;x-expires=1760018400&amp;x-signature=GMsiHOC7bD6AHMMotx5oggk%2FeAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17738,18 +17738,18 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t>😳</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G324" s="2" t="n">
-        <v>45926.64869212963</v>
+        <v>45907.08855324074</v>
       </c>
       <c r="H324" s="3" t="n">
-        <v>45926</v>
+        <v>45907</v>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>15:34:07</t>
+          <t>02:07:31</t>
         </is>
       </c>
       <c r="J324" t="n">
@@ -17768,7 +17768,7 @@
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554421581344441096', 'createTime': 1758900847, 'createTimeISO': '2025-09-26T15:34:07.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7548278115316106246', 'uniqueId': 'laurita_11097', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e58ceccb&amp;x-expires=1759932000&amp;x-signature=ZxPhst8TfJ%2Bxl%2FMdGw5nQMgDe8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547162879372952321', 'createTime': 1757210851, 'createTimeISO': '2025-09-07T02:07:31.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7065939336964883462', 'uniqueId': 'juanca3900', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/33106be20946cd94c1e688413b124a8f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0df648e3&amp;x-expires=1760018400&amp;x-signature=rARGHZ9Rfh5SEk7ta2Wel6pU92w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17794,18 +17794,18 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t>❤</t>
+          <t>😂😂😂</t>
         </is>
       </c>
       <c r="G325" s="2" t="n">
-        <v>45926.19291666667</v>
+        <v>45906.12429398148</v>
       </c>
       <c r="H325" s="3" t="n">
-        <v>45926</v>
+        <v>45906</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>04:37:48</t>
+          <t>02:58:59</t>
         </is>
       </c>
       <c r="J325" t="n">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554252451235922696', 'createTime': 1758861468, 'createTimeISO': '2025-09-26T04:37:48.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6894807330082767878', 'uniqueId': 'alexlu_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bef3c2718e574cc1519dcf2035e14cc3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=48e45a64&amp;x-expires=1759932000&amp;x-signature=RYDHwChjn1OAjDhKUg30paTJ3I8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546805283675570962', 'createTime': 1757127539, 'createTimeISO': '2025-09-06T02:58:59.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961153154818327557', 'uniqueId': '1528monica', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e961ec1284a9992dadaa68ff9935115e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=adf7bdef&amp;x-expires=1760018400&amp;x-signature=3u%2BQtQOOWQYA9Dqq3%2F5e0RZ7rvY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17854,14 +17854,14 @@
         </is>
       </c>
       <c r="G326" s="2" t="n">
-        <v>45912.82488425926</v>
+        <v>45904.51769675926</v>
       </c>
       <c r="H326" s="3" t="n">
-        <v>45912</v>
+        <v>45904</v>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>19:47:50</t>
+          <t>12:25:29</t>
         </is>
       </c>
       <c r="J326" t="n">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7549291734821044999', 'createTime': 1757706470, 'createTimeISO': '2025-09-12T19:47:50.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197396568453858310', 'uniqueId': 'yolanda.rosero..25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e58ceccb&amp;x-expires=1759932000&amp;x-signature=ZxPhst8TfJ%2Bxl%2FMdGw5nQMgDe8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7546209094811468561', 'createTime': 1756988729, 'createTimeISO': '2025-09-04T12:25:29.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6770309293184828422', 'uniqueId': 'carolinadiaz572', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/42bf6d15c9e20e7befc20dde42e3fb89~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3ce72b64&amp;x-expires=1760018400&amp;x-signature=HmZ9A37NtlCiOkRgeceLkN9etS8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17906,18 +17906,18 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🔥</t>
         </is>
       </c>
       <c r="G327" s="2" t="n">
-        <v>45911.56244212963</v>
+        <v>45927.04219907407</v>
       </c>
       <c r="H327" s="3" t="n">
-        <v>45911</v>
+        <v>45927</v>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>13:29:55</t>
+          <t>01:00:46</t>
         </is>
       </c>
       <c r="J327" t="n">
@@ -17936,7 +17936,7 @@
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7548823307437916936', 'createTime': 1757597395, 'createTimeISO': '2025-09-11T13:29:55.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7246554016846709765', 'uniqueId': 'jenn50012', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/51a0473a45bec8820863507d5416f2f9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c76cde08&amp;x-expires=1759932000&amp;x-signature=6TNFBczqPYO1N%2B3Npi%2FK9pRQMWA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554567549327229704', 'createTime': 1758934846, 'createTimeISO': '2025-09-27T01:00:46.000Z', 'text': '🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7302078438922503174', 'uniqueId': 'joeyhoyos_165', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6cb006067cbd0b507752bd82e55382cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=76859649&amp;x-expires=1760018400&amp;x-signature=g1nBoJcJQUYJnv%2Fvg4pdh0Bl17k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -17962,18 +17962,18 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>😂😂😂😂</t>
+          <t>el man que saco 🔫 y le tiraba a la jente en las protestas .</t>
         </is>
       </c>
       <c r="G328" s="2" t="n">
-        <v>45923.43799768519</v>
+        <v>45929.02708333333</v>
       </c>
       <c r="H328" s="3" t="n">
-        <v>45923</v>
+        <v>45929</v>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>10:30:43</t>
+          <t>00:39:00</t>
         </is>
       </c>
       <c r="J328" t="n">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7553230139720368903', 'createTime': 1758623443, 'createTimeISO': '2025-09-23T10:30:43.000Z', 'text': '😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6817189118427694085', 'uniqueId': 'user90291148', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327520080811622405~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eaf52a44&amp;x-expires=1759932000&amp;x-signature=lJDvMZFmu9d9JKtU6QW2YzGzlqc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7555302773605827348', 'createTime': 1759106340, 'createTimeISO': '2025-09-29T00:39:00.000Z', 'text': 'el man que saco 🔫 y le tiraba a la jente en las protestas .', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503239502829618184', 'uniqueId': 'user5763581350636', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d69240f&amp;x-expires=1760018400&amp;x-signature=lGmXLJbqmHXUrrhBTSRx5ZFVuaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18018,18 +18018,18 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>🔥</t>
+          <t>Que paila alpina contratado a un man que dis paro en Cali a la gente que se manifestaba mindo es lo peor de Cali</t>
         </is>
       </c>
       <c r="G329" s="2" t="n">
-        <v>45927.04219907407</v>
+        <v>45926.84151620371</v>
       </c>
       <c r="H329" s="3" t="n">
-        <v>45927</v>
+        <v>45926</v>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>01:00:46</t>
+          <t>20:11:47</t>
         </is>
       </c>
       <c r="J329" t="n">
@@ -18048,7 +18048,7 @@
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554567549327229704', 'createTime': 1758934846, 'createTimeISO': '2025-09-27T01:00:46.000Z', 'text': '🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7302078438922503174', 'uniqueId': 'joeyhoyos_165', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6cb006067cbd0b507752bd82e55382cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=26bfe675&amp;x-expires=1759932000&amp;x-signature=waoL2FZ85O0zl0uIpyLo6WSBllg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554493121921401607', 'createTime': 1758917507, 'createTimeISO': '2025-09-26T20:11:47.000Z', 'text': 'Que paila alpina contratado a un man que dis paro en Cali a la gente que se manifestaba mindo es lo peor de Cali', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961100154628899845', 'uniqueId': 'teban11192', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7331113258014785541~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59b1eb97&amp;x-expires=1760018400&amp;x-signature=tEUAtEAEw9eM%2F5QV3ZKqI2rtyec%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18104,7 +18104,7 @@
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7553826958916928263', 'createTime': 1758762403, 'createTimeISO': '2025-09-25T01:06:43.000Z', 'text': 'Disque "Tiene el control de todo" y No tiene ni el control del pelo 😅😅😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7103632525768147973', 'uniqueId': 'zuluaganatha', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/57b93102aac2e51727f673fef9460380~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b16d27fc&amp;x-expires=1759932000&amp;x-signature=9qnAAy0VMxVE%2BP8cEeTMusNmwdw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7553826958916928263', 'createTime': 1758762403, 'createTimeISO': '2025-09-25T01:06:43.000Z', 'text': 'Disque "Tiene el control de todo" y No tiene ni el control del pelo 😅😅😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7103632525768147973', 'uniqueId': 'zuluaganatha', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/57b93102aac2e51727f673fef9460380~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3ed1524e&amp;x-expires=1760018400&amp;x-signature=AckfuH3lgrQ8Wr1zfTehAwIRzic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18160,7 +18160,7 @@
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550505984062702354', 'createTime': 1757989176, 'createTimeISO': '2025-09-16T02:19:36.000Z', 'text': 'Si este comentario llega a 100 likes alpina me tiene que regalar algo 😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811204888635278342', 'uniqueId': 'el_teban__62', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/64456009fdac3c91d879c6bd22398ff2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=059b7957&amp;x-expires=1759932000&amp;x-signature=pBkx6Lgqx0TubnjvkbpQrh2MzvI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550505984062702354', 'createTime': 1757989176, 'createTimeISO': '2025-09-16T02:19:36.000Z', 'text': 'Si este comentario llega a 100 likes alpina me tiene que regalar algo 😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811204888635278342', 'uniqueId': 'el_teban__62', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/64456009fdac3c91d879c6bd22398ff2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59ffc351&amp;x-expires=1760018400&amp;x-signature=mndPkLV%2F7rBpi1Kxh9St05gvWmQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18216,7 @@
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550038189143409424', 'createTime': 1757880268, 'createTimeISO': '2025-09-14T20:04:28.000Z', 'text': 'me gustan los hombres😏😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7173840673258243077', 'uniqueId': 'juadiego1729', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3609c00cd5f574c40e329161d07f8d3f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=100e04f9&amp;x-expires=1759932000&amp;x-signature=MW2BbsOW3tYXu2u3zeD881FPkc4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7550038189143409424', 'createTime': 1757880268, 'createTimeISO': '2025-09-14T20:04:28.000Z', 'text': 'me gustan los hombres😏😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7173840673258243077', 'uniqueId': 'juadiego1729', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3609c00cd5f574c40e329161d07f8d3f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c4623a6c&amp;x-expires=1760018400&amp;x-signature=aMUA2ECOomFQaf6wMBwhzcUv9mA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18242,18 +18242,18 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>el man que saco 🔫 y le tiraba a la jente en las protestas .</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G333" s="2" t="n">
-        <v>45929.02708333333</v>
+        <v>45908.81203703704</v>
       </c>
       <c r="H333" s="3" t="n">
-        <v>45929</v>
+        <v>45908</v>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>00:39:00</t>
+          <t>19:29:20</t>
         </is>
       </c>
       <c r="J333" t="n">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7555302773605827348', 'createTime': 1759106340, 'createTimeISO': '2025-09-29T00:39:00.000Z', 'text': 'el man que saco 🔫 y le tiraba a la jente en las protestas .', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503239502829618184', 'uniqueId': 'user5763581350636', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e58ceccb&amp;x-expires=1759932000&amp;x-signature=ZxPhst8TfJ%2Bxl%2FMdGw5nQMgDe8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7547802661811208980', 'createTime': 1757359760, 'createTimeISO': '2025-09-08T19:29:20.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809678797618971654', 'uniqueId': 'ricardo_04_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/80a78e18c2efcba6d5deda78bfc8603e~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=b5ca354d&amp;x-expires=1760018400&amp;x-signature=ll05tCsD4WnCJIonIHPxaRw08L4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18298,18 +18298,18 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Que paila alpina contratado a un man que dis paro en Cali a la gente que se manifestaba mindo es lo peor de Cali</t>
+          <t>😈</t>
         </is>
       </c>
       <c r="G334" s="2" t="n">
-        <v>45926.84151620371</v>
+        <v>45919.81491898148</v>
       </c>
       <c r="H334" s="3" t="n">
-        <v>45926</v>
+        <v>45919</v>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>20:11:47</t>
+          <t>19:33:29</t>
         </is>
       </c>
       <c r="J334" t="n">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7554493121921401607', 'createTime': 1758917507, 'createTimeISO': '2025-09-26T20:11:47.000Z', 'text': 'Que paila alpina contratado a un man que dis paro en Cali a la gente que se manifestaba mindo es lo peor de Cali', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961100154628899845', 'uniqueId': 'teban11192', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7331113258014785541~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=156e2c6e&amp;x-expires=1759932000&amp;x-signature=S3oV7O%2BKnZiEP45574cvRQncXSY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'input': 'https://www.tiktok.com/@alpinacol/video/7545536081081715986', 'cid': '7551885639546651413', 'createTime': 1758310409, 'createTimeISO': '2025-09-19T19:33:29.000Z', 'text': '😈', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7395934044830319622', 'uniqueId': 'valle.del.cauca8', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/eb12fecc62dd4ac8bb207de6183a623a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a5c70f48&amp;x-expires=1760018400&amp;x-signature=cHI2pMU7iTQgpaLUSKBqmDwbHsE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18354,22 +18354,22 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Jajaja si de fácil????</t>
+          <t>y no es más fácil buscar las esferas del dragón 😂😂😂😂😂</t>
         </is>
       </c>
       <c r="G335" s="2" t="n">
-        <v>45929.72077546296</v>
+        <v>45920.12048611111</v>
       </c>
       <c r="H335" s="3" t="n">
-        <v>45929</v>
+        <v>45920</v>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>17:17:55</t>
+          <t>02:53:30</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K335" t="n">
         <v>0</v>
@@ -18384,7 +18384,7 @@
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555561586669945608', 'createTime': 1759166275, 'createTimeISO': '2025-09-29T17:17:55.000Z', 'text': 'Jajaja si de fácil????', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6539610711776039936', 'uniqueId': 'vanessapinedacade', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3e6d04172dd23068662a11514e786dd8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e20ae4b0&amp;x-expires=1759932000&amp;x-signature=Zz%2FsBMMQMtd3e53Dj0uRE5mV6bU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551999073734263570', 'createTime': 1758336810, 'createTimeISO': '2025-09-20T02:53:30.000Z', 'text': 'y no es más fácil buscar las esferas del dragón 😂😂😂😂😂', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7001085337759384581', 'uniqueId': 'andrescabras442', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/12cb34eddfbf80af55afc2422b15f9c1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6eca5174&amp;x-expires=1760018400&amp;x-signature=iqBe3GW1M3dyt0MD5y829cllExo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18410,22 +18410,22 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>y no es más fácil buscar las esferas del dragón 😂😂😂😂😂</t>
+          <t>Jajaja si de fácil????</t>
         </is>
       </c>
       <c r="G336" s="2" t="n">
-        <v>45920.12048611111</v>
+        <v>45929.72077546296</v>
       </c>
       <c r="H336" s="3" t="n">
-        <v>45920</v>
+        <v>45929</v>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>02:53:30</t>
+          <t>17:17:55</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K336" t="n">
         <v>0</v>
@@ -18440,7 +18440,7 @@
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551999073734263570', 'createTime': 1758336810, 'createTimeISO': '2025-09-20T02:53:30.000Z', 'text': 'y no es más fácil buscar las esferas del dragón 😂😂😂😂😂', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7001085337759384581', 'uniqueId': 'andrescabras442', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/12cb34eddfbf80af55afc2422b15f9c1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d1db972f&amp;x-expires=1759932000&amp;x-signature=grFw%2FhYFv%2BIGuSZFyixkILrcJ3w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555561586669945608', 'createTime': 1759166275, 'createTimeISO': '2025-09-29T17:17:55.000Z', 'text': 'Jajaja si de fácil????', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6539610711776039936', 'uniqueId': 'vanessapinedacade', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3e6d04172dd23068662a11514e786dd8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=afb1fa61&amp;x-expires=1760018400&amp;x-signature=5BuMQZW0Prfh8dGfRxudDeGbCD4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18466,22 +18466,22 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>1primrro</t>
+          <t>y cuántos años de experiencia laboral?</t>
         </is>
       </c>
       <c r="G337" s="2" t="n">
-        <v>45902.77964120371</v>
+        <v>45926.45515046296</v>
       </c>
       <c r="H337" s="3" t="n">
-        <v>45902</v>
+        <v>45926</v>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>18:42:41</t>
+          <t>10:55:25</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K337" t="n">
         <v>0</v>
@@ -18496,7 +18496,7 @@
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7545564121321243399', 'createTime': 1756838561, 'createTimeISO': '2025-09-02T18:42:41.000Z', 'text': '1primrro', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7326022616908252165', 'uniqueId': 'juan411593', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de3972abfaebf65816fd043da2b22ccc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8000d509&amp;x-expires=1759932000&amp;x-signature=yWgYmBCa0VBisUm5EqHbZbZu%2FuM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7554349762318746375', 'createTime': 1758884125, 'createTimeISO': '2025-09-26T10:55:25.000Z', 'text': 'y cuántos años de experiencia laboral?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '252278694826909696', 'uniqueId': 'daviddiazrodrigue', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/73cfe1ff4d09a046ff5ba19721fccfa2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ee28e91&amp;x-expires=1760018400&amp;x-signature=Sx7GtbwGRb56iaKo3GeyP6Hy%2BB4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18522,18 +18522,18 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>y cuántos años de experiencia laboral?</t>
+          <t>Como aparecen ellos ?</t>
         </is>
       </c>
       <c r="G338" s="2" t="n">
-        <v>45926.45515046296</v>
+        <v>45908.76921296296</v>
       </c>
       <c r="H338" s="3" t="n">
-        <v>45926</v>
+        <v>45908</v>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>10:55:25</t>
+          <t>18:27:40</t>
         </is>
       </c>
       <c r="J338" t="n">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7554349762318746375', 'createTime': 1758884125, 'createTimeISO': '2025-09-26T10:55:25.000Z', 'text': 'y cuántos años de experiencia laboral?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '252278694826909696', 'uniqueId': 'daviddiazrodrigue', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/73cfe1ff4d09a046ff5ba19721fccfa2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=95e60c05&amp;x-expires=1759932000&amp;x-signature=kPB19XgXcgfCjJ%2FgcxnW6Nq6pQY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547786769216307976', 'createTime': 1757356060, 'createTimeISO': '2025-09-08T18:27:40.000Z', 'text': 'Como aparecen ellos ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446616697296192518', 'uniqueId': 'sebas_molina777', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68ff66452a63e6001d56a9cae9ab49f8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a2c01d98&amp;x-expires=1760018400&amp;x-signature=1tDLdVpRV1rk7%2BNdk3EMjBBgEIc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18578,22 +18578,22 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Como aparecen ellos ?</t>
+          <t>1primrro</t>
         </is>
       </c>
       <c r="G339" s="2" t="n">
-        <v>45908.76921296296</v>
+        <v>45902.77964120371</v>
       </c>
       <c r="H339" s="3" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>18:27:40</t>
+          <t>18:42:41</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K339" t="n">
         <v>0</v>
@@ -18608,7 +18608,7 @@
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547786769216307976', 'createTime': 1757356060, 'createTimeISO': '2025-09-08T18:27:40.000Z', 'text': 'Como aparecen ellos ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446616697296192518', 'uniqueId': 'sebas_molina777', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68ff66452a63e6001d56a9cae9ab49f8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f781d45f&amp;x-expires=1759932000&amp;x-signature=X9aWSAZgk0TuthE7GT0roepATSg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7545564121321243399', 'createTime': 1756838561, 'createTimeISO': '2025-09-02T18:42:41.000Z', 'text': '1primrro', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7326022616908252165', 'uniqueId': 'juan411593', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/de3972abfaebf65816fd043da2b22ccc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8ffb1932&amp;x-expires=1760018400&amp;x-signature=W3kFr2iQtQCu2LWH7uCzfcjt1nc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18664,7 +18664,7 @@
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551066353013785345', 'createTime': 1758119647, 'createTimeISO': '2025-09-17T14:34:07.000Z', 'text': 'amo esta pareja😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7288821171084116997', 'uniqueId': 'lausaenzper', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76a5169abe33a1b480c668fb121be97b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0ce45570&amp;x-expires=1759932000&amp;x-signature=CyPTEUw5uL5bD2N8x333iNqHMlQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551066353013785345', 'createTime': 1758119647, 'createTimeISO': '2025-09-17T14:34:07.000Z', 'text': 'amo esta pareja😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7288821171084116997', 'uniqueId': 'lausaenzper', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76a5169abe33a1b480c668fb121be97b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e61ffc1&amp;x-expires=1760018400&amp;x-signature=Qx1kBnJ4jkrMB6rkYH2M4vgPWJ4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18720,7 +18720,7 @@
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547192299391648520', 'createTime': 1757217651, 'createTimeISO': '2025-09-07T04:00:51.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7102522054742819846', 'uniqueId': 'alejandragonzale650', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/adc1a74c6e5cb907eced488103037dcc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e3f6e8bc&amp;x-expires=1759932000&amp;x-signature=nFY0zNmbddsnUwMkOYRYZnR82Tk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547192299391648520', 'createTime': 1757217651, 'createTimeISO': '2025-09-07T04:00:51.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7102522054742819846', 'uniqueId': 'alejandragonzale650', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/adc1a74c6e5cb907eced488103037dcc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=836b2442&amp;x-expires=1760018400&amp;x-signature=T6uO72baBloezLnBlE5FxH0mKrw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18776,7 +18776,7 @@
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551462900620313351', 'createTime': 1758211972, 'createTimeISO': '2025-09-18T16:12:52.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7143857876087194630', 'uniqueId': 'jesusc12389', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e6172eba3a788876128286672d517bb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fade6140&amp;x-expires=1759932000&amp;x-signature=KxZXebdSPcIN6yXNOGvDDwZLknM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551462900620313351', 'createTime': 1758211972, 'createTimeISO': '2025-09-18T16:12:52.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7143857876087194630', 'uniqueId': 'jesusc12389', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e6172eba3a788876128286672d517bb8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d2ab6db5&amp;x-expires=1760018400&amp;x-signature=vLzJo0eE7qklLm6s2OMkR60cNOk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551148590611235600', 'createTime': 1758138811, 'createTimeISO': '2025-09-17T19:53:31.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6814058926776173573', 'uniqueId': 'yomaira84', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7323434836440875014~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f89773b5&amp;x-expires=1759932000&amp;x-signature=WJTycs0ycecp2QRGYMWOzjumfd8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551148590611235600', 'createTime': 1758138811, 'createTimeISO': '2025-09-17T19:53:31.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6814058926776173573', 'uniqueId': 'yomaira84', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7323434836440875014~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4cd4d47c&amp;x-expires=1760018400&amp;x-signature=0E6GIGaTsUsUQf2nbPLZI57nmrg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18888,7 +18888,7 @@
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7554814008806425352', 'createTime': 1758992215, 'createTimeISO': '2025-09-27T16:56:55.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7316203025717330949', 'uniqueId': 'tutaina06', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8976abb556185786265dece4d48426c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bdd595ab&amp;x-expires=1759932000&amp;x-signature=yMHPwd0lCkDdCzBg9xdzmnV086E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7554814008806425352', 'createTime': 1758992215, 'createTimeISO': '2025-09-27T16:56:55.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7316203025717330949', 'uniqueId': 'tutaina06', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8976abb556185786265dece4d48426c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=95292b9c&amp;x-expires=1760018400&amp;x-signature=KKadZ0zdKBvVA4DOH3ON1z9lGqI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7554136300472517384', 'createTime': 1758834433, 'createTimeISO': '2025-09-25T21:07:13.000Z', 'text': '💀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6869152379822162949', 'uniqueId': 'daniel_bravo4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e54df1959b56376d07c82b6dca305918~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d6ce6425&amp;x-expires=1759932000&amp;x-signature=iQe1xWq5SNYBf8UFhnqJ8BE9%2F%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7554136300472517384', 'createTime': 1758834433, 'createTimeISO': '2025-09-25T21:07:13.000Z', 'text': '💀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6869152379822162949', 'uniqueId': 'daniel_bravo4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e54df1959b56376d07c82b6dca305918~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6e23075d&amp;x-expires=1760018400&amp;x-signature=r%2BawfKdcmWCEpBMNYfdzDx5vs54%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19000,7 +19000,7 @@
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552757576947401490', 'createTime': 1758513422, 'createTimeISO': '2025-09-22T03:57:02.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6862048628338754566', 'uniqueId': 'jjgo1983', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7c7c9fde650ac055c7e409b60e63528e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0e989a1d&amp;x-expires=1759932000&amp;x-signature=4ixLsIg9AMxwfP6qIJmksc7xVLY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552757576947401490', 'createTime': 1758513422, 'createTimeISO': '2025-09-22T03:57:02.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6862048628338754566', 'uniqueId': 'jjgo1983', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7c7c9fde650ac055c7e409b60e63528e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=16b73378&amp;x-expires=1760018400&amp;x-signature=zJ11%2FLgZnWyiJnpY6niCxWAVjHg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19056,7 +19056,7 @@
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552649622349792018', 'createTime': 1758488293, 'createTimeISO': '2025-09-21T20:58:13.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430481882536805381', 'uniqueId': 'salahcastil1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e1549c7acbc1ae78ff5d82a2b34f2f20~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=462b747d&amp;x-expires=1759932000&amp;x-signature=86R48Lx0ALYVUan60Ru9BfALlRM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552649622349792018', 'createTime': 1758488293, 'createTimeISO': '2025-09-21T20:58:13.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430481882536805381', 'uniqueId': 'salahcastil1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e1549c7acbc1ae78ff5d82a2b34f2f20~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=22cca0b8&amp;x-expires=1760018400&amp;x-signature=2j%2Fx280y8j8Mg3pqTENfx6%2BN5uA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552559975076233991', 'createTime': 1758467404, 'createTimeISO': '2025-09-21T15:10:04.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7194582776996905989', 'uniqueId': 'nohe_3003', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/345f67cd450e4d208cf62e1fe45a2114~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c025a132&amp;x-expires=1759932000&amp;x-signature=VxFWa9NPrMs9oJ6qiUO%2F7TL3G3o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552559975076233991', 'createTime': 1758467404, 'createTimeISO': '2025-09-21T15:10:04.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7194582776996905989', 'uniqueId': 'nohe_3003', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/345f67cd450e4d208cf62e1fe45a2114~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8fb47fbe&amp;x-expires=1760018400&amp;x-signature=0LLz1Jlel1wUDEMZ4rAee1c3Itc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19168,7 +19168,7 @@
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552559947688837895', 'createTime': 1758467404, 'createTimeISO': '2025-09-21T15:10:04.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7194582776996905989', 'uniqueId': 'nohe_3003', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/345f67cd450e4d208cf62e1fe45a2114~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c025a132&amp;x-expires=1759932000&amp;x-signature=VxFWa9NPrMs9oJ6qiUO%2F7TL3G3o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552559947688837895', 'createTime': 1758467404, 'createTimeISO': '2025-09-21T15:10:04.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7194582776996905989', 'uniqueId': 'nohe_3003', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/345f67cd450e4d208cf62e1fe45a2114~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8fb47fbe&amp;x-expires=1760018400&amp;x-signature=0LLz1Jlel1wUDEMZ4rAee1c3Itc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19224,7 +19224,7 @@
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552559953179263762', 'createTime': 1758467404, 'createTimeISO': '2025-09-21T15:10:04.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7194582776996905989', 'uniqueId': 'nohe_3003', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/345f67cd450e4d208cf62e1fe45a2114~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c025a132&amp;x-expires=1759932000&amp;x-signature=VxFWa9NPrMs9oJ6qiUO%2F7TL3G3o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552559953179263762', 'createTime': 1758467404, 'createTimeISO': '2025-09-21T15:10:04.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7194582776996905989', 'uniqueId': 'nohe_3003', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/345f67cd450e4d208cf62e1fe45a2114~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8fb47fbe&amp;x-expires=1760018400&amp;x-signature=0LLz1Jlel1wUDEMZ4rAee1c3Itc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19280,7 +19280,7 @@
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552319000844256018', 'createTime': 1758411313, 'createTimeISO': '2025-09-20T23:35:13.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493384122078200837', 'uniqueId': 'mayerlymontano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/181a6e529b1c4279901dfb1d1b42b5f5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=986bf8ba&amp;x-expires=1759932000&amp;x-signature=ASUi2Gbv%2Bcvq7gDBJVsJHaSH1rw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7552319000844256018', 'createTime': 1758411313, 'createTimeISO': '2025-09-20T23:35:13.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493384122078200837', 'uniqueId': 'mayerlymontano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/181a6e529b1c4279901dfb1d1b42b5f5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=70eef39d&amp;x-expires=1760018400&amp;x-signature=aTcvw2tY2Htbi3ujraaNxXS0UBA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19336,7 +19336,7 @@
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551792796429091601', 'createTime': 1758288784, 'createTimeISO': '2025-09-19T13:33:04.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365852581635802117', 'uniqueId': 'carlos.andres.men78', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a9e0785138b52a838622a4a6b731e979~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dccd0b6b&amp;x-expires=1759932000&amp;x-signature=eJcLHbEajL3ddus3oE3gS%2FFP1dw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551792796429091601', 'createTime': 1758288784, 'createTimeISO': '2025-09-19T13:33:04.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365852581635802117', 'uniqueId': 'carlos.andres.men78', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a9e0785138b52a838622a4a6b731e979~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7839a539&amp;x-expires=1760018400&amp;x-signature=P1XsRmcxkFX1T4nKMMqshACin9o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19392,7 +19392,7 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551664314643383048', 'createTime': 1758258874, 'createTimeISO': '2025-09-19T05:14:34.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979206018119697414', 'uniqueId': 'jorgerodriguez1264', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5a310c33d4c492b73d420f227d9cee93~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1973ff95&amp;x-expires=1759932000&amp;x-signature=G7B6nkGrOPDSNA5yk1lxIb8Wf4w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551664314643383048', 'createTime': 1758258874, 'createTimeISO': '2025-09-19T05:14:34.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979206018119697414', 'uniqueId': 'jorgerodriguez1264', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5a310c33d4c492b73d420f227d9cee93~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6ab6f178&amp;x-expires=1760018400&amp;x-signature=ldZKfqs0nR8eqRT8anVYENwq4DM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19448,7 +19448,7 @@
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555451829975925524', 'createTime': 1759140720, 'createTimeISO': '2025-09-29T10:12:00.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7341206712734827526', 'uniqueId': 'fabioantoniodazad', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/859815ee6e9b685d204d27d1e893dce0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=afeb1772&amp;x-expires=1759932000&amp;x-signature=CC5glQfU2hbvdF9GzOJcDTp7gtY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555451829975925524', 'createTime': 1759140720, 'createTimeISO': '2025-09-29T10:12:00.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7341206712734827526', 'uniqueId': 'fabioantoniodazad', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/859815ee6e9b685d204d27d1e893dce0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9836d404&amp;x-expires=1760018400&amp;x-signature=rOI7kIG1mZitfRphuMglnOM6bVI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19504,7 +19504,7 @@
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555244329591112468', 'createTime': 1759092422, 'createTimeISO': '2025-09-28T20:47:02.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964848584144421894', 'uniqueId': 'bechypccoy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dbf7f502512570bd4a0f99298cf988e8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc2a5d97&amp;x-expires=1759932000&amp;x-signature=kH9Rmr46KoootgM7r5324r%2BZSAs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555244329591112468', 'createTime': 1759092422, 'createTimeISO': '2025-09-28T20:47:02.000Z', 'text': '❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964848584144421894', 'uniqueId': 'bechypccoy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dbf7f502512570bd4a0f99298cf988e8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=515b5df2&amp;x-expires=1760018400&amp;x-signature=lDD%2FmypyMCA%2Bwsdsv01y%2BR3qOQQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19560,7 +19560,7 @@
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551113798268420872', 'createTime': 1758130697, 'createTimeISO': '2025-09-17T17:38:17.000Z', 'text': '🥰🥰🥰🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999737225261646853', 'uniqueId': 'seleneflorez1999', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a60a07036d4b7dab285563591ea25aca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=502d961e&amp;x-expires=1759932000&amp;x-signature=B8KOqJ2oshwzM9ImSdhkiTdqG3w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7551113798268420872', 'createTime': 1758130697, 'createTimeISO': '2025-09-17T17:38:17.000Z', 'text': '🥰🥰🥰🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999737225261646853', 'uniqueId': 'seleneflorez1999', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a60a07036d4b7dab285563591ea25aca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=437e35ca&amp;x-expires=1760018400&amp;x-signature=Fw81hYZWyQzW0VvYlYJiT6gTafY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19616,7 +19616,7 @@
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550683656576549640', 'createTime': 1758030543, 'createTimeISO': '2025-09-16T13:49:03.000Z', 'text': '😘', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259806146189313030', 'uniqueId': 'yeison.andres.her', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/53f2527478c25d6ee27a34b1361bf2b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4de7adb2&amp;x-expires=1759932000&amp;x-signature=HrBGk1NYqddE3K1TGtOwjxZN0Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550683656576549640', 'createTime': 1758030543, 'createTimeISO': '2025-09-16T13:49:03.000Z', 'text': '😘', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259806146189313030', 'uniqueId': 'yeison.andres.her', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/53f2527478c25d6ee27a34b1361bf2b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8fe0a77a&amp;x-expires=1760018400&amp;x-signature=t7nNkY8Fn8BxyYEtH0F9uCMm0qw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19672,7 +19672,7 @@
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550647742705779463', 'createTime': 1758022182, 'createTimeISO': '2025-09-16T11:29:42.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6812084789551875078', 'uniqueId': 'user88397006', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6830c9109a3eb28376cded9db42200a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cd1c968d&amp;x-expires=1759932000&amp;x-signature=xkL776g6lM%2BXehVugghO9ZaqXwM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550647742705779463', 'createTime': 1758022182, 'createTimeISO': '2025-09-16T11:29:42.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6812084789551875078', 'uniqueId': 'user88397006', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a6830c9109a3eb28376cded9db42200a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=284684a1&amp;x-expires=1760018400&amp;x-signature=qOQ36ypa31oKeNa45nDwpCq3VPQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19728,7 +19728,7 @@
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550430987072930567', 'createTime': 1757971730, 'createTimeISO': '2025-09-15T21:28:50.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357802501138318341', 'uniqueId': 'david.blanco380', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d11660b256de36cb1a340dc2b38c005d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4db863c3&amp;x-expires=1759932000&amp;x-signature=cw%2B88%2FRQ0%2B11Cem8VJrCpdcTcCU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550430987072930567', 'createTime': 1757971730, 'createTimeISO': '2025-09-15T21:28:50.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357802501138318341', 'uniqueId': 'david.blanco380', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d11660b256de36cb1a340dc2b38c005d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c9e64d3d&amp;x-expires=1760018400&amp;x-signature=%2BVIn%2BI8FGnrKhEPTwwRpsETqczY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19784,7 +19784,7 @@
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550301110642066184', 'createTime': 1757941475, 'createTimeISO': '2025-09-15T13:04:35.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7115431558710133766', 'uniqueId': 'javierhernandosua', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7115432535828889605~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9d999109&amp;x-expires=1759932000&amp;x-signature=jj7rnLBhCzN5CGwbUamXX0mITtU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7550301110642066184', 'createTime': 1757941475, 'createTimeISO': '2025-09-15T13:04:35.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7115431558710133766', 'uniqueId': 'javierhernandosua', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7115432535828889605~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e6a1f75a&amp;x-expires=1760018400&amp;x-signature=x4kzpR2KNh%2F8S5TGMahVAHc%2Fqnc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19840,7 +19840,7 @@
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547764000685146898', 'createTime': 1757350759, 'createTimeISO': '2025-09-08T16:59:19.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7003455091987350534', 'uniqueId': 'sandrayepes539', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326963283473203206~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=81ce04e7&amp;x-expires=1759932000&amp;x-signature=sF6YGNa0hreKAD3OjLlQfDluUx0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547764000685146898', 'createTime': 1757350759, 'createTimeISO': '2025-09-08T16:59:19.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7003455091987350534', 'uniqueId': 'sandrayepes539', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326963283473203206~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4dbf46b&amp;x-expires=1760018400&amp;x-signature=3o%2B%2BpXXsqHS1UsJIrcxbg56W1B4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19896,7 @@
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547603548419834632', 'createTime': 1757313400, 'createTimeISO': '2025-09-08T06:36:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7256136602760545286', 'uniqueId': 'daniel_080909', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0d7592cf4f1179a66d215d049423707e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4d7b9853&amp;x-expires=1759932000&amp;x-signature=eoTNzDCYqAXOTsOMgCejwJkMFKI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7547603548419834632', 'createTime': 1757313400, 'createTimeISO': '2025-09-08T06:36:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7256136602760545286', 'uniqueId': 'daniel_080909', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0d7592cf4f1179a66d215d049423707e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3b38a364&amp;x-expires=1760018400&amp;x-signature=hzQwD2X583UWlm9QrznnAhv7u8E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -19952,7 +19952,7 @@
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555542895899362066', 'createTime': 1759161927, 'createTimeISO': '2025-09-29T16:05:27.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156686035617858565', 'uniqueId': 'daniiela0811.0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/66236fb1a0fc922ea765342cb332bad7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=20a53720&amp;x-expires=1759932000&amp;x-signature=fUH6%2FGzLuXllq11mNFDeYedImoE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555542895899362066', 'createTime': 1759161927, 'createTimeISO': '2025-09-29T16:05:27.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156686035617858565', 'uniqueId': 'daniiela0811.0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/66236fb1a0fc922ea765342cb332bad7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fa8729c1&amp;x-expires=1760018400&amp;x-signature=74nJzVEbspkU8yu97ByGjH5esGc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20008,7 +20008,7 @@
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555626884185654023', 'createTime': 1759181487, 'createTimeISO': '2025-09-29T21:31:27.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442539714604762167', 'uniqueId': 'carolinrojas5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b4b7841511d5716a1c6af7ca3ff331ff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=093d0dc4&amp;x-expires=1759932000&amp;x-signature=Mz7c0n8p3ufoDadeIQT%2FBxUJMqI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555626884185654023', 'createTime': 1759181487, 'createTimeISO': '2025-09-29T21:31:27.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442539714604762167', 'uniqueId': 'carolinrojas5', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b4b7841511d5716a1c6af7ca3ff331ff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e02644f&amp;x-expires=1760018400&amp;x-signature=FOczTAd%2F5XgAbrvBIYk2zkSGlVQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20064,7 +20064,7 @@
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555489531170358023', 'createTime': 1759149501, 'createTimeISO': '2025-09-29T12:38:21.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469997669411505170', 'uniqueId': '__v___000', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3c5b1de2cc1a99afc2d7d37c74355f80~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cffbe87f&amp;x-expires=1759932000&amp;x-signature=nUrFkTVy%2BJKidE1k%2FNXLKbYa5kw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7555489531170358023', 'createTime': 1759149501, 'createTimeISO': '2025-09-29T12:38:21.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469997669411505170', 'uniqueId': '__v___000', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3c5b1de2cc1a99afc2d7d37c74355f80~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d0ed26a1&amp;x-expires=1760018400&amp;x-signature=3J5T38mg7ZWJKF2gAkQuaZ60pp4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20120,7 +20120,7 @@
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7546770817275970312', 'createTime': 1757119518, 'createTimeISO': '2025-09-06T00:45:18.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6805253552618079238', 'uniqueId': 'gabriela_alen', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/67c5e91b652de2b7d975e2a5a5d01a6e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c9878fec&amp;x-expires=1759932000&amp;x-signature=qclRrSkpBXJ1zt%2Bm%2FNVkHL5FBNw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'input': 'https://www.tiktok.com/@alpinacol/video/7545537780177227015', 'cid': '7546770817275970312', 'createTime': 1757119518, 'createTimeISO': '2025-09-06T00:45:18.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6805253552618079238', 'uniqueId': 'gabriela_alen', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/67c5e91b652de2b7d975e2a5a5d01a6e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60e24b21&amp;x-expires=1760018400&amp;x-signature=d7U5Zgr%2FJXdZ5dVDe6fnoSH%2BPQM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20176,7 +20176,7 @@
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555906741655225096', 'createTime': 1759246639, 'createTimeISO': '2025-09-30T15:37:19.000Z', 'text': 'eso en mi barrio Bale 7000mil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430422808188748806', 'uniqueId': 'diegomeyers2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2a4e6af0d732b4e2aff407ca73368db1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=954999ad&amp;x-expires=1759932000&amp;x-signature=XLLveFlOYMOIdj61L9XVAE9gPSQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555906741655225096', 'createTime': 1759246639, 'createTimeISO': '2025-09-30T15:37:19.000Z', 'text': 'eso en mi barrio Bale 7000mil', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430422808188748806', 'uniqueId': 'diegomeyers2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2a4e6af0d732b4e2aff407ca73368db1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=00a73b8d&amp;x-expires=1760018400&amp;x-signature=vzsgZM7KP22aMSvNkIixk93h8sc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20220,7 +20220,7 @@
         <v>27</v>
       </c>
       <c r="K368" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L368" t="b">
         <v>0</v>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547189606544212744', 'createTime': 1757217020, 'createTimeISO': '2025-09-07T03:50:20.000Z', 'text': 'hoy me compré un bonyurt y no me han dejado salir anuncios de bonyurt 😭', 'diggCount': 27, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7221693427170608134', 'uniqueId': 'llllkmu0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8df7ea79d2a19b3776925967a3cad4e3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=67c9d9b9&amp;x-expires=1759932000&amp;x-signature=jWMC8bx6hIR%2F0gfWohgYd5druGI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547189606544212744', 'createTime': 1757217020, 'createTimeISO': '2025-09-07T03:50:20.000Z', 'text': 'hoy me compré un bonyurt y no me han dejado salir anuncios de bonyurt 😭', 'diggCount': 27, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7221693427170608134', 'uniqueId': 'llllkmu0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8df7ea79d2a19b3776925967a3cad4e3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1855f4a&amp;x-expires=1760018400&amp;x-signature=3Lo1Pk4%2Bgf48wulC7AvY%2FB6b%2BjE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20258,25 +20258,25 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr">
         <is>
-          <t>es mejor comprar Zucaritas y kumis</t>
+          <t>muy caro 4.500</t>
         </is>
       </c>
       <c r="G369" s="2" t="n">
-        <v>45930.03961805555</v>
+        <v>45925.88542824074</v>
       </c>
       <c r="H369" s="3" t="n">
-        <v>45930</v>
+        <v>45925</v>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>00:57:03</t>
+          <t>21:15:01</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L369" t="b">
         <v>0</v>
@@ -20288,7 +20288,7 @@
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555679843532489492', 'createTime': 1759193823, 'createTimeISO': '2025-09-30T00:57:03.000Z', 'text': 'es mejor comprar Zucaritas y kumis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7447745899810440197', 'uniqueId': 'camilocifuentez87', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/13b5a62fd0967c138cc20eaae5853d5a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f874b5a&amp;x-expires=1759932000&amp;x-signature=z%2BR1I16eyQDmxhAx%2BlcNgw%2FtXVw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554138287994422024', 'createTime': 1758834901, 'createTimeISO': '2025-09-25T21:15:01.000Z', 'text': 'muy caro 4.500', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6865823011251323909', 'uniqueId': 'andresgalindez.18_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0ea8b1b65d40cf0c13811e62a4d44972~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8feb4a8d&amp;x-expires=1760018400&amp;x-signature=0TG0%2FNwZExzQMLx5y%2Fd0jOMtbdc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20314,18 +20314,18 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>tim bolitoas de chocolate</t>
+          <t>iba a comprar alpina pero gracias a este video dejaré comprar productos alpina</t>
         </is>
       </c>
       <c r="G370" s="2" t="n">
-        <v>45928.79769675926</v>
+        <v>45918.73861111111</v>
       </c>
       <c r="H370" s="3" t="n">
-        <v>45928</v>
+        <v>45918</v>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>19:08:41</t>
+          <t>17:43:36</t>
         </is>
       </c>
       <c r="J370" t="n">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555219041385972498', 'createTime': 1759086521, 'createTimeISO': '2025-09-28T19:08:41.000Z', 'text': 'tim bolitoas de chocolate', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6543622081907528704', 'uniqueId': 'pauladaza22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/07eb342a110e4329ca8e01ed2e6c17ff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb54e510&amp;x-expires=1759932000&amp;x-signature=9r7jO%2Btl7J1G744KjPfgrOv%2Fygs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551486252819858197', 'createTime': 1758217416, 'createTimeISO': '2025-09-18T17:43:36.000Z', 'text': 'iba a comprar alpina pero gracias a este video dejaré comprar productos alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7152888498889769990', 'uniqueId': 'djxiko_0', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7ad1f3f7e5b11eab38661fdd60d69673~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=472a0d1d&amp;x-expires=1760018400&amp;x-signature=4OOBGCNhpmnZduLu2HvddShVLWw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20370,25 +20370,25 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>muy caro 4.500</t>
+          <t>es colombiano qisas el anuncio</t>
         </is>
       </c>
       <c r="G371" s="2" t="n">
-        <v>45925.88542824074</v>
+        <v>45927.12303240741</v>
       </c>
       <c r="H371" s="3" t="n">
-        <v>45925</v>
+        <v>45927</v>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>21:15:01</t>
+          <t>02:57:10</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L371" t="b">
         <v>0</v>
@@ -20400,7 +20400,7 @@
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554138287994422024', 'createTime': 1758834901, 'createTimeISO': '2025-09-25T21:15:01.000Z', 'text': 'muy caro 4.500', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6865823011251323909', 'uniqueId': 'andresgalindez.18_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0ea8b1b65d40cf0c13811e62a4d44972~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3bd9f239&amp;x-expires=1759932000&amp;x-signature=6yKH0DbowkU2O4XWPX6lmrgL0aI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554597579239506695', 'createTime': 1758941830, 'createTimeISO': '2025-09-27T02:57:10.000Z', 'text': 'es colombiano qisas el anuncio', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7288728616464565254', 'uniqueId': 'vctorquintero17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/883461a5548b2003dc075511e6bcfc42~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c0264e6&amp;x-expires=1760018400&amp;x-signature=NOtzdsAn8ec%2B8YE8wWhSvHwCh5g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20426,18 +20426,18 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>es colombiano qisas el anuncio</t>
+          <t>es mejor comprar Zucaritas y kumis</t>
         </is>
       </c>
       <c r="G372" s="2" t="n">
-        <v>45927.12303240741</v>
+        <v>45930.03961805555</v>
       </c>
       <c r="H372" s="3" t="n">
-        <v>45927</v>
+        <v>45930</v>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>02:57:10</t>
+          <t>00:57:03</t>
         </is>
       </c>
       <c r="J372" t="n">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554597579239506695', 'createTime': 1758941830, 'createTimeISO': '2025-09-27T02:57:10.000Z', 'text': 'es colombiano qisas el anuncio', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7288728616464565254', 'uniqueId': 'vctorquintero17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/883461a5548b2003dc075511e6bcfc42~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dbb2aa5e&amp;x-expires=1759932000&amp;x-signature=wsxp4BpHvSllfPPyewvXHhTyRMU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555679843532489492', 'createTime': 1759193823, 'createTimeISO': '2025-09-30T00:57:03.000Z', 'text': 'es mejor comprar Zucaritas y kumis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7447745899810440197', 'uniqueId': 'camilocifuentez87', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/13b5a62fd0967c138cc20eaae5853d5a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a6f1ca8e&amp;x-expires=1760018400&amp;x-signature=K%2BM12t6jCYGwPgjKinoxyAetd1I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20482,25 +20482,25 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Esa cosita en mi barrio vale 4.200</t>
+          <t>alpina</t>
         </is>
       </c>
       <c r="G373" s="2" t="n">
-        <v>45924.14872685185</v>
+        <v>45918.03511574074</v>
       </c>
       <c r="H373" s="3" t="n">
-        <v>45924</v>
+        <v>45918</v>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>03:34:10</t>
+          <t>00:50:34</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L373" t="b">
         <v>0</v>
@@ -20512,7 +20512,7 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7553493875907085073', 'createTime': 1758684850, 'createTimeISO': '2025-09-24T03:34:10.000Z', 'text': 'Esa cosita en mi barrio vale 4.200', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7516675592433075217', 'uniqueId': 'saloo9431', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/390311104c38529eae1444c239684f0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3704ff36&amp;x-expires=1759932000&amp;x-signature=seIaaCfGP2ptU7wJDeAHEA96dSo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551225187770123028', 'createTime': 1758156634, 'createTimeISO': '2025-09-18T00:50:34.000Z', 'text': 'alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7308388989270377477', 'uniqueId': 'argeliscampos8', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7345946595810738182~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=751ec08d&amp;x-expires=1760018400&amp;x-signature=Qg4qtv%2BjR4nYWfj%2BdMEsSJkSIow%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20538,18 +20538,18 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Yo lo sigo intentando todos los días</t>
+          <t>como que ela es wenchy😻</t>
         </is>
       </c>
       <c r="G374" s="2" t="n">
-        <v>45926.10107638889</v>
+        <v>45925.48173611111</v>
       </c>
       <c r="H374" s="3" t="n">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>02:25:33</t>
+          <t>11:33:42</t>
         </is>
       </c>
       <c r="J374" t="n">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554218336458392327', 'createTime': 1758853533, 'createTimeISO': '2025-09-26T02:25:33.000Z', 'text': 'Yo lo sigo intentando todos los días', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783786392717280261', 'uniqueId': 'pcjv07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9a8fc4783eb1f4f3049959a6c2f66a0d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0de69fec&amp;x-expires=1759932000&amp;x-signature=mULeu1YgQ1rQAkuALqWP6R6574A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7553988543585583880', 'createTime': 1758800022, 'createTimeISO': '2025-09-25T11:33:42.000Z', 'text': 'como que ela es wenchy😻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197112488310916101', 'uniqueId': 'estebanhernndez551', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fecf4525be02f63c064df17fca5cfb7e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c8cef0bc&amp;x-expires=1760018400&amp;x-signature=iG%2ByStvy9WEi2UNlicSLjYiTYis%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20594,18 +20594,18 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
-          <t>alpina</t>
+          <t>tim bolitoas de chocolate</t>
         </is>
       </c>
       <c r="G375" s="2" t="n">
-        <v>45918.03511574074</v>
+        <v>45928.79769675926</v>
       </c>
       <c r="H375" s="3" t="n">
-        <v>45918</v>
+        <v>45928</v>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>00:50:34</t>
+          <t>19:08:41</t>
         </is>
       </c>
       <c r="J375" t="n">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551225187770123028', 'createTime': 1758156634, 'createTimeISO': '2025-09-18T00:50:34.000Z', 'text': 'alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7308388989270377477', 'uniqueId': 'argeliscampos8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7345946595810738182~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f4bf141b&amp;x-expires=1759932000&amp;x-signature=WD%2F5kAak2jhbn9b3bItNE5FYi9A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555219041385972498', 'createTime': 1759086521, 'createTimeISO': '2025-09-28T19:08:41.000Z', 'text': 'tim bolitoas de chocolate', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6543622081907528704', 'uniqueId': 'pauladaza22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/36c364d523a09384c0dd459562610258~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=73da69f9&amp;x-expires=1760018400&amp;x-signature=Amti38VqKdChuft2k11O6ngi0qc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20650,18 +20650,18 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
-          <t>como que ela es wenchy😻</t>
+          <t>yo tengo dos de estos</t>
         </is>
       </c>
       <c r="G376" s="2" t="n">
-        <v>45925.48173611111</v>
+        <v>45921.13986111111</v>
       </c>
       <c r="H376" s="3" t="n">
-        <v>45925</v>
+        <v>45921</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>11:33:42</t>
+          <t>03:21:24</t>
         </is>
       </c>
       <c r="J376" t="n">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7553988543585583880', 'createTime': 1758800022, 'createTimeISO': '2025-09-25T11:33:42.000Z', 'text': 'como que ela es wenchy😻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7197112488310916101', 'uniqueId': 'estebanhernndez551', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fecf4525be02f63c064df17fca5cfb7e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=92f5dc65&amp;x-expires=1759932000&amp;x-signature=yf1Uqcm4pEKMFth%2FEwZerql7RDM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552377333970682645', 'createTime': 1758424884, 'createTimeISO': '2025-09-21T03:21:24.000Z', 'text': 'yo tengo dos de estos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541629336798430229', 'uniqueId': 'flor_estrella_jime', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1568eea17a79eccbd0db2ceebbd5ef9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1b935d5&amp;x-expires=1760018400&amp;x-signature=f6G7mVlfx4BxGXrmWU35Iolm6gA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20706,25 +20706,25 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr">
         <is>
-          <t>yo tengo dos de estos</t>
+          <t>Esa cosita en mi barrio vale 4.200</t>
         </is>
       </c>
       <c r="G377" s="2" t="n">
-        <v>45921.13986111111</v>
+        <v>45924.14872685185</v>
       </c>
       <c r="H377" s="3" t="n">
-        <v>45921</v>
+        <v>45924</v>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>03:21:24</t>
+          <t>03:34:10</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L377" t="b">
         <v>0</v>
@@ -20736,7 +20736,7 @@
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552377333970682645', 'createTime': 1758424884, 'createTimeISO': '2025-09-21T03:21:24.000Z', 'text': 'yo tengo dos de estos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541629336798430229', 'uniqueId': 'flor_estrella_jime', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1568eea17a79eccbd0db2ceebbd5ef9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4281db7e&amp;x-expires=1759932000&amp;x-signature=B2895o3F3AtctUke21L%2FR7MluUg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7553493875907085073', 'createTime': 1758684850, 'createTimeISO': '2025-09-24T03:34:10.000Z', 'text': 'Esa cosita en mi barrio vale 4.200', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7516675592433075217', 'uniqueId': 'saloo9431', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/390311104c38529eae1444c239684f0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1b52df50&amp;x-expires=1760018400&amp;x-signature=1yq89jJWsq9M8gvC5tVlAwhOx%2BQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20762,18 +20762,18 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Amo los BONYURT ☺️es lo único de cosas dulces que como ❤️😍🥰</t>
+          <t>jajajaja</t>
         </is>
       </c>
       <c r="G378" s="2" t="n">
-        <v>45922.13931712963</v>
+        <v>45916.60461805556</v>
       </c>
       <c r="H378" s="3" t="n">
-        <v>45922</v>
+        <v>45916</v>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>03:20:37</t>
+          <t>14:30:39</t>
         </is>
       </c>
       <c r="J378" t="n">
@@ -20792,7 +20792,7 @@
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552748224482771732', 'createTime': 1758511237, 'createTimeISO': '2025-09-22T03:20:37.000Z', 'text': 'Amo los BONYURT ☺️es lo único de cosas dulces que como ❤️😍🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7211644422017336325', 'uniqueId': 'byisned', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ad32d90de74538de3d47d9f517a6ddbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=07b6c22b&amp;x-expires=1759932000&amp;x-signature=dO1qHUL2ZGFfVhiZZS9lABSENRM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550694365079126804', 'createTime': 1758033039, 'createTimeISO': '2025-09-16T14:30:39.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959897399867786246', 'uniqueId': 'abelardistas2025', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f70d20a4f23a50642c9aa4b7a4fc3edf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5a1eb500&amp;x-expires=1760018400&amp;x-signature=f5lLNvmr40AQP9gsYlmZoM0gCig%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20818,18 +20818,18 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr">
         <is>
-          <t>jajajaja</t>
+          <t>Yo lo sigo intentando todos los días</t>
         </is>
       </c>
       <c r="G379" s="2" t="n">
-        <v>45916.60461805556</v>
+        <v>45926.10107638889</v>
       </c>
       <c r="H379" s="3" t="n">
-        <v>45916</v>
+        <v>45926</v>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>14:30:39</t>
+          <t>02:25:33</t>
         </is>
       </c>
       <c r="J379" t="n">
@@ -20848,7 +20848,7 @@
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550694365079126804', 'createTime': 1758033039, 'createTimeISO': '2025-09-16T14:30:39.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959897399867786246', 'uniqueId': 'abelardistas2025', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f70d20a4f23a50642c9aa4b7a4fc3edf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0c36bdd2&amp;x-expires=1759932000&amp;x-signature=iBvJ6n8mqVe4iWEjx%2FXH9v7%2FBH0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554218336458392327', 'createTime': 1758853533, 'createTimeISO': '2025-09-26T02:25:33.000Z', 'text': 'Yo lo sigo intentando todos los días', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6783786392717280261', 'uniqueId': 'pcjv07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9a8fc4783eb1f4f3049959a6c2f66a0d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a44eeba&amp;x-expires=1760018400&amp;x-signature=PULbOALzLZ5ste%2Bl7Y3ie8RD2I8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20874,18 +20874,18 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr">
         <is>
-          <t>iba a comprar alpina pero gracias a este video dejaré comprar productos alpina</t>
+          <t>Amo los BONYURT ☺️es lo único de cosas dulces que como ❤️😍🥰</t>
         </is>
       </c>
       <c r="G380" s="2" t="n">
-        <v>45918.73861111111</v>
+        <v>45922.13931712963</v>
       </c>
       <c r="H380" s="3" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>17:43:36</t>
+          <t>03:20:37</t>
         </is>
       </c>
       <c r="J380" t="n">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551486252819858197', 'createTime': 1758217416, 'createTimeISO': '2025-09-18T17:43:36.000Z', 'text': 'iba a comprar alpina pero gracias a este video dejaré comprar productos alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7152888498889769990', 'uniqueId': 'djxiko_0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7ad1f3f7e5b11eab38661fdd60d69673~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9d1817fc&amp;x-expires=1759932000&amp;x-signature=QZOQgcA4V8g2FyzNdwp%2FKaODzV4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552748224482771732', 'createTime': 1758511237, 'createTimeISO': '2025-09-22T03:20:37.000Z', 'text': 'Amo los BONYURT ☺️es lo único de cosas dulces que como ❤️😍🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7211644422017336325', 'uniqueId': 'byisned', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ad32d90de74538de3d47d9f517a6ddbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8b0f7f98&amp;x-expires=1760018400&amp;x-signature=IL%2BzQ5ylHarwLDwZCj2taUz2xuU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545709513765290759', 'createTime': 1756872411, 'createTimeISO': '2025-09-03T04:06:51.000Z', 'text': 'queee', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7154518960976905221', 'uniqueId': 'david77..3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1b06e2369c5f19835a0671298ab9ac44~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=571b9703&amp;x-expires=1759932000&amp;x-signature=gkCC07qxY40gGOKK1HVWb7neM74%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545709513765290759', 'createTime': 1756872411, 'createTimeISO': '2025-09-03T04:06:51.000Z', 'text': 'queee', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7154518960976905221', 'uniqueId': 'david77..3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1b06e2369c5f19835a0671298ab9ac44~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=42bd288b&amp;x-expires=1760018400&amp;x-signature=XrEe8VUOHIFbAMVMRMy0cYbvK2o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21016,7 +21016,7 @@
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7553288754561401607', 'createTime': 1758637090, 'createTimeISO': '2025-09-23T14:18:10.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381209254383322117', 'uniqueId': 'juan.e.villegas.g', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/eda7b3918d95a4ce82a7e1aa2ce1ca86~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f9f88093&amp;x-expires=1759932000&amp;x-signature=rVf7l06jYCWHc8jRGYKIb%2Fgonh8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7553288754561401607', 'createTime': 1758637090, 'createTimeISO': '2025-09-23T14:18:10.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7381209254383322117', 'uniqueId': 'juan.e.villegas.g', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/eda7b3918d95a4ce82a7e1aa2ce1ca86~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=628fc3c6&amp;x-expires=1760018400&amp;x-signature=MKCGpiaU3puyst0iT3Q8yzUsliY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21042,18 +21042,18 @@
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G383" s="2" t="n">
-        <v>45927.46086805555</v>
+        <v>45922.72570601852</v>
       </c>
       <c r="H383" s="3" t="n">
-        <v>45927</v>
+        <v>45922</v>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>11:03:39</t>
+          <t>17:25:01</t>
         </is>
       </c>
       <c r="J383" t="n">
@@ -21072,7 +21072,7 @@
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554722965125202696', 'createTime': 1758971019, 'createTimeISO': '2025-09-27T11:03:39.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6849324074422797318', 'uniqueId': 'yetytechnology', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba59a5e0c5d05315fe74e8e9978b4816~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e0e33148&amp;x-expires=1759932000&amp;x-signature=2N0Pqgx2pUNIjgoSnQCYwWZv8i0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552965823368086293', 'createTime': 1758561901, 'createTimeISO': '2025-09-22T17:25:01.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7225378126804796421', 'uniqueId': 'ivanc.2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d69240f&amp;x-expires=1760018400&amp;x-signature=lGmXLJbqmHXUrrhBTSRx5ZFVuaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21098,18 +21098,18 @@
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😁😁😁</t>
         </is>
       </c>
       <c r="G384" s="2" t="n">
-        <v>45903.64616898148</v>
+        <v>45922.30428240741</v>
       </c>
       <c r="H384" s="3" t="n">
-        <v>45903</v>
+        <v>45922</v>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>15:30:29</t>
+          <t>07:18:10</t>
         </is>
       </c>
       <c r="J384" t="n">
@@ -21128,7 +21128,7 @@
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545885695215420168', 'createTime': 1756913429, 'createTimeISO': '2025-09-03T15:30:29.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6894579239481213957', 'uniqueId': 'williambejarano04', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7327240204639698951~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=561c8fe5&amp;x-expires=1759932000&amp;x-signature=eCH0CUHIIkYkVPRuOp2jUkkWS%2FI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552809416665826068', 'createTime': 1758525490, 'createTimeISO': '2025-09-22T07:18:10.000Z', 'text': '😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039474394016809989', 'uniqueId': 'laurasofiacaldero5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/93ffbc859b0be6f8e149a7477ea2965a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=29d37b7d&amp;x-expires=1760018400&amp;x-signature=L1BVyVHFj%2FBrv8i9CE35wkXJlVU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21154,18 +21154,18 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr">
         <is>
-          <t>🥺</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G385" s="2" t="n">
-        <v>45924.83902777778</v>
+        <v>45903.64616898148</v>
       </c>
       <c r="H385" s="3" t="n">
-        <v>45924</v>
+        <v>45903</v>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>20:08:12</t>
+          <t>15:30:29</t>
         </is>
       </c>
       <c r="J385" t="n">
@@ -21184,7 +21184,7 @@
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7553750018487026439', 'createTime': 1758744492, 'createTimeISO': '2025-09-24T20:08:12.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7132905747189433349', 'uniqueId': 'karollgranadillo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/21167669ccf33bcfeb28793f829b441f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=37d0012d&amp;x-expires=1759932000&amp;x-signature=RuY0vr8VTkBDNtEi5ssShJ3hPH8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545885695215420168', 'createTime': 1756913429, 'createTimeISO': '2025-09-03T15:30:29.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6894579239481213957', 'uniqueId': 'williambejarano04', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7327240204639698951~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3374989f&amp;x-expires=1760018400&amp;x-signature=Q1%2BY0zOMkgYojXZxySvIyEaXq%2B0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21210,18 +21210,18 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr">
         <is>
-          <t>😁😁😁</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G386" s="2" t="n">
-        <v>45922.30428240741</v>
+        <v>45927.46086805555</v>
       </c>
       <c r="H386" s="3" t="n">
-        <v>45922</v>
+        <v>45927</v>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>07:18:10</t>
+          <t>11:03:39</t>
         </is>
       </c>
       <c r="J386" t="n">
@@ -21240,7 +21240,7 @@
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552809416665826068', 'createTime': 1758525490, 'createTimeISO': '2025-09-22T07:18:10.000Z', 'text': '😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039474394016809989', 'uniqueId': 'laurasofiacaldero5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/93ffbc859b0be6f8e149a7477ea2965a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c741a839&amp;x-expires=1759932000&amp;x-signature=V8HkCqv0xZZ8%2Fbshqk%2FPePYeTdI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554722965125202696', 'createTime': 1758971019, 'createTimeISO': '2025-09-27T11:03:39.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6849324074422797318', 'uniqueId': 'yetytechnology', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba59a5e0c5d05315fe74e8e9978b4816~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9d2a7629&amp;x-expires=1760018400&amp;x-signature=rlFINUuCbh%2B6gXTMU8CY%2FKt%2FmIw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21266,18 +21266,18 @@
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr">
         <is>
-          <t>🥺</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G387" s="2" t="n">
-        <v>45929.69527777778</v>
+        <v>45928.74763888889</v>
       </c>
       <c r="H387" s="3" t="n">
-        <v>45929</v>
+        <v>45928</v>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>16:41:12</t>
+          <t>17:56:36</t>
         </is>
       </c>
       <c r="J387" t="n">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555552115953222407', 'createTime': 1759164072, 'createTimeISO': '2025-09-29T16:41:12.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7459137864652096517', 'uniqueId': 'sara.moreno.roa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/36277be5f0254d01b8f286bb01824dde~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=506bcf99&amp;x-expires=1759932000&amp;x-signature=CZ3a0QzuC80%2FZIUOh64%2FQTW%2FxAQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555200464820765458', 'createTime': 1759082196, 'createTimeISO': '2025-09-28T17:56:36.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7122697184529433601', 'uniqueId': 'lissduran331', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d20602179c84c8cf643ac53f0f86be77~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d2aee6ca&amp;x-expires=1760018400&amp;x-signature=SrIlPhvM9q01iVnE1gq1lO%2FijCY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21352,7 +21352,7 @@
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554460699403420436', 'createTime': 1758909962, 'createTimeISO': '2025-09-26T18:06:02.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7512256625237230609', 'uniqueId': 'hello_kittylinda00', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/59a2eacdb8ab5233a57207e202c99e28~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=006239c3&amp;x-expires=1759932000&amp;x-signature=gID%2FOTEmjexIh9p5Pb%2Fm5WjNjEY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554460699403420436', 'createTime': 1758909962, 'createTimeISO': '2025-09-26T18:06:02.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7512256625237230609', 'uniqueId': 'hello_kittylinda00', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/59a2eacdb8ab5233a57207e202c99e28~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=28b09001&amp;x-expires=1760018400&amp;x-signature=Fw25JPTfKU8jkYKCEfWMrWG6AcM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554399354342474504', 'createTime': 1758895668, 'createTimeISO': '2025-09-26T14:07:48.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7485143415823647760', 'uniqueId': 'mute1641', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e58ceccb&amp;x-expires=1759932000&amp;x-signature=ZxPhst8TfJ%2Bxl%2FMdGw5nQMgDe8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554399354342474504', 'createTime': 1758895668, 'createTimeISO': '2025-09-26T14:07:48.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7485143415823647760', 'uniqueId': 'mute1641', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d69240f&amp;x-expires=1760018400&amp;x-signature=lGmXLJbqmHXUrrhBTSRx5ZFVuaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554898473444524818', 'createTime': 1759011897, 'createTimeISO': '2025-09-27T22:24:57.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7525466392764040248', 'uniqueId': 'requiemm.exe', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/75a844939ce35d6f0f8303a42c52834a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7489b2f9&amp;x-expires=1759932000&amp;x-signature=dHgu6E15f1Wgi8ruJ7LD0AVOJJM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554898473444524818', 'createTime': 1759011897, 'createTimeISO': '2025-09-27T22:24:57.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7525466392764040248', 'uniqueId': 'requiemm.exe', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/75a844939ce35d6f0f8303a42c52834a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8a4177ec&amp;x-expires=1760018400&amp;x-signature=spRSgKfO213K0B1GUgTWu%2BVQyx0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21490,18 +21490,18 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>😅</t>
         </is>
       </c>
       <c r="G391" s="2" t="n">
-        <v>45922.11356481481</v>
+        <v>45926.50773148148</v>
       </c>
       <c r="H391" s="3" t="n">
-        <v>45922</v>
+        <v>45926</v>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>02:43:32</t>
+          <t>12:11:08</t>
         </is>
       </c>
       <c r="J391" t="n">
@@ -21520,7 +21520,7 @@
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552738631347225362', 'createTime': 1758509012, 'createTimeISO': '2025-09-22T02:43:32.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831725953556022277', 'uniqueId': 'juanandresmarti', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7328132329882910726~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b0e19cc4&amp;x-expires=1759932000&amp;x-signature=ASVbu%2B4zYh48B5BIN2CEHAw4joQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554369288191542034', 'createTime': 1758888668, 'createTimeISO': '2025-09-26T12:11:08.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790518698173891590', 'uniqueId': 'joseenriquediazca', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a7d61dd7ffb607f396d4f2f9e1c0453d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2200398a&amp;x-expires=1760018400&amp;x-signature=MY5i4SO37bkF9vcdC1LZAKEuzwo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21546,18 +21546,18 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
-          <t>😍</t>
+          <t>🥺</t>
         </is>
       </c>
       <c r="G392" s="2" t="n">
-        <v>45916.59555555556</v>
+        <v>45924.83902777778</v>
       </c>
       <c r="H392" s="3" t="n">
-        <v>45916</v>
+        <v>45924</v>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>14:17:36</t>
+          <t>20:08:12</t>
         </is>
       </c>
       <c r="J392" t="n">
@@ -21576,7 +21576,7 @@
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550691016673313556', 'createTime': 1758032256, 'createTimeISO': '2025-09-16T14:17:36.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7131151200246072326', 'uniqueId': 'nio.de.oro486', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d86f9e5ce7c7cbe90e31c3589833958~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=64f22313&amp;x-expires=1759932000&amp;x-signature=x9VH%2BTKJ9iRls3I53XC1EUDCRlU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7553750018487026439', 'createTime': 1758744492, 'createTimeISO': '2025-09-24T20:08:12.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7132905747189433349', 'uniqueId': 'karollgranadillo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/21167669ccf33bcfeb28793f829b441f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dcb4d8ba&amp;x-expires=1760018400&amp;x-signature=9RefSD5Bak1eGRU465TB%2FUcHa3M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21632,7 +21632,7 @@
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554777430663938834', 'createTime': 1758983695, 'createTimeISO': '2025-09-27T14:34:55.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7449097439040521221', 'uniqueId': 'yuleimy.avendao4', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/11d679578cbc29da11d1ea4eaae1ce39~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=edad28b6&amp;x-expires=1759932000&amp;x-signature=yr7tRZknDDA0aQpk3TdhCwhji3k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554777430663938834', 'createTime': 1758983695, 'createTimeISO': '2025-09-27T14:34:55.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7449097439040521221', 'uniqueId': 'yuleimy.avendao4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/11d679578cbc29da11d1ea4eaae1ce39~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7891bae2&amp;x-expires=1760018400&amp;x-signature=EmTb5Gue9laJfa0JpoTWAMbWru4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21658,18 +21658,18 @@
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr">
         <is>
-          <t>🤪</t>
+          <t>🥺</t>
         </is>
       </c>
       <c r="G394" s="2" t="n">
-        <v>45906.96251157407</v>
+        <v>45929.69527777778</v>
       </c>
       <c r="H394" s="3" t="n">
-        <v>45906</v>
+        <v>45929</v>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>23:06:01</t>
+          <t>16:41:12</t>
         </is>
       </c>
       <c r="J394" t="n">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547116277643723528', 'createTime': 1757199961, 'createTimeISO': '2025-09-06T23:06:01.000Z', 'text': '🤪', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7087009017579111430', 'uniqueId': 'elsantyrl', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3e40a4f7592b3db6834301b583df1ceb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1225fa3&amp;x-expires=1759932000&amp;x-signature=wzIDlu%2FlCpHQdImTDtfCH8fIpYo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555552115953222407', 'createTime': 1759164072, 'createTimeISO': '2025-09-29T16:41:12.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7459137864652096517', 'uniqueId': 'sara.moreno.roa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/36277be5f0254d01b8f286bb01824dde~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9636d242&amp;x-expires=1760018400&amp;x-signature=JlL53BEzcQaLNueGscx0gHDN7kE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21744,7 +21744,7 @@
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554898650238763783', 'createTime': 1759011940, 'createTimeISO': '2025-09-27T22:25:40.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7525466392764040248', 'uniqueId': 'requiemm.exe', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/75a844939ce35d6f0f8303a42c52834a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7489b2f9&amp;x-expires=1759932000&amp;x-signature=dHgu6E15f1Wgi8ruJ7LD0AVOJJM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554898650238763783', 'createTime': 1759011940, 'createTimeISO': '2025-09-27T22:25:40.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7525466392764040248', 'uniqueId': 'requiemm.exe', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/75a844939ce35d6f0f8303a42c52834a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8a4177ec&amp;x-expires=1760018400&amp;x-signature=spRSgKfO213K0B1GUgTWu%2BVQyx0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21770,18 +21770,18 @@
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>🤪</t>
         </is>
       </c>
       <c r="G396" s="2" t="n">
-        <v>45907.80752314815</v>
+        <v>45906.96251157407</v>
       </c>
       <c r="H396" s="3" t="n">
-        <v>45907</v>
+        <v>45906</v>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>19:22:50</t>
+          <t>23:06:01</t>
         </is>
       </c>
       <c r="J396" t="n">
@@ -21800,7 +21800,7 @@
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547429816326112017', 'createTime': 1757272970, 'createTimeISO': '2025-09-07T19:22:50.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6858021236414399493', 'uniqueId': 'juansebas290', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/44d9c3e86e797b929bc195018c4e78b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=977c2ed3&amp;x-expires=1759932000&amp;x-signature=KZKYjHMuowJqHjmUG5u11AMcxsg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547116277643723528', 'createTime': 1757199961, 'createTimeISO': '2025-09-06T23:06:01.000Z', 'text': '🤪', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7087009017579111430', 'uniqueId': 'elsantyrl', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3e40a4f7592b3db6834301b583df1ceb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e5f552b&amp;x-expires=1760018400&amp;x-signature=khYhUSYztq3h7iYHRWmihcbpmhw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21826,18 +21826,18 @@
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr">
         <is>
-          <t>😅</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G397" s="2" t="n">
-        <v>45926.50773148148</v>
+        <v>45920.70469907407</v>
       </c>
       <c r="H397" s="3" t="n">
-        <v>45926</v>
+        <v>45920</v>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>12:11:08</t>
+          <t>16:54:46</t>
         </is>
       </c>
       <c r="J397" t="n">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554369288191542034', 'createTime': 1758888668, 'createTimeISO': '2025-09-26T12:11:08.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790518698173891590', 'uniqueId': 'joseenriquediazca', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a7d61dd7ffb607f396d4f2f9e1c0453d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1fe869e8&amp;x-expires=1759932000&amp;x-signature=tq5QxKVb8cXTf67TgQ%2FGsWUmUCA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552215855154348807', 'createTime': 1758387286, 'createTimeISO': '2025-09-20T16:54:46.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6858356811674862598', 'uniqueId': 'diegorubio2020', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/30e5a56af24870c37e4687a6f479ab83~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=87bad444&amp;x-expires=1760018400&amp;x-signature=FjeaJawypl%2FPbK1fqK2gXqWdXGc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21886,14 +21886,14 @@
         </is>
       </c>
       <c r="G398" s="2" t="n">
-        <v>45922.72570601852</v>
+        <v>45928.01208333333</v>
       </c>
       <c r="H398" s="3" t="n">
-        <v>45922</v>
+        <v>45928</v>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>17:25:01</t>
+          <t>00:17:24</t>
         </is>
       </c>
       <c r="J398" t="n">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552965823368086293', 'createTime': 1758561901, 'createTimeISO': '2025-09-22T17:25:01.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7225378126804796421', 'uniqueId': 'ivanc.2', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=daf70492&amp;x-expires=1759932000&amp;x-signature=R0xMx2X9gEWUyvfh9NYV3JGICWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554927465626796818', 'createTime': 1759018644, 'createTimeISO': '2025-09-28T00:17:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7408869449699017733', 'uniqueId': 'yelismoreno.25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/682169f6046a61ad364df1f05641f163~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f660ebd&amp;x-expires=1760018400&amp;x-signature=FWtpMoReEVjK4JAAETUFYL00gyg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21938,18 +21938,18 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>🙄</t>
         </is>
       </c>
       <c r="G399" s="2" t="n">
-        <v>45928.74763888889</v>
+        <v>45924.19413194444</v>
       </c>
       <c r="H399" s="3" t="n">
-        <v>45928</v>
+        <v>45924</v>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>17:56:36</t>
+          <t>04:39:33</t>
         </is>
       </c>
       <c r="J399" t="n">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555200464820765458', 'createTime': 1759082196, 'createTimeISO': '2025-09-28T17:56:36.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7122697184529433601', 'uniqueId': 'lissduran331', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d20602179c84c8cf643ac53f0f86be77~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c6ed224&amp;x-expires=1759932000&amp;x-signature=oc0KeT%2FUcrWhWE94AHSj%2FnTVamI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7553510731413881607', 'createTime': 1758688773, 'createTimeISO': '2025-09-24T04:39:33.000Z', 'text': '🙄', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6593148703212011525', 'uniqueId': 'felipebolivarboli', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5a5b55c2afa71cd5dd96bf57300449f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cdaffdee&amp;x-expires=1760018400&amp;x-signature=IZAMBVW%2BpG3tBt7X6OjeC8mI0OM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -21998,14 +21998,14 @@
         </is>
       </c>
       <c r="G400" s="2" t="n">
-        <v>45920.70469907407</v>
+        <v>45904.49728009259</v>
       </c>
       <c r="H400" s="3" t="n">
-        <v>45920</v>
+        <v>45904</v>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>16:54:46</t>
+          <t>11:56:05</t>
         </is>
       </c>
       <c r="J400" t="n">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552215855154348807', 'createTime': 1758387286, 'createTimeISO': '2025-09-20T16:54:46.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6858356811674862598', 'uniqueId': 'diegorubio2020', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/30e5a56af24870c37e4687a6f479ab83~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4fd2f58a&amp;x-expires=1759932000&amp;x-signature=uJb7R1KAj2%2FFKfLV0B%2BxJU1eQ4w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7546201520821175047', 'createTime': 1756986965, 'createTimeISO': '2025-09-04T11:56:05.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6978585189425611781', 'uniqueId': 'joseleonelportill2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7321812502752690181~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c548023e&amp;x-expires=1760018400&amp;x-signature=NmU1WV6Kclv77Dqgt3lm2uvkEic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22050,18 +22050,18 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
-          <t>❤️❤️❤</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G401" s="2" t="n">
-        <v>45915.75493055556</v>
+        <v>45921.62472222222</v>
       </c>
       <c r="H401" s="3" t="n">
-        <v>45915</v>
+        <v>45921</v>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>18:07:06</t>
+          <t>14:59:36</t>
         </is>
       </c>
       <c r="J401" t="n">
@@ -22080,7 +22080,7 @@
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550379057759978248', 'createTime': 1757959626, 'createTimeISO': '2025-09-15T18:07:06.000Z', 'text': '❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6908722576434185222', 'uniqueId': 'correita.16', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1b2932d67ade51120c1529f2363d60c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a342a9ee&amp;x-expires=1759932000&amp;x-signature=%2FsrWYxTp0Q%2F%2Bl%2FCxF%2BY1t%2B8goB4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552557266508677908', 'createTime': 1758466776, 'createTimeISO': '2025-09-21T14:59:36.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7360121019057767430', 'uniqueId': 'elsa20928', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7360149958383075334~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=66d82d63&amp;x-expires=1760018400&amp;x-signature=4e0ZN1FJmGL0Qew6gAsM7MPw3fw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22106,18 +22106,18 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G402" s="2" t="n">
-        <v>45928.01208333333</v>
+        <v>45921.07612268518</v>
       </c>
       <c r="H402" s="3" t="n">
-        <v>45928</v>
+        <v>45921</v>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>00:17:24</t>
+          <t>01:49:37</t>
         </is>
       </c>
       <c r="J402" t="n">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554927465626796818', 'createTime': 1759018644, 'createTimeISO': '2025-09-28T00:17:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7408869449699017733', 'uniqueId': 'yelismoreno.25', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/682169f6046a61ad364df1f05641f163~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee82ce14&amp;x-expires=1759932000&amp;x-signature=BiHjkL6oxpQ5z698osFCOo4bohg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552353669410210568', 'createTime': 1758419377, 'createTimeISO': '2025-09-21T01:49:37.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6858289966679180293', 'uniqueId': 'alejomotta13', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326645134660272133~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c8926e75&amp;x-expires=1760018400&amp;x-signature=R985SIZXh1OVO%2BeaB8BHfwtuOtc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22162,18 +22162,18 @@
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>💋</t>
         </is>
       </c>
       <c r="G403" s="2" t="n">
-        <v>45920.94398148148</v>
+        <v>45926.50944444445</v>
       </c>
       <c r="H403" s="3" t="n">
-        <v>45920</v>
+        <v>45926</v>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>22:39:20</t>
+          <t>12:13:36</t>
         </is>
       </c>
       <c r="J403" t="n">
@@ -22192,7 +22192,7 @@
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552304591066596103', 'createTime': 1758407960, 'createTimeISO': '2025-09-20T22:39:20.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7471310393048466439', 'uniqueId': 'katy.ramos29', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ccee563e95c233678219dc458374a20f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf5fb1e8&amp;x-expires=1759932000&amp;x-signature=jSZnYJ%2FcxI3InH177knN6evYFf8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554369920772260626', 'createTime': 1758888816, 'createTimeISO': '2025-09-26T12:13:36.000Z', 'text': '💋', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7322699514849739781', 'uniqueId': 'liana.perez16', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bf2e3f3078b0724ae4f46c911b616c26~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8dea03e5&amp;x-expires=1760018400&amp;x-signature=BUAExmwwx6W7a9zhih9erFL%2B09A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22218,18 +22218,18 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>💙</t>
         </is>
       </c>
       <c r="G404" s="2" t="n">
-        <v>45921.62472222222</v>
+        <v>45907.17275462963</v>
       </c>
       <c r="H404" s="3" t="n">
-        <v>45921</v>
+        <v>45907</v>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>14:59:36</t>
+          <t>04:08:46</t>
         </is>
       </c>
       <c r="J404" t="n">
@@ -22248,7 +22248,7 @@
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552557266508677908', 'createTime': 1758466776, 'createTimeISO': '2025-09-21T14:59:36.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7360121019057767430', 'uniqueId': 'elsa20928', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7360149958383075334~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=58a702b3&amp;x-expires=1759932000&amp;x-signature=e7O1blZHHfyejsI0%2Fv2oyZazENw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547194337542963975', 'createTime': 1757218126, 'createTimeISO': '2025-09-07T04:08:46.000Z', 'text': '💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6909704687071560710', 'uniqueId': 'cielochaves', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1502a73f2d90e593a5f7fae0a5692bfa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3d75ffb5&amp;x-expires=1760018400&amp;x-signature=mN%2FVlUsDNwkbPDke919T0%2FzNUzg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22274,18 +22274,18 @@
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G405" s="2" t="n">
-        <v>45921.07612268518</v>
+        <v>45907.80752314815</v>
       </c>
       <c r="H405" s="3" t="n">
-        <v>45921</v>
+        <v>45907</v>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>01:49:37</t>
+          <t>19:22:50</t>
         </is>
       </c>
       <c r="J405" t="n">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552353669410210568', 'createTime': 1758419377, 'createTimeISO': '2025-09-21T01:49:37.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6858289966679180293', 'uniqueId': 'alejomotta13', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326645134660272133~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=11ab9023&amp;x-expires=1759932000&amp;x-signature=GOZhwA%2F4Am4QmAb38YSEeUha2i0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547429816326112017', 'createTime': 1757272970, 'createTimeISO': '2025-09-07T19:22:50.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6858021236414399493', 'uniqueId': 'juansebas290', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/44d9c3e86e797b929bc195018c4e78b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d17ad3a6&amp;x-expires=1760018400&amp;x-signature=jmIw4V77bo0LYHkme0aSqbE6r8w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22330,18 +22330,18 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr">
         <is>
-          <t>💙</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G406" s="2" t="n">
-        <v>45907.17275462963</v>
+        <v>45922.11356481481</v>
       </c>
       <c r="H406" s="3" t="n">
-        <v>45907</v>
+        <v>45922</v>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>04:08:46</t>
+          <t>02:43:32</t>
         </is>
       </c>
       <c r="J406" t="n">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7547194337542963975', 'createTime': 1757218126, 'createTimeISO': '2025-09-07T04:08:46.000Z', 'text': '💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6909704687071560710', 'uniqueId': 'cielochaves', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1502a73f2d90e593a5f7fae0a5692bfa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d24596e&amp;x-expires=1759932000&amp;x-signature=r7fF9iNV0pznEVyhuVfC2BvabDw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552738631347225362', 'createTime': 1758509012, 'createTimeISO': '2025-09-22T02:43:32.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831725953556022277', 'uniqueId': 'juanandresmarti', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7328132329882910726~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d01a40cd&amp;x-expires=1760018400&amp;x-signature=6mK51qDvDbUINOs%2BVgXyagIh4JA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22386,18 +22386,18 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>🥺</t>
         </is>
       </c>
       <c r="G407" s="2" t="n">
-        <v>45915.88739583334</v>
+        <v>45920.20171296296</v>
       </c>
       <c r="H407" s="3" t="n">
-        <v>45915</v>
+        <v>45920</v>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>21:17:51</t>
+          <t>04:50:28</t>
         </is>
       </c>
       <c r="J407" t="n">
@@ -22416,7 +22416,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550428171239195399', 'createTime': 1757971071, 'createTimeISO': '2025-09-15T21:17:51.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '310381012813938688', 'uniqueId': 'natgomez.x', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3bf4b94a2fd4b7dc7eecf23827bf75c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=15f64ef9&amp;x-expires=1759932000&amp;x-signature=S32yRPFNoD0oL6F3YN4kDHbvnSY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552029184862061313', 'createTime': 1758343828, 'createTimeISO': '2025-09-20T04:50:28.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7158963513423414277', 'uniqueId': 'jackelingutierrez7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/51791c511984c48d1dc7e5c692d8ebe6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d506f863&amp;x-expires=1760018400&amp;x-signature=ICmboC4UQ0b6mJuelE%2BhZr7qhOg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22442,18 +22442,18 @@
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr">
         <is>
-          <t>🥺</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G408" s="2" t="n">
-        <v>45920.20171296296</v>
+        <v>45917.56686342593</v>
       </c>
       <c r="H408" s="3" t="n">
-        <v>45920</v>
+        <v>45917</v>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>04:50:28</t>
+          <t>13:36:17</t>
         </is>
       </c>
       <c r="J408" t="n">
@@ -22472,7 +22472,7 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552029184862061313', 'createTime': 1758343828, 'createTimeISO': '2025-09-20T04:50:28.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7158963513423414277', 'uniqueId': 'jackelingutierrez7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/51791c511984c48d1dc7e5c692d8ebe6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bb3bb9a6&amp;x-expires=1759932000&amp;x-signature=MDbsQ7JxuXd%2BOZwKpm5P%2F11Yr7o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551051455088591634', 'createTime': 1758116177, 'createTimeISO': '2025-09-17T13:36:17.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7101699671811277830', 'uniqueId': 'paolavargasgalvis', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/87193764b171e202edf69ebfdb5b6a16~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da8f1251&amp;x-expires=1760018400&amp;x-signature=gL5kejS2Rs2VCbZtrzCfLDCUc74%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22498,18 +22498,18 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr">
         <is>
-          <t>🙄</t>
+          <t>😍</t>
         </is>
       </c>
       <c r="G409" s="2" t="n">
-        <v>45924.19413194444</v>
+        <v>45916.59555555556</v>
       </c>
       <c r="H409" s="3" t="n">
-        <v>45924</v>
+        <v>45916</v>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>04:39:33</t>
+          <t>14:17:36</t>
         </is>
       </c>
       <c r="J409" t="n">
@@ -22528,7 +22528,7 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7553510731413881607', 'createTime': 1758688773, 'createTimeISO': '2025-09-24T04:39:33.000Z', 'text': '🙄', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6593148703212011525', 'uniqueId': 'felipebolivarboli', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5a5b55c2afa71cd5dd96bf57300449f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4d95e414&amp;x-expires=1759932000&amp;x-signature=RyHxXs7DOY195%2BgKYkXnOQadH6o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550691016673313556', 'createTime': 1758032256, 'createTimeISO': '2025-09-16T14:17:36.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7131151200246072326', 'uniqueId': 'nio.de.oro486', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d86f9e5ce7c7cbe90e31c3589833958~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da77dd01&amp;x-expires=1760018400&amp;x-signature=Zjwr3OYiJG%2FNXY66R62IWl0RV1g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22558,14 +22558,14 @@
         </is>
       </c>
       <c r="G410" s="2" t="n">
-        <v>45917.56686342593</v>
+        <v>45915.88739583334</v>
       </c>
       <c r="H410" s="3" t="n">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>13:36:17</t>
+          <t>21:17:51</t>
         </is>
       </c>
       <c r="J410" t="n">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551051455088591634', 'createTime': 1758116177, 'createTimeISO': '2025-09-17T13:36:17.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7101699671811277830', 'uniqueId': 'paolavargasgalvis', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/87193764b171e202edf69ebfdb5b6a16~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c3c84fa&amp;x-expires=1759932000&amp;x-signature=3eiiOlCQrwilW6YlOjDIxql9s6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550428171239195399', 'createTime': 1757971071, 'createTimeISO': '2025-09-15T21:17:51.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '310381012813938688', 'uniqueId': 'natgomez.x', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3bf4b94a2fd4b7dc7eecf23827bf75c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0575e69b&amp;x-expires=1760018400&amp;x-signature=dZvWcGrgPGoZO%2FBxxWruBXNUdbU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22610,18 +22610,18 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr">
         <is>
-          <t>💋</t>
+          <t>❤️❤️❤</t>
         </is>
       </c>
       <c r="G411" s="2" t="n">
-        <v>45926.50944444445</v>
+        <v>45915.75493055556</v>
       </c>
       <c r="H411" s="3" t="n">
-        <v>45926</v>
+        <v>45915</v>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>12:13:36</t>
+          <t>18:07:06</t>
         </is>
       </c>
       <c r="J411" t="n">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554369920772260626', 'createTime': 1758888816, 'createTimeISO': '2025-09-26T12:13:36.000Z', 'text': '💋', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7322699514849739781', 'uniqueId': 'liana.perez16', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bf2e3f3078b0724ae4f46c911b616c26~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f339d780&amp;x-expires=1759932000&amp;x-signature=QyMw8s1FKchhfzaDZXN8B2j7O1Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550379057759978248', 'createTime': 1757959626, 'createTimeISO': '2025-09-15T18:07:06.000Z', 'text': '❤️❤️❤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6908722576434185222', 'uniqueId': 'correita.16', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1b2932d67ade51120c1529f2363d60c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=79ef46e3&amp;x-expires=1760018400&amp;x-signature=sTlldzMq2P81tDZFeqp76zJTsus%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22670,14 +22670,14 @@
         </is>
       </c>
       <c r="G412" s="2" t="n">
-        <v>45904.49728009259</v>
+        <v>45920.94398148148</v>
       </c>
       <c r="H412" s="3" t="n">
-        <v>45904</v>
+        <v>45920</v>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>11:56:05</t>
+          <t>22:39:20</t>
         </is>
       </c>
       <c r="J412" t="n">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7546201520821175047', 'createTime': 1756986965, 'createTimeISO': '2025-09-04T11:56:05.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6978585189425611781', 'uniqueId': 'joseleonelportill2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7321812502752690181~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1fa7d4b8&amp;x-expires=1759932000&amp;x-signature=kKjxKVhD96iKUAR83%2FpKlhNdklY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7552304591066596103', 'createTime': 1758407960, 'createTimeISO': '2025-09-20T22:39:20.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7471310393048466439', 'uniqueId': 'katy.ramos29', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ccee563e95c233678219dc458374a20f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5a7509be&amp;x-expires=1760018400&amp;x-signature=c2GYQejiFqzp9zqXVkKQpXPx9sc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22752,7 +22752,7 @@
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545694344875934485', 'createTime': 1756868878, 'createTimeISO': '2025-09-03T03:07:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369002548668122117', 'uniqueId': 'hernan.patio67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7369002923495260165~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e001232b&amp;x-expires=1759932000&amp;x-signature=%2FCHkYwxTp7Dv7C0wiubawBCiiYw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7545694344875934485', 'createTime': 1756868878, 'createTimeISO': '2025-09-03T03:07:58.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369002548668122117', 'uniqueId': 'hernan.patio67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7369002923495260165~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=452c2d40&amp;x-expires=1760018400&amp;x-signature=kYYFSQaMfx6VbI0cGs8z9X19V4k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22808,7 +22808,7 @@
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555152461969081096', 'createTime': 1759071020, 'createTimeISO': '2025-09-28T14:50:20.000Z', 'text': '🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6690259726863942662', 'uniqueId': 'jeinervisbal', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7322322158691024902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=efd94712&amp;x-expires=1759932000&amp;x-signature=OR1PgsjSXQv%2FUkH8YVWhQbCfDys%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7555152461969081096', 'createTime': 1759071020, 'createTimeISO': '2025-09-28T14:50:20.000Z', 'text': '🔥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6690259726863942662', 'uniqueId': 'jeinervisbal', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7322322158691024902~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e92d572&amp;x-expires=1760018400&amp;x-signature=1pGWAEWMwJhf8dNEF%2BbIAFosA5U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22834,18 +22834,18 @@
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr">
         <is>
-          <t>jajaj a mi amigo le salió y no se dio cuenta hasta que yo lo ví en la basura jajaj</t>
+          <t>bájale de precio y la compro 😠</t>
         </is>
       </c>
       <c r="G415" s="2" t="n">
-        <v>45914.74405092592</v>
+        <v>45904.07752314815</v>
       </c>
       <c r="H415" s="3" t="n">
-        <v>45914</v>
+        <v>45904</v>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>17:51:26</t>
+          <t>01:51:38</t>
         </is>
       </c>
       <c r="J415" t="n">
@@ -22864,7 +22864,7 @@
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550003952378233607', 'createTime': 1757872286, 'createTimeISO': '2025-09-14T17:51:26.000Z', 'text': 'jajaj a mi amigo le salió y no se dio cuenta hasta que yo lo ví en la basura jajaj', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7501862813942596615', 'uniqueId': 'julietaaaaaa141', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8c07e78779ecb6148650f7445250cf56~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c102548&amp;x-expires=1759932000&amp;x-signature=yi8RmSMB3TkBo00jleIERfMoQNc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7546045730332427015', 'createTime': 1756950698, 'createTimeISO': '2025-09-04T01:51:38.000Z', 'text': 'bájale de precio y la compro 😠', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446031101488874501', 'uniqueId': 'romn.jos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/424e91eb2f1b89d3d2ca4861dc958b45~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=74b28ca8&amp;x-expires=1760018400&amp;x-signature=MKnDSrrCNmShR3gw%2FwsCL%2FLaUZk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22890,18 +22890,18 @@
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr">
         <is>
-          <t>bájale de precio y la compro 😠</t>
+          <t>que hueso esos premios😅</t>
         </is>
       </c>
       <c r="G416" s="2" t="n">
-        <v>45904.07752314815</v>
+        <v>45927.19828703703</v>
       </c>
       <c r="H416" s="3" t="n">
-        <v>45904</v>
+        <v>45927</v>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>01:51:38</t>
+          <t>04:45:32</t>
         </is>
       </c>
       <c r="J416" t="n">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7546045730332427015', 'createTime': 1756950698, 'createTimeISO': '2025-09-04T01:51:38.000Z', 'text': 'bájale de precio y la compro 😠', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446031101488874501', 'uniqueId': 'romn.jos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/424e91eb2f1b89d3d2ca4861dc958b45~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=847f6c69&amp;x-expires=1759932000&amp;x-signature=naHR9K6C7yHqa2%2FGthnzVRoquXY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554625519514862357', 'createTime': 1758948332, 'createTimeISO': '2025-09-27T04:45:32.000Z', 'text': '𝐪𝐮𝐞 𝐡𝐮𝐞𝐬𝐨 𝐞𝐬𝐨𝐬 𝐩𝐫𝐞𝐦𝐢𝐨𝐬😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811270244574757893', 'uniqueId': 'miya43717901', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e4d8f9e733e15ec79f3b1a29964cbf07~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c4a3e11e&amp;x-expires=1760018400&amp;x-signature=GalgRd0alWf3Hkp%2BAcvSEJFZksk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551792740092494610', 'createTime': 1758288773, 'createTimeISO': '2025-09-19T13:32:53.000Z', 'text': 'Exceso de azúcar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7041393764770268165', 'uniqueId': 'jasj941', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9ab47d8fd176fcd8a97695c7d7b7f301~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=88e4e2a1&amp;x-expires=1759932000&amp;x-signature=4CbAreL7IWQIGtIeup%2B4nZSF2ic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551792740092494610', 'createTime': 1758288773, 'createTimeISO': '2025-09-19T13:32:53.000Z', 'text': 'Exceso de azúcar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7041393764770268165', 'uniqueId': 'jasj941', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9ab47d8fd176fcd8a97695c7d7b7f301~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9729f65b&amp;x-expires=1760018400&amp;x-signature=8naE9%2B98GHi7ZkivWNal3hvySM4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23002,18 +23002,18 @@
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr">
         <is>
-          <t>que hueso esos premios😅</t>
+          <t>jajaj a mi amigo le salió y no se dio cuenta hasta que yo lo ví en la basura jajaj</t>
         </is>
       </c>
       <c r="G418" s="2" t="n">
-        <v>45927.19828703703</v>
+        <v>45914.74405092592</v>
       </c>
       <c r="H418" s="3" t="n">
-        <v>45927</v>
+        <v>45914</v>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>04:45:32</t>
+          <t>17:51:26</t>
         </is>
       </c>
       <c r="J418" t="n">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7554625519514862357', 'createTime': 1758948332, 'createTimeISO': '2025-09-27T04:45:32.000Z', 'text': '𝐪𝐮𝐞 𝐡𝐮𝐞𝐬𝐨 𝐞𝐬𝐨𝐬 𝐩𝐫𝐞𝐦𝐢𝐨𝐬😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811270244574757893', 'uniqueId': 'miya43717901', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e4d8f9e733e15ec79f3b1a29964cbf07~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c56c2678&amp;x-expires=1759932000&amp;x-signature=cqb3xuRBWV5iB3BMzYtFoqNoYDI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7550003952378233607', 'createTime': 1757872286, 'createTimeISO': '2025-09-14T17:51:26.000Z', 'text': 'jajaj a mi amigo le salió y no se dio cuenta hasta que yo lo ví en la basura jajaj', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7501862813942596615', 'uniqueId': 'julietaaaaaa141', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8c07e78779ecb6148650f7445250cf56~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1ec2f444&amp;x-expires=1760018400&amp;x-signature=dce3tM5HiTrsO91QsG0K6HMhHmE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23088,7 +23088,7 @@
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551613752757551890', 'createTime': 1758247100, 'createTimeISO': '2025-09-19T01:58:20.000Z', 'text': 'en un país donde la violencia y los robos no paran a diario viene está marca ✖️a seguir promocionando en nuestro inconsciente este tipo de cosas, la verdad estamos mal de grupo de marketing toca pensar un poquito más para ser más profesionales, muy mal comercial', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7022394926558331909', 'uniqueId': 'pantallaviajera', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/af89a68cf6b028c2a33336d2f3922da5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c5fbc6d5&amp;x-expires=1759932000&amp;x-signature=NBLxvmG2iYx3XLsXyo71O98J9Nc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543093358038273', 'cid': '7551613752757551890', 'createTime': 1758247100, 'createTimeISO': '2025-09-19T01:58:20.000Z', 'text': 'en un país donde la violencia y los robos no paran a diario viene está marca ✖️a seguir promocionando en nuestro inconsciente este tipo de cosas, la verdad estamos mal de grupo de marketing toca pensar un poquito más para ser más profesionales, muy mal comercial', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7022394926558331909', 'uniqueId': 'pantallaviajera', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/af89a68cf6b028c2a33336d2f3922da5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ad932fb&amp;x-expires=1760018400&amp;x-signature=VVSSKTPhFjBPXZryxv%2BtFXnrltw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23144,7 +23144,7 @@
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549401305296749368', 'createTime': 1757731992, 'createTimeISO': '2025-09-13T02:53:12.000Z', 'text': 'Dios mío tantos pasos 😅', 'diggCount': 18, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '219720050335805441', 'uniqueId': 'mishellcruzcruz', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/59df1ef53e096ffffe5d5f78f2958ff6~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0f553017&amp;x-expires=1759932000&amp;x-signature=HVQLtPDpzLpg431Oj25bshHFpjI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549401305296749368', 'createTime': 1757731992, 'createTimeISO': '2025-09-13T02:53:12.000Z', 'text': 'Dios mío tantos pasos 😅', 'diggCount': 18, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '219720050335805441', 'uniqueId': 'mishellcruzcruz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/59df1ef53e096ffffe5d5f78f2958ff6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0624a0e6&amp;x-expires=1760018400&amp;x-signature=%2FVXdp8P4D0C%2BMCa%2BNK7fxzaNwKY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23170,22 +23170,22 @@
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Bonos de 30 mil pensé que los premios iban a ser mejores</t>
+          <t>si a bueno</t>
         </is>
       </c>
       <c r="G421" s="2" t="n">
-        <v>45929.34986111111</v>
+        <v>45908.03688657407</v>
       </c>
       <c r="H421" s="3" t="n">
-        <v>45929</v>
+        <v>45908</v>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>08:23:48</t>
+          <t>00:53:07</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K421" t="n">
         <v>0</v>
@@ -23200,7 +23200,7 @@
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555423189557347090', 'createTime': 1759134228, 'createTimeISO': '2025-09-29T08:23:48.000Z', 'text': 'Bonos de 30 mil pensé que los premios iban a ser mejores', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6968979077505451014', 'uniqueId': '.iiiop5', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7335112293602361350~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=572b1926&amp;x-expires=1759932000&amp;x-signature=dqM%2BZEt9qnX4G5gdV2B2qmsAHwI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7547514997161657093', 'createTime': 1757292787, 'createTimeISO': '2025-09-08T00:53:07.000Z', 'text': 'si a bueno', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7459487929128748037', 'uniqueId': 'duransanti7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0e11a09fd15c60eda4f9da9638359334~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21e7325e&amp;x-expires=1760018400&amp;x-signature=NnQ1Vh8FT0wTYLjMkheroKpYPpc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23226,22 +23226,22 @@
       <c r="E422" t="inlineStr"/>
       <c r="F422" t="inlineStr">
         <is>
-          <t>en la vida pagaría esa cantidad de plata bendito yogurt es un globo</t>
+          <t>ye se volvio muy caro</t>
         </is>
       </c>
       <c r="G422" s="2" t="n">
-        <v>45923.08077546296</v>
+        <v>45924.86204861111</v>
       </c>
       <c r="H422" s="3" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>01:56:19</t>
+          <t>20:41:21</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K422" t="n">
         <v>0</v>
@@ -23256,7 +23256,7 @@
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553097586698240775', 'createTime': 1758592579, 'createTimeISO': '2025-09-23T01:56:19.000Z', 'text': 'en la vida pagaría esa cantidad de plata bendito yogurt es un globo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7438014384498934840', 'uniqueId': 'ana.pea9332', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/15474a0a90857bda3d973415c2fa72f1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4244573d&amp;x-expires=1759932000&amp;x-signature=6oprc7G8XqRbPlmbWMXu7Faz0u0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553758555716715272', 'createTime': 1758746481, 'createTimeISO': '2025-09-24T20:41:21.000Z', 'text': 'ye se volvio muy caro', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6700241136935977990', 'uniqueId': 'it_gina_511', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/587665d9b40ff2ee80f11e4977ec0742~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bfbd090&amp;x-expires=1760018400&amp;x-signature=4mTIBK7qvTtKExvLArMClEwivoE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23282,22 +23282,22 @@
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Es mejor hacer la vuelta de la dian!</t>
+          <t>hace un tiempito alpina bajo el nivel de creatividad de las campañas también de su publicidad y de su desarrollo gráfico creativo.</t>
         </is>
       </c>
       <c r="G423" s="2" t="n">
-        <v>45922.00668981481</v>
+        <v>45927.66108796297</v>
       </c>
       <c r="H423" s="3" t="n">
-        <v>45922</v>
+        <v>45927</v>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>00:09:38</t>
+          <t>15:51:58</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K423" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552698968669733640', 'createTime': 1758499778, 'createTimeISO': '2025-09-22T00:09:38.000Z', 'text': 'Es mejor hacer la vuelta de la dian!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7106426671306408966', 'uniqueId': 'diego.kenton', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7628886760e695c490da6d0a91d209eb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=db1d32cd&amp;x-expires=1759932000&amp;x-signature=xxFawwN8TuKs1KXKI4IUlLF6PsY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7554797270920905490', 'createTime': 1758988318, 'createTimeISO': '2025-09-27T15:51:58.000Z', 'text': 'hace un tiempito alpina bajo el nivel de creatividad de las campañas también de su publicidad y de su desarrollo gráfico creativo.', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '315748368201424896', 'uniqueId': 'dixfezambrano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cc923225f7a647bd2d540e848fe43bc9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=67896f0b&amp;x-expires=1760018400&amp;x-signature=fP8y6ueq0gX85bnxdd6jHVJcgAc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23338,22 +23338,22 @@
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr">
         <is>
-          <t>bajo hasta la cantidad de yogurt solo viene el tarro</t>
+          <t>Bonos de 30 mil pensé que los premios iban a ser mejores</t>
         </is>
       </c>
       <c r="G424" s="2" t="n">
-        <v>45927.86101851852</v>
+        <v>45929.34986111111</v>
       </c>
       <c r="H424" s="3" t="n">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>20:39:52</t>
+          <t>08:23:48</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K424" t="n">
         <v>0</v>
@@ -23368,7 +23368,7 @@
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7554871372624823057', 'createTime': 1759005592, 'createTimeISO': '2025-09-27T20:39:52.000Z', 'text': 'bajo hasta la cantidad de yogurt solo viene el tarro', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7449428835244065798', 'uniqueId': 'user6072012147149', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/138fa2077ebc60e9a1c709edd02da78e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=848dfb7a&amp;x-expires=1759932000&amp;x-signature=ppwkj0IB8O3yzOX6IzIQ6fYTg2M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555423189557347090', 'createTime': 1759134228, 'createTimeISO': '2025-09-29T08:23:48.000Z', 'text': 'Bonos de 30 mil pensé que los premios iban a ser mejores', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6968979077505451014', 'uniqueId': '.iiiop5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7335112293602361350~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=72edd453&amp;x-expires=1760018400&amp;x-signature=Dq9pFjSi9hPC%2FSBHartSh9Rw1js%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23394,22 +23394,22 @@
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="inlineStr">
         <is>
-          <t>si a bueno</t>
+          <t>bajo hasta la cantidad de yogurt solo viene el tarro</t>
         </is>
       </c>
       <c r="G425" s="2" t="n">
-        <v>45908.03688657407</v>
+        <v>45927.86101851852</v>
       </c>
       <c r="H425" s="3" t="n">
-        <v>45908</v>
+        <v>45927</v>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>00:53:07</t>
+          <t>20:39:52</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K425" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7547514997161657093', 'createTime': 1757292787, 'createTimeISO': '2025-09-08T00:53:07.000Z', 'text': 'si a bueno', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7459487929128748037', 'uniqueId': 'duransanti7', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/0e11a09fd15c60eda4f9da9638359334~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=40a9c6db&amp;x-expires=1759932000&amp;x-signature=DpE6rM8e0sui8rHgNKI4P%2FPKzdE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7554871372624823057', 'createTime': 1759005592, 'createTimeISO': '2025-09-27T20:39:52.000Z', 'text': 'bajo hasta la cantidad de yogurt solo viene el tarro', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7449428835244065798', 'uniqueId': 'user6072012147149', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/138fa2077ebc60e9a1c709edd02da78e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a87de179&amp;x-expires=1760018400&amp;x-signature=XM54OCN2WwkH9X8jAtPyPz6AigY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23450,18 +23450,18 @@
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Es más fácil ganarse una rifa de WhatsApp</t>
+          <t>Falto buscar a Messi</t>
         </is>
       </c>
       <c r="G426" s="2" t="n">
-        <v>45925.13365740741</v>
+        <v>45924.15673611111</v>
       </c>
       <c r="H426" s="3" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>03:12:28</t>
+          <t>03:45:42</t>
         </is>
       </c>
       <c r="J426" t="n">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553859363401990919', 'createTime': 1758769948, 'createTimeISO': '2025-09-25T03:12:28.000Z', 'text': 'Es más fácil ganarse una rifa de WhatsApp', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6801586835476726790', 'uniqueId': 'luisguio1', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/ac86c6ed79df9763bc8b49775c037126~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=86c2ce28&amp;x-expires=1759932000&amp;x-signature=37l6tyUY8ZGOH%2BoYg4Niy0hjqns%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553496816643719952', 'createTime': 1758685542, 'createTimeISO': '2025-09-24T03:45:42.000Z', 'text': 'Falto buscar a Messi', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6871351644073198598', 'uniqueId': 'aa282838', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d69240f&amp;x-expires=1760018400&amp;x-signature=lGmXLJbqmHXUrrhBTSRx5ZFVuaQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23506,22 +23506,22 @@
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr">
         <is>
-          <t>hace un tiempito alpina bajo el nivel de creatividad de las campañas también de su publicidad y de su desarrollo gráfico creativo.</t>
+          <t>en la vida pagaría esa cantidad de plata bendito yogurt es un globo</t>
         </is>
       </c>
       <c r="G427" s="2" t="n">
-        <v>45927.66108796297</v>
+        <v>45923.08077546296</v>
       </c>
       <c r="H427" s="3" t="n">
-        <v>45927</v>
+        <v>45923</v>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>15:51:58</t>
+          <t>01:56:19</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K427" t="n">
         <v>0</v>
@@ -23536,7 +23536,7 @@
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7554797270920905490', 'createTime': 1758988318, 'createTimeISO': '2025-09-27T15:51:58.000Z', 'text': 'hace un tiempito alpina bajo el nivel de creatividad de las campañas también de su publicidad y de su desarrollo gráfico creativo.', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '315748368201424896', 'uniqueId': 'dixfezambrano', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/cc923225f7a647bd2d540e848fe43bc9~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1dbd6be6&amp;x-expires=1759932000&amp;x-signature=Fer8XHHW7d1bxQhgPpHpzB1Upvg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553097586698240775', 'createTime': 1758592579, 'createTimeISO': '2025-09-23T01:56:19.000Z', 'text': 'en la vida pagaría esa cantidad de plata bendito yogurt es un globo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7438014384498934840', 'uniqueId': 'ana.pea9332', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/15474a0a90857bda3d973415c2fa72f1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8435997&amp;x-expires=1760018400&amp;x-signature=kINspCk8wVva5ImYnVUipNaEhi4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23562,22 +23562,22 @@
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
-          <t>hola,el mío adentro del vaso traía una estrella y lo bote eso que significaba 😭😞</t>
+          <t>Es más fácil ganarse una rifa de WhatsApp</t>
         </is>
       </c>
       <c r="G428" s="2" t="n">
-        <v>45915.18513888889</v>
+        <v>45925.13365740741</v>
       </c>
       <c r="H428" s="3" t="n">
-        <v>45915</v>
+        <v>45925</v>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>04:26:36</t>
+          <t>03:12:28</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K428" t="n">
         <v>0</v>
@@ -23592,7 +23592,7 @@
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550167623225787143', 'createTime': 1757910396, 'createTimeISO': '2025-09-15T04:26:36.000Z', 'text': 'hola,el mío adentro del vaso traía una estrella y lo bote eso que significaba 😭😞', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7326736144429876229', 'uniqueId': 'lisse9272', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/6d68ea31ad8492af7bc72a7718d443fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=263411e2&amp;x-expires=1759932000&amp;x-signature=XldC%2BM9CaB1SeM1gbp5wPk96vK0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553859363401990919', 'createTime': 1758769948, 'createTimeISO': '2025-09-25T03:12:28.000Z', 'text': 'Es más fácil ganarse una rifa de WhatsApp', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6801586835476726790', 'uniqueId': 'luisguio1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ac86c6ed79df9763bc8b49775c037126~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0d5093b&amp;x-expires=1760018400&amp;x-signature=qGfqG0QtdqoF3ahuPo8oAzV%2Fneo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23618,22 +23618,22 @@
       <c r="E429" t="inlineStr"/>
       <c r="F429" t="inlineStr">
         <is>
-          <t>😂 Nah!</t>
+          <t>Ya tengo 8 etiquetas, pero con las misma frase 😅</t>
         </is>
       </c>
       <c r="G429" s="2" t="n">
-        <v>45919.54975694444</v>
+        <v>45921.67122685185</v>
       </c>
       <c r="H429" s="3" t="n">
-        <v>45919</v>
+        <v>45921</v>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>13:11:39</t>
+          <t>16:06:34</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K429" t="n">
         <v>0</v>
@@ -23648,7 +23648,7 @@
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7551787287995368210', 'createTime': 1758287499, 'createTimeISO': '2025-09-19T13:11:39.000Z', 'text': '😂 Nah!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7112174096838673413', 'uniqueId': 'claucece1', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a217d6e45361d04814ab7d2d3aad72c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=404e522a&amp;x-expires=1759932000&amp;x-signature=qWRtfcmGU0fhRjncC96SZ7c2vTI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552574492196995857', 'createTime': 1758470794, 'createTimeISO': '2025-09-21T16:06:34.000Z', 'text': 'Ya tengo 8 etiquetas, pero con las misma frase 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7082006076203303942', 'uniqueId': 'ker_5b', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a6bc90c9d1dd171745832332cd75278e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=784de8d4&amp;x-expires=1760018400&amp;x-signature=9e7yE5AvrokW5q5PoZt50vS%2FnwM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23674,22 +23674,22 @@
       <c r="E430" t="inlineStr"/>
       <c r="F430" t="inlineStr">
         <is>
-          <t>ye se volvio muy caro</t>
+          <t>Es mejor hacer la vuelta de la dian!</t>
         </is>
       </c>
       <c r="G430" s="2" t="n">
-        <v>45924.86204861111</v>
+        <v>45922.00668981481</v>
       </c>
       <c r="H430" s="3" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>20:41:21</t>
+          <t>00:09:38</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K430" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553758555716715272', 'createTime': 1758746481, 'createTimeISO': '2025-09-24T20:41:21.000Z', 'text': 'ye se volvio muy caro', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6700241136935977990', 'uniqueId': 'it_gina_511', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0642892e9ff90e17dfd625e8f9a8933d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f6c065f0&amp;x-expires=1759932000&amp;x-signature=EVZCNIaoWbwroKFTmivZQiVhBKQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552698968669733640', 'createTime': 1758499778, 'createTimeISO': '2025-09-22T00:09:38.000Z', 'text': 'Es mejor hacer la vuelta de la dian!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7106426671306408966', 'uniqueId': 'diego.kenton', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7628886760e695c490da6d0a91d209eb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aef7ad83&amp;x-expires=1760018400&amp;x-signature=r4hZVaOCk3aSeyW1RbIvU9A2JDo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23730,22 +23730,22 @@
       <c r="E431" t="inlineStr"/>
       <c r="F431" t="inlineStr">
         <is>
-          <t>ya sabia😂😂😂😂</t>
+          <t>hola,el mío adentro del vaso traía una estrella y lo bote eso que significaba 😭😞</t>
         </is>
       </c>
       <c r="G431" s="2" t="n">
-        <v>45921.7818287037</v>
+        <v>45915.18513888889</v>
       </c>
       <c r="H431" s="3" t="n">
-        <v>45921</v>
+        <v>45915</v>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>18:45:50</t>
+          <t>04:26:36</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K431" t="n">
         <v>0</v>
@@ -23760,7 +23760,7 @@
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552615565576618760', 'createTime': 1758480350, 'createTimeISO': '2025-09-21T18:45:50.000Z', 'text': 'ya sabia😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7473881906670601223', 'uniqueId': 'maria.fernanda.ra772', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/64a3afc7ad6d14e716fc975512fea2ea~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ea3c2fa8&amp;x-expires=1759932000&amp;x-signature=ErO7pElS1yRJm1QXtLbunuqAQWM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550167623225787143', 'createTime': 1757910396, 'createTimeISO': '2025-09-15T04:26:36.000Z', 'text': 'hola,el mío adentro del vaso traía una estrella y lo bote eso que significaba 😭😞', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7326736144429876229', 'uniqueId': 'lisse9272', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6d68ea31ad8492af7bc72a7718d443fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=297ea9de&amp;x-expires=1760018400&amp;x-signature=MHBkQPA9q8jdYvcmqGXcBINMLm4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23786,22 +23786,22 @@
       <c r="E432" t="inlineStr"/>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Entre más complejo menos se los harán</t>
+          <t>😂 Nah!</t>
         </is>
       </c>
       <c r="G432" s="2" t="n">
-        <v>45921.61506944444</v>
+        <v>45919.54975694444</v>
       </c>
       <c r="H432" s="3" t="n">
-        <v>45921</v>
+        <v>45919</v>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>14:45:42</t>
+          <t>13:11:39</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K432" t="n">
         <v>0</v>
@@ -23816,7 +23816,7 @@
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552553687672423175', 'createTime': 1758465942, 'createTimeISO': '2025-09-21T14:45:42.000Z', 'text': 'Entre más complejo menos se los harán', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848801977611158533', 'uniqueId': 'sebastianberon2', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7324539932960096262~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=fee5d18d&amp;x-expires=1759932000&amp;x-signature=dWjsHoS0Bcjct%2Bmtt0Aa%2BPiGagk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7551787287995368210', 'createTime': 1758287499, 'createTimeISO': '2025-09-19T13:11:39.000Z', 'text': '😂 Nah!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7112174096838673413', 'uniqueId': 'claucece1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a217d6e45361d04814ab7d2d3aad72c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8059c4c&amp;x-expires=1760018400&amp;x-signature=BQkbhDH%2FgD2r9f0VH3g%2B7u6wNQw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23842,18 +23842,18 @@
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Falto buscar a Messi</t>
+          <t>ya sabia😂😂😂😂</t>
         </is>
       </c>
       <c r="G433" s="2" t="n">
-        <v>45924.15673611111</v>
+        <v>45921.7818287037</v>
       </c>
       <c r="H433" s="3" t="n">
-        <v>45924</v>
+        <v>45921</v>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>03:45:42</t>
+          <t>18:45:50</t>
         </is>
       </c>
       <c r="J433" t="n">
@@ -23872,7 +23872,7 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553496816643719952', 'createTime': 1758685542, 'createTimeISO': '2025-09-24T03:45:42.000Z', 'text': 'Falto buscar a Messi', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6871351644073198598', 'uniqueId': 'aa282838', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=b5252f8b&amp;x-expires=1759932000&amp;x-signature=YyaiuH685m0UR2WQ5PKezzTfqwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552615565576618760', 'createTime': 1758480350, 'createTimeISO': '2025-09-21T18:45:50.000Z', 'text': 'ya sabia😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7473881906670601223', 'uniqueId': 'maria.fernanda.ra772', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/64a3afc7ad6d14e716fc975512fea2ea~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=efc86e0f&amp;x-expires=1760018400&amp;x-signature=0LKilpCYA48WchBD7GBnJDkRFuQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23898,18 +23898,18 @@
       <c r="E434" t="inlineStr"/>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Ya tengo 8 etiquetas, pero con las misma frase 😅</t>
+          <t>Entre más complejo menos se los harán</t>
         </is>
       </c>
       <c r="G434" s="2" t="n">
-        <v>45921.67122685185</v>
+        <v>45921.61506944444</v>
       </c>
       <c r="H434" s="3" t="n">
         <v>45921</v>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>16:06:34</t>
+          <t>14:45:42</t>
         </is>
       </c>
       <c r="J434" t="n">
@@ -23928,7 +23928,7 @@
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552574492196995857', 'createTime': 1758470794, 'createTimeISO': '2025-09-21T16:06:34.000Z', 'text': 'Ya tengo 8 etiquetas, pero con las misma frase 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7082006076203303942', 'uniqueId': 'ker_5b', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a6bc90c9d1dd171745832332cd75278e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=05ef6cd9&amp;x-expires=1759932000&amp;x-signature=Th90SAd%2BjTc3qSmpFjVJnfdd7t0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552553687672423175', 'createTime': 1758465942, 'createTimeISO': '2025-09-21T14:45:42.000Z', 'text': 'Entre más complejo menos se los harán', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848801977611158533', 'uniqueId': 'sebastianberon2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324539932960096262~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a28c8766&amp;x-expires=1760018400&amp;x-signature=sr46QyO%2BXKMqz9tRGBPjhCuB3b8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -23954,18 +23954,18 @@
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G435" s="2" t="n">
-        <v>45929.75175925926</v>
+        <v>45910.92893518518</v>
       </c>
       <c r="H435" s="3" t="n">
-        <v>45929</v>
+        <v>45910</v>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>18:02:32</t>
+          <t>22:17:40</t>
         </is>
       </c>
       <c r="J435" t="n">
@@ -23984,7 +23984,7 @@
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555573082208371464', 'createTime': 1759168952, 'createTimeISO': '2025-09-29T18:02:32.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7261392486085788678', 'uniqueId': 'karen.vanessa.cac', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7261392787954597893~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f29f9143&amp;x-expires=1759932000&amp;x-signature=UxHheApSdDdFDJpBTfbNy8mxuFQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7548588162223653640', 'createTime': 1757542660, 'createTimeISO': '2025-09-10T22:17:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7315037365822505989', 'uniqueId': 'elkinfuertes303', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d6174d82b30147907ac4d7b92356da88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b091313c&amp;x-expires=1760018400&amp;x-signature=18HmYYZIZv66uGTiK2zkDoxHcds%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24010,18 +24010,18 @@
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr">
         <is>
-          <t>♥</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G436" s="2" t="n">
-        <v>45929.62362268518</v>
+        <v>45904.75347222222</v>
       </c>
       <c r="H436" s="3" t="n">
-        <v>45929</v>
+        <v>45904</v>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>14:58:01</t>
+          <t>18:05:00</t>
         </is>
       </c>
       <c r="J436" t="n">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555525549901546248', 'createTime': 1759157881, 'createTimeISO': '2025-09-29T14:58:01.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7019436935157941253', 'uniqueId': 'lisethnavarro27', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c46dd97367902b497b5ca56952c19f0a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8cf82415&amp;x-expires=1759932000&amp;x-signature=VQKo1XrEVK8mKbDuToVV8RaDUl4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7546296565088420629', 'createTime': 1757009100, 'createTimeISO': '2025-09-04T18:05:00.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7245646099741508614', 'uniqueId': 'maria.monrroy4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7dce654aeb7239745d5853d35ba3b5c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=813b2866&amp;x-expires=1760018400&amp;x-signature=CuVKMXs7sHw4NQjjP98%2BrseD3DI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24070,14 +24070,14 @@
         </is>
       </c>
       <c r="G437" s="2" t="n">
-        <v>45929.61987268519</v>
+        <v>45911.78550925926</v>
       </c>
       <c r="H437" s="3" t="n">
-        <v>45929</v>
+        <v>45911</v>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>14:52:37</t>
+          <t>18:51:08</t>
         </is>
       </c>
       <c r="J437" t="n">
@@ -24096,7 +24096,7 @@
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555524153196102408', 'createTime': 1759157557, 'createTimeISO': '2025-09-29T14:52:37.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446585810659230725', 'uniqueId': 'tiqueconde24', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/556a4dcc156285c274513870d37a9edd~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2738ab8d&amp;x-expires=1759932000&amp;x-signature=a%2FE27BvhMKgWncSgh2CIoNEbfZU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7548906048800244496', 'createTime': 1757616668, 'createTimeISO': '2025-09-11T18:51:08.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6913972140094833669', 'uniqueId': 'neidyscarolina1', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a79f17cd53ffefebf6d322084fa0ad7f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c346eed7&amp;x-expires=1760018400&amp;x-signature=mo09N33oxqeCy71vAQAwGjoj%2BJA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24122,18 +24122,18 @@
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🙏</t>
         </is>
       </c>
       <c r="G438" s="2" t="n">
-        <v>45928.74931712963</v>
+        <v>45928.59436342592</v>
       </c>
       <c r="H438" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>17:59:01</t>
+          <t>14:15:53</t>
         </is>
       </c>
       <c r="J438" t="n">
@@ -24152,7 +24152,7 @@
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555201077358166802', 'createTime': 1759082341, 'createTimeISO': '2025-09-28T17:59:01.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7309277782399468550', 'uniqueId': 'saded.barrios', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7320765574823936006~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f2de87b1&amp;x-expires=1759932000&amp;x-signature=cRrcsVLNqt6sMEadrsx7O1fDADw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555143582350492423', 'createTime': 1759068953, 'createTimeISO': '2025-09-28T14:15:53.000Z', 'text': '🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7041636539148141573', 'uniqueId': 'omairasuarez617', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7136185953445478405~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9ff5f3f6&amp;x-expires=1760018400&amp;x-signature=YnOz69Xw3h937TCHCnu2MmBDIvs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24178,18 +24178,18 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr">
         <is>
-          <t>🙏</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G439" s="2" t="n">
-        <v>45928.59436342592</v>
+        <v>45908.77496527778</v>
       </c>
       <c r="H439" s="3" t="n">
-        <v>45928</v>
+        <v>45908</v>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>14:15:53</t>
+          <t>18:35:57</t>
         </is>
       </c>
       <c r="J439" t="n">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555143582350492423', 'createTime': 1759068953, 'createTimeISO': '2025-09-28T14:15:53.000Z', 'text': '🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7041636539148141573', 'uniqueId': 'omairasuarez617', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7136185953445478405~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=391d6631&amp;x-expires=1759932000&amp;x-signature=Rp52d4FOUPaXxMIF%2FQ6SgehI2sw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7547788903202439943', 'createTime': 1757356557, 'createTimeISO': '2025-09-08T18:35:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831696197633606661', 'uniqueId': 'lilifuquen', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7336739008699400198~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=434b187d&amp;x-expires=1760018400&amp;x-signature=2ulaMOgrq7LFfCAX6qxfCQuUWq0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24238,14 +24238,14 @@
         </is>
       </c>
       <c r="G440" s="2" t="n">
-        <v>45928.55930555556</v>
+        <v>45926.57622685185</v>
       </c>
       <c r="H440" s="3" t="n">
-        <v>45928</v>
+        <v>45926</v>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>13:25:24</t>
+          <t>13:49:46</t>
         </is>
       </c>
       <c r="J440" t="n">
@@ -24264,7 +24264,7 @@
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555130589482484488', 'createTime': 1759065924, 'createTimeISO': '2025-09-28T13:25:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '179045716193873920', 'uniqueId': 'angmagrod', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d287227352570fed888963ca43931e2c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2368dcf8&amp;x-expires=1759932000&amp;x-signature=pn47%2B33wY03C2aFKUcTZfmrtByg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7554394692718199573', 'createTime': 1758894586, 'createTimeISO': '2025-09-26T13:49:46.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7346310236108882949', 'uniqueId': 'adrian12z_1', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d596a9a19afb2cfb7cc30961989760c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a83d562d&amp;x-expires=1760018400&amp;x-signature=81s%2BMLLF6URKCy7t5mQ6YdjRg5M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24290,18 +24290,18 @@
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>♥</t>
         </is>
       </c>
       <c r="G441" s="2" t="n">
-        <v>45926.57622685185</v>
+        <v>45929.62362268518</v>
       </c>
       <c r="H441" s="3" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>13:49:46</t>
+          <t>14:58:01</t>
         </is>
       </c>
       <c r="J441" t="n">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7554394692718199573', 'createTime': 1758894586, 'createTimeISO': '2025-09-26T13:49:46.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7346310236108882949', 'uniqueId': 'adrian12z_1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2d596a9a19afb2cfb7cc30961989760c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=850d2aff&amp;x-expires=1759932000&amp;x-signature=Md0i1KkIZtMsHtwrgbU8mM1woT8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555525549901546248', 'createTime': 1759157881, 'createTimeISO': '2025-09-29T14:58:01.000Z', 'text': '♥', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7019436935157941253', 'uniqueId': 'lisethnavarro27', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c46dd97367902b497b5ca56952c19f0a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c76eed7&amp;x-expires=1760018400&amp;x-signature=69kIKV3arefBCa3s8%2FmixielKFw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24346,18 +24346,18 @@
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G442" s="2" t="n">
-        <v>45926.49327546296</v>
+        <v>45929.75175925926</v>
       </c>
       <c r="H442" s="3" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>11:50:19</t>
+          <t>18:02:32</t>
         </is>
       </c>
       <c r="J442" t="n">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7554363875757277953', 'createTime': 1758887419, 'createTimeISO': '2025-09-26T11:50:19.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7189084852737524742', 'uniqueId': 'jhonjairolibreros7', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/18c471aa92c59066463387c7dd4cc488~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=29048d27&amp;x-expires=1759932000&amp;x-signature=7gm0zghvi5jzMKM8QIpRWANX59A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555573082208371464', 'createTime': 1759168952, 'createTimeISO': '2025-09-29T18:02:32.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7261392486085788678', 'uniqueId': 'karen.vanessa.cac', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7261392787954597893~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=29996591&amp;x-expires=1760018400&amp;x-signature=I8%2FBeCCCE2qfQOhcgfNaEfRh5vw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24432,7 +24432,7 @@
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553461579482088200', 'createTime': 1758677336, 'createTimeISO': '2025-09-24T01:28:56.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7162323061394441222', 'uniqueId': 'cristiancamiloagu837', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7164739256253874181~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d3dfe40c&amp;x-expires=1759932000&amp;x-signature=4bcg4NE%2BcWA5LbNMIiB4mIRrYTo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553461579482088200', 'createTime': 1758677336, 'createTimeISO': '2025-09-24T01:28:56.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7162323061394441222', 'uniqueId': 'cristiancamiloagu837', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7164739256253874181~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0f7d7404&amp;x-expires=1760018400&amp;x-signature=8ItsA83JlvYC8MXKnjh8SoZbYKI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24488,7 +24488,7 @@
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553390142573675284', 'createTime': 1758660707, 'createTimeISO': '2025-09-23T20:51:47.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965716190854677510', 'uniqueId': 'alejandra.joya1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/37e9441649acfae9715857f55c5cf0ed~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=33b9da04&amp;x-expires=1759932000&amp;x-signature=0x7S%2BvGIWYYhqqFTYa%2BdhmpzvK8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553390142573675284', 'createTime': 1758660707, 'createTimeISO': '2025-09-23T20:51:47.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965716190854677510', 'uniqueId': 'alejandra.joya1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37e9441649acfae9715857f55c5cf0ed~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9ed6bc76&amp;x-expires=1760018400&amp;x-signature=wy2Tuvm8UT2GmAP7hTmiW6QuK%2BQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24544,7 +24544,7 @@
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553239325736633096', 'createTime': 1758625583, 'createTimeISO': '2025-09-23T11:06:23.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462944519676838929', 'uniqueId': 'army03287', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a734b1ba8a2301db1f6b6f1b86bb20e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4191d2b2&amp;x-expires=1759932000&amp;x-signature=LcnpNeoilE%2FLbBmxP60CPqM1wG8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7553239325736633096', 'createTime': 1758625583, 'createTimeISO': '2025-09-23T11:06:23.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462944519676838929', 'uniqueId': 'army03287', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a734b1ba8a2301db1f6b6f1b86bb20e0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9b4feb69&amp;x-expires=1760018400&amp;x-signature=JYYWuOb4PbazEAsvkdd9axlVkhs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24570,18 +24570,18 @@
       <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr">
         <is>
-          <t>💀</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G446" s="2" t="n">
-        <v>45920.68696759259</v>
+        <v>45928.55930555556</v>
       </c>
       <c r="H446" s="3" t="n">
-        <v>45920</v>
+        <v>45928</v>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>16:29:14</t>
+          <t>13:25:24</t>
         </is>
       </c>
       <c r="J446" t="n">
@@ -24600,7 +24600,7 @@
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552209279215911698', 'createTime': 1758385754, 'createTimeISO': '2025-09-20T16:29:14.000Z', 'text': '💀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7379392406817866758', 'uniqueId': 'vvs.com7', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ad039e37b43995b58100267dabb516ee~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=b37f4895&amp;x-expires=1759932000&amp;x-signature=pLHuxXL0cYjQwibXPEt2kYsKZxo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555130589482484488', 'createTime': 1759065924, 'createTimeISO': '2025-09-28T13:25:24.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '179045716193873920', 'uniqueId': 'angmagrod', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d287227352570fed888963ca43931e2c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=873ffc08&amp;x-expires=1760018400&amp;x-signature=Q%2BflAzh7fdywQKJdi0LCQTRuQoY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24626,18 +24626,18 @@
       <c r="E447" t="inlineStr"/>
       <c r="F447" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G447" s="2" t="n">
-        <v>45920.67512731482</v>
+        <v>45929.61987268519</v>
       </c>
       <c r="H447" s="3" t="n">
-        <v>45920</v>
+        <v>45929</v>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>16:12:11</t>
+          <t>14:52:37</t>
         </is>
       </c>
       <c r="J447" t="n">
@@ -24656,7 +24656,7 @@
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552204877450707730', 'createTime': 1758384731, 'createTimeISO': '2025-09-20T16:12:11.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7021564932991648773', 'uniqueId': 'jesusmerchan540', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/47e23c97d4a40ce95e52b8f7a577796b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=19c14709&amp;x-expires=1759932000&amp;x-signature=qa%2FfxmXScEXzdV4NmVKiCAql4hs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555524153196102408', 'createTime': 1759157557, 'createTimeISO': '2025-09-29T14:52:37.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7446585810659230725', 'uniqueId': 'tiqueconde24', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/556a4dcc156285c274513870d37a9edd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1b8919ea&amp;x-expires=1760018400&amp;x-signature=ppRJTV84a657xNmpBNSNlejr9QE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24682,18 +24682,18 @@
       <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr">
         <is>
-          <t>☺</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G448" s="2" t="n">
-        <v>45920.50103009259</v>
+        <v>45912.83803240741</v>
       </c>
       <c r="H448" s="3" t="n">
-        <v>45920</v>
+        <v>45912</v>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>12:01:29</t>
+          <t>20:06:46</t>
         </is>
       </c>
       <c r="J448" t="n">
@@ -24712,7 +24712,7 @@
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552140275175883527', 'createTime': 1758369689, 'createTimeISO': '2025-09-20T12:01:29.000Z', 'text': '☺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7439427442014700599', 'uniqueId': 'user81903496547561', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=b5252f8b&amp;x-expires=1759932000&amp;x-signature=YyaiuH685m0UR2WQ5PKezzTfqwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549296625492738834', 'createTime': 1757707606, 'createTimeISO': '2025-09-12T20:06:46.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7115888336006513670', 'uniqueId': 'emi01ly', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/509c8ea06017da9a3aa0c46d75adc24c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e0836ffa&amp;x-expires=1760018400&amp;x-signature=U2OOzC%2FeH4NUnQEDKTK1GNpxQrQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24738,18 +24738,18 @@
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G449" s="2" t="n">
-        <v>45920.44046296296</v>
+        <v>45928.74931712963</v>
       </c>
       <c r="H449" s="3" t="n">
-        <v>45920</v>
+        <v>45928</v>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>10:34:16</t>
+          <t>17:59:01</t>
         </is>
       </c>
       <c r="J449" t="n">
@@ -24768,7 +24768,7 @@
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552117804032967432', 'createTime': 1758364456, 'createTimeISO': '2025-09-20T10:34:16.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809317671303562245', 'uniqueId': 'murillo0825', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2f32112cd221efdde6e37da63bbb89eb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f38dcf2c&amp;x-expires=1759932000&amp;x-signature=Dyyw%2ByIC3Hrtj8AJlURkZE8oD5Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7555201077358166802', 'createTime': 1759082341, 'createTimeISO': '2025-09-28T17:59:01.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7309277782399468550', 'uniqueId': 'saded.barrios', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7320765574823936006~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=48b35a58&amp;x-expires=1760018400&amp;x-signature=C3vCYnD5%2BXKE9SJd0VVxmx4fk8U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24798,14 +24798,14 @@
         </is>
       </c>
       <c r="G450" s="2" t="n">
-        <v>45910.92893518518</v>
+        <v>45926.49327546296</v>
       </c>
       <c r="H450" s="3" t="n">
-        <v>45910</v>
+        <v>45926</v>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>22:17:40</t>
+          <t>11:50:19</t>
         </is>
       </c>
       <c r="J450" t="n">
@@ -24824,7 +24824,7 @@
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7548588162223653640', 'createTime': 1757542660, 'createTimeISO': '2025-09-10T22:17:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7315037365822505989', 'uniqueId': 'elkinfuertes303', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d6174d82b30147907ac4d7b92356da88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=28238c53&amp;x-expires=1759932000&amp;x-signature=ap9auoVIJE9qSkSpNtCjNYeCEJA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7554363875757277953', 'createTime': 1758887419, 'createTimeISO': '2025-09-26T11:50:19.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7189084852737524742', 'uniqueId': 'jhonjairolibreros7', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/18c471aa92c59066463387c7dd4cc488~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=dfe425f9&amp;x-expires=1760018400&amp;x-signature=GbS%2F98NoyIqP8Zc8Xx8Kcg4%2B564%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24850,18 +24850,18 @@
       <c r="E451" t="inlineStr"/>
       <c r="F451" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>💀</t>
         </is>
       </c>
       <c r="G451" s="2" t="n">
-        <v>45904.75347222222</v>
+        <v>45920.68696759259</v>
       </c>
       <c r="H451" s="3" t="n">
-        <v>45904</v>
+        <v>45920</v>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>18:05:00</t>
+          <t>16:29:14</t>
         </is>
       </c>
       <c r="J451" t="n">
@@ -24880,7 +24880,7 @@
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7546296565088420629', 'createTime': 1757009100, 'createTimeISO': '2025-09-04T18:05:00.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7245646099741508614', 'uniqueId': 'maria.monrroy4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7dce654aeb7239745d5853d35ba3b5c2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7887ed10&amp;x-expires=1759932000&amp;x-signature=7gY0RWotMrTzLXT6COvG9YvfW6k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552209279215911698', 'createTime': 1758385754, 'createTimeISO': '2025-09-20T16:29:14.000Z', 'text': '💀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7379392406817866758', 'uniqueId': 'vvs.com7', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ad039e37b43995b58100267dabb516ee~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=44c38df2&amp;x-expires=1760018400&amp;x-signature=WpRiI607nWGCs7VVN%2BLXrjRUbwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24906,18 +24906,18 @@
       <c r="E452" t="inlineStr"/>
       <c r="F452" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G452" s="2" t="n">
-        <v>45911.78550925926</v>
+        <v>45920.67512731482</v>
       </c>
       <c r="H452" s="3" t="n">
-        <v>45911</v>
+        <v>45920</v>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>18:51:08</t>
+          <t>16:12:11</t>
         </is>
       </c>
       <c r="J452" t="n">
@@ -24936,7 +24936,7 @@
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7548906048800244496', 'createTime': 1757616668, 'createTimeISO': '2025-09-11T18:51:08.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6913972140094833669', 'uniqueId': 'neidyscarolina1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a79f17cd53ffefebf6d322084fa0ad7f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf908a85&amp;x-expires=1759932000&amp;x-signature=PWPaDEPkLxka3hWYlerq86D2bC4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552204877450707730', 'createTime': 1758384731, 'createTimeISO': '2025-09-20T16:12:11.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7021564932991648773', 'uniqueId': 'jesusmerchan540', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/47e23c97d4a40ce95e52b8f7a577796b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c8b4f448&amp;x-expires=1760018400&amp;x-signature=Lyd2IjkKiZMajjOiXAvCvLUpGSI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -24962,18 +24962,18 @@
       <c r="E453" t="inlineStr"/>
       <c r="F453" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>☺</t>
         </is>
       </c>
       <c r="G453" s="2" t="n">
-        <v>45908.77496527778</v>
+        <v>45920.50103009259</v>
       </c>
       <c r="H453" s="3" t="n">
-        <v>45908</v>
+        <v>45920</v>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>18:35:57</t>
+          <t>12:01:29</t>
         </is>
       </c>
       <c r="J453" t="n">
@@ -24992,7 +24992,7 @@
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7547788903202439943', 'createTime': 1757356557, 'createTimeISO': '2025-09-08T18:35:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831696197633606661', 'uniqueId': 'lilifuquen', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7336739008699400198~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a19941fb&amp;x-expires=1759932000&amp;x-signature=Vbj%2BOmbZN16uGiQnXOetMQbONe4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552140275175883527', 'createTime': 1758369689, 'createTimeISO': '2025-09-20T12:01:29.000Z', 'text': '☺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7439427442014700599', 'uniqueId': 'user81903496547561', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=35ef26d5&amp;x-expires=1760018400&amp;x-signature=tl%2BqCvRW522bUHfKeVfcdlgeQOI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -25022,14 +25022,14 @@
         </is>
       </c>
       <c r="G454" s="2" t="n">
-        <v>45912.83803240741</v>
+        <v>45920.44046296296</v>
       </c>
       <c r="H454" s="3" t="n">
-        <v>45912</v>
+        <v>45920</v>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>20:06:46</t>
+          <t>10:34:16</t>
         </is>
       </c>
       <c r="J454" t="n">
@@ -25048,7 +25048,7 @@
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7549296625492738834', 'createTime': 1757707606, 'createTimeISO': '2025-09-12T20:06:46.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7115888336006513670', 'uniqueId': 'emi01ly', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/509c8ea06017da9a3aa0c46d75adc24c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0f719c88&amp;x-expires=1759932000&amp;x-signature=6Zr8UHOdbMX0lhppk9%2F4Jrp3Y8c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7552117804032967432', 'createTime': 1758364456, 'createTimeISO': '2025-09-20T10:34:16.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809317671303562245', 'uniqueId': 'murillo0825', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/2f32112cd221efdde6e37da63bbb89eb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d30d09bd&amp;x-expires=1760018400&amp;x-signature=YoGWygNjXz7VkZY4HsIonhKnrho%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -25104,7 +25104,7 @@
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7551151382343566098', 'createTime': 1758139451, 'createTimeISO': '2025-09-17T20:04:11.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7439188215862559800', 'uniqueId': 'mateo11867', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/26147e46df0fc3b0ff8e4b34c7bab497~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3a73f507&amp;x-expires=1759932000&amp;x-signature=y1gL6DTVA%2BWHSwSpc4zoM6deWgY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7551151382343566098', 'createTime': 1758139451, 'createTimeISO': '2025-09-17T20:04:11.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7439188215862559800', 'uniqueId': 'mateo11867', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/26147e46df0fc3b0ff8e4b34c7bab497~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a220d2cc&amp;x-expires=1760018400&amp;x-signature=uvKH0o%2FrPgHg6Xe0TS80TFK81Tk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -25160,7 +25160,7 @@
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7551085464892588807', 'createTime': 1758124095, 'createTimeISO': '2025-09-17T15:48:15.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430200763026473990', 'uniqueId': 'daniel.mercado727', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8b491b3a631cf7b12b7238212898d79e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a64d36e5&amp;x-expires=1759932000&amp;x-signature=Dmsfin%2BFEg7zhH%2BUm%2BliSkOF1n0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7551085464892588807', 'createTime': 1758124095, 'createTimeISO': '2025-09-17T15:48:15.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430200763026473990', 'uniqueId': 'daniel.mercado727', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8b491b3a631cf7b12b7238212898d79e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8ccd0c3b&amp;x-expires=1760018400&amp;x-signature=Gzqi0fX5YldBVU%2FvrMmOL8nxzWQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -25216,7 +25216,7 @@
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550829187214328583', 'createTime': 1758064440, 'createTimeISO': '2025-09-16T23:14:00.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844523592266728453', 'uniqueId': 'alejandromontesrestrepo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/77ea5c7b3509eb546e76410674ad6696~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5efdd8d4&amp;x-expires=1759932000&amp;x-signature=S7jmmccGcwBRLo8VUQUy9d0is00%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550829187214328583', 'createTime': 1758064440, 'createTimeISO': '2025-09-16T23:14:00.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844523592266728453', 'uniqueId': 'alejandromontesrestrepo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/77ea5c7b3509eb546e76410674ad6696~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=40be4a6c&amp;x-expires=1760018400&amp;x-signature=hPzywSW6wjXBr41%2BxBFD04j%2BZfY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -25272,7 +25272,7 @@
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550758460531589909', 'createTime': 1758047960, 'createTimeISO': '2025-09-16T18:39:20.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7024338619876475909', 'uniqueId': 'tatiana_florez21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dfb9a22717c6f441dcc57aca39ebc1b2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e29b693d&amp;x-expires=1759932000&amp;x-signature=cmUzl6zmXyrmKineR4GK59%2F9PXo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550758460531589909', 'createTime': 1758047960, 'createTimeISO': '2025-09-16T18:39:20.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7024338619876475909', 'uniqueId': 'tatiana_florez21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dfb9a22717c6f441dcc57aca39ebc1b2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4d8056e9&amp;x-expires=1760018400&amp;x-signature=rL6XJrjTIjDATX0%2FsuDBiG6meVA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -25328,7 +25328,7 @@
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'input': 'https://www.tiktok.com/@alpinacol/video/7545543148685004039', 'cid': '7550484544701383442', 'createTime': 1757984192, 'createTimeISO': '2025-09-16T00:56:32.000Z', 'text': '😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7391146841637225478', 'uniqueId': 'carmenceciliaholg', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/92a4e5c5dece9e8282f8adee7955828a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7f72cdac&amp;x-expires=1759932000&amp;x-signature=gV3YkSUNAjL7K2Y